--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="508">
   <si>
     <t>名字</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>1|2|3</t>
+  </si>
+  <si>
+    <t>4|3|3</t>
   </si>
   <si>
     <t>BaseStrengthPct 40 60 80 100</t>
@@ -2755,7 +2758,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{07321B77-55C2-4D67-A466-15FE98EE00C4}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{823D8FC3-3875-44ED-9EF7-D185B2D79EA4}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -3063,10 +3066,10 @@
   <sheetPr/>
   <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D23" sqref="D23"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3296,7 +3299,7 @@
         <v>34</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" s="15" t="str">
         <f>B3</f>
@@ -3307,7 +3310,7 @@
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
@@ -3328,13 +3331,13 @@
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:32">
       <c r="A4" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -3360,8 +3363,8 @@
       <c r="K4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="16" t="s">
-        <v>34</v>
+      <c r="L4" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" ref="M4:M35" si="0">B4</f>
@@ -3372,7 +3375,7 @@
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -3393,13 +3396,13 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A5" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="15">
         <v>1</v>
@@ -3426,7 +3429,7 @@
         <v>34</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M5" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3437,7 +3440,7 @@
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
@@ -3447,13 +3450,13 @@
       <c r="V5" s="27"/>
       <c r="W5" s="12"/>
       <c r="X5" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y5" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA5" s="15"/>
       <c r="AB5" s="15"/>
@@ -3464,13 +3467,13 @@
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:32">
       <c r="A6" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -3496,8 +3499,8 @@
       <c r="K6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="16" t="s">
-        <v>34</v>
+      <c r="L6" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3516,10 +3519,10 @@
       <c r="V6" s="28"/>
       <c r="W6" s="9"/>
       <c r="X6" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -3531,13 +3534,13 @@
     </row>
     <row r="7" ht="30.5" customHeight="1" spans="1:32">
       <c r="A7" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" s="15">
         <v>1</v>
@@ -3564,7 +3567,7 @@
         <v>34</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3583,16 +3586,16 @@
       <c r="V7" s="27"/>
       <c r="W7" s="12"/>
       <c r="X7" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y7" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z7" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA7" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB7" s="15"/>
       <c r="AC7" s="15"/>
@@ -3602,13 +3605,13 @@
     </row>
     <row r="8" ht="30.5" customHeight="1" spans="1:32">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -3634,8 +3637,8 @@
       <c r="K8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="16" t="s">
-        <v>34</v>
+      <c r="L8" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3646,7 +3649,7 @@
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
@@ -3667,13 +3670,13 @@
     </row>
     <row r="9" ht="30.5" customHeight="1" spans="1:32">
       <c r="A9" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -3700,7 +3703,7 @@
         <v>34</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3711,10 +3714,10 @@
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
@@ -3734,13 +3737,13 @@
     </row>
     <row r="10" ht="30.5" customHeight="1" spans="1:32">
       <c r="A10" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -3766,8 +3769,8 @@
       <c r="K10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="16" t="s">
-        <v>34</v>
+      <c r="L10" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="M10" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3786,10 +3789,10 @@
       <c r="V10" s="28"/>
       <c r="W10" s="9"/>
       <c r="X10" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
@@ -3801,13 +3804,13 @@
     </row>
     <row r="11" ht="30.5" customHeight="1" spans="1:32">
       <c r="A11" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="15">
         <v>1</v>
@@ -3831,10 +3834,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3845,7 +3848,7 @@
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
@@ -3855,10 +3858,10 @@
       <c r="V11" s="27"/>
       <c r="W11" s="12"/>
       <c r="X11" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y11" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
@@ -3870,13 +3873,13 @@
     </row>
     <row r="12" ht="30.5" customHeight="1" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -3903,7 +3906,7 @@
         <v>34</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3914,7 +3917,7 @@
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
@@ -3935,13 +3938,13 @@
     </row>
     <row r="13" ht="30.5" customHeight="1" spans="1:32">
       <c r="A13" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" s="15">
         <v>1</v>
@@ -3968,7 +3971,7 @@
         <v>34</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M13" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3979,10 +3982,10 @@
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
@@ -4002,13 +4005,13 @@
     </row>
     <row r="14" ht="30.5" customHeight="1" spans="1:32">
       <c r="A14" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10">
         <v>1</v>
@@ -4032,10 +4035,10 @@
         <v>1</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4046,10 +4049,10 @@
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -4069,13 +4072,13 @@
     </row>
     <row r="15" ht="30.5" customHeight="1" spans="1:32">
       <c r="A15" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
@@ -4099,10 +4102,10 @@
         <v>1</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M15" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4113,7 +4116,7 @@
       </c>
       <c r="O15" s="15"/>
       <c r="P15" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
@@ -4134,13 +4137,13 @@
     </row>
     <row r="16" ht="30.5" customHeight="1" spans="1:32">
       <c r="A16" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16" s="10">
         <v>1</v>
@@ -4164,10 +4167,10 @@
         <v>1</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4178,7 +4181,7 @@
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -4199,13 +4202,13 @@
     </row>
     <row r="17" ht="30.5" customHeight="1" spans="1:32">
       <c r="A17" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D17" s="15">
         <v>1</v>
@@ -4232,7 +4235,7 @@
         <v>34</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M17" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4243,7 +4246,7 @@
       </c>
       <c r="O17" s="15"/>
       <c r="P17" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
@@ -4264,13 +4267,13 @@
     </row>
     <row r="18" ht="30.5" customHeight="1" spans="1:32">
       <c r="A18" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D18" s="10">
         <v>1</v>
@@ -4294,10 +4297,10 @@
         <v>1</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M18" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4308,7 +4311,7 @@
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -4329,13 +4332,13 @@
     </row>
     <row r="19" ht="30.5" customHeight="1" spans="1:32">
       <c r="A19" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D19" s="15">
         <v>1</v>
@@ -4359,10 +4362,10 @@
         <v>1</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M19" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4373,7 +4376,7 @@
       </c>
       <c r="O19" s="15"/>
       <c r="P19" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
@@ -4394,13 +4397,13 @@
     </row>
     <row r="20" ht="30.5" customHeight="1" spans="1:32">
       <c r="A20" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D20" s="10">
         <v>1</v>
@@ -4427,7 +4430,7 @@
         <v>34</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M20" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4438,22 +4441,22 @@
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U20" s="24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V20" s="28"/>
       <c r="W20" s="9"/>
@@ -4469,13 +4472,13 @@
     </row>
     <row r="21" ht="30.5" customHeight="1" spans="1:32">
       <c r="A21" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D21" s="15">
         <v>1</v>
@@ -4502,7 +4505,7 @@
         <v>34</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M21" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4532,13 +4535,13 @@
     </row>
     <row r="22" ht="30.5" customHeight="1" spans="1:32">
       <c r="A22" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D22" s="10">
         <v>1</v>
@@ -4565,7 +4568,7 @@
         <v>34</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M22" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4584,10 +4587,10 @@
       <c r="V22" s="28"/>
       <c r="W22" s="9"/>
       <c r="X22" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
@@ -4599,13 +4602,13 @@
     </row>
     <row r="23" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A23" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D23" s="15">
         <v>1</v>
@@ -4629,10 +4632,10 @@
         <v>1</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M23" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4651,10 +4654,10 @@
       <c r="V23" s="27"/>
       <c r="W23" s="12"/>
       <c r="X23" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y23" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z23" s="15"/>
       <c r="AA23" s="15"/>
@@ -4666,13 +4669,13 @@
     </row>
     <row r="24" ht="30.5" customHeight="1" spans="1:32">
       <c r="A24" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D24" s="10">
         <v>1</v>
@@ -4696,10 +4699,10 @@
         <v>1</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M24" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4718,10 +4721,10 @@
       <c r="V24" s="28"/>
       <c r="W24" s="9"/>
       <c r="X24" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y24" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
@@ -4733,13 +4736,13 @@
     </row>
     <row r="25" ht="30.5" customHeight="1" spans="1:32">
       <c r="A25" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D25" s="15">
         <v>1</v>
@@ -4766,7 +4769,7 @@
         <v>34</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M25" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4785,13 +4788,13 @@
       <c r="V25" s="27"/>
       <c r="W25" s="12"/>
       <c r="X25" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y25" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z25" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA25" s="15"/>
       <c r="AB25" s="15"/>
@@ -4802,13 +4805,13 @@
     </row>
     <row r="26" ht="30.5" customHeight="1" spans="1:32">
       <c r="A26" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D26" s="10">
         <v>1</v>
@@ -4834,8 +4837,8 @@
       <c r="K26" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L26" s="16" t="s">
-        <v>34</v>
+      <c r="L26" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="M26" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4854,16 +4857,16 @@
       <c r="V26" s="28"/>
       <c r="W26" s="9"/>
       <c r="X26" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA26" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
@@ -4873,13 +4876,13 @@
     </row>
     <row r="27" ht="30.5" customHeight="1" spans="1:32">
       <c r="A27" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D27" s="15">
         <v>1</v>
@@ -4906,7 +4909,7 @@
         <v>34</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4917,10 +4920,10 @@
       </c>
       <c r="O27" s="15"/>
       <c r="P27" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
@@ -4940,13 +4943,13 @@
     </row>
     <row r="28" ht="30.5" customHeight="1" spans="1:32">
       <c r="A28" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D28" s="10">
         <v>0</v>
@@ -4970,10 +4973,10 @@
         <v>1</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M28" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4984,10 +4987,10 @@
       </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
@@ -5007,13 +5010,13 @@
     </row>
     <row r="29" ht="30.5" customHeight="1" spans="1:32">
       <c r="A29" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D29" s="15">
         <v>0</v>
@@ -5037,10 +5040,10 @@
         <v>1</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M29" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5059,16 +5062,16 @@
       <c r="V29" s="27"/>
       <c r="W29" s="12"/>
       <c r="X29" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y29" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z29" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA29" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB29" s="15"/>
       <c r="AC29" s="15"/>
@@ -5078,13 +5081,13 @@
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:32">
       <c r="A30" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D30" s="10">
         <v>0</v>
@@ -5108,10 +5111,10 @@
         <v>1</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M30" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5122,7 +5125,7 @@
       </c>
       <c r="O30" s="10"/>
       <c r="P30" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
@@ -5143,13 +5146,13 @@
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:32">
       <c r="A31" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D31" s="15">
         <v>0</v>
@@ -5173,10 +5176,10 @@
         <v>1</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M31" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5195,7 +5198,7 @@
       <c r="V31" s="27"/>
       <c r="W31" s="12"/>
       <c r="X31" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
@@ -5208,13 +5211,13 @@
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:32">
       <c r="A32" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D32" s="10">
         <v>0</v>
@@ -5238,10 +5241,10 @@
         <v>1</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M32" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5260,16 +5263,16 @@
       <c r="V32" s="28"/>
       <c r="W32" s="9"/>
       <c r="X32" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA32" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
@@ -5279,13 +5282,13 @@
     </row>
     <row r="33" ht="30.5" customHeight="1" spans="1:32">
       <c r="A33" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D33" s="15">
         <v>0</v>
@@ -5309,10 +5312,10 @@
         <v>1</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M33" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5323,7 +5326,7 @@
       </c>
       <c r="O33" s="15"/>
       <c r="P33" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
@@ -5333,10 +5336,10 @@
       <c r="V33" s="27"/>
       <c r="W33" s="12"/>
       <c r="X33" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y33" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z33" s="15"/>
       <c r="AA33" s="15"/>
@@ -5348,13 +5351,13 @@
     </row>
     <row r="34" ht="30.5" customHeight="1" spans="1:32">
       <c r="A34" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D34" s="10">
         <v>0</v>
@@ -5378,10 +5381,10 @@
         <v>1</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M34" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5392,7 +5395,7 @@
       </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
@@ -5413,13 +5416,13 @@
     </row>
     <row r="35" ht="30.5" customHeight="1" spans="1:32">
       <c r="A35" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D35" s="15">
         <v>0</v>
@@ -5443,10 +5446,10 @@
         <v>1</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M35" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5465,19 +5468,19 @@
       <c r="V35" s="27"/>
       <c r="W35" s="12"/>
       <c r="X35" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y35" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z35" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA35" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB35" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
@@ -5486,13 +5489,13 @@
     </row>
     <row r="36" ht="30.5" customHeight="1" spans="1:32">
       <c r="A36" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D36" s="10">
         <v>0</v>
@@ -5516,10 +5519,10 @@
         <v>1</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M36" s="15" t="str">
         <f t="shared" ref="M36:M67" si="1">B36</f>
@@ -5538,10 +5541,10 @@
       <c r="V36" s="28"/>
       <c r="W36" s="9"/>
       <c r="X36" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
@@ -5553,13 +5556,13 @@
     </row>
     <row r="37" ht="30.5" customHeight="1" spans="1:32">
       <c r="A37" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D37" s="15">
         <v>0</v>
@@ -5583,10 +5586,10 @@
         <v>1</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M37" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5597,7 +5600,7 @@
       </c>
       <c r="O37" s="15"/>
       <c r="P37" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
@@ -5607,13 +5610,13 @@
       <c r="V37" s="27"/>
       <c r="W37" s="29"/>
       <c r="X37" s="30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y37" s="30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z37" s="30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA37" s="30"/>
       <c r="AB37" s="30"/>
@@ -5624,13 +5627,13 @@
     </row>
     <row r="38" ht="31.25" customHeight="1" spans="1:32">
       <c r="A38" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D38" s="10">
         <v>0</v>
@@ -5654,10 +5657,10 @@
         <v>1</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M38" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5668,7 +5671,7 @@
       </c>
       <c r="O38" s="10"/>
       <c r="P38" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
@@ -5689,13 +5692,13 @@
     </row>
     <row r="39" ht="30.5" customHeight="1" spans="1:32">
       <c r="A39" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D39" s="15">
         <v>0</v>
@@ -5719,10 +5722,10 @@
         <v>1</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M39" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5741,13 +5744,13 @@
       <c r="V39" s="27"/>
       <c r="W39" s="32"/>
       <c r="X39" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA39" s="24"/>
       <c r="AB39" s="36"/>
@@ -5758,13 +5761,13 @@
     </row>
     <row r="40" ht="30.5" customHeight="1" spans="1:32">
       <c r="A40" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D40" s="10">
         <v>0</v>
@@ -5788,10 +5791,10 @@
         <v>1</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M40" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5810,10 +5813,10 @@
       <c r="V40" s="28"/>
       <c r="W40" s="32"/>
       <c r="X40" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y40" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z40" s="15"/>
       <c r="AA40" s="26"/>
@@ -5825,13 +5828,13 @@
     </row>
     <row r="41" ht="30.5" customHeight="1" spans="1:32">
       <c r="A41" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D41" s="15">
         <v>0</v>
@@ -5855,10 +5858,10 @@
         <v>1</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M41" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5869,7 +5872,7 @@
       </c>
       <c r="O41" s="15"/>
       <c r="P41" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
@@ -5879,7 +5882,7 @@
       <c r="V41" s="27"/>
       <c r="W41" s="33"/>
       <c r="X41" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
@@ -5892,13 +5895,13 @@
     </row>
     <row r="42" ht="30.5" customHeight="1" spans="1:32">
       <c r="A42" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D42" s="10">
         <v>0</v>
@@ -5922,10 +5925,10 @@
         <v>1</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M42" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5936,7 +5939,7 @@
       </c>
       <c r="O42" s="10"/>
       <c r="P42" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
@@ -5957,13 +5960,13 @@
     </row>
     <row r="43" ht="30.5" customHeight="1" spans="1:32">
       <c r="A43" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D43" s="15">
         <v>0</v>
@@ -5987,10 +5990,10 @@
         <v>1</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M43" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6009,16 +6012,16 @@
       <c r="V43" s="27"/>
       <c r="W43" s="32"/>
       <c r="X43" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y43" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA43" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AB43" s="36"/>
       <c r="AC43" s="37"/>
@@ -6028,13 +6031,13 @@
     </row>
     <row r="44" ht="30.5" customHeight="1" spans="1:32">
       <c r="A44" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D44" s="10">
         <v>0</v>
@@ -6058,10 +6061,10 @@
         <v>1</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M44" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6080,13 +6083,13 @@
       <c r="V44" s="28"/>
       <c r="W44" s="32"/>
       <c r="X44" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Y44" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z44" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA44" s="26"/>
       <c r="AB44" s="36"/>
@@ -6097,13 +6100,13 @@
     </row>
     <row r="45" ht="30.5" customHeight="1" spans="1:32">
       <c r="A45" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D45" s="15">
         <v>0</v>
@@ -6127,10 +6130,10 @@
         <v>1</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M45" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6141,7 +6144,7 @@
       </c>
       <c r="O45" s="15"/>
       <c r="P45" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
@@ -6151,13 +6154,13 @@
       <c r="V45" s="27"/>
       <c r="W45" s="32"/>
       <c r="X45" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y45" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA45" s="24"/>
       <c r="AB45" s="36"/>
@@ -6168,13 +6171,13 @@
     </row>
     <row r="46" ht="30.5" customHeight="1" spans="1:32">
       <c r="A46" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D46" s="10">
         <v>0</v>
@@ -6198,10 +6201,10 @@
         <v>1</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M46" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6220,13 +6223,13 @@
       <c r="V46" s="28"/>
       <c r="W46" s="32"/>
       <c r="X46" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y46" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z46" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA46" s="26"/>
       <c r="AB46" s="36"/>
@@ -6237,13 +6240,13 @@
     </row>
     <row r="47" ht="30.5" customHeight="1" spans="1:32">
       <c r="A47" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D47" s="15">
         <v>0</v>
@@ -6267,10 +6270,10 @@
         <v>1</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M47" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6289,13 +6292,13 @@
       <c r="V47" s="27"/>
       <c r="W47" s="32"/>
       <c r="X47" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y47" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z47" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA47" s="24"/>
       <c r="AB47" s="36"/>
@@ -6306,13 +6309,13 @@
     </row>
     <row r="48" ht="30.5" customHeight="1" spans="1:32">
       <c r="A48" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D48" s="10">
         <v>0</v>
@@ -6336,10 +6339,10 @@
         <v>1</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M48" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6358,13 +6361,13 @@
       <c r="V48" s="28"/>
       <c r="W48" s="32"/>
       <c r="X48" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y48" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z48" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA48" s="26"/>
       <c r="AB48" s="36"/>
@@ -6375,13 +6378,13 @@
     </row>
     <row r="49" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A49" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D49" s="15">
         <v>0</v>
@@ -6405,10 +6408,10 @@
         <v>1</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M49" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6438,13 +6441,13 @@
     </row>
     <row r="50" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A50" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D50" s="10">
         <v>0</v>
@@ -6468,10 +6471,10 @@
         <v>1</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M50" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6490,7 +6493,7 @@
       <c r="V50" s="28"/>
       <c r="W50" s="32"/>
       <c r="X50" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
@@ -6503,13 +6506,13 @@
     </row>
     <row r="51" ht="30.5" customHeight="1" spans="1:32">
       <c r="A51" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D51" s="15">
         <v>1</v>
@@ -6533,10 +6536,10 @@
         <v>1</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M51" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6547,10 +6550,10 @@
       </c>
       <c r="O51" s="15"/>
       <c r="P51" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q51" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R51" s="15"/>
       <c r="S51" s="15"/>
@@ -6570,13 +6573,13 @@
     </row>
     <row r="52" ht="30.5" customHeight="1" spans="1:32">
       <c r="A52" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D52" s="10">
         <v>1</v>
@@ -6600,10 +6603,10 @@
         <v>1</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M52" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6614,10 +6617,10 @@
       </c>
       <c r="O52" s="10"/>
       <c r="P52" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
@@ -6637,13 +6640,13 @@
     </row>
     <row r="53" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A53" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D53" s="15">
         <v>0</v>
@@ -6667,10 +6670,10 @@
         <v>1</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M53" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6681,16 +6684,16 @@
       </c>
       <c r="O53" s="15"/>
       <c r="P53" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q53" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R53" s="15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="S53" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="T53" s="15"/>
       <c r="U53" s="26"/>
@@ -6708,13 +6711,13 @@
     </row>
     <row r="54" ht="30.5" customHeight="1" spans="1:32">
       <c r="A54" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D54" s="10">
         <v>0</v>
@@ -6738,10 +6741,10 @@
         <v>1</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M54" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6752,13 +6755,13 @@
       </c>
       <c r="O54" s="10"/>
       <c r="P54" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
@@ -6777,13 +6780,13 @@
     </row>
     <row r="55" ht="30.5" customHeight="1" spans="1:32">
       <c r="A55" s="12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D55" s="15">
         <v>0</v>
@@ -6807,10 +6810,10 @@
         <v>1</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M55" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6821,13 +6824,13 @@
       </c>
       <c r="O55" s="15"/>
       <c r="P55" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q55" s="15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R55" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S55" s="15"/>
       <c r="T55" s="15"/>
@@ -6846,13 +6849,13 @@
     </row>
     <row r="56" ht="30.5" customHeight="1" spans="1:32">
       <c r="A56" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D56" s="10">
         <v>0</v>
@@ -6876,10 +6879,10 @@
         <v>1</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M56" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6890,13 +6893,13 @@
       </c>
       <c r="O56" s="10"/>
       <c r="P56" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R56" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
@@ -6915,13 +6918,13 @@
     </row>
     <row r="57" ht="30.5" customHeight="1" spans="1:32">
       <c r="A57" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D57" s="15">
         <v>1</v>
@@ -6945,10 +6948,10 @@
         <v>1</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M57" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6959,7 +6962,7 @@
       </c>
       <c r="O57" s="15"/>
       <c r="P57" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q57" s="15"/>
       <c r="R57" s="15"/>
@@ -6980,13 +6983,13 @@
     </row>
     <row r="58" ht="30.5" customHeight="1" spans="1:32">
       <c r="A58" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D58" s="10">
         <v>0</v>
@@ -7010,10 +7013,10 @@
         <v>1</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M58" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7024,10 +7027,10 @@
       </c>
       <c r="O58" s="10"/>
       <c r="P58" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
@@ -7047,13 +7050,13 @@
     </row>
     <row r="59" ht="30.5" customHeight="1" spans="1:32">
       <c r="A59" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D59" s="15">
         <v>1</v>
@@ -7077,10 +7080,10 @@
         <v>1</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M59" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7091,10 +7094,10 @@
       </c>
       <c r="O59" s="15"/>
       <c r="P59" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q59" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R59" s="15"/>
       <c r="S59" s="15"/>
@@ -7114,13 +7117,13 @@
     </row>
     <row r="60" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A60" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D60" s="10">
         <v>1</v>
@@ -7144,10 +7147,10 @@
         <v>1</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M60" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7158,10 +7161,10 @@
       </c>
       <c r="O60" s="10"/>
       <c r="P60" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
@@ -7181,13 +7184,13 @@
     </row>
     <row r="61" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A61" s="12" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D61" s="15">
         <v>0</v>
@@ -7211,10 +7214,10 @@
         <v>1</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M61" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7233,7 +7236,7 @@
       <c r="V61" s="27"/>
       <c r="W61" s="32"/>
       <c r="X61" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Y61" s="10"/>
       <c r="Z61" s="10"/>
@@ -7246,13 +7249,13 @@
     </row>
     <row r="62" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A62" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D62" s="10">
         <v>0</v>
@@ -7276,10 +7279,10 @@
         <v>1</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M62" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7298,10 +7301,10 @@
       <c r="V62" s="28"/>
       <c r="W62" s="32"/>
       <c r="X62" s="12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y62" s="15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z62" s="15"/>
       <c r="AA62" s="26"/>
@@ -7313,13 +7316,13 @@
     </row>
     <row r="63" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A63" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D63" s="15">
         <v>0</v>
@@ -7343,10 +7346,10 @@
         <v>1</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M63" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7357,7 +7360,7 @@
       </c>
       <c r="O63" s="15"/>
       <c r="P63" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q63" s="15"/>
       <c r="R63" s="15"/>
@@ -7378,13 +7381,13 @@
     </row>
     <row r="64" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A64" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D64" s="10">
         <v>0</v>
@@ -7408,10 +7411,10 @@
         <v>1</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M64" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7430,10 +7433,10 @@
       <c r="V64" s="28"/>
       <c r="W64" s="32"/>
       <c r="X64" s="12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y64" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z64" s="15"/>
       <c r="AA64" s="26"/>
@@ -7445,13 +7448,13 @@
     </row>
     <row r="65" ht="30.5" customHeight="1" spans="1:32">
       <c r="A65" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D65" s="15">
         <v>0</v>
@@ -7475,10 +7478,10 @@
         <v>1</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M65" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7489,7 +7492,7 @@
       </c>
       <c r="O65" s="15"/>
       <c r="P65" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q65" s="15"/>
       <c r="R65" s="15"/>
@@ -7510,13 +7513,13 @@
     </row>
     <row r="66" ht="30.5" customHeight="1" spans="1:32">
       <c r="A66" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D66" s="10">
         <v>0</v>
@@ -7540,10 +7543,10 @@
         <v>1</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M66" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7554,7 +7557,7 @@
       </c>
       <c r="O66" s="10"/>
       <c r="P66" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q66" s="10"/>
       <c r="R66" s="10"/>
@@ -7575,13 +7578,13 @@
     </row>
     <row r="67" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A67" s="12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D67" s="15">
         <v>1</v>
@@ -7605,10 +7608,10 @@
         <v>1</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M67" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7619,7 +7622,7 @@
       </c>
       <c r="O67" s="15"/>
       <c r="P67" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q67" s="15"/>
       <c r="R67" s="15"/>
@@ -7629,7 +7632,7 @@
       <c r="V67" s="27"/>
       <c r="W67" s="32"/>
       <c r="X67" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y67" s="10"/>
       <c r="Z67" s="10"/>
@@ -7642,13 +7645,13 @@
     </row>
     <row r="68" ht="30.5" customHeight="1" spans="1:32">
       <c r="A68" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D68" s="10">
         <v>0</v>
@@ -7672,13 +7675,13 @@
         <v>1</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M68" s="15" t="str">
-        <f t="shared" ref="M68:M99" si="2">B68</f>
+        <f t="shared" ref="M68:M101" si="2">B68</f>
         <v>专属英雄41</v>
       </c>
       <c r="N68" s="10">
@@ -7686,7 +7689,7 @@
       </c>
       <c r="O68" s="10"/>
       <c r="P68" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
@@ -7707,13 +7710,13 @@
     </row>
     <row r="69" ht="30.5" customHeight="1" spans="1:32">
       <c r="A69" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D69" s="15">
         <v>0</v>
@@ -7737,10 +7740,10 @@
         <v>1</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M69" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7751,7 +7754,7 @@
       </c>
       <c r="O69" s="15"/>
       <c r="P69" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q69" s="15"/>
       <c r="R69" s="15"/>
@@ -7772,13 +7775,13 @@
     </row>
     <row r="70" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A70" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D70" s="10">
         <v>1</v>
@@ -7802,10 +7805,10 @@
         <v>1</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M70" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7816,10 +7819,10 @@
       </c>
       <c r="O70" s="10"/>
       <c r="P70" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q70" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R70" s="10"/>
       <c r="S70" s="10"/>
@@ -7839,13 +7842,13 @@
     </row>
     <row r="71" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A71" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D71" s="15">
         <v>0</v>
@@ -7869,10 +7872,10 @@
         <v>1</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M71" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7883,7 +7886,7 @@
       </c>
       <c r="O71" s="15"/>
       <c r="P71" s="15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q71" s="15"/>
       <c r="R71" s="15"/>
@@ -7904,13 +7907,13 @@
     </row>
     <row r="72" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A72" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D72" s="10">
         <v>0</v>
@@ -7934,10 +7937,10 @@
         <v>1</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M72" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7956,10 +7959,10 @@
       <c r="V72" s="28"/>
       <c r="W72" s="32"/>
       <c r="X72" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Y72" s="15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z72" s="15"/>
       <c r="AA72" s="26"/>
@@ -7971,13 +7974,13 @@
     </row>
     <row r="73" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A73" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D73" s="15">
         <v>0</v>
@@ -8001,10 +8004,10 @@
         <v>1</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L73" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M73" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8015,16 +8018,16 @@
       </c>
       <c r="O73" s="15"/>
       <c r="P73" s="15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q73" s="15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="R73" s="15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S73" s="15" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="T73" s="15"/>
       <c r="U73" s="26"/>
@@ -8042,13 +8045,13 @@
     </row>
     <row r="74" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A74" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D74" s="10">
         <v>0</v>
@@ -8072,10 +8075,10 @@
         <v>1</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M74" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8094,10 +8097,10 @@
       <c r="V74" s="28"/>
       <c r="W74" s="33"/>
       <c r="X74" s="29" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y74" s="30" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z74" s="30"/>
       <c r="AA74" s="41"/>
@@ -8109,13 +8112,13 @@
     </row>
     <row r="75" s="2" customFormat="1" ht="31.25" customHeight="1" spans="1:32">
       <c r="A75" s="12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D75" s="15">
         <v>0</v>
@@ -8139,10 +8142,10 @@
         <v>1</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L75" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M75" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8172,13 +8175,13 @@
     </row>
     <row r="76" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A76" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D76" s="10">
         <v>0</v>
@@ -8202,10 +8205,10 @@
         <v>1</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M76" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8224,10 +8227,10 @@
       <c r="V76" s="28"/>
       <c r="W76" s="32"/>
       <c r="X76" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Y76" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z76" s="10"/>
       <c r="AA76" s="10"/>
@@ -8239,13 +8242,13 @@
     </row>
     <row r="77" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A77" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D77" s="15">
         <v>0</v>
@@ -8269,10 +8272,10 @@
         <v>1</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M77" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8302,13 +8305,13 @@
     </row>
     <row r="78" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A78" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D78" s="10">
         <v>0</v>
@@ -8332,10 +8335,10 @@
         <v>1</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M78" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8365,13 +8368,13 @@
     </row>
     <row r="79" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A79" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D79" s="15">
         <v>0</v>
@@ -8395,10 +8398,10 @@
         <v>1</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M79" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8417,10 +8420,10 @@
       <c r="V79" s="27"/>
       <c r="W79" s="32"/>
       <c r="X79" s="12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Y79" s="15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z79" s="15"/>
       <c r="AA79" s="15"/>
@@ -8432,13 +8435,13 @@
     </row>
     <row r="80" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A80" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D80" s="10">
         <v>0</v>
@@ -8462,10 +8465,10 @@
         <v>1</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M80" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8484,13 +8487,13 @@
       <c r="V80" s="28"/>
       <c r="W80" s="32"/>
       <c r="X80" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y80" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z80" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA80" s="10"/>
       <c r="AB80" s="10"/>
@@ -8501,13 +8504,13 @@
     </row>
     <row r="81" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A81" s="12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D81" s="15">
         <v>0</v>
@@ -8531,10 +8534,10 @@
         <v>1</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M81" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8553,7 +8556,7 @@
       <c r="V81" s="27"/>
       <c r="W81" s="32"/>
       <c r="X81" s="12" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
@@ -8566,13 +8569,13 @@
     </row>
     <row r="82" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A82" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D82" s="10">
         <v>0</v>
@@ -8596,10 +8599,10 @@
         <v>1</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M82" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8618,10 +8621,10 @@
       <c r="V82" s="28"/>
       <c r="W82" s="32"/>
       <c r="X82" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y82" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z82" s="10"/>
       <c r="AA82" s="10"/>
@@ -8633,13 +8636,13 @@
     </row>
     <row r="83" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A83" s="12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D83" s="15">
         <v>0</v>
@@ -8663,10 +8666,10 @@
         <v>1</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L83" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M83" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8685,16 +8688,16 @@
       <c r="V83" s="27"/>
       <c r="W83" s="32"/>
       <c r="X83" s="12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Y83" s="15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z83" s="15" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA83" s="15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="26"/>
@@ -8704,13 +8707,13 @@
     </row>
     <row r="84" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A84" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D84" s="10">
         <v>0</v>
@@ -8734,10 +8737,10 @@
         <v>1</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M84" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8756,10 +8759,10 @@
       <c r="V84" s="28"/>
       <c r="W84" s="32"/>
       <c r="X84" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y84" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z84" s="10"/>
       <c r="AA84" s="10"/>
@@ -8771,13 +8774,13 @@
     </row>
     <row r="85" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A85" s="12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D85" s="15">
         <v>0</v>
@@ -8801,10 +8804,10 @@
         <v>1</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M85" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8823,16 +8826,16 @@
       <c r="V85" s="27"/>
       <c r="W85" s="32"/>
       <c r="X85" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y85" s="15" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z85" s="15" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AA85" s="15" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="26"/>
@@ -8842,13 +8845,13 @@
     </row>
     <row r="86" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A86" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D86" s="10">
         <v>0</v>
@@ -8872,10 +8875,10 @@
         <v>1</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M86" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8894,19 +8897,19 @@
       <c r="V86" s="28"/>
       <c r="W86" s="32"/>
       <c r="X86" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y86" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z86" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA86" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AB86" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AC86" s="24"/>
       <c r="AD86" s="36"/>
@@ -8915,13 +8918,13 @@
     </row>
     <row r="87" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A87" s="12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D87" s="15">
         <v>0</v>
@@ -8945,10 +8948,10 @@
         <v>1</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M87" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8967,13 +8970,13 @@
       <c r="V87" s="27"/>
       <c r="W87" s="32"/>
       <c r="X87" s="12" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y87" s="15" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z87" s="15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA87" s="15"/>
       <c r="AB87" s="15"/>
@@ -8984,13 +8987,13 @@
     </row>
     <row r="88" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A88" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D88" s="10">
         <v>0</v>
@@ -9014,10 +9017,10 @@
         <v>1</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M88" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9036,7 +9039,7 @@
       <c r="V88" s="28"/>
       <c r="W88" s="32"/>
       <c r="X88" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Y88" s="10"/>
       <c r="Z88" s="10"/>
@@ -9049,13 +9052,13 @@
     </row>
     <row r="89" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A89" s="12" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D89" s="15">
         <v>1</v>
@@ -9079,10 +9082,10 @@
         <v>1</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M89" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9101,16 +9104,16 @@
       <c r="V89" s="27"/>
       <c r="W89" s="32"/>
       <c r="X89" s="12" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y89" s="15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z89" s="15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA89" s="15" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AB89" s="15"/>
       <c r="AC89" s="26"/>
@@ -9120,13 +9123,13 @@
     </row>
     <row r="90" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A90" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D90" s="10">
         <v>0</v>
@@ -9150,10 +9153,10 @@
         <v>1</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M90" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9172,13 +9175,13 @@
       <c r="V90" s="28"/>
       <c r="W90" s="32"/>
       <c r="X90" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Y90" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Z90" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AA90" s="10"/>
       <c r="AB90" s="10"/>
@@ -9189,13 +9192,13 @@
     </row>
     <row r="91" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A91" s="12" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D91" s="15">
         <v>0</v>
@@ -9219,10 +9222,10 @@
         <v>1</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M91" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9241,7 +9244,7 @@
       <c r="V91" s="27"/>
       <c r="W91" s="32"/>
       <c r="X91" s="12" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
@@ -9254,13 +9257,13 @@
     </row>
     <row r="92" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A92" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D92" s="10">
         <v>0</v>
@@ -9284,10 +9287,10 @@
         <v>1</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M92" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9306,7 +9309,7 @@
       <c r="V92" s="28"/>
       <c r="W92" s="32"/>
       <c r="X92" s="9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Y92" s="10"/>
       <c r="Z92" s="10"/>
@@ -9319,13 +9322,13 @@
     </row>
     <row r="93" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A93" s="12" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D93" s="15">
         <v>0</v>
@@ -9349,10 +9352,10 @@
         <v>1</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L93" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M93" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9371,7 +9374,7 @@
       <c r="V93" s="27"/>
       <c r="W93" s="32"/>
       <c r="X93" s="12" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
@@ -9384,13 +9387,13 @@
     </row>
     <row r="94" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A94" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D94" s="10">
         <v>0</v>
@@ -9414,10 +9417,10 @@
         <v>1</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M94" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9436,7 +9439,7 @@
       <c r="V94" s="28"/>
       <c r="W94" s="33"/>
       <c r="X94" s="9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Y94" s="10"/>
       <c r="Z94" s="10"/>
@@ -9449,13 +9452,13 @@
     </row>
     <row r="95" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A95" s="12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D95" s="15">
         <v>0</v>
@@ -9479,10 +9482,10 @@
         <v>1</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L95" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M95" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9512,13 +9515,13 @@
     </row>
     <row r="96" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A96" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D96" s="10">
         <v>0</v>
@@ -9542,10 +9545,10 @@
         <v>1</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M96" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9564,7 +9567,7 @@
       <c r="V96" s="28"/>
       <c r="W96" s="32"/>
       <c r="X96" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y96" s="10"/>
       <c r="Z96" s="10"/>
@@ -9577,13 +9580,13 @@
     </row>
     <row r="97" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A97" s="12" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D97" s="15">
         <v>0</v>
@@ -9607,10 +9610,10 @@
         <v>1</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L97" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M97" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9629,7 +9632,7 @@
       <c r="V97" s="27"/>
       <c r="W97" s="32"/>
       <c r="X97" s="12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
@@ -9642,13 +9645,13 @@
     </row>
     <row r="98" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A98" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D98" s="10">
         <v>1</v>
@@ -9672,10 +9675,10 @@
         <v>1</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L98" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M98" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9705,13 +9708,13 @@
     </row>
     <row r="99" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A99" s="12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D99" s="15">
         <v>0</v>
@@ -9735,10 +9738,10 @@
         <v>1</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M99" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9757,10 +9760,10 @@
       <c r="V99" s="27"/>
       <c r="W99" s="32"/>
       <c r="X99" s="12" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Y99" s="15" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z99" s="15"/>
       <c r="AA99" s="15"/>
@@ -9772,13 +9775,13 @@
     </row>
     <row r="100" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A100" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D100" s="10">
         <v>0</v>
@@ -9802,13 +9805,13 @@
         <v>1</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M100" s="15" t="str">
-        <f>B100</f>
+        <f t="shared" si="2"/>
         <v>专属英雄73</v>
       </c>
       <c r="N100" s="10">
@@ -9835,13 +9838,13 @@
     </row>
     <row r="101" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A101" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C101" s="18" t="s">
         <v>504</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>503</v>
       </c>
       <c r="D101" s="15">
         <v>0</v>
@@ -9865,13 +9868,13 @@
         <v>1</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L101" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M101" s="15" t="str">
-        <f>B101</f>
+        <f t="shared" si="2"/>
         <v>专属英雄74</v>
       </c>
       <c r="N101" s="15">
@@ -9887,7 +9890,7 @@
       <c r="V101" s="27"/>
       <c r="W101" s="32"/>
       <c r="X101" s="12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Y101" s="15"/>
       <c r="Z101" s="15"/>
@@ -10008,7 +10011,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L5">
+  <conditionalFormatting sqref="L3:L10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10056,7 +10059,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L10 L20:L27 L12">
+  <conditionalFormatting sqref="L20:L27 L12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="rune_config" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rune_config!$A$1:$AF$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rune_config!$A$1:$AF$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="505">
   <si>
     <t>名字</t>
   </si>
@@ -1549,15 +1549,6 @@
   </si>
   <si>
     <t>使用钩爪之后3秒内造成伤害翻倍</t>
-  </si>
-  <si>
-    <t>rune_null_99</t>
-  </si>
-  <si>
-    <t>专属英雄74</t>
-  </si>
-  <si>
-    <t>count 1 2</t>
   </si>
 </sst>
 </file>
@@ -2758,7 +2749,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{823D8FC3-3875-44ED-9EF7-D185B2D79EA4}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9257572E-F266-470D-AA21-4B8375C548D2}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -3064,12 +3055,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF101"/>
+  <dimension ref="A1:AF100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9836,73 +9827,8 @@
       <c r="AE100" s="37"/>
       <c r="AF100" s="37"/>
     </row>
-    <row r="101" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
-      <c r="A101" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="D101" s="15">
-        <v>0</v>
-      </c>
-      <c r="E101" s="15">
-        <v>0</v>
-      </c>
-      <c r="F101" s="15">
-        <v>101</v>
-      </c>
-      <c r="G101" s="10">
-        <v>100</v>
-      </c>
-      <c r="H101" s="15">
-        <v>1</v>
-      </c>
-      <c r="I101" s="15">
-        <v>1</v>
-      </c>
-      <c r="J101" s="15">
-        <v>1</v>
-      </c>
-      <c r="K101" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L101" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="M101" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>专属英雄74</v>
-      </c>
-      <c r="N101" s="15">
-        <v>0</v>
-      </c>
-      <c r="O101" s="15"/>
-      <c r="P101" s="15"/>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="15"/>
-      <c r="S101" s="15"/>
-      <c r="T101" s="15"/>
-      <c r="U101" s="26"/>
-      <c r="V101" s="27"/>
-      <c r="W101" s="32"/>
-      <c r="X101" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="Y101" s="15"/>
-      <c r="Z101" s="15"/>
-      <c r="AA101" s="15"/>
-      <c r="AB101" s="15"/>
-      <c r="AC101" s="26"/>
-      <c r="AD101" s="36"/>
-      <c r="AE101" s="37"/>
-      <c r="AF101" s="37"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AF101">
+  <autoFilter ref="A1:AF100">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="K11">
@@ -10035,7 +9961,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:L2 K102:L1048576">
+  <conditionalFormatting sqref="K1:L2 K101:L1048576">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -10047,7 +9973,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K10 K20:K27 K28:L101 K12">
+  <conditionalFormatting sqref="K6:K10 K20:K27 K28:L100 K12">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="rune_config" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="507">
   <si>
     <t>名字</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>#Loccustom_{}</t>
+  </si>
+  <si>
+    <t>#Loccustom_{}_Description</t>
   </si>
   <si>
     <t>is_public</t>
@@ -2749,7 +2755,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9257572E-F266-470D-AA21-4B8375C548D2}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{928E2AF3-CE47-4D7F-9081-E2E98D7DF02A}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -3057,10 +3063,10 @@
   <sheetPr/>
   <dimension ref="A1:AF100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C23" sqref="C23"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3165,43 +3171,47 @@
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="D2" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P2" s="21">
         <v>1</v>
@@ -3222,10 +3232,10 @@
         <v>6</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X2" s="21">
         <v>1</v>
@@ -3252,18 +3262,18 @@
         <v>8</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="30.5" customHeight="1" spans="1:32">
       <c r="A3" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="15">
         <v>1</v>
@@ -3287,10 +3297,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M3" s="15" t="str">
         <f>B3</f>
@@ -3301,7 +3311,7 @@
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
@@ -3322,13 +3332,13 @@
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:32">
       <c r="A4" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -3352,10 +3362,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" ref="M4:M35" si="0">B4</f>
@@ -3366,7 +3376,7 @@
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -3387,13 +3397,13 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A5" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="15">
         <v>1</v>
@@ -3417,10 +3427,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M5" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3431,7 +3441,7 @@
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
@@ -3441,13 +3451,13 @@
       <c r="V5" s="27"/>
       <c r="W5" s="12"/>
       <c r="X5" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Y5" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AA5" s="15"/>
       <c r="AB5" s="15"/>
@@ -3458,13 +3468,13 @@
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:32">
       <c r="A6" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -3488,10 +3498,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3510,10 +3520,10 @@
       <c r="V6" s="28"/>
       <c r="W6" s="9"/>
       <c r="X6" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -3525,13 +3535,13 @@
     </row>
     <row r="7" ht="30.5" customHeight="1" spans="1:32">
       <c r="A7" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="15">
         <v>1</v>
@@ -3555,10 +3565,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3577,16 +3587,16 @@
       <c r="V7" s="27"/>
       <c r="W7" s="12"/>
       <c r="X7" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y7" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z7" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA7" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AB7" s="15"/>
       <c r="AC7" s="15"/>
@@ -3596,13 +3606,13 @@
     </row>
     <row r="8" ht="30.5" customHeight="1" spans="1:32">
       <c r="A8" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -3626,10 +3636,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3640,7 +3650,7 @@
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
@@ -3661,13 +3671,13 @@
     </row>
     <row r="9" ht="30.5" customHeight="1" spans="1:32">
       <c r="A9" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -3691,10 +3701,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M9" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3705,10 +3715,10 @@
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
@@ -3728,13 +3738,13 @@
     </row>
     <row r="10" ht="30.5" customHeight="1" spans="1:32">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -3758,10 +3768,10 @@
         <v>1</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M10" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3780,10 +3790,10 @@
       <c r="V10" s="28"/>
       <c r="W10" s="9"/>
       <c r="X10" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
@@ -3795,13 +3805,13 @@
     </row>
     <row r="11" ht="30.5" customHeight="1" spans="1:32">
       <c r="A11" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11" s="15">
         <v>1</v>
@@ -3825,10 +3835,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M11" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3839,7 +3849,7 @@
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
@@ -3849,10 +3859,10 @@
       <c r="V11" s="27"/>
       <c r="W11" s="12"/>
       <c r="X11" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y11" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
@@ -3864,13 +3874,13 @@
     </row>
     <row r="12" ht="30.5" customHeight="1" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -3894,10 +3904,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3908,7 +3918,7 @@
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
@@ -3929,13 +3939,13 @@
     </row>
     <row r="13" ht="30.5" customHeight="1" spans="1:32">
       <c r="A13" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D13" s="15">
         <v>1</v>
@@ -3959,10 +3969,10 @@
         <v>1</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M13" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3973,10 +3983,10 @@
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
@@ -3996,13 +4006,13 @@
     </row>
     <row r="14" ht="30.5" customHeight="1" spans="1:32">
       <c r="A14" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D14" s="10">
         <v>1</v>
@@ -4026,10 +4036,10 @@
         <v>1</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M14" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4040,10 +4050,10 @@
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -4063,13 +4073,13 @@
     </row>
     <row r="15" ht="30.5" customHeight="1" spans="1:32">
       <c r="A15" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
@@ -4093,10 +4103,10 @@
         <v>1</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M15" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4107,7 +4117,7 @@
       </c>
       <c r="O15" s="15"/>
       <c r="P15" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
@@ -4128,13 +4138,13 @@
     </row>
     <row r="16" ht="30.5" customHeight="1" spans="1:32">
       <c r="A16" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D16" s="10">
         <v>1</v>
@@ -4158,10 +4168,10 @@
         <v>1</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M16" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4172,7 +4182,7 @@
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -4193,13 +4203,13 @@
     </row>
     <row r="17" ht="30.5" customHeight="1" spans="1:32">
       <c r="A17" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D17" s="15">
         <v>1</v>
@@ -4223,10 +4233,10 @@
         <v>1</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M17" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4237,7 +4247,7 @@
       </c>
       <c r="O17" s="15"/>
       <c r="P17" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
@@ -4258,13 +4268,13 @@
     </row>
     <row r="18" ht="30.5" customHeight="1" spans="1:32">
       <c r="A18" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D18" s="10">
         <v>1</v>
@@ -4288,10 +4298,10 @@
         <v>1</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M18" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4302,7 +4312,7 @@
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -4323,13 +4333,13 @@
     </row>
     <row r="19" ht="30.5" customHeight="1" spans="1:32">
       <c r="A19" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D19" s="15">
         <v>1</v>
@@ -4353,10 +4363,10 @@
         <v>1</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M19" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4367,7 +4377,7 @@
       </c>
       <c r="O19" s="15"/>
       <c r="P19" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
@@ -4388,13 +4398,13 @@
     </row>
     <row r="20" ht="30.5" customHeight="1" spans="1:32">
       <c r="A20" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D20" s="10">
         <v>1</v>
@@ -4418,10 +4428,10 @@
         <v>1</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M20" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4432,22 +4442,22 @@
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="U20" s="24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V20" s="28"/>
       <c r="W20" s="9"/>
@@ -4463,13 +4473,13 @@
     </row>
     <row r="21" ht="30.5" customHeight="1" spans="1:32">
       <c r="A21" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D21" s="15">
         <v>1</v>
@@ -4493,10 +4503,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M21" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4526,13 +4536,13 @@
     </row>
     <row r="22" ht="30.5" customHeight="1" spans="1:32">
       <c r="A22" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D22" s="10">
         <v>1</v>
@@ -4556,10 +4566,10 @@
         <v>1</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M22" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4578,10 +4588,10 @@
       <c r="V22" s="28"/>
       <c r="W22" s="9"/>
       <c r="X22" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
@@ -4593,13 +4603,13 @@
     </row>
     <row r="23" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A23" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D23" s="15">
         <v>1</v>
@@ -4623,10 +4633,10 @@
         <v>1</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M23" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4645,10 +4655,10 @@
       <c r="V23" s="27"/>
       <c r="W23" s="12"/>
       <c r="X23" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Y23" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Z23" s="15"/>
       <c r="AA23" s="15"/>
@@ -4660,13 +4670,13 @@
     </row>
     <row r="24" ht="30.5" customHeight="1" spans="1:32">
       <c r="A24" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D24" s="10">
         <v>1</v>
@@ -4690,10 +4700,10 @@
         <v>1</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M24" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4712,10 +4722,10 @@
       <c r="V24" s="28"/>
       <c r="W24" s="9"/>
       <c r="X24" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Y24" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
@@ -4727,13 +4737,13 @@
     </row>
     <row r="25" ht="30.5" customHeight="1" spans="1:32">
       <c r="A25" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D25" s="15">
         <v>1</v>
@@ -4757,10 +4767,10 @@
         <v>1</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M25" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4779,13 +4789,13 @@
       <c r="V25" s="27"/>
       <c r="W25" s="12"/>
       <c r="X25" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Y25" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Z25" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AA25" s="15"/>
       <c r="AB25" s="15"/>
@@ -4796,13 +4806,13 @@
     </row>
     <row r="26" ht="30.5" customHeight="1" spans="1:32">
       <c r="A26" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D26" s="10">
         <v>1</v>
@@ -4826,10 +4836,10 @@
         <v>1</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M26" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4848,16 +4858,16 @@
       <c r="V26" s="28"/>
       <c r="W26" s="9"/>
       <c r="X26" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AA26" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
@@ -4867,13 +4877,13 @@
     </row>
     <row r="27" ht="30.5" customHeight="1" spans="1:32">
       <c r="A27" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D27" s="15">
         <v>1</v>
@@ -4897,10 +4907,10 @@
         <v>1</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M27" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4911,10 +4921,10 @@
       </c>
       <c r="O27" s="15"/>
       <c r="P27" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
@@ -4934,13 +4944,13 @@
     </row>
     <row r="28" ht="30.5" customHeight="1" spans="1:32">
       <c r="A28" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D28" s="10">
         <v>0</v>
@@ -4964,10 +4974,10 @@
         <v>1</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M28" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4978,10 +4988,10 @@
       </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
@@ -5001,13 +5011,13 @@
     </row>
     <row r="29" ht="30.5" customHeight="1" spans="1:32">
       <c r="A29" s="12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D29" s="15">
         <v>0</v>
@@ -5031,10 +5041,10 @@
         <v>1</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M29" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5053,16 +5063,16 @@
       <c r="V29" s="27"/>
       <c r="W29" s="12"/>
       <c r="X29" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Y29" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Z29" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AA29" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AB29" s="15"/>
       <c r="AC29" s="15"/>
@@ -5072,13 +5082,13 @@
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:32">
       <c r="A30" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D30" s="10">
         <v>0</v>
@@ -5102,10 +5112,10 @@
         <v>1</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M30" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5116,7 +5126,7 @@
       </c>
       <c r="O30" s="10"/>
       <c r="P30" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
@@ -5137,13 +5147,13 @@
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:32">
       <c r="A31" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D31" s="15">
         <v>0</v>
@@ -5167,10 +5177,10 @@
         <v>1</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M31" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5189,7 +5199,7 @@
       <c r="V31" s="27"/>
       <c r="W31" s="12"/>
       <c r="X31" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
@@ -5202,13 +5212,13 @@
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:32">
       <c r="A32" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D32" s="10">
         <v>0</v>
@@ -5232,10 +5242,10 @@
         <v>1</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M32" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5254,16 +5264,16 @@
       <c r="V32" s="28"/>
       <c r="W32" s="9"/>
       <c r="X32" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AA32" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
@@ -5273,13 +5283,13 @@
     </row>
     <row r="33" ht="30.5" customHeight="1" spans="1:32">
       <c r="A33" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D33" s="15">
         <v>0</v>
@@ -5303,10 +5313,10 @@
         <v>1</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M33" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5317,7 +5327,7 @@
       </c>
       <c r="O33" s="15"/>
       <c r="P33" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
@@ -5327,10 +5337,10 @@
       <c r="V33" s="27"/>
       <c r="W33" s="12"/>
       <c r="X33" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y33" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Z33" s="15"/>
       <c r="AA33" s="15"/>
@@ -5342,13 +5352,13 @@
     </row>
     <row r="34" ht="30.5" customHeight="1" spans="1:32">
       <c r="A34" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D34" s="10">
         <v>0</v>
@@ -5372,10 +5382,10 @@
         <v>1</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M34" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5386,7 +5396,7 @@
       </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
@@ -5407,13 +5417,13 @@
     </row>
     <row r="35" ht="30.5" customHeight="1" spans="1:32">
       <c r="A35" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D35" s="15">
         <v>0</v>
@@ -5437,10 +5447,10 @@
         <v>1</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M35" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5459,19 +5469,19 @@
       <c r="V35" s="27"/>
       <c r="W35" s="12"/>
       <c r="X35" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Y35" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Z35" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AA35" s="15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AB35" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
@@ -5480,13 +5490,13 @@
     </row>
     <row r="36" ht="30.5" customHeight="1" spans="1:32">
       <c r="A36" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D36" s="10">
         <v>0</v>
@@ -5510,10 +5520,10 @@
         <v>1</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M36" s="15" t="str">
         <f t="shared" ref="M36:M67" si="1">B36</f>
@@ -5532,10 +5542,10 @@
       <c r="V36" s="28"/>
       <c r="W36" s="9"/>
       <c r="X36" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
@@ -5547,13 +5557,13 @@
     </row>
     <row r="37" ht="30.5" customHeight="1" spans="1:32">
       <c r="A37" s="12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D37" s="15">
         <v>0</v>
@@ -5577,10 +5587,10 @@
         <v>1</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M37" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5591,7 +5601,7 @@
       </c>
       <c r="O37" s="15"/>
       <c r="P37" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
@@ -5601,13 +5611,13 @@
       <c r="V37" s="27"/>
       <c r="W37" s="29"/>
       <c r="X37" s="30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y37" s="30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Z37" s="30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA37" s="30"/>
       <c r="AB37" s="30"/>
@@ -5618,13 +5628,13 @@
     </row>
     <row r="38" ht="31.25" customHeight="1" spans="1:32">
       <c r="A38" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D38" s="10">
         <v>0</v>
@@ -5648,10 +5658,10 @@
         <v>1</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M38" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5662,7 +5672,7 @@
       </c>
       <c r="O38" s="10"/>
       <c r="P38" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
@@ -5683,13 +5693,13 @@
     </row>
     <row r="39" ht="30.5" customHeight="1" spans="1:32">
       <c r="A39" s="12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D39" s="15">
         <v>0</v>
@@ -5713,10 +5723,10 @@
         <v>1</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M39" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5735,13 +5745,13 @@
       <c r="V39" s="27"/>
       <c r="W39" s="32"/>
       <c r="X39" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AA39" s="24"/>
       <c r="AB39" s="36"/>
@@ -5752,13 +5762,13 @@
     </row>
     <row r="40" ht="30.5" customHeight="1" spans="1:32">
       <c r="A40" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D40" s="10">
         <v>0</v>
@@ -5782,10 +5792,10 @@
         <v>1</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M40" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5804,10 +5814,10 @@
       <c r="V40" s="28"/>
       <c r="W40" s="32"/>
       <c r="X40" s="12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Y40" s="15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Z40" s="15"/>
       <c r="AA40" s="26"/>
@@ -5819,13 +5829,13 @@
     </row>
     <row r="41" ht="30.5" customHeight="1" spans="1:32">
       <c r="A41" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D41" s="15">
         <v>0</v>
@@ -5849,10 +5859,10 @@
         <v>1</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M41" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5863,7 +5873,7 @@
       </c>
       <c r="O41" s="15"/>
       <c r="P41" s="15" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
@@ -5873,7 +5883,7 @@
       <c r="V41" s="27"/>
       <c r="W41" s="33"/>
       <c r="X41" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
@@ -5886,13 +5896,13 @@
     </row>
     <row r="42" ht="30.5" customHeight="1" spans="1:32">
       <c r="A42" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D42" s="10">
         <v>0</v>
@@ -5916,10 +5926,10 @@
         <v>1</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M42" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5930,7 +5940,7 @@
       </c>
       <c r="O42" s="10"/>
       <c r="P42" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
@@ -5951,13 +5961,13 @@
     </row>
     <row r="43" ht="30.5" customHeight="1" spans="1:32">
       <c r="A43" s="12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D43" s="15">
         <v>0</v>
@@ -5981,10 +5991,10 @@
         <v>1</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M43" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6003,16 +6013,16 @@
       <c r="V43" s="27"/>
       <c r="W43" s="32"/>
       <c r="X43" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Y43" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AA43" s="24" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AB43" s="36"/>
       <c r="AC43" s="37"/>
@@ -6022,13 +6032,13 @@
     </row>
     <row r="44" ht="30.5" customHeight="1" spans="1:32">
       <c r="A44" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D44" s="10">
         <v>0</v>
@@ -6052,10 +6062,10 @@
         <v>1</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M44" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6074,13 +6084,13 @@
       <c r="V44" s="28"/>
       <c r="W44" s="32"/>
       <c r="X44" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Y44" s="15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Z44" s="15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AA44" s="26"/>
       <c r="AB44" s="36"/>
@@ -6091,13 +6101,13 @@
     </row>
     <row r="45" ht="30.5" customHeight="1" spans="1:32">
       <c r="A45" s="12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D45" s="15">
         <v>0</v>
@@ -6121,10 +6131,10 @@
         <v>1</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M45" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6135,7 +6145,7 @@
       </c>
       <c r="O45" s="15"/>
       <c r="P45" s="15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
@@ -6145,13 +6155,13 @@
       <c r="V45" s="27"/>
       <c r="W45" s="32"/>
       <c r="X45" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Y45" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AA45" s="24"/>
       <c r="AB45" s="36"/>
@@ -6162,13 +6172,13 @@
     </row>
     <row r="46" ht="30.5" customHeight="1" spans="1:32">
       <c r="A46" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D46" s="10">
         <v>0</v>
@@ -6192,10 +6202,10 @@
         <v>1</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M46" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6214,13 +6224,13 @@
       <c r="V46" s="28"/>
       <c r="W46" s="32"/>
       <c r="X46" s="12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Y46" s="15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Z46" s="15" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AA46" s="26"/>
       <c r="AB46" s="36"/>
@@ -6231,13 +6241,13 @@
     </row>
     <row r="47" ht="30.5" customHeight="1" spans="1:32">
       <c r="A47" s="12" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D47" s="15">
         <v>0</v>
@@ -6261,10 +6271,10 @@
         <v>1</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M47" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6283,13 +6293,13 @@
       <c r="V47" s="27"/>
       <c r="W47" s="32"/>
       <c r="X47" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Y47" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Z47" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AA47" s="24"/>
       <c r="AB47" s="36"/>
@@ -6300,13 +6310,13 @@
     </row>
     <row r="48" ht="30.5" customHeight="1" spans="1:32">
       <c r="A48" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D48" s="10">
         <v>0</v>
@@ -6330,10 +6340,10 @@
         <v>1</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M48" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6352,13 +6362,13 @@
       <c r="V48" s="28"/>
       <c r="W48" s="32"/>
       <c r="X48" s="12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Y48" s="15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Z48" s="15" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AA48" s="26"/>
       <c r="AB48" s="36"/>
@@ -6369,13 +6379,13 @@
     </row>
     <row r="49" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A49" s="12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D49" s="15">
         <v>0</v>
@@ -6399,10 +6409,10 @@
         <v>1</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M49" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6432,13 +6442,13 @@
     </row>
     <row r="50" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A50" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D50" s="10">
         <v>0</v>
@@ -6462,10 +6472,10 @@
         <v>1</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M50" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6484,7 +6494,7 @@
       <c r="V50" s="28"/>
       <c r="W50" s="32"/>
       <c r="X50" s="12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
@@ -6497,13 +6507,13 @@
     </row>
     <row r="51" ht="30.5" customHeight="1" spans="1:32">
       <c r="A51" s="12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D51" s="15">
         <v>1</v>
@@ -6527,10 +6537,10 @@
         <v>1</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M51" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6541,10 +6551,10 @@
       </c>
       <c r="O51" s="15"/>
       <c r="P51" s="15" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q51" s="15" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R51" s="15"/>
       <c r="S51" s="15"/>
@@ -6564,13 +6574,13 @@
     </row>
     <row r="52" ht="30.5" customHeight="1" spans="1:32">
       <c r="A52" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D52" s="10">
         <v>1</v>
@@ -6594,10 +6604,10 @@
         <v>1</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M52" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6608,10 +6618,10 @@
       </c>
       <c r="O52" s="10"/>
       <c r="P52" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
@@ -6631,13 +6641,13 @@
     </row>
     <row r="53" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A53" s="12" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D53" s="15">
         <v>0</v>
@@ -6661,10 +6671,10 @@
         <v>1</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M53" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6675,16 +6685,16 @@
       </c>
       <c r="O53" s="15"/>
       <c r="P53" s="15" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q53" s="15" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="R53" s="15" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="S53" s="15" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="T53" s="15"/>
       <c r="U53" s="26"/>
@@ -6702,13 +6712,13 @@
     </row>
     <row r="54" ht="30.5" customHeight="1" spans="1:32">
       <c r="A54" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D54" s="10">
         <v>0</v>
@@ -6732,10 +6742,10 @@
         <v>1</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M54" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6746,13 +6756,13 @@
       </c>
       <c r="O54" s="10"/>
       <c r="P54" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
@@ -6771,13 +6781,13 @@
     </row>
     <row r="55" ht="30.5" customHeight="1" spans="1:32">
       <c r="A55" s="12" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D55" s="15">
         <v>0</v>
@@ -6801,10 +6811,10 @@
         <v>1</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M55" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6815,13 +6825,13 @@
       </c>
       <c r="O55" s="15"/>
       <c r="P55" s="15" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q55" s="15" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="R55" s="15" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="S55" s="15"/>
       <c r="T55" s="15"/>
@@ -6840,13 +6850,13 @@
     </row>
     <row r="56" ht="30.5" customHeight="1" spans="1:32">
       <c r="A56" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D56" s="10">
         <v>0</v>
@@ -6870,10 +6880,10 @@
         <v>1</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M56" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6884,13 +6894,13 @@
       </c>
       <c r="O56" s="10"/>
       <c r="P56" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="R56" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
@@ -6909,13 +6919,13 @@
     </row>
     <row r="57" ht="30.5" customHeight="1" spans="1:32">
       <c r="A57" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D57" s="15">
         <v>1</v>
@@ -6939,10 +6949,10 @@
         <v>1</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M57" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6953,7 +6963,7 @@
       </c>
       <c r="O57" s="15"/>
       <c r="P57" s="15" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q57" s="15"/>
       <c r="R57" s="15"/>
@@ -6974,13 +6984,13 @@
     </row>
     <row r="58" ht="30.5" customHeight="1" spans="1:32">
       <c r="A58" s="9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D58" s="10">
         <v>0</v>
@@ -7004,10 +7014,10 @@
         <v>1</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M58" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7018,10 +7028,10 @@
       </c>
       <c r="O58" s="10"/>
       <c r="P58" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
@@ -7041,13 +7051,13 @@
     </row>
     <row r="59" ht="30.5" customHeight="1" spans="1:32">
       <c r="A59" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D59" s="15">
         <v>1</v>
@@ -7071,10 +7081,10 @@
         <v>1</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M59" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7085,10 +7095,10 @@
       </c>
       <c r="O59" s="15"/>
       <c r="P59" s="15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q59" s="15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R59" s="15"/>
       <c r="S59" s="15"/>
@@ -7108,13 +7118,13 @@
     </row>
     <row r="60" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A60" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D60" s="10">
         <v>1</v>
@@ -7138,10 +7148,10 @@
         <v>1</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M60" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7152,10 +7162,10 @@
       </c>
       <c r="O60" s="10"/>
       <c r="P60" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
@@ -7175,13 +7185,13 @@
     </row>
     <row r="61" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A61" s="12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D61" s="15">
         <v>0</v>
@@ -7205,10 +7215,10 @@
         <v>1</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M61" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7227,7 +7237,7 @@
       <c r="V61" s="27"/>
       <c r="W61" s="32"/>
       <c r="X61" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Y61" s="10"/>
       <c r="Z61" s="10"/>
@@ -7240,13 +7250,13 @@
     </row>
     <row r="62" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A62" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D62" s="10">
         <v>0</v>
@@ -7270,10 +7280,10 @@
         <v>1</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M62" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7292,10 +7302,10 @@
       <c r="V62" s="28"/>
       <c r="W62" s="32"/>
       <c r="X62" s="12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Y62" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Z62" s="15"/>
       <c r="AA62" s="26"/>
@@ -7307,13 +7317,13 @@
     </row>
     <row r="63" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A63" s="12" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D63" s="15">
         <v>0</v>
@@ -7337,10 +7347,10 @@
         <v>1</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M63" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7351,7 +7361,7 @@
       </c>
       <c r="O63" s="15"/>
       <c r="P63" s="15" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q63" s="15"/>
       <c r="R63" s="15"/>
@@ -7372,13 +7382,13 @@
     </row>
     <row r="64" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A64" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D64" s="10">
         <v>0</v>
@@ -7402,10 +7412,10 @@
         <v>1</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M64" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7424,10 +7434,10 @@
       <c r="V64" s="28"/>
       <c r="W64" s="32"/>
       <c r="X64" s="12" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Y64" s="15" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Z64" s="15"/>
       <c r="AA64" s="26"/>
@@ -7439,13 +7449,13 @@
     </row>
     <row r="65" ht="30.5" customHeight="1" spans="1:32">
       <c r="A65" s="12" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D65" s="15">
         <v>0</v>
@@ -7469,10 +7479,10 @@
         <v>1</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M65" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7483,7 +7493,7 @@
       </c>
       <c r="O65" s="15"/>
       <c r="P65" s="15" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q65" s="15"/>
       <c r="R65" s="15"/>
@@ -7504,13 +7514,13 @@
     </row>
     <row r="66" ht="30.5" customHeight="1" spans="1:32">
       <c r="A66" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D66" s="10">
         <v>0</v>
@@ -7534,10 +7544,10 @@
         <v>1</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M66" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7548,7 +7558,7 @@
       </c>
       <c r="O66" s="10"/>
       <c r="P66" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q66" s="10"/>
       <c r="R66" s="10"/>
@@ -7569,13 +7579,13 @@
     </row>
     <row r="67" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A67" s="12" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D67" s="15">
         <v>1</v>
@@ -7599,10 +7609,10 @@
         <v>1</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M67" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7613,7 +7623,7 @@
       </c>
       <c r="O67" s="15"/>
       <c r="P67" s="15" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q67" s="15"/>
       <c r="R67" s="15"/>
@@ -7623,7 +7633,7 @@
       <c r="V67" s="27"/>
       <c r="W67" s="32"/>
       <c r="X67" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Y67" s="10"/>
       <c r="Z67" s="10"/>
@@ -7636,13 +7646,13 @@
     </row>
     <row r="68" ht="30.5" customHeight="1" spans="1:32">
       <c r="A68" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D68" s="10">
         <v>0</v>
@@ -7666,10 +7676,10 @@
         <v>1</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M68" s="15" t="str">
         <f t="shared" ref="M68:M101" si="2">B68</f>
@@ -7680,7 +7690,7 @@
       </c>
       <c r="O68" s="10"/>
       <c r="P68" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
@@ -7701,13 +7711,13 @@
     </row>
     <row r="69" ht="30.5" customHeight="1" spans="1:32">
       <c r="A69" s="12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D69" s="15">
         <v>0</v>
@@ -7731,10 +7741,10 @@
         <v>1</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M69" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7745,7 +7755,7 @@
       </c>
       <c r="O69" s="15"/>
       <c r="P69" s="15" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q69" s="15"/>
       <c r="R69" s="15"/>
@@ -7766,13 +7776,13 @@
     </row>
     <row r="70" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A70" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D70" s="10">
         <v>1</v>
@@ -7796,10 +7806,10 @@
         <v>1</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M70" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7810,10 +7820,10 @@
       </c>
       <c r="O70" s="10"/>
       <c r="P70" s="10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q70" s="10" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="R70" s="10"/>
       <c r="S70" s="10"/>
@@ -7833,13 +7843,13 @@
     </row>
     <row r="71" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A71" s="12" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D71" s="15">
         <v>0</v>
@@ -7863,10 +7873,10 @@
         <v>1</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M71" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7877,7 +7887,7 @@
       </c>
       <c r="O71" s="15"/>
       <c r="P71" s="15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q71" s="15"/>
       <c r="R71" s="15"/>
@@ -7898,13 +7908,13 @@
     </row>
     <row r="72" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A72" s="9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D72" s="10">
         <v>0</v>
@@ -7928,10 +7938,10 @@
         <v>1</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M72" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7950,10 +7960,10 @@
       <c r="V72" s="28"/>
       <c r="W72" s="32"/>
       <c r="X72" s="12" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Y72" s="15" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Z72" s="15"/>
       <c r="AA72" s="26"/>
@@ -7965,13 +7975,13 @@
     </row>
     <row r="73" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A73" s="12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D73" s="15">
         <v>0</v>
@@ -7995,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L73" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M73" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8009,16 +8019,16 @@
       </c>
       <c r="O73" s="15"/>
       <c r="P73" s="15" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q73" s="15" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="R73" s="15" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S73" s="15" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="T73" s="15"/>
       <c r="U73" s="26"/>
@@ -8036,13 +8046,13 @@
     </row>
     <row r="74" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A74" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D74" s="10">
         <v>0</v>
@@ -8066,10 +8076,10 @@
         <v>1</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M74" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8088,10 +8098,10 @@
       <c r="V74" s="28"/>
       <c r="W74" s="33"/>
       <c r="X74" s="29" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Y74" s="30" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Z74" s="30"/>
       <c r="AA74" s="41"/>
@@ -8103,13 +8113,13 @@
     </row>
     <row r="75" s="2" customFormat="1" ht="31.25" customHeight="1" spans="1:32">
       <c r="A75" s="12" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D75" s="15">
         <v>0</v>
@@ -8133,10 +8143,10 @@
         <v>1</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L75" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M75" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8166,13 +8176,13 @@
     </row>
     <row r="76" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A76" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D76" s="10">
         <v>0</v>
@@ -8196,10 +8206,10 @@
         <v>1</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M76" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8218,10 +8228,10 @@
       <c r="V76" s="28"/>
       <c r="W76" s="32"/>
       <c r="X76" s="9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Y76" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Z76" s="10"/>
       <c r="AA76" s="10"/>
@@ -8233,13 +8243,13 @@
     </row>
     <row r="77" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A77" s="12" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D77" s="15">
         <v>0</v>
@@ -8263,10 +8273,10 @@
         <v>1</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M77" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8296,13 +8306,13 @@
     </row>
     <row r="78" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A78" s="9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D78" s="10">
         <v>0</v>
@@ -8326,10 +8336,10 @@
         <v>1</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M78" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8359,13 +8369,13 @@
     </row>
     <row r="79" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A79" s="12" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D79" s="15">
         <v>0</v>
@@ -8389,10 +8399,10 @@
         <v>1</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M79" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8411,10 +8421,10 @@
       <c r="V79" s="27"/>
       <c r="W79" s="32"/>
       <c r="X79" s="12" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Y79" s="15" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Z79" s="15"/>
       <c r="AA79" s="15"/>
@@ -8426,13 +8436,13 @@
     </row>
     <row r="80" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A80" s="9" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D80" s="10">
         <v>0</v>
@@ -8456,10 +8466,10 @@
         <v>1</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M80" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8478,13 +8488,13 @@
       <c r="V80" s="28"/>
       <c r="W80" s="32"/>
       <c r="X80" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Y80" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Z80" s="10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AA80" s="10"/>
       <c r="AB80" s="10"/>
@@ -8495,13 +8505,13 @@
     </row>
     <row r="81" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A81" s="12" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D81" s="15">
         <v>0</v>
@@ -8525,10 +8535,10 @@
         <v>1</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M81" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8547,7 +8557,7 @@
       <c r="V81" s="27"/>
       <c r="W81" s="32"/>
       <c r="X81" s="12" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
@@ -8560,13 +8570,13 @@
     </row>
     <row r="82" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A82" s="9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D82" s="10">
         <v>0</v>
@@ -8590,10 +8600,10 @@
         <v>1</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M82" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8612,10 +8622,10 @@
       <c r="V82" s="28"/>
       <c r="W82" s="32"/>
       <c r="X82" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Y82" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Z82" s="10"/>
       <c r="AA82" s="10"/>
@@ -8627,13 +8637,13 @@
     </row>
     <row r="83" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A83" s="12" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D83" s="15">
         <v>0</v>
@@ -8657,10 +8667,10 @@
         <v>1</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L83" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M83" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8679,16 +8689,16 @@
       <c r="V83" s="27"/>
       <c r="W83" s="32"/>
       <c r="X83" s="12" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Y83" s="15" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Z83" s="15" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AA83" s="15" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="26"/>
@@ -8698,13 +8708,13 @@
     </row>
     <row r="84" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A84" s="9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D84" s="10">
         <v>0</v>
@@ -8728,10 +8738,10 @@
         <v>1</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M84" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8750,10 +8760,10 @@
       <c r="V84" s="28"/>
       <c r="W84" s="32"/>
       <c r="X84" s="9" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Y84" s="10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Z84" s="10"/>
       <c r="AA84" s="10"/>
@@ -8765,13 +8775,13 @@
     </row>
     <row r="85" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A85" s="12" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D85" s="15">
         <v>0</v>
@@ -8795,10 +8805,10 @@
         <v>1</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M85" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8817,16 +8827,16 @@
       <c r="V85" s="27"/>
       <c r="W85" s="32"/>
       <c r="X85" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Y85" s="15" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Z85" s="15" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AA85" s="15" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="26"/>
@@ -8836,13 +8846,13 @@
     </row>
     <row r="86" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A86" s="9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D86" s="10">
         <v>0</v>
@@ -8866,10 +8876,10 @@
         <v>1</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M86" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8888,19 +8898,19 @@
       <c r="V86" s="28"/>
       <c r="W86" s="32"/>
       <c r="X86" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Y86" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Z86" s="10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AA86" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AB86" s="10" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AC86" s="24"/>
       <c r="AD86" s="36"/>
@@ -8909,13 +8919,13 @@
     </row>
     <row r="87" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A87" s="12" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D87" s="15">
         <v>0</v>
@@ -8939,10 +8949,10 @@
         <v>1</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M87" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8961,13 +8971,13 @@
       <c r="V87" s="27"/>
       <c r="W87" s="32"/>
       <c r="X87" s="12" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Y87" s="15" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Z87" s="15" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AA87" s="15"/>
       <c r="AB87" s="15"/>
@@ -8978,13 +8988,13 @@
     </row>
     <row r="88" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A88" s="9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D88" s="10">
         <v>0</v>
@@ -9008,10 +9018,10 @@
         <v>1</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M88" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9030,7 +9040,7 @@
       <c r="V88" s="28"/>
       <c r="W88" s="32"/>
       <c r="X88" s="9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Y88" s="10"/>
       <c r="Z88" s="10"/>
@@ -9043,13 +9053,13 @@
     </row>
     <row r="89" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A89" s="12" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D89" s="15">
         <v>1</v>
@@ -9073,10 +9083,10 @@
         <v>1</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M89" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9095,16 +9105,16 @@
       <c r="V89" s="27"/>
       <c r="W89" s="32"/>
       <c r="X89" s="12" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Y89" s="15" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Z89" s="15" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AA89" s="15" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB89" s="15"/>
       <c r="AC89" s="26"/>
@@ -9114,13 +9124,13 @@
     </row>
     <row r="90" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A90" s="9" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D90" s="10">
         <v>0</v>
@@ -9144,10 +9154,10 @@
         <v>1</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M90" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9166,13 +9176,13 @@
       <c r="V90" s="28"/>
       <c r="W90" s="32"/>
       <c r="X90" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Y90" s="10" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Z90" s="10" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AA90" s="10"/>
       <c r="AB90" s="10"/>
@@ -9183,13 +9193,13 @@
     </row>
     <row r="91" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A91" s="12" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D91" s="15">
         <v>0</v>
@@ -9213,10 +9223,10 @@
         <v>1</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M91" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9235,7 +9245,7 @@
       <c r="V91" s="27"/>
       <c r="W91" s="32"/>
       <c r="X91" s="12" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
@@ -9248,13 +9258,13 @@
     </row>
     <row r="92" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A92" s="9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D92" s="10">
         <v>0</v>
@@ -9278,10 +9288,10 @@
         <v>1</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M92" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9300,7 +9310,7 @@
       <c r="V92" s="28"/>
       <c r="W92" s="32"/>
       <c r="X92" s="9" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Y92" s="10"/>
       <c r="Z92" s="10"/>
@@ -9313,13 +9323,13 @@
     </row>
     <row r="93" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A93" s="12" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D93" s="15">
         <v>0</v>
@@ -9343,10 +9353,10 @@
         <v>1</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L93" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M93" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9365,7 +9375,7 @@
       <c r="V93" s="27"/>
       <c r="W93" s="32"/>
       <c r="X93" s="12" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
@@ -9378,13 +9388,13 @@
     </row>
     <row r="94" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A94" s="9" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D94" s="10">
         <v>0</v>
@@ -9408,10 +9418,10 @@
         <v>1</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M94" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9430,7 +9440,7 @@
       <c r="V94" s="28"/>
       <c r="W94" s="33"/>
       <c r="X94" s="9" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Y94" s="10"/>
       <c r="Z94" s="10"/>
@@ -9443,13 +9453,13 @@
     </row>
     <row r="95" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A95" s="12" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D95" s="15">
         <v>0</v>
@@ -9473,10 +9483,10 @@
         <v>1</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L95" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M95" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9506,13 +9516,13 @@
     </row>
     <row r="96" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A96" s="9" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D96" s="10">
         <v>0</v>
@@ -9536,10 +9546,10 @@
         <v>1</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M96" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9558,7 +9568,7 @@
       <c r="V96" s="28"/>
       <c r="W96" s="32"/>
       <c r="X96" s="9" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Y96" s="10"/>
       <c r="Z96" s="10"/>
@@ -9571,13 +9581,13 @@
     </row>
     <row r="97" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A97" s="12" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D97" s="15">
         <v>0</v>
@@ -9601,10 +9611,10 @@
         <v>1</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L97" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M97" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9623,7 +9633,7 @@
       <c r="V97" s="27"/>
       <c r="W97" s="32"/>
       <c r="X97" s="12" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
@@ -9636,13 +9646,13 @@
     </row>
     <row r="98" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A98" s="9" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D98" s="10">
         <v>1</v>
@@ -9666,10 +9676,10 @@
         <v>1</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L98" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M98" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9699,13 +9709,13 @@
     </row>
     <row r="99" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A99" s="12" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D99" s="15">
         <v>0</v>
@@ -9729,10 +9739,10 @@
         <v>1</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M99" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9751,10 +9761,10 @@
       <c r="V99" s="27"/>
       <c r="W99" s="32"/>
       <c r="X99" s="12" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="Y99" s="15" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Z99" s="15"/>
       <c r="AA99" s="15"/>
@@ -9766,13 +9776,13 @@
     </row>
     <row r="100" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:32">
       <c r="A100" s="9" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D100" s="10">
         <v>0</v>
@@ -9796,10 +9806,10 @@
         <v>1</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M100" s="15" t="str">
         <f t="shared" si="2"/>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="rune_config" sheetId="1" r:id="rId1"/>
@@ -2755,7 +2755,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{928E2AF3-CE47-4D7F-9081-E2E98D7DF02A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1BFF7164-D4F5-4E3F-AB0D-78AF95FB2990}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -3063,10 +3063,10 @@
   <sheetPr/>
   <dimension ref="A1:AF100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="389">
   <si>
     <t>名字</t>
   </si>
@@ -137,10 +137,10 @@
     <t>rune_1</t>
   </si>
   <si>
-    <t>通用符文1</t>
-  </si>
-  <si>
-    <t>提高%CriticalChance.Base%%%暴击概率和%CriticalDamage%%%暴击伤害</t>
+    <t>通用符文#1</t>
+  </si>
+  <si>
+    <t>提高%CriticalChance.Base%%%暴击概率和%CriticalDamage.Base%%%暴击伤害</t>
   </si>
   <si>
     <t>1|2|3</t>
@@ -186,169 +186,209 @@
     <t>基础技能造成的伤害提高75%/125%/200%</t>
   </si>
   <si>
+    <t>BasicAbilityDmg {
+"Base" "75 125 200"
+}</t>
+  </si>
+  <si>
+    <t>value 75 125 200</t>
+  </si>
+  <si>
+    <t>rune_4</t>
+  </si>
+  <si>
+    <t>通用符文4</t>
+  </si>
+  <si>
+    <t>所有耗蓝型技能基于消耗的蓝量提升伤害，每消耗最大蓝量的1%，提高伤害2%/3%/5%</t>
+  </si>
+  <si>
+    <t>根据当前消耗的蓝量获得伤害</t>
+  </si>
+  <si>
+    <t>value 2 3 5</t>
+  </si>
+  <si>
+    <t>rune_5</t>
+  </si>
+  <si>
+    <t>通用符文5</t>
+  </si>
+  <si>
+    <t>攻击速度提高30%/50%/100%</t>
+  </si>
+  <si>
+    <t>AttackSpeed {
+"Base" "30 50 100"
+}</t>
+  </si>
+  <si>
+    <t>rune_6</t>
+  </si>
+  <si>
+    <t>通用符文6</t>
+  </si>
+  <si>
+    <t>获得10%/20%/30%伤害减免</t>
+  </si>
+  <si>
+    <t>DmgReductionPct {
+"Base" "10 20 30"
+}</t>
+  </si>
+  <si>
+    <t>rune_7</t>
+  </si>
+  <si>
+    <t>通用符文7</t>
+  </si>
+  <si>
+    <t>每秒额外回复4/8/12点蓝量</t>
+  </si>
+  <si>
+    <t>ManaRegen {
+"Base" "4 8 12"
+}</t>
+  </si>
+  <si>
+    <t>rune_8</t>
+  </si>
+  <si>
+    <t>通用符文8</t>
+  </si>
+  <si>
+    <t>使用技能之后，护甲提高1%/2%/3%，持续5秒，可叠加10层</t>
+  </si>
+  <si>
+    <t>使用技能时</t>
+  </si>
+  <si>
+    <t>armor_pct 1 2 3</t>
+  </si>
+  <si>
+    <t>max_stack 10</t>
+  </si>
+  <si>
+    <t>duration 5</t>
+  </si>
+  <si>
+    <t>rune_9</t>
+  </si>
+  <si>
+    <t>通用符文9</t>
+  </si>
+  <si>
+    <t>移速提高30%，受到伤害后失去该效果8秒</t>
+  </si>
+  <si>
+    <t>收到伤害</t>
+  </si>
+  <si>
+    <t>2|2</t>
+  </si>
+  <si>
+    <t>MoveSpeed {
+    "BasePercent" "30"
+  }</t>
+  </si>
+  <si>
+    <t>movespeed 30</t>
+  </si>
+  <si>
+    <t>loss_time 8</t>
+  </si>
+  <si>
+    <t>rune_10</t>
+  </si>
+  <si>
+    <t>通用符文10</t>
+  </si>
+  <si>
+    <t>每损失10%生命值，提高5%/7%/10%移动速度</t>
+  </si>
+  <si>
+    <t>周期</t>
+  </si>
+  <si>
+    <t>ever_hp_pct 10</t>
+  </si>
+  <si>
+    <t>ms_pct 5 7 10</t>
+  </si>
+  <si>
+    <t>rune_11</t>
+  </si>
+  <si>
+    <t>通用符文11</t>
+  </si>
+  <si>
+    <t>击杀敌人时有15%概率获得5%/10%/15%伤害加成，持续5秒，最高5层</t>
+  </si>
+  <si>
+    <t>击杀</t>
+  </si>
+  <si>
+    <t>chance 15</t>
+  </si>
+  <si>
+    <t>bp_ingame 5 10 15</t>
+  </si>
+  <si>
+    <t>max_stack 5</t>
+  </si>
+  <si>
+    <t>rune_12</t>
+  </si>
+  <si>
+    <t>通用符文12</t>
+  </si>
+  <si>
+    <t>获得50%伤害加成，作为代价，在生命值高于30%时，每秒扣除10%最大生命值</t>
+  </si>
+  <si>
+    <t>3|3</t>
+  </si>
+  <si>
+    <t>last_hp_pct 30</t>
+  </si>
+  <si>
+    <t>deduct_hp_pct 10</t>
+  </si>
+  <si>
+    <t>rune_13</t>
+  </si>
+  <si>
+    <t>通用符文13</t>
+  </si>
+  <si>
+    <t>获得40%技能冷却缩减，但是技能消耗蓝量翻倍</t>
+  </si>
+  <si>
+    <t>ManaCostRate {
+"Base" "100"
+}</t>
+  </si>
+  <si>
+    <t>AbilityCooldown {
+"Base" "40"
+}</t>
+  </si>
+  <si>
+    <t>rune_14</t>
+  </si>
+  <si>
+    <t>通用符文14</t>
+  </si>
+  <si>
+    <t>来自于神圣装备的技能造成的伤害提高250%</t>
+  </si>
+  <si>
     <t>直接修改</t>
   </si>
   <si>
-    <t>value 75 125 200</t>
-  </si>
-  <si>
-    <t>rune_4</t>
-  </si>
-  <si>
-    <t>通用符文4</t>
-  </si>
-  <si>
-    <t>所有耗蓝型技能基于消耗的蓝量提升伤害，每消耗最大蓝量的1%，提高伤害2%/3%/5%</t>
-  </si>
-  <si>
-    <t>根据当前消耗的蓝量获得伤害</t>
-  </si>
-  <si>
-    <t>value 2 3 5</t>
-  </si>
-  <si>
-    <t>rune_5</t>
-  </si>
-  <si>
-    <t>通用符文5</t>
-  </si>
-  <si>
-    <t>攻击速度提高30%/50%/100%</t>
-  </si>
-  <si>
-    <t>rune_6</t>
-  </si>
-  <si>
-    <t>通用符文6</t>
-  </si>
-  <si>
-    <t>获得10%/20%/30%伤害减免</t>
-  </si>
-  <si>
-    <t>rune_7</t>
-  </si>
-  <si>
-    <t>通用符文7</t>
-  </si>
-  <si>
-    <t>每秒额外回复4/8/12点蓝量</t>
-  </si>
-  <si>
-    <t>rune_8</t>
-  </si>
-  <si>
-    <t>通用符文8</t>
-  </si>
-  <si>
-    <t>使用技能之后，护甲提高1%/2%/3%，持续5秒，可叠加10层</t>
-  </si>
-  <si>
-    <t>使用技能时</t>
-  </si>
-  <si>
-    <t>armor_pct 1 2 3</t>
-  </si>
-  <si>
-    <t>stack 10</t>
-  </si>
-  <si>
-    <t>duration 5</t>
-  </si>
-  <si>
-    <t>rune_9</t>
-  </si>
-  <si>
-    <t>通用符文9</t>
-  </si>
-  <si>
-    <t>移速提高30%，受到伤害后失去该效果8秒</t>
-  </si>
-  <si>
-    <t>收到伤害</t>
-  </si>
-  <si>
-    <t>2|2</t>
-  </si>
-  <si>
-    <t>movespeed 30</t>
-  </si>
-  <si>
-    <t>loss_time 8</t>
-  </si>
-  <si>
-    <t>rune_10</t>
-  </si>
-  <si>
-    <t>通用符文10</t>
-  </si>
-  <si>
-    <t>每损失10%生命值，提高5%/7%/10%移动速度</t>
-  </si>
-  <si>
-    <t>周期</t>
-  </si>
-  <si>
-    <t>ever_hp_pct 10</t>
-  </si>
-  <si>
-    <t>ms_pct 5 7 10</t>
-  </si>
-  <si>
-    <t>rune_11</t>
-  </si>
-  <si>
-    <t>通用符文11</t>
-  </si>
-  <si>
-    <t>击杀敌人时有15%概率获得5%/10%/15%伤害加成，持续5秒，最高5层</t>
-  </si>
-  <si>
-    <t>击杀</t>
-  </si>
-  <si>
-    <t>chance 15</t>
-  </si>
-  <si>
-    <t>bp_ingame 5 10 15</t>
-  </si>
-  <si>
-    <t>stack 5</t>
-  </si>
-  <si>
-    <t>rune_12</t>
-  </si>
-  <si>
-    <t>通用符文12</t>
-  </si>
-  <si>
-    <t>获得50%伤害加成，作为代价，在生命值高于30%时，每秒扣除10%最大生命值</t>
-  </si>
-  <si>
-    <t>3|3</t>
-  </si>
-  <si>
-    <t>last_hp_pct 30</t>
-  </si>
-  <si>
-    <t>deduct_hp_pct 10</t>
-  </si>
-  <si>
-    <t>rune_13</t>
-  </si>
-  <si>
-    <t>通用符文13</t>
-  </si>
-  <si>
-    <t>获得40%技能冷却缩减，但是技能消耗蓝量翻倍</t>
-  </si>
-  <si>
-    <t>rune_14</t>
-  </si>
-  <si>
-    <t>通用符文14</t>
-  </si>
-  <si>
-    <t>来自于神圣装备的技能造成的伤害提高250%</t>
+    <t>SacredEquipSkillDmg {
+"Base" "250"
+}</t>
   </si>
   <si>
     <t>value 250</t>
@@ -375,6 +415,11 @@
     <t>每秒会降低5点蓝量，但是蓝量大于50%时，所有技能伤害提高100%</t>
   </si>
   <si>
+    <t>ManaRegen {
+"Base" "-5"
+}</t>
+  </si>
+  <si>
     <t xml:space="preserve">last_mana_pct 50 </t>
   </si>
   <si>
@@ -403,6 +448,16 @@
   </si>
   <si>
     <t>获得40%/60%/80%伤害加成，但受到的伤害也会提高50%</t>
+  </si>
+  <si>
+    <t>DamageBonusMul {
+"Base" "40 60 80"
+}</t>
+  </si>
+  <si>
+    <t>DmgReductionPct {
+"Base" "-50"
+}</t>
   </si>
   <si>
     <t>rune_19</t>
@@ -425,7 +480,7 @@
     <t>通用符文20</t>
   </si>
   <si>
-    <t>附近每存在一个敌军，提高自身%AttackSpeed%攻击速度,最高提升%MaxValue%%%
+    <t>附近每存在一个敌军，提高自身%StackAttackSpeed%攻击速度,最高提升%MaxValue%
 boss单位视为15个敌军</t>
   </si>
   <si>
@@ -453,6 +508,15 @@
     <t>最大蓝量值蓝量大于100时，每高1点着获得1%伤害减免，最高可获得60%伤害减免</t>
   </si>
   <si>
+    <t>last_maxmana 100</t>
+  </si>
+  <si>
+    <t>dmg_reduction_limit 60</t>
+  </si>
+  <si>
+    <t>ever_dmg_reduction 1</t>
+  </si>
+  <si>
     <t>rune_23</t>
   </si>
   <si>
@@ -462,6 +526,9 @@
     <t>每损失10%生命值，提高5%/7%/10%伤害加成</t>
   </si>
   <si>
+    <t>ever_dmg_bonus 5 7 10</t>
+  </si>
+  <si>
     <t>rune_24</t>
   </si>
   <si>
@@ -471,6 +538,12 @@
     <t>近距离（自身直径300码以内）没有敌人时，暴击概率提高25%/30%/40%</t>
   </si>
   <si>
+    <t>range_check 300</t>
+  </si>
+  <si>
+    <t>crit_chance 25 30 40</t>
+  </si>
+  <si>
     <t>rune_25</t>
   </si>
   <si>
@@ -480,10 +553,13 @@
     <t>所有玩家经验值获取率提高25%/30%/40%</t>
   </si>
   <si>
+    <t>exp_bonus 25 30 40</t>
+  </si>
+  <si>
     <t>rune_26</t>
   </si>
   <si>
-    <t>专属英雄1</t>
+    <t>游侠#1</t>
   </si>
   <si>
     <t>爆炸箭对生命值高于30%的敌人伤害提高100%</t>
@@ -492,19 +568,31 @@
     <t>1|1</t>
   </si>
   <si>
+    <t>hp_pct 30</t>
+  </si>
+  <si>
+    <t>bonus_value 100</t>
+  </si>
+  <si>
     <t>rune_27</t>
   </si>
   <si>
-    <t>专属英雄2</t>
+    <t>游侠#2</t>
   </si>
   <si>
     <t>爆裂箭【浓缩】的触发概率提高至30%，伤害提高至10倍</t>
   </si>
   <si>
+    <t>mul_chance 30</t>
+  </si>
+  <si>
+    <t>mul_value 10</t>
+  </si>
+  <si>
     <t>rune_28</t>
   </si>
   <si>
-    <t>专属英雄3</t>
+    <t>游侠#3</t>
   </si>
   <si>
     <t>穿透箭基础伤害提高200%</t>
@@ -513,7 +601,7 @@
     <t>rune_29</t>
   </si>
   <si>
-    <t>专属英雄4</t>
+    <t>游侠#4</t>
   </si>
   <si>
     <t>穿透箭命中时有40%概率造成5倍伤害</t>
@@ -522,7 +610,7 @@
     <t>rune_30</t>
   </si>
   <si>
-    <t>专属英雄5</t>
+    <t>游侠#5</t>
   </si>
   <si>
     <t>分裂箭的基础伤害提高200%</t>
@@ -531,7 +619,7 @@
     <t>rune_31</t>
   </si>
   <si>
-    <t>专属英雄6</t>
+    <t>游侠#6</t>
   </si>
   <si>
     <t>分裂箭对减速的敌人造成的伤害提高200%</t>
@@ -540,7 +628,7 @@
     <t>rune_32</t>
   </si>
   <si>
-    <t>专属英雄7</t>
+    <t>游侠#7</t>
   </si>
   <si>
     <t>连续射击的基础伤害提高200%</t>
@@ -549,7 +637,7 @@
     <t>rune_33</t>
   </si>
   <si>
-    <t>专属英雄8</t>
+    <t>游侠#8</t>
   </si>
   <si>
     <t>连续射击【击破】最大层数提高至30层</t>
@@ -558,7 +646,7 @@
     <t>rune_34</t>
   </si>
   <si>
-    <t>专属英雄9</t>
+    <t>游侠#9</t>
   </si>
   <si>
     <t>连续射击【冰爆】的伤害提升至500%</t>
@@ -567,7 +655,7 @@
     <t>rune_35</t>
   </si>
   <si>
-    <t>专属英雄10</t>
+    <t>游侠#10</t>
   </si>
   <si>
     <t>连续射击【冰爆】的范围提高50%，且必定触发冰爆</t>
@@ -576,7 +664,7 @@
     <t>rune_36</t>
   </si>
   <si>
-    <t>专属英雄11</t>
+    <t>游侠#11</t>
   </si>
   <si>
     <t>散射的基础伤害提高200%</t>
@@ -585,7 +673,7 @@
     <t>rune_37</t>
   </si>
   <si>
-    <t>专属英雄12</t>
+    <t>游侠#12</t>
   </si>
   <si>
     <t>散射【火力覆盖】火元素伤害提高50%</t>
@@ -594,7 +682,7 @@
     <t>rune_38</t>
   </si>
   <si>
-    <t>专属英雄13</t>
+    <t>游侠#13</t>
   </si>
   <si>
     <t>双喷再次释放时可以再次触发效果（可套娃）</t>
@@ -603,7 +691,7 @@
     <t>rune_39</t>
   </si>
   <si>
-    <t>专属英雄14</t>
+    <t>游侠#14</t>
   </si>
   <si>
     <t>散射【痛击】生效时，造成伤害提供至500%，
@@ -613,7 +701,7 @@
     <t>rune_40</t>
   </si>
   <si>
-    <t>专属英雄15</t>
+    <t>游侠#15</t>
   </si>
   <si>
     <t>风暴环绕的基础伤害提高100%</t>
@@ -622,7 +710,7 @@
     <t>rune_41</t>
   </si>
   <si>
-    <t>专属英雄16</t>
+    <t>游侠#16</t>
   </si>
   <si>
     <t>风暴环绕【疾风】生效时，风元素伤害增加50%</t>
@@ -631,7 +719,7 @@
     <t>rune_42</t>
   </si>
   <si>
-    <t>专属英雄17</t>
+    <t>游侠#17</t>
   </si>
   <si>
     <t>风暴环绕【冰雹】会吸附敌人</t>
@@ -640,7 +728,7 @@
     <t>rune_43</t>
   </si>
   <si>
-    <t>专属英雄18</t>
+    <t>游侠#18</t>
   </si>
   <si>
     <t>风暴环绕 【暴雪】记录值翻倍</t>
@@ -649,7 +737,7 @@
     <t>rune_44</t>
   </si>
   <si>
-    <t>专属英雄19</t>
+    <t>游侠#19</t>
   </si>
   <si>
     <t>箭雨的基础伤害提高50%</t>
@@ -658,7 +746,7 @@
     <t>rune_45</t>
   </si>
   <si>
-    <t>专属英雄20</t>
+    <t>游侠#20</t>
   </si>
   <si>
     <t>箭雨【燃矢】灼烧伤害提升至200%，持续时间延长至10秒</t>
@@ -667,7 +755,7 @@
     <t>rune_46</t>
   </si>
   <si>
-    <t>专属英雄21</t>
+    <t>游侠#21</t>
   </si>
   <si>
     <t>箭雨【集火】最高可叠加层数增加至20层</t>
@@ -676,7 +764,7 @@
     <t>rune_47</t>
   </si>
   <si>
-    <t>专属英雄22</t>
+    <t>游侠#22</t>
   </si>
   <si>
     <t>箭雨【急冻】生效时，额外增加的5支箭</t>
@@ -685,7 +773,7 @@
     <t>rune_48</t>
   </si>
   <si>
-    <t>专属英雄23</t>
+    <t>游侠#23</t>
   </si>
   <si>
     <t>使用能量回复后，获得35%伤害减免，持续15秒</t>
@@ -694,7 +782,7 @@
     <t>rune_49</t>
   </si>
   <si>
-    <t>专属英雄24</t>
+    <t>游侠#24</t>
   </si>
   <si>
     <t>使用能量回复后，获得35%伤害加成，持续15秒</t>
@@ -703,7 +791,7 @@
     <t>rune_50</t>
   </si>
   <si>
-    <t>专属英雄25</t>
+    <t>游侠#25</t>
   </si>
   <si>
     <t>复仇持续期间，基础技能的伤害提高100%</t>
@@ -712,7 +800,7 @@
     <t>rune_51</t>
   </si>
   <si>
-    <t>专属英雄26</t>
+    <t>游侠#26</t>
   </si>
   <si>
     <t>复仇的基础冷却时间减少30%</t>
@@ -721,7 +809,7 @@
     <t>rune_52</t>
   </si>
   <si>
-    <t>专属英雄27</t>
+    <t>法爷#1</t>
   </si>
   <si>
     <t>雷鸣基础伤害提高100%</t>
@@ -730,7 +818,7 @@
     <t>rune_53</t>
   </si>
   <si>
-    <t>专属英雄28</t>
+    <t>法爷#2</t>
   </si>
   <si>
     <t>悲鸣的要求改变为不需要暴击可直接触发</t>
@@ -739,7 +827,7 @@
     <t>rune_54</t>
   </si>
   <si>
-    <t>专属英雄29</t>
+    <t>法爷#3</t>
   </si>
   <si>
     <t>引雷区域扩大至半径500码</t>
@@ -748,17 +836,16 @@
     <t>rune_55</t>
   </si>
   <si>
-    <t>专属英雄30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-寒风波基础伤害提高100%</t>
+    <t>法爷#4</t>
+  </si>
+  <si>
+    <t>寒风波基础伤害提高100%</t>
   </si>
   <si>
     <t>rune_56</t>
   </si>
   <si>
-    <t>专属英雄31</t>
+    <t>法爷#5</t>
   </si>
   <si>
     <t>霜冻触发时，伤害提高至10倍</t>
@@ -767,7 +854,7 @@
     <t>rune_57</t>
   </si>
   <si>
-    <t>专属英雄32</t>
+    <t>法爷#6</t>
   </si>
   <si>
     <t>炎龙基础伤害提高100%</t>
@@ -776,7 +863,7 @@
     <t>rune_58</t>
   </si>
   <si>
-    <t>专属英雄33</t>
+    <t>法爷#7</t>
   </si>
   <si>
     <t>龙啸不再需要蓄力即可发出最高数量炎龙</t>
@@ -785,7 +872,7 @@
     <t>rune_59</t>
   </si>
   <si>
-    <t>专属英雄34</t>
+    <t>法爷#8</t>
   </si>
   <si>
     <t>元素缠绕系列基础伤害提高200%</t>
@@ -794,7 +881,7 @@
     <t>rune_60</t>
   </si>
   <si>
-    <t>专属英雄35</t>
+    <t>法爷#9</t>
   </si>
   <si>
     <t>炎爆每次生成火球时，一次性生成5个，火球上限突破至8个</t>
@@ -803,7 +890,7 @@
     <t>rune_61</t>
   </si>
   <si>
-    <t>专属英雄36</t>
+    <t>法爷#10</t>
   </si>
   <si>
     <t>元素缠绕系列基础伤害间隔减少50%</t>
@@ -812,7 +899,7 @@
     <t>rune_62</t>
   </si>
   <si>
-    <t>专属英雄37</t>
+    <t>法爷#11</t>
   </si>
   <si>
     <t>霜降对被冻结的单位造成伤害提高200%</t>
@@ -821,7 +908,7 @@
     <t>rune_63</t>
   </si>
   <si>
-    <t>专属英雄38</t>
+    <t>法爷#12</t>
   </si>
   <si>
     <t>霜降生成的冰块数量翻倍</t>
@@ -830,7 +917,7 @@
     <t>rune_64</t>
   </si>
   <si>
-    <t>专属英雄39</t>
+    <t>法爷#13</t>
   </si>
   <si>
     <t>雷电屏障系列的基础伤害提高100%</t>
@@ -839,7 +926,7 @@
     <t>rune_65</t>
   </si>
   <si>
-    <t>专属英雄40</t>
+    <t>法爷#14</t>
   </si>
   <si>
     <t>感电线圈伤害间隔减少50%</t>
@@ -848,7 +935,7 @@
     <t>rune_66</t>
   </si>
   <si>
-    <t>专属英雄41</t>
+    <t>法爷#15</t>
   </si>
   <si>
     <t>极寒冰圈伤害间隔减少50%</t>
@@ -857,7 +944,7 @@
     <t>rune_67</t>
   </si>
   <si>
-    <t>专属英雄42</t>
+    <t>法爷#16</t>
   </si>
   <si>
     <t>控雷生成的电圈将永久存在</t>
@@ -866,7 +953,7 @@
     <t>rune_68</t>
   </si>
   <si>
-    <t>专属英雄43</t>
+    <t>法爷#17</t>
   </si>
   <si>
     <t>冷气效果上限增加至20层</t>
@@ -875,7 +962,7 @@
     <t>rune_69</t>
   </si>
   <si>
-    <t>专属英雄44</t>
+    <t>法爷#18</t>
   </si>
   <si>
     <t>元素轰炸系列的基础伤害提高100%</t>
@@ -884,7 +971,7 @@
     <t>rune_70</t>
   </si>
   <si>
-    <t>专属英雄45</t>
+    <t>法爷#19</t>
   </si>
   <si>
     <t>陨石雨数量增加1枚，范围扩大100码</t>
@@ -893,7 +980,7 @@
     <t>rune_71</t>
   </si>
   <si>
-    <t>专属英雄46</t>
+    <t>法爷#20</t>
   </si>
   <si>
     <t>陨石雨变为瞬发不再吟唱</t>
@@ -902,7 +989,7 @@
     <t>rune_72</t>
   </si>
   <si>
-    <t>专属英雄47</t>
+    <t>法爷#21</t>
   </si>
   <si>
     <t>陨石雨命中时会直接结算敌方单位的灼烧伤害</t>
@@ -911,7 +998,7 @@
     <t>rune_73</t>
   </si>
   <si>
-    <t>专属英雄48</t>
+    <t>法爷#22</t>
   </si>
   <si>
     <t>雷云数量翻倍，雷云攻击间隔降低至0.75</t>
@@ -920,7 +1007,7 @@
     <t>rune_74</t>
   </si>
   <si>
-    <t>专属英雄49</t>
+    <t>法爷#23</t>
   </si>
   <si>
     <t>雷云可攻击目标增加为3名敌人</t>
@@ -929,7 +1016,7 @@
     <t>rune_75</t>
   </si>
   <si>
-    <t>专属英雄50</t>
+    <t>法爷#24</t>
   </si>
   <si>
     <t>焚天效果变为可叠加，至多叠加5层</t>
@@ -938,7 +1025,7 @@
     <t>rune_76</t>
   </si>
   <si>
-    <t>专属英雄51</t>
+    <t>法爷#25</t>
   </si>
   <si>
     <t>极寒领域对冻结的单位造成伤害提升55%</t>
@@ -947,7 +1034,7 @@
     <t>rune_77</t>
   </si>
   <si>
-    <t>专属英雄52</t>
+    <t>法爷#26</t>
   </si>
   <si>
     <t>死亡空间的基础伤害提升100%</t>
@@ -956,7 +1043,7 @@
     <t>rune_78</t>
   </si>
   <si>
-    <t>专属英雄53</t>
+    <t>法爷#27</t>
   </si>
   <si>
     <t>至暗移除生命值消耗</t>
@@ -965,7 +1052,7 @@
     <t>rune_79</t>
   </si>
   <si>
-    <t>专属英雄54</t>
+    <t>法爷#28</t>
   </si>
   <si>
     <t>聪慧每消耗1点蓝量该次技能消耗提高2%</t>
@@ -974,7 +1061,7 @@
     <t>rune_80</t>
   </si>
   <si>
-    <t>专属英雄55</t>
+    <t>法爷#29</t>
   </si>
   <si>
     <t>分身的基础cd减少20秒</t>
@@ -983,7 +1070,7 @@
     <t>rune_81</t>
   </si>
   <si>
-    <t>专属英雄56</t>
+    <t>战士#1</t>
   </si>
   <si>
     <t>旋风斩基础伤害提高100%</t>
@@ -992,7 +1079,7 @@
     <t>rune_82</t>
   </si>
   <si>
-    <t>专属英雄57</t>
+    <t>战士#2</t>
   </si>
   <si>
     <t>锤锤基础伤害提高100%</t>
@@ -1001,7 +1088,7 @@
     <t>rune_83</t>
   </si>
   <si>
-    <t>专属英雄58</t>
+    <t>战士#3</t>
   </si>
   <si>
     <t>冲锋基础伤害提高100%</t>
@@ -1010,7 +1097,7 @@
     <t>rune_84</t>
   </si>
   <si>
-    <t>专属英雄59</t>
+    <t>战士#4</t>
   </si>
   <si>
     <t>裂地斩基础伤害提高100%</t>
@@ -1019,7 +1106,7 @@
     <t>rune_85</t>
   </si>
   <si>
-    <t>专属英雄60</t>
+    <t>战士#5</t>
   </si>
   <si>
     <t>冲锋触发公牛时，公牛伤害提高100%，且爆炸范围提升50%</t>
@@ -1028,7 +1115,7 @@
     <t>rune_86</t>
   </si>
   <si>
-    <t>专属英雄61</t>
+    <t>战士#6</t>
   </si>
   <si>
     <t>裂地斩触发电涌时，后续伤害提升至上一次的300%</t>
@@ -1037,7 +1124,7 @@
     <t>rune_87</t>
   </si>
   <si>
-    <t>专属英雄62</t>
+    <t>战士#7</t>
   </si>
   <si>
     <t>锤锤触发盛怒时，效果提高至原来的5倍</t>
@@ -1046,7 +1133,7 @@
     <t>rune_88</t>
   </si>
   <si>
-    <t>专属英雄63</t>
+    <t>战士#8</t>
   </si>
   <si>
     <t>痛割命中多人时伤害提高30%，但目标会有一个时伤害提高100%</t>
@@ -1055,7 +1142,7 @@
     <t>rune_89</t>
   </si>
   <si>
-    <t>专属英雄64</t>
+    <t>战士#9</t>
   </si>
   <si>
     <t>提升灼烧伤害200%</t>
@@ -1064,7 +1151,7 @@
     <t>rune_90</t>
   </si>
   <si>
-    <t>专属英雄65</t>
+    <t>战士#10</t>
   </si>
   <si>
     <t>旋风斩触发收割时，伤害提高200%</t>
@@ -1073,7 +1160,7 @@
     <t>rune_91</t>
   </si>
   <si>
-    <t>专属英雄66</t>
+    <t>战士#11</t>
   </si>
   <si>
     <t>旋风斩触发撕裂时，伤害提高至原来的3倍</t>
@@ -1082,7 +1169,7 @@
     <t>rune_92</t>
   </si>
   <si>
-    <t>专属英雄67</t>
+    <t>战士#12</t>
   </si>
   <si>
     <t>冲锋在触发牵制的期间伤害提高100%</t>
@@ -1091,7 +1178,7 @@
     <t>rune_93</t>
   </si>
   <si>
-    <t>专属英雄68</t>
+    <t>战士#13</t>
   </si>
   <si>
     <t>差时的间隔缩减至2秒</t>
@@ -1100,7 +1187,7 @@
     <t>rune_94</t>
   </si>
   <si>
-    <t>专属英雄69</t>
+    <t>战士#14</t>
   </si>
   <si>
     <t>使用钩爪后获得50%伤害减免，持续5秒</t>
@@ -1109,7 +1196,7 @@
     <t>rune_95</t>
   </si>
   <si>
-    <t>专属英雄70</t>
+    <t>战士#15</t>
   </si>
   <si>
     <t>战吼触发亢奋时，无视敌人数量条件，并提高15%移动速度，持续5秒</t>
@@ -1118,7 +1205,7 @@
     <t>rune_96</t>
   </si>
   <si>
-    <t>专属英雄71</t>
+    <t>战士#16</t>
   </si>
   <si>
     <t>先祖之魂改变为常驻被动技能</t>
@@ -1127,7 +1214,7 @@
     <t>rune_97</t>
   </si>
   <si>
-    <t>专属英雄72</t>
+    <t>战士#17</t>
   </si>
   <si>
     <t>冲锋在触发牵制的期间，获得30%伤害加成和30%伤害减免</t>
@@ -1136,7 +1223,7 @@
     <t>rune_98</t>
   </si>
   <si>
-    <t>专属英雄73</t>
+    <t>战士#18</t>
   </si>
   <si>
     <t>使用钩爪之后3秒内造成伤害翻倍</t>
@@ -1152,7 +1239,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1170,6 +1257,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1356,7 +1449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1390,6 +1483,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF59B96F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1950,76 +2055,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2028,10 +2127,10 @@
     <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2040,10 +2139,10 @@
     <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2052,10 +2151,10 @@
     <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2064,10 +2163,10 @@
     <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2076,11 +2175,17 @@
     <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2120,40 +2225,55 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2162,70 +2282,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2361,7 +2481,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EF520A5E-E4B1-42AC-92C4-EC5174125DA2}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{AD1EE35A-4F91-4A24-899E-1521A3C713E6}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -2370,6 +2490,8 @@
   <colors>
     <mruColors>
       <color rgb="00FFFF00"/>
+      <color rgb="004B6D17"/>
+      <color rgb="0059B96F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2669,10 +2791,10 @@
   <sheetPr/>
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C26" sqref="C26"/>
+      <selection pane="topRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2759,20 +2881,20 @@
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="24" t="s">
+      <c r="V1" s="27"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="38" t="s">
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2823,13 +2945,13 @@
       <c r="P2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="25">
-        <v>1</v>
-      </c>
-      <c r="R2" s="25">
+      <c r="Q2" s="30">
+        <v>1</v>
+      </c>
+      <c r="R2" s="30">
         <v>2</v>
       </c>
-      <c r="S2" s="25">
+      <c r="S2" s="30">
         <v>3</v>
       </c>
       <c r="T2" s="10">
@@ -2838,22 +2960,22 @@
       <c r="U2" s="10">
         <v>5</v>
       </c>
-      <c r="V2" s="26">
+      <c r="V2" s="31">
         <v>6</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="W2" s="32" t="s">
         <v>32</v>
       </c>
       <c r="X2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="34">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="34">
+      <c r="Y2" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="39">
         <v>2</v>
       </c>
-      <c r="AA2" s="34">
+      <c r="AA2" s="39">
         <v>3</v>
       </c>
       <c r="AB2" s="15">
@@ -2871,7 +2993,7 @@
       <c r="AF2" s="15">
         <v>8</v>
       </c>
-      <c r="AG2" s="28" t="s">
+      <c r="AG2" s="33" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2907,15 +3029,15 @@
       <c r="K3" s="15">
         <v>1</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="25" t="s">
         <v>38</v>
       </c>
       <c r="N3" s="15" t="str">
         <f>B3</f>
-        <v>通用符文1</v>
+        <v>通用符文#1</v>
       </c>
       <c r="O3" s="15">
         <v>0</v>
@@ -2930,8 +3052,8 @@
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="29"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="34"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="10" t="s">
         <v>41</v>
@@ -2943,7 +3065,7 @@
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
-      <c r="AG3" s="26"/>
+      <c r="AG3" s="31"/>
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:33">
       <c r="A4" s="12" t="s">
@@ -2979,10 +3101,10 @@
       <c r="K4" s="10">
         <v>1</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N4" s="10" t="str">
@@ -2998,8 +3120,8 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="30"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="35"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="15" t="s">
         <v>46</v>
@@ -3011,9 +3133,9 @@
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
       <c r="AF4" s="15"/>
-      <c r="AG4" s="28"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+      <c r="AG4" s="33"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="49.5" spans="1:33">
       <c r="A5" s="12" t="s">
         <v>47</v>
       </c>
@@ -3023,9 +3145,7 @@
       <c r="C5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="D5" s="14"/>
       <c r="E5" s="15">
         <v>1</v>
       </c>
@@ -3047,10 +3167,10 @@
       <c r="K5" s="15">
         <v>1</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="25" t="s">
         <v>38</v>
       </c>
       <c r="N5" s="15" t="str">
@@ -3061,13 +3181,15 @@
         <v>0</v>
       </c>
       <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="Q5" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="29"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="34"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="10" t="s">
         <v>51</v>
@@ -3079,13 +3201,13 @@
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
-      <c r="AG5" s="26"/>
+      <c r="AG5" s="31"/>
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:33">
       <c r="A6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -3115,10 +3237,10 @@
       <c r="K6" s="10">
         <v>1</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N6" s="10" t="str">
@@ -3134,8 +3256,8 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="30"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="35"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="15" t="s">
         <v>56</v>
@@ -3147,9 +3269,9 @@
       <c r="AD6" s="15"/>
       <c r="AE6" s="15"/>
       <c r="AF6" s="15"/>
-      <c r="AG6" s="28"/>
-    </row>
-    <row r="7" ht="30.5" customHeight="1" spans="1:33">
+      <c r="AG6" s="33"/>
+    </row>
+    <row r="7" ht="49.5" spans="1:33">
       <c r="A7" s="12" t="s">
         <v>57</v>
       </c>
@@ -3181,10 +3303,10 @@
       <c r="K7" s="15">
         <v>1</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="25" t="s">
         <v>38</v>
       </c>
       <c r="N7" s="15" t="str">
@@ -3195,13 +3317,15 @@
         <v>0</v>
       </c>
       <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+      <c r="Q7" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="29"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="34"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
@@ -3211,17 +3335,17 @@
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
-      <c r="AG7" s="26"/>
-    </row>
-    <row r="8" ht="30.5" customHeight="1" spans="1:33">
+      <c r="AG7" s="31"/>
+    </row>
+    <row r="8" ht="49.5" spans="1:33">
       <c r="A8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="16" t="s">
         <v>61</v>
       </c>
+      <c r="B8" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="C8" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="10">
@@ -3245,10 +3369,10 @@
       <c r="K8" s="10">
         <v>1</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N8" s="10" t="str">
@@ -3259,13 +3383,15 @@
         <v>0</v>
       </c>
       <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+      <c r="Q8" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="30"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="35"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -3275,17 +3401,17 @@
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
       <c r="AF8" s="15"/>
-      <c r="AG8" s="28"/>
-    </row>
-    <row r="9" ht="30.5" customHeight="1" spans="1:33">
+      <c r="AG8" s="33"/>
+    </row>
+    <row r="9" ht="49.5" spans="1:33">
       <c r="A9" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15">
@@ -3309,10 +3435,10 @@
       <c r="K9" s="15">
         <v>1</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="25" t="s">
         <v>38</v>
       </c>
       <c r="N9" s="15" t="str">
@@ -3323,13 +3449,15 @@
         <v>0</v>
       </c>
       <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="29"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="34"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
@@ -3339,20 +3467,20 @@
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
-      <c r="AG9" s="26"/>
+      <c r="AG9" s="31"/>
     </row>
     <row r="10" ht="30.5" customHeight="1" spans="1:33">
       <c r="A10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
@@ -3375,10 +3503,10 @@
       <c r="K10" s="10">
         <v>1</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N10" s="10" t="str">
@@ -3394,37 +3522,37 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="30"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="35"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Z10" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AA10" s="15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB10" s="15"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
       <c r="AF10" s="15"/>
-      <c r="AG10" s="28"/>
-    </row>
-    <row r="11" ht="30.5" customHeight="1" spans="1:33">
+      <c r="AG10" s="33"/>
+    </row>
+    <row r="11" ht="49.5" spans="1:33">
       <c r="A11" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E11" s="15">
         <v>1</v>
@@ -3447,11 +3575,11 @@
       <c r="K11" s="15">
         <v>1</v>
       </c>
-      <c r="L11" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>77</v>
+      <c r="L11" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="N11" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3461,19 +3589,21 @@
         <v>0</v>
       </c>
       <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
+      <c r="Q11" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="29"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="34"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
@@ -3481,20 +3611,20 @@
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
-      <c r="AG11" s="26"/>
+      <c r="AG11" s="31"/>
     </row>
     <row r="12" ht="30.5" customHeight="1" spans="1:33">
       <c r="A12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
@@ -3517,10 +3647,10 @@
       <c r="K12" s="10">
         <v>1</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N12" s="10" t="str">
@@ -3536,14 +3666,14 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="30"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="35"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Z12" s="15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AA12" s="15"/>
       <c r="AB12" s="15"/>
@@ -3551,20 +3681,20 @@
       <c r="AD12" s="15"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="15"/>
-      <c r="AG12" s="28"/>
+      <c r="AG12" s="33"/>
     </row>
     <row r="13" ht="30.5" customHeight="1" spans="1:33">
       <c r="A13" s="12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E13" s="15">
         <v>1</v>
@@ -3587,10 +3717,10 @@
       <c r="K13" s="15">
         <v>1</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="25" t="s">
         <v>38</v>
       </c>
       <c r="N13" s="15" t="str">
@@ -3606,39 +3736,39 @@
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="29"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="34"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB13" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
-      <c r="AG13" s="26"/>
+      <c r="AG13" s="31"/>
     </row>
     <row r="14" ht="33" spans="1:33">
       <c r="A14" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E14" s="10">
         <v>1</v>
@@ -3661,11 +3791,11 @@
       <c r="K14" s="10">
         <v>1</v>
       </c>
-      <c r="L14" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>96</v>
+      <c r="L14" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="N14" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3680,14 +3810,14 @@
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="30"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="35"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Z14" s="15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
@@ -3695,21 +3825,19 @@
       <c r="AD14" s="15"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="15"/>
-      <c r="AG14" s="28"/>
-    </row>
-    <row r="15" ht="30.5" customHeight="1" spans="1:33">
+      <c r="AG14" s="33"/>
+    </row>
+    <row r="15" ht="49.5" spans="1:33">
       <c r="A15" s="12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>50</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D15" s="14"/>
       <c r="E15" s="15">
         <v>1</v>
       </c>
@@ -3731,11 +3859,11 @@
       <c r="K15" s="15">
         <v>1</v>
       </c>
-      <c r="L15" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>96</v>
+      <c r="L15" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3745,13 +3873,17 @@
         <v>0</v>
       </c>
       <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
+      <c r="Q15" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="29"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="34"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
@@ -3761,20 +3893,20 @@
       <c r="AD15" s="10"/>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
-      <c r="AG15" s="26"/>
-    </row>
-    <row r="16" ht="30.5" customHeight="1" spans="1:33">
+      <c r="AG15" s="31"/>
+    </row>
+    <row r="16" ht="49.5" spans="1:33">
       <c r="A16" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -3797,11 +3929,11 @@
       <c r="K16" s="10">
         <v>1</v>
       </c>
-      <c r="L16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>96</v>
+      <c r="L16" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="N16" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3811,16 +3943,18 @@
         <v>0</v>
       </c>
       <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
+      <c r="Q16" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="30"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="35"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="15" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
@@ -3829,20 +3963,20 @@
       <c r="AD16" s="15"/>
       <c r="AE16" s="15"/>
       <c r="AF16" s="15"/>
-      <c r="AG16" s="28"/>
+      <c r="AG16" s="33"/>
     </row>
     <row r="17" ht="30.5" customHeight="1" spans="1:33">
       <c r="A17" s="12" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
@@ -3865,10 +3999,10 @@
       <c r="K17" s="15">
         <v>1</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="25" t="s">
         <v>38</v>
       </c>
       <c r="N17" s="15" t="str">
@@ -3884,14 +4018,14 @@
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="29"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="34"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
@@ -3899,20 +4033,20 @@
       <c r="AD17" s="10"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
-      <c r="AG17" s="26"/>
-    </row>
-    <row r="18" ht="30.5" customHeight="1" spans="1:33">
+      <c r="AG17" s="31"/>
+    </row>
+    <row r="18" ht="49.5" spans="1:33">
       <c r="A18" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E18" s="10">
         <v>1</v>
@@ -3935,11 +4069,11 @@
       <c r="K18" s="10">
         <v>1</v>
       </c>
-      <c r="L18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>96</v>
+      <c r="L18" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="N18" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3949,19 +4083,21 @@
         <v>0</v>
       </c>
       <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+      <c r="Q18" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="30"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="35"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="15" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Z18" s="15" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AA18" s="15"/>
       <c r="AB18" s="15"/>
@@ -3969,20 +4105,20 @@
       <c r="AD18" s="15"/>
       <c r="AE18" s="15"/>
       <c r="AF18" s="15"/>
-      <c r="AG18" s="28"/>
-    </row>
-    <row r="19" ht="30.5" customHeight="1" spans="1:33">
+      <c r="AG18" s="33"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:33">
       <c r="A19" s="12" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E19" s="15">
         <v>1</v>
@@ -4005,11 +4141,11 @@
       <c r="K19" s="15">
         <v>1</v>
       </c>
-      <c r="L19" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>96</v>
+      <c r="L19" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="N19" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4024,14 +4160,14 @@
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="29"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="34"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
@@ -4039,20 +4175,20 @@
       <c r="AD19" s="10"/>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
-      <c r="AG19" s="26"/>
-    </row>
-    <row r="20" ht="30.5" customHeight="1" spans="1:33">
+      <c r="AG19" s="31"/>
+    </row>
+    <row r="20" ht="49.5" spans="1:33">
       <c r="A20" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>121</v>
+        <v>129</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>130</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="E20" s="10">
         <v>1</v>
@@ -4075,10 +4211,10 @@
       <c r="K20" s="10">
         <v>1</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N20" s="10" t="str">
@@ -4089,13 +4225,17 @@
         <v>0</v>
       </c>
       <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
+      <c r="Q20" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="30"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="35"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
@@ -4105,17 +4245,17 @@
       <c r="AD20" s="15"/>
       <c r="AE20" s="15"/>
       <c r="AF20" s="15"/>
-      <c r="AG20" s="28"/>
+      <c r="AG20" s="33"/>
     </row>
     <row r="21" ht="49.5" spans="1:33">
       <c r="A21" s="12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15">
@@ -4139,10 +4279,10 @@
       <c r="K21" s="15">
         <v>1</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="M21" s="25" t="s">
         <v>38</v>
       </c>
       <c r="N21" s="15" t="str">
@@ -4154,14 +4294,14 @@
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="15" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="29"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="34"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
@@ -4171,20 +4311,20 @@
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
-      <c r="AG21" s="26"/>
+      <c r="AG21" s="31"/>
     </row>
     <row r="22" ht="49.5" spans="1:33">
       <c r="A22" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>128</v>
+        <v>138</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E22" s="10">
         <v>1</v>
@@ -4207,10 +4347,10 @@
       <c r="K22" s="10">
         <v>1</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="M22" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N22" s="10" t="str">
@@ -4226,14 +4366,14 @@
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="30"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="35"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="15" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="Z22" s="15" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
@@ -4241,20 +4381,20 @@
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
       <c r="AF22" s="15"/>
-      <c r="AG22" s="28"/>
+      <c r="AG22" s="33"/>
     </row>
     <row r="23" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A23" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>133</v>
+        <v>143</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E23" s="15">
         <v>1</v>
@@ -4277,11 +4417,11 @@
       <c r="K23" s="15">
         <v>1</v>
       </c>
-      <c r="L23" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>96</v>
+      <c r="L23" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="N23" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4296,8 +4436,8 @@
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="29"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="34"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
@@ -4307,20 +4447,20 @@
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
-      <c r="AG23" s="26"/>
+      <c r="AG23" s="31"/>
     </row>
     <row r="24" ht="30.5" customHeight="1" spans="1:33">
       <c r="A24" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>136</v>
+        <v>146</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E24" s="10">
         <v>1</v>
@@ -4343,11 +4483,11 @@
       <c r="K24" s="10">
         <v>1</v>
       </c>
-      <c r="L24" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>96</v>
+      <c r="L24" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="N24" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4362,31 +4502,37 @@
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="30"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="35"/>
       <c r="X24" s="12"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
+      <c r="Y24" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z24" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA24" s="15" t="s">
+        <v>151</v>
+      </c>
       <c r="AB24" s="15"/>
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
       <c r="AF24" s="15"/>
-      <c r="AG24" s="28"/>
+      <c r="AG24" s="33"/>
     </row>
     <row r="25" ht="30.5" customHeight="1" spans="1:33">
       <c r="A25" s="12" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E25" s="15">
         <v>1</v>
@@ -4409,10 +4555,10 @@
       <c r="K25" s="15">
         <v>1</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="25" t="s">
         <v>38</v>
       </c>
       <c r="N25" s="15" t="str">
@@ -4428,31 +4574,35 @@
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="29"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="34"/>
       <c r="X25" s="9"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
+      <c r="Y25" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z25" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
-      <c r="AG25" s="26"/>
+      <c r="AG25" s="31"/>
     </row>
     <row r="26" ht="30.5" customHeight="1" spans="1:33">
       <c r="A26" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>142</v>
+        <v>156</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E26" s="10">
         <v>1</v>
@@ -4475,10 +4625,10 @@
       <c r="K26" s="10">
         <v>1</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M26" s="16" t="s">
+      <c r="M26" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N26" s="10" t="str">
@@ -4494,31 +4644,35 @@
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="30"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="35"/>
       <c r="X26" s="12"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
+      <c r="Y26" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z26" s="15" t="s">
+        <v>160</v>
+      </c>
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
       <c r="AE26" s="15"/>
       <c r="AF26" s="15"/>
-      <c r="AG26" s="28"/>
+      <c r="AG26" s="33"/>
     </row>
     <row r="27" ht="30.5" customHeight="1" spans="1:33">
       <c r="A27" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>145</v>
+        <v>161</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="E27" s="15">
         <v>1</v>
@@ -4541,10 +4695,10 @@
       <c r="K27" s="15">
         <v>1</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="25" t="s">
         <v>38</v>
       </c>
       <c r="N27" s="15" t="str">
@@ -4560,10 +4714,12 @@
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="29"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="34"/>
       <c r="X27" s="9"/>
-      <c r="Y27" s="10"/>
+      <c r="Y27" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
@@ -4571,23 +4727,23 @@
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
-      <c r="AG27" s="26"/>
+      <c r="AG27" s="31"/>
     </row>
     <row r="28" ht="30.5" customHeight="1" spans="1:33">
       <c r="A28" s="12" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="18"/>
+        <v>166</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="21"/>
       <c r="E28" s="10">
         <v>0</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="21">
         <v>1</v>
       </c>
       <c r="G28" s="10">
@@ -4606,14 +4762,14 @@
         <v>1</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N28" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>专属英雄1</v>
+        <v>游侠#1</v>
       </c>
       <c r="O28" s="10">
         <v>0</v>
@@ -4624,34 +4780,38 @@
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="30"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="35"/>
       <c r="X28" s="12"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
+      <c r="Y28" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z28" s="15" t="s">
+        <v>170</v>
+      </c>
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
       <c r="AE28" s="15"/>
       <c r="AF28" s="15"/>
-      <c r="AG28" s="28"/>
+      <c r="AG28" s="33"/>
     </row>
     <row r="29" ht="30.5" customHeight="1" spans="1:33">
       <c r="A29" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="19"/>
+        <v>171</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="22"/>
       <c r="E29" s="15">
         <v>0</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="22">
         <v>1</v>
       </c>
       <c r="G29" s="15">
@@ -4670,14 +4830,14 @@
         <v>1</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N29" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>专属英雄2</v>
+        <v>游侠#2</v>
       </c>
       <c r="O29" s="15">
         <v>0</v>
@@ -4688,34 +4848,38 @@
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="29"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="34"/>
       <c r="X29" s="9"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
+      <c r="Y29" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z29" s="10" t="s">
+        <v>175</v>
+      </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
-      <c r="AG29" s="26"/>
+      <c r="AG29" s="31"/>
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:33">
       <c r="A30" s="12" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="18"/>
+        <v>177</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="21"/>
       <c r="E30" s="10">
         <v>0</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="21">
         <v>1</v>
       </c>
       <c r="G30" s="10">
@@ -4734,14 +4898,14 @@
         <v>1</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N30" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>专属英雄3</v>
+        <v>游侠#3</v>
       </c>
       <c r="O30" s="10">
         <v>0</v>
@@ -4752,8 +4916,8 @@
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="30"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="35"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
@@ -4763,23 +4927,23 @@
       <c r="AD30" s="15"/>
       <c r="AE30" s="15"/>
       <c r="AF30" s="15"/>
-      <c r="AG30" s="28"/>
+      <c r="AG30" s="33"/>
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:33">
       <c r="A31" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="19"/>
+        <v>179</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="22"/>
       <c r="E31" s="15">
         <v>0</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="22">
         <v>1</v>
       </c>
       <c r="G31" s="15">
@@ -4798,14 +4962,14 @@
         <v>1</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N31" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>专属英雄4</v>
+        <v>游侠#4</v>
       </c>
       <c r="O31" s="15">
         <v>0</v>
@@ -4816,8 +4980,8 @@
       <c r="S31" s="15"/>
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="29"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="34"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
@@ -4827,23 +4991,23 @@
       <c r="AD31" s="10"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
-      <c r="AG31" s="26"/>
+      <c r="AG31" s="31"/>
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:33">
       <c r="A32" s="12" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="18"/>
+        <v>183</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="21"/>
       <c r="E32" s="10">
         <v>0</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="21">
         <v>1</v>
       </c>
       <c r="G32" s="10">
@@ -4862,14 +5026,14 @@
         <v>1</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N32" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>专属英雄5</v>
+        <v>游侠#5</v>
       </c>
       <c r="O32" s="10">
         <v>0</v>
@@ -4880,8 +5044,8 @@
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="30"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="35"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
@@ -4891,23 +5055,23 @@
       <c r="AD32" s="15"/>
       <c r="AE32" s="15"/>
       <c r="AF32" s="15"/>
-      <c r="AG32" s="28"/>
+      <c r="AG32" s="33"/>
     </row>
     <row r="33" ht="30.5" customHeight="1" spans="1:33">
       <c r="A33" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="19"/>
+        <v>185</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="22"/>
       <c r="E33" s="15">
         <v>0</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="22">
         <v>1</v>
       </c>
       <c r="G33" s="15">
@@ -4926,14 +5090,14 @@
         <v>1</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N33" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>专属英雄6</v>
+        <v>游侠#6</v>
       </c>
       <c r="O33" s="15">
         <v>0</v>
@@ -4944,8 +5108,8 @@
       <c r="S33" s="15"/>
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="29"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="34"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
@@ -4955,49 +5119,49 @@
       <c r="AD33" s="10"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
-      <c r="AG33" s="26"/>
+      <c r="AG33" s="31"/>
     </row>
     <row r="34" ht="30.5" customHeight="1" spans="1:33">
       <c r="A34" s="12" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="21">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10">
+        <v>101</v>
+      </c>
+      <c r="H34" s="10">
+        <v>100</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
+      <c r="J34" s="10">
+        <v>1</v>
+      </c>
+      <c r="K34" s="10">
+        <v>1</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M34" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10">
-        <v>101</v>
-      </c>
-      <c r="H34" s="10">
-        <v>100</v>
-      </c>
-      <c r="I34" s="10">
-        <v>1</v>
-      </c>
-      <c r="J34" s="10">
-        <v>1</v>
-      </c>
-      <c r="K34" s="10">
-        <v>1</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="N34" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>专属英雄7</v>
+        <v>游侠#7</v>
       </c>
       <c r="O34" s="10">
         <v>0</v>
@@ -5008,8 +5172,8 @@
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="30"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="35"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="15"/>
       <c r="Z34" s="15"/>
@@ -5019,23 +5183,23 @@
       <c r="AD34" s="15"/>
       <c r="AE34" s="15"/>
       <c r="AF34" s="15"/>
-      <c r="AG34" s="28"/>
+      <c r="AG34" s="33"/>
     </row>
     <row r="35" ht="30.5" customHeight="1" spans="1:33">
       <c r="A35" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" s="19"/>
+        <v>191</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="22"/>
       <c r="E35" s="15">
         <v>0</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="22">
         <v>1</v>
       </c>
       <c r="G35" s="15">
@@ -5054,14 +5218,14 @@
         <v>1</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N35" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>专属英雄8</v>
+        <v>游侠#8</v>
       </c>
       <c r="O35" s="15">
         <v>0</v>
@@ -5072,8 +5236,8 @@
       <c r="S35" s="15"/>
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="29"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="34"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
@@ -5083,23 +5247,23 @@
       <c r="AD35" s="10"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
-      <c r="AG35" s="26"/>
+      <c r="AG35" s="31"/>
     </row>
     <row r="36" ht="30.5" customHeight="1" spans="1:33">
       <c r="A36" s="12" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D36" s="18"/>
+        <v>195</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="21"/>
       <c r="E36" s="10">
         <v>0</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="21">
         <v>1</v>
       </c>
       <c r="G36" s="10">
@@ -5118,14 +5282,14 @@
         <v>1</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N36" s="10" t="str">
         <f t="shared" ref="N36:N67" si="1">B36</f>
-        <v>专属英雄9</v>
+        <v>游侠#9</v>
       </c>
       <c r="O36" s="10">
         <v>0</v>
@@ -5136,8 +5300,8 @@
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="30"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="35"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
@@ -5147,23 +5311,23 @@
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
       <c r="AF36" s="15"/>
-      <c r="AG36" s="28"/>
+      <c r="AG36" s="33"/>
     </row>
     <row r="37" ht="30.5" customHeight="1" spans="1:33">
       <c r="A37" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="19"/>
+        <v>197</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="22"/>
       <c r="E37" s="15">
         <v>0</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="22">
         <v>1</v>
       </c>
       <c r="G37" s="15">
@@ -5182,14 +5346,14 @@
         <v>1</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N37" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄10</v>
+        <v>游侠#10</v>
       </c>
       <c r="O37" s="15">
         <v>0</v>
@@ -5200,8 +5364,8 @@
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="29"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="34"/>
       <c r="X37" s="9"/>
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
@@ -5211,23 +5375,23 @@
       <c r="AD37" s="10"/>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
-      <c r="AG37" s="26"/>
+      <c r="AG37" s="31"/>
     </row>
     <row r="38" ht="31.25" customHeight="1" spans="1:33">
       <c r="A38" s="12" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="18"/>
+        <v>201</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="21"/>
       <c r="E38" s="10">
         <v>0</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="21">
         <v>1</v>
       </c>
       <c r="G38" s="10">
@@ -5246,14 +5410,14 @@
         <v>1</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N38" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄11</v>
+        <v>游侠#11</v>
       </c>
       <c r="O38" s="10">
         <v>0</v>
@@ -5264,34 +5428,34 @@
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="30"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="35"/>
       <c r="X38" s="12"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="40"/>
       <c r="AC38" s="15"/>
       <c r="AD38" s="15"/>
       <c r="AE38" s="15"/>
       <c r="AF38" s="15"/>
-      <c r="AG38" s="28"/>
+      <c r="AG38" s="33"/>
     </row>
     <row r="39" ht="30.5" customHeight="1" spans="1:33">
       <c r="A39" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="22"/>
       <c r="E39" s="15">
         <v>0</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="22">
         <v>1</v>
       </c>
       <c r="G39" s="15">
@@ -5310,14 +5474,14 @@
         <v>1</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N39" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄12</v>
+        <v>游侠#12</v>
       </c>
       <c r="O39" s="15">
         <v>0</v>
@@ -5328,34 +5492,34 @@
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="31"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="36"/>
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
-      <c r="AC39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="39"/>
+      <c r="AC39" s="41"/>
+      <c r="AD39" s="41"/>
+      <c r="AE39" s="41"/>
+      <c r="AF39" s="41"/>
+      <c r="AG39" s="44"/>
     </row>
     <row r="40" ht="30.5" customHeight="1" spans="1:33">
       <c r="A40" s="12" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D40" s="18"/>
+        <v>207</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" s="21"/>
       <c r="E40" s="10">
         <v>0</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="21">
         <v>1</v>
       </c>
       <c r="G40" s="10">
@@ -5374,14 +5538,14 @@
         <v>1</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N40" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄13</v>
+        <v>游侠#13</v>
       </c>
       <c r="O40" s="10">
         <v>0</v>
@@ -5392,34 +5556,34 @@
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="32"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="37"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
-      <c r="AC40" s="37"/>
-      <c r="AD40" s="37"/>
-      <c r="AE40" s="37"/>
-      <c r="AF40" s="37"/>
-      <c r="AG40" s="40"/>
+      <c r="AC40" s="42"/>
+      <c r="AD40" s="42"/>
+      <c r="AE40" s="42"/>
+      <c r="AF40" s="42"/>
+      <c r="AG40" s="45"/>
     </row>
     <row r="41" ht="30.5" customHeight="1" spans="1:33">
       <c r="A41" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D41" s="20"/>
+        <v>209</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="23"/>
       <c r="E41" s="15">
         <v>0</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="22">
         <v>1</v>
       </c>
       <c r="G41" s="15">
@@ -5438,14 +5602,14 @@
         <v>1</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N41" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄14</v>
+        <v>游侠#14</v>
       </c>
       <c r="O41" s="15">
         <v>0</v>
@@ -5456,34 +5620,34 @@
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="31"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="36"/>
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
       <c r="AA41" s="10"/>
       <c r="AB41" s="10"/>
-      <c r="AC41" s="36"/>
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="36"/>
-      <c r="AF41" s="36"/>
-      <c r="AG41" s="39"/>
+      <c r="AC41" s="41"/>
+      <c r="AD41" s="41"/>
+      <c r="AE41" s="41"/>
+      <c r="AF41" s="41"/>
+      <c r="AG41" s="44"/>
     </row>
     <row r="42" ht="30.5" customHeight="1" spans="1:33">
       <c r="A42" s="12" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="D42" s="18"/>
+        <v>213</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="21"/>
       <c r="E42" s="10">
         <v>0</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="21">
         <v>1</v>
       </c>
       <c r="G42" s="10">
@@ -5502,14 +5666,14 @@
         <v>1</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N42" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄15</v>
+        <v>游侠#15</v>
       </c>
       <c r="O42" s="10">
         <v>0</v>
@@ -5520,8 +5684,8 @@
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="30"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="35"/>
       <c r="X42" s="12"/>
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
@@ -5531,23 +5695,23 @@
       <c r="AD42" s="15"/>
       <c r="AE42" s="15"/>
       <c r="AF42" s="15"/>
-      <c r="AG42" s="28"/>
+      <c r="AG42" s="33"/>
     </row>
     <row r="43" ht="30.5" customHeight="1" spans="1:33">
       <c r="A43" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D43" s="19"/>
+        <v>215</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="22"/>
       <c r="E43" s="15">
         <v>0</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="22">
         <v>1</v>
       </c>
       <c r="G43" s="15">
@@ -5566,14 +5730,14 @@
         <v>1</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N43" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄16</v>
+        <v>游侠#16</v>
       </c>
       <c r="O43" s="15">
         <v>0</v>
@@ -5584,34 +5748,34 @@
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="31"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="36"/>
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
       <c r="AA43" s="10"/>
       <c r="AB43" s="10"/>
-      <c r="AC43" s="36"/>
-      <c r="AD43" s="36"/>
-      <c r="AE43" s="36"/>
-      <c r="AF43" s="36"/>
-      <c r="AG43" s="39"/>
+      <c r="AC43" s="41"/>
+      <c r="AD43" s="41"/>
+      <c r="AE43" s="41"/>
+      <c r="AF43" s="41"/>
+      <c r="AG43" s="44"/>
     </row>
     <row r="44" ht="30.5" customHeight="1" spans="1:33">
       <c r="A44" s="12" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" s="18"/>
+        <v>219</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D44" s="21"/>
       <c r="E44" s="10">
         <v>0</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="21">
         <v>1</v>
       </c>
       <c r="G44" s="10">
@@ -5630,14 +5794,14 @@
         <v>1</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N44" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄17</v>
+        <v>游侠#17</v>
       </c>
       <c r="O44" s="10">
         <v>0</v>
@@ -5648,34 +5812,34 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="32"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="37"/>
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="37"/>
-      <c r="AE44" s="37"/>
-      <c r="AF44" s="37"/>
-      <c r="AG44" s="40"/>
+      <c r="AC44" s="42"/>
+      <c r="AD44" s="42"/>
+      <c r="AE44" s="42"/>
+      <c r="AF44" s="42"/>
+      <c r="AG44" s="45"/>
     </row>
     <row r="45" ht="30.5" customHeight="1" spans="1:33">
       <c r="A45" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="19"/>
+        <v>221</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="22"/>
       <c r="E45" s="15">
         <v>0</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="22">
         <v>1</v>
       </c>
       <c r="G45" s="15">
@@ -5694,14 +5858,14 @@
         <v>1</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M45" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N45" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄18</v>
+        <v>游侠#18</v>
       </c>
       <c r="O45" s="15">
         <v>0</v>
@@ -5712,34 +5876,34 @@
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="31"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="36"/>
       <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
-      <c r="AC45" s="36"/>
-      <c r="AD45" s="36"/>
-      <c r="AE45" s="36"/>
-      <c r="AF45" s="36"/>
-      <c r="AG45" s="39"/>
+      <c r="AC45" s="41"/>
+      <c r="AD45" s="41"/>
+      <c r="AE45" s="41"/>
+      <c r="AF45" s="41"/>
+      <c r="AG45" s="44"/>
     </row>
     <row r="46" ht="30.5" customHeight="1" spans="1:33">
       <c r="A46" s="12" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="D46" s="18"/>
+        <v>225</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" s="21"/>
       <c r="E46" s="10">
         <v>0</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="21">
         <v>1</v>
       </c>
       <c r="G46" s="10">
@@ -5758,14 +5922,14 @@
         <v>1</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N46" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄19</v>
+        <v>游侠#19</v>
       </c>
       <c r="O46" s="10">
         <v>0</v>
@@ -5776,34 +5940,34 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
-      <c r="V46" s="26"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="32"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="37"/>
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
       <c r="AB46" s="15"/>
-      <c r="AC46" s="37"/>
-      <c r="AD46" s="37"/>
-      <c r="AE46" s="37"/>
-      <c r="AF46" s="37"/>
-      <c r="AG46" s="40"/>
+      <c r="AC46" s="42"/>
+      <c r="AD46" s="42"/>
+      <c r="AE46" s="42"/>
+      <c r="AF46" s="42"/>
+      <c r="AG46" s="45"/>
     </row>
     <row r="47" ht="30.5" customHeight="1" spans="1:33">
       <c r="A47" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D47" s="19"/>
+        <v>227</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" s="22"/>
       <c r="E47" s="15">
         <v>0</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="22">
         <v>1</v>
       </c>
       <c r="G47" s="15">
@@ -5822,14 +5986,14 @@
         <v>1</v>
       </c>
       <c r="L47" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N47" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄20</v>
+        <v>游侠#20</v>
       </c>
       <c r="O47" s="15">
         <v>0</v>
@@ -5840,34 +6004,34 @@
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
       <c r="U47" s="15"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="31"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="36"/>
       <c r="Y47" s="10"/>
       <c r="Z47" s="10"/>
       <c r="AA47" s="10"/>
       <c r="AB47" s="10"/>
-      <c r="AC47" s="36"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="36"/>
-      <c r="AF47" s="36"/>
-      <c r="AG47" s="39"/>
+      <c r="AC47" s="41"/>
+      <c r="AD47" s="41"/>
+      <c r="AE47" s="41"/>
+      <c r="AF47" s="41"/>
+      <c r="AG47" s="44"/>
     </row>
     <row r="48" ht="30.5" customHeight="1" spans="1:33">
       <c r="A48" s="12" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D48" s="18"/>
+        <v>231</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" s="21"/>
       <c r="E48" s="10">
         <v>0</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="21">
         <v>1</v>
       </c>
       <c r="G48" s="10">
@@ -5886,14 +6050,14 @@
         <v>1</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N48" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄21</v>
+        <v>游侠#21</v>
       </c>
       <c r="O48" s="10">
         <v>0</v>
@@ -5904,34 +6068,34 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
-      <c r="V48" s="26"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="32"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="37"/>
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
       <c r="AB48" s="15"/>
-      <c r="AC48" s="37"/>
-      <c r="AD48" s="37"/>
-      <c r="AE48" s="37"/>
-      <c r="AF48" s="37"/>
-      <c r="AG48" s="40"/>
+      <c r="AC48" s="42"/>
+      <c r="AD48" s="42"/>
+      <c r="AE48" s="42"/>
+      <c r="AF48" s="42"/>
+      <c r="AG48" s="45"/>
     </row>
     <row r="49" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A49" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D49" s="19"/>
+        <v>233</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" s="22"/>
       <c r="E49" s="15">
         <v>0</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="22">
         <v>1</v>
       </c>
       <c r="G49" s="15">
@@ -5950,14 +6114,14 @@
         <v>1</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N49" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄22</v>
+        <v>游侠#22</v>
       </c>
       <c r="O49" s="15">
         <v>0</v>
@@ -5968,34 +6132,34 @@
       <c r="S49" s="15"/>
       <c r="T49" s="15"/>
       <c r="U49" s="15"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="31"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="36"/>
       <c r="Y49" s="10"/>
       <c r="Z49" s="10"/>
       <c r="AA49" s="10"/>
       <c r="AB49" s="10"/>
-      <c r="AC49" s="36"/>
-      <c r="AD49" s="36"/>
-      <c r="AE49" s="36"/>
-      <c r="AF49" s="36"/>
-      <c r="AG49" s="39"/>
+      <c r="AC49" s="41"/>
+      <c r="AD49" s="41"/>
+      <c r="AE49" s="41"/>
+      <c r="AF49" s="41"/>
+      <c r="AG49" s="44"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A50" s="12" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D50" s="18"/>
+        <v>237</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="21"/>
       <c r="E50" s="10">
         <v>0</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="21">
         <v>1</v>
       </c>
       <c r="G50" s="10">
@@ -6014,14 +6178,14 @@
         <v>1</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N50" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄23</v>
+        <v>游侠#23</v>
       </c>
       <c r="O50" s="10">
         <v>0</v>
@@ -6032,34 +6196,34 @@
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
-      <c r="V50" s="26"/>
-      <c r="W50" s="30"/>
-      <c r="X50" s="32"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="37"/>
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
       <c r="AA50" s="15"/>
       <c r="AB50" s="15"/>
-      <c r="AC50" s="37"/>
-      <c r="AD50" s="37"/>
-      <c r="AE50" s="37"/>
-      <c r="AF50" s="37"/>
-      <c r="AG50" s="40"/>
+      <c r="AC50" s="42"/>
+      <c r="AD50" s="42"/>
+      <c r="AE50" s="42"/>
+      <c r="AF50" s="42"/>
+      <c r="AG50" s="45"/>
     </row>
     <row r="51" ht="30.5" customHeight="1" spans="1:33">
       <c r="A51" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="D51" s="19"/>
+        <v>239</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" s="22"/>
       <c r="E51" s="15">
         <v>1</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="22">
         <v>1</v>
       </c>
       <c r="G51" s="15">
@@ -6078,14 +6242,14 @@
         <v>1</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N51" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄24</v>
+        <v>游侠#24</v>
       </c>
       <c r="O51" s="15">
         <v>0</v>
@@ -6096,34 +6260,34 @@
       <c r="S51" s="15"/>
       <c r="T51" s="15"/>
       <c r="U51" s="15"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="31"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="36"/>
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
       <c r="AA51" s="10"/>
       <c r="AB51" s="10"/>
-      <c r="AC51" s="36"/>
-      <c r="AD51" s="36"/>
-      <c r="AE51" s="36"/>
-      <c r="AF51" s="36"/>
-      <c r="AG51" s="39"/>
+      <c r="AC51" s="41"/>
+      <c r="AD51" s="41"/>
+      <c r="AE51" s="41"/>
+      <c r="AF51" s="41"/>
+      <c r="AG51" s="44"/>
     </row>
     <row r="52" ht="30.5" customHeight="1" spans="1:33">
       <c r="A52" s="12" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="D52" s="18"/>
+        <v>243</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D52" s="21"/>
       <c r="E52" s="10">
         <v>1</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="21">
         <v>1</v>
       </c>
       <c r="G52" s="10">
@@ -6142,14 +6306,14 @@
         <v>1</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N52" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄25</v>
+        <v>游侠#25</v>
       </c>
       <c r="O52" s="10">
         <v>0</v>
@@ -6160,34 +6324,34 @@
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
-      <c r="V52" s="26"/>
-      <c r="W52" s="30"/>
-      <c r="X52" s="32"/>
+      <c r="V52" s="31"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="37"/>
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
-      <c r="AC52" s="37"/>
-      <c r="AD52" s="37"/>
-      <c r="AE52" s="37"/>
-      <c r="AF52" s="37"/>
-      <c r="AG52" s="40"/>
+      <c r="AC52" s="42"/>
+      <c r="AD52" s="42"/>
+      <c r="AE52" s="42"/>
+      <c r="AF52" s="42"/>
+      <c r="AG52" s="45"/>
     </row>
     <row r="53" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A53" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="D53" s="19"/>
+        <v>245</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D53" s="22"/>
       <c r="E53" s="15">
         <v>0</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="22">
         <v>1</v>
       </c>
       <c r="G53" s="15">
@@ -6206,14 +6370,14 @@
         <v>1</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M53" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N53" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄26</v>
+        <v>游侠#26</v>
       </c>
       <c r="O53" s="15">
         <v>0</v>
@@ -6224,34 +6388,34 @@
       <c r="S53" s="15"/>
       <c r="T53" s="15"/>
       <c r="U53" s="15"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="31"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="36"/>
       <c r="Y53" s="10"/>
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
-      <c r="AC53" s="36"/>
-      <c r="AD53" s="36"/>
-      <c r="AE53" s="36"/>
-      <c r="AF53" s="36"/>
-      <c r="AG53" s="39"/>
+      <c r="AC53" s="41"/>
+      <c r="AD53" s="41"/>
+      <c r="AE53" s="41"/>
+      <c r="AF53" s="41"/>
+      <c r="AG53" s="44"/>
     </row>
     <row r="54" ht="30.5" customHeight="1" spans="1:33">
       <c r="A54" s="12" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54" s="21"/>
+        <v>249</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" s="24"/>
       <c r="E54" s="10">
         <v>0</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="21">
         <v>2</v>
       </c>
       <c r="G54" s="10">
@@ -6270,14 +6434,14 @@
         <v>1</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N54" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄27</v>
+        <v>法爷#1</v>
       </c>
       <c r="O54" s="10">
         <v>0</v>
@@ -6288,34 +6452,34 @@
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
-      <c r="V54" s="26"/>
-      <c r="W54" s="30"/>
-      <c r="X54" s="32"/>
+      <c r="V54" s="31"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="37"/>
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
       <c r="AA54" s="15"/>
       <c r="AB54" s="15"/>
-      <c r="AC54" s="37"/>
-      <c r="AD54" s="37"/>
-      <c r="AE54" s="37"/>
-      <c r="AF54" s="37"/>
-      <c r="AG54" s="40"/>
+      <c r="AC54" s="42"/>
+      <c r="AD54" s="42"/>
+      <c r="AE54" s="42"/>
+      <c r="AF54" s="42"/>
+      <c r="AG54" s="45"/>
     </row>
     <row r="55" ht="30.5" customHeight="1" spans="1:33">
       <c r="A55" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="D55" s="20"/>
+        <v>251</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D55" s="23"/>
       <c r="E55" s="15">
         <v>0</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="22">
         <v>2</v>
       </c>
       <c r="G55" s="15">
@@ -6334,14 +6498,14 @@
         <v>1</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M55" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N55" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄28</v>
+        <v>法爷#2</v>
       </c>
       <c r="O55" s="15">
         <v>0</v>
@@ -6352,34 +6516,34 @@
       <c r="S55" s="15"/>
       <c r="T55" s="15"/>
       <c r="U55" s="15"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="29"/>
-      <c r="X55" s="31"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="36"/>
       <c r="Y55" s="10"/>
       <c r="Z55" s="10"/>
       <c r="AA55" s="10"/>
       <c r="AB55" s="10"/>
-      <c r="AC55" s="36"/>
-      <c r="AD55" s="36"/>
-      <c r="AE55" s="36"/>
-      <c r="AF55" s="36"/>
-      <c r="AG55" s="39"/>
+      <c r="AC55" s="41"/>
+      <c r="AD55" s="41"/>
+      <c r="AE55" s="41"/>
+      <c r="AF55" s="41"/>
+      <c r="AG55" s="44"/>
     </row>
     <row r="56" ht="30.5" customHeight="1" spans="1:33">
       <c r="A56" s="12" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D56" s="21"/>
+        <v>255</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" s="24"/>
       <c r="E56" s="10">
         <v>0</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="21">
         <v>2</v>
       </c>
       <c r="G56" s="10">
@@ -6398,14 +6562,14 @@
         <v>1</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N56" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄29</v>
+        <v>法爷#3</v>
       </c>
       <c r="O56" s="10">
         <v>0</v>
@@ -6416,34 +6580,34 @@
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
-      <c r="V56" s="26"/>
-      <c r="W56" s="30"/>
-      <c r="X56" s="32"/>
+      <c r="V56" s="31"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="37"/>
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
       <c r="AA56" s="15"/>
       <c r="AB56" s="15"/>
-      <c r="AC56" s="37"/>
-      <c r="AD56" s="37"/>
-      <c r="AE56" s="37"/>
-      <c r="AF56" s="37"/>
-      <c r="AG56" s="40"/>
+      <c r="AC56" s="42"/>
+      <c r="AD56" s="42"/>
+      <c r="AE56" s="42"/>
+      <c r="AF56" s="42"/>
+      <c r="AG56" s="45"/>
     </row>
     <row r="57" ht="30.5" customHeight="1" spans="1:33">
       <c r="A57" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="D57" s="20"/>
+        <v>257</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D57" s="23"/>
       <c r="E57" s="15">
         <v>1</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="22">
         <v>2</v>
       </c>
       <c r="G57" s="15">
@@ -6462,14 +6626,14 @@
         <v>1</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M57" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N57" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄30</v>
+        <v>法爷#4</v>
       </c>
       <c r="O57" s="15">
         <v>0</v>
@@ -6480,34 +6644,34 @@
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
       <c r="U57" s="15"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="29"/>
-      <c r="X57" s="31"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="36"/>
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
       <c r="AB57" s="10"/>
-      <c r="AC57" s="36"/>
-      <c r="AD57" s="36"/>
-      <c r="AE57" s="36"/>
-      <c r="AF57" s="36"/>
-      <c r="AG57" s="39"/>
+      <c r="AC57" s="41"/>
+      <c r="AD57" s="41"/>
+      <c r="AE57" s="41"/>
+      <c r="AF57" s="41"/>
+      <c r="AG57" s="44"/>
     </row>
     <row r="58" ht="30.5" customHeight="1" spans="1:33">
       <c r="A58" s="12" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D58" s="21"/>
+        <v>261</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" s="24"/>
       <c r="E58" s="10">
         <v>0</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="21">
         <v>2</v>
       </c>
       <c r="G58" s="10">
@@ -6526,14 +6690,14 @@
         <v>1</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N58" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄31</v>
+        <v>法爷#5</v>
       </c>
       <c r="O58" s="10">
         <v>0</v>
@@ -6544,34 +6708,34 @@
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
-      <c r="V58" s="26"/>
-      <c r="W58" s="30"/>
-      <c r="X58" s="32"/>
+      <c r="V58" s="31"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="37"/>
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
       <c r="AA58" s="15"/>
       <c r="AB58" s="15"/>
-      <c r="AC58" s="37"/>
-      <c r="AD58" s="37"/>
-      <c r="AE58" s="37"/>
-      <c r="AF58" s="37"/>
-      <c r="AG58" s="40"/>
+      <c r="AC58" s="42"/>
+      <c r="AD58" s="42"/>
+      <c r="AE58" s="42"/>
+      <c r="AF58" s="42"/>
+      <c r="AG58" s="45"/>
     </row>
     <row r="59" ht="30.5" customHeight="1" spans="1:33">
       <c r="A59" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="D59" s="20"/>
+        <v>263</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D59" s="23"/>
       <c r="E59" s="15">
         <v>1</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="22">
         <v>2</v>
       </c>
       <c r="G59" s="15">
@@ -6590,14 +6754,14 @@
         <v>1</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M59" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N59" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄32</v>
+        <v>法爷#6</v>
       </c>
       <c r="O59" s="15">
         <v>0</v>
@@ -6608,34 +6772,34 @@
       <c r="S59" s="15"/>
       <c r="T59" s="15"/>
       <c r="U59" s="15"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="29"/>
-      <c r="X59" s="31"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="36"/>
       <c r="Y59" s="10"/>
       <c r="Z59" s="10"/>
       <c r="AA59" s="10"/>
       <c r="AB59" s="10"/>
-      <c r="AC59" s="36"/>
-      <c r="AD59" s="36"/>
-      <c r="AE59" s="36"/>
-      <c r="AF59" s="36"/>
-      <c r="AG59" s="39"/>
+      <c r="AC59" s="41"/>
+      <c r="AD59" s="41"/>
+      <c r="AE59" s="41"/>
+      <c r="AF59" s="41"/>
+      <c r="AG59" s="44"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A60" s="12" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D60" s="21"/>
+        <v>267</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" s="24"/>
       <c r="E60" s="10">
         <v>1</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="21">
         <v>2</v>
       </c>
       <c r="G60" s="10">
@@ -6654,14 +6818,14 @@
         <v>1</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N60" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄33</v>
+        <v>法爷#7</v>
       </c>
       <c r="O60" s="10">
         <v>0</v>
@@ -6672,34 +6836,34 @@
       <c r="S60" s="10"/>
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="30"/>
-      <c r="X60" s="32"/>
+      <c r="V60" s="31"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="37"/>
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
       <c r="AA60" s="15"/>
       <c r="AB60" s="15"/>
-      <c r="AC60" s="37"/>
-      <c r="AD60" s="37"/>
-      <c r="AE60" s="37"/>
-      <c r="AF60" s="37"/>
-      <c r="AG60" s="40"/>
+      <c r="AC60" s="42"/>
+      <c r="AD60" s="42"/>
+      <c r="AE60" s="42"/>
+      <c r="AF60" s="42"/>
+      <c r="AG60" s="45"/>
     </row>
     <row r="61" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A61" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="D61" s="20"/>
+        <v>269</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D61" s="23"/>
       <c r="E61" s="15">
         <v>0</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F61" s="22">
         <v>2</v>
       </c>
       <c r="G61" s="15">
@@ -6718,14 +6882,14 @@
         <v>1</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M61" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N61" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄34</v>
+        <v>法爷#8</v>
       </c>
       <c r="O61" s="15">
         <v>0</v>
@@ -6736,34 +6900,34 @@
       <c r="S61" s="15"/>
       <c r="T61" s="15"/>
       <c r="U61" s="15"/>
-      <c r="V61" s="28"/>
-      <c r="W61" s="29"/>
-      <c r="X61" s="31"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="34"/>
+      <c r="X61" s="36"/>
       <c r="Y61" s="10"/>
       <c r="Z61" s="10"/>
       <c r="AA61" s="10"/>
       <c r="AB61" s="10"/>
-      <c r="AC61" s="36"/>
-      <c r="AD61" s="36"/>
-      <c r="AE61" s="36"/>
-      <c r="AF61" s="36"/>
-      <c r="AG61" s="39"/>
+      <c r="AC61" s="41"/>
+      <c r="AD61" s="41"/>
+      <c r="AE61" s="41"/>
+      <c r="AF61" s="41"/>
+      <c r="AG61" s="44"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A62" s="12" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="D62" s="21"/>
+        <v>273</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D62" s="24"/>
       <c r="E62" s="10">
         <v>0</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="21">
         <v>2</v>
       </c>
       <c r="G62" s="10">
@@ -6782,14 +6946,14 @@
         <v>1</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N62" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄35</v>
+        <v>法爷#9</v>
       </c>
       <c r="O62" s="10">
         <v>0</v>
@@ -6800,34 +6964,34 @@
       <c r="S62" s="10"/>
       <c r="T62" s="10"/>
       <c r="U62" s="10"/>
-      <c r="V62" s="26"/>
-      <c r="W62" s="30"/>
-      <c r="X62" s="32"/>
+      <c r="V62" s="31"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="37"/>
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
       <c r="AA62" s="15"/>
       <c r="AB62" s="15"/>
-      <c r="AC62" s="37"/>
-      <c r="AD62" s="37"/>
-      <c r="AE62" s="37"/>
-      <c r="AF62" s="37"/>
-      <c r="AG62" s="40"/>
+      <c r="AC62" s="42"/>
+      <c r="AD62" s="42"/>
+      <c r="AE62" s="42"/>
+      <c r="AF62" s="42"/>
+      <c r="AG62" s="45"/>
     </row>
     <row r="63" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A63" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="D63" s="20"/>
+        <v>275</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D63" s="23"/>
       <c r="E63" s="15">
         <v>0</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F63" s="22">
         <v>2</v>
       </c>
       <c r="G63" s="15">
@@ -6846,14 +7010,14 @@
         <v>1</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M63" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N63" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄36</v>
+        <v>法爷#10</v>
       </c>
       <c r="O63" s="15">
         <v>0</v>
@@ -6864,34 +7028,34 @@
       <c r="S63" s="15"/>
       <c r="T63" s="15"/>
       <c r="U63" s="15"/>
-      <c r="V63" s="28"/>
-      <c r="W63" s="29"/>
-      <c r="X63" s="31"/>
+      <c r="V63" s="33"/>
+      <c r="W63" s="34"/>
+      <c r="X63" s="36"/>
       <c r="Y63" s="10"/>
       <c r="Z63" s="10"/>
       <c r="AA63" s="10"/>
       <c r="AB63" s="10"/>
-      <c r="AC63" s="36"/>
-      <c r="AD63" s="36"/>
-      <c r="AE63" s="36"/>
-      <c r="AF63" s="36"/>
-      <c r="AG63" s="39"/>
+      <c r="AC63" s="41"/>
+      <c r="AD63" s="41"/>
+      <c r="AE63" s="41"/>
+      <c r="AF63" s="41"/>
+      <c r="AG63" s="44"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A64" s="12" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="D64" s="18"/>
+        <v>279</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D64" s="21"/>
       <c r="E64" s="10">
         <v>0</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="21">
         <v>2</v>
       </c>
       <c r="G64" s="10">
@@ -6910,14 +7074,14 @@
         <v>1</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N64" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄37</v>
+        <v>法爷#11</v>
       </c>
       <c r="O64" s="10">
         <v>0</v>
@@ -6928,34 +7092,34 @@
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
       <c r="U64" s="10"/>
-      <c r="V64" s="26"/>
-      <c r="W64" s="30"/>
-      <c r="X64" s="32"/>
+      <c r="V64" s="31"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="37"/>
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
       <c r="AA64" s="15"/>
       <c r="AB64" s="15"/>
-      <c r="AC64" s="37"/>
-      <c r="AD64" s="37"/>
-      <c r="AE64" s="37"/>
-      <c r="AF64" s="37"/>
-      <c r="AG64" s="40"/>
+      <c r="AC64" s="42"/>
+      <c r="AD64" s="42"/>
+      <c r="AE64" s="42"/>
+      <c r="AF64" s="42"/>
+      <c r="AG64" s="45"/>
     </row>
     <row r="65" ht="30.5" customHeight="1" spans="1:33">
       <c r="A65" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D65" s="19"/>
+        <v>281</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="D65" s="22"/>
       <c r="E65" s="15">
         <v>0</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F65" s="22">
         <v>2</v>
       </c>
       <c r="G65" s="15">
@@ -6974,14 +7138,14 @@
         <v>1</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M65" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N65" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄38</v>
+        <v>法爷#12</v>
       </c>
       <c r="O65" s="15">
         <v>0</v>
@@ -6992,34 +7156,34 @@
       <c r="S65" s="15"/>
       <c r="T65" s="15"/>
       <c r="U65" s="15"/>
-      <c r="V65" s="28"/>
-      <c r="W65" s="29"/>
-      <c r="X65" s="31"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="36"/>
       <c r="Y65" s="10"/>
       <c r="Z65" s="10"/>
       <c r="AA65" s="10"/>
       <c r="AB65" s="10"/>
-      <c r="AC65" s="36"/>
-      <c r="AD65" s="36"/>
-      <c r="AE65" s="36"/>
-      <c r="AF65" s="36"/>
-      <c r="AG65" s="39"/>
+      <c r="AC65" s="41"/>
+      <c r="AD65" s="41"/>
+      <c r="AE65" s="41"/>
+      <c r="AF65" s="41"/>
+      <c r="AG65" s="44"/>
     </row>
     <row r="66" ht="30.5" customHeight="1" spans="1:33">
       <c r="A66" s="12" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D66" s="18"/>
+        <v>285</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="D66" s="21"/>
       <c r="E66" s="10">
         <v>0</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="21">
         <v>2</v>
       </c>
       <c r="G66" s="10">
@@ -7038,14 +7202,14 @@
         <v>1</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N66" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄39</v>
+        <v>法爷#13</v>
       </c>
       <c r="O66" s="10">
         <v>0</v>
@@ -7056,34 +7220,34 @@
       <c r="S66" s="10"/>
       <c r="T66" s="10"/>
       <c r="U66" s="10"/>
-      <c r="V66" s="26"/>
-      <c r="W66" s="30"/>
-      <c r="X66" s="32"/>
+      <c r="V66" s="31"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="37"/>
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
       <c r="AA66" s="15"/>
       <c r="AB66" s="15"/>
-      <c r="AC66" s="37"/>
-      <c r="AD66" s="37"/>
-      <c r="AE66" s="37"/>
-      <c r="AF66" s="37"/>
-      <c r="AG66" s="40"/>
+      <c r="AC66" s="42"/>
+      <c r="AD66" s="42"/>
+      <c r="AE66" s="42"/>
+      <c r="AF66" s="42"/>
+      <c r="AG66" s="45"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A67" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="D67" s="19"/>
+        <v>287</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="D67" s="22"/>
       <c r="E67" s="15">
         <v>1</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F67" s="22">
         <v>2</v>
       </c>
       <c r="G67" s="15">
@@ -7102,14 +7266,14 @@
         <v>1</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M67" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N67" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>专属英雄40</v>
+        <v>法爷#14</v>
       </c>
       <c r="O67" s="15">
         <v>0</v>
@@ -7120,34 +7284,34 @@
       <c r="S67" s="15"/>
       <c r="T67" s="15"/>
       <c r="U67" s="15"/>
-      <c r="V67" s="28"/>
-      <c r="W67" s="29"/>
-      <c r="X67" s="31"/>
+      <c r="V67" s="33"/>
+      <c r="W67" s="34"/>
+      <c r="X67" s="36"/>
       <c r="Y67" s="10"/>
       <c r="Z67" s="10"/>
       <c r="AA67" s="10"/>
       <c r="AB67" s="10"/>
-      <c r="AC67" s="36"/>
-      <c r="AD67" s="36"/>
-      <c r="AE67" s="36"/>
-      <c r="AF67" s="36"/>
-      <c r="AG67" s="39"/>
+      <c r="AC67" s="41"/>
+      <c r="AD67" s="41"/>
+      <c r="AE67" s="41"/>
+      <c r="AF67" s="41"/>
+      <c r="AG67" s="44"/>
     </row>
     <row r="68" ht="30.5" customHeight="1" spans="1:33">
       <c r="A68" s="12" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D68" s="18"/>
+        <v>291</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D68" s="21"/>
       <c r="E68" s="10">
         <v>0</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="21">
         <v>2</v>
       </c>
       <c r="G68" s="10">
@@ -7166,14 +7330,14 @@
         <v>1</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N68" s="10" t="str">
         <f t="shared" ref="N68:N101" si="2">B68</f>
-        <v>专属英雄41</v>
+        <v>法爷#15</v>
       </c>
       <c r="O68" s="10">
         <v>0</v>
@@ -7184,34 +7348,34 @@
       <c r="S68" s="10"/>
       <c r="T68" s="10"/>
       <c r="U68" s="10"/>
-      <c r="V68" s="26"/>
-      <c r="W68" s="30"/>
-      <c r="X68" s="32"/>
+      <c r="V68" s="31"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="37"/>
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
-      <c r="AC68" s="37"/>
-      <c r="AD68" s="37"/>
-      <c r="AE68" s="37"/>
-      <c r="AF68" s="37"/>
-      <c r="AG68" s="40"/>
+      <c r="AC68" s="42"/>
+      <c r="AD68" s="42"/>
+      <c r="AE68" s="42"/>
+      <c r="AF68" s="42"/>
+      <c r="AG68" s="45"/>
     </row>
     <row r="69" ht="30.5" customHeight="1" spans="1:33">
       <c r="A69" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="D69" s="19"/>
+        <v>293</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69" s="22"/>
       <c r="E69" s="15">
         <v>0</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F69" s="22">
         <v>2</v>
       </c>
       <c r="G69" s="15">
@@ -7230,14 +7394,14 @@
         <v>1</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M69" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N69" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄42</v>
+        <v>法爷#16</v>
       </c>
       <c r="O69" s="15">
         <v>0</v>
@@ -7248,34 +7412,34 @@
       <c r="S69" s="15"/>
       <c r="T69" s="15"/>
       <c r="U69" s="15"/>
-      <c r="V69" s="28"/>
-      <c r="W69" s="29"/>
-      <c r="X69" s="31"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="34"/>
+      <c r="X69" s="36"/>
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
       <c r="AA69" s="10"/>
       <c r="AB69" s="10"/>
-      <c r="AC69" s="36"/>
-      <c r="AD69" s="36"/>
-      <c r="AE69" s="36"/>
-      <c r="AF69" s="36"/>
-      <c r="AG69" s="39"/>
+      <c r="AC69" s="41"/>
+      <c r="AD69" s="41"/>
+      <c r="AE69" s="41"/>
+      <c r="AF69" s="41"/>
+      <c r="AG69" s="44"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A70" s="12" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="D70" s="18"/>
+        <v>297</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D70" s="21"/>
       <c r="E70" s="10">
         <v>1</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="21">
         <v>2</v>
       </c>
       <c r="G70" s="10">
@@ -7294,14 +7458,14 @@
         <v>1</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N70" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄43</v>
+        <v>法爷#17</v>
       </c>
       <c r="O70" s="10">
         <v>0</v>
@@ -7312,34 +7476,34 @@
       <c r="S70" s="10"/>
       <c r="T70" s="10"/>
       <c r="U70" s="10"/>
-      <c r="V70" s="26"/>
-      <c r="W70" s="30"/>
-      <c r="X70" s="32"/>
+      <c r="V70" s="31"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="37"/>
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
       <c r="AA70" s="15"/>
       <c r="AB70" s="15"/>
-      <c r="AC70" s="37"/>
-      <c r="AD70" s="37"/>
-      <c r="AE70" s="37"/>
-      <c r="AF70" s="37"/>
-      <c r="AG70" s="40"/>
+      <c r="AC70" s="42"/>
+      <c r="AD70" s="42"/>
+      <c r="AE70" s="42"/>
+      <c r="AF70" s="42"/>
+      <c r="AG70" s="45"/>
     </row>
     <row r="71" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A71" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D71" s="19"/>
+        <v>299</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="D71" s="22"/>
       <c r="E71" s="15">
         <v>0</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F71" s="22">
         <v>2</v>
       </c>
       <c r="G71" s="15">
@@ -7358,14 +7522,14 @@
         <v>1</v>
       </c>
       <c r="L71" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M71" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N71" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄44</v>
+        <v>法爷#18</v>
       </c>
       <c r="O71" s="15">
         <v>0</v>
@@ -7376,34 +7540,34 @@
       <c r="S71" s="15"/>
       <c r="T71" s="15"/>
       <c r="U71" s="15"/>
-      <c r="V71" s="28"/>
-      <c r="W71" s="29"/>
-      <c r="X71" s="31"/>
+      <c r="V71" s="33"/>
+      <c r="W71" s="34"/>
+      <c r="X71" s="36"/>
       <c r="Y71" s="10"/>
       <c r="Z71" s="10"/>
       <c r="AA71" s="10"/>
       <c r="AB71" s="10"/>
-      <c r="AC71" s="36"/>
-      <c r="AD71" s="36"/>
-      <c r="AE71" s="36"/>
-      <c r="AF71" s="36"/>
-      <c r="AG71" s="39"/>
+      <c r="AC71" s="41"/>
+      <c r="AD71" s="41"/>
+      <c r="AE71" s="41"/>
+      <c r="AF71" s="41"/>
+      <c r="AG71" s="44"/>
     </row>
     <row r="72" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A72" s="12" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="D72" s="18"/>
+        <v>303</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="D72" s="21"/>
       <c r="E72" s="10">
         <v>0</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="21">
         <v>2</v>
       </c>
       <c r="G72" s="10">
@@ -7422,14 +7586,14 @@
         <v>1</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N72" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄45</v>
+        <v>法爷#19</v>
       </c>
       <c r="O72" s="10">
         <v>0</v>
@@ -7440,34 +7604,34 @@
       <c r="S72" s="10"/>
       <c r="T72" s="10"/>
       <c r="U72" s="10"/>
-      <c r="V72" s="26"/>
-      <c r="W72" s="30"/>
-      <c r="X72" s="32"/>
+      <c r="V72" s="31"/>
+      <c r="W72" s="35"/>
+      <c r="X72" s="37"/>
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
       <c r="AA72" s="15"/>
       <c r="AB72" s="15"/>
-      <c r="AC72" s="37"/>
-      <c r="AD72" s="37"/>
-      <c r="AE72" s="37"/>
-      <c r="AF72" s="37"/>
-      <c r="AG72" s="40"/>
+      <c r="AC72" s="42"/>
+      <c r="AD72" s="42"/>
+      <c r="AE72" s="42"/>
+      <c r="AF72" s="42"/>
+      <c r="AG72" s="45"/>
     </row>
     <row r="73" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A73" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D73" s="19"/>
+        <v>305</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D73" s="22"/>
       <c r="E73" s="15">
         <v>0</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F73" s="22">
         <v>2</v>
       </c>
       <c r="G73" s="15">
@@ -7486,14 +7650,14 @@
         <v>1</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M73" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N73" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄46</v>
+        <v>法爷#20</v>
       </c>
       <c r="O73" s="15">
         <v>0</v>
@@ -7504,34 +7668,34 @@
       <c r="S73" s="15"/>
       <c r="T73" s="15"/>
       <c r="U73" s="15"/>
-      <c r="V73" s="28"/>
-      <c r="W73" s="29"/>
-      <c r="X73" s="31"/>
+      <c r="V73" s="33"/>
+      <c r="W73" s="34"/>
+      <c r="X73" s="36"/>
       <c r="Y73" s="10"/>
       <c r="Z73" s="10"/>
       <c r="AA73" s="10"/>
       <c r="AB73" s="10"/>
-      <c r="AC73" s="36"/>
-      <c r="AD73" s="36"/>
-      <c r="AE73" s="36"/>
-      <c r="AF73" s="36"/>
-      <c r="AG73" s="39"/>
+      <c r="AC73" s="41"/>
+      <c r="AD73" s="41"/>
+      <c r="AE73" s="41"/>
+      <c r="AF73" s="41"/>
+      <c r="AG73" s="44"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A74" s="12" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="D74" s="18"/>
+        <v>309</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="D74" s="21"/>
       <c r="E74" s="10">
         <v>0</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="21">
         <v>2</v>
       </c>
       <c r="G74" s="10">
@@ -7550,14 +7714,14 @@
         <v>1</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N74" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄47</v>
+        <v>法爷#21</v>
       </c>
       <c r="O74" s="10">
         <v>0</v>
@@ -7568,34 +7732,34 @@
       <c r="S74" s="10"/>
       <c r="T74" s="10"/>
       <c r="U74" s="10"/>
-      <c r="V74" s="26"/>
-      <c r="W74" s="30"/>
-      <c r="X74" s="32"/>
+      <c r="V74" s="31"/>
+      <c r="W74" s="35"/>
+      <c r="X74" s="37"/>
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
       <c r="AA74" s="15"/>
       <c r="AB74" s="15"/>
-      <c r="AC74" s="37"/>
-      <c r="AD74" s="37"/>
-      <c r="AE74" s="37"/>
-      <c r="AF74" s="37"/>
-      <c r="AG74" s="40"/>
+      <c r="AC74" s="42"/>
+      <c r="AD74" s="42"/>
+      <c r="AE74" s="42"/>
+      <c r="AF74" s="42"/>
+      <c r="AG74" s="45"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="31.25" customHeight="1" spans="1:33">
       <c r="A75" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="D75" s="19"/>
+        <v>311</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="D75" s="22"/>
       <c r="E75" s="15">
         <v>0</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F75" s="22">
         <v>2</v>
       </c>
       <c r="G75" s="15">
@@ -7614,14 +7778,14 @@
         <v>1</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M75" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N75" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄48</v>
+        <v>法爷#22</v>
       </c>
       <c r="O75" s="15">
         <v>0</v>
@@ -7632,34 +7796,34 @@
       <c r="S75" s="15"/>
       <c r="T75" s="15"/>
       <c r="U75" s="15"/>
-      <c r="V75" s="28"/>
-      <c r="W75" s="29"/>
-      <c r="X75" s="31"/>
-      <c r="Y75" s="45"/>
-      <c r="Z75" s="45"/>
-      <c r="AA75" s="45"/>
-      <c r="AB75" s="45"/>
-      <c r="AC75" s="45"/>
-      <c r="AD75" s="45"/>
-      <c r="AE75" s="36"/>
-      <c r="AF75" s="36"/>
-      <c r="AG75" s="39"/>
+      <c r="V75" s="33"/>
+      <c r="W75" s="34"/>
+      <c r="X75" s="36"/>
+      <c r="Y75" s="50"/>
+      <c r="Z75" s="50"/>
+      <c r="AA75" s="50"/>
+      <c r="AB75" s="50"/>
+      <c r="AC75" s="50"/>
+      <c r="AD75" s="50"/>
+      <c r="AE75" s="41"/>
+      <c r="AF75" s="41"/>
+      <c r="AG75" s="44"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A76" s="12" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D76" s="18"/>
+        <v>315</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D76" s="21"/>
       <c r="E76" s="10">
         <v>0</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="21">
         <v>2</v>
       </c>
       <c r="G76" s="10">
@@ -7678,14 +7842,14 @@
         <v>1</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N76" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄49</v>
+        <v>法爷#23</v>
       </c>
       <c r="O76" s="10">
         <v>0</v>
@@ -7696,34 +7860,34 @@
       <c r="S76" s="10"/>
       <c r="T76" s="10"/>
       <c r="U76" s="10"/>
-      <c r="V76" s="26"/>
-      <c r="W76" s="30"/>
-      <c r="X76" s="32"/>
+      <c r="V76" s="31"/>
+      <c r="W76" s="35"/>
+      <c r="X76" s="37"/>
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
       <c r="AA76" s="15"/>
       <c r="AB76" s="15"/>
       <c r="AC76" s="15"/>
       <c r="AD76" s="15"/>
-      <c r="AE76" s="37"/>
-      <c r="AF76" s="37"/>
-      <c r="AG76" s="40"/>
+      <c r="AE76" s="42"/>
+      <c r="AF76" s="42"/>
+      <c r="AG76" s="45"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A77" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D77" s="19"/>
+        <v>317</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="D77" s="22"/>
       <c r="E77" s="15">
         <v>0</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F77" s="22">
         <v>2</v>
       </c>
       <c r="G77" s="15">
@@ -7742,14 +7906,14 @@
         <v>1</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M77" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N77" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄50</v>
+        <v>法爷#24</v>
       </c>
       <c r="O77" s="15">
         <v>0</v>
@@ -7760,34 +7924,34 @@
       <c r="S77" s="15"/>
       <c r="T77" s="15"/>
       <c r="U77" s="15"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="29"/>
-      <c r="X77" s="31"/>
+      <c r="V77" s="33"/>
+      <c r="W77" s="34"/>
+      <c r="X77" s="36"/>
       <c r="Y77" s="10"/>
       <c r="Z77" s="10"/>
       <c r="AA77" s="10"/>
       <c r="AB77" s="10"/>
       <c r="AC77" s="10"/>
       <c r="AD77" s="10"/>
-      <c r="AE77" s="36"/>
-      <c r="AF77" s="36"/>
-      <c r="AG77" s="39"/>
+      <c r="AE77" s="41"/>
+      <c r="AF77" s="41"/>
+      <c r="AG77" s="44"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A78" s="12" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="D78" s="18"/>
+        <v>321</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D78" s="21"/>
       <c r="E78" s="10">
         <v>0</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="21">
         <v>2</v>
       </c>
       <c r="G78" s="10">
@@ -7806,14 +7970,14 @@
         <v>1</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N78" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄51</v>
+        <v>法爷#25</v>
       </c>
       <c r="O78" s="10">
         <v>0</v>
@@ -7824,34 +7988,34 @@
       <c r="S78" s="10"/>
       <c r="T78" s="10"/>
       <c r="U78" s="10"/>
-      <c r="V78" s="26"/>
-      <c r="W78" s="30"/>
-      <c r="X78" s="32"/>
+      <c r="V78" s="31"/>
+      <c r="W78" s="35"/>
+      <c r="X78" s="37"/>
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
       <c r="AA78" s="15"/>
       <c r="AB78" s="15"/>
       <c r="AC78" s="15"/>
       <c r="AD78" s="15"/>
-      <c r="AE78" s="37"/>
-      <c r="AF78" s="37"/>
-      <c r="AG78" s="40"/>
+      <c r="AE78" s="42"/>
+      <c r="AF78" s="42"/>
+      <c r="AG78" s="45"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A79" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="D79" s="19"/>
+        <v>323</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="D79" s="22"/>
       <c r="E79" s="15">
         <v>0</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F79" s="22">
         <v>2</v>
       </c>
       <c r="G79" s="15">
@@ -7870,14 +8034,14 @@
         <v>1</v>
       </c>
       <c r="L79" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M79" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N79" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄52</v>
+        <v>法爷#26</v>
       </c>
       <c r="O79" s="15">
         <v>0</v>
@@ -7888,34 +8052,34 @@
       <c r="S79" s="15"/>
       <c r="T79" s="15"/>
       <c r="U79" s="15"/>
-      <c r="V79" s="28"/>
-      <c r="W79" s="29"/>
-      <c r="X79" s="31"/>
+      <c r="V79" s="33"/>
+      <c r="W79" s="34"/>
+      <c r="X79" s="36"/>
       <c r="Y79" s="10"/>
       <c r="Z79" s="10"/>
       <c r="AA79" s="10"/>
       <c r="AB79" s="10"/>
       <c r="AC79" s="10"/>
       <c r="AD79" s="10"/>
-      <c r="AE79" s="36"/>
-      <c r="AF79" s="36"/>
-      <c r="AG79" s="39"/>
+      <c r="AE79" s="41"/>
+      <c r="AF79" s="41"/>
+      <c r="AG79" s="44"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A80" s="12" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="D80" s="18"/>
+        <v>327</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D80" s="21"/>
       <c r="E80" s="10">
         <v>0</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="21">
         <v>2</v>
       </c>
       <c r="G80" s="10">
@@ -7934,14 +8098,14 @@
         <v>1</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N80" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄53</v>
+        <v>法爷#27</v>
       </c>
       <c r="O80" s="10">
         <v>0</v>
@@ -7952,34 +8116,34 @@
       <c r="S80" s="10"/>
       <c r="T80" s="10"/>
       <c r="U80" s="10"/>
-      <c r="V80" s="26"/>
-      <c r="W80" s="30"/>
-      <c r="X80" s="32"/>
+      <c r="V80" s="31"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="37"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
       <c r="AA80" s="15"/>
       <c r="AB80" s="15"/>
       <c r="AC80" s="15"/>
       <c r="AD80" s="15"/>
-      <c r="AE80" s="37"/>
-      <c r="AF80" s="37"/>
-      <c r="AG80" s="40"/>
+      <c r="AE80" s="42"/>
+      <c r="AF80" s="42"/>
+      <c r="AG80" s="45"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A81" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="D81" s="19"/>
+        <v>329</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="D81" s="22"/>
       <c r="E81" s="15">
         <v>0</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F81" s="22">
         <v>2</v>
       </c>
       <c r="G81" s="15">
@@ -7998,14 +8162,14 @@
         <v>1</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M81" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N81" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄54</v>
+        <v>法爷#28</v>
       </c>
       <c r="O81" s="15">
         <v>0</v>
@@ -8016,34 +8180,34 @@
       <c r="S81" s="15"/>
       <c r="T81" s="15"/>
       <c r="U81" s="15"/>
-      <c r="V81" s="28"/>
-      <c r="W81" s="29"/>
-      <c r="X81" s="31"/>
+      <c r="V81" s="33"/>
+      <c r="W81" s="34"/>
+      <c r="X81" s="36"/>
       <c r="Y81" s="10"/>
       <c r="Z81" s="10"/>
       <c r="AA81" s="10"/>
       <c r="AB81" s="10"/>
       <c r="AC81" s="10"/>
       <c r="AD81" s="10"/>
-      <c r="AE81" s="36"/>
-      <c r="AF81" s="36"/>
-      <c r="AG81" s="39"/>
+      <c r="AE81" s="41"/>
+      <c r="AF81" s="41"/>
+      <c r="AG81" s="44"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A82" s="12" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="D82" s="18"/>
+        <v>333</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="D82" s="21"/>
       <c r="E82" s="10">
         <v>0</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F82" s="21">
         <v>2</v>
       </c>
       <c r="G82" s="10">
@@ -8062,14 +8226,14 @@
         <v>1</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N82" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄55</v>
+        <v>法爷#29</v>
       </c>
       <c r="O82" s="10">
         <v>0</v>
@@ -8080,34 +8244,34 @@
       <c r="S82" s="10"/>
       <c r="T82" s="10"/>
       <c r="U82" s="10"/>
-      <c r="V82" s="26"/>
-      <c r="W82" s="30"/>
-      <c r="X82" s="32"/>
+      <c r="V82" s="31"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="37"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
       <c r="AA82" s="15"/>
       <c r="AB82" s="15"/>
       <c r="AC82" s="15"/>
       <c r="AD82" s="15"/>
-      <c r="AE82" s="37"/>
-      <c r="AF82" s="37"/>
-      <c r="AG82" s="40"/>
+      <c r="AE82" s="42"/>
+      <c r="AF82" s="42"/>
+      <c r="AG82" s="45"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A83" s="12" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="D83" s="19"/>
+        <v>336</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="D83" s="22"/>
       <c r="E83" s="15">
         <v>0</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F83" s="22">
         <v>3</v>
       </c>
       <c r="G83" s="15">
@@ -8126,14 +8290,14 @@
         <v>1</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M83" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N83" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄56</v>
+        <v>战士#1</v>
       </c>
       <c r="O83" s="15">
         <v>0</v>
@@ -8144,34 +8308,34 @@
       <c r="S83" s="15"/>
       <c r="T83" s="15"/>
       <c r="U83" s="15"/>
-      <c r="V83" s="28"/>
-      <c r="W83" s="29"/>
-      <c r="X83" s="31"/>
+      <c r="V83" s="33"/>
+      <c r="W83" s="34"/>
+      <c r="X83" s="36"/>
       <c r="Y83" s="10"/>
       <c r="Z83" s="10"/>
       <c r="AA83" s="10"/>
       <c r="AB83" s="10"/>
       <c r="AC83" s="10"/>
       <c r="AD83" s="10"/>
-      <c r="AE83" s="36"/>
-      <c r="AF83" s="36"/>
-      <c r="AG83" s="39"/>
+      <c r="AE83" s="41"/>
+      <c r="AF83" s="41"/>
+      <c r="AG83" s="44"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A84" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="D84" s="18"/>
+        <v>338</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="D84" s="21"/>
       <c r="E84" s="10">
         <v>0</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F84" s="21">
         <v>3</v>
       </c>
       <c r="G84" s="10">
@@ -8190,14 +8354,14 @@
         <v>1</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N84" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄57</v>
+        <v>战士#2</v>
       </c>
       <c r="O84" s="10">
         <v>0</v>
@@ -8208,34 +8372,34 @@
       <c r="S84" s="10"/>
       <c r="T84" s="10"/>
       <c r="U84" s="10"/>
-      <c r="V84" s="26"/>
-      <c r="W84" s="30"/>
-      <c r="X84" s="32"/>
+      <c r="V84" s="31"/>
+      <c r="W84" s="35"/>
+      <c r="X84" s="37"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
       <c r="AA84" s="15"/>
       <c r="AB84" s="15"/>
       <c r="AC84" s="15"/>
       <c r="AD84" s="15"/>
-      <c r="AE84" s="37"/>
-      <c r="AF84" s="37"/>
-      <c r="AG84" s="40"/>
+      <c r="AE84" s="42"/>
+      <c r="AF84" s="42"/>
+      <c r="AG84" s="45"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A85" s="12" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="D85" s="19"/>
+        <v>342</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="D85" s="22"/>
       <c r="E85" s="15">
         <v>0</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F85" s="22">
         <v>3</v>
       </c>
       <c r="G85" s="15">
@@ -8254,14 +8418,14 @@
         <v>1</v>
       </c>
       <c r="L85" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M85" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N85" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄58</v>
+        <v>战士#3</v>
       </c>
       <c r="O85" s="15">
         <v>0</v>
@@ -8272,34 +8436,34 @@
       <c r="S85" s="15"/>
       <c r="T85" s="15"/>
       <c r="U85" s="15"/>
-      <c r="V85" s="28"/>
-      <c r="W85" s="29"/>
-      <c r="X85" s="31"/>
+      <c r="V85" s="33"/>
+      <c r="W85" s="34"/>
+      <c r="X85" s="36"/>
       <c r="Y85" s="10"/>
       <c r="Z85" s="10"/>
       <c r="AA85" s="10"/>
       <c r="AB85" s="10"/>
       <c r="AC85" s="10"/>
       <c r="AD85" s="10"/>
-      <c r="AE85" s="36"/>
-      <c r="AF85" s="36"/>
-      <c r="AG85" s="39"/>
+      <c r="AE85" s="41"/>
+      <c r="AF85" s="41"/>
+      <c r="AG85" s="44"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A86" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="D86" s="18"/>
+        <v>344</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="D86" s="21"/>
       <c r="E86" s="10">
         <v>0</v>
       </c>
-      <c r="F86" s="18">
+      <c r="F86" s="21">
         <v>3</v>
       </c>
       <c r="G86" s="10">
@@ -8318,14 +8482,14 @@
         <v>1</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N86" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄59</v>
+        <v>战士#4</v>
       </c>
       <c r="O86" s="10">
         <v>0</v>
@@ -8336,34 +8500,34 @@
       <c r="S86" s="10"/>
       <c r="T86" s="10"/>
       <c r="U86" s="10"/>
-      <c r="V86" s="26"/>
-      <c r="W86" s="30"/>
-      <c r="X86" s="32"/>
+      <c r="V86" s="31"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="37"/>
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
       <c r="AA86" s="15"/>
       <c r="AB86" s="15"/>
       <c r="AC86" s="15"/>
       <c r="AD86" s="15"/>
-      <c r="AE86" s="37"/>
-      <c r="AF86" s="37"/>
-      <c r="AG86" s="40"/>
+      <c r="AE86" s="42"/>
+      <c r="AF86" s="42"/>
+      <c r="AG86" s="45"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A87" s="12" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="D87" s="19"/>
+        <v>348</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="D87" s="22"/>
       <c r="E87" s="15">
         <v>0</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F87" s="22">
         <v>3</v>
       </c>
       <c r="G87" s="15">
@@ -8382,14 +8546,14 @@
         <v>1</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M87" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N87" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄60</v>
+        <v>战士#5</v>
       </c>
       <c r="O87" s="15">
         <v>0</v>
@@ -8400,34 +8564,34 @@
       <c r="S87" s="15"/>
       <c r="T87" s="15"/>
       <c r="U87" s="15"/>
-      <c r="V87" s="28"/>
-      <c r="W87" s="29"/>
-      <c r="X87" s="31"/>
+      <c r="V87" s="33"/>
+      <c r="W87" s="34"/>
+      <c r="X87" s="36"/>
       <c r="Y87" s="10"/>
       <c r="Z87" s="10"/>
       <c r="AA87" s="10"/>
       <c r="AB87" s="10"/>
       <c r="AC87" s="10"/>
       <c r="AD87" s="10"/>
-      <c r="AE87" s="36"/>
-      <c r="AF87" s="36"/>
-      <c r="AG87" s="39"/>
+      <c r="AE87" s="41"/>
+      <c r="AF87" s="41"/>
+      <c r="AG87" s="44"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A88" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="D88" s="18"/>
+        <v>350</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="D88" s="21"/>
       <c r="E88" s="10">
         <v>0</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F88" s="21">
         <v>3</v>
       </c>
       <c r="G88" s="10">
@@ -8446,14 +8610,14 @@
         <v>1</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N88" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄61</v>
+        <v>战士#6</v>
       </c>
       <c r="O88" s="10">
         <v>0</v>
@@ -8464,34 +8628,34 @@
       <c r="S88" s="10"/>
       <c r="T88" s="10"/>
       <c r="U88" s="10"/>
-      <c r="V88" s="26"/>
-      <c r="W88" s="30"/>
-      <c r="X88" s="32"/>
+      <c r="V88" s="31"/>
+      <c r="W88" s="35"/>
+      <c r="X88" s="37"/>
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
       <c r="AA88" s="15"/>
       <c r="AB88" s="15"/>
       <c r="AC88" s="15"/>
       <c r="AD88" s="15"/>
-      <c r="AE88" s="37"/>
-      <c r="AF88" s="37"/>
-      <c r="AG88" s="40"/>
+      <c r="AE88" s="42"/>
+      <c r="AF88" s="42"/>
+      <c r="AG88" s="45"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A89" s="12" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="D89" s="19"/>
+        <v>354</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="D89" s="22"/>
       <c r="E89" s="15">
         <v>1</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F89" s="22">
         <v>3</v>
       </c>
       <c r="G89" s="15">
@@ -8510,14 +8674,14 @@
         <v>1</v>
       </c>
       <c r="L89" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M89" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N89" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄62</v>
+        <v>战士#7</v>
       </c>
       <c r="O89" s="15">
         <v>0</v>
@@ -8528,34 +8692,34 @@
       <c r="S89" s="15"/>
       <c r="T89" s="15"/>
       <c r="U89" s="15"/>
-      <c r="V89" s="28"/>
-      <c r="W89" s="29"/>
-      <c r="X89" s="31"/>
+      <c r="V89" s="33"/>
+      <c r="W89" s="34"/>
+      <c r="X89" s="36"/>
       <c r="Y89" s="10"/>
       <c r="Z89" s="10"/>
       <c r="AA89" s="10"/>
       <c r="AB89" s="10"/>
       <c r="AC89" s="10"/>
       <c r="AD89" s="10"/>
-      <c r="AE89" s="36"/>
-      <c r="AF89" s="36"/>
-      <c r="AG89" s="39"/>
+      <c r="AE89" s="41"/>
+      <c r="AF89" s="41"/>
+      <c r="AG89" s="44"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A90" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="D90" s="18"/>
+        <v>356</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="D90" s="21"/>
       <c r="E90" s="10">
         <v>0</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F90" s="21">
         <v>3</v>
       </c>
       <c r="G90" s="10">
@@ -8574,14 +8738,14 @@
         <v>1</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N90" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄63</v>
+        <v>战士#8</v>
       </c>
       <c r="O90" s="10">
         <v>0</v>
@@ -8592,34 +8756,34 @@
       <c r="S90" s="10"/>
       <c r="T90" s="10"/>
       <c r="U90" s="10"/>
-      <c r="V90" s="26"/>
-      <c r="W90" s="30"/>
-      <c r="X90" s="32"/>
+      <c r="V90" s="31"/>
+      <c r="W90" s="35"/>
+      <c r="X90" s="37"/>
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
       <c r="AA90" s="15"/>
       <c r="AB90" s="15"/>
       <c r="AC90" s="15"/>
       <c r="AD90" s="15"/>
-      <c r="AE90" s="37"/>
-      <c r="AF90" s="37"/>
-      <c r="AG90" s="40"/>
+      <c r="AE90" s="42"/>
+      <c r="AF90" s="42"/>
+      <c r="AG90" s="45"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A91" s="12" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="D91" s="19"/>
+        <v>360</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D91" s="22"/>
       <c r="E91" s="15">
         <v>0</v>
       </c>
-      <c r="F91" s="19">
+      <c r="F91" s="22">
         <v>3</v>
       </c>
       <c r="G91" s="15">
@@ -8638,14 +8802,14 @@
         <v>1</v>
       </c>
       <c r="L91" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M91" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N91" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄64</v>
+        <v>战士#9</v>
       </c>
       <c r="O91" s="15">
         <v>0</v>
@@ -8656,34 +8820,34 @@
       <c r="S91" s="15"/>
       <c r="T91" s="15"/>
       <c r="U91" s="15"/>
-      <c r="V91" s="28"/>
-      <c r="W91" s="29"/>
-      <c r="X91" s="31"/>
+      <c r="V91" s="33"/>
+      <c r="W91" s="34"/>
+      <c r="X91" s="36"/>
       <c r="Y91" s="10"/>
       <c r="Z91" s="10"/>
       <c r="AA91" s="10"/>
       <c r="AB91" s="10"/>
       <c r="AC91" s="10"/>
       <c r="AD91" s="10"/>
-      <c r="AE91" s="36"/>
-      <c r="AF91" s="36"/>
-      <c r="AG91" s="39"/>
+      <c r="AE91" s="41"/>
+      <c r="AF91" s="41"/>
+      <c r="AG91" s="44"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A92" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="D92" s="18"/>
+        <v>362</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="D92" s="21"/>
       <c r="E92" s="10">
         <v>0</v>
       </c>
-      <c r="F92" s="18">
+      <c r="F92" s="21">
         <v>3</v>
       </c>
       <c r="G92" s="10">
@@ -8702,14 +8866,14 @@
         <v>1</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N92" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄65</v>
+        <v>战士#10</v>
       </c>
       <c r="O92" s="10">
         <v>0</v>
@@ -8720,34 +8884,34 @@
       <c r="S92" s="10"/>
       <c r="T92" s="10"/>
       <c r="U92" s="10"/>
-      <c r="V92" s="26"/>
-      <c r="W92" s="30"/>
-      <c r="X92" s="32"/>
+      <c r="V92" s="31"/>
+      <c r="W92" s="35"/>
+      <c r="X92" s="37"/>
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
       <c r="AA92" s="15"/>
       <c r="AB92" s="15"/>
       <c r="AC92" s="15"/>
       <c r="AD92" s="15"/>
-      <c r="AE92" s="37"/>
-      <c r="AF92" s="37"/>
-      <c r="AG92" s="40"/>
+      <c r="AE92" s="42"/>
+      <c r="AF92" s="42"/>
+      <c r="AG92" s="45"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A93" s="12" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="D93" s="19"/>
+        <v>366</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D93" s="22"/>
       <c r="E93" s="15">
         <v>0</v>
       </c>
-      <c r="F93" s="19">
+      <c r="F93" s="22">
         <v>3</v>
       </c>
       <c r="G93" s="15">
@@ -8766,14 +8930,14 @@
         <v>1</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M93" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N93" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄66</v>
+        <v>战士#11</v>
       </c>
       <c r="O93" s="15">
         <v>0</v>
@@ -8784,34 +8948,34 @@
       <c r="S93" s="15"/>
       <c r="T93" s="15"/>
       <c r="U93" s="15"/>
-      <c r="V93" s="28"/>
-      <c r="W93" s="29"/>
-      <c r="X93" s="31"/>
+      <c r="V93" s="33"/>
+      <c r="W93" s="34"/>
+      <c r="X93" s="36"/>
       <c r="Y93" s="10"/>
       <c r="Z93" s="10"/>
       <c r="AA93" s="10"/>
       <c r="AB93" s="10"/>
       <c r="AC93" s="10"/>
       <c r="AD93" s="10"/>
-      <c r="AE93" s="36"/>
-      <c r="AF93" s="36"/>
-      <c r="AG93" s="39"/>
+      <c r="AE93" s="41"/>
+      <c r="AF93" s="41"/>
+      <c r="AG93" s="44"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A94" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="D94" s="18"/>
+        <v>368</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="D94" s="21"/>
       <c r="E94" s="10">
         <v>0</v>
       </c>
-      <c r="F94" s="18">
+      <c r="F94" s="21">
         <v>3</v>
       </c>
       <c r="G94" s="10">
@@ -8830,14 +8994,14 @@
         <v>1</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N94" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄67</v>
+        <v>战士#12</v>
       </c>
       <c r="O94" s="10">
         <v>0</v>
@@ -8848,34 +9012,34 @@
       <c r="S94" s="10"/>
       <c r="T94" s="10"/>
       <c r="U94" s="10"/>
-      <c r="V94" s="26"/>
-      <c r="W94" s="30"/>
-      <c r="X94" s="32"/>
+      <c r="V94" s="31"/>
+      <c r="W94" s="35"/>
+      <c r="X94" s="37"/>
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
       <c r="AA94" s="15"/>
       <c r="AB94" s="15"/>
       <c r="AC94" s="15"/>
       <c r="AD94" s="15"/>
-      <c r="AE94" s="37"/>
-      <c r="AF94" s="37"/>
-      <c r="AG94" s="40"/>
+      <c r="AE94" s="42"/>
+      <c r="AF94" s="42"/>
+      <c r="AG94" s="45"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A95" s="12" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="D95" s="19"/>
+        <v>372</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="D95" s="22"/>
       <c r="E95" s="15">
         <v>0</v>
       </c>
-      <c r="F95" s="19">
+      <c r="F95" s="22">
         <v>3</v>
       </c>
       <c r="G95" s="15">
@@ -8894,14 +9058,14 @@
         <v>1</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M95" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N95" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄68</v>
+        <v>战士#13</v>
       </c>
       <c r="O95" s="15">
         <v>0</v>
@@ -8912,8 +9076,8 @@
       <c r="S95" s="15"/>
       <c r="T95" s="15"/>
       <c r="U95" s="15"/>
-      <c r="V95" s="28"/>
-      <c r="W95" s="29"/>
+      <c r="V95" s="33"/>
+      <c r="W95" s="34"/>
       <c r="X95" s="9"/>
       <c r="Y95" s="10"/>
       <c r="Z95" s="10"/>
@@ -8923,23 +9087,23 @@
       <c r="AD95" s="10"/>
       <c r="AE95" s="10"/>
       <c r="AF95" s="10"/>
-      <c r="AG95" s="26"/>
+      <c r="AG95" s="31"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A96" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="D96" s="18"/>
+        <v>374</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D96" s="21"/>
       <c r="E96" s="10">
         <v>0</v>
       </c>
-      <c r="F96" s="18">
+      <c r="F96" s="21">
         <v>3</v>
       </c>
       <c r="G96" s="10">
@@ -8958,14 +9122,14 @@
         <v>1</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N96" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄69</v>
+        <v>战士#14</v>
       </c>
       <c r="O96" s="10">
         <v>0</v>
@@ -8976,34 +9140,34 @@
       <c r="S96" s="10"/>
       <c r="T96" s="10"/>
       <c r="U96" s="10"/>
-      <c r="V96" s="26"/>
-      <c r="W96" s="30"/>
-      <c r="X96" s="32"/>
+      <c r="V96" s="31"/>
+      <c r="W96" s="35"/>
+      <c r="X96" s="37"/>
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
       <c r="AA96" s="15"/>
       <c r="AB96" s="15"/>
       <c r="AC96" s="15"/>
       <c r="AD96" s="15"/>
-      <c r="AE96" s="37"/>
-      <c r="AF96" s="37"/>
-      <c r="AG96" s="40"/>
+      <c r="AE96" s="42"/>
+      <c r="AF96" s="42"/>
+      <c r="AG96" s="45"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A97" s="12" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="D97" s="19"/>
+        <v>378</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="D97" s="22"/>
       <c r="E97" s="15">
         <v>0</v>
       </c>
-      <c r="F97" s="19">
+      <c r="F97" s="22">
         <v>3</v>
       </c>
       <c r="G97" s="15">
@@ -9022,14 +9186,14 @@
         <v>1</v>
       </c>
       <c r="L97" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M97" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N97" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄70</v>
+        <v>战士#15</v>
       </c>
       <c r="O97" s="15">
         <v>0</v>
@@ -9040,34 +9204,34 @@
       <c r="S97" s="15"/>
       <c r="T97" s="15"/>
       <c r="U97" s="15"/>
-      <c r="V97" s="28"/>
-      <c r="W97" s="29"/>
-      <c r="X97" s="31"/>
+      <c r="V97" s="33"/>
+      <c r="W97" s="34"/>
+      <c r="X97" s="36"/>
       <c r="Y97" s="10"/>
       <c r="Z97" s="10"/>
       <c r="AA97" s="10"/>
       <c r="AB97" s="10"/>
       <c r="AC97" s="10"/>
       <c r="AD97" s="10"/>
-      <c r="AE97" s="36"/>
-      <c r="AF97" s="36"/>
-      <c r="AG97" s="39"/>
+      <c r="AE97" s="41"/>
+      <c r="AF97" s="41"/>
+      <c r="AG97" s="44"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A98" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="D98" s="18"/>
+        <v>380</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="D98" s="21"/>
       <c r="E98" s="10">
         <v>1</v>
       </c>
-      <c r="F98" s="18">
+      <c r="F98" s="21">
         <v>3</v>
       </c>
       <c r="G98" s="10">
@@ -9086,14 +9250,14 @@
         <v>1</v>
       </c>
       <c r="L98" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N98" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄71</v>
+        <v>战士#16</v>
       </c>
       <c r="O98" s="10">
         <v>0</v>
@@ -9104,34 +9268,34 @@
       <c r="S98" s="10"/>
       <c r="T98" s="10"/>
       <c r="U98" s="10"/>
-      <c r="V98" s="26"/>
-      <c r="W98" s="30"/>
-      <c r="X98" s="32"/>
+      <c r="V98" s="31"/>
+      <c r="W98" s="35"/>
+      <c r="X98" s="37"/>
       <c r="Y98" s="15"/>
       <c r="Z98" s="15"/>
       <c r="AA98" s="15"/>
       <c r="AB98" s="15"/>
       <c r="AC98" s="15"/>
       <c r="AD98" s="15"/>
-      <c r="AE98" s="37"/>
-      <c r="AF98" s="37"/>
-      <c r="AG98" s="40"/>
+      <c r="AE98" s="42"/>
+      <c r="AF98" s="42"/>
+      <c r="AG98" s="45"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A99" s="12" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="D99" s="19"/>
+        <v>384</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="D99" s="22"/>
       <c r="E99" s="15">
         <v>0</v>
       </c>
-      <c r="F99" s="19">
+      <c r="F99" s="22">
         <v>3</v>
       </c>
       <c r="G99" s="15">
@@ -9150,14 +9314,14 @@
         <v>1</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M99" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N99" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄72</v>
+        <v>战士#17</v>
       </c>
       <c r="O99" s="15">
         <v>0</v>
@@ -9168,82 +9332,82 @@
       <c r="S99" s="15"/>
       <c r="T99" s="15"/>
       <c r="U99" s="15"/>
-      <c r="V99" s="28"/>
-      <c r="W99" s="29"/>
-      <c r="X99" s="31"/>
+      <c r="V99" s="33"/>
+      <c r="W99" s="34"/>
+      <c r="X99" s="36"/>
       <c r="Y99" s="10"/>
       <c r="Z99" s="10"/>
       <c r="AA99" s="10"/>
       <c r="AB99" s="10"/>
       <c r="AC99" s="10"/>
       <c r="AD99" s="10"/>
-      <c r="AE99" s="36"/>
-      <c r="AF99" s="36"/>
-      <c r="AG99" s="39"/>
+      <c r="AE99" s="41"/>
+      <c r="AF99" s="41"/>
+      <c r="AG99" s="44"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A100" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="B100" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="C100" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="D100" s="42"/>
-      <c r="E100" s="41">
-        <v>0</v>
-      </c>
-      <c r="F100" s="42">
+        <v>386</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C100" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="D100" s="46"/>
+      <c r="E100" s="47">
+        <v>0</v>
+      </c>
+      <c r="F100" s="46">
         <v>3</v>
       </c>
-      <c r="G100" s="41">
-        <v>101</v>
-      </c>
-      <c r="H100" s="41">
-        <v>100</v>
-      </c>
-      <c r="I100" s="41">
-        <v>1</v>
-      </c>
-      <c r="J100" s="41">
-        <v>1</v>
-      </c>
-      <c r="K100" s="41">
-        <v>1</v>
-      </c>
-      <c r="L100" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="M100" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="N100" s="41" t="str">
+      <c r="G100" s="47">
+        <v>101</v>
+      </c>
+      <c r="H100" s="47">
+        <v>100</v>
+      </c>
+      <c r="I100" s="47">
+        <v>1</v>
+      </c>
+      <c r="J100" s="47">
+        <v>1</v>
+      </c>
+      <c r="K100" s="47">
+        <v>1</v>
+      </c>
+      <c r="L100" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="M100" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="N100" s="47" t="str">
         <f t="shared" si="2"/>
-        <v>专属英雄73</v>
-      </c>
-      <c r="O100" s="41">
-        <v>0</v>
-      </c>
-      <c r="P100" s="41"/>
-      <c r="Q100" s="41"/>
-      <c r="R100" s="41"/>
-      <c r="S100" s="41"/>
-      <c r="T100" s="41"/>
-      <c r="U100" s="41"/>
-      <c r="V100" s="43"/>
-      <c r="W100" s="30"/>
-      <c r="X100" s="44"/>
-      <c r="Y100" s="46"/>
-      <c r="Z100" s="46"/>
-      <c r="AA100" s="46"/>
-      <c r="AB100" s="46"/>
-      <c r="AC100" s="46"/>
-      <c r="AD100" s="46"/>
-      <c r="AE100" s="47"/>
-      <c r="AF100" s="47"/>
-      <c r="AG100" s="48"/>
+        <v>战士#18</v>
+      </c>
+      <c r="O100" s="47">
+        <v>0</v>
+      </c>
+      <c r="P100" s="47"/>
+      <c r="Q100" s="47"/>
+      <c r="R100" s="47"/>
+      <c r="S100" s="47"/>
+      <c r="T100" s="47"/>
+      <c r="U100" s="47"/>
+      <c r="V100" s="48"/>
+      <c r="W100" s="35"/>
+      <c r="X100" s="49"/>
+      <c r="Y100" s="51"/>
+      <c r="Z100" s="51"/>
+      <c r="AA100" s="51"/>
+      <c r="AB100" s="51"/>
+      <c r="AC100" s="51"/>
+      <c r="AD100" s="51"/>
+      <c r="AE100" s="52"/>
+      <c r="AF100" s="52"/>
+      <c r="AG100" s="53"/>
     </row>
     <row r="101" ht="14.25"/>
   </sheetData>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="390">
   <si>
     <t>名字</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>4|3|3</t>
+  </si>
+  <si>
+    <t>item_rune/1</t>
   </si>
   <si>
     <t>CriticalChance {
@@ -2481,7 +2484,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{AD1EE35A-4F91-4A24-899E-1521A3C713E6}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3610B2C7-E017-44BD-ACC9-D8069520246E}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -2791,10 +2794,10 @@
   <sheetPr/>
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="W1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C57" sqref="C57"/>
+      <selection pane="topRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3035,19 +3038,18 @@
       <c r="M3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="15" t="str">
-        <f>B3</f>
-        <v>通用符文#1</v>
+      <c r="N3" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O3" s="15">
         <v>0</v>
       </c>
       <c r="P3" s="15"/>
       <c r="Q3" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
@@ -3056,7 +3058,7 @@
       <c r="W3" s="34"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
@@ -3069,16 +3071,16 @@
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:33">
       <c r="A4" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
@@ -3107,9 +3109,8 @@
       <c r="M4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="10" t="str">
-        <f t="shared" ref="N4:N35" si="0">B4</f>
-        <v>通用符文2</v>
+      <c r="N4" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O4" s="10">
         <v>0</v>
@@ -3124,7 +3125,7 @@
       <c r="W4" s="35"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
@@ -3137,13 +3138,13 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="49.5" spans="1:33">
       <c r="A5" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15">
@@ -3173,16 +3174,15 @@
       <c r="M5" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文3</v>
+      <c r="N5" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O5" s="15">
         <v>0</v>
       </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
@@ -3192,7 +3192,7 @@
       <c r="W5" s="34"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -3205,16 +3205,16 @@
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:33">
       <c r="A6" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -3243,9 +3243,8 @@
       <c r="M6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文4</v>
+      <c r="N6" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O6" s="10">
         <v>0</v>
@@ -3260,7 +3259,7 @@
       <c r="W6" s="35"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
@@ -3273,13 +3272,13 @@
     </row>
     <row r="7" ht="49.5" spans="1:33">
       <c r="A7" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15">
@@ -3309,16 +3308,15 @@
       <c r="M7" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文5</v>
+      <c r="N7" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O7" s="15">
         <v>0</v>
       </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
@@ -3339,13 +3337,13 @@
     </row>
     <row r="8" ht="49.5" spans="1:33">
       <c r="A8" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="10">
@@ -3375,16 +3373,15 @@
       <c r="M8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文6</v>
+      <c r="N8" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O8" s="10">
         <v>0</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -3405,13 +3402,13 @@
     </row>
     <row r="9" ht="49.5" spans="1:33">
       <c r="A9" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15">
@@ -3441,16 +3438,15 @@
       <c r="M9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文7</v>
+      <c r="N9" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O9" s="15">
         <v>0</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
@@ -3471,16 +3467,16 @@
     </row>
     <row r="10" ht="30.5" customHeight="1" spans="1:33">
       <c r="A10" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
@@ -3509,9 +3505,8 @@
       <c r="M10" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文8</v>
+      <c r="N10" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O10" s="10">
         <v>0</v>
@@ -3526,13 +3521,13 @@
       <c r="W10" s="35"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z10" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA10" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" s="15"/>
       <c r="AC10" s="15"/>
@@ -3543,16 +3538,16 @@
     </row>
     <row r="11" ht="49.5" spans="1:33">
       <c r="A11" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E11" s="15">
         <v>1</v>
@@ -3576,21 +3571,20 @@
         <v>1</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文9</v>
+        <v>81</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O11" s="15">
         <v>0</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
@@ -3600,10 +3594,10 @@
       <c r="W11" s="34"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
@@ -3615,16 +3609,16 @@
     </row>
     <row r="12" ht="30.5" customHeight="1" spans="1:33">
       <c r="A12" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
@@ -3653,9 +3647,8 @@
       <c r="M12" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文10</v>
+      <c r="N12" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O12" s="10">
         <v>0</v>
@@ -3670,10 +3663,10 @@
       <c r="W12" s="35"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z12" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA12" s="15"/>
       <c r="AB12" s="15"/>
@@ -3685,16 +3678,16 @@
     </row>
     <row r="13" ht="30.5" customHeight="1" spans="1:33">
       <c r="A13" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13" s="15">
         <v>1</v>
@@ -3723,9 +3716,8 @@
       <c r="M13" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文11</v>
+      <c r="N13" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O13" s="15">
         <v>0</v>
@@ -3740,16 +3732,16 @@
       <c r="W13" s="34"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB13" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
@@ -3759,16 +3751,16 @@
     </row>
     <row r="14" ht="33" spans="1:33">
       <c r="A14" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E14" s="10">
         <v>1</v>
@@ -3792,14 +3784,13 @@
         <v>1</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文12</v>
+        <v>101</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O14" s="10">
         <v>0</v>
@@ -3814,10 +3805,10 @@
       <c r="W14" s="35"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z14" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
@@ -3829,13 +3820,13 @@
     </row>
     <row r="15" ht="49.5" spans="1:33">
       <c r="A15" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="15">
@@ -3860,24 +3851,23 @@
         <v>1</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文13</v>
+        <v>101</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O15" s="15">
         <v>0</v>
       </c>
       <c r="P15" s="15"/>
       <c r="Q15" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
@@ -3897,16 +3887,16 @@
     </row>
     <row r="16" ht="49.5" spans="1:33">
       <c r="A16" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -3930,21 +3920,20 @@
         <v>1</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="N16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文14</v>
+        <v>101</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O16" s="10">
         <v>0</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
@@ -3954,7 +3943,7 @@
       <c r="W16" s="35"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
@@ -3967,16 +3956,16 @@
     </row>
     <row r="17" ht="30.5" customHeight="1" spans="1:33">
       <c r="A17" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
@@ -4005,9 +3994,8 @@
       <c r="M17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文15</v>
+      <c r="N17" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O17" s="15">
         <v>0</v>
@@ -4022,10 +4010,10 @@
       <c r="W17" s="34"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
@@ -4037,16 +4025,16 @@
     </row>
     <row r="18" ht="49.5" spans="1:33">
       <c r="A18" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E18" s="10">
         <v>1</v>
@@ -4070,21 +4058,20 @@
         <v>1</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文16</v>
+        <v>101</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O18" s="10">
         <v>0</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
@@ -4094,10 +4081,10 @@
       <c r="W18" s="35"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Z18" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA18" s="15"/>
       <c r="AB18" s="15"/>
@@ -4109,16 +4096,16 @@
     </row>
     <row r="19" ht="16.5" spans="1:33">
       <c r="A19" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19" s="15">
         <v>1</v>
@@ -4142,14 +4129,13 @@
         <v>1</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M19" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="N19" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文17</v>
+        <v>101</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O19" s="15">
         <v>0</v>
@@ -4164,10 +4150,10 @@
       <c r="W19" s="34"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
@@ -4179,16 +4165,16 @@
     </row>
     <row r="20" ht="49.5" spans="1:33">
       <c r="A20" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E20" s="10">
         <v>1</v>
@@ -4217,19 +4203,18 @@
       <c r="M20" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文18</v>
+      <c r="N20" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O20" s="10">
         <v>0</v>
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
@@ -4249,13 +4234,13 @@
     </row>
     <row r="21" ht="49.5" spans="1:33">
       <c r="A21" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15">
@@ -4285,16 +4270,15 @@
       <c r="M21" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N21" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文19</v>
+      <c r="N21" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O21" s="15">
         <v>0</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
@@ -4315,16 +4299,16 @@
     </row>
     <row r="22" ht="49.5" spans="1:33">
       <c r="A22" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E22" s="10">
         <v>1</v>
@@ -4353,9 +4337,8 @@
       <c r="M22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文20</v>
+      <c r="N22" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O22" s="10">
         <v>0</v>
@@ -4370,10 +4353,10 @@
       <c r="W22" s="35"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Z22" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
@@ -4385,16 +4368,16 @@
     </row>
     <row r="23" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A23" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E23" s="15">
         <v>1</v>
@@ -4418,14 +4401,13 @@
         <v>1</v>
       </c>
       <c r="L23" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="N23" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文21</v>
+        <v>101</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O23" s="15">
         <v>0</v>
@@ -4451,16 +4433,16 @@
     </row>
     <row r="24" ht="30.5" customHeight="1" spans="1:33">
       <c r="A24" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E24" s="10">
         <v>1</v>
@@ -4484,14 +4466,13 @@
         <v>1</v>
       </c>
       <c r="L24" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="N24" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文22</v>
+        <v>101</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O24" s="10">
         <v>0</v>
@@ -4506,13 +4487,13 @@
       <c r="W24" s="35"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z24" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA24" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AB24" s="15"/>
       <c r="AC24" s="15"/>
@@ -4523,16 +4504,16 @@
     </row>
     <row r="25" ht="30.5" customHeight="1" spans="1:33">
       <c r="A25" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E25" s="15">
         <v>1</v>
@@ -4561,9 +4542,8 @@
       <c r="M25" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N25" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文23</v>
+      <c r="N25" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O25" s="15">
         <v>0</v>
@@ -4578,10 +4558,10 @@
       <c r="W25" s="34"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
@@ -4593,16 +4573,16 @@
     </row>
     <row r="26" ht="30.5" customHeight="1" spans="1:33">
       <c r="A26" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="10">
         <v>1</v>
@@ -4631,9 +4611,8 @@
       <c r="M26" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N26" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文24</v>
+      <c r="N26" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O26" s="10">
         <v>0</v>
@@ -4648,10 +4627,10 @@
       <c r="W26" s="35"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z26" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
@@ -4663,16 +4642,16 @@
     </row>
     <row r="27" ht="30.5" customHeight="1" spans="1:33">
       <c r="A27" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E27" s="15">
         <v>1</v>
@@ -4701,9 +4680,8 @@
       <c r="M27" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N27" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>通用符文25</v>
+      <c r="N27" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O27" s="15">
         <v>0</v>
@@ -4718,7 +4696,7 @@
       <c r="W27" s="34"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
@@ -4731,13 +4709,13 @@
     </row>
     <row r="28" ht="30.5" customHeight="1" spans="1:33">
       <c r="A28" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="10">
@@ -4762,14 +4740,13 @@
         <v>1</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N28" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>游侠#1</v>
+        <v>169</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O28" s="10">
         <v>0</v>
@@ -4784,10 +4761,10 @@
       <c r="W28" s="35"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z28" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
@@ -4799,13 +4776,13 @@
     </row>
     <row r="29" ht="30.5" customHeight="1" spans="1:33">
       <c r="A29" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="15">
@@ -4830,14 +4807,13 @@
         <v>1</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N29" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>游侠#2</v>
+        <v>169</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O29" s="15">
         <v>0</v>
@@ -4852,10 +4828,10 @@
       <c r="W29" s="34"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -4867,13 +4843,13 @@
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:33">
       <c r="A30" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="10">
@@ -4898,14 +4874,13 @@
         <v>1</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N30" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>游侠#3</v>
+        <v>169</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O30" s="10">
         <v>0</v>
@@ -4931,13 +4906,13 @@
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:33">
       <c r="A31" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="15">
@@ -4962,14 +4937,13 @@
         <v>1</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N31" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>游侠#4</v>
+        <v>169</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O31" s="15">
         <v>0</v>
@@ -4995,13 +4969,13 @@
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:33">
       <c r="A32" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="10">
@@ -5026,14 +5000,13 @@
         <v>1</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N32" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>游侠#5</v>
+        <v>169</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O32" s="10">
         <v>0</v>
@@ -5059,13 +5032,13 @@
     </row>
     <row r="33" ht="30.5" customHeight="1" spans="1:33">
       <c r="A33" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="15">
@@ -5090,14 +5063,13 @@
         <v>1</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N33" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>游侠#6</v>
+        <v>169</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O33" s="15">
         <v>0</v>
@@ -5123,13 +5095,13 @@
     </row>
     <row r="34" ht="30.5" customHeight="1" spans="1:33">
       <c r="A34" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="10">
@@ -5154,14 +5126,13 @@
         <v>1</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N34" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>游侠#7</v>
+        <v>169</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O34" s="10">
         <v>0</v>
@@ -5187,13 +5158,13 @@
     </row>
     <row r="35" ht="30.5" customHeight="1" spans="1:33">
       <c r="A35" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="15">
@@ -5218,14 +5189,13 @@
         <v>1</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N35" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>游侠#8</v>
+        <v>169</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O35" s="15">
         <v>0</v>
@@ -5251,13 +5221,13 @@
     </row>
     <row r="36" ht="30.5" customHeight="1" spans="1:33">
       <c r="A36" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="10">
@@ -5282,14 +5252,13 @@
         <v>1</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N36" s="10" t="str">
-        <f t="shared" ref="N36:N67" si="1">B36</f>
-        <v>游侠#9</v>
+        <v>169</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O36" s="10">
         <v>0</v>
@@ -5315,13 +5284,13 @@
     </row>
     <row r="37" ht="30.5" customHeight="1" spans="1:33">
       <c r="A37" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="15">
@@ -5346,14 +5315,13 @@
         <v>1</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N37" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>游侠#10</v>
+        <v>169</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O37" s="15">
         <v>0</v>
@@ -5379,13 +5347,13 @@
     </row>
     <row r="38" ht="31.25" customHeight="1" spans="1:33">
       <c r="A38" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="10">
@@ -5410,14 +5378,13 @@
         <v>1</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N38" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>游侠#11</v>
+        <v>169</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O38" s="10">
         <v>0</v>
@@ -5443,13 +5410,13 @@
     </row>
     <row r="39" ht="30.5" customHeight="1" spans="1:33">
       <c r="A39" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="15">
@@ -5474,14 +5441,13 @@
         <v>1</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N39" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>游侠#12</v>
+        <v>169</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O39" s="15">
         <v>0</v>
@@ -5507,13 +5473,13 @@
     </row>
     <row r="40" ht="30.5" customHeight="1" spans="1:33">
       <c r="A40" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="10">
@@ -5538,14 +5504,13 @@
         <v>1</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N40" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>游侠#13</v>
+        <v>169</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O40" s="10">
         <v>0</v>
@@ -5571,13 +5536,13 @@
     </row>
     <row r="41" ht="30.5" customHeight="1" spans="1:33">
       <c r="A41" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="15">
@@ -5602,14 +5567,13 @@
         <v>1</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N41" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>游侠#14</v>
+        <v>169</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O41" s="15">
         <v>0</v>
@@ -5635,13 +5599,13 @@
     </row>
     <row r="42" ht="30.5" customHeight="1" spans="1:33">
       <c r="A42" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="10">
@@ -5666,14 +5630,13 @@
         <v>1</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N42" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>游侠#15</v>
+        <v>169</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O42" s="10">
         <v>0</v>
@@ -5699,13 +5662,13 @@
     </row>
     <row r="43" ht="30.5" customHeight="1" spans="1:33">
       <c r="A43" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="15">
@@ -5730,14 +5693,13 @@
         <v>1</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N43" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>游侠#16</v>
+        <v>169</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O43" s="15">
         <v>0</v>
@@ -5763,13 +5725,13 @@
     </row>
     <row r="44" ht="30.5" customHeight="1" spans="1:33">
       <c r="A44" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="10">
@@ -5794,14 +5756,13 @@
         <v>1</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N44" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>游侠#17</v>
+        <v>169</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O44" s="10">
         <v>0</v>
@@ -5827,13 +5788,13 @@
     </row>
     <row r="45" ht="30.5" customHeight="1" spans="1:33">
       <c r="A45" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="15">
@@ -5858,14 +5819,13 @@
         <v>1</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M45" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N45" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>游侠#18</v>
+        <v>169</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O45" s="15">
         <v>0</v>
@@ -5891,13 +5851,13 @@
     </row>
     <row r="46" ht="30.5" customHeight="1" spans="1:33">
       <c r="A46" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="10">
@@ -5922,14 +5882,13 @@
         <v>1</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N46" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>游侠#19</v>
+        <v>169</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O46" s="10">
         <v>0</v>
@@ -5955,13 +5914,13 @@
     </row>
     <row r="47" ht="30.5" customHeight="1" spans="1:33">
       <c r="A47" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="15">
@@ -5986,14 +5945,13 @@
         <v>1</v>
       </c>
       <c r="L47" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N47" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>游侠#20</v>
+        <v>169</v>
+      </c>
+      <c r="N47" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O47" s="15">
         <v>0</v>
@@ -6019,13 +5977,13 @@
     </row>
     <row r="48" ht="30.5" customHeight="1" spans="1:33">
       <c r="A48" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="10">
@@ -6050,14 +6008,13 @@
         <v>1</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N48" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>游侠#21</v>
+        <v>169</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O48" s="10">
         <v>0</v>
@@ -6083,13 +6040,13 @@
     </row>
     <row r="49" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A49" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="15">
@@ -6114,14 +6071,13 @@
         <v>1</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N49" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>游侠#22</v>
+        <v>169</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O49" s="15">
         <v>0</v>
@@ -6147,13 +6103,13 @@
     </row>
     <row r="50" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A50" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="10">
@@ -6178,14 +6134,13 @@
         <v>1</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N50" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>游侠#23</v>
+        <v>169</v>
+      </c>
+      <c r="N50" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O50" s="10">
         <v>0</v>
@@ -6211,13 +6166,13 @@
     </row>
     <row r="51" ht="30.5" customHeight="1" spans="1:33">
       <c r="A51" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="15">
@@ -6242,14 +6197,13 @@
         <v>1</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N51" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>游侠#24</v>
+        <v>169</v>
+      </c>
+      <c r="N51" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O51" s="15">
         <v>0</v>
@@ -6275,13 +6229,13 @@
     </row>
     <row r="52" ht="30.5" customHeight="1" spans="1:33">
       <c r="A52" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="10">
@@ -6306,14 +6260,13 @@
         <v>1</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N52" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>游侠#25</v>
+        <v>169</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O52" s="10">
         <v>0</v>
@@ -6339,13 +6292,13 @@
     </row>
     <row r="53" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A53" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="15">
@@ -6370,14 +6323,13 @@
         <v>1</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M53" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N53" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>游侠#26</v>
+        <v>169</v>
+      </c>
+      <c r="N53" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O53" s="15">
         <v>0</v>
@@ -6403,13 +6355,13 @@
     </row>
     <row r="54" ht="30.5" customHeight="1" spans="1:33">
       <c r="A54" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="10">
@@ -6434,14 +6386,13 @@
         <v>1</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N54" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>法爷#1</v>
+        <v>169</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O54" s="10">
         <v>0</v>
@@ -6467,13 +6418,13 @@
     </row>
     <row r="55" ht="30.5" customHeight="1" spans="1:33">
       <c r="A55" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="15">
@@ -6498,14 +6449,13 @@
         <v>1</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M55" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N55" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>法爷#2</v>
+        <v>169</v>
+      </c>
+      <c r="N55" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O55" s="15">
         <v>0</v>
@@ -6531,13 +6481,13 @@
     </row>
     <row r="56" ht="30.5" customHeight="1" spans="1:33">
       <c r="A56" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="10">
@@ -6562,14 +6512,13 @@
         <v>1</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N56" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>法爷#3</v>
+        <v>169</v>
+      </c>
+      <c r="N56" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O56" s="10">
         <v>0</v>
@@ -6595,13 +6544,13 @@
     </row>
     <row r="57" ht="30.5" customHeight="1" spans="1:33">
       <c r="A57" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" s="15">
@@ -6626,14 +6575,13 @@
         <v>1</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M57" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N57" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>法爷#4</v>
+        <v>169</v>
+      </c>
+      <c r="N57" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O57" s="15">
         <v>0</v>
@@ -6659,13 +6607,13 @@
     </row>
     <row r="58" ht="30.5" customHeight="1" spans="1:33">
       <c r="A58" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="10">
@@ -6690,14 +6638,13 @@
         <v>1</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N58" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>法爷#5</v>
+        <v>169</v>
+      </c>
+      <c r="N58" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O58" s="10">
         <v>0</v>
@@ -6723,13 +6670,13 @@
     </row>
     <row r="59" ht="30.5" customHeight="1" spans="1:33">
       <c r="A59" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="15">
@@ -6754,14 +6701,13 @@
         <v>1</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M59" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N59" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>法爷#6</v>
+        <v>169</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O59" s="15">
         <v>0</v>
@@ -6787,13 +6733,13 @@
     </row>
     <row r="60" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A60" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="10">
@@ -6818,14 +6764,13 @@
         <v>1</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N60" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>法爷#7</v>
+        <v>169</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O60" s="10">
         <v>0</v>
@@ -6851,13 +6796,13 @@
     </row>
     <row r="61" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A61" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="15">
@@ -6882,14 +6827,13 @@
         <v>1</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M61" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N61" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>法爷#8</v>
+        <v>169</v>
+      </c>
+      <c r="N61" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O61" s="15">
         <v>0</v>
@@ -6915,13 +6859,13 @@
     </row>
     <row r="62" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A62" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D62" s="24"/>
       <c r="E62" s="10">
@@ -6946,14 +6890,13 @@
         <v>1</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N62" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>法爷#9</v>
+        <v>169</v>
+      </c>
+      <c r="N62" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O62" s="10">
         <v>0</v>
@@ -6979,13 +6922,13 @@
     </row>
     <row r="63" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A63" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D63" s="23"/>
       <c r="E63" s="15">
@@ -7010,14 +6953,13 @@
         <v>1</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M63" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N63" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>法爷#10</v>
+        <v>169</v>
+      </c>
+      <c r="N63" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O63" s="15">
         <v>0</v>
@@ -7043,13 +6985,13 @@
     </row>
     <row r="64" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A64" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="10">
@@ -7074,14 +7016,13 @@
         <v>1</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N64" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>法爷#11</v>
+        <v>169</v>
+      </c>
+      <c r="N64" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O64" s="10">
         <v>0</v>
@@ -7107,13 +7048,13 @@
     </row>
     <row r="65" ht="30.5" customHeight="1" spans="1:33">
       <c r="A65" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D65" s="22"/>
       <c r="E65" s="15">
@@ -7138,14 +7079,13 @@
         <v>1</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M65" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N65" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>法爷#12</v>
+        <v>169</v>
+      </c>
+      <c r="N65" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O65" s="15">
         <v>0</v>
@@ -7171,13 +7111,13 @@
     </row>
     <row r="66" ht="30.5" customHeight="1" spans="1:33">
       <c r="A66" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="10">
@@ -7202,14 +7142,13 @@
         <v>1</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N66" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>法爷#13</v>
+        <v>169</v>
+      </c>
+      <c r="N66" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O66" s="10">
         <v>0</v>
@@ -7235,13 +7174,13 @@
     </row>
     <row r="67" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A67" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="15">
@@ -7266,14 +7205,13 @@
         <v>1</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M67" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N67" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>法爷#14</v>
+        <v>169</v>
+      </c>
+      <c r="N67" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O67" s="15">
         <v>0</v>
@@ -7299,13 +7237,13 @@
     </row>
     <row r="68" ht="30.5" customHeight="1" spans="1:33">
       <c r="A68" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="10">
@@ -7330,14 +7268,13 @@
         <v>1</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N68" s="10" t="str">
-        <f t="shared" ref="N68:N101" si="2">B68</f>
-        <v>法爷#15</v>
+        <v>169</v>
+      </c>
+      <c r="N68" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O68" s="10">
         <v>0</v>
@@ -7363,13 +7300,13 @@
     </row>
     <row r="69" ht="30.5" customHeight="1" spans="1:33">
       <c r="A69" s="12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="15">
@@ -7394,14 +7331,13 @@
         <v>1</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M69" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N69" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>法爷#16</v>
+        <v>169</v>
+      </c>
+      <c r="N69" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O69" s="15">
         <v>0</v>
@@ -7427,13 +7363,13 @@
     </row>
     <row r="70" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A70" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="10">
@@ -7458,14 +7394,13 @@
         <v>1</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N70" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>法爷#17</v>
+        <v>169</v>
+      </c>
+      <c r="N70" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O70" s="10">
         <v>0</v>
@@ -7491,13 +7426,13 @@
     </row>
     <row r="71" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A71" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D71" s="22"/>
       <c r="E71" s="15">
@@ -7522,14 +7457,13 @@
         <v>1</v>
       </c>
       <c r="L71" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M71" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N71" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>法爷#18</v>
+        <v>169</v>
+      </c>
+      <c r="N71" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O71" s="15">
         <v>0</v>
@@ -7555,13 +7489,13 @@
     </row>
     <row r="72" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A72" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="10">
@@ -7586,14 +7520,13 @@
         <v>1</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N72" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>法爷#19</v>
+        <v>169</v>
+      </c>
+      <c r="N72" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O72" s="10">
         <v>0</v>
@@ -7619,13 +7552,13 @@
     </row>
     <row r="73" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A73" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="15">
@@ -7650,14 +7583,13 @@
         <v>1</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M73" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N73" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>法爷#20</v>
+        <v>169</v>
+      </c>
+      <c r="N73" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O73" s="15">
         <v>0</v>
@@ -7683,13 +7615,13 @@
     </row>
     <row r="74" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A74" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="10">
@@ -7714,14 +7646,13 @@
         <v>1</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N74" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>法爷#21</v>
+        <v>169</v>
+      </c>
+      <c r="N74" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O74" s="10">
         <v>0</v>
@@ -7747,13 +7678,13 @@
     </row>
     <row r="75" s="2" customFormat="1" ht="31.25" customHeight="1" spans="1:33">
       <c r="A75" s="12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="15">
@@ -7778,14 +7709,13 @@
         <v>1</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M75" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N75" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>法爷#22</v>
+        <v>169</v>
+      </c>
+      <c r="N75" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O75" s="15">
         <v>0</v>
@@ -7811,13 +7741,13 @@
     </row>
     <row r="76" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A76" s="12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="10">
@@ -7842,14 +7772,13 @@
         <v>1</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N76" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>法爷#23</v>
+        <v>169</v>
+      </c>
+      <c r="N76" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O76" s="10">
         <v>0</v>
@@ -7875,13 +7804,13 @@
     </row>
     <row r="77" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A77" s="12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D77" s="22"/>
       <c r="E77" s="15">
@@ -7906,14 +7835,13 @@
         <v>1</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M77" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N77" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>法爷#24</v>
+        <v>169</v>
+      </c>
+      <c r="N77" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O77" s="15">
         <v>0</v>
@@ -7939,13 +7867,13 @@
     </row>
     <row r="78" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A78" s="12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="10">
@@ -7970,14 +7898,13 @@
         <v>1</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N78" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>法爷#25</v>
+        <v>169</v>
+      </c>
+      <c r="N78" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O78" s="10">
         <v>0</v>
@@ -8003,13 +7930,13 @@
     </row>
     <row r="79" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A79" s="12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D79" s="22"/>
       <c r="E79" s="15">
@@ -8034,14 +7961,13 @@
         <v>1</v>
       </c>
       <c r="L79" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M79" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N79" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>法爷#26</v>
+        <v>169</v>
+      </c>
+      <c r="N79" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O79" s="15">
         <v>0</v>
@@ -8067,13 +7993,13 @@
     </row>
     <row r="80" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A80" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="10">
@@ -8098,14 +8024,13 @@
         <v>1</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N80" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>法爷#27</v>
+        <v>169</v>
+      </c>
+      <c r="N80" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O80" s="10">
         <v>0</v>
@@ -8131,13 +8056,13 @@
     </row>
     <row r="81" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A81" s="12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="15">
@@ -8162,14 +8087,13 @@
         <v>1</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M81" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N81" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>法爷#28</v>
+        <v>169</v>
+      </c>
+      <c r="N81" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O81" s="15">
         <v>0</v>
@@ -8195,13 +8119,13 @@
     </row>
     <row r="82" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A82" s="12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="10">
@@ -8226,14 +8150,13 @@
         <v>1</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N82" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>法爷#29</v>
+        <v>169</v>
+      </c>
+      <c r="N82" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O82" s="10">
         <v>0</v>
@@ -8259,13 +8182,13 @@
     </row>
     <row r="83" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A83" s="12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="15">
@@ -8290,14 +8213,13 @@
         <v>1</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M83" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N83" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#1</v>
+        <v>169</v>
+      </c>
+      <c r="N83" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O83" s="15">
         <v>0</v>
@@ -8323,13 +8245,13 @@
     </row>
     <row r="84" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A84" s="12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="10">
@@ -8354,14 +8276,13 @@
         <v>1</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N84" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#2</v>
+        <v>169</v>
+      </c>
+      <c r="N84" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O84" s="10">
         <v>0</v>
@@ -8387,13 +8308,13 @@
     </row>
     <row r="85" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A85" s="12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D85" s="22"/>
       <c r="E85" s="15">
@@ -8418,14 +8339,13 @@
         <v>1</v>
       </c>
       <c r="L85" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M85" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N85" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#3</v>
+        <v>169</v>
+      </c>
+      <c r="N85" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O85" s="15">
         <v>0</v>
@@ -8451,13 +8371,13 @@
     </row>
     <row r="86" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A86" s="12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="10">
@@ -8482,14 +8402,13 @@
         <v>1</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N86" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#4</v>
+        <v>169</v>
+      </c>
+      <c r="N86" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O86" s="10">
         <v>0</v>
@@ -8515,13 +8434,13 @@
     </row>
     <row r="87" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A87" s="12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D87" s="22"/>
       <c r="E87" s="15">
@@ -8546,14 +8465,13 @@
         <v>1</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M87" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N87" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#5</v>
+        <v>169</v>
+      </c>
+      <c r="N87" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O87" s="15">
         <v>0</v>
@@ -8579,13 +8497,13 @@
     </row>
     <row r="88" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A88" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="10">
@@ -8610,14 +8528,13 @@
         <v>1</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N88" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#6</v>
+        <v>169</v>
+      </c>
+      <c r="N88" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O88" s="10">
         <v>0</v>
@@ -8643,13 +8560,13 @@
     </row>
     <row r="89" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A89" s="12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D89" s="22"/>
       <c r="E89" s="15">
@@ -8674,14 +8591,13 @@
         <v>1</v>
       </c>
       <c r="L89" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M89" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N89" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#7</v>
+        <v>169</v>
+      </c>
+      <c r="N89" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O89" s="15">
         <v>0</v>
@@ -8707,13 +8623,13 @@
     </row>
     <row r="90" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A90" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="10">
@@ -8738,14 +8654,13 @@
         <v>1</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N90" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#8</v>
+        <v>169</v>
+      </c>
+      <c r="N90" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O90" s="10">
         <v>0</v>
@@ -8771,13 +8686,13 @@
     </row>
     <row r="91" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A91" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D91" s="22"/>
       <c r="E91" s="15">
@@ -8802,14 +8717,13 @@
         <v>1</v>
       </c>
       <c r="L91" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M91" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N91" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#9</v>
+        <v>169</v>
+      </c>
+      <c r="N91" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O91" s="15">
         <v>0</v>
@@ -8835,13 +8749,13 @@
     </row>
     <row r="92" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A92" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="10">
@@ -8866,14 +8780,13 @@
         <v>1</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N92" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#10</v>
+        <v>169</v>
+      </c>
+      <c r="N92" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O92" s="10">
         <v>0</v>
@@ -8899,13 +8812,13 @@
     </row>
     <row r="93" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A93" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D93" s="22"/>
       <c r="E93" s="15">
@@ -8930,14 +8843,13 @@
         <v>1</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M93" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N93" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#11</v>
+        <v>169</v>
+      </c>
+      <c r="N93" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O93" s="15">
         <v>0</v>
@@ -8963,13 +8875,13 @@
     </row>
     <row r="94" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A94" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D94" s="21"/>
       <c r="E94" s="10">
@@ -8994,14 +8906,13 @@
         <v>1</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N94" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#12</v>
+        <v>169</v>
+      </c>
+      <c r="N94" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O94" s="10">
         <v>0</v>
@@ -9027,13 +8938,13 @@
     </row>
     <row r="95" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A95" s="12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D95" s="22"/>
       <c r="E95" s="15">
@@ -9058,14 +8969,13 @@
         <v>1</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M95" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N95" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#13</v>
+        <v>169</v>
+      </c>
+      <c r="N95" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O95" s="15">
         <v>0</v>
@@ -9091,13 +9001,13 @@
     </row>
     <row r="96" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A96" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D96" s="21"/>
       <c r="E96" s="10">
@@ -9122,14 +9032,13 @@
         <v>1</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N96" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#14</v>
+        <v>169</v>
+      </c>
+      <c r="N96" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O96" s="10">
         <v>0</v>
@@ -9155,13 +9064,13 @@
     </row>
     <row r="97" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A97" s="12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D97" s="22"/>
       <c r="E97" s="15">
@@ -9186,14 +9095,13 @@
         <v>1</v>
       </c>
       <c r="L97" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M97" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N97" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#15</v>
+        <v>169</v>
+      </c>
+      <c r="N97" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O97" s="15">
         <v>0</v>
@@ -9219,13 +9127,13 @@
     </row>
     <row r="98" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A98" s="12" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="10">
@@ -9250,14 +9158,13 @@
         <v>1</v>
       </c>
       <c r="L98" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N98" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#16</v>
+        <v>169</v>
+      </c>
+      <c r="N98" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O98" s="10">
         <v>0</v>
@@ -9283,13 +9190,13 @@
     </row>
     <row r="99" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A99" s="12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D99" s="22"/>
       <c r="E99" s="15">
@@ -9314,14 +9221,13 @@
         <v>1</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M99" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N99" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#17</v>
+        <v>169</v>
+      </c>
+      <c r="N99" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O99" s="15">
         <v>0</v>
@@ -9347,13 +9253,13 @@
     </row>
     <row r="100" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A100" s="12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C100" s="46" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D100" s="46"/>
       <c r="E100" s="47">
@@ -9378,14 +9284,13 @@
         <v>1</v>
       </c>
       <c r="L100" s="47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M100" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="N100" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>战士#18</v>
+        <v>169</v>
+      </c>
+      <c r="N100" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="O100" s="47">
         <v>0</v>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="414">
   <si>
     <t>名字</t>
   </si>
@@ -171,7 +171,18 @@
     <t>通用符文2</t>
   </si>
   <si>
-    <t>每拥有一个未分配的技能点都会提供8%/10%/15%的伤害加成</t>
+    <r>
+      <t>每拥有一个未分配的技能点都会提供8%/10%/15%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>技能点变更时</t>
@@ -601,6 +612,9 @@
     <t>穿透箭基础伤害提高200%</t>
   </si>
   <si>
+    <t>base_value 200</t>
+  </si>
+  <si>
     <t>rune_29</t>
   </si>
   <si>
@@ -610,6 +624,12 @@
     <t>穿透箭命中时有40%概率造成5倍伤害</t>
   </si>
   <si>
+    <t>chance 40</t>
+  </si>
+  <si>
+    <t>bonus_mul 5</t>
+  </si>
+  <si>
     <t>rune_30</t>
   </si>
   <si>
@@ -628,6 +648,9 @@
     <t>分裂箭对减速的敌人造成的伤害提高200%</t>
   </si>
   <si>
+    <t>slow_bonus_value 200</t>
+  </si>
+  <si>
     <t>rune_32</t>
   </si>
   <si>
@@ -646,6 +669,9 @@
     <t>连续射击【击破】最大层数提高至30层</t>
   </si>
   <si>
+    <t>max_stack 30</t>
+  </si>
+  <si>
     <t>rune_34</t>
   </si>
   <si>
@@ -655,6 +681,9 @@
     <t>连续射击【冰爆】的伤害提升至500%</t>
   </si>
   <si>
+    <t>bb_dmg 500</t>
+  </si>
+  <si>
     <t>rune_35</t>
   </si>
   <si>
@@ -664,6 +693,9 @@
     <t>连续射击【冰爆】的范围提高50%，且必定触发冰爆</t>
   </si>
   <si>
+    <t>bb_radius_bonus_pct 50</t>
+  </si>
+  <si>
     <t>rune_36</t>
   </si>
   <si>
@@ -682,6 +714,9 @@
     <t>散射【火力覆盖】火元素伤害提高50%</t>
   </si>
   <si>
+    <t>fire_bonus 50</t>
+  </si>
+  <si>
     <t>rune_38</t>
   </si>
   <si>
@@ -691,14 +726,19 @@
     <t>双喷再次释放时可以再次触发效果（可套娃）</t>
   </si>
   <si>
+    <t>sp_extra 1</t>
+  </si>
+  <si>
     <t>rune_39</t>
   </si>
   <si>
     <t>游侠#14</t>
   </si>
   <si>
-    <t>散射【痛击】生效时，造成伤害提供至500%，
-但该次伤害不会再暴击</t>
+    <t>散射【痛击】生效时，造成伤害提供至500%，但该次伤害不会再暴击</t>
+  </si>
+  <si>
+    <t>tj_dmg 500</t>
   </si>
   <si>
     <t>rune_40</t>
@@ -710,6 +750,9 @@
     <t>风暴环绕的基础伤害提高100%</t>
   </si>
   <si>
+    <t>base_value 100</t>
+  </si>
+  <si>
     <t>rune_41</t>
   </si>
   <si>
@@ -719,6 +762,9 @@
     <t>风暴环绕【疾风】生效时，风元素伤害增加50%</t>
   </si>
   <si>
+    <t>wind_bonus 50</t>
+  </si>
+  <si>
     <t>rune_42</t>
   </si>
   <si>
@@ -728,13 +774,19 @@
     <t>风暴环绕【冰雹】会吸附敌人</t>
   </si>
   <si>
+    <t>xifu 1</t>
+  </si>
+  <si>
     <t>rune_43</t>
   </si>
   <si>
     <t>游侠#18</t>
   </si>
   <si>
-    <t>风暴环绕 【暴雪】记录值翻倍</t>
+    <t>风暴环绕 【暴雪】记录值提高100%</t>
+  </si>
+  <si>
+    <t>record_pct_bonus 100</t>
   </si>
   <si>
     <t>rune_44</t>
@@ -746,6 +798,9 @@
     <t>箭雨的基础伤害提高50%</t>
   </si>
   <si>
+    <t>base_value 50</t>
+  </si>
+  <si>
     <t>rune_45</t>
   </si>
   <si>
@@ -755,6 +810,12 @@
     <t>箭雨【燃矢】灼烧伤害提升至200%，持续时间延长至10秒</t>
   </si>
   <si>
+    <t>rs_to_dmg 200</t>
+  </si>
+  <si>
+    <t>rs_duration 10</t>
+  </si>
+  <si>
     <t>rune_46</t>
   </si>
   <si>
@@ -764,6 +825,9 @@
     <t>箭雨【集火】最高可叠加层数增加至20层</t>
   </si>
   <si>
+    <t>jihuo_stack 20</t>
+  </si>
+  <si>
     <t>rune_47</t>
   </si>
   <si>
@@ -773,6 +837,9 @@
     <t>箭雨【急冻】生效时，额外增加的5支箭</t>
   </si>
   <si>
+    <t>jidong_bonus 5</t>
+  </si>
+  <si>
     <t>rune_48</t>
   </si>
   <si>
@@ -782,6 +849,12 @@
     <t>使用能量回复后，获得35%伤害减免，持续15秒</t>
   </si>
   <si>
+    <t>dmg_reduction 35</t>
+  </si>
+  <si>
+    <t>duration 15</t>
+  </si>
+  <si>
     <t>rune_49</t>
   </si>
   <si>
@@ -791,13 +864,39 @@
     <t>使用能量回复后，获得35%伤害加成，持续15秒</t>
   </si>
   <si>
+    <t>bonus_ingame 35</t>
+  </si>
+  <si>
     <t>rune_50</t>
   </si>
   <si>
     <t>游侠#25</t>
   </si>
   <si>
-    <t>复仇持续期间，基础技能的伤害提高100%</t>
+    <r>
+      <t>复仇持续期间，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础技能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害提高1倍</t>
+    </r>
+  </si>
+  <si>
+    <t>base_ability_dmg 100</t>
   </si>
   <si>
     <t>rune_51</t>
@@ -807,6 +906,9 @@
   </si>
   <si>
     <t>复仇的基础冷却时间减少30%</t>
+  </si>
+  <si>
+    <t>fuchou_cd 35</t>
   </si>
   <si>
     <t>rune_52</t>
@@ -1242,7 +1344,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1451,8 +1553,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.4"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1498,6 +1612,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EC67F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2064,7 +2190,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2088,16 +2214,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2106,89 +2232,89 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2252,6 +2378,9 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2261,6 +2390,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2285,7 +2417,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2294,7 +2426,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2484,7 +2616,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3610B2C7-E017-44BD-ACC9-D8069520246E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{21FDA358-3DBF-4AC0-9321-D16E5B2CBEC6}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -2495,6 +2627,8 @@
       <color rgb="00FFFF00"/>
       <color rgb="004B6D17"/>
       <color rgb="0059B96F"/>
+      <color rgb="0088DB29"/>
+      <color rgb="008EC67F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2794,10 +2928,10 @@
   <sheetPr/>
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A34" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M8" sqref="M8"/>
+      <selection pane="topRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2884,20 +3018,20 @@
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="29" t="s">
+      <c r="V1" s="29"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="43" t="s">
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="45" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2948,13 +3082,13 @@
       <c r="P2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="30">
-        <v>1</v>
-      </c>
-      <c r="R2" s="30">
+      <c r="Q2" s="32">
+        <v>1</v>
+      </c>
+      <c r="R2" s="32">
         <v>2</v>
       </c>
-      <c r="S2" s="30">
+      <c r="S2" s="32">
         <v>3</v>
       </c>
       <c r="T2" s="10">
@@ -2963,22 +3097,22 @@
       <c r="U2" s="10">
         <v>5</v>
       </c>
-      <c r="V2" s="31">
+      <c r="V2" s="33">
         <v>6</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="34" t="s">
         <v>32</v>
       </c>
       <c r="X2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="39">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="39">
+      <c r="Y2" s="41">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="41">
         <v>2</v>
       </c>
-      <c r="AA2" s="39">
+      <c r="AA2" s="41">
         <v>3</v>
       </c>
       <c r="AB2" s="15">
@@ -2996,7 +3130,7 @@
       <c r="AF2" s="15">
         <v>8</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AG2" s="35" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3032,10 +3166,10 @@
       <c r="K3" s="15">
         <v>1</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="27" t="s">
         <v>38</v>
       </c>
       <c r="N3" s="15" t="s">
@@ -3054,8 +3188,8 @@
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="34"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="36"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="10" t="s">
         <v>42</v>
@@ -3067,7 +3201,7 @@
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
-      <c r="AG3" s="31"/>
+      <c r="AG3" s="33"/>
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:33">
       <c r="A4" s="12" t="s">
@@ -3103,10 +3237,10 @@
       <c r="K4" s="10">
         <v>1</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="28" t="s">
         <v>38</v>
       </c>
       <c r="N4" s="15" t="s">
@@ -3121,8 +3255,8 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="35"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="37"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="15" t="s">
         <v>47</v>
@@ -3134,7 +3268,7 @@
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
       <c r="AF4" s="15"/>
-      <c r="AG4" s="33"/>
+      <c r="AG4" s="35"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="49.5" spans="1:33">
       <c r="A5" s="12" t="s">
@@ -3168,10 +3302,10 @@
       <c r="K5" s="15">
         <v>1</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="27" t="s">
         <v>38</v>
       </c>
       <c r="N5" s="15" t="s">
@@ -3188,8 +3322,8 @@
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="34"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="36"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="10" t="s">
         <v>52</v>
@@ -3201,7 +3335,7 @@
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
-      <c r="AG5" s="31"/>
+      <c r="AG5" s="33"/>
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:33">
       <c r="A6" s="12" t="s">
@@ -3237,10 +3371,10 @@
       <c r="K6" s="10">
         <v>1</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="28" t="s">
         <v>38</v>
       </c>
       <c r="N6" s="15" t="s">
@@ -3255,8 +3389,8 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="35"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="37"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="15" t="s">
         <v>57</v>
@@ -3268,7 +3402,7 @@
       <c r="AD6" s="15"/>
       <c r="AE6" s="15"/>
       <c r="AF6" s="15"/>
-      <c r="AG6" s="33"/>
+      <c r="AG6" s="35"/>
     </row>
     <row r="7" ht="49.5" spans="1:33">
       <c r="A7" s="12" t="s">
@@ -3302,10 +3436,10 @@
       <c r="K7" s="15">
         <v>1</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="27" t="s">
         <v>38</v>
       </c>
       <c r="N7" s="15" t="s">
@@ -3322,8 +3456,8 @@
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="34"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="36"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
@@ -3333,7 +3467,7 @@
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
-      <c r="AG7" s="31"/>
+      <c r="AG7" s="33"/>
     </row>
     <row r="8" ht="49.5" spans="1:33">
       <c r="A8" s="12" t="s">
@@ -3367,10 +3501,10 @@
       <c r="K8" s="10">
         <v>1</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="28" t="s">
         <v>38</v>
       </c>
       <c r="N8" s="15" t="s">
@@ -3387,8 +3521,8 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="35"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="37"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -3398,7 +3532,7 @@
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
       <c r="AF8" s="15"/>
-      <c r="AG8" s="33"/>
+      <c r="AG8" s="35"/>
     </row>
     <row r="9" ht="49.5" spans="1:33">
       <c r="A9" s="12" t="s">
@@ -3432,10 +3566,10 @@
       <c r="K9" s="15">
         <v>1</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="27" t="s">
         <v>38</v>
       </c>
       <c r="N9" s="15" t="s">
@@ -3452,8 +3586,8 @@
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="34"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="36"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
@@ -3463,7 +3597,7 @@
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
-      <c r="AG9" s="31"/>
+      <c r="AG9" s="33"/>
     </row>
     <row r="10" ht="30.5" customHeight="1" spans="1:33">
       <c r="A10" s="12" t="s">
@@ -3499,10 +3633,10 @@
       <c r="K10" s="10">
         <v>1</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="28" t="s">
         <v>38</v>
       </c>
       <c r="N10" s="15" t="s">
@@ -3517,8 +3651,8 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="35"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="37"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="15" t="s">
         <v>74</v>
@@ -3534,7 +3668,7 @@
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
       <c r="AF10" s="15"/>
-      <c r="AG10" s="33"/>
+      <c r="AG10" s="35"/>
     </row>
     <row r="11" ht="49.5" spans="1:33">
       <c r="A11" s="12" t="s">
@@ -3570,10 +3704,10 @@
       <c r="K11" s="15">
         <v>1</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="27" t="s">
         <v>81</v>
       </c>
       <c r="N11" s="15" t="s">
@@ -3590,8 +3724,8 @@
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="34"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="36"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="10" t="s">
         <v>83</v>
@@ -3605,7 +3739,7 @@
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
-      <c r="AG11" s="31"/>
+      <c r="AG11" s="33"/>
     </row>
     <row r="12" ht="30.5" customHeight="1" spans="1:33">
       <c r="A12" s="12" t="s">
@@ -3641,10 +3775,10 @@
       <c r="K12" s="10">
         <v>1</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="28" t="s">
         <v>38</v>
       </c>
       <c r="N12" s="15" t="s">
@@ -3659,8 +3793,8 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="35"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="37"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="15" t="s">
         <v>89</v>
@@ -3674,7 +3808,7 @@
       <c r="AD12" s="15"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="15"/>
-      <c r="AG12" s="33"/>
+      <c r="AG12" s="35"/>
     </row>
     <row r="13" ht="30.5" customHeight="1" spans="1:33">
       <c r="A13" s="12" t="s">
@@ -3710,10 +3844,10 @@
       <c r="K13" s="15">
         <v>1</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="27" t="s">
         <v>38</v>
       </c>
       <c r="N13" s="15" t="s">
@@ -3728,8 +3862,8 @@
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="34"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="36"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="10" t="s">
         <v>95</v>
@@ -3747,7 +3881,7 @@
       <c r="AD13" s="10"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
-      <c r="AG13" s="31"/>
+      <c r="AG13" s="33"/>
     </row>
     <row r="14" ht="33" spans="1:33">
       <c r="A14" s="12" t="s">
@@ -3783,10 +3917,10 @@
       <c r="K14" s="10">
         <v>1</v>
       </c>
-      <c r="L14" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" s="26" t="s">
+      <c r="L14" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="28" t="s">
         <v>101</v>
       </c>
       <c r="N14" s="15" t="s">
@@ -3801,8 +3935,8 @@
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="35"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="37"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="15" t="s">
         <v>102</v>
@@ -3816,7 +3950,7 @@
       <c r="AD14" s="15"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="15"/>
-      <c r="AG14" s="33"/>
+      <c r="AG14" s="35"/>
     </row>
     <row r="15" ht="49.5" spans="1:33">
       <c r="A15" s="12" t="s">
@@ -3850,10 +3984,10 @@
       <c r="K15" s="15">
         <v>1</v>
       </c>
-      <c r="L15" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="M15" s="25" t="s">
+      <c r="L15" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="27" t="s">
         <v>101</v>
       </c>
       <c r="N15" s="15" t="s">
@@ -3872,8 +4006,8 @@
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="34"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="36"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
@@ -3883,7 +4017,7 @@
       <c r="AD15" s="10"/>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
-      <c r="AG15" s="31"/>
+      <c r="AG15" s="33"/>
     </row>
     <row r="16" ht="49.5" spans="1:33">
       <c r="A16" s="12" t="s">
@@ -3919,10 +4053,10 @@
       <c r="K16" s="10">
         <v>1</v>
       </c>
-      <c r="L16" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="M16" s="26" t="s">
+      <c r="L16" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="28" t="s">
         <v>101</v>
       </c>
       <c r="N16" s="15" t="s">
@@ -3939,8 +4073,8 @@
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="35"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="37"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="15" t="s">
         <v>114</v>
@@ -3952,7 +4086,7 @@
       <c r="AD16" s="15"/>
       <c r="AE16" s="15"/>
       <c r="AF16" s="15"/>
-      <c r="AG16" s="33"/>
+      <c r="AG16" s="35"/>
     </row>
     <row r="17" ht="30.5" customHeight="1" spans="1:33">
       <c r="A17" s="12" t="s">
@@ -3988,10 +4122,10 @@
       <c r="K17" s="15">
         <v>1</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="27" t="s">
         <v>38</v>
       </c>
       <c r="N17" s="15" t="s">
@@ -4006,8 +4140,8 @@
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="34"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="36"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="10" t="s">
         <v>95</v>
@@ -4021,7 +4155,7 @@
       <c r="AD17" s="10"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
-      <c r="AG17" s="31"/>
+      <c r="AG17" s="33"/>
     </row>
     <row r="18" ht="49.5" spans="1:33">
       <c r="A18" s="12" t="s">
@@ -4057,10 +4191,10 @@
       <c r="K18" s="10">
         <v>1</v>
       </c>
-      <c r="L18" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="M18" s="26" t="s">
+      <c r="L18" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18" s="28" t="s">
         <v>101</v>
       </c>
       <c r="N18" s="15" t="s">
@@ -4077,8 +4211,8 @@
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="35"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="37"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="15" t="s">
         <v>123</v>
@@ -4092,7 +4226,7 @@
       <c r="AD18" s="15"/>
       <c r="AE18" s="15"/>
       <c r="AF18" s="15"/>
-      <c r="AG18" s="33"/>
+      <c r="AG18" s="35"/>
     </row>
     <row r="19" ht="16.5" spans="1:33">
       <c r="A19" s="12" t="s">
@@ -4128,10 +4262,10 @@
       <c r="K19" s="15">
         <v>1</v>
       </c>
-      <c r="L19" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="M19" s="25" t="s">
+      <c r="L19" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="M19" s="27" t="s">
         <v>101</v>
       </c>
       <c r="N19" s="15" t="s">
@@ -4146,8 +4280,8 @@
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="34"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="36"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="10" t="s">
         <v>128</v>
@@ -4161,7 +4295,7 @@
       <c r="AD19" s="10"/>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
-      <c r="AG19" s="31"/>
+      <c r="AG19" s="33"/>
     </row>
     <row r="20" ht="49.5" spans="1:33">
       <c r="A20" s="12" t="s">
@@ -4197,10 +4331,10 @@
       <c r="K20" s="10">
         <v>1</v>
       </c>
-      <c r="L20" s="26" t="s">
+      <c r="L20" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="M20" s="26" t="s">
+      <c r="M20" s="28" t="s">
         <v>38</v>
       </c>
       <c r="N20" s="15" t="s">
@@ -4219,8 +4353,8 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="35"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="37"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
@@ -4230,7 +4364,7 @@
       <c r="AD20" s="15"/>
       <c r="AE20" s="15"/>
       <c r="AF20" s="15"/>
-      <c r="AG20" s="33"/>
+      <c r="AG20" s="35"/>
     </row>
     <row r="21" ht="49.5" spans="1:33">
       <c r="A21" s="12" t="s">
@@ -4264,10 +4398,10 @@
       <c r="K21" s="15">
         <v>1</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="25" t="s">
+      <c r="M21" s="27" t="s">
         <v>38</v>
       </c>
       <c r="N21" s="15" t="s">
@@ -4284,8 +4418,8 @@
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="34"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="36"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
@@ -4295,7 +4429,7 @@
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
-      <c r="AG21" s="31"/>
+      <c r="AG21" s="33"/>
     </row>
     <row r="22" ht="49.5" spans="1:33">
       <c r="A22" s="12" t="s">
@@ -4331,10 +4465,10 @@
       <c r="K22" s="10">
         <v>1</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="L22" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="M22" s="28" t="s">
         <v>38</v>
       </c>
       <c r="N22" s="15" t="s">
@@ -4349,8 +4483,8 @@
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="35"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="37"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="15" t="s">
         <v>142</v>
@@ -4364,7 +4498,7 @@
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
       <c r="AF22" s="15"/>
-      <c r="AG22" s="33"/>
+      <c r="AG22" s="35"/>
     </row>
     <row r="23" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A23" s="12" t="s">
@@ -4400,10 +4534,10 @@
       <c r="K23" s="15">
         <v>1</v>
       </c>
-      <c r="L23" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="M23" s="25" t="s">
+      <c r="L23" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" s="27" t="s">
         <v>101</v>
       </c>
       <c r="N23" s="15" t="s">
@@ -4418,8 +4552,8 @@
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="34"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="36"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
@@ -4429,7 +4563,7 @@
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
-      <c r="AG23" s="31"/>
+      <c r="AG23" s="33"/>
     </row>
     <row r="24" ht="30.5" customHeight="1" spans="1:33">
       <c r="A24" s="12" t="s">
@@ -4465,10 +4599,10 @@
       <c r="K24" s="10">
         <v>1</v>
       </c>
-      <c r="L24" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="M24" s="26" t="s">
+      <c r="L24" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="M24" s="28" t="s">
         <v>101</v>
       </c>
       <c r="N24" s="15" t="s">
@@ -4483,8 +4617,8 @@
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="35"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="37"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="15" t="s">
         <v>150</v>
@@ -4500,7 +4634,7 @@
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
       <c r="AF24" s="15"/>
-      <c r="AG24" s="33"/>
+      <c r="AG24" s="35"/>
     </row>
     <row r="25" ht="30.5" customHeight="1" spans="1:33">
       <c r="A25" s="12" t="s">
@@ -4536,10 +4670,10 @@
       <c r="K25" s="15">
         <v>1</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M25" s="25" t="s">
+      <c r="M25" s="27" t="s">
         <v>38</v>
       </c>
       <c r="N25" s="15" t="s">
@@ -4554,8 +4688,8 @@
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="34"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="36"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="10" t="s">
         <v>89</v>
@@ -4569,7 +4703,7 @@
       <c r="AD25" s="10"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
-      <c r="AG25" s="31"/>
+      <c r="AG25" s="33"/>
     </row>
     <row r="26" ht="30.5" customHeight="1" spans="1:33">
       <c r="A26" s="12" t="s">
@@ -4605,10 +4739,10 @@
       <c r="K26" s="10">
         <v>1</v>
       </c>
-      <c r="L26" s="26" t="s">
+      <c r="L26" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="M26" s="26" t="s">
+      <c r="M26" s="28" t="s">
         <v>38</v>
       </c>
       <c r="N26" s="15" t="s">
@@ -4623,8 +4757,8 @@
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="35"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="37"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="15" t="s">
         <v>160</v>
@@ -4638,7 +4772,7 @@
       <c r="AD26" s="15"/>
       <c r="AE26" s="15"/>
       <c r="AF26" s="15"/>
-      <c r="AG26" s="33"/>
+      <c r="AG26" s="35"/>
     </row>
     <row r="27" ht="30.5" customHeight="1" spans="1:33">
       <c r="A27" s="12" t="s">
@@ -4674,10 +4808,10 @@
       <c r="K27" s="15">
         <v>1</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="L27" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M27" s="25" t="s">
+      <c r="M27" s="27" t="s">
         <v>38</v>
       </c>
       <c r="N27" s="15" t="s">
@@ -4692,8 +4826,8 @@
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="34"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="36"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="10" t="s">
         <v>165</v>
@@ -4705,23 +4839,23 @@
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
-      <c r="AG27" s="31"/>
+      <c r="AG27" s="33"/>
     </row>
     <row r="28" ht="30.5" customHeight="1" spans="1:33">
       <c r="A28" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="10">
         <v>0</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="22">
         <v>1</v>
       </c>
       <c r="G28" s="10">
@@ -4757,8 +4891,8 @@
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="35"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="37"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="15" t="s">
         <v>170</v>
@@ -4772,23 +4906,23 @@
       <c r="AD28" s="15"/>
       <c r="AE28" s="15"/>
       <c r="AF28" s="15"/>
-      <c r="AG28" s="33"/>
+      <c r="AG28" s="35"/>
     </row>
     <row r="29" ht="30.5" customHeight="1" spans="1:33">
       <c r="A29" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="22"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="15">
         <v>0</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="23">
         <v>1</v>
       </c>
       <c r="G29" s="15">
@@ -4824,8 +4958,8 @@
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="34"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="36"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="10" t="s">
         <v>175</v>
@@ -4839,23 +4973,23 @@
       <c r="AD29" s="10"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
-      <c r="AG29" s="31"/>
+      <c r="AG29" s="33"/>
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:33">
       <c r="A30" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="21"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="10">
         <v>0</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="22">
         <v>1</v>
       </c>
       <c r="G30" s="10">
@@ -4891,10 +5025,12 @@
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="35"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="37"/>
       <c r="X30" s="12"/>
-      <c r="Y30" s="15"/>
+      <c r="Y30" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
@@ -4902,23 +5038,23 @@
       <c r="AD30" s="15"/>
       <c r="AE30" s="15"/>
       <c r="AF30" s="15"/>
-      <c r="AG30" s="33"/>
+      <c r="AG30" s="35"/>
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:33">
       <c r="A31" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="22"/>
+      <c r="C31" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="23"/>
       <c r="E31" s="15">
         <v>0</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="23">
         <v>1</v>
       </c>
       <c r="G31" s="15">
@@ -4954,34 +5090,38 @@
       <c r="S31" s="15"/>
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="34"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="36"/>
       <c r="X31" s="9"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
+      <c r="Y31" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z31" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
-      <c r="AG31" s="31"/>
+      <c r="AG31" s="33"/>
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:33">
       <c r="A32" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="21"/>
+        <v>186</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="22"/>
       <c r="E32" s="10">
         <v>0</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="22">
         <v>1</v>
       </c>
       <c r="G32" s="10">
@@ -5017,10 +5157,12 @@
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="35"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="37"/>
       <c r="X32" s="12"/>
-      <c r="Y32" s="15"/>
+      <c r="Y32" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="Z32" s="15"/>
       <c r="AA32" s="15"/>
       <c r="AB32" s="15"/>
@@ -5028,23 +5170,23 @@
       <c r="AD32" s="15"/>
       <c r="AE32" s="15"/>
       <c r="AF32" s="15"/>
-      <c r="AG32" s="33"/>
+      <c r="AG32" s="35"/>
     </row>
     <row r="33" ht="30.5" customHeight="1" spans="1:33">
       <c r="A33" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D33" s="22"/>
+        <v>189</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="23"/>
       <c r="E33" s="15">
         <v>0</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>1</v>
       </c>
       <c r="G33" s="15">
@@ -5080,10 +5222,12 @@
       <c r="S33" s="15"/>
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="34"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="36"/>
       <c r="X33" s="9"/>
-      <c r="Y33" s="10"/>
+      <c r="Y33" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
@@ -5091,23 +5235,23 @@
       <c r="AD33" s="10"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
-      <c r="AG33" s="31"/>
+      <c r="AG33" s="33"/>
     </row>
     <row r="34" ht="30.5" customHeight="1" spans="1:33">
       <c r="A34" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="21"/>
+        <v>193</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="22"/>
       <c r="E34" s="10">
         <v>0</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="22">
         <v>1</v>
       </c>
       <c r="G34" s="10">
@@ -5143,10 +5287,12 @@
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="35"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="37"/>
       <c r="X34" s="12"/>
-      <c r="Y34" s="15"/>
+      <c r="Y34" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
@@ -5154,23 +5300,23 @@
       <c r="AD34" s="15"/>
       <c r="AE34" s="15"/>
       <c r="AF34" s="15"/>
-      <c r="AG34" s="33"/>
+      <c r="AG34" s="35"/>
     </row>
     <row r="35" ht="30.5" customHeight="1" spans="1:33">
       <c r="A35" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D35" s="22"/>
+        <v>196</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="23"/>
       <c r="E35" s="15">
         <v>0</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="23">
         <v>1</v>
       </c>
       <c r="G35" s="15">
@@ -5206,10 +5352,12 @@
       <c r="S35" s="15"/>
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="34"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="36"/>
       <c r="X35" s="9"/>
-      <c r="Y35" s="10"/>
+      <c r="Y35" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
@@ -5217,23 +5365,23 @@
       <c r="AD35" s="10"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
-      <c r="AG35" s="31"/>
+      <c r="AG35" s="33"/>
     </row>
     <row r="36" ht="30.5" customHeight="1" spans="1:33">
       <c r="A36" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" s="21"/>
+        <v>200</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="22"/>
       <c r="E36" s="10">
         <v>0</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="22">
         <v>1</v>
       </c>
       <c r="G36" s="10">
@@ -5269,10 +5417,12 @@
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="35"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="37"/>
       <c r="X36" s="12"/>
-      <c r="Y36" s="15"/>
+      <c r="Y36" s="15" t="s">
+        <v>203</v>
+      </c>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
       <c r="AB36" s="15"/>
@@ -5280,23 +5430,23 @@
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
       <c r="AF36" s="15"/>
-      <c r="AG36" s="33"/>
+      <c r="AG36" s="35"/>
     </row>
     <row r="37" ht="30.5" customHeight="1" spans="1:33">
       <c r="A37" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="22"/>
+        <v>204</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="23"/>
       <c r="E37" s="15">
         <v>0</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="23">
         <v>1</v>
       </c>
       <c r="G37" s="15">
@@ -5332,10 +5482,12 @@
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="34"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="36"/>
       <c r="X37" s="9"/>
-      <c r="Y37" s="10"/>
+      <c r="Y37" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
@@ -5343,23 +5495,23 @@
       <c r="AD37" s="10"/>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
-      <c r="AG37" s="31"/>
+      <c r="AG37" s="33"/>
     </row>
     <row r="38" ht="31.25" customHeight="1" spans="1:33">
       <c r="A38" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D38" s="21"/>
+        <v>208</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="22"/>
       <c r="E38" s="10">
         <v>0</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="22">
         <v>1</v>
       </c>
       <c r="G38" s="10">
@@ -5395,34 +5547,36 @@
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="35"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="37"/>
       <c r="X38" s="12"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="40"/>
+      <c r="Y38" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
       <c r="AC38" s="15"/>
       <c r="AD38" s="15"/>
       <c r="AE38" s="15"/>
       <c r="AF38" s="15"/>
-      <c r="AG38" s="33"/>
+      <c r="AG38" s="35"/>
     </row>
     <row r="39" ht="30.5" customHeight="1" spans="1:33">
       <c r="A39" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D39" s="22"/>
+        <v>211</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" s="23"/>
       <c r="E39" s="15">
         <v>0</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="23">
         <v>1</v>
       </c>
       <c r="G39" s="15">
@@ -5458,34 +5612,36 @@
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="10"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="10" t="s">
+        <v>214</v>
+      </c>
       <c r="Z39" s="10"/>
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
-      <c r="AC39" s="41"/>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="41"/>
-      <c r="AF39" s="41"/>
-      <c r="AG39" s="44"/>
+      <c r="AC39" s="43"/>
+      <c r="AD39" s="43"/>
+      <c r="AE39" s="43"/>
+      <c r="AF39" s="43"/>
+      <c r="AG39" s="46"/>
     </row>
     <row r="40" ht="30.5" customHeight="1" spans="1:33">
       <c r="A40" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D40" s="21"/>
+        <v>215</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="22"/>
       <c r="E40" s="10">
         <v>0</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="22">
         <v>1</v>
       </c>
       <c r="G40" s="10">
@@ -5521,34 +5677,36 @@
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="15"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="15" t="s">
+        <v>218</v>
+      </c>
       <c r="Z40" s="15"/>
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
-      <c r="AC40" s="42"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="45"/>
+      <c r="AC40" s="44"/>
+      <c r="AD40" s="44"/>
+      <c r="AE40" s="44"/>
+      <c r="AF40" s="44"/>
+      <c r="AG40" s="47"/>
     </row>
     <row r="41" ht="30.5" customHeight="1" spans="1:33">
       <c r="A41" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="23"/>
+        <v>219</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="24"/>
       <c r="E41" s="15">
         <v>0</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="23">
         <v>1</v>
       </c>
       <c r="G41" s="15">
@@ -5584,34 +5742,36 @@
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="10"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="Z41" s="10"/>
       <c r="AA41" s="10"/>
       <c r="AB41" s="10"/>
-      <c r="AC41" s="41"/>
-      <c r="AD41" s="41"/>
-      <c r="AE41" s="41"/>
-      <c r="AF41" s="41"/>
-      <c r="AG41" s="44"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="43"/>
+      <c r="AE41" s="43"/>
+      <c r="AF41" s="43"/>
+      <c r="AG41" s="46"/>
     </row>
     <row r="42" ht="30.5" customHeight="1" spans="1:33">
       <c r="A42" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D42" s="21"/>
+        <v>223</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" s="22"/>
       <c r="E42" s="10">
         <v>0</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="22">
         <v>1</v>
       </c>
       <c r="G42" s="10">
@@ -5647,10 +5807,12 @@
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="35"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="37"/>
       <c r="X42" s="12"/>
-      <c r="Y42" s="15"/>
+      <c r="Y42" s="15" t="s">
+        <v>226</v>
+      </c>
       <c r="Z42" s="15"/>
       <c r="AA42" s="15"/>
       <c r="AB42" s="15"/>
@@ -5658,23 +5820,23 @@
       <c r="AD42" s="15"/>
       <c r="AE42" s="15"/>
       <c r="AF42" s="15"/>
-      <c r="AG42" s="33"/>
+      <c r="AG42" s="35"/>
     </row>
     <row r="43" ht="30.5" customHeight="1" spans="1:33">
       <c r="A43" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="D43" s="22"/>
+        <v>227</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" s="23"/>
       <c r="E43" s="15">
         <v>0</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="23">
         <v>1</v>
       </c>
       <c r="G43" s="15">
@@ -5710,34 +5872,36 @@
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="10"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="10" t="s">
+        <v>230</v>
+      </c>
       <c r="Z43" s="10"/>
       <c r="AA43" s="10"/>
       <c r="AB43" s="10"/>
-      <c r="AC43" s="41"/>
-      <c r="AD43" s="41"/>
-      <c r="AE43" s="41"/>
-      <c r="AF43" s="41"/>
-      <c r="AG43" s="44"/>
+      <c r="AC43" s="43"/>
+      <c r="AD43" s="43"/>
+      <c r="AE43" s="43"/>
+      <c r="AF43" s="43"/>
+      <c r="AG43" s="46"/>
     </row>
     <row r="44" ht="30.5" customHeight="1" spans="1:33">
       <c r="A44" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D44" s="21"/>
+        <v>231</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D44" s="22"/>
       <c r="E44" s="10">
         <v>0</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="22">
         <v>1</v>
       </c>
       <c r="G44" s="10">
@@ -5773,34 +5937,36 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="15"/>
+      <c r="V44" s="33"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="15" t="s">
+        <v>234</v>
+      </c>
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
-      <c r="AC44" s="42"/>
-      <c r="AD44" s="42"/>
-      <c r="AE44" s="42"/>
-      <c r="AF44" s="42"/>
-      <c r="AG44" s="45"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="44"/>
+      <c r="AF44" s="44"/>
+      <c r="AG44" s="47"/>
     </row>
     <row r="45" ht="30.5" customHeight="1" spans="1:33">
       <c r="A45" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="22"/>
+        <v>235</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" s="23"/>
       <c r="E45" s="15">
         <v>0</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="23">
         <v>1</v>
       </c>
       <c r="G45" s="15">
@@ -5836,34 +6002,36 @@
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="10"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="10" t="s">
+        <v>238</v>
+      </c>
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
-      <c r="AC45" s="41"/>
-      <c r="AD45" s="41"/>
-      <c r="AE45" s="41"/>
-      <c r="AF45" s="41"/>
-      <c r="AG45" s="44"/>
+      <c r="AC45" s="43"/>
+      <c r="AD45" s="43"/>
+      <c r="AE45" s="43"/>
+      <c r="AF45" s="43"/>
+      <c r="AG45" s="46"/>
     </row>
     <row r="46" ht="30.5" customHeight="1" spans="1:33">
       <c r="A46" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D46" s="21"/>
+        <v>239</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D46" s="22"/>
       <c r="E46" s="10">
         <v>0</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="22">
         <v>1</v>
       </c>
       <c r="G46" s="10">
@@ -5899,34 +6067,36 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="35"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="15"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="15" t="s">
+        <v>242</v>
+      </c>
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
       <c r="AB46" s="15"/>
-      <c r="AC46" s="42"/>
-      <c r="AD46" s="42"/>
-      <c r="AE46" s="42"/>
-      <c r="AF46" s="42"/>
-      <c r="AG46" s="45"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="44"/>
+      <c r="AE46" s="44"/>
+      <c r="AF46" s="44"/>
+      <c r="AG46" s="47"/>
     </row>
     <row r="47" ht="30.5" customHeight="1" spans="1:33">
       <c r="A47" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="D47" s="22"/>
+        <v>243</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D47" s="23"/>
       <c r="E47" s="15">
         <v>0</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="23">
         <v>1</v>
       </c>
       <c r="G47" s="15">
@@ -5962,34 +6132,38 @@
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
       <c r="U47" s="15"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z47" s="10" t="s">
+        <v>247</v>
+      </c>
       <c r="AA47" s="10"/>
       <c r="AB47" s="10"/>
-      <c r="AC47" s="41"/>
-      <c r="AD47" s="41"/>
-      <c r="AE47" s="41"/>
-      <c r="AF47" s="41"/>
-      <c r="AG47" s="44"/>
+      <c r="AC47" s="43"/>
+      <c r="AD47" s="43"/>
+      <c r="AE47" s="43"/>
+      <c r="AF47" s="43"/>
+      <c r="AG47" s="46"/>
     </row>
     <row r="48" ht="30.5" customHeight="1" spans="1:33">
       <c r="A48" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="D48" s="21"/>
+        <v>248</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D48" s="22"/>
       <c r="E48" s="10">
         <v>0</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="22">
         <v>1</v>
       </c>
       <c r="G48" s="10">
@@ -6025,34 +6199,36 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="15"/>
+      <c r="V48" s="33"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="15" t="s">
+        <v>251</v>
+      </c>
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
       <c r="AB48" s="15"/>
-      <c r="AC48" s="42"/>
-      <c r="AD48" s="42"/>
-      <c r="AE48" s="42"/>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="45"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AE48" s="44"/>
+      <c r="AF48" s="44"/>
+      <c r="AG48" s="47"/>
     </row>
     <row r="49" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A49" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D49" s="22"/>
+        <v>252</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="D49" s="23"/>
       <c r="E49" s="15">
         <v>0</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="23">
         <v>1</v>
       </c>
       <c r="G49" s="15">
@@ -6088,34 +6264,36 @@
       <c r="S49" s="15"/>
       <c r="T49" s="15"/>
       <c r="U49" s="15"/>
-      <c r="V49" s="33"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="10"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="10" t="s">
+        <v>255</v>
+      </c>
       <c r="Z49" s="10"/>
       <c r="AA49" s="10"/>
       <c r="AB49" s="10"/>
-      <c r="AC49" s="41"/>
-      <c r="AD49" s="41"/>
-      <c r="AE49" s="41"/>
-      <c r="AF49" s="41"/>
-      <c r="AG49" s="44"/>
+      <c r="AC49" s="43"/>
+      <c r="AD49" s="43"/>
+      <c r="AE49" s="43"/>
+      <c r="AF49" s="43"/>
+      <c r="AG49" s="46"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A50" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="D50" s="21"/>
+        <v>256</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D50" s="22"/>
       <c r="E50" s="10">
         <v>0</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="22">
         <v>1</v>
       </c>
       <c r="G50" s="10">
@@ -6151,34 +6329,38 @@
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
-      <c r="V50" s="31"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="15"/>
-      <c r="Z50" s="15"/>
+      <c r="V50" s="33"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z50" s="15" t="s">
+        <v>260</v>
+      </c>
       <c r="AA50" s="15"/>
       <c r="AB50" s="15"/>
-      <c r="AC50" s="42"/>
-      <c r="AD50" s="42"/>
-      <c r="AE50" s="42"/>
-      <c r="AF50" s="42"/>
-      <c r="AG50" s="45"/>
+      <c r="AC50" s="44"/>
+      <c r="AD50" s="44"/>
+      <c r="AE50" s="44"/>
+      <c r="AF50" s="44"/>
+      <c r="AG50" s="47"/>
     </row>
     <row r="51" ht="30.5" customHeight="1" spans="1:33">
       <c r="A51" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D51" s="22"/>
+        <v>261</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="23"/>
       <c r="E51" s="15">
         <v>1</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="23">
         <v>1</v>
       </c>
       <c r="G51" s="15">
@@ -6214,34 +6396,38 @@
       <c r="S51" s="15"/>
       <c r="T51" s="15"/>
       <c r="U51" s="15"/>
-      <c r="V51" s="33"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z51" s="10" t="s">
+        <v>260</v>
+      </c>
       <c r="AA51" s="10"/>
       <c r="AB51" s="10"/>
-      <c r="AC51" s="41"/>
-      <c r="AD51" s="41"/>
-      <c r="AE51" s="41"/>
-      <c r="AF51" s="41"/>
-      <c r="AG51" s="44"/>
+      <c r="AC51" s="43"/>
+      <c r="AD51" s="43"/>
+      <c r="AE51" s="43"/>
+      <c r="AF51" s="43"/>
+      <c r="AG51" s="46"/>
     </row>
     <row r="52" ht="30.5" customHeight="1" spans="1:33">
       <c r="A52" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="D52" s="21"/>
+        <v>265</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" s="22"/>
       <c r="E52" s="10">
         <v>1</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="22">
         <v>1</v>
       </c>
       <c r="G52" s="10">
@@ -6277,34 +6463,36 @@
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
-      <c r="V52" s="31"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="15"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="39"/>
+      <c r="Y52" s="15" t="s">
+        <v>268</v>
+      </c>
       <c r="Z52" s="15"/>
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
-      <c r="AC52" s="42"/>
-      <c r="AD52" s="42"/>
-      <c r="AE52" s="42"/>
-      <c r="AF52" s="42"/>
-      <c r="AG52" s="45"/>
+      <c r="AC52" s="44"/>
+      <c r="AD52" s="44"/>
+      <c r="AE52" s="44"/>
+      <c r="AF52" s="44"/>
+      <c r="AG52" s="47"/>
     </row>
     <row r="53" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A53" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="D53" s="22"/>
+        <v>269</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D53" s="23"/>
       <c r="E53" s="15">
         <v>0</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="23">
         <v>1</v>
       </c>
       <c r="G53" s="15">
@@ -6340,34 +6528,36 @@
       <c r="S53" s="15"/>
       <c r="T53" s="15"/>
       <c r="U53" s="15"/>
-      <c r="V53" s="33"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="10"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="36"/>
+      <c r="X53" s="38"/>
+      <c r="Y53" s="10" t="s">
+        <v>272</v>
+      </c>
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
-      <c r="AC53" s="41"/>
-      <c r="AD53" s="41"/>
-      <c r="AE53" s="41"/>
-      <c r="AF53" s="41"/>
-      <c r="AG53" s="44"/>
+      <c r="AC53" s="43"/>
+      <c r="AD53" s="43"/>
+      <c r="AE53" s="43"/>
+      <c r="AF53" s="43"/>
+      <c r="AG53" s="46"/>
     </row>
     <row r="54" ht="30.5" customHeight="1" spans="1:33">
       <c r="A54" s="12" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="D54" s="24"/>
+        <v>274</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D54" s="26"/>
       <c r="E54" s="10">
         <v>0</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="22">
         <v>2</v>
       </c>
       <c r="G54" s="10">
@@ -6403,34 +6593,34 @@
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
-      <c r="V54" s="31"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="37"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="39"/>
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
       <c r="AA54" s="15"/>
       <c r="AB54" s="15"/>
-      <c r="AC54" s="42"/>
-      <c r="AD54" s="42"/>
-      <c r="AE54" s="42"/>
-      <c r="AF54" s="42"/>
-      <c r="AG54" s="45"/>
+      <c r="AC54" s="44"/>
+      <c r="AD54" s="44"/>
+      <c r="AE54" s="44"/>
+      <c r="AF54" s="44"/>
+      <c r="AG54" s="47"/>
     </row>
     <row r="55" ht="30.5" customHeight="1" spans="1:33">
       <c r="A55" s="12" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="D55" s="23"/>
+        <v>277</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="D55" s="24"/>
       <c r="E55" s="15">
         <v>0</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="23">
         <v>2</v>
       </c>
       <c r="G55" s="15">
@@ -6466,34 +6656,34 @@
       <c r="S55" s="15"/>
       <c r="T55" s="15"/>
       <c r="U55" s="15"/>
-      <c r="V55" s="33"/>
-      <c r="W55" s="34"/>
-      <c r="X55" s="36"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="38"/>
       <c r="Y55" s="10"/>
       <c r="Z55" s="10"/>
       <c r="AA55" s="10"/>
       <c r="AB55" s="10"/>
-      <c r="AC55" s="41"/>
-      <c r="AD55" s="41"/>
-      <c r="AE55" s="41"/>
-      <c r="AF55" s="41"/>
-      <c r="AG55" s="44"/>
+      <c r="AC55" s="43"/>
+      <c r="AD55" s="43"/>
+      <c r="AE55" s="43"/>
+      <c r="AF55" s="43"/>
+      <c r="AG55" s="46"/>
     </row>
     <row r="56" ht="30.5" customHeight="1" spans="1:33">
       <c r="A56" s="12" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="D56" s="24"/>
+        <v>280</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D56" s="26"/>
       <c r="E56" s="10">
         <v>0</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="22">
         <v>2</v>
       </c>
       <c r="G56" s="10">
@@ -6529,34 +6719,34 @@
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="37"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="39"/>
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
       <c r="AA56" s="15"/>
       <c r="AB56" s="15"/>
-      <c r="AC56" s="42"/>
-      <c r="AD56" s="42"/>
-      <c r="AE56" s="42"/>
-      <c r="AF56" s="42"/>
-      <c r="AG56" s="45"/>
+      <c r="AC56" s="44"/>
+      <c r="AD56" s="44"/>
+      <c r="AE56" s="44"/>
+      <c r="AF56" s="44"/>
+      <c r="AG56" s="47"/>
     </row>
     <row r="57" ht="30.5" customHeight="1" spans="1:33">
       <c r="A57" s="12" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="D57" s="23"/>
+        <v>283</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="D57" s="24"/>
       <c r="E57" s="15">
         <v>1</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="23">
         <v>2</v>
       </c>
       <c r="G57" s="15">
@@ -6592,34 +6782,34 @@
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
       <c r="U57" s="15"/>
-      <c r="V57" s="33"/>
-      <c r="W57" s="34"/>
-      <c r="X57" s="36"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="38"/>
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
       <c r="AB57" s="10"/>
-      <c r="AC57" s="41"/>
-      <c r="AD57" s="41"/>
-      <c r="AE57" s="41"/>
-      <c r="AF57" s="41"/>
-      <c r="AG57" s="44"/>
+      <c r="AC57" s="43"/>
+      <c r="AD57" s="43"/>
+      <c r="AE57" s="43"/>
+      <c r="AF57" s="43"/>
+      <c r="AG57" s="46"/>
     </row>
     <row r="58" ht="30.5" customHeight="1" spans="1:33">
       <c r="A58" s="12" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="D58" s="24"/>
+        <v>286</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" s="26"/>
       <c r="E58" s="10">
         <v>0</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="22">
         <v>2</v>
       </c>
       <c r="G58" s="10">
@@ -6655,34 +6845,34 @@
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
-      <c r="V58" s="31"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="37"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="39"/>
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
       <c r="AA58" s="15"/>
       <c r="AB58" s="15"/>
-      <c r="AC58" s="42"/>
-      <c r="AD58" s="42"/>
-      <c r="AE58" s="42"/>
-      <c r="AF58" s="42"/>
-      <c r="AG58" s="45"/>
+      <c r="AC58" s="44"/>
+      <c r="AD58" s="44"/>
+      <c r="AE58" s="44"/>
+      <c r="AF58" s="44"/>
+      <c r="AG58" s="47"/>
     </row>
     <row r="59" ht="30.5" customHeight="1" spans="1:33">
       <c r="A59" s="12" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="D59" s="23"/>
+        <v>289</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="D59" s="24"/>
       <c r="E59" s="15">
         <v>1</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="23">
         <v>2</v>
       </c>
       <c r="G59" s="15">
@@ -6718,34 +6908,34 @@
       <c r="S59" s="15"/>
       <c r="T59" s="15"/>
       <c r="U59" s="15"/>
-      <c r="V59" s="33"/>
-      <c r="W59" s="34"/>
-      <c r="X59" s="36"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="36"/>
+      <c r="X59" s="38"/>
       <c r="Y59" s="10"/>
       <c r="Z59" s="10"/>
       <c r="AA59" s="10"/>
       <c r="AB59" s="10"/>
-      <c r="AC59" s="41"/>
-      <c r="AD59" s="41"/>
-      <c r="AE59" s="41"/>
-      <c r="AF59" s="41"/>
-      <c r="AG59" s="44"/>
+      <c r="AC59" s="43"/>
+      <c r="AD59" s="43"/>
+      <c r="AE59" s="43"/>
+      <c r="AF59" s="43"/>
+      <c r="AG59" s="46"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A60" s="12" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="D60" s="24"/>
+        <v>292</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D60" s="26"/>
       <c r="E60" s="10">
         <v>1</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="22">
         <v>2</v>
       </c>
       <c r="G60" s="10">
@@ -6781,34 +6971,34 @@
       <c r="S60" s="10"/>
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
-      <c r="V60" s="31"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="37"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="39"/>
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
       <c r="AA60" s="15"/>
       <c r="AB60" s="15"/>
-      <c r="AC60" s="42"/>
-      <c r="AD60" s="42"/>
-      <c r="AE60" s="42"/>
-      <c r="AF60" s="42"/>
-      <c r="AG60" s="45"/>
+      <c r="AC60" s="44"/>
+      <c r="AD60" s="44"/>
+      <c r="AE60" s="44"/>
+      <c r="AF60" s="44"/>
+      <c r="AG60" s="47"/>
     </row>
     <row r="61" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A61" s="12" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="D61" s="23"/>
+        <v>295</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="D61" s="24"/>
       <c r="E61" s="15">
         <v>0</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F61" s="23">
         <v>2</v>
       </c>
       <c r="G61" s="15">
@@ -6844,34 +7034,34 @@
       <c r="S61" s="15"/>
       <c r="T61" s="15"/>
       <c r="U61" s="15"/>
-      <c r="V61" s="33"/>
-      <c r="W61" s="34"/>
-      <c r="X61" s="36"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="38"/>
       <c r="Y61" s="10"/>
       <c r="Z61" s="10"/>
       <c r="AA61" s="10"/>
       <c r="AB61" s="10"/>
-      <c r="AC61" s="41"/>
-      <c r="AD61" s="41"/>
-      <c r="AE61" s="41"/>
-      <c r="AF61" s="41"/>
-      <c r="AG61" s="44"/>
+      <c r="AC61" s="43"/>
+      <c r="AD61" s="43"/>
+      <c r="AE61" s="43"/>
+      <c r="AF61" s="43"/>
+      <c r="AG61" s="46"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A62" s="12" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="D62" s="24"/>
+        <v>298</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D62" s="26"/>
       <c r="E62" s="10">
         <v>0</v>
       </c>
-      <c r="F62" s="21">
+      <c r="F62" s="22">
         <v>2</v>
       </c>
       <c r="G62" s="10">
@@ -6907,34 +7097,34 @@
       <c r="S62" s="10"/>
       <c r="T62" s="10"/>
       <c r="U62" s="10"/>
-      <c r="V62" s="31"/>
-      <c r="W62" s="35"/>
-      <c r="X62" s="37"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="39"/>
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
       <c r="AA62" s="15"/>
       <c r="AB62" s="15"/>
-      <c r="AC62" s="42"/>
-      <c r="AD62" s="42"/>
-      <c r="AE62" s="42"/>
-      <c r="AF62" s="42"/>
-      <c r="AG62" s="45"/>
+      <c r="AC62" s="44"/>
+      <c r="AD62" s="44"/>
+      <c r="AE62" s="44"/>
+      <c r="AF62" s="44"/>
+      <c r="AG62" s="47"/>
     </row>
     <row r="63" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A63" s="12" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="D63" s="23"/>
+        <v>301</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" s="24"/>
       <c r="E63" s="15">
         <v>0</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="23">
         <v>2</v>
       </c>
       <c r="G63" s="15">
@@ -6970,34 +7160,34 @@
       <c r="S63" s="15"/>
       <c r="T63" s="15"/>
       <c r="U63" s="15"/>
-      <c r="V63" s="33"/>
-      <c r="W63" s="34"/>
-      <c r="X63" s="36"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="36"/>
+      <c r="X63" s="38"/>
       <c r="Y63" s="10"/>
       <c r="Z63" s="10"/>
       <c r="AA63" s="10"/>
       <c r="AB63" s="10"/>
-      <c r="AC63" s="41"/>
-      <c r="AD63" s="41"/>
-      <c r="AE63" s="41"/>
-      <c r="AF63" s="41"/>
-      <c r="AG63" s="44"/>
+      <c r="AC63" s="43"/>
+      <c r="AD63" s="43"/>
+      <c r="AE63" s="43"/>
+      <c r="AF63" s="43"/>
+      <c r="AG63" s="46"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A64" s="12" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="D64" s="21"/>
+        <v>304</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="D64" s="22"/>
       <c r="E64" s="10">
         <v>0</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F64" s="22">
         <v>2</v>
       </c>
       <c r="G64" s="10">
@@ -7033,34 +7223,34 @@
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
       <c r="U64" s="10"/>
-      <c r="V64" s="31"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="37"/>
+      <c r="V64" s="33"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="39"/>
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
       <c r="AA64" s="15"/>
       <c r="AB64" s="15"/>
-      <c r="AC64" s="42"/>
-      <c r="AD64" s="42"/>
-      <c r="AE64" s="42"/>
-      <c r="AF64" s="42"/>
-      <c r="AG64" s="45"/>
+      <c r="AC64" s="44"/>
+      <c r="AD64" s="44"/>
+      <c r="AE64" s="44"/>
+      <c r="AF64" s="44"/>
+      <c r="AG64" s="47"/>
     </row>
     <row r="65" ht="30.5" customHeight="1" spans="1:33">
       <c r="A65" s="12" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="D65" s="22"/>
+        <v>307</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="D65" s="23"/>
       <c r="E65" s="15">
         <v>0</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="23">
         <v>2</v>
       </c>
       <c r="G65" s="15">
@@ -7096,34 +7286,34 @@
       <c r="S65" s="15"/>
       <c r="T65" s="15"/>
       <c r="U65" s="15"/>
-      <c r="V65" s="33"/>
-      <c r="W65" s="34"/>
-      <c r="X65" s="36"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="36"/>
+      <c r="X65" s="38"/>
       <c r="Y65" s="10"/>
       <c r="Z65" s="10"/>
       <c r="AA65" s="10"/>
       <c r="AB65" s="10"/>
-      <c r="AC65" s="41"/>
-      <c r="AD65" s="41"/>
-      <c r="AE65" s="41"/>
-      <c r="AF65" s="41"/>
-      <c r="AG65" s="44"/>
+      <c r="AC65" s="43"/>
+      <c r="AD65" s="43"/>
+      <c r="AE65" s="43"/>
+      <c r="AF65" s="43"/>
+      <c r="AG65" s="46"/>
     </row>
     <row r="66" ht="30.5" customHeight="1" spans="1:33">
       <c r="A66" s="12" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="D66" s="21"/>
+        <v>310</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="D66" s="22"/>
       <c r="E66" s="10">
         <v>0</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F66" s="22">
         <v>2</v>
       </c>
       <c r="G66" s="10">
@@ -7159,34 +7349,34 @@
       <c r="S66" s="10"/>
       <c r="T66" s="10"/>
       <c r="U66" s="10"/>
-      <c r="V66" s="31"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="37"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="39"/>
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
       <c r="AA66" s="15"/>
       <c r="AB66" s="15"/>
-      <c r="AC66" s="42"/>
-      <c r="AD66" s="42"/>
-      <c r="AE66" s="42"/>
-      <c r="AF66" s="42"/>
-      <c r="AG66" s="45"/>
+      <c r="AC66" s="44"/>
+      <c r="AD66" s="44"/>
+      <c r="AE66" s="44"/>
+      <c r="AF66" s="44"/>
+      <c r="AG66" s="47"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A67" s="12" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="D67" s="22"/>
+        <v>313</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="D67" s="23"/>
       <c r="E67" s="15">
         <v>1</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="23">
         <v>2</v>
       </c>
       <c r="G67" s="15">
@@ -7222,34 +7412,34 @@
       <c r="S67" s="15"/>
       <c r="T67" s="15"/>
       <c r="U67" s="15"/>
-      <c r="V67" s="33"/>
-      <c r="W67" s="34"/>
-      <c r="X67" s="36"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="36"/>
+      <c r="X67" s="38"/>
       <c r="Y67" s="10"/>
       <c r="Z67" s="10"/>
       <c r="AA67" s="10"/>
       <c r="AB67" s="10"/>
-      <c r="AC67" s="41"/>
-      <c r="AD67" s="41"/>
-      <c r="AE67" s="41"/>
-      <c r="AF67" s="41"/>
-      <c r="AG67" s="44"/>
+      <c r="AC67" s="43"/>
+      <c r="AD67" s="43"/>
+      <c r="AE67" s="43"/>
+      <c r="AF67" s="43"/>
+      <c r="AG67" s="46"/>
     </row>
     <row r="68" ht="30.5" customHeight="1" spans="1:33">
       <c r="A68" s="12" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="D68" s="21"/>
+        <v>316</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68" s="22"/>
       <c r="E68" s="10">
         <v>0</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F68" s="22">
         <v>2</v>
       </c>
       <c r="G68" s="10">
@@ -7285,34 +7475,34 @@
       <c r="S68" s="10"/>
       <c r="T68" s="10"/>
       <c r="U68" s="10"/>
-      <c r="V68" s="31"/>
-      <c r="W68" s="35"/>
-      <c r="X68" s="37"/>
+      <c r="V68" s="33"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="39"/>
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
-      <c r="AC68" s="42"/>
-      <c r="AD68" s="42"/>
-      <c r="AE68" s="42"/>
-      <c r="AF68" s="42"/>
-      <c r="AG68" s="45"/>
+      <c r="AC68" s="44"/>
+      <c r="AD68" s="44"/>
+      <c r="AE68" s="44"/>
+      <c r="AF68" s="44"/>
+      <c r="AG68" s="47"/>
     </row>
     <row r="69" ht="30.5" customHeight="1" spans="1:33">
       <c r="A69" s="12" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="D69" s="22"/>
+        <v>319</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="D69" s="23"/>
       <c r="E69" s="15">
         <v>0</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="23">
         <v>2</v>
       </c>
       <c r="G69" s="15">
@@ -7348,34 +7538,34 @@
       <c r="S69" s="15"/>
       <c r="T69" s="15"/>
       <c r="U69" s="15"/>
-      <c r="V69" s="33"/>
-      <c r="W69" s="34"/>
-      <c r="X69" s="36"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="38"/>
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
       <c r="AA69" s="10"/>
       <c r="AB69" s="10"/>
-      <c r="AC69" s="41"/>
-      <c r="AD69" s="41"/>
-      <c r="AE69" s="41"/>
-      <c r="AF69" s="41"/>
-      <c r="AG69" s="44"/>
+      <c r="AC69" s="43"/>
+      <c r="AD69" s="43"/>
+      <c r="AE69" s="43"/>
+      <c r="AF69" s="43"/>
+      <c r="AG69" s="46"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A70" s="12" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="D70" s="21"/>
+        <v>322</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="D70" s="22"/>
       <c r="E70" s="10">
         <v>1</v>
       </c>
-      <c r="F70" s="21">
+      <c r="F70" s="22">
         <v>2</v>
       </c>
       <c r="G70" s="10">
@@ -7411,34 +7601,34 @@
       <c r="S70" s="10"/>
       <c r="T70" s="10"/>
       <c r="U70" s="10"/>
-      <c r="V70" s="31"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="37"/>
+      <c r="V70" s="33"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="39"/>
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
       <c r="AA70" s="15"/>
       <c r="AB70" s="15"/>
-      <c r="AC70" s="42"/>
-      <c r="AD70" s="42"/>
-      <c r="AE70" s="42"/>
-      <c r="AF70" s="42"/>
-      <c r="AG70" s="45"/>
+      <c r="AC70" s="44"/>
+      <c r="AD70" s="44"/>
+      <c r="AE70" s="44"/>
+      <c r="AF70" s="44"/>
+      <c r="AG70" s="47"/>
     </row>
     <row r="71" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A71" s="12" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="D71" s="22"/>
+        <v>325</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="D71" s="23"/>
       <c r="E71" s="15">
         <v>0</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="23">
         <v>2</v>
       </c>
       <c r="G71" s="15">
@@ -7474,34 +7664,34 @@
       <c r="S71" s="15"/>
       <c r="T71" s="15"/>
       <c r="U71" s="15"/>
-      <c r="V71" s="33"/>
-      <c r="W71" s="34"/>
-      <c r="X71" s="36"/>
+      <c r="V71" s="35"/>
+      <c r="W71" s="36"/>
+      <c r="X71" s="38"/>
       <c r="Y71" s="10"/>
       <c r="Z71" s="10"/>
       <c r="AA71" s="10"/>
       <c r="AB71" s="10"/>
-      <c r="AC71" s="41"/>
-      <c r="AD71" s="41"/>
-      <c r="AE71" s="41"/>
-      <c r="AF71" s="41"/>
-      <c r="AG71" s="44"/>
+      <c r="AC71" s="43"/>
+      <c r="AD71" s="43"/>
+      <c r="AE71" s="43"/>
+      <c r="AF71" s="43"/>
+      <c r="AG71" s="46"/>
     </row>
     <row r="72" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A72" s="12" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="D72" s="21"/>
+        <v>328</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D72" s="22"/>
       <c r="E72" s="10">
         <v>0</v>
       </c>
-      <c r="F72" s="21">
+      <c r="F72" s="22">
         <v>2</v>
       </c>
       <c r="G72" s="10">
@@ -7537,34 +7727,34 @@
       <c r="S72" s="10"/>
       <c r="T72" s="10"/>
       <c r="U72" s="10"/>
-      <c r="V72" s="31"/>
-      <c r="W72" s="35"/>
-      <c r="X72" s="37"/>
+      <c r="V72" s="33"/>
+      <c r="W72" s="37"/>
+      <c r="X72" s="39"/>
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
       <c r="AA72" s="15"/>
       <c r="AB72" s="15"/>
-      <c r="AC72" s="42"/>
-      <c r="AD72" s="42"/>
-      <c r="AE72" s="42"/>
-      <c r="AF72" s="42"/>
-      <c r="AG72" s="45"/>
+      <c r="AC72" s="44"/>
+      <c r="AD72" s="44"/>
+      <c r="AE72" s="44"/>
+      <c r="AF72" s="44"/>
+      <c r="AG72" s="47"/>
     </row>
     <row r="73" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A73" s="12" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="D73" s="22"/>
+        <v>331</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="D73" s="23"/>
       <c r="E73" s="15">
         <v>0</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="23">
         <v>2</v>
       </c>
       <c r="G73" s="15">
@@ -7600,34 +7790,34 @@
       <c r="S73" s="15"/>
       <c r="T73" s="15"/>
       <c r="U73" s="15"/>
-      <c r="V73" s="33"/>
-      <c r="W73" s="34"/>
-      <c r="X73" s="36"/>
+      <c r="V73" s="35"/>
+      <c r="W73" s="36"/>
+      <c r="X73" s="38"/>
       <c r="Y73" s="10"/>
       <c r="Z73" s="10"/>
       <c r="AA73" s="10"/>
       <c r="AB73" s="10"/>
-      <c r="AC73" s="41"/>
-      <c r="AD73" s="41"/>
-      <c r="AE73" s="41"/>
-      <c r="AF73" s="41"/>
-      <c r="AG73" s="44"/>
+      <c r="AC73" s="43"/>
+      <c r="AD73" s="43"/>
+      <c r="AE73" s="43"/>
+      <c r="AF73" s="43"/>
+      <c r="AG73" s="46"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A74" s="12" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="D74" s="21"/>
+        <v>334</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="D74" s="22"/>
       <c r="E74" s="10">
         <v>0</v>
       </c>
-      <c r="F74" s="21">
+      <c r="F74" s="22">
         <v>2</v>
       </c>
       <c r="G74" s="10">
@@ -7663,34 +7853,34 @@
       <c r="S74" s="10"/>
       <c r="T74" s="10"/>
       <c r="U74" s="10"/>
-      <c r="V74" s="31"/>
-      <c r="W74" s="35"/>
-      <c r="X74" s="37"/>
+      <c r="V74" s="33"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="39"/>
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
       <c r="AA74" s="15"/>
       <c r="AB74" s="15"/>
-      <c r="AC74" s="42"/>
-      <c r="AD74" s="42"/>
-      <c r="AE74" s="42"/>
-      <c r="AF74" s="42"/>
-      <c r="AG74" s="45"/>
+      <c r="AC74" s="44"/>
+      <c r="AD74" s="44"/>
+      <c r="AE74" s="44"/>
+      <c r="AF74" s="44"/>
+      <c r="AG74" s="47"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="31.25" customHeight="1" spans="1:33">
       <c r="A75" s="12" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="D75" s="22"/>
+        <v>337</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="D75" s="23"/>
       <c r="E75" s="15">
         <v>0</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="23">
         <v>2</v>
       </c>
       <c r="G75" s="15">
@@ -7726,34 +7916,34 @@
       <c r="S75" s="15"/>
       <c r="T75" s="15"/>
       <c r="U75" s="15"/>
-      <c r="V75" s="33"/>
-      <c r="W75" s="34"/>
-      <c r="X75" s="36"/>
-      <c r="Y75" s="50"/>
-      <c r="Z75" s="50"/>
-      <c r="AA75" s="50"/>
-      <c r="AB75" s="50"/>
-      <c r="AC75" s="50"/>
-      <c r="AD75" s="50"/>
-      <c r="AE75" s="41"/>
-      <c r="AF75" s="41"/>
-      <c r="AG75" s="44"/>
+      <c r="V75" s="35"/>
+      <c r="W75" s="36"/>
+      <c r="X75" s="38"/>
+      <c r="Y75" s="52"/>
+      <c r="Z75" s="52"/>
+      <c r="AA75" s="52"/>
+      <c r="AB75" s="52"/>
+      <c r="AC75" s="52"/>
+      <c r="AD75" s="52"/>
+      <c r="AE75" s="43"/>
+      <c r="AF75" s="43"/>
+      <c r="AG75" s="46"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A76" s="12" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="D76" s="21"/>
+        <v>340</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="D76" s="22"/>
       <c r="E76" s="10">
         <v>0</v>
       </c>
-      <c r="F76" s="21">
+      <c r="F76" s="22">
         <v>2</v>
       </c>
       <c r="G76" s="10">
@@ -7789,34 +7979,34 @@
       <c r="S76" s="10"/>
       <c r="T76" s="10"/>
       <c r="U76" s="10"/>
-      <c r="V76" s="31"/>
-      <c r="W76" s="35"/>
-      <c r="X76" s="37"/>
+      <c r="V76" s="33"/>
+      <c r="W76" s="37"/>
+      <c r="X76" s="39"/>
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
       <c r="AA76" s="15"/>
       <c r="AB76" s="15"/>
       <c r="AC76" s="15"/>
       <c r="AD76" s="15"/>
-      <c r="AE76" s="42"/>
-      <c r="AF76" s="42"/>
-      <c r="AG76" s="45"/>
+      <c r="AE76" s="44"/>
+      <c r="AF76" s="44"/>
+      <c r="AG76" s="47"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A77" s="12" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="D77" s="22"/>
+        <v>343</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="D77" s="23"/>
       <c r="E77" s="15">
         <v>0</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F77" s="23">
         <v>2</v>
       </c>
       <c r="G77" s="15">
@@ -7852,34 +8042,34 @@
       <c r="S77" s="15"/>
       <c r="T77" s="15"/>
       <c r="U77" s="15"/>
-      <c r="V77" s="33"/>
-      <c r="W77" s="34"/>
-      <c r="X77" s="36"/>
+      <c r="V77" s="35"/>
+      <c r="W77" s="36"/>
+      <c r="X77" s="38"/>
       <c r="Y77" s="10"/>
       <c r="Z77" s="10"/>
       <c r="AA77" s="10"/>
       <c r="AB77" s="10"/>
       <c r="AC77" s="10"/>
       <c r="AD77" s="10"/>
-      <c r="AE77" s="41"/>
-      <c r="AF77" s="41"/>
-      <c r="AG77" s="44"/>
+      <c r="AE77" s="43"/>
+      <c r="AF77" s="43"/>
+      <c r="AG77" s="46"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A78" s="12" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="D78" s="21"/>
+        <v>346</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D78" s="22"/>
       <c r="E78" s="10">
         <v>0</v>
       </c>
-      <c r="F78" s="21">
+      <c r="F78" s="22">
         <v>2</v>
       </c>
       <c r="G78" s="10">
@@ -7915,34 +8105,34 @@
       <c r="S78" s="10"/>
       <c r="T78" s="10"/>
       <c r="U78" s="10"/>
-      <c r="V78" s="31"/>
-      <c r="W78" s="35"/>
-      <c r="X78" s="37"/>
+      <c r="V78" s="33"/>
+      <c r="W78" s="37"/>
+      <c r="X78" s="39"/>
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
       <c r="AA78" s="15"/>
       <c r="AB78" s="15"/>
       <c r="AC78" s="15"/>
       <c r="AD78" s="15"/>
-      <c r="AE78" s="42"/>
-      <c r="AF78" s="42"/>
-      <c r="AG78" s="45"/>
+      <c r="AE78" s="44"/>
+      <c r="AF78" s="44"/>
+      <c r="AG78" s="47"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A79" s="12" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="D79" s="22"/>
+        <v>349</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="D79" s="23"/>
       <c r="E79" s="15">
         <v>0</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F79" s="23">
         <v>2</v>
       </c>
       <c r="G79" s="15">
@@ -7978,34 +8168,34 @@
       <c r="S79" s="15"/>
       <c r="T79" s="15"/>
       <c r="U79" s="15"/>
-      <c r="V79" s="33"/>
-      <c r="W79" s="34"/>
-      <c r="X79" s="36"/>
+      <c r="V79" s="35"/>
+      <c r="W79" s="36"/>
+      <c r="X79" s="38"/>
       <c r="Y79" s="10"/>
       <c r="Z79" s="10"/>
       <c r="AA79" s="10"/>
       <c r="AB79" s="10"/>
       <c r="AC79" s="10"/>
       <c r="AD79" s="10"/>
-      <c r="AE79" s="41"/>
-      <c r="AF79" s="41"/>
-      <c r="AG79" s="44"/>
+      <c r="AE79" s="43"/>
+      <c r="AF79" s="43"/>
+      <c r="AG79" s="46"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A80" s="12" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="D80" s="21"/>
+        <v>352</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="D80" s="22"/>
       <c r="E80" s="10">
         <v>0</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F80" s="22">
         <v>2</v>
       </c>
       <c r="G80" s="10">
@@ -8041,34 +8231,34 @@
       <c r="S80" s="10"/>
       <c r="T80" s="10"/>
       <c r="U80" s="10"/>
-      <c r="V80" s="31"/>
-      <c r="W80" s="35"/>
-      <c r="X80" s="37"/>
+      <c r="V80" s="33"/>
+      <c r="W80" s="37"/>
+      <c r="X80" s="39"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
       <c r="AA80" s="15"/>
       <c r="AB80" s="15"/>
       <c r="AC80" s="15"/>
       <c r="AD80" s="15"/>
-      <c r="AE80" s="42"/>
-      <c r="AF80" s="42"/>
-      <c r="AG80" s="45"/>
+      <c r="AE80" s="44"/>
+      <c r="AF80" s="44"/>
+      <c r="AG80" s="47"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A81" s="12" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="D81" s="22"/>
+        <v>355</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="D81" s="23"/>
       <c r="E81" s="15">
         <v>0</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F81" s="23">
         <v>2</v>
       </c>
       <c r="G81" s="15">
@@ -8104,34 +8294,34 @@
       <c r="S81" s="15"/>
       <c r="T81" s="15"/>
       <c r="U81" s="15"/>
-      <c r="V81" s="33"/>
-      <c r="W81" s="34"/>
-      <c r="X81" s="36"/>
+      <c r="V81" s="35"/>
+      <c r="W81" s="36"/>
+      <c r="X81" s="38"/>
       <c r="Y81" s="10"/>
       <c r="Z81" s="10"/>
       <c r="AA81" s="10"/>
       <c r="AB81" s="10"/>
       <c r="AC81" s="10"/>
       <c r="AD81" s="10"/>
-      <c r="AE81" s="41"/>
-      <c r="AF81" s="41"/>
-      <c r="AG81" s="44"/>
+      <c r="AE81" s="43"/>
+      <c r="AF81" s="43"/>
+      <c r="AG81" s="46"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A82" s="12" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="D82" s="21"/>
+        <v>358</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D82" s="22"/>
       <c r="E82" s="10">
         <v>0</v>
       </c>
-      <c r="F82" s="21">
+      <c r="F82" s="22">
         <v>2</v>
       </c>
       <c r="G82" s="10">
@@ -8167,34 +8357,34 @@
       <c r="S82" s="10"/>
       <c r="T82" s="10"/>
       <c r="U82" s="10"/>
-      <c r="V82" s="31"/>
-      <c r="W82" s="35"/>
-      <c r="X82" s="37"/>
+      <c r="V82" s="33"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="39"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
       <c r="AA82" s="15"/>
       <c r="AB82" s="15"/>
       <c r="AC82" s="15"/>
       <c r="AD82" s="15"/>
-      <c r="AE82" s="42"/>
-      <c r="AF82" s="42"/>
-      <c r="AG82" s="45"/>
+      <c r="AE82" s="44"/>
+      <c r="AF82" s="44"/>
+      <c r="AG82" s="47"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A83" s="12" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="D83" s="22"/>
+        <v>361</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="D83" s="23"/>
       <c r="E83" s="15">
         <v>0</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F83" s="23">
         <v>3</v>
       </c>
       <c r="G83" s="15">
@@ -8230,34 +8420,34 @@
       <c r="S83" s="15"/>
       <c r="T83" s="15"/>
       <c r="U83" s="15"/>
-      <c r="V83" s="33"/>
-      <c r="W83" s="34"/>
-      <c r="X83" s="36"/>
+      <c r="V83" s="35"/>
+      <c r="W83" s="36"/>
+      <c r="X83" s="38"/>
       <c r="Y83" s="10"/>
       <c r="Z83" s="10"/>
       <c r="AA83" s="10"/>
       <c r="AB83" s="10"/>
       <c r="AC83" s="10"/>
       <c r="AD83" s="10"/>
-      <c r="AE83" s="41"/>
-      <c r="AF83" s="41"/>
-      <c r="AG83" s="44"/>
+      <c r="AE83" s="43"/>
+      <c r="AF83" s="43"/>
+      <c r="AG83" s="46"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A84" s="12" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="D84" s="21"/>
+        <v>364</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="D84" s="22"/>
       <c r="E84" s="10">
         <v>0</v>
       </c>
-      <c r="F84" s="21">
+      <c r="F84" s="22">
         <v>3</v>
       </c>
       <c r="G84" s="10">
@@ -8293,34 +8483,34 @@
       <c r="S84" s="10"/>
       <c r="T84" s="10"/>
       <c r="U84" s="10"/>
-      <c r="V84" s="31"/>
-      <c r="W84" s="35"/>
-      <c r="X84" s="37"/>
+      <c r="V84" s="33"/>
+      <c r="W84" s="37"/>
+      <c r="X84" s="39"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
       <c r="AA84" s="15"/>
       <c r="AB84" s="15"/>
       <c r="AC84" s="15"/>
       <c r="AD84" s="15"/>
-      <c r="AE84" s="42"/>
-      <c r="AF84" s="42"/>
-      <c r="AG84" s="45"/>
+      <c r="AE84" s="44"/>
+      <c r="AF84" s="44"/>
+      <c r="AG84" s="47"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A85" s="12" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="D85" s="22"/>
+        <v>367</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="D85" s="23"/>
       <c r="E85" s="15">
         <v>0</v>
       </c>
-      <c r="F85" s="22">
+      <c r="F85" s="23">
         <v>3</v>
       </c>
       <c r="G85" s="15">
@@ -8356,34 +8546,34 @@
       <c r="S85" s="15"/>
       <c r="T85" s="15"/>
       <c r="U85" s="15"/>
-      <c r="V85" s="33"/>
-      <c r="W85" s="34"/>
-      <c r="X85" s="36"/>
+      <c r="V85" s="35"/>
+      <c r="W85" s="36"/>
+      <c r="X85" s="38"/>
       <c r="Y85" s="10"/>
       <c r="Z85" s="10"/>
       <c r="AA85" s="10"/>
       <c r="AB85" s="10"/>
       <c r="AC85" s="10"/>
       <c r="AD85" s="10"/>
-      <c r="AE85" s="41"/>
-      <c r="AF85" s="41"/>
-      <c r="AG85" s="44"/>
+      <c r="AE85" s="43"/>
+      <c r="AF85" s="43"/>
+      <c r="AG85" s="46"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A86" s="12" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="D86" s="21"/>
+        <v>370</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="D86" s="22"/>
       <c r="E86" s="10">
         <v>0</v>
       </c>
-      <c r="F86" s="21">
+      <c r="F86" s="22">
         <v>3</v>
       </c>
       <c r="G86" s="10">
@@ -8419,34 +8609,34 @@
       <c r="S86" s="10"/>
       <c r="T86" s="10"/>
       <c r="U86" s="10"/>
-      <c r="V86" s="31"/>
-      <c r="W86" s="35"/>
-      <c r="X86" s="37"/>
+      <c r="V86" s="33"/>
+      <c r="W86" s="37"/>
+      <c r="X86" s="39"/>
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
       <c r="AA86" s="15"/>
       <c r="AB86" s="15"/>
       <c r="AC86" s="15"/>
       <c r="AD86" s="15"/>
-      <c r="AE86" s="42"/>
-      <c r="AF86" s="42"/>
-      <c r="AG86" s="45"/>
+      <c r="AE86" s="44"/>
+      <c r="AF86" s="44"/>
+      <c r="AG86" s="47"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A87" s="12" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="D87" s="22"/>
+        <v>373</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="D87" s="23"/>
       <c r="E87" s="15">
         <v>0</v>
       </c>
-      <c r="F87" s="22">
+      <c r="F87" s="23">
         <v>3</v>
       </c>
       <c r="G87" s="15">
@@ -8482,34 +8672,34 @@
       <c r="S87" s="15"/>
       <c r="T87" s="15"/>
       <c r="U87" s="15"/>
-      <c r="V87" s="33"/>
-      <c r="W87" s="34"/>
-      <c r="X87" s="36"/>
+      <c r="V87" s="35"/>
+      <c r="W87" s="36"/>
+      <c r="X87" s="38"/>
       <c r="Y87" s="10"/>
       <c r="Z87" s="10"/>
       <c r="AA87" s="10"/>
       <c r="AB87" s="10"/>
       <c r="AC87" s="10"/>
       <c r="AD87" s="10"/>
-      <c r="AE87" s="41"/>
-      <c r="AF87" s="41"/>
-      <c r="AG87" s="44"/>
+      <c r="AE87" s="43"/>
+      <c r="AF87" s="43"/>
+      <c r="AG87" s="46"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A88" s="12" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="D88" s="21"/>
+        <v>376</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="D88" s="22"/>
       <c r="E88" s="10">
         <v>0</v>
       </c>
-      <c r="F88" s="21">
+      <c r="F88" s="22">
         <v>3</v>
       </c>
       <c r="G88" s="10">
@@ -8545,34 +8735,34 @@
       <c r="S88" s="10"/>
       <c r="T88" s="10"/>
       <c r="U88" s="10"/>
-      <c r="V88" s="31"/>
-      <c r="W88" s="35"/>
-      <c r="X88" s="37"/>
+      <c r="V88" s="33"/>
+      <c r="W88" s="37"/>
+      <c r="X88" s="39"/>
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
       <c r="AA88" s="15"/>
       <c r="AB88" s="15"/>
       <c r="AC88" s="15"/>
       <c r="AD88" s="15"/>
-      <c r="AE88" s="42"/>
-      <c r="AF88" s="42"/>
-      <c r="AG88" s="45"/>
+      <c r="AE88" s="44"/>
+      <c r="AF88" s="44"/>
+      <c r="AG88" s="47"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A89" s="12" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="D89" s="22"/>
+        <v>379</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="D89" s="23"/>
       <c r="E89" s="15">
         <v>1</v>
       </c>
-      <c r="F89" s="22">
+      <c r="F89" s="23">
         <v>3</v>
       </c>
       <c r="G89" s="15">
@@ -8608,34 +8798,34 @@
       <c r="S89" s="15"/>
       <c r="T89" s="15"/>
       <c r="U89" s="15"/>
-      <c r="V89" s="33"/>
-      <c r="W89" s="34"/>
-      <c r="X89" s="36"/>
+      <c r="V89" s="35"/>
+      <c r="W89" s="36"/>
+      <c r="X89" s="38"/>
       <c r="Y89" s="10"/>
       <c r="Z89" s="10"/>
       <c r="AA89" s="10"/>
       <c r="AB89" s="10"/>
       <c r="AC89" s="10"/>
       <c r="AD89" s="10"/>
-      <c r="AE89" s="41"/>
-      <c r="AF89" s="41"/>
-      <c r="AG89" s="44"/>
+      <c r="AE89" s="43"/>
+      <c r="AF89" s="43"/>
+      <c r="AG89" s="46"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A90" s="12" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="D90" s="21"/>
+        <v>382</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="D90" s="22"/>
       <c r="E90" s="10">
         <v>0</v>
       </c>
-      <c r="F90" s="21">
+      <c r="F90" s="22">
         <v>3</v>
       </c>
       <c r="G90" s="10">
@@ -8671,34 +8861,34 @@
       <c r="S90" s="10"/>
       <c r="T90" s="10"/>
       <c r="U90" s="10"/>
-      <c r="V90" s="31"/>
-      <c r="W90" s="35"/>
-      <c r="X90" s="37"/>
+      <c r="V90" s="33"/>
+      <c r="W90" s="37"/>
+      <c r="X90" s="39"/>
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
       <c r="AA90" s="15"/>
       <c r="AB90" s="15"/>
       <c r="AC90" s="15"/>
       <c r="AD90" s="15"/>
-      <c r="AE90" s="42"/>
-      <c r="AF90" s="42"/>
-      <c r="AG90" s="45"/>
+      <c r="AE90" s="44"/>
+      <c r="AF90" s="44"/>
+      <c r="AG90" s="47"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A91" s="12" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="D91" s="22"/>
+        <v>385</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="D91" s="23"/>
       <c r="E91" s="15">
         <v>0</v>
       </c>
-      <c r="F91" s="22">
+      <c r="F91" s="23">
         <v>3</v>
       </c>
       <c r="G91" s="15">
@@ -8734,34 +8924,34 @@
       <c r="S91" s="15"/>
       <c r="T91" s="15"/>
       <c r="U91" s="15"/>
-      <c r="V91" s="33"/>
-      <c r="W91" s="34"/>
-      <c r="X91" s="36"/>
+      <c r="V91" s="35"/>
+      <c r="W91" s="36"/>
+      <c r="X91" s="38"/>
       <c r="Y91" s="10"/>
       <c r="Z91" s="10"/>
       <c r="AA91" s="10"/>
       <c r="AB91" s="10"/>
       <c r="AC91" s="10"/>
       <c r="AD91" s="10"/>
-      <c r="AE91" s="41"/>
-      <c r="AF91" s="41"/>
-      <c r="AG91" s="44"/>
+      <c r="AE91" s="43"/>
+      <c r="AF91" s="43"/>
+      <c r="AG91" s="46"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A92" s="12" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="D92" s="21"/>
+        <v>388</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="D92" s="22"/>
       <c r="E92" s="10">
         <v>0</v>
       </c>
-      <c r="F92" s="21">
+      <c r="F92" s="22">
         <v>3</v>
       </c>
       <c r="G92" s="10">
@@ -8797,34 +8987,34 @@
       <c r="S92" s="10"/>
       <c r="T92" s="10"/>
       <c r="U92" s="10"/>
-      <c r="V92" s="31"/>
-      <c r="W92" s="35"/>
-      <c r="X92" s="37"/>
+      <c r="V92" s="33"/>
+      <c r="W92" s="37"/>
+      <c r="X92" s="39"/>
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
       <c r="AA92" s="15"/>
       <c r="AB92" s="15"/>
       <c r="AC92" s="15"/>
       <c r="AD92" s="15"/>
-      <c r="AE92" s="42"/>
-      <c r="AF92" s="42"/>
-      <c r="AG92" s="45"/>
+      <c r="AE92" s="44"/>
+      <c r="AF92" s="44"/>
+      <c r="AG92" s="47"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A93" s="12" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="D93" s="22"/>
+        <v>391</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="D93" s="23"/>
       <c r="E93" s="15">
         <v>0</v>
       </c>
-      <c r="F93" s="22">
+      <c r="F93" s="23">
         <v>3</v>
       </c>
       <c r="G93" s="15">
@@ -8860,34 +9050,34 @@
       <c r="S93" s="15"/>
       <c r="T93" s="15"/>
       <c r="U93" s="15"/>
-      <c r="V93" s="33"/>
-      <c r="W93" s="34"/>
-      <c r="X93" s="36"/>
+      <c r="V93" s="35"/>
+      <c r="W93" s="36"/>
+      <c r="X93" s="38"/>
       <c r="Y93" s="10"/>
       <c r="Z93" s="10"/>
       <c r="AA93" s="10"/>
       <c r="AB93" s="10"/>
       <c r="AC93" s="10"/>
       <c r="AD93" s="10"/>
-      <c r="AE93" s="41"/>
-      <c r="AF93" s="41"/>
-      <c r="AG93" s="44"/>
+      <c r="AE93" s="43"/>
+      <c r="AF93" s="43"/>
+      <c r="AG93" s="46"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A94" s="12" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="D94" s="21"/>
+        <v>394</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="D94" s="22"/>
       <c r="E94" s="10">
         <v>0</v>
       </c>
-      <c r="F94" s="21">
+      <c r="F94" s="22">
         <v>3</v>
       </c>
       <c r="G94" s="10">
@@ -8923,34 +9113,34 @@
       <c r="S94" s="10"/>
       <c r="T94" s="10"/>
       <c r="U94" s="10"/>
-      <c r="V94" s="31"/>
-      <c r="W94" s="35"/>
-      <c r="X94" s="37"/>
+      <c r="V94" s="33"/>
+      <c r="W94" s="37"/>
+      <c r="X94" s="39"/>
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
       <c r="AA94" s="15"/>
       <c r="AB94" s="15"/>
       <c r="AC94" s="15"/>
       <c r="AD94" s="15"/>
-      <c r="AE94" s="42"/>
-      <c r="AF94" s="42"/>
-      <c r="AG94" s="45"/>
+      <c r="AE94" s="44"/>
+      <c r="AF94" s="44"/>
+      <c r="AG94" s="47"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A95" s="12" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="D95" s="22"/>
+        <v>397</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="D95" s="23"/>
       <c r="E95" s="15">
         <v>0</v>
       </c>
-      <c r="F95" s="22">
+      <c r="F95" s="23">
         <v>3</v>
       </c>
       <c r="G95" s="15">
@@ -8986,8 +9176,8 @@
       <c r="S95" s="15"/>
       <c r="T95" s="15"/>
       <c r="U95" s="15"/>
-      <c r="V95" s="33"/>
-      <c r="W95" s="34"/>
+      <c r="V95" s="35"/>
+      <c r="W95" s="36"/>
       <c r="X95" s="9"/>
       <c r="Y95" s="10"/>
       <c r="Z95" s="10"/>
@@ -8997,23 +9187,23 @@
       <c r="AD95" s="10"/>
       <c r="AE95" s="10"/>
       <c r="AF95" s="10"/>
-      <c r="AG95" s="31"/>
+      <c r="AG95" s="33"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A96" s="12" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="D96" s="21"/>
+        <v>400</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D96" s="22"/>
       <c r="E96" s="10">
         <v>0</v>
       </c>
-      <c r="F96" s="21">
+      <c r="F96" s="22">
         <v>3</v>
       </c>
       <c r="G96" s="10">
@@ -9049,34 +9239,34 @@
       <c r="S96" s="10"/>
       <c r="T96" s="10"/>
       <c r="U96" s="10"/>
-      <c r="V96" s="31"/>
-      <c r="W96" s="35"/>
-      <c r="X96" s="37"/>
+      <c r="V96" s="33"/>
+      <c r="W96" s="37"/>
+      <c r="X96" s="39"/>
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
       <c r="AA96" s="15"/>
       <c r="AB96" s="15"/>
       <c r="AC96" s="15"/>
       <c r="AD96" s="15"/>
-      <c r="AE96" s="42"/>
-      <c r="AF96" s="42"/>
-      <c r="AG96" s="45"/>
+      <c r="AE96" s="44"/>
+      <c r="AF96" s="44"/>
+      <c r="AG96" s="47"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A97" s="12" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="D97" s="22"/>
+        <v>403</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="D97" s="23"/>
       <c r="E97" s="15">
         <v>0</v>
       </c>
-      <c r="F97" s="22">
+      <c r="F97" s="23">
         <v>3</v>
       </c>
       <c r="G97" s="15">
@@ -9112,34 +9302,34 @@
       <c r="S97" s="15"/>
       <c r="T97" s="15"/>
       <c r="U97" s="15"/>
-      <c r="V97" s="33"/>
-      <c r="W97" s="34"/>
-      <c r="X97" s="36"/>
+      <c r="V97" s="35"/>
+      <c r="W97" s="36"/>
+      <c r="X97" s="38"/>
       <c r="Y97" s="10"/>
       <c r="Z97" s="10"/>
       <c r="AA97" s="10"/>
       <c r="AB97" s="10"/>
       <c r="AC97" s="10"/>
       <c r="AD97" s="10"/>
-      <c r="AE97" s="41"/>
-      <c r="AF97" s="41"/>
-      <c r="AG97" s="44"/>
+      <c r="AE97" s="43"/>
+      <c r="AF97" s="43"/>
+      <c r="AG97" s="46"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A98" s="12" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="D98" s="21"/>
+        <v>406</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="D98" s="22"/>
       <c r="E98" s="10">
         <v>1</v>
       </c>
-      <c r="F98" s="21">
+      <c r="F98" s="22">
         <v>3</v>
       </c>
       <c r="G98" s="10">
@@ -9175,34 +9365,34 @@
       <c r="S98" s="10"/>
       <c r="T98" s="10"/>
       <c r="U98" s="10"/>
-      <c r="V98" s="31"/>
-      <c r="W98" s="35"/>
-      <c r="X98" s="37"/>
+      <c r="V98" s="33"/>
+      <c r="W98" s="37"/>
+      <c r="X98" s="39"/>
       <c r="Y98" s="15"/>
       <c r="Z98" s="15"/>
       <c r="AA98" s="15"/>
       <c r="AB98" s="15"/>
       <c r="AC98" s="15"/>
       <c r="AD98" s="15"/>
-      <c r="AE98" s="42"/>
-      <c r="AF98" s="42"/>
-      <c r="AG98" s="45"/>
+      <c r="AE98" s="44"/>
+      <c r="AF98" s="44"/>
+      <c r="AG98" s="47"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A99" s="12" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="D99" s="22"/>
+        <v>409</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="D99" s="23"/>
       <c r="E99" s="15">
         <v>0</v>
       </c>
-      <c r="F99" s="22">
+      <c r="F99" s="23">
         <v>3</v>
       </c>
       <c r="G99" s="15">
@@ -9238,81 +9428,81 @@
       <c r="S99" s="15"/>
       <c r="T99" s="15"/>
       <c r="U99" s="15"/>
-      <c r="V99" s="33"/>
-      <c r="W99" s="34"/>
-      <c r="X99" s="36"/>
+      <c r="V99" s="35"/>
+      <c r="W99" s="36"/>
+      <c r="X99" s="38"/>
       <c r="Y99" s="10"/>
       <c r="Z99" s="10"/>
       <c r="AA99" s="10"/>
       <c r="AB99" s="10"/>
       <c r="AC99" s="10"/>
       <c r="AD99" s="10"/>
-      <c r="AE99" s="41"/>
-      <c r="AF99" s="41"/>
-      <c r="AG99" s="44"/>
+      <c r="AE99" s="43"/>
+      <c r="AF99" s="43"/>
+      <c r="AG99" s="46"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A100" s="12" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="C100" s="46" t="s">
-        <v>389</v>
-      </c>
-      <c r="D100" s="46"/>
-      <c r="E100" s="47">
-        <v>0</v>
-      </c>
-      <c r="F100" s="46">
+        <v>412</v>
+      </c>
+      <c r="C100" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="D100" s="48"/>
+      <c r="E100" s="49">
+        <v>0</v>
+      </c>
+      <c r="F100" s="48">
         <v>3</v>
       </c>
-      <c r="G100" s="47">
-        <v>101</v>
-      </c>
-      <c r="H100" s="47">
-        <v>100</v>
-      </c>
-      <c r="I100" s="47">
-        <v>1</v>
-      </c>
-      <c r="J100" s="47">
-        <v>1</v>
-      </c>
-      <c r="K100" s="47">
-        <v>1</v>
-      </c>
-      <c r="L100" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="M100" s="47" t="s">
+      <c r="G100" s="49">
+        <v>101</v>
+      </c>
+      <c r="H100" s="49">
+        <v>100</v>
+      </c>
+      <c r="I100" s="49">
+        <v>1</v>
+      </c>
+      <c r="J100" s="49">
+        <v>1</v>
+      </c>
+      <c r="K100" s="49">
+        <v>1</v>
+      </c>
+      <c r="L100" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="M100" s="49" t="s">
         <v>169</v>
       </c>
       <c r="N100" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O100" s="47">
-        <v>0</v>
-      </c>
-      <c r="P100" s="47"/>
-      <c r="Q100" s="47"/>
-      <c r="R100" s="47"/>
-      <c r="S100" s="47"/>
-      <c r="T100" s="47"/>
-      <c r="U100" s="47"/>
-      <c r="V100" s="48"/>
-      <c r="W100" s="35"/>
-      <c r="X100" s="49"/>
-      <c r="Y100" s="51"/>
-      <c r="Z100" s="51"/>
-      <c r="AA100" s="51"/>
-      <c r="AB100" s="51"/>
-      <c r="AC100" s="51"/>
-      <c r="AD100" s="51"/>
-      <c r="AE100" s="52"/>
-      <c r="AF100" s="52"/>
-      <c r="AG100" s="53"/>
+      <c r="O100" s="49">
+        <v>0</v>
+      </c>
+      <c r="P100" s="49"/>
+      <c r="Q100" s="49"/>
+      <c r="R100" s="49"/>
+      <c r="S100" s="49"/>
+      <c r="T100" s="49"/>
+      <c r="U100" s="49"/>
+      <c r="V100" s="50"/>
+      <c r="W100" s="37"/>
+      <c r="X100" s="51"/>
+      <c r="Y100" s="53"/>
+      <c r="Z100" s="53"/>
+      <c r="AA100" s="53"/>
+      <c r="AB100" s="53"/>
+      <c r="AC100" s="53"/>
+      <c r="AD100" s="53"/>
+      <c r="AE100" s="54"/>
+      <c r="AF100" s="54"/>
+      <c r="AG100" s="55"/>
     </row>
     <row r="101" ht="14.25"/>
   </sheetData>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="437">
   <si>
     <t>名字</t>
   </si>
@@ -137,7 +137,7 @@
     <t>rune_1</t>
   </si>
   <si>
-    <t>通用符文#1</t>
+    <t>爆爆</t>
   </si>
   <si>
     <t>提高%CriticalChance.Base%%%暴击概率和%CriticalDamage.Base%%%暴击伤害</t>
@@ -168,10 +168,16 @@
     <t>rune_2</t>
   </si>
   <si>
-    <t>通用符文2</t>
+    <t>锁技</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每拥有一个未分配的技能点都会提供8%/10%/15%的</t>
     </r>
     <r>
@@ -194,10 +200,10 @@
     <t>rune_3</t>
   </si>
   <si>
-    <t>通用符文3</t>
-  </si>
-  <si>
-    <t>基础技能造成的伤害提高75%/125%/200%</t>
+    <t>基础提高</t>
+  </si>
+  <si>
+    <t>基础技能造成的伤害提高%BasicAbilityDmg.Base%</t>
   </si>
   <si>
     <t>BasicAbilityDmg {
@@ -211,10 +217,10 @@
     <t>rune_4</t>
   </si>
   <si>
-    <t>通用符文4</t>
-  </si>
-  <si>
-    <t>所有耗蓝型技能基于消耗的蓝量提升伤害，每消耗最大蓝量的1%，提高伤害2%/3%/5%</t>
+    <t>蓝量转换</t>
+  </si>
+  <si>
+    <t>所有耗蓝型技能基于消耗的蓝量提升伤害，每消耗最大蓝量的1%，提高伤害%value%%%</t>
   </si>
   <si>
     <t>根据当前消耗的蓝量获得伤害</t>
@@ -226,10 +232,10 @@
     <t>rune_5</t>
   </si>
   <si>
-    <t>通用符文5</t>
-  </si>
-  <si>
-    <t>攻击速度提高30%/50%/100%</t>
+    <t>唯快不破</t>
+  </si>
+  <si>
+    <t>攻击速度提高%AttackSpeed.Base%</t>
   </si>
   <si>
     <t>AttackSpeed {
@@ -240,10 +246,10 @@
     <t>rune_6</t>
   </si>
   <si>
-    <t>通用符文6</t>
-  </si>
-  <si>
-    <t>获得10%/20%/30%伤害减免</t>
+    <t>免伤</t>
+  </si>
+  <si>
+    <t>获得%DmgReductionPct.Base%%%伤害减免</t>
   </si>
   <si>
     <t>DmgReductionPct {
@@ -254,10 +260,10 @@
     <t>rune_7</t>
   </si>
   <si>
-    <t>通用符文7</t>
-  </si>
-  <si>
-    <t>每秒额外回复4/8/12点蓝量</t>
+    <t>回蓝效益</t>
+  </si>
+  <si>
+    <t>每秒额外回复%ManaRegen.Base%点蓝量</t>
   </si>
   <si>
     <t>ManaRegen {
@@ -268,10 +274,10 @@
     <t>rune_8</t>
   </si>
   <si>
-    <t>通用符文8</t>
-  </si>
-  <si>
-    <t>使用技能之后，护甲提高1%/2%/3%，持续5秒，可叠加10层</t>
+    <t>甲叠甲</t>
+  </si>
+  <si>
+    <t>使用技能之后，护甲提高%armor_pct%%%，持续%duration%秒，可叠加%max_stack%层</t>
   </si>
   <si>
     <t>使用技能时</t>
@@ -289,10 +295,10 @@
     <t>rune_9</t>
   </si>
   <si>
-    <t>通用符文9</t>
-  </si>
-  <si>
-    <t>移速提高30%，受到伤害后失去该效果8秒</t>
+    <t>快跑</t>
+  </si>
+  <si>
+    <t>移速提高%movespeed%%%，受到伤害后失去该效果8秒</t>
   </si>
   <si>
     <t>收到伤害</t>
@@ -315,10 +321,10 @@
     <t>rune_10</t>
   </si>
   <si>
-    <t>通用符文10</t>
-  </si>
-  <si>
-    <t>每损失10%生命值，提高5%/7%/10%移动速度</t>
+    <t>展示容错</t>
+  </si>
+  <si>
+    <t>每损失10%生命值，提高%ever_hp_pct%%%移动速度</t>
   </si>
   <si>
     <t>周期</t>
@@ -333,10 +339,10 @@
     <t>rune_11</t>
   </si>
   <si>
-    <t>通用符文11</t>
-  </si>
-  <si>
-    <t>击杀敌人时有15%概率获得5%/10%/15%伤害加成，持续5秒，最高5层</t>
+    <t>杀手快感</t>
+  </si>
+  <si>
+    <t>击杀敌人时有%chance%%%概率获得%bp_ingame%%%伤害加成，持续5秒，最高%max_stack%层</t>
   </si>
   <si>
     <t>击杀</t>
@@ -354,15 +360,20 @@
     <t>rune_12</t>
   </si>
   <si>
-    <t>通用符文12</t>
-  </si>
-  <si>
-    <t>获得50%伤害加成，作为代价，在生命值高于30%时，每秒扣除10%最大生命值</t>
+    <t>伤害代价</t>
+  </si>
+  <si>
+    <t>获得%DamageBonusMul.Base%%%伤害加成，作为代价，在生命值高于%last_hp_pct%%%时，每秒扣除%deduct_hp_pct%%%最大生命值</t>
   </si>
   <si>
     <t>3|3</t>
   </si>
   <si>
+    <t>DamageBonusMul {
+"Base" "50"
+}</t>
+  </si>
+  <si>
     <t>last_hp_pct 30</t>
   </si>
   <si>
@@ -372,10 +383,10 @@
     <t>rune_13</t>
   </si>
   <si>
-    <t>通用符文13</t>
-  </si>
-  <si>
-    <t>获得40%技能冷却缩减，但是技能消耗蓝量翻倍</t>
+    <t>冷却代价</t>
+  </si>
+  <si>
+    <t>获得%AbilityCooldown%%%技能冷却缩减，但是技能消耗蓝量翻倍</t>
   </si>
   <si>
     <t>ManaCostRate {
@@ -391,10 +402,10 @@
     <t>rune_14</t>
   </si>
   <si>
-    <t>通用符文14</t>
-  </si>
-  <si>
-    <t>来自于神圣装备的技能造成的伤害提高250%</t>
+    <t>神圣提升</t>
+  </si>
+  <si>
+    <t>来自于神圣装备的技能造成的伤害提高%SacredEquipSkillDmg%%%</t>
   </si>
   <si>
     <t>直接修改</t>
@@ -411,10 +422,10 @@
     <t>rune_15</t>
   </si>
   <si>
-    <t>通用符文15</t>
-  </si>
-  <si>
-    <t>击败敌人时，有15%的概率回复10%/15%/20%已损失生命值</t>
+    <t>吸血本能</t>
+  </si>
+  <si>
+    <t>击败敌人时，有%chance%%%的概率回复%restore_lose_hp%%%已损失生命值</t>
   </si>
   <si>
     <t>restore_lose_hp 10 15 20</t>
@@ -423,10 +434,10 @@
     <t>rune_16</t>
   </si>
   <si>
-    <t>通用符文16</t>
-  </si>
-  <si>
-    <t>每秒会降低5点蓝量，但是蓝量大于50%时，所有技能伤害提高100%</t>
+    <t>法力盈能</t>
+  </si>
+  <si>
+    <t>每秒会降低5点蓝量，但是蓝量大于%last_mana_pct%%%时，所有技能伤害提高%bp_ingame%%%</t>
   </si>
   <si>
     <t>ManaRegen {
@@ -443,10 +454,10 @@
     <t>rune_17</t>
   </si>
   <si>
-    <t>通用符文17</t>
-  </si>
-  <si>
-    <t>击杀敌人时，有22%概率回复11%最大生命值</t>
+    <t>生命补充</t>
+  </si>
+  <si>
+    <t>击杀敌人时，有%chance%%%概率回复%health_pct%%%最大生命值</t>
   </si>
   <si>
     <t>chance 22</t>
@@ -458,10 +469,10 @@
     <t>rune_18</t>
   </si>
   <si>
-    <t>通用符文18</t>
-  </si>
-  <si>
-    <t>获得40%/60%/80%伤害加成，但受到的伤害也会提高50%</t>
+    <t>刀尖舔血</t>
+  </si>
+  <si>
+    <t>获得%DamageBonusMul%%%伤害加成，但受到的伤害也会提高%DmgReductionPct%%%</t>
   </si>
   <si>
     <t>DamageBonusMul {
@@ -477,7 +488,7 @@
     <t>rune_19</t>
   </si>
   <si>
-    <t>通用符文19</t>
+    <t>最大蓝量</t>
   </si>
   <si>
     <t>蓝量提高%MaxMana.Base%</t>
@@ -491,7 +502,7 @@
     <t>rune_20</t>
   </si>
   <si>
-    <t>通用符文20</t>
+    <t>眼疾手快</t>
   </si>
   <si>
     <t>附近每存在一个敌军，提高自身%StackAttackSpeed%攻击速度,最高提升%MaxValue%
@@ -507,7 +518,7 @@
     <t>rune_21</t>
   </si>
   <si>
-    <t>通用符文21</t>
+    <t>移动圣塔</t>
   </si>
   <si>
     <t>击杀敌人时，有8%概率获得随机一种圣塔效果，持续5秒</t>
@@ -516,10 +527,10 @@
     <t>rune_22</t>
   </si>
   <si>
-    <t>通用符文22</t>
-  </si>
-  <si>
-    <t>最大蓝量值蓝量大于100时，每高1点着获得1%伤害减免，最高可获得60%伤害减免</t>
+    <t>蓝量减伤</t>
+  </si>
+  <si>
+    <t>最大蓝量值蓝量大于100时，每高1点着获得1%伤害减免，最高可获得%dmg_reduction_limit%%%伤害减免</t>
   </si>
   <si>
     <t>last_maxmana 100</t>
@@ -534,10 +545,10 @@
     <t>rune_23</t>
   </si>
   <si>
-    <t>通用符文23</t>
-  </si>
-  <si>
-    <t>每损失10%生命值，提高5%/7%/10%伤害加成</t>
+    <t>越挫越勇</t>
+  </si>
+  <si>
+    <t>每损失%ever_hp_pct%%%生命值，提高%ever_dmg_bonus%%%伤害加成</t>
   </si>
   <si>
     <t>ever_dmg_bonus 5 7 10</t>
@@ -546,10 +557,10 @@
     <t>rune_24</t>
   </si>
   <si>
-    <t>通用符文24</t>
-  </si>
-  <si>
-    <t>近距离（自身直径300码以内）没有敌人时，暴击概率提高25%/30%/40%</t>
+    <t>独行侠</t>
+  </si>
+  <si>
+    <t>自身%range_check%码以内没有敌人时，暴击概率提高%crit_chance%%%</t>
   </si>
   <si>
     <t>range_check 300</t>
@@ -561,10 +572,10 @@
     <t>rune_25</t>
   </si>
   <si>
-    <t>通用符文25</t>
-  </si>
-  <si>
-    <t>所有玩家经验值获取率提高25%/30%/40%</t>
+    <t>快速成长</t>
+  </si>
+  <si>
+    <t>所有玩家经验值获取率提高%exp_bonus%%%</t>
   </si>
   <si>
     <t>exp_bonus 25 30 40</t>
@@ -576,12 +587,15 @@
     <t>游侠#1</t>
   </si>
   <si>
-    <t>爆炸箭对生命值高于30%的敌人伤害提高100%</t>
+    <t>爆炸箭对生命值高于%hp_pct%%%的敌人伤害提高%bonus_value%%%</t>
   </si>
   <si>
     <t>1|1</t>
   </si>
   <si>
+    <t>hero/drow/爆炸箭</t>
+  </si>
+  <si>
     <t>hp_pct 30</t>
   </si>
   <si>
@@ -597,6 +611,9 @@
     <t>爆裂箭【浓缩】的触发概率提高至30%，伤害提高至10倍</t>
   </si>
   <si>
+    <t>hero/drow/浓缩</t>
+  </si>
+  <si>
     <t>mul_chance 30</t>
   </si>
   <si>
@@ -612,6 +629,9 @@
     <t>穿透箭基础伤害提高200%</t>
   </si>
   <si>
+    <t>hero/drow/穿透箭</t>
+  </si>
+  <si>
     <t>base_value 200</t>
   </si>
   <si>
@@ -639,6 +659,9 @@
     <t>分裂箭的基础伤害提高200%</t>
   </si>
   <si>
+    <t>hero/drow/分裂箭2</t>
+  </si>
+  <si>
     <t>rune_31</t>
   </si>
   <si>
@@ -648,6 +671,9 @@
     <t>分裂箭对减速的敌人造成的伤害提高200%</t>
   </si>
   <si>
+    <t>hero/drow/分裂箭</t>
+  </si>
+  <si>
     <t>slow_bonus_value 200</t>
   </si>
   <si>
@@ -660,6 +686,9 @@
     <t>连续射击的基础伤害提高200%</t>
   </si>
   <si>
+    <t>hero/drow/连续射击</t>
+  </si>
+  <si>
     <t>rune_33</t>
   </si>
   <si>
@@ -669,6 +698,9 @@
     <t>连续射击【击破】最大层数提高至30层</t>
   </si>
   <si>
+    <t>hero/drow/击破</t>
+  </si>
+  <si>
     <t>max_stack 30</t>
   </si>
   <si>
@@ -681,6 +713,9 @@
     <t>连续射击【冰爆】的伤害提升至500%</t>
   </si>
   <si>
+    <t>hero/drow/冰爆</t>
+  </si>
+  <si>
     <t>bb_dmg 500</t>
   </si>
   <si>
@@ -705,6 +740,9 @@
     <t>散射的基础伤害提高200%</t>
   </si>
   <si>
+    <t>hero/drow/散射</t>
+  </si>
+  <si>
     <t>rune_37</t>
   </si>
   <si>
@@ -714,6 +752,9 @@
     <t>散射【火力覆盖】火元素伤害提高50%</t>
   </si>
   <si>
+    <t>hero/drow/火力覆盖</t>
+  </si>
+  <si>
     <t>fire_bonus 50</t>
   </si>
   <si>
@@ -726,6 +767,9 @@
     <t>双喷再次释放时可以再次触发效果（可套娃）</t>
   </si>
   <si>
+    <t>hero/drow/双喷</t>
+  </si>
+  <si>
     <t>sp_extra 1</t>
   </si>
   <si>
@@ -738,6 +782,9 @@
     <t>散射【痛击】生效时，造成伤害提供至500%，但该次伤害不会再暴击</t>
   </si>
   <si>
+    <t>hero/drow/痛击</t>
+  </si>
+  <si>
     <t>tj_dmg 500</t>
   </si>
   <si>
@@ -750,6 +797,9 @@
     <t>风暴环绕的基础伤害提高100%</t>
   </si>
   <si>
+    <t>hero/drow/风暴环绕</t>
+  </si>
+  <si>
     <t>base_value 100</t>
   </si>
   <si>
@@ -762,6 +812,9 @@
     <t>风暴环绕【疾风】生效时，风元素伤害增加50%</t>
   </si>
   <si>
+    <t>hero/drow/疾风</t>
+  </si>
+  <si>
     <t>wind_bonus 50</t>
   </si>
   <si>
@@ -774,6 +827,9 @@
     <t>风暴环绕【冰雹】会吸附敌人</t>
   </si>
   <si>
+    <t>hero/drow/冰雹</t>
+  </si>
+  <si>
     <t>xifu 1</t>
   </si>
   <si>
@@ -786,6 +842,9 @@
     <t>风暴环绕 【暴雪】记录值提高100%</t>
   </si>
   <si>
+    <t>hero/drow/暴雪</t>
+  </si>
+  <si>
     <t>record_pct_bonus 100</t>
   </si>
   <si>
@@ -798,6 +857,9 @@
     <t>箭雨的基础伤害提高50%</t>
   </si>
   <si>
+    <t>hero/drow/箭雨</t>
+  </si>
+  <si>
     <t>base_value 50</t>
   </si>
   <si>
@@ -810,6 +872,9 @@
     <t>箭雨【燃矢】灼烧伤害提升至200%，持续时间延长至10秒</t>
   </si>
   <si>
+    <t>hero/drow/燃矢</t>
+  </si>
+  <si>
     <t>rs_to_dmg 200</t>
   </si>
   <si>
@@ -825,6 +890,9 @@
     <t>箭雨【集火】最高可叠加层数增加至20层</t>
   </si>
   <si>
+    <t>hero/drow/集火</t>
+  </si>
+  <si>
     <t>jihuo_stack 20</t>
   </si>
   <si>
@@ -837,6 +905,9 @@
     <t>箭雨【急冻】生效时，额外增加的5支箭</t>
   </si>
   <si>
+    <t>hero/drow/急冻</t>
+  </si>
+  <si>
     <t>jidong_bonus 5</t>
   </si>
   <si>
@@ -849,6 +920,9 @@
     <t>使用能量回复后，获得35%伤害减免，持续15秒</t>
   </si>
   <si>
+    <t>hero/drow/能量回复</t>
+  </si>
+  <si>
     <t>dmg_reduction 35</t>
   </si>
   <si>
@@ -874,6 +948,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>复仇持续期间，</t>
     </r>
     <r>
@@ -894,6 +974,9 @@
       </rPr>
       <t>的伤害提高1倍</t>
     </r>
+  </si>
+  <si>
+    <t>hero/drow/复仇</t>
   </si>
   <si>
     <t>base_ability_dmg 100</t>
@@ -1566,7 +1649,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1618,12 +1701,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8EC67F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2190,7 +2267,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2214,16 +2291,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2232,89 +2309,89 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2390,9 +2467,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2417,7 +2491,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2426,7 +2500,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2616,7 +2690,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{21FDA358-3DBF-4AC0-9321-D16E5B2CBEC6}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D219AD03-94B5-4546-8511-CA73A4DAC1A8}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -2928,10 +3002,10 @@
   <sheetPr/>
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A34" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C43" sqref="C43"/>
+      <selection pane="topRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3018,20 +3092,20 @@
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="31" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="45" t="s">
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="44" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3082,13 +3156,13 @@
       <c r="P2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="32">
-        <v>1</v>
-      </c>
-      <c r="R2" s="32">
+      <c r="Q2" s="31">
+        <v>1</v>
+      </c>
+      <c r="R2" s="31">
         <v>2</v>
       </c>
-      <c r="S2" s="32">
+      <c r="S2" s="31">
         <v>3</v>
       </c>
       <c r="T2" s="10">
@@ -3097,22 +3171,22 @@
       <c r="U2" s="10">
         <v>5</v>
       </c>
-      <c r="V2" s="33">
+      <c r="V2" s="32">
         <v>6</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="W2" s="33" t="s">
         <v>32</v>
       </c>
       <c r="X2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="41">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="41">
+      <c r="Y2" s="40">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="40">
         <v>2</v>
       </c>
-      <c r="AA2" s="41">
+      <c r="AA2" s="40">
         <v>3</v>
       </c>
       <c r="AB2" s="15">
@@ -3130,7 +3204,7 @@
       <c r="AF2" s="15">
         <v>8</v>
       </c>
-      <c r="AG2" s="35" t="s">
+      <c r="AG2" s="34" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3166,10 +3240,10 @@
       <c r="K3" s="15">
         <v>1</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N3" s="15" t="s">
@@ -3188,8 +3262,8 @@
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="36"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="35"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="10" t="s">
         <v>42</v>
@@ -3201,7 +3275,7 @@
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
-      <c r="AG3" s="33"/>
+      <c r="AG3" s="32"/>
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:33">
       <c r="A4" s="12" t="s">
@@ -3237,10 +3311,10 @@
       <c r="K4" s="10">
         <v>1</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="27" t="s">
         <v>38</v>
       </c>
       <c r="N4" s="15" t="s">
@@ -3255,8 +3329,8 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="37"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="36"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="15" t="s">
         <v>47</v>
@@ -3268,7 +3342,7 @@
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
       <c r="AF4" s="15"/>
-      <c r="AG4" s="35"/>
+      <c r="AG4" s="34"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="49.5" spans="1:33">
       <c r="A5" s="12" t="s">
@@ -3302,10 +3376,10 @@
       <c r="K5" s="15">
         <v>1</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N5" s="15" t="s">
@@ -3322,8 +3396,8 @@
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="36"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="35"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="10" t="s">
         <v>52</v>
@@ -3335,7 +3409,7 @@
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
-      <c r="AG5" s="33"/>
+      <c r="AG5" s="32"/>
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:33">
       <c r="A6" s="12" t="s">
@@ -3371,10 +3445,10 @@
       <c r="K6" s="10">
         <v>1</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="27" t="s">
         <v>38</v>
       </c>
       <c r="N6" s="15" t="s">
@@ -3389,8 +3463,8 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="37"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="36"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="15" t="s">
         <v>57</v>
@@ -3402,7 +3476,7 @@
       <c r="AD6" s="15"/>
       <c r="AE6" s="15"/>
       <c r="AF6" s="15"/>
-      <c r="AG6" s="35"/>
+      <c r="AG6" s="34"/>
     </row>
     <row r="7" ht="49.5" spans="1:33">
       <c r="A7" s="12" t="s">
@@ -3436,10 +3510,10 @@
       <c r="K7" s="15">
         <v>1</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N7" s="15" t="s">
@@ -3456,8 +3530,8 @@
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="36"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="35"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
@@ -3467,7 +3541,7 @@
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
-      <c r="AG7" s="33"/>
+      <c r="AG7" s="32"/>
     </row>
     <row r="8" ht="49.5" spans="1:33">
       <c r="A8" s="12" t="s">
@@ -3501,10 +3575,10 @@
       <c r="K8" s="10">
         <v>1</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="27" t="s">
         <v>38</v>
       </c>
       <c r="N8" s="15" t="s">
@@ -3521,8 +3595,8 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="37"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="36"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -3532,7 +3606,7 @@
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
       <c r="AF8" s="15"/>
-      <c r="AG8" s="35"/>
+      <c r="AG8" s="34"/>
     </row>
     <row r="9" ht="49.5" spans="1:33">
       <c r="A9" s="12" t="s">
@@ -3566,10 +3640,10 @@
       <c r="K9" s="15">
         <v>1</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N9" s="15" t="s">
@@ -3586,8 +3660,8 @@
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="36"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="35"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
@@ -3597,9 +3671,9 @@
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
-      <c r="AG9" s="33"/>
-    </row>
-    <row r="10" ht="30.5" customHeight="1" spans="1:33">
+      <c r="AG9" s="32"/>
+    </row>
+    <row r="10" ht="33" spans="1:33">
       <c r="A10" s="12" t="s">
         <v>70</v>
       </c>
@@ -3633,10 +3707,10 @@
       <c r="K10" s="10">
         <v>1</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="27" t="s">
         <v>38</v>
       </c>
       <c r="N10" s="15" t="s">
@@ -3651,8 +3725,8 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="37"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="36"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="15" t="s">
         <v>74</v>
@@ -3668,7 +3742,7 @@
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
       <c r="AF10" s="15"/>
-      <c r="AG10" s="35"/>
+      <c r="AG10" s="34"/>
     </row>
     <row r="11" ht="49.5" spans="1:33">
       <c r="A11" s="12" t="s">
@@ -3704,10 +3778,10 @@
       <c r="K11" s="15">
         <v>1</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="M11" s="26" t="s">
         <v>81</v>
       </c>
       <c r="N11" s="15" t="s">
@@ -3724,8 +3798,8 @@
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="36"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="35"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="10" t="s">
         <v>83</v>
@@ -3739,7 +3813,7 @@
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
-      <c r="AG11" s="33"/>
+      <c r="AG11" s="32"/>
     </row>
     <row r="12" ht="30.5" customHeight="1" spans="1:33">
       <c r="A12" s="12" t="s">
@@ -3775,10 +3849,10 @@
       <c r="K12" s="10">
         <v>1</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="27" t="s">
         <v>38</v>
       </c>
       <c r="N12" s="15" t="s">
@@ -3793,8 +3867,8 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="37"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="36"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="15" t="s">
         <v>89</v>
@@ -3808,7 +3882,7 @@
       <c r="AD12" s="15"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="15"/>
-      <c r="AG12" s="35"/>
+      <c r="AG12" s="34"/>
     </row>
     <row r="13" ht="30.5" customHeight="1" spans="1:33">
       <c r="A13" s="12" t="s">
@@ -3844,10 +3918,10 @@
       <c r="K13" s="15">
         <v>1</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="L13" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="27" t="s">
+      <c r="M13" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N13" s="15" t="s">
@@ -3862,8 +3936,8 @@
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="36"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="35"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="10" t="s">
         <v>95</v>
@@ -3881,9 +3955,9 @@
       <c r="AD13" s="10"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
-      <c r="AG13" s="33"/>
-    </row>
-    <row r="14" ht="33" spans="1:33">
+      <c r="AG13" s="32"/>
+    </row>
+    <row r="14" ht="49.5" spans="1:33">
       <c r="A14" s="12" t="s">
         <v>98</v>
       </c>
@@ -3917,10 +3991,10 @@
       <c r="K14" s="10">
         <v>1</v>
       </c>
-      <c r="L14" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" s="28" t="s">
+      <c r="L14" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="27" t="s">
         <v>101</v>
       </c>
       <c r="N14" s="15" t="s">
@@ -3930,19 +4004,21 @@
         <v>0</v>
       </c>
       <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+      <c r="Q14" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="37"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="36"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z14" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
@@ -3950,17 +4026,17 @@
       <c r="AD14" s="15"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="15"/>
-      <c r="AG14" s="35"/>
+      <c r="AG14" s="34"/>
     </row>
     <row r="15" ht="49.5" spans="1:33">
       <c r="A15" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="15">
@@ -3984,10 +4060,10 @@
       <c r="K15" s="15">
         <v>1</v>
       </c>
-      <c r="L15" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="M15" s="27" t="s">
+      <c r="L15" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="26" t="s">
         <v>101</v>
       </c>
       <c r="N15" s="15" t="s">
@@ -3998,16 +4074,16 @@
       </c>
       <c r="P15" s="15"/>
       <c r="Q15" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="36"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="35"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
@@ -4017,20 +4093,20 @@
       <c r="AD15" s="10"/>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
-      <c r="AG15" s="33"/>
+      <c r="AG15" s="32"/>
     </row>
     <row r="16" ht="49.5" spans="1:33">
       <c r="A16" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -4053,10 +4129,10 @@
       <c r="K16" s="10">
         <v>1</v>
       </c>
-      <c r="L16" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="M16" s="28" t="s">
+      <c r="L16" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="27" t="s">
         <v>101</v>
       </c>
       <c r="N16" s="15" t="s">
@@ -4067,17 +4143,17 @@
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="37"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="36"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
@@ -4086,17 +4162,17 @@
       <c r="AD16" s="15"/>
       <c r="AE16" s="15"/>
       <c r="AF16" s="15"/>
-      <c r="AG16" s="35"/>
+      <c r="AG16" s="34"/>
     </row>
     <row r="17" ht="30.5" customHeight="1" spans="1:33">
       <c r="A17" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>94</v>
@@ -4122,10 +4198,10 @@
       <c r="K17" s="15">
         <v>1</v>
       </c>
-      <c r="L17" s="27" t="s">
+      <c r="L17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="27" t="s">
+      <c r="M17" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N17" s="15" t="s">
@@ -4140,14 +4216,14 @@
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="36"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="35"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="10" t="s">
         <v>95</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
@@ -4155,17 +4231,17 @@
       <c r="AD17" s="10"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
-      <c r="AG17" s="33"/>
+      <c r="AG17" s="32"/>
     </row>
     <row r="18" ht="49.5" spans="1:33">
       <c r="A18" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>88</v>
@@ -4191,10 +4267,10 @@
       <c r="K18" s="10">
         <v>1</v>
       </c>
-      <c r="L18" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="M18" s="28" t="s">
+      <c r="L18" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18" s="27" t="s">
         <v>101</v>
       </c>
       <c r="N18" s="15" t="s">
@@ -4205,20 +4281,20 @@
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="37"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="36"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z18" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA18" s="15"/>
       <c r="AB18" s="15"/>
@@ -4226,17 +4302,17 @@
       <c r="AD18" s="15"/>
       <c r="AE18" s="15"/>
       <c r="AF18" s="15"/>
-      <c r="AG18" s="35"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:33">
+      <c r="AG18" s="34"/>
+    </row>
+    <row r="19" ht="33" spans="1:33">
       <c r="A19" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>94</v>
@@ -4262,10 +4338,10 @@
       <c r="K19" s="15">
         <v>1</v>
       </c>
-      <c r="L19" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="M19" s="27" t="s">
+      <c r="L19" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="M19" s="26" t="s">
         <v>101</v>
       </c>
       <c r="N19" s="15" t="s">
@@ -4280,14 +4356,14 @@
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="36"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="35"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
@@ -4295,20 +4371,20 @@
       <c r="AD19" s="10"/>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
-      <c r="AG19" s="33"/>
+      <c r="AG19" s="32"/>
     </row>
     <row r="20" ht="49.5" spans="1:33">
       <c r="A20" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E20" s="10">
         <v>1</v>
@@ -4331,10 +4407,10 @@
       <c r="K20" s="10">
         <v>1</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="M20" s="27" t="s">
         <v>38</v>
       </c>
       <c r="N20" s="15" t="s">
@@ -4345,16 +4421,16 @@
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="37"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="36"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
@@ -4364,17 +4440,17 @@
       <c r="AD20" s="15"/>
       <c r="AE20" s="15"/>
       <c r="AF20" s="15"/>
-      <c r="AG20" s="35"/>
+      <c r="AG20" s="34"/>
     </row>
     <row r="21" ht="49.5" spans="1:33">
       <c r="A21" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15">
@@ -4398,10 +4474,10 @@
       <c r="K21" s="15">
         <v>1</v>
       </c>
-      <c r="L21" s="27" t="s">
+      <c r="L21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="M21" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N21" s="15" t="s">
@@ -4412,14 +4488,14 @@
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="36"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="35"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
@@ -4429,17 +4505,17 @@
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
-      <c r="AG21" s="33"/>
+      <c r="AG21" s="32"/>
     </row>
     <row r="22" ht="49.5" spans="1:33">
       <c r="A22" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>88</v>
@@ -4465,10 +4541,10 @@
       <c r="K22" s="10">
         <v>1</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="M22" s="27" t="s">
         <v>38</v>
       </c>
       <c r="N22" s="15" t="s">
@@ -4483,14 +4559,14 @@
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="37"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="36"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z22" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
@@ -4498,17 +4574,17 @@
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
       <c r="AF22" s="15"/>
-      <c r="AG22" s="35"/>
+      <c r="AG22" s="34"/>
     </row>
     <row r="23" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A23" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>94</v>
@@ -4534,10 +4610,10 @@
       <c r="K23" s="15">
         <v>1</v>
       </c>
-      <c r="L23" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="M23" s="27" t="s">
+      <c r="L23" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" s="26" t="s">
         <v>101</v>
       </c>
       <c r="N23" s="15" t="s">
@@ -4552,8 +4628,8 @@
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="36"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="35"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
@@ -4563,17 +4639,17 @@
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
-      <c r="AG23" s="33"/>
+      <c r="AG23" s="32"/>
     </row>
     <row r="24" ht="30.5" customHeight="1" spans="1:33">
       <c r="A24" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>88</v>
@@ -4599,10 +4675,10 @@
       <c r="K24" s="10">
         <v>1</v>
       </c>
-      <c r="L24" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="M24" s="28" t="s">
+      <c r="L24" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="M24" s="27" t="s">
         <v>101</v>
       </c>
       <c r="N24" s="15" t="s">
@@ -4617,34 +4693,34 @@
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="37"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="36"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z24" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA24" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AB24" s="15"/>
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
       <c r="AF24" s="15"/>
-      <c r="AG24" s="35"/>
+      <c r="AG24" s="34"/>
     </row>
     <row r="25" ht="30.5" customHeight="1" spans="1:33">
       <c r="A25" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>88</v>
@@ -4670,10 +4746,10 @@
       <c r="K25" s="15">
         <v>1</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="L25" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N25" s="15" t="s">
@@ -4688,14 +4764,14 @@
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="36"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="35"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="10" t="s">
         <v>89</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
@@ -4703,17 +4779,17 @@
       <c r="AD25" s="10"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
-      <c r="AG25" s="33"/>
+      <c r="AG25" s="32"/>
     </row>
     <row r="26" ht="30.5" customHeight="1" spans="1:33">
       <c r="A26" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>88</v>
@@ -4739,10 +4815,10 @@
       <c r="K26" s="10">
         <v>1</v>
       </c>
-      <c r="L26" s="28" t="s">
+      <c r="L26" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M26" s="28" t="s">
+      <c r="M26" s="27" t="s">
         <v>38</v>
       </c>
       <c r="N26" s="15" t="s">
@@ -4757,14 +4833,14 @@
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="37"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="36"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z26" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
@@ -4772,20 +4848,20 @@
       <c r="AD26" s="15"/>
       <c r="AE26" s="15"/>
       <c r="AF26" s="15"/>
-      <c r="AG26" s="35"/>
+      <c r="AG26" s="34"/>
     </row>
     <row r="27" ht="30.5" customHeight="1" spans="1:33">
       <c r="A27" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E27" s="15">
         <v>1</v>
@@ -4808,10 +4884,10 @@
       <c r="K27" s="15">
         <v>1</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M27" s="27" t="s">
+      <c r="M27" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N27" s="15" t="s">
@@ -4826,11 +4902,11 @@
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="36"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="35"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
@@ -4839,17 +4915,17 @@
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
-      <c r="AG27" s="33"/>
+      <c r="AG27" s="32"/>
     </row>
     <row r="28" ht="30.5" customHeight="1" spans="1:33">
       <c r="A28" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="10">
@@ -4877,10 +4953,10 @@
         <v>101</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="O28" s="10">
         <v>0</v>
@@ -4891,14 +4967,14 @@
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="37"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="36"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z28" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
@@ -4906,17 +4982,17 @@
       <c r="AD28" s="15"/>
       <c r="AE28" s="15"/>
       <c r="AF28" s="15"/>
-      <c r="AG28" s="35"/>
+      <c r="AG28" s="34"/>
     </row>
     <row r="29" ht="30.5" customHeight="1" spans="1:33">
       <c r="A29" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="15">
@@ -4944,10 +5020,10 @@
         <v>101</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="O29" s="15">
         <v>0</v>
@@ -4958,14 +5034,14 @@
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="36"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="35"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -4973,17 +5049,17 @@
       <c r="AD29" s="10"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
-      <c r="AG29" s="33"/>
+      <c r="AG29" s="32"/>
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:33">
       <c r="A30" s="12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="10">
@@ -5011,10 +5087,10 @@
         <v>101</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="O30" s="10">
         <v>0</v>
@@ -5025,11 +5101,11 @@
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="37"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="36"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
@@ -5038,17 +5114,17 @@
       <c r="AD30" s="15"/>
       <c r="AE30" s="15"/>
       <c r="AF30" s="15"/>
-      <c r="AG30" s="35"/>
+      <c r="AG30" s="34"/>
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:33">
       <c r="A31" s="12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="15">
@@ -5076,10 +5152,10 @@
         <v>101</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="O31" s="15">
         <v>0</v>
@@ -5090,14 +5166,14 @@
       <c r="S31" s="15"/>
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="36"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="35"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
@@ -5105,17 +5181,17 @@
       <c r="AD31" s="10"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
-      <c r="AG31" s="33"/>
+      <c r="AG31" s="32"/>
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:33">
       <c r="A32" s="12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="10">
@@ -5143,10 +5219,10 @@
         <v>101</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="O32" s="10">
         <v>0</v>
@@ -5157,11 +5233,11 @@
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="37"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="36"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Z32" s="15"/>
       <c r="AA32" s="15"/>
@@ -5170,17 +5246,17 @@
       <c r="AD32" s="15"/>
       <c r="AE32" s="15"/>
       <c r="AF32" s="15"/>
-      <c r="AG32" s="35"/>
+      <c r="AG32" s="34"/>
     </row>
     <row r="33" ht="30.5" customHeight="1" spans="1:33">
       <c r="A33" s="12" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="15">
@@ -5208,10 +5284,10 @@
         <v>101</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="O33" s="15">
         <v>0</v>
@@ -5222,11 +5298,11 @@
       <c r="S33" s="15"/>
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="36"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="35"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
@@ -5235,17 +5311,17 @@
       <c r="AD33" s="10"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
-      <c r="AG33" s="33"/>
+      <c r="AG33" s="32"/>
     </row>
     <row r="34" ht="30.5" customHeight="1" spans="1:33">
       <c r="A34" s="12" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="10">
@@ -5273,10 +5349,10 @@
         <v>101</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="O34" s="10">
         <v>0</v>
@@ -5287,11 +5363,11 @@
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="37"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="36"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
@@ -5300,17 +5376,17 @@
       <c r="AD34" s="15"/>
       <c r="AE34" s="15"/>
       <c r="AF34" s="15"/>
-      <c r="AG34" s="35"/>
+      <c r="AG34" s="34"/>
     </row>
     <row r="35" ht="30.5" customHeight="1" spans="1:33">
       <c r="A35" s="12" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="15">
@@ -5338,10 +5414,10 @@
         <v>101</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="O35" s="15">
         <v>0</v>
@@ -5352,11 +5428,11 @@
       <c r="S35" s="15"/>
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="36"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="35"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="10" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
@@ -5365,17 +5441,17 @@
       <c r="AD35" s="10"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
-      <c r="AG35" s="33"/>
+      <c r="AG35" s="32"/>
     </row>
     <row r="36" ht="30.5" customHeight="1" spans="1:33">
       <c r="A36" s="12" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="10">
@@ -5403,10 +5479,10 @@
         <v>101</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="O36" s="10">
         <v>0</v>
@@ -5417,11 +5493,11 @@
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="37"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="36"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="15" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
@@ -5430,17 +5506,17 @@
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
       <c r="AF36" s="15"/>
-      <c r="AG36" s="35"/>
+      <c r="AG36" s="34"/>
     </row>
     <row r="37" ht="30.5" customHeight="1" spans="1:33">
       <c r="A37" s="12" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="15">
@@ -5468,10 +5544,10 @@
         <v>101</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="O37" s="15">
         <v>0</v>
@@ -5482,11 +5558,11 @@
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="36"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="35"/>
       <c r="X37" s="9"/>
       <c r="Y37" s="10" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
@@ -5495,17 +5571,17 @@
       <c r="AD37" s="10"/>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
-      <c r="AG37" s="33"/>
+      <c r="AG37" s="32"/>
     </row>
     <row r="38" ht="31.25" customHeight="1" spans="1:33">
       <c r="A38" s="12" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="10">
@@ -5533,10 +5609,10 @@
         <v>101</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="O38" s="10">
         <v>0</v>
@@ -5547,30 +5623,30 @@
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="37"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="36"/>
       <c r="X38" s="12"/>
-      <c r="Y38" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z38" s="42"/>
-      <c r="AA38" s="42"/>
-      <c r="AB38" s="42"/>
+      <c r="Y38" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z38" s="41"/>
+      <c r="AA38" s="41"/>
+      <c r="AB38" s="41"/>
       <c r="AC38" s="15"/>
       <c r="AD38" s="15"/>
       <c r="AE38" s="15"/>
       <c r="AF38" s="15"/>
-      <c r="AG38" s="35"/>
+      <c r="AG38" s="34"/>
     </row>
     <row r="39" ht="30.5" customHeight="1" spans="1:33">
       <c r="A39" s="12" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="15">
@@ -5598,10 +5674,10 @@
         <v>101</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="O39" s="15">
         <v>0</v>
@@ -5612,30 +5688,30 @@
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="38"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="37"/>
       <c r="Y39" s="10" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="Z39" s="10"/>
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
-      <c r="AC39" s="43"/>
-      <c r="AD39" s="43"/>
-      <c r="AE39" s="43"/>
-      <c r="AF39" s="43"/>
-      <c r="AG39" s="46"/>
+      <c r="AC39" s="42"/>
+      <c r="AD39" s="42"/>
+      <c r="AE39" s="42"/>
+      <c r="AF39" s="42"/>
+      <c r="AG39" s="45"/>
     </row>
     <row r="40" ht="30.5" customHeight="1" spans="1:33">
       <c r="A40" s="12" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="10">
@@ -5663,10 +5739,10 @@
         <v>101</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="O40" s="10">
         <v>0</v>
@@ -5677,30 +5753,30 @@
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="39"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="38"/>
       <c r="Y40" s="15" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="Z40" s="15"/>
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
-      <c r="AC40" s="44"/>
-      <c r="AD40" s="44"/>
-      <c r="AE40" s="44"/>
-      <c r="AF40" s="44"/>
-      <c r="AG40" s="47"/>
+      <c r="AC40" s="43"/>
+      <c r="AD40" s="43"/>
+      <c r="AE40" s="43"/>
+      <c r="AF40" s="43"/>
+      <c r="AG40" s="46"/>
     </row>
     <row r="41" ht="30.5" customHeight="1" spans="1:33">
       <c r="A41" s="12" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="15">
@@ -5728,10 +5804,10 @@
         <v>101</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="O41" s="15">
         <v>0</v>
@@ -5742,30 +5818,30 @@
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="38"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="37"/>
       <c r="Y41" s="10" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Z41" s="10"/>
       <c r="AA41" s="10"/>
       <c r="AB41" s="10"/>
-      <c r="AC41" s="43"/>
-      <c r="AD41" s="43"/>
-      <c r="AE41" s="43"/>
-      <c r="AF41" s="43"/>
-      <c r="AG41" s="46"/>
+      <c r="AC41" s="42"/>
+      <c r="AD41" s="42"/>
+      <c r="AE41" s="42"/>
+      <c r="AF41" s="42"/>
+      <c r="AG41" s="45"/>
     </row>
     <row r="42" ht="30.5" customHeight="1" spans="1:33">
       <c r="A42" s="12" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="10">
@@ -5793,10 +5869,10 @@
         <v>101</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="O42" s="10">
         <v>0</v>
@@ -5807,11 +5883,11 @@
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="37"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="36"/>
       <c r="X42" s="12"/>
       <c r="Y42" s="15" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="Z42" s="15"/>
       <c r="AA42" s="15"/>
@@ -5820,17 +5896,17 @@
       <c r="AD42" s="15"/>
       <c r="AE42" s="15"/>
       <c r="AF42" s="15"/>
-      <c r="AG42" s="35"/>
+      <c r="AG42" s="34"/>
     </row>
     <row r="43" ht="30.5" customHeight="1" spans="1:33">
       <c r="A43" s="12" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="15">
@@ -5858,10 +5934,10 @@
         <v>101</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="O43" s="15">
         <v>0</v>
@@ -5872,30 +5948,30 @@
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="38"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="37"/>
       <c r="Y43" s="10" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="Z43" s="10"/>
       <c r="AA43" s="10"/>
       <c r="AB43" s="10"/>
-      <c r="AC43" s="43"/>
-      <c r="AD43" s="43"/>
-      <c r="AE43" s="43"/>
-      <c r="AF43" s="43"/>
-      <c r="AG43" s="46"/>
+      <c r="AC43" s="42"/>
+      <c r="AD43" s="42"/>
+      <c r="AE43" s="42"/>
+      <c r="AF43" s="42"/>
+      <c r="AG43" s="45"/>
     </row>
     <row r="44" ht="30.5" customHeight="1" spans="1:33">
       <c r="A44" s="12" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="10">
@@ -5923,10 +5999,10 @@
         <v>101</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="O44" s="10">
         <v>0</v>
@@ -5937,30 +6013,30 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
-      <c r="V44" s="33"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="39"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="38"/>
       <c r="Y44" s="15" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
-      <c r="AC44" s="44"/>
-      <c r="AD44" s="44"/>
-      <c r="AE44" s="44"/>
-      <c r="AF44" s="44"/>
-      <c r="AG44" s="47"/>
+      <c r="AC44" s="43"/>
+      <c r="AD44" s="43"/>
+      <c r="AE44" s="43"/>
+      <c r="AF44" s="43"/>
+      <c r="AG44" s="46"/>
     </row>
     <row r="45" ht="30.5" customHeight="1" spans="1:33">
       <c r="A45" s="12" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="15">
@@ -5988,10 +6064,10 @@
         <v>101</v>
       </c>
       <c r="M45" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="O45" s="15">
         <v>0</v>
@@ -6002,30 +6078,30 @@
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="38"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="37"/>
       <c r="Y45" s="10" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
-      <c r="AC45" s="43"/>
-      <c r="AD45" s="43"/>
-      <c r="AE45" s="43"/>
-      <c r="AF45" s="43"/>
-      <c r="AG45" s="46"/>
+      <c r="AC45" s="42"/>
+      <c r="AD45" s="42"/>
+      <c r="AE45" s="42"/>
+      <c r="AF45" s="42"/>
+      <c r="AG45" s="45"/>
     </row>
     <row r="46" ht="30.5" customHeight="1" spans="1:33">
       <c r="A46" s="12" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="10">
@@ -6053,10 +6129,10 @@
         <v>101</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="O46" s="10">
         <v>0</v>
@@ -6067,30 +6143,30 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="39"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="38"/>
       <c r="Y46" s="15" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
       <c r="AB46" s="15"/>
-      <c r="AC46" s="44"/>
-      <c r="AD46" s="44"/>
-      <c r="AE46" s="44"/>
-      <c r="AF46" s="44"/>
-      <c r="AG46" s="47"/>
+      <c r="AC46" s="43"/>
+      <c r="AD46" s="43"/>
+      <c r="AE46" s="43"/>
+      <c r="AF46" s="43"/>
+      <c r="AG46" s="46"/>
     </row>
     <row r="47" ht="30.5" customHeight="1" spans="1:33">
       <c r="A47" s="12" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="15">
@@ -6118,10 +6194,10 @@
         <v>101</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N47" s="15" t="s">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="O47" s="15">
         <v>0</v>
@@ -6132,32 +6208,32 @@
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
       <c r="U47" s="15"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="38"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="37"/>
       <c r="Y47" s="10" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="Z47" s="10" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="AA47" s="10"/>
       <c r="AB47" s="10"/>
-      <c r="AC47" s="43"/>
-      <c r="AD47" s="43"/>
-      <c r="AE47" s="43"/>
-      <c r="AF47" s="43"/>
-      <c r="AG47" s="46"/>
+      <c r="AC47" s="42"/>
+      <c r="AD47" s="42"/>
+      <c r="AE47" s="42"/>
+      <c r="AF47" s="42"/>
+      <c r="AG47" s="45"/>
     </row>
     <row r="48" ht="30.5" customHeight="1" spans="1:33">
       <c r="A48" s="12" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="10">
@@ -6185,10 +6261,10 @@
         <v>101</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N48" s="15" t="s">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="O48" s="10">
         <v>0</v>
@@ -6199,30 +6275,30 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
-      <c r="V48" s="33"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="39"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="38"/>
       <c r="Y48" s="15" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
       <c r="AB48" s="15"/>
-      <c r="AC48" s="44"/>
-      <c r="AD48" s="44"/>
-      <c r="AE48" s="44"/>
-      <c r="AF48" s="44"/>
-      <c r="AG48" s="47"/>
+      <c r="AC48" s="43"/>
+      <c r="AD48" s="43"/>
+      <c r="AE48" s="43"/>
+      <c r="AF48" s="43"/>
+      <c r="AG48" s="46"/>
     </row>
     <row r="49" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A49" s="12" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D49" s="23"/>
       <c r="E49" s="15">
@@ -6250,10 +6326,10 @@
         <v>101</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N49" s="15" t="s">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="O49" s="15">
         <v>0</v>
@@ -6264,30 +6340,30 @@
       <c r="S49" s="15"/>
       <c r="T49" s="15"/>
       <c r="U49" s="15"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="38"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="37"/>
       <c r="Y49" s="10" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="Z49" s="10"/>
       <c r="AA49" s="10"/>
       <c r="AB49" s="10"/>
-      <c r="AC49" s="43"/>
-      <c r="AD49" s="43"/>
-      <c r="AE49" s="43"/>
-      <c r="AF49" s="43"/>
-      <c r="AG49" s="46"/>
+      <c r="AC49" s="42"/>
+      <c r="AD49" s="42"/>
+      <c r="AE49" s="42"/>
+      <c r="AF49" s="42"/>
+      <c r="AG49" s="45"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A50" s="12" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="10">
@@ -6315,10 +6391,10 @@
         <v>101</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N50" s="15" t="s">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="O50" s="10">
         <v>0</v>
@@ -6329,32 +6405,32 @@
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
-      <c r="V50" s="33"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="39"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="38"/>
       <c r="Y50" s="15" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="Z50" s="15" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="AA50" s="15"/>
       <c r="AB50" s="15"/>
-      <c r="AC50" s="44"/>
-      <c r="AD50" s="44"/>
-      <c r="AE50" s="44"/>
-      <c r="AF50" s="44"/>
-      <c r="AG50" s="47"/>
+      <c r="AC50" s="43"/>
+      <c r="AD50" s="43"/>
+      <c r="AE50" s="43"/>
+      <c r="AF50" s="43"/>
+      <c r="AG50" s="46"/>
     </row>
     <row r="51" ht="30.5" customHeight="1" spans="1:33">
       <c r="A51" s="12" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="15">
@@ -6382,10 +6458,10 @@
         <v>101</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N51" s="15" t="s">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="O51" s="15">
         <v>0</v>
@@ -6396,32 +6472,32 @@
       <c r="S51" s="15"/>
       <c r="T51" s="15"/>
       <c r="U51" s="15"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="36"/>
-      <c r="X51" s="38"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="37"/>
       <c r="Y51" s="10" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="Z51" s="10" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="AA51" s="10"/>
       <c r="AB51" s="10"/>
-      <c r="AC51" s="43"/>
-      <c r="AD51" s="43"/>
-      <c r="AE51" s="43"/>
-      <c r="AF51" s="43"/>
-      <c r="AG51" s="46"/>
+      <c r="AC51" s="42"/>
+      <c r="AD51" s="42"/>
+      <c r="AE51" s="42"/>
+      <c r="AF51" s="42"/>
+      <c r="AG51" s="45"/>
     </row>
     <row r="52" ht="30.5" customHeight="1" spans="1:33">
       <c r="A52" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>266</v>
+        <v>287</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>288</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="10">
@@ -6449,10 +6525,10 @@
         <v>101</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N52" s="15" t="s">
-        <v>39</v>
+        <v>290</v>
       </c>
       <c r="O52" s="10">
         <v>0</v>
@@ -6463,30 +6539,30 @@
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
-      <c r="V52" s="33"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="39"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="38"/>
       <c r="Y52" s="15" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="Z52" s="15"/>
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
-      <c r="AC52" s="44"/>
-      <c r="AD52" s="44"/>
-      <c r="AE52" s="44"/>
-      <c r="AF52" s="44"/>
-      <c r="AG52" s="47"/>
+      <c r="AC52" s="43"/>
+      <c r="AD52" s="43"/>
+      <c r="AE52" s="43"/>
+      <c r="AF52" s="43"/>
+      <c r="AG52" s="46"/>
     </row>
     <row r="53" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A53" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>270</v>
+        <v>292</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>293</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="15">
@@ -6514,10 +6590,10 @@
         <v>101</v>
       </c>
       <c r="M53" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N53" s="15" t="s">
-        <v>39</v>
+        <v>290</v>
       </c>
       <c r="O53" s="15">
         <v>0</v>
@@ -6528,32 +6604,32 @@
       <c r="S53" s="15"/>
       <c r="T53" s="15"/>
       <c r="U53" s="15"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="36"/>
-      <c r="X53" s="38"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="37"/>
       <c r="Y53" s="10" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
-      <c r="AC53" s="43"/>
-      <c r="AD53" s="43"/>
-      <c r="AE53" s="43"/>
-      <c r="AF53" s="43"/>
-      <c r="AG53" s="46"/>
+      <c r="AC53" s="42"/>
+      <c r="AD53" s="42"/>
+      <c r="AE53" s="42"/>
+      <c r="AF53" s="42"/>
+      <c r="AG53" s="45"/>
     </row>
     <row r="54" ht="30.5" customHeight="1" spans="1:33">
       <c r="A54" s="12" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="D54" s="26"/>
+        <v>297</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D54" s="25"/>
       <c r="E54" s="10">
         <v>0</v>
       </c>
@@ -6579,7 +6655,7 @@
         <v>101</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N54" s="15" t="s">
         <v>39</v>
@@ -6593,28 +6669,28 @@
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
-      <c r="V54" s="33"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="39"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="38"/>
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
       <c r="AA54" s="15"/>
       <c r="AB54" s="15"/>
-      <c r="AC54" s="44"/>
-      <c r="AD54" s="44"/>
-      <c r="AE54" s="44"/>
-      <c r="AF54" s="44"/>
-      <c r="AG54" s="47"/>
+      <c r="AC54" s="43"/>
+      <c r="AD54" s="43"/>
+      <c r="AE54" s="43"/>
+      <c r="AF54" s="43"/>
+      <c r="AG54" s="46"/>
     </row>
     <row r="55" ht="30.5" customHeight="1" spans="1:33">
       <c r="A55" s="12" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="15">
@@ -6642,7 +6718,7 @@
         <v>101</v>
       </c>
       <c r="M55" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N55" s="15" t="s">
         <v>39</v>
@@ -6656,30 +6732,30 @@
       <c r="S55" s="15"/>
       <c r="T55" s="15"/>
       <c r="U55" s="15"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="38"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="37"/>
       <c r="Y55" s="10"/>
       <c r="Z55" s="10"/>
       <c r="AA55" s="10"/>
       <c r="AB55" s="10"/>
-      <c r="AC55" s="43"/>
-      <c r="AD55" s="43"/>
-      <c r="AE55" s="43"/>
-      <c r="AF55" s="43"/>
-      <c r="AG55" s="46"/>
+      <c r="AC55" s="42"/>
+      <c r="AD55" s="42"/>
+      <c r="AE55" s="42"/>
+      <c r="AF55" s="42"/>
+      <c r="AG55" s="45"/>
     </row>
     <row r="56" ht="30.5" customHeight="1" spans="1:33">
       <c r="A56" s="12" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="D56" s="26"/>
+        <v>303</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D56" s="25"/>
       <c r="E56" s="10">
         <v>0</v>
       </c>
@@ -6705,7 +6781,7 @@
         <v>101</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N56" s="15" t="s">
         <v>39</v>
@@ -6719,28 +6795,28 @@
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
-      <c r="V56" s="33"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="39"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="38"/>
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
       <c r="AA56" s="15"/>
       <c r="AB56" s="15"/>
-      <c r="AC56" s="44"/>
-      <c r="AD56" s="44"/>
-      <c r="AE56" s="44"/>
-      <c r="AF56" s="44"/>
-      <c r="AG56" s="47"/>
+      <c r="AC56" s="43"/>
+      <c r="AD56" s="43"/>
+      <c r="AE56" s="43"/>
+      <c r="AF56" s="43"/>
+      <c r="AG56" s="46"/>
     </row>
     <row r="57" ht="30.5" customHeight="1" spans="1:33">
       <c r="A57" s="12" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="15">
@@ -6768,7 +6844,7 @@
         <v>101</v>
       </c>
       <c r="M57" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N57" s="15" t="s">
         <v>39</v>
@@ -6782,30 +6858,30 @@
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
       <c r="U57" s="15"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="36"/>
-      <c r="X57" s="38"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="37"/>
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
       <c r="AB57" s="10"/>
-      <c r="AC57" s="43"/>
-      <c r="AD57" s="43"/>
-      <c r="AE57" s="43"/>
-      <c r="AF57" s="43"/>
-      <c r="AG57" s="46"/>
+      <c r="AC57" s="42"/>
+      <c r="AD57" s="42"/>
+      <c r="AE57" s="42"/>
+      <c r="AF57" s="42"/>
+      <c r="AG57" s="45"/>
     </row>
     <row r="58" ht="30.5" customHeight="1" spans="1:33">
       <c r="A58" s="12" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="D58" s="26"/>
+        <v>309</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D58" s="25"/>
       <c r="E58" s="10">
         <v>0</v>
       </c>
@@ -6831,7 +6907,7 @@
         <v>101</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N58" s="15" t="s">
         <v>39</v>
@@ -6845,28 +6921,28 @@
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
-      <c r="V58" s="33"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="39"/>
+      <c r="V58" s="32"/>
+      <c r="W58" s="36"/>
+      <c r="X58" s="38"/>
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
       <c r="AA58" s="15"/>
       <c r="AB58" s="15"/>
-      <c r="AC58" s="44"/>
-      <c r="AD58" s="44"/>
-      <c r="AE58" s="44"/>
-      <c r="AF58" s="44"/>
-      <c r="AG58" s="47"/>
+      <c r="AC58" s="43"/>
+      <c r="AD58" s="43"/>
+      <c r="AE58" s="43"/>
+      <c r="AF58" s="43"/>
+      <c r="AG58" s="46"/>
     </row>
     <row r="59" ht="30.5" customHeight="1" spans="1:33">
       <c r="A59" s="12" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="15">
@@ -6894,7 +6970,7 @@
         <v>101</v>
       </c>
       <c r="M59" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N59" s="15" t="s">
         <v>39</v>
@@ -6908,30 +6984,30 @@
       <c r="S59" s="15"/>
       <c r="T59" s="15"/>
       <c r="U59" s="15"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="36"/>
-      <c r="X59" s="38"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="37"/>
       <c r="Y59" s="10"/>
       <c r="Z59" s="10"/>
       <c r="AA59" s="10"/>
       <c r="AB59" s="10"/>
-      <c r="AC59" s="43"/>
-      <c r="AD59" s="43"/>
-      <c r="AE59" s="43"/>
-      <c r="AF59" s="43"/>
-      <c r="AG59" s="46"/>
+      <c r="AC59" s="42"/>
+      <c r="AD59" s="42"/>
+      <c r="AE59" s="42"/>
+      <c r="AF59" s="42"/>
+      <c r="AG59" s="45"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A60" s="12" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="D60" s="26"/>
+        <v>315</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="D60" s="25"/>
       <c r="E60" s="10">
         <v>1</v>
       </c>
@@ -6957,7 +7033,7 @@
         <v>101</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N60" s="15" t="s">
         <v>39</v>
@@ -6971,28 +7047,28 @@
       <c r="S60" s="10"/>
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
-      <c r="V60" s="33"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="39"/>
+      <c r="V60" s="32"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="38"/>
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
       <c r="AA60" s="15"/>
       <c r="AB60" s="15"/>
-      <c r="AC60" s="44"/>
-      <c r="AD60" s="44"/>
-      <c r="AE60" s="44"/>
-      <c r="AF60" s="44"/>
-      <c r="AG60" s="47"/>
+      <c r="AC60" s="43"/>
+      <c r="AD60" s="43"/>
+      <c r="AE60" s="43"/>
+      <c r="AF60" s="43"/>
+      <c r="AG60" s="46"/>
     </row>
     <row r="61" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A61" s="12" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="D61" s="24"/>
       <c r="E61" s="15">
@@ -7020,7 +7096,7 @@
         <v>101</v>
       </c>
       <c r="M61" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N61" s="15" t="s">
         <v>39</v>
@@ -7034,30 +7110,30 @@
       <c r="S61" s="15"/>
       <c r="T61" s="15"/>
       <c r="U61" s="15"/>
-      <c r="V61" s="35"/>
-      <c r="W61" s="36"/>
-      <c r="X61" s="38"/>
+      <c r="V61" s="34"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="37"/>
       <c r="Y61" s="10"/>
       <c r="Z61" s="10"/>
       <c r="AA61" s="10"/>
       <c r="AB61" s="10"/>
-      <c r="AC61" s="43"/>
-      <c r="AD61" s="43"/>
-      <c r="AE61" s="43"/>
-      <c r="AF61" s="43"/>
-      <c r="AG61" s="46"/>
+      <c r="AC61" s="42"/>
+      <c r="AD61" s="42"/>
+      <c r="AE61" s="42"/>
+      <c r="AF61" s="42"/>
+      <c r="AG61" s="45"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A62" s="12" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D62" s="26"/>
+        <v>321</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="D62" s="25"/>
       <c r="E62" s="10">
         <v>0</v>
       </c>
@@ -7083,7 +7159,7 @@
         <v>101</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N62" s="15" t="s">
         <v>39</v>
@@ -7097,28 +7173,28 @@
       <c r="S62" s="10"/>
       <c r="T62" s="10"/>
       <c r="U62" s="10"/>
-      <c r="V62" s="33"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="39"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="38"/>
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
       <c r="AA62" s="15"/>
       <c r="AB62" s="15"/>
-      <c r="AC62" s="44"/>
-      <c r="AD62" s="44"/>
-      <c r="AE62" s="44"/>
-      <c r="AF62" s="44"/>
-      <c r="AG62" s="47"/>
+      <c r="AC62" s="43"/>
+      <c r="AD62" s="43"/>
+      <c r="AE62" s="43"/>
+      <c r="AF62" s="43"/>
+      <c r="AG62" s="46"/>
     </row>
     <row r="63" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A63" s="12" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="D63" s="24"/>
       <c r="E63" s="15">
@@ -7146,7 +7222,7 @@
         <v>101</v>
       </c>
       <c r="M63" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N63" s="15" t="s">
         <v>39</v>
@@ -7160,28 +7236,28 @@
       <c r="S63" s="15"/>
       <c r="T63" s="15"/>
       <c r="U63" s="15"/>
-      <c r="V63" s="35"/>
-      <c r="W63" s="36"/>
-      <c r="X63" s="38"/>
+      <c r="V63" s="34"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="37"/>
       <c r="Y63" s="10"/>
       <c r="Z63" s="10"/>
       <c r="AA63" s="10"/>
       <c r="AB63" s="10"/>
-      <c r="AC63" s="43"/>
-      <c r="AD63" s="43"/>
-      <c r="AE63" s="43"/>
-      <c r="AF63" s="43"/>
-      <c r="AG63" s="46"/>
+      <c r="AC63" s="42"/>
+      <c r="AD63" s="42"/>
+      <c r="AE63" s="42"/>
+      <c r="AF63" s="42"/>
+      <c r="AG63" s="45"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A64" s="12" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="D64" s="22"/>
       <c r="E64" s="10">
@@ -7209,7 +7285,7 @@
         <v>101</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N64" s="15" t="s">
         <v>39</v>
@@ -7223,28 +7299,28 @@
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
       <c r="U64" s="10"/>
-      <c r="V64" s="33"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="39"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="38"/>
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
       <c r="AA64" s="15"/>
       <c r="AB64" s="15"/>
-      <c r="AC64" s="44"/>
-      <c r="AD64" s="44"/>
-      <c r="AE64" s="44"/>
-      <c r="AF64" s="44"/>
-      <c r="AG64" s="47"/>
+      <c r="AC64" s="43"/>
+      <c r="AD64" s="43"/>
+      <c r="AE64" s="43"/>
+      <c r="AF64" s="43"/>
+      <c r="AG64" s="46"/>
     </row>
     <row r="65" ht="30.5" customHeight="1" spans="1:33">
       <c r="A65" s="12" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="15">
@@ -7272,7 +7348,7 @@
         <v>101</v>
       </c>
       <c r="M65" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N65" s="15" t="s">
         <v>39</v>
@@ -7286,28 +7362,28 @@
       <c r="S65" s="15"/>
       <c r="T65" s="15"/>
       <c r="U65" s="15"/>
-      <c r="V65" s="35"/>
-      <c r="W65" s="36"/>
-      <c r="X65" s="38"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="37"/>
       <c r="Y65" s="10"/>
       <c r="Z65" s="10"/>
       <c r="AA65" s="10"/>
       <c r="AB65" s="10"/>
-      <c r="AC65" s="43"/>
-      <c r="AD65" s="43"/>
-      <c r="AE65" s="43"/>
-      <c r="AF65" s="43"/>
-      <c r="AG65" s="46"/>
+      <c r="AC65" s="42"/>
+      <c r="AD65" s="42"/>
+      <c r="AE65" s="42"/>
+      <c r="AF65" s="42"/>
+      <c r="AG65" s="45"/>
     </row>
     <row r="66" ht="30.5" customHeight="1" spans="1:33">
       <c r="A66" s="12" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="10">
@@ -7335,7 +7411,7 @@
         <v>101</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N66" s="15" t="s">
         <v>39</v>
@@ -7349,28 +7425,28 @@
       <c r="S66" s="10"/>
       <c r="T66" s="10"/>
       <c r="U66" s="10"/>
-      <c r="V66" s="33"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="39"/>
+      <c r="V66" s="32"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="38"/>
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
       <c r="AA66" s="15"/>
       <c r="AB66" s="15"/>
-      <c r="AC66" s="44"/>
-      <c r="AD66" s="44"/>
-      <c r="AE66" s="44"/>
-      <c r="AF66" s="44"/>
-      <c r="AG66" s="47"/>
+      <c r="AC66" s="43"/>
+      <c r="AD66" s="43"/>
+      <c r="AE66" s="43"/>
+      <c r="AF66" s="43"/>
+      <c r="AG66" s="46"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A67" s="12" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="15">
@@ -7398,7 +7474,7 @@
         <v>101</v>
       </c>
       <c r="M67" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N67" s="15" t="s">
         <v>39</v>
@@ -7412,28 +7488,28 @@
       <c r="S67" s="15"/>
       <c r="T67" s="15"/>
       <c r="U67" s="15"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="36"/>
-      <c r="X67" s="38"/>
+      <c r="V67" s="34"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="37"/>
       <c r="Y67" s="10"/>
       <c r="Z67" s="10"/>
       <c r="AA67" s="10"/>
       <c r="AB67" s="10"/>
-      <c r="AC67" s="43"/>
-      <c r="AD67" s="43"/>
-      <c r="AE67" s="43"/>
-      <c r="AF67" s="43"/>
-      <c r="AG67" s="46"/>
+      <c r="AC67" s="42"/>
+      <c r="AD67" s="42"/>
+      <c r="AE67" s="42"/>
+      <c r="AF67" s="42"/>
+      <c r="AG67" s="45"/>
     </row>
     <row r="68" ht="30.5" customHeight="1" spans="1:33">
       <c r="A68" s="12" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="10">
@@ -7461,7 +7537,7 @@
         <v>101</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N68" s="15" t="s">
         <v>39</v>
@@ -7475,28 +7551,28 @@
       <c r="S68" s="10"/>
       <c r="T68" s="10"/>
       <c r="U68" s="10"/>
-      <c r="V68" s="33"/>
-      <c r="W68" s="37"/>
-      <c r="X68" s="39"/>
+      <c r="V68" s="32"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="38"/>
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
-      <c r="AC68" s="44"/>
-      <c r="AD68" s="44"/>
-      <c r="AE68" s="44"/>
-      <c r="AF68" s="44"/>
-      <c r="AG68" s="47"/>
+      <c r="AC68" s="43"/>
+      <c r="AD68" s="43"/>
+      <c r="AE68" s="43"/>
+      <c r="AF68" s="43"/>
+      <c r="AG68" s="46"/>
     </row>
     <row r="69" ht="30.5" customHeight="1" spans="1:33">
       <c r="A69" s="12" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="15">
@@ -7524,7 +7600,7 @@
         <v>101</v>
       </c>
       <c r="M69" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N69" s="15" t="s">
         <v>39</v>
@@ -7538,28 +7614,28 @@
       <c r="S69" s="15"/>
       <c r="T69" s="15"/>
       <c r="U69" s="15"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="36"/>
-      <c r="X69" s="38"/>
+      <c r="V69" s="34"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="37"/>
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
       <c r="AA69" s="10"/>
       <c r="AB69" s="10"/>
-      <c r="AC69" s="43"/>
-      <c r="AD69" s="43"/>
-      <c r="AE69" s="43"/>
-      <c r="AF69" s="43"/>
-      <c r="AG69" s="46"/>
+      <c r="AC69" s="42"/>
+      <c r="AD69" s="42"/>
+      <c r="AE69" s="42"/>
+      <c r="AF69" s="42"/>
+      <c r="AG69" s="45"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A70" s="12" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="D70" s="22"/>
       <c r="E70" s="10">
@@ -7587,7 +7663,7 @@
         <v>101</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N70" s="15" t="s">
         <v>39</v>
@@ -7601,28 +7677,28 @@
       <c r="S70" s="10"/>
       <c r="T70" s="10"/>
       <c r="U70" s="10"/>
-      <c r="V70" s="33"/>
-      <c r="W70" s="37"/>
-      <c r="X70" s="39"/>
+      <c r="V70" s="32"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="38"/>
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
       <c r="AA70" s="15"/>
       <c r="AB70" s="15"/>
-      <c r="AC70" s="44"/>
-      <c r="AD70" s="44"/>
-      <c r="AE70" s="44"/>
-      <c r="AF70" s="44"/>
-      <c r="AG70" s="47"/>
+      <c r="AC70" s="43"/>
+      <c r="AD70" s="43"/>
+      <c r="AE70" s="43"/>
+      <c r="AF70" s="43"/>
+      <c r="AG70" s="46"/>
     </row>
     <row r="71" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A71" s="12" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="15">
@@ -7650,7 +7726,7 @@
         <v>101</v>
       </c>
       <c r="M71" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N71" s="15" t="s">
         <v>39</v>
@@ -7664,28 +7740,28 @@
       <c r="S71" s="15"/>
       <c r="T71" s="15"/>
       <c r="U71" s="15"/>
-      <c r="V71" s="35"/>
-      <c r="W71" s="36"/>
-      <c r="X71" s="38"/>
+      <c r="V71" s="34"/>
+      <c r="W71" s="35"/>
+      <c r="X71" s="37"/>
       <c r="Y71" s="10"/>
       <c r="Z71" s="10"/>
       <c r="AA71" s="10"/>
       <c r="AB71" s="10"/>
-      <c r="AC71" s="43"/>
-      <c r="AD71" s="43"/>
-      <c r="AE71" s="43"/>
-      <c r="AF71" s="43"/>
-      <c r="AG71" s="46"/>
+      <c r="AC71" s="42"/>
+      <c r="AD71" s="42"/>
+      <c r="AE71" s="42"/>
+      <c r="AF71" s="42"/>
+      <c r="AG71" s="45"/>
     </row>
     <row r="72" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A72" s="12" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="D72" s="22"/>
       <c r="E72" s="10">
@@ -7713,7 +7789,7 @@
         <v>101</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N72" s="15" t="s">
         <v>39</v>
@@ -7727,28 +7803,28 @@
       <c r="S72" s="10"/>
       <c r="T72" s="10"/>
       <c r="U72" s="10"/>
-      <c r="V72" s="33"/>
-      <c r="W72" s="37"/>
-      <c r="X72" s="39"/>
+      <c r="V72" s="32"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="38"/>
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
       <c r="AA72" s="15"/>
       <c r="AB72" s="15"/>
-      <c r="AC72" s="44"/>
-      <c r="AD72" s="44"/>
-      <c r="AE72" s="44"/>
-      <c r="AF72" s="44"/>
-      <c r="AG72" s="47"/>
+      <c r="AC72" s="43"/>
+      <c r="AD72" s="43"/>
+      <c r="AE72" s="43"/>
+      <c r="AF72" s="43"/>
+      <c r="AG72" s="46"/>
     </row>
     <row r="73" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A73" s="12" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="15">
@@ -7776,7 +7852,7 @@
         <v>101</v>
       </c>
       <c r="M73" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N73" s="15" t="s">
         <v>39</v>
@@ -7790,28 +7866,28 @@
       <c r="S73" s="15"/>
       <c r="T73" s="15"/>
       <c r="U73" s="15"/>
-      <c r="V73" s="35"/>
-      <c r="W73" s="36"/>
-      <c r="X73" s="38"/>
+      <c r="V73" s="34"/>
+      <c r="W73" s="35"/>
+      <c r="X73" s="37"/>
       <c r="Y73" s="10"/>
       <c r="Z73" s="10"/>
       <c r="AA73" s="10"/>
       <c r="AB73" s="10"/>
-      <c r="AC73" s="43"/>
-      <c r="AD73" s="43"/>
-      <c r="AE73" s="43"/>
-      <c r="AF73" s="43"/>
-      <c r="AG73" s="46"/>
+      <c r="AC73" s="42"/>
+      <c r="AD73" s="42"/>
+      <c r="AE73" s="42"/>
+      <c r="AF73" s="42"/>
+      <c r="AG73" s="45"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A74" s="12" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="10">
@@ -7839,7 +7915,7 @@
         <v>101</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N74" s="15" t="s">
         <v>39</v>
@@ -7853,28 +7929,28 @@
       <c r="S74" s="10"/>
       <c r="T74" s="10"/>
       <c r="U74" s="10"/>
-      <c r="V74" s="33"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="39"/>
+      <c r="V74" s="32"/>
+      <c r="W74" s="36"/>
+      <c r="X74" s="38"/>
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
       <c r="AA74" s="15"/>
       <c r="AB74" s="15"/>
-      <c r="AC74" s="44"/>
-      <c r="AD74" s="44"/>
-      <c r="AE74" s="44"/>
-      <c r="AF74" s="44"/>
-      <c r="AG74" s="47"/>
+      <c r="AC74" s="43"/>
+      <c r="AD74" s="43"/>
+      <c r="AE74" s="43"/>
+      <c r="AF74" s="43"/>
+      <c r="AG74" s="46"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="31.25" customHeight="1" spans="1:33">
       <c r="A75" s="12" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" s="15">
@@ -7902,7 +7978,7 @@
         <v>101</v>
       </c>
       <c r="M75" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N75" s="15" t="s">
         <v>39</v>
@@ -7916,28 +7992,28 @@
       <c r="S75" s="15"/>
       <c r="T75" s="15"/>
       <c r="U75" s="15"/>
-      <c r="V75" s="35"/>
-      <c r="W75" s="36"/>
-      <c r="X75" s="38"/>
-      <c r="Y75" s="52"/>
-      <c r="Z75" s="52"/>
-      <c r="AA75" s="52"/>
-      <c r="AB75" s="52"/>
-      <c r="AC75" s="52"/>
-      <c r="AD75" s="52"/>
-      <c r="AE75" s="43"/>
-      <c r="AF75" s="43"/>
-      <c r="AG75" s="46"/>
+      <c r="V75" s="34"/>
+      <c r="W75" s="35"/>
+      <c r="X75" s="37"/>
+      <c r="Y75" s="51"/>
+      <c r="Z75" s="51"/>
+      <c r="AA75" s="51"/>
+      <c r="AB75" s="51"/>
+      <c r="AC75" s="51"/>
+      <c r="AD75" s="51"/>
+      <c r="AE75" s="42"/>
+      <c r="AF75" s="42"/>
+      <c r="AG75" s="45"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A76" s="12" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="10">
@@ -7965,7 +8041,7 @@
         <v>101</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N76" s="15" t="s">
         <v>39</v>
@@ -7979,28 +8055,28 @@
       <c r="S76" s="10"/>
       <c r="T76" s="10"/>
       <c r="U76" s="10"/>
-      <c r="V76" s="33"/>
-      <c r="W76" s="37"/>
-      <c r="X76" s="39"/>
+      <c r="V76" s="32"/>
+      <c r="W76" s="36"/>
+      <c r="X76" s="38"/>
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
       <c r="AA76" s="15"/>
       <c r="AB76" s="15"/>
       <c r="AC76" s="15"/>
       <c r="AD76" s="15"/>
-      <c r="AE76" s="44"/>
-      <c r="AF76" s="44"/>
-      <c r="AG76" s="47"/>
+      <c r="AE76" s="43"/>
+      <c r="AF76" s="43"/>
+      <c r="AG76" s="46"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A77" s="12" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" s="15">
@@ -8028,7 +8104,7 @@
         <v>101</v>
       </c>
       <c r="M77" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N77" s="15" t="s">
         <v>39</v>
@@ -8042,28 +8118,28 @@
       <c r="S77" s="15"/>
       <c r="T77" s="15"/>
       <c r="U77" s="15"/>
-      <c r="V77" s="35"/>
-      <c r="W77" s="36"/>
-      <c r="X77" s="38"/>
+      <c r="V77" s="34"/>
+      <c r="W77" s="35"/>
+      <c r="X77" s="37"/>
       <c r="Y77" s="10"/>
       <c r="Z77" s="10"/>
       <c r="AA77" s="10"/>
       <c r="AB77" s="10"/>
       <c r="AC77" s="10"/>
       <c r="AD77" s="10"/>
-      <c r="AE77" s="43"/>
-      <c r="AF77" s="43"/>
-      <c r="AG77" s="46"/>
+      <c r="AE77" s="42"/>
+      <c r="AF77" s="42"/>
+      <c r="AG77" s="45"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A78" s="12" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="10">
@@ -8091,7 +8167,7 @@
         <v>101</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N78" s="15" t="s">
         <v>39</v>
@@ -8105,28 +8181,28 @@
       <c r="S78" s="10"/>
       <c r="T78" s="10"/>
       <c r="U78" s="10"/>
-      <c r="V78" s="33"/>
-      <c r="W78" s="37"/>
-      <c r="X78" s="39"/>
+      <c r="V78" s="32"/>
+      <c r="W78" s="36"/>
+      <c r="X78" s="38"/>
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
       <c r="AA78" s="15"/>
       <c r="AB78" s="15"/>
       <c r="AC78" s="15"/>
       <c r="AD78" s="15"/>
-      <c r="AE78" s="44"/>
-      <c r="AF78" s="44"/>
-      <c r="AG78" s="47"/>
+      <c r="AE78" s="43"/>
+      <c r="AF78" s="43"/>
+      <c r="AG78" s="46"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A79" s="12" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="D79" s="23"/>
       <c r="E79" s="15">
@@ -8154,7 +8230,7 @@
         <v>101</v>
       </c>
       <c r="M79" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N79" s="15" t="s">
         <v>39</v>
@@ -8168,28 +8244,28 @@
       <c r="S79" s="15"/>
       <c r="T79" s="15"/>
       <c r="U79" s="15"/>
-      <c r="V79" s="35"/>
-      <c r="W79" s="36"/>
-      <c r="X79" s="38"/>
+      <c r="V79" s="34"/>
+      <c r="W79" s="35"/>
+      <c r="X79" s="37"/>
       <c r="Y79" s="10"/>
       <c r="Z79" s="10"/>
       <c r="AA79" s="10"/>
       <c r="AB79" s="10"/>
       <c r="AC79" s="10"/>
       <c r="AD79" s="10"/>
-      <c r="AE79" s="43"/>
-      <c r="AF79" s="43"/>
-      <c r="AG79" s="46"/>
+      <c r="AE79" s="42"/>
+      <c r="AF79" s="42"/>
+      <c r="AG79" s="45"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A80" s="12" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="D80" s="22"/>
       <c r="E80" s="10">
@@ -8217,7 +8293,7 @@
         <v>101</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N80" s="15" t="s">
         <v>39</v>
@@ -8231,28 +8307,28 @@
       <c r="S80" s="10"/>
       <c r="T80" s="10"/>
       <c r="U80" s="10"/>
-      <c r="V80" s="33"/>
-      <c r="W80" s="37"/>
-      <c r="X80" s="39"/>
+      <c r="V80" s="32"/>
+      <c r="W80" s="36"/>
+      <c r="X80" s="38"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
       <c r="AA80" s="15"/>
       <c r="AB80" s="15"/>
       <c r="AC80" s="15"/>
       <c r="AD80" s="15"/>
-      <c r="AE80" s="44"/>
-      <c r="AF80" s="44"/>
-      <c r="AG80" s="47"/>
+      <c r="AE80" s="43"/>
+      <c r="AF80" s="43"/>
+      <c r="AG80" s="46"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A81" s="12" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" s="15">
@@ -8280,7 +8356,7 @@
         <v>101</v>
       </c>
       <c r="M81" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N81" s="15" t="s">
         <v>39</v>
@@ -8294,28 +8370,28 @@
       <c r="S81" s="15"/>
       <c r="T81" s="15"/>
       <c r="U81" s="15"/>
-      <c r="V81" s="35"/>
-      <c r="W81" s="36"/>
-      <c r="X81" s="38"/>
+      <c r="V81" s="34"/>
+      <c r="W81" s="35"/>
+      <c r="X81" s="37"/>
       <c r="Y81" s="10"/>
       <c r="Z81" s="10"/>
       <c r="AA81" s="10"/>
       <c r="AB81" s="10"/>
       <c r="AC81" s="10"/>
       <c r="AD81" s="10"/>
-      <c r="AE81" s="43"/>
-      <c r="AF81" s="43"/>
-      <c r="AG81" s="46"/>
+      <c r="AE81" s="42"/>
+      <c r="AF81" s="42"/>
+      <c r="AG81" s="45"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A82" s="12" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="D82" s="22"/>
       <c r="E82" s="10">
@@ -8343,7 +8419,7 @@
         <v>101</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N82" s="15" t="s">
         <v>39</v>
@@ -8357,28 +8433,28 @@
       <c r="S82" s="10"/>
       <c r="T82" s="10"/>
       <c r="U82" s="10"/>
-      <c r="V82" s="33"/>
-      <c r="W82" s="37"/>
-      <c r="X82" s="39"/>
+      <c r="V82" s="32"/>
+      <c r="W82" s="36"/>
+      <c r="X82" s="38"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
       <c r="AA82" s="15"/>
       <c r="AB82" s="15"/>
       <c r="AC82" s="15"/>
       <c r="AD82" s="15"/>
-      <c r="AE82" s="44"/>
-      <c r="AF82" s="44"/>
-      <c r="AG82" s="47"/>
+      <c r="AE82" s="43"/>
+      <c r="AF82" s="43"/>
+      <c r="AG82" s="46"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A83" s="12" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" s="15">
@@ -8406,7 +8482,7 @@
         <v>101</v>
       </c>
       <c r="M83" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N83" s="15" t="s">
         <v>39</v>
@@ -8420,28 +8496,28 @@
       <c r="S83" s="15"/>
       <c r="T83" s="15"/>
       <c r="U83" s="15"/>
-      <c r="V83" s="35"/>
-      <c r="W83" s="36"/>
-      <c r="X83" s="38"/>
+      <c r="V83" s="34"/>
+      <c r="W83" s="35"/>
+      <c r="X83" s="37"/>
       <c r="Y83" s="10"/>
       <c r="Z83" s="10"/>
       <c r="AA83" s="10"/>
       <c r="AB83" s="10"/>
       <c r="AC83" s="10"/>
       <c r="AD83" s="10"/>
-      <c r="AE83" s="43"/>
-      <c r="AF83" s="43"/>
-      <c r="AG83" s="46"/>
+      <c r="AE83" s="42"/>
+      <c r="AF83" s="42"/>
+      <c r="AG83" s="45"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A84" s="12" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="10">
@@ -8469,7 +8545,7 @@
         <v>101</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N84" s="15" t="s">
         <v>39</v>
@@ -8483,28 +8559,28 @@
       <c r="S84" s="10"/>
       <c r="T84" s="10"/>
       <c r="U84" s="10"/>
-      <c r="V84" s="33"/>
-      <c r="W84" s="37"/>
-      <c r="X84" s="39"/>
+      <c r="V84" s="32"/>
+      <c r="W84" s="36"/>
+      <c r="X84" s="38"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
       <c r="AA84" s="15"/>
       <c r="AB84" s="15"/>
       <c r="AC84" s="15"/>
       <c r="AD84" s="15"/>
-      <c r="AE84" s="44"/>
-      <c r="AF84" s="44"/>
-      <c r="AG84" s="47"/>
+      <c r="AE84" s="43"/>
+      <c r="AF84" s="43"/>
+      <c r="AG84" s="46"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A85" s="12" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="D85" s="23"/>
       <c r="E85" s="15">
@@ -8532,7 +8608,7 @@
         <v>101</v>
       </c>
       <c r="M85" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N85" s="15" t="s">
         <v>39</v>
@@ -8546,28 +8622,28 @@
       <c r="S85" s="15"/>
       <c r="T85" s="15"/>
       <c r="U85" s="15"/>
-      <c r="V85" s="35"/>
-      <c r="W85" s="36"/>
-      <c r="X85" s="38"/>
+      <c r="V85" s="34"/>
+      <c r="W85" s="35"/>
+      <c r="X85" s="37"/>
       <c r="Y85" s="10"/>
       <c r="Z85" s="10"/>
       <c r="AA85" s="10"/>
       <c r="AB85" s="10"/>
       <c r="AC85" s="10"/>
       <c r="AD85" s="10"/>
-      <c r="AE85" s="43"/>
-      <c r="AF85" s="43"/>
-      <c r="AG85" s="46"/>
+      <c r="AE85" s="42"/>
+      <c r="AF85" s="42"/>
+      <c r="AG85" s="45"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A86" s="12" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="10">
@@ -8595,7 +8671,7 @@
         <v>101</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N86" s="15" t="s">
         <v>39</v>
@@ -8609,28 +8685,28 @@
       <c r="S86" s="10"/>
       <c r="T86" s="10"/>
       <c r="U86" s="10"/>
-      <c r="V86" s="33"/>
-      <c r="W86" s="37"/>
-      <c r="X86" s="39"/>
+      <c r="V86" s="32"/>
+      <c r="W86" s="36"/>
+      <c r="X86" s="38"/>
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
       <c r="AA86" s="15"/>
       <c r="AB86" s="15"/>
       <c r="AC86" s="15"/>
       <c r="AD86" s="15"/>
-      <c r="AE86" s="44"/>
-      <c r="AF86" s="44"/>
-      <c r="AG86" s="47"/>
+      <c r="AE86" s="43"/>
+      <c r="AF86" s="43"/>
+      <c r="AG86" s="46"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A87" s="12" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="15">
@@ -8658,7 +8734,7 @@
         <v>101</v>
       </c>
       <c r="M87" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N87" s="15" t="s">
         <v>39</v>
@@ -8672,28 +8748,28 @@
       <c r="S87" s="15"/>
       <c r="T87" s="15"/>
       <c r="U87" s="15"/>
-      <c r="V87" s="35"/>
-      <c r="W87" s="36"/>
-      <c r="X87" s="38"/>
+      <c r="V87" s="34"/>
+      <c r="W87" s="35"/>
+      <c r="X87" s="37"/>
       <c r="Y87" s="10"/>
       <c r="Z87" s="10"/>
       <c r="AA87" s="10"/>
       <c r="AB87" s="10"/>
       <c r="AC87" s="10"/>
       <c r="AD87" s="10"/>
-      <c r="AE87" s="43"/>
-      <c r="AF87" s="43"/>
-      <c r="AG87" s="46"/>
+      <c r="AE87" s="42"/>
+      <c r="AF87" s="42"/>
+      <c r="AG87" s="45"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A88" s="12" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="D88" s="22"/>
       <c r="E88" s="10">
@@ -8721,7 +8797,7 @@
         <v>101</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N88" s="15" t="s">
         <v>39</v>
@@ -8735,28 +8811,28 @@
       <c r="S88" s="10"/>
       <c r="T88" s="10"/>
       <c r="U88" s="10"/>
-      <c r="V88" s="33"/>
-      <c r="W88" s="37"/>
-      <c r="X88" s="39"/>
+      <c r="V88" s="32"/>
+      <c r="W88" s="36"/>
+      <c r="X88" s="38"/>
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
       <c r="AA88" s="15"/>
       <c r="AB88" s="15"/>
       <c r="AC88" s="15"/>
       <c r="AD88" s="15"/>
-      <c r="AE88" s="44"/>
-      <c r="AF88" s="44"/>
-      <c r="AG88" s="47"/>
+      <c r="AE88" s="43"/>
+      <c r="AF88" s="43"/>
+      <c r="AG88" s="46"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A89" s="12" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="D89" s="23"/>
       <c r="E89" s="15">
@@ -8784,7 +8860,7 @@
         <v>101</v>
       </c>
       <c r="M89" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N89" s="15" t="s">
         <v>39</v>
@@ -8798,28 +8874,28 @@
       <c r="S89" s="15"/>
       <c r="T89" s="15"/>
       <c r="U89" s="15"/>
-      <c r="V89" s="35"/>
-      <c r="W89" s="36"/>
-      <c r="X89" s="38"/>
+      <c r="V89" s="34"/>
+      <c r="W89" s="35"/>
+      <c r="X89" s="37"/>
       <c r="Y89" s="10"/>
       <c r="Z89" s="10"/>
       <c r="AA89" s="10"/>
       <c r="AB89" s="10"/>
       <c r="AC89" s="10"/>
       <c r="AD89" s="10"/>
-      <c r="AE89" s="43"/>
-      <c r="AF89" s="43"/>
-      <c r="AG89" s="46"/>
+      <c r="AE89" s="42"/>
+      <c r="AF89" s="42"/>
+      <c r="AG89" s="45"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A90" s="12" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="D90" s="22"/>
       <c r="E90" s="10">
@@ -8847,7 +8923,7 @@
         <v>101</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N90" s="15" t="s">
         <v>39</v>
@@ -8861,28 +8937,28 @@
       <c r="S90" s="10"/>
       <c r="T90" s="10"/>
       <c r="U90" s="10"/>
-      <c r="V90" s="33"/>
-      <c r="W90" s="37"/>
-      <c r="X90" s="39"/>
+      <c r="V90" s="32"/>
+      <c r="W90" s="36"/>
+      <c r="X90" s="38"/>
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
       <c r="AA90" s="15"/>
       <c r="AB90" s="15"/>
       <c r="AC90" s="15"/>
       <c r="AD90" s="15"/>
-      <c r="AE90" s="44"/>
-      <c r="AF90" s="44"/>
-      <c r="AG90" s="47"/>
+      <c r="AE90" s="43"/>
+      <c r="AF90" s="43"/>
+      <c r="AG90" s="46"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A91" s="12" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="D91" s="23"/>
       <c r="E91" s="15">
@@ -8910,7 +8986,7 @@
         <v>101</v>
       </c>
       <c r="M91" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N91" s="15" t="s">
         <v>39</v>
@@ -8924,28 +9000,28 @@
       <c r="S91" s="15"/>
       <c r="T91" s="15"/>
       <c r="U91" s="15"/>
-      <c r="V91" s="35"/>
-      <c r="W91" s="36"/>
-      <c r="X91" s="38"/>
+      <c r="V91" s="34"/>
+      <c r="W91" s="35"/>
+      <c r="X91" s="37"/>
       <c r="Y91" s="10"/>
       <c r="Z91" s="10"/>
       <c r="AA91" s="10"/>
       <c r="AB91" s="10"/>
       <c r="AC91" s="10"/>
       <c r="AD91" s="10"/>
-      <c r="AE91" s="43"/>
-      <c r="AF91" s="43"/>
-      <c r="AG91" s="46"/>
+      <c r="AE91" s="42"/>
+      <c r="AF91" s="42"/>
+      <c r="AG91" s="45"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A92" s="12" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="D92" s="22"/>
       <c r="E92" s="10">
@@ -8973,7 +9049,7 @@
         <v>101</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N92" s="15" t="s">
         <v>39</v>
@@ -8987,28 +9063,28 @@
       <c r="S92" s="10"/>
       <c r="T92" s="10"/>
       <c r="U92" s="10"/>
-      <c r="V92" s="33"/>
-      <c r="W92" s="37"/>
-      <c r="X92" s="39"/>
+      <c r="V92" s="32"/>
+      <c r="W92" s="36"/>
+      <c r="X92" s="38"/>
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
       <c r="AA92" s="15"/>
       <c r="AB92" s="15"/>
       <c r="AC92" s="15"/>
       <c r="AD92" s="15"/>
-      <c r="AE92" s="44"/>
-      <c r="AF92" s="44"/>
-      <c r="AG92" s="47"/>
+      <c r="AE92" s="43"/>
+      <c r="AF92" s="43"/>
+      <c r="AG92" s="46"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A93" s="12" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="D93" s="23"/>
       <c r="E93" s="15">
@@ -9036,7 +9112,7 @@
         <v>101</v>
       </c>
       <c r="M93" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N93" s="15" t="s">
         <v>39</v>
@@ -9050,28 +9126,28 @@
       <c r="S93" s="15"/>
       <c r="T93" s="15"/>
       <c r="U93" s="15"/>
-      <c r="V93" s="35"/>
-      <c r="W93" s="36"/>
-      <c r="X93" s="38"/>
+      <c r="V93" s="34"/>
+      <c r="W93" s="35"/>
+      <c r="X93" s="37"/>
       <c r="Y93" s="10"/>
       <c r="Z93" s="10"/>
       <c r="AA93" s="10"/>
       <c r="AB93" s="10"/>
       <c r="AC93" s="10"/>
       <c r="AD93" s="10"/>
-      <c r="AE93" s="43"/>
-      <c r="AF93" s="43"/>
-      <c r="AG93" s="46"/>
+      <c r="AE93" s="42"/>
+      <c r="AF93" s="42"/>
+      <c r="AG93" s="45"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A94" s="12" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="D94" s="22"/>
       <c r="E94" s="10">
@@ -9099,7 +9175,7 @@
         <v>101</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N94" s="15" t="s">
         <v>39</v>
@@ -9113,28 +9189,28 @@
       <c r="S94" s="10"/>
       <c r="T94" s="10"/>
       <c r="U94" s="10"/>
-      <c r="V94" s="33"/>
-      <c r="W94" s="37"/>
-      <c r="X94" s="39"/>
+      <c r="V94" s="32"/>
+      <c r="W94" s="36"/>
+      <c r="X94" s="38"/>
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
       <c r="AA94" s="15"/>
       <c r="AB94" s="15"/>
       <c r="AC94" s="15"/>
       <c r="AD94" s="15"/>
-      <c r="AE94" s="44"/>
-      <c r="AF94" s="44"/>
-      <c r="AG94" s="47"/>
+      <c r="AE94" s="43"/>
+      <c r="AF94" s="43"/>
+      <c r="AG94" s="46"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A95" s="12" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="D95" s="23"/>
       <c r="E95" s="15">
@@ -9162,7 +9238,7 @@
         <v>101</v>
       </c>
       <c r="M95" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N95" s="15" t="s">
         <v>39</v>
@@ -9176,8 +9252,8 @@
       <c r="S95" s="15"/>
       <c r="T95" s="15"/>
       <c r="U95" s="15"/>
-      <c r="V95" s="35"/>
-      <c r="W95" s="36"/>
+      <c r="V95" s="34"/>
+      <c r="W95" s="35"/>
       <c r="X95" s="9"/>
       <c r="Y95" s="10"/>
       <c r="Z95" s="10"/>
@@ -9187,17 +9263,17 @@
       <c r="AD95" s="10"/>
       <c r="AE95" s="10"/>
       <c r="AF95" s="10"/>
-      <c r="AG95" s="33"/>
+      <c r="AG95" s="32"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A96" s="12" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="10">
@@ -9225,7 +9301,7 @@
         <v>101</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N96" s="15" t="s">
         <v>39</v>
@@ -9239,28 +9315,28 @@
       <c r="S96" s="10"/>
       <c r="T96" s="10"/>
       <c r="U96" s="10"/>
-      <c r="V96" s="33"/>
-      <c r="W96" s="37"/>
-      <c r="X96" s="39"/>
+      <c r="V96" s="32"/>
+      <c r="W96" s="36"/>
+      <c r="X96" s="38"/>
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
       <c r="AA96" s="15"/>
       <c r="AB96" s="15"/>
       <c r="AC96" s="15"/>
       <c r="AD96" s="15"/>
-      <c r="AE96" s="44"/>
-      <c r="AF96" s="44"/>
-      <c r="AG96" s="47"/>
+      <c r="AE96" s="43"/>
+      <c r="AF96" s="43"/>
+      <c r="AG96" s="46"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A97" s="12" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="D97" s="23"/>
       <c r="E97" s="15">
@@ -9288,7 +9364,7 @@
         <v>101</v>
       </c>
       <c r="M97" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N97" s="15" t="s">
         <v>39</v>
@@ -9302,28 +9378,28 @@
       <c r="S97" s="15"/>
       <c r="T97" s="15"/>
       <c r="U97" s="15"/>
-      <c r="V97" s="35"/>
-      <c r="W97" s="36"/>
-      <c r="X97" s="38"/>
+      <c r="V97" s="34"/>
+      <c r="W97" s="35"/>
+      <c r="X97" s="37"/>
       <c r="Y97" s="10"/>
       <c r="Z97" s="10"/>
       <c r="AA97" s="10"/>
       <c r="AB97" s="10"/>
       <c r="AC97" s="10"/>
       <c r="AD97" s="10"/>
-      <c r="AE97" s="43"/>
-      <c r="AF97" s="43"/>
-      <c r="AG97" s="46"/>
+      <c r="AE97" s="42"/>
+      <c r="AF97" s="42"/>
+      <c r="AG97" s="45"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A98" s="12" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="D98" s="22"/>
       <c r="E98" s="10">
@@ -9351,7 +9427,7 @@
         <v>101</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N98" s="15" t="s">
         <v>39</v>
@@ -9365,28 +9441,28 @@
       <c r="S98" s="10"/>
       <c r="T98" s="10"/>
       <c r="U98" s="10"/>
-      <c r="V98" s="33"/>
-      <c r="W98" s="37"/>
-      <c r="X98" s="39"/>
+      <c r="V98" s="32"/>
+      <c r="W98" s="36"/>
+      <c r="X98" s="38"/>
       <c r="Y98" s="15"/>
       <c r="Z98" s="15"/>
       <c r="AA98" s="15"/>
       <c r="AB98" s="15"/>
       <c r="AC98" s="15"/>
       <c r="AD98" s="15"/>
-      <c r="AE98" s="44"/>
-      <c r="AF98" s="44"/>
-      <c r="AG98" s="47"/>
+      <c r="AE98" s="43"/>
+      <c r="AF98" s="43"/>
+      <c r="AG98" s="46"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A99" s="12" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="D99" s="23"/>
       <c r="E99" s="15">
@@ -9414,7 +9490,7 @@
         <v>101</v>
       </c>
       <c r="M99" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N99" s="15" t="s">
         <v>39</v>
@@ -9428,85 +9504,85 @@
       <c r="S99" s="15"/>
       <c r="T99" s="15"/>
       <c r="U99" s="15"/>
-      <c r="V99" s="35"/>
-      <c r="W99" s="36"/>
-      <c r="X99" s="38"/>
+      <c r="V99" s="34"/>
+      <c r="W99" s="35"/>
+      <c r="X99" s="37"/>
       <c r="Y99" s="10"/>
       <c r="Z99" s="10"/>
       <c r="AA99" s="10"/>
       <c r="AB99" s="10"/>
       <c r="AC99" s="10"/>
       <c r="AD99" s="10"/>
-      <c r="AE99" s="43"/>
-      <c r="AF99" s="43"/>
-      <c r="AG99" s="46"/>
+      <c r="AE99" s="42"/>
+      <c r="AF99" s="42"/>
+      <c r="AG99" s="45"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A100" s="12" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="C100" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="D100" s="48"/>
-      <c r="E100" s="49">
-        <v>0</v>
-      </c>
-      <c r="F100" s="48">
+        <v>435</v>
+      </c>
+      <c r="C100" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="D100" s="47"/>
+      <c r="E100" s="48">
+        <v>0</v>
+      </c>
+      <c r="F100" s="47">
         <v>3</v>
       </c>
-      <c r="G100" s="49">
-        <v>101</v>
-      </c>
-      <c r="H100" s="49">
-        <v>100</v>
-      </c>
-      <c r="I100" s="49">
-        <v>1</v>
-      </c>
-      <c r="J100" s="49">
-        <v>1</v>
-      </c>
-      <c r="K100" s="49">
-        <v>1</v>
-      </c>
-      <c r="L100" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="M100" s="49" t="s">
-        <v>169</v>
+      <c r="G100" s="48">
+        <v>101</v>
+      </c>
+      <c r="H100" s="48">
+        <v>100</v>
+      </c>
+      <c r="I100" s="48">
+        <v>1</v>
+      </c>
+      <c r="J100" s="48">
+        <v>1</v>
+      </c>
+      <c r="K100" s="48">
+        <v>1</v>
+      </c>
+      <c r="L100" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="M100" s="48" t="s">
+        <v>170</v>
       </c>
       <c r="N100" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O100" s="49">
-        <v>0</v>
-      </c>
-      <c r="P100" s="49"/>
-      <c r="Q100" s="49"/>
-      <c r="R100" s="49"/>
-      <c r="S100" s="49"/>
-      <c r="T100" s="49"/>
-      <c r="U100" s="49"/>
-      <c r="V100" s="50"/>
-      <c r="W100" s="37"/>
-      <c r="X100" s="51"/>
-      <c r="Y100" s="53"/>
-      <c r="Z100" s="53"/>
-      <c r="AA100" s="53"/>
-      <c r="AB100" s="53"/>
-      <c r="AC100" s="53"/>
-      <c r="AD100" s="53"/>
-      <c r="AE100" s="54"/>
-      <c r="AF100" s="54"/>
-      <c r="AG100" s="55"/>
+      <c r="O100" s="48">
+        <v>0</v>
+      </c>
+      <c r="P100" s="48"/>
+      <c r="Q100" s="48"/>
+      <c r="R100" s="48"/>
+      <c r="S100" s="48"/>
+      <c r="T100" s="48"/>
+      <c r="U100" s="48"/>
+      <c r="V100" s="49"/>
+      <c r="W100" s="36"/>
+      <c r="X100" s="50"/>
+      <c r="Y100" s="52"/>
+      <c r="Z100" s="52"/>
+      <c r="AA100" s="52"/>
+      <c r="AB100" s="52"/>
+      <c r="AC100" s="52"/>
+      <c r="AD100" s="52"/>
+      <c r="AE100" s="53"/>
+      <c r="AF100" s="53"/>
+      <c r="AG100" s="54"/>
     </row>
     <row r="101" ht="14.25"/>
   </sheetData>
-  <autoFilter ref="A1:AG100">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AG100" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="L11">

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="462">
   <si>
     <t>名字</t>
   </si>
@@ -149,7 +149,7 @@
     <t>4|3|3</t>
   </si>
   <si>
-    <t>item_rune/1</t>
+    <t>item_rune/爆爆I_II_III</t>
   </si>
   <si>
     <t>CriticalChance {
@@ -194,6 +194,9 @@
     <t>技能点变更时</t>
   </si>
   <si>
+    <t>item_rune/锁技I_II_III</t>
+  </si>
+  <si>
     <t>value 8 10 15</t>
   </si>
   <si>
@@ -204,6 +207,9 @@
   </si>
   <si>
     <t>基础技能造成的伤害提高%BasicAbilityDmg.Base%</t>
+  </si>
+  <si>
+    <t>item_rune/基础提高I_II_III</t>
   </si>
   <si>
     <t>BasicAbilityDmg {
@@ -226,6 +232,9 @@
     <t>根据当前消耗的蓝量获得伤害</t>
   </si>
   <si>
+    <t>item_rune/蓝量转换I_II_III</t>
+  </si>
+  <si>
     <t>value 2 3 5</t>
   </si>
   <si>
@@ -236,6 +245,9 @@
   </si>
   <si>
     <t>攻击速度提高%AttackSpeed.Base%</t>
+  </si>
+  <si>
+    <t>item_rune/唯快不破I_II_III</t>
   </si>
   <si>
     <t>AttackSpeed {
@@ -252,6 +264,9 @@
     <t>获得%DmgReductionPct.Base%%%伤害减免</t>
   </si>
   <si>
+    <t>item_rune/免伤I_II_III</t>
+  </si>
+  <si>
     <t>DmgReductionPct {
 "Base" "10 20 30"
 }</t>
@@ -266,6 +281,9 @@
     <t>每秒额外回复%ManaRegen.Base%点蓝量</t>
   </si>
   <si>
+    <t>item_rune/回蓝效益I_II_III</t>
+  </si>
+  <si>
     <t>ManaRegen {
 "Base" "4 8 12"
 }</t>
@@ -283,6 +301,9 @@
     <t>使用技能时</t>
   </si>
   <si>
+    <t>item_rune/甲叠甲I_II_III</t>
+  </si>
+  <si>
     <t>armor_pct 1 2 3</t>
   </si>
   <si>
@@ -305,6 +326,9 @@
   </si>
   <si>
     <t>2|2</t>
+  </si>
+  <si>
+    <t>item_rune/快跑I_II_III</t>
   </si>
   <si>
     <t>MoveSpeed {
@@ -330,6 +354,9 @@
     <t>周期</t>
   </si>
   <si>
+    <t>item_rune/展示容错I_II_III</t>
+  </si>
+  <si>
     <t>ever_hp_pct 10</t>
   </si>
   <si>
@@ -348,6 +375,9 @@
     <t>击杀</t>
   </si>
   <si>
+    <t>item_rune/杀手快感I_II_III</t>
+  </si>
+  <si>
     <t>chance 15</t>
   </si>
   <si>
@@ -367,6 +397,9 @@
   </si>
   <si>
     <t>3|3</t>
+  </si>
+  <si>
+    <t>item_rune/伤害代价</t>
   </si>
   <si>
     <t>DamageBonusMul {
@@ -389,6 +422,9 @@
     <t>获得%AbilityCooldown%%%技能冷却缩减，但是技能消耗蓝量翻倍</t>
   </si>
   <si>
+    <t>item_rune/冷却代价</t>
+  </si>
+  <si>
     <t>ManaCostRate {
 "Base" "100"
 }</t>
@@ -411,6 +447,9 @@
     <t>直接修改</t>
   </si>
   <si>
+    <t>item_rune/神圣提升</t>
+  </si>
+  <si>
     <t>SacredEquipSkillDmg {
 "Base" "250"
 }</t>
@@ -428,6 +467,9 @@
     <t>击败敌人时，有%chance%%%的概率回复%restore_lose_hp%%%已损失生命值</t>
   </si>
   <si>
+    <t>item_rune/吸血本能I_II_III</t>
+  </si>
+  <si>
     <t>restore_lose_hp 10 15 20</t>
   </si>
   <si>
@@ -438,6 +480,9 @@
   </si>
   <si>
     <t>每秒会降低5点蓝量，但是蓝量大于%last_mana_pct%%%时，所有技能伤害提高%bp_ingame%%%</t>
+  </si>
+  <si>
+    <t>item_rune/法力盈能</t>
   </si>
   <si>
     <t>ManaRegen {
@@ -460,6 +505,9 @@
     <t>击杀敌人时，有%chance%%%概率回复%health_pct%%%最大生命值</t>
   </si>
   <si>
+    <t>item_rune/生命补充</t>
+  </si>
+  <si>
     <t>chance 22</t>
   </si>
   <si>
@@ -472,7 +520,10 @@
     <t>刀尖舔血</t>
   </si>
   <si>
-    <t>获得%DamageBonusMul%%%伤害加成，但受到的伤害也会提高%DmgReductionPct%%%</t>
+    <t>获得%DamageBonusMul.Base%%%伤害加成，但受到的伤害也会提高%DmgReductionPct.Base%%%</t>
+  </si>
+  <si>
+    <t>item_rune/刀尖舔血I_II_III</t>
   </si>
   <si>
     <t>DamageBonusMul {
@@ -494,6 +545,9 @@
     <t>蓝量提高%MaxMana.Base%</t>
   </si>
   <si>
+    <t>item_rune/最大蓝量I_II_III</t>
+  </si>
+  <si>
     <t>MaxMana {
 "Base" "100 120 150"
 }</t>
@@ -509,6 +563,9 @@
 boss单位视为15个敌军</t>
   </si>
   <si>
+    <t>item_rune/眼疾手快I_II_III</t>
+  </si>
+  <si>
     <t>StackAttackSpeed 5 7 10</t>
   </si>
   <si>
@@ -524,6 +581,9 @@
     <t>击杀敌人时，有8%概率获得随机一种圣塔效果，持续5秒</t>
   </si>
   <si>
+    <t>item_rune/移动圣塔</t>
+  </si>
+  <si>
     <t>rune_22</t>
   </si>
   <si>
@@ -533,6 +593,9 @@
     <t>最大蓝量值蓝量大于100时，每高1点着获得1%伤害减免，最高可获得%dmg_reduction_limit%%%伤害减免</t>
   </si>
   <si>
+    <t>item_rune/蓝量减伤</t>
+  </si>
+  <si>
     <t>last_maxmana 100</t>
   </si>
   <si>
@@ -551,6 +614,9 @@
     <t>每损失%ever_hp_pct%%%生命值，提高%ever_dmg_bonus%%%伤害加成</t>
   </si>
   <si>
+    <t>item_rune/越挫越勇I_II_III</t>
+  </si>
+  <si>
     <t>ever_dmg_bonus 5 7 10</t>
   </si>
   <si>
@@ -563,6 +629,9 @@
     <t>自身%range_check%码以内没有敌人时，暴击概率提高%crit_chance%%%</t>
   </si>
   <si>
+    <t>item_rune/独行侠I_II_III</t>
+  </si>
+  <si>
     <t>range_check 300</t>
   </si>
   <si>
@@ -576,6 +645,9 @@
   </si>
   <si>
     <t>所有玩家经验值获取率提高%exp_bonus%%%</t>
+  </si>
+  <si>
+    <t>item_rune/快速成长I_II_III</t>
   </si>
   <si>
     <t>exp_bonus 25 30 40</t>
@@ -1001,6 +1073,9 @@
   </si>
   <si>
     <t>雷鸣基础伤害提高100%</t>
+  </si>
+  <si>
+    <t>item_rune/1</t>
   </si>
   <si>
     <t>rune_53</t>
@@ -2690,7 +2765,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D219AD03-94B5-4546-8511-CA73A4DAC1A8}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9C5B377E-F23C-4C6A-99F8-DEE1FC17EBFF}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -3002,10 +3077,10 @@
   <sheetPr/>
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C44" sqref="C44"/>
+      <selection pane="topRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3318,7 +3393,7 @@
         <v>38</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="O4" s="10">
         <v>0</v>
@@ -3333,7 +3408,7 @@
       <c r="W4" s="36"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
@@ -3346,13 +3421,13 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="49.5" spans="1:33">
       <c r="A5" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15">
@@ -3383,14 +3458,14 @@
         <v>38</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="O5" s="15">
         <v>0</v>
       </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
@@ -3400,7 +3475,7 @@
       <c r="W5" s="35"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -3413,16 +3488,16 @@
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:33">
       <c r="A6" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -3452,7 +3527,7 @@
         <v>38</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="O6" s="10">
         <v>0</v>
@@ -3467,7 +3542,7 @@
       <c r="W6" s="36"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
@@ -3480,13 +3555,13 @@
     </row>
     <row r="7" ht="49.5" spans="1:33">
       <c r="A7" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15">
@@ -3517,14 +3592,14 @@
         <v>38</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="O7" s="15">
         <v>0</v>
       </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
@@ -3545,13 +3620,13 @@
     </row>
     <row r="8" ht="49.5" spans="1:33">
       <c r="A8" s="12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="10">
@@ -3582,14 +3657,14 @@
         <v>38</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="O8" s="10">
         <v>0</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -3610,13 +3685,13 @@
     </row>
     <row r="9" ht="49.5" spans="1:33">
       <c r="A9" s="12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15">
@@ -3647,14 +3722,14 @@
         <v>38</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="O9" s="15">
         <v>0</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
@@ -3675,16 +3750,16 @@
     </row>
     <row r="10" ht="33" spans="1:33">
       <c r="A10" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
@@ -3714,7 +3789,7 @@
         <v>38</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="O10" s="10">
         <v>0</v>
@@ -3729,13 +3804,13 @@
       <c r="W10" s="36"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Z10" s="15" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AA10" s="15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AB10" s="15"/>
       <c r="AC10" s="15"/>
@@ -3746,16 +3821,16 @@
     </row>
     <row r="11" ht="49.5" spans="1:33">
       <c r="A11" s="12" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E11" s="15">
         <v>1</v>
@@ -3779,20 +3854,20 @@
         <v>1</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="O11" s="15">
         <v>0</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
@@ -3802,10 +3877,10 @@
       <c r="W11" s="35"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="10" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
@@ -3817,16 +3892,16 @@
     </row>
     <row r="12" ht="30.5" customHeight="1" spans="1:33">
       <c r="A12" s="12" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
@@ -3856,7 +3931,7 @@
         <v>38</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="O12" s="10">
         <v>0</v>
@@ -3871,10 +3946,10 @@
       <c r="W12" s="36"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="15" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="Z12" s="15" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AA12" s="15"/>
       <c r="AB12" s="15"/>
@@ -3886,16 +3961,16 @@
     </row>
     <row r="13" ht="30.5" customHeight="1" spans="1:33">
       <c r="A13" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E13" s="15">
         <v>1</v>
@@ -3925,7 +4000,7 @@
         <v>38</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="O13" s="15">
         <v>0</v>
@@ -3940,16 +4015,16 @@
       <c r="W13" s="35"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AB13" s="10" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
@@ -3959,16 +4034,16 @@
     </row>
     <row r="14" ht="49.5" spans="1:33">
       <c r="A14" s="12" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E14" s="10">
         <v>1</v>
@@ -3992,20 +4067,20 @@
         <v>1</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="O14" s="10">
         <v>0</v>
       </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="10" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -4015,10 +4090,10 @@
       <c r="W14" s="36"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="15" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="Z14" s="15" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
@@ -4030,13 +4105,13 @@
     </row>
     <row r="15" ht="49.5" spans="1:33">
       <c r="A15" s="12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="15">
@@ -4061,23 +4136,23 @@
         <v>1</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="O15" s="15">
         <v>0</v>
       </c>
       <c r="P15" s="15"/>
       <c r="Q15" s="15" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
@@ -4097,16 +4172,16 @@
     </row>
     <row r="16" ht="49.5" spans="1:33">
       <c r="A16" s="12" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -4130,20 +4205,20 @@
         <v>1</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="O16" s="10">
         <v>0</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
@@ -4153,7 +4228,7 @@
       <c r="W16" s="36"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="15" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
@@ -4166,16 +4241,16 @@
     </row>
     <row r="17" ht="30.5" customHeight="1" spans="1:33">
       <c r="A17" s="12" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
@@ -4205,7 +4280,7 @@
         <v>38</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="O17" s="15">
         <v>0</v>
@@ -4220,10 +4295,10 @@
       <c r="W17" s="35"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
@@ -4235,16 +4310,16 @@
     </row>
     <row r="18" ht="49.5" spans="1:33">
       <c r="A18" s="12" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E18" s="10">
         <v>1</v>
@@ -4268,20 +4343,20 @@
         <v>1</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="O18" s="10">
         <v>0</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
@@ -4291,10 +4366,10 @@
       <c r="W18" s="36"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="15" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="Z18" s="15" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="AA18" s="15"/>
       <c r="AB18" s="15"/>
@@ -4306,16 +4381,16 @@
     </row>
     <row r="19" ht="33" spans="1:33">
       <c r="A19" s="12" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E19" s="15">
         <v>1</v>
@@ -4339,13 +4414,13 @@
         <v>1</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="O19" s="15">
         <v>0</v>
@@ -4360,10 +4435,10 @@
       <c r="W19" s="35"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="10" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
@@ -4375,16 +4450,16 @@
     </row>
     <row r="20" ht="49.5" spans="1:33">
       <c r="A20" s="12" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E20" s="10">
         <v>1</v>
@@ -4414,17 +4489,17 @@
         <v>38</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="O20" s="10">
         <v>0</v>
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="10" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
@@ -4444,13 +4519,13 @@
     </row>
     <row r="21" ht="49.5" spans="1:33">
       <c r="A21" s="12" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15">
@@ -4481,14 +4556,14 @@
         <v>38</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="O21" s="15">
         <v>0</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="15" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
@@ -4509,16 +4584,16 @@
     </row>
     <row r="22" ht="49.5" spans="1:33">
       <c r="A22" s="12" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E22" s="10">
         <v>1</v>
@@ -4548,7 +4623,7 @@
         <v>38</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="O22" s="10">
         <v>0</v>
@@ -4563,10 +4638,10 @@
       <c r="W22" s="36"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="15" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="Z22" s="15" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
@@ -4578,16 +4653,16 @@
     </row>
     <row r="23" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A23" s="12" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E23" s="15">
         <v>1</v>
@@ -4611,13 +4686,13 @@
         <v>1</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="O23" s="15">
         <v>0</v>
@@ -4643,16 +4718,16 @@
     </row>
     <row r="24" ht="30.5" customHeight="1" spans="1:33">
       <c r="A24" s="12" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E24" s="10">
         <v>1</v>
@@ -4676,13 +4751,13 @@
         <v>1</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="O24" s="10">
         <v>0</v>
@@ -4697,13 +4772,13 @@
       <c r="W24" s="36"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="15" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="Z24" s="15" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="AA24" s="15" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="AB24" s="15"/>
       <c r="AC24" s="15"/>
@@ -4714,16 +4789,16 @@
     </row>
     <row r="25" ht="30.5" customHeight="1" spans="1:33">
       <c r="A25" s="12" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E25" s="15">
         <v>1</v>
@@ -4753,7 +4828,7 @@
         <v>38</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="O25" s="15">
         <v>0</v>
@@ -4768,10 +4843,10 @@
       <c r="W25" s="35"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
@@ -4783,16 +4858,16 @@
     </row>
     <row r="26" ht="30.5" customHeight="1" spans="1:33">
       <c r="A26" s="12" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E26" s="10">
         <v>1</v>
@@ -4822,7 +4897,7 @@
         <v>38</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="O26" s="10">
         <v>0</v>
@@ -4837,10 +4912,10 @@
       <c r="W26" s="36"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="15" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="Z26" s="15" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
@@ -4852,16 +4927,16 @@
     </row>
     <row r="27" ht="30.5" customHeight="1" spans="1:33">
       <c r="A27" s="12" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E27" s="15">
         <v>1</v>
@@ -4891,7 +4966,7 @@
         <v>38</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="O27" s="15">
         <v>0</v>
@@ -4906,7 +4981,7 @@
       <c r="W27" s="35"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="10" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
@@ -4919,13 +4994,13 @@
     </row>
     <row r="28" ht="30.5" customHeight="1" spans="1:33">
       <c r="A28" s="12" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="10">
@@ -4950,13 +5025,13 @@
         <v>1</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="O28" s="10">
         <v>0</v>
@@ -4971,10 +5046,10 @@
       <c r="W28" s="36"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="15" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="Z28" s="15" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
@@ -4986,13 +5061,13 @@
     </row>
     <row r="29" ht="30.5" customHeight="1" spans="1:33">
       <c r="A29" s="12" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="15">
@@ -5017,13 +5092,13 @@
         <v>1</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="O29" s="15">
         <v>0</v>
@@ -5038,10 +5113,10 @@
       <c r="W29" s="35"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="10" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -5053,13 +5128,13 @@
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:33">
       <c r="A30" s="12" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="10">
@@ -5084,13 +5159,13 @@
         <v>1</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="O30" s="10">
         <v>0</v>
@@ -5105,7 +5180,7 @@
       <c r="W30" s="36"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="15" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
@@ -5118,13 +5193,13 @@
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:33">
       <c r="A31" s="12" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="15">
@@ -5149,13 +5224,13 @@
         <v>1</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="O31" s="15">
         <v>0</v>
@@ -5170,10 +5245,10 @@
       <c r="W31" s="35"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="10" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
@@ -5185,13 +5260,13 @@
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:33">
       <c r="A32" s="12" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="10">
@@ -5216,13 +5291,13 @@
         <v>1</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="O32" s="10">
         <v>0</v>
@@ -5237,7 +5312,7 @@
       <c r="W32" s="36"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="15" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="Z32" s="15"/>
       <c r="AA32" s="15"/>
@@ -5250,13 +5325,13 @@
     </row>
     <row r="33" ht="30.5" customHeight="1" spans="1:33">
       <c r="A33" s="12" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="15">
@@ -5281,13 +5356,13 @@
         <v>1</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="O33" s="15">
         <v>0</v>
@@ -5302,7 +5377,7 @@
       <c r="W33" s="35"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="10" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
@@ -5315,13 +5390,13 @@
     </row>
     <row r="34" ht="30.5" customHeight="1" spans="1:33">
       <c r="A34" s="12" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="10">
@@ -5346,13 +5421,13 @@
         <v>1</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="O34" s="10">
         <v>0</v>
@@ -5367,7 +5442,7 @@
       <c r="W34" s="36"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="15" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
@@ -5380,13 +5455,13 @@
     </row>
     <row r="35" ht="30.5" customHeight="1" spans="1:33">
       <c r="A35" s="12" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="15">
@@ -5411,13 +5486,13 @@
         <v>1</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="O35" s="15">
         <v>0</v>
@@ -5432,7 +5507,7 @@
       <c r="W35" s="35"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="10" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
@@ -5445,13 +5520,13 @@
     </row>
     <row r="36" ht="30.5" customHeight="1" spans="1:33">
       <c r="A36" s="12" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="10">
@@ -5476,13 +5551,13 @@
         <v>1</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="O36" s="10">
         <v>0</v>
@@ -5497,7 +5572,7 @@
       <c r="W36" s="36"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
@@ -5510,13 +5585,13 @@
     </row>
     <row r="37" ht="30.5" customHeight="1" spans="1:33">
       <c r="A37" s="12" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="15">
@@ -5541,13 +5616,13 @@
         <v>1</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="O37" s="15">
         <v>0</v>
@@ -5562,7 +5637,7 @@
       <c r="W37" s="35"/>
       <c r="X37" s="9"/>
       <c r="Y37" s="10" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
@@ -5575,13 +5650,13 @@
     </row>
     <row r="38" ht="31.25" customHeight="1" spans="1:33">
       <c r="A38" s="12" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="10">
@@ -5606,13 +5681,13 @@
         <v>1</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="O38" s="10">
         <v>0</v>
@@ -5627,7 +5702,7 @@
       <c r="W38" s="36"/>
       <c r="X38" s="12"/>
       <c r="Y38" s="41" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="Z38" s="41"/>
       <c r="AA38" s="41"/>
@@ -5640,13 +5715,13 @@
     </row>
     <row r="39" ht="30.5" customHeight="1" spans="1:33">
       <c r="A39" s="12" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="15">
@@ -5671,13 +5746,13 @@
         <v>1</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="O39" s="15">
         <v>0</v>
@@ -5692,7 +5767,7 @@
       <c r="W39" s="35"/>
       <c r="X39" s="37"/>
       <c r="Y39" s="10" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="Z39" s="10"/>
       <c r="AA39" s="10"/>
@@ -5705,13 +5780,13 @@
     </row>
     <row r="40" ht="30.5" customHeight="1" spans="1:33">
       <c r="A40" s="12" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="10">
@@ -5736,13 +5811,13 @@
         <v>1</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="O40" s="10">
         <v>0</v>
@@ -5757,7 +5832,7 @@
       <c r="W40" s="36"/>
       <c r="X40" s="38"/>
       <c r="Y40" s="15" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="Z40" s="15"/>
       <c r="AA40" s="15"/>
@@ -5770,13 +5845,13 @@
     </row>
     <row r="41" ht="30.5" customHeight="1" spans="1:33">
       <c r="A41" s="12" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="15">
@@ -5801,13 +5876,13 @@
         <v>1</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="O41" s="15">
         <v>0</v>
@@ -5822,7 +5897,7 @@
       <c r="W41" s="35"/>
       <c r="X41" s="37"/>
       <c r="Y41" s="10" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="Z41" s="10"/>
       <c r="AA41" s="10"/>
@@ -5835,13 +5910,13 @@
     </row>
     <row r="42" ht="30.5" customHeight="1" spans="1:33">
       <c r="A42" s="12" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="10">
@@ -5866,13 +5941,13 @@
         <v>1</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="O42" s="10">
         <v>0</v>
@@ -5887,7 +5962,7 @@
       <c r="W42" s="36"/>
       <c r="X42" s="12"/>
       <c r="Y42" s="15" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Z42" s="15"/>
       <c r="AA42" s="15"/>
@@ -5900,13 +5975,13 @@
     </row>
     <row r="43" ht="30.5" customHeight="1" spans="1:33">
       <c r="A43" s="12" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="15">
@@ -5931,13 +6006,13 @@
         <v>1</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="O43" s="15">
         <v>0</v>
@@ -5952,7 +6027,7 @@
       <c r="W43" s="35"/>
       <c r="X43" s="37"/>
       <c r="Y43" s="10" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="Z43" s="10"/>
       <c r="AA43" s="10"/>
@@ -5965,13 +6040,13 @@
     </row>
     <row r="44" ht="30.5" customHeight="1" spans="1:33">
       <c r="A44" s="12" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="10">
@@ -5996,13 +6071,13 @@
         <v>1</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="O44" s="10">
         <v>0</v>
@@ -6017,7 +6092,7 @@
       <c r="W44" s="36"/>
       <c r="X44" s="38"/>
       <c r="Y44" s="15" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
@@ -6030,13 +6105,13 @@
     </row>
     <row r="45" ht="30.5" customHeight="1" spans="1:33">
       <c r="A45" s="12" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="15">
@@ -6061,13 +6136,13 @@
         <v>1</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M45" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="O45" s="15">
         <v>0</v>
@@ -6082,7 +6157,7 @@
       <c r="W45" s="35"/>
       <c r="X45" s="37"/>
       <c r="Y45" s="10" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
@@ -6095,13 +6170,13 @@
     </row>
     <row r="46" ht="30.5" customHeight="1" spans="1:33">
       <c r="A46" s="12" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="10">
@@ -6126,13 +6201,13 @@
         <v>1</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="O46" s="10">
         <v>0</v>
@@ -6147,7 +6222,7 @@
       <c r="W46" s="36"/>
       <c r="X46" s="38"/>
       <c r="Y46" s="15" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
@@ -6160,13 +6235,13 @@
     </row>
     <row r="47" ht="30.5" customHeight="1" spans="1:33">
       <c r="A47" s="12" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="15">
@@ -6191,13 +6266,13 @@
         <v>1</v>
       </c>
       <c r="L47" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N47" s="15" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="O47" s="15">
         <v>0</v>
@@ -6212,10 +6287,10 @@
       <c r="W47" s="35"/>
       <c r="X47" s="37"/>
       <c r="Y47" s="10" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="Z47" s="10" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="AA47" s="10"/>
       <c r="AB47" s="10"/>
@@ -6227,13 +6302,13 @@
     </row>
     <row r="48" ht="30.5" customHeight="1" spans="1:33">
       <c r="A48" s="12" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="10">
@@ -6258,13 +6333,13 @@
         <v>1</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N48" s="15" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="O48" s="10">
         <v>0</v>
@@ -6279,7 +6354,7 @@
       <c r="W48" s="36"/>
       <c r="X48" s="38"/>
       <c r="Y48" s="15" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
@@ -6292,13 +6367,13 @@
     </row>
     <row r="49" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A49" s="12" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="D49" s="23"/>
       <c r="E49" s="15">
@@ -6323,13 +6398,13 @@
         <v>1</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N49" s="15" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="O49" s="15">
         <v>0</v>
@@ -6344,7 +6419,7 @@
       <c r="W49" s="35"/>
       <c r="X49" s="37"/>
       <c r="Y49" s="10" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="Z49" s="10"/>
       <c r="AA49" s="10"/>
@@ -6357,13 +6432,13 @@
     </row>
     <row r="50" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A50" s="12" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="10">
@@ -6388,13 +6463,13 @@
         <v>1</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N50" s="15" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="O50" s="10">
         <v>0</v>
@@ -6409,10 +6484,10 @@
       <c r="W50" s="36"/>
       <c r="X50" s="38"/>
       <c r="Y50" s="15" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="Z50" s="15" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="AA50" s="15"/>
       <c r="AB50" s="15"/>
@@ -6424,13 +6499,13 @@
     </row>
     <row r="51" ht="30.5" customHeight="1" spans="1:33">
       <c r="A51" s="12" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="15">
@@ -6455,13 +6530,13 @@
         <v>1</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N51" s="15" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="O51" s="15">
         <v>0</v>
@@ -6476,10 +6551,10 @@
       <c r="W51" s="35"/>
       <c r="X51" s="37"/>
       <c r="Y51" s="10" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="Z51" s="10" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="AA51" s="10"/>
       <c r="AB51" s="10"/>
@@ -6491,13 +6566,13 @@
     </row>
     <row r="52" ht="30.5" customHeight="1" spans="1:33">
       <c r="A52" s="12" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="10">
@@ -6522,13 +6597,13 @@
         <v>1</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N52" s="15" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="O52" s="10">
         <v>0</v>
@@ -6543,7 +6618,7 @@
       <c r="W52" s="36"/>
       <c r="X52" s="38"/>
       <c r="Y52" s="15" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="Z52" s="15"/>
       <c r="AA52" s="15"/>
@@ -6556,13 +6631,13 @@
     </row>
     <row r="53" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A53" s="12" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="15">
@@ -6587,13 +6662,13 @@
         <v>1</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M53" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N53" s="15" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="O53" s="15">
         <v>0</v>
@@ -6608,7 +6683,7 @@
       <c r="W53" s="35"/>
       <c r="X53" s="37"/>
       <c r="Y53" s="10" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
@@ -6621,13 +6696,13 @@
     </row>
     <row r="54" ht="30.5" customHeight="1" spans="1:33">
       <c r="A54" s="12" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="10">
@@ -6652,13 +6727,13 @@
         <v>1</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N54" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O54" s="10">
         <v>0</v>
@@ -6684,13 +6759,13 @@
     </row>
     <row r="55" ht="30.5" customHeight="1" spans="1:33">
       <c r="A55" s="12" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="15">
@@ -6715,13 +6790,13 @@
         <v>1</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M55" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N55" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O55" s="15">
         <v>0</v>
@@ -6747,13 +6822,13 @@
     </row>
     <row r="56" ht="30.5" customHeight="1" spans="1:33">
       <c r="A56" s="12" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="10">
@@ -6778,13 +6853,13 @@
         <v>1</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N56" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O56" s="10">
         <v>0</v>
@@ -6810,13 +6885,13 @@
     </row>
     <row r="57" ht="30.5" customHeight="1" spans="1:33">
       <c r="A57" s="12" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="15">
@@ -6841,13 +6916,13 @@
         <v>1</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M57" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N57" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O57" s="15">
         <v>0</v>
@@ -6873,13 +6948,13 @@
     </row>
     <row r="58" ht="30.5" customHeight="1" spans="1:33">
       <c r="A58" s="12" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="10">
@@ -6904,13 +6979,13 @@
         <v>1</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N58" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O58" s="10">
         <v>0</v>
@@ -6936,13 +7011,13 @@
     </row>
     <row r="59" ht="30.5" customHeight="1" spans="1:33">
       <c r="A59" s="12" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="15">
@@ -6967,13 +7042,13 @@
         <v>1</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M59" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N59" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O59" s="15">
         <v>0</v>
@@ -6999,13 +7074,13 @@
     </row>
     <row r="60" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A60" s="12" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="D60" s="25"/>
       <c r="E60" s="10">
@@ -7030,13 +7105,13 @@
         <v>1</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N60" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O60" s="10">
         <v>0</v>
@@ -7062,13 +7137,13 @@
     </row>
     <row r="61" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A61" s="12" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="D61" s="24"/>
       <c r="E61" s="15">
@@ -7093,13 +7168,13 @@
         <v>1</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M61" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N61" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O61" s="15">
         <v>0</v>
@@ -7125,13 +7200,13 @@
     </row>
     <row r="62" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A62" s="12" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="D62" s="25"/>
       <c r="E62" s="10">
@@ -7156,13 +7231,13 @@
         <v>1</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N62" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O62" s="10">
         <v>0</v>
@@ -7188,13 +7263,13 @@
     </row>
     <row r="63" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A63" s="12" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="D63" s="24"/>
       <c r="E63" s="15">
@@ -7219,13 +7294,13 @@
         <v>1</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M63" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N63" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O63" s="15">
         <v>0</v>
@@ -7251,13 +7326,13 @@
     </row>
     <row r="64" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A64" s="12" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="D64" s="22"/>
       <c r="E64" s="10">
@@ -7282,13 +7357,13 @@
         <v>1</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N64" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O64" s="10">
         <v>0</v>
@@ -7314,13 +7389,13 @@
     </row>
     <row r="65" ht="30.5" customHeight="1" spans="1:33">
       <c r="A65" s="12" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="15">
@@ -7345,13 +7420,13 @@
         <v>1</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M65" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N65" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O65" s="15">
         <v>0</v>
@@ -7377,13 +7452,13 @@
     </row>
     <row r="66" ht="30.5" customHeight="1" spans="1:33">
       <c r="A66" s="12" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="10">
@@ -7408,13 +7483,13 @@
         <v>1</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N66" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O66" s="10">
         <v>0</v>
@@ -7440,13 +7515,13 @@
     </row>
     <row r="67" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A67" s="12" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="15">
@@ -7471,13 +7546,13 @@
         <v>1</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M67" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N67" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O67" s="15">
         <v>0</v>
@@ -7503,13 +7578,13 @@
     </row>
     <row r="68" ht="30.5" customHeight="1" spans="1:33">
       <c r="A68" s="12" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="10">
@@ -7534,13 +7609,13 @@
         <v>1</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N68" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O68" s="10">
         <v>0</v>
@@ -7566,13 +7641,13 @@
     </row>
     <row r="69" ht="30.5" customHeight="1" spans="1:33">
       <c r="A69" s="12" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="15">
@@ -7597,13 +7672,13 @@
         <v>1</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M69" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N69" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O69" s="15">
         <v>0</v>
@@ -7629,13 +7704,13 @@
     </row>
     <row r="70" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A70" s="12" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="D70" s="22"/>
       <c r="E70" s="10">
@@ -7660,13 +7735,13 @@
         <v>1</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N70" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O70" s="10">
         <v>0</v>
@@ -7692,13 +7767,13 @@
     </row>
     <row r="71" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A71" s="12" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="15">
@@ -7723,13 +7798,13 @@
         <v>1</v>
       </c>
       <c r="L71" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M71" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N71" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O71" s="15">
         <v>0</v>
@@ -7755,13 +7830,13 @@
     </row>
     <row r="72" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A72" s="12" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="D72" s="22"/>
       <c r="E72" s="10">
@@ -7786,13 +7861,13 @@
         <v>1</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N72" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O72" s="10">
         <v>0</v>
@@ -7818,13 +7893,13 @@
     </row>
     <row r="73" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A73" s="12" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="15">
@@ -7849,13 +7924,13 @@
         <v>1</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M73" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N73" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O73" s="15">
         <v>0</v>
@@ -7881,13 +7956,13 @@
     </row>
     <row r="74" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A74" s="12" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="10">
@@ -7912,13 +7987,13 @@
         <v>1</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N74" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O74" s="10">
         <v>0</v>
@@ -7944,13 +8019,13 @@
     </row>
     <row r="75" s="2" customFormat="1" ht="31.25" customHeight="1" spans="1:33">
       <c r="A75" s="12" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" s="15">
@@ -7975,13 +8050,13 @@
         <v>1</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M75" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N75" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O75" s="15">
         <v>0</v>
@@ -8007,13 +8082,13 @@
     </row>
     <row r="76" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A76" s="12" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="10">
@@ -8038,13 +8113,13 @@
         <v>1</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N76" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O76" s="10">
         <v>0</v>
@@ -8070,13 +8145,13 @@
     </row>
     <row r="77" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A77" s="12" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" s="15">
@@ -8101,13 +8176,13 @@
         <v>1</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M77" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N77" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O77" s="15">
         <v>0</v>
@@ -8133,13 +8208,13 @@
     </row>
     <row r="78" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A78" s="12" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="10">
@@ -8164,13 +8239,13 @@
         <v>1</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N78" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O78" s="10">
         <v>0</v>
@@ -8196,13 +8271,13 @@
     </row>
     <row r="79" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A79" s="12" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="D79" s="23"/>
       <c r="E79" s="15">
@@ -8227,13 +8302,13 @@
         <v>1</v>
       </c>
       <c r="L79" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M79" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N79" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O79" s="15">
         <v>0</v>
@@ -8259,13 +8334,13 @@
     </row>
     <row r="80" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A80" s="12" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="D80" s="22"/>
       <c r="E80" s="10">
@@ -8290,13 +8365,13 @@
         <v>1</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N80" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O80" s="10">
         <v>0</v>
@@ -8322,13 +8397,13 @@
     </row>
     <row r="81" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A81" s="12" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" s="15">
@@ -8353,13 +8428,13 @@
         <v>1</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M81" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N81" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O81" s="15">
         <v>0</v>
@@ -8385,13 +8460,13 @@
     </row>
     <row r="82" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A82" s="12" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="D82" s="22"/>
       <c r="E82" s="10">
@@ -8416,13 +8491,13 @@
         <v>1</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N82" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O82" s="10">
         <v>0</v>
@@ -8448,13 +8523,13 @@
     </row>
     <row r="83" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A83" s="12" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" s="15">
@@ -8479,13 +8554,13 @@
         <v>1</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M83" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N83" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O83" s="15">
         <v>0</v>
@@ -8511,13 +8586,13 @@
     </row>
     <row r="84" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A84" s="12" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="10">
@@ -8542,13 +8617,13 @@
         <v>1</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N84" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O84" s="10">
         <v>0</v>
@@ -8574,13 +8649,13 @@
     </row>
     <row r="85" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A85" s="12" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="D85" s="23"/>
       <c r="E85" s="15">
@@ -8605,13 +8680,13 @@
         <v>1</v>
       </c>
       <c r="L85" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M85" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N85" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O85" s="15">
         <v>0</v>
@@ -8637,13 +8712,13 @@
     </row>
     <row r="86" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A86" s="12" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="10">
@@ -8668,13 +8743,13 @@
         <v>1</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N86" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O86" s="10">
         <v>0</v>
@@ -8700,13 +8775,13 @@
     </row>
     <row r="87" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A87" s="12" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="15">
@@ -8731,13 +8806,13 @@
         <v>1</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M87" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N87" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O87" s="15">
         <v>0</v>
@@ -8763,13 +8838,13 @@
     </row>
     <row r="88" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A88" s="12" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="D88" s="22"/>
       <c r="E88" s="10">
@@ -8794,13 +8869,13 @@
         <v>1</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N88" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O88" s="10">
         <v>0</v>
@@ -8826,13 +8901,13 @@
     </row>
     <row r="89" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A89" s="12" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="D89" s="23"/>
       <c r="E89" s="15">
@@ -8857,13 +8932,13 @@
         <v>1</v>
       </c>
       <c r="L89" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M89" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N89" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O89" s="15">
         <v>0</v>
@@ -8889,13 +8964,13 @@
     </row>
     <row r="90" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A90" s="12" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="D90" s="22"/>
       <c r="E90" s="10">
@@ -8920,13 +8995,13 @@
         <v>1</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N90" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O90" s="10">
         <v>0</v>
@@ -8952,13 +9027,13 @@
     </row>
     <row r="91" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A91" s="12" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="D91" s="23"/>
       <c r="E91" s="15">
@@ -8983,13 +9058,13 @@
         <v>1</v>
       </c>
       <c r="L91" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M91" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N91" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O91" s="15">
         <v>0</v>
@@ -9015,13 +9090,13 @@
     </row>
     <row r="92" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A92" s="12" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="D92" s="22"/>
       <c r="E92" s="10">
@@ -9046,13 +9121,13 @@
         <v>1</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N92" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O92" s="10">
         <v>0</v>
@@ -9078,13 +9153,13 @@
     </row>
     <row r="93" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A93" s="12" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="D93" s="23"/>
       <c r="E93" s="15">
@@ -9109,13 +9184,13 @@
         <v>1</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M93" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N93" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O93" s="15">
         <v>0</v>
@@ -9141,13 +9216,13 @@
     </row>
     <row r="94" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A94" s="12" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="D94" s="22"/>
       <c r="E94" s="10">
@@ -9172,13 +9247,13 @@
         <v>1</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N94" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O94" s="10">
         <v>0</v>
@@ -9204,13 +9279,13 @@
     </row>
     <row r="95" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A95" s="12" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="D95" s="23"/>
       <c r="E95" s="15">
@@ -9235,13 +9310,13 @@
         <v>1</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M95" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N95" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O95" s="15">
         <v>0</v>
@@ -9267,13 +9342,13 @@
     </row>
     <row r="96" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A96" s="12" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="10">
@@ -9298,13 +9373,13 @@
         <v>1</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N96" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O96" s="10">
         <v>0</v>
@@ -9330,13 +9405,13 @@
     </row>
     <row r="97" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A97" s="12" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="D97" s="23"/>
       <c r="E97" s="15">
@@ -9361,13 +9436,13 @@
         <v>1</v>
       </c>
       <c r="L97" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M97" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N97" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O97" s="15">
         <v>0</v>
@@ -9393,13 +9468,13 @@
     </row>
     <row r="98" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A98" s="12" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="D98" s="22"/>
       <c r="E98" s="10">
@@ -9424,13 +9499,13 @@
         <v>1</v>
       </c>
       <c r="L98" s="10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N98" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O98" s="10">
         <v>0</v>
@@ -9456,13 +9531,13 @@
     </row>
     <row r="99" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A99" s="12" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D99" s="23"/>
       <c r="E99" s="15">
@@ -9487,13 +9562,13 @@
         <v>1</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M99" s="15" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N99" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O99" s="15">
         <v>0</v>
@@ -9519,13 +9594,13 @@
     </row>
     <row r="100" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
       <c r="A100" s="12" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="C100" s="47" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="D100" s="47"/>
       <c r="E100" s="48">
@@ -9550,13 +9625,13 @@
         <v>1</v>
       </c>
       <c r="L100" s="48" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M100" s="48" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="N100" s="15" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="O100" s="48">
         <v>0</v>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -172,13 +172,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每拥有一个未分配的技能点都会提供8%/10%/15%的</t>
+      <t>每拥有一个未分配的技能点都会提供%value%%%的</t>
     </r>
     <r>
       <rPr>
@@ -1722,15 +1716,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.4"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3" tint="0.4"/>
-      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2796,7 +2790,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{24B4604C-6E64-44A2-873C-26DC4EB4A4B1}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2A79A133-92FE-4AF7-AFEB-B508F256B25D}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -3108,10 +3102,10 @@
   <sheetPr/>
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A22" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C29" sqref="C29"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -172,6 +172,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每拥有一个未分配的技能点都会提供%value%%%的</t>
     </r>
     <r>
@@ -419,7 +425,7 @@
     <t>冷却代价</t>
   </si>
   <si>
-    <t>获得%AbilityCooldown%%%技能冷却缩减，但是技能消耗蓝量翻倍</t>
+    <t>获得%AbilityCooldown.Base%%%技能冷却缩减，但是技能消耗蓝量翻倍</t>
   </si>
   <si>
     <t>item_rune/冷却代价</t>
@@ -1716,15 +1722,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="3" tint="0.4"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2790,7 +2796,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2A79A133-92FE-4AF7-AFEB-B508F256B25D}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A8D52100-BA70-4648-B169-E045148DFD97}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -3102,10 +3108,10 @@
   <sheetPr/>
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="W1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="rune_config" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rune_config!$A$1:$AG$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rune_config!$A$1:$AH$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="467">
   <si>
     <t>名字</t>
   </si>
@@ -74,6 +74,9 @@
     <t>是否为modifier</t>
   </si>
   <si>
+    <t>是否每个玩家都添加属性</t>
+  </si>
+  <si>
     <t>属性</t>
   </si>
   <si>
@@ -123,6 +126,9 @@
   </si>
   <si>
     <t>is_modifier</t>
+  </si>
+  <si>
+    <t>is_all</t>
   </si>
   <si>
     <t>ObjectValues[{]</t>
@@ -653,13 +659,15 @@
     <t>快速成长</t>
   </si>
   <si>
-    <t>所有玩家经验值获取率提高%exp_bonus%%%</t>
+    <t>所有玩家经验值获取率提高%SingleExpeIncrease.Base%%%</t>
   </si>
   <si>
     <t>item_rune/快速成长I_II_III</t>
   </si>
   <si>
-    <t>exp_bonus 25 30 40</t>
+    <t>SingleExpeIncrease {
+"Base" "25 30 40"
+}</t>
   </si>
   <si>
     <t>rune_26</t>
@@ -1553,12 +1561,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1568,6 +1570,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1722,15 +1730,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.4"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3" tint="0.4"/>
-      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2093,19 +2101,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -2129,6 +2124,19 @@
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2585,55 +2593,55 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2648,10 +2656,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2796,7 +2804,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A8D52100-BA70-4648-B169-E045148DFD97}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{BBE30F67-CE95-4872-915B-52FFE02EB996}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -3106,12 +3114,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG101"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C17" sqref="C17"/>
+      <selection pane="topRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3128,26 +3136,26 @@
     <col min="12" max="12" width="24.8416666666667" customWidth="1"/>
     <col min="13" max="13" width="19.5083333333333" customWidth="1"/>
     <col min="14" max="14" width="41.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="23.175" customWidth="1"/>
-    <col min="16" max="16" width="18.0083333333333" customWidth="1"/>
-    <col min="17" max="17" width="36.5083333333333" customWidth="1"/>
-    <col min="18" max="18" width="31.0083333333333" customWidth="1"/>
-    <col min="19" max="19" width="31.3416666666667" customWidth="1"/>
-    <col min="20" max="20" width="29.5083333333333" customWidth="1"/>
-    <col min="21" max="21" width="24.3416666666667" customWidth="1"/>
-    <col min="22" max="22" width="19.8416666666667" customWidth="1"/>
-    <col min="23" max="23" width="3.625" customWidth="1"/>
-    <col min="24" max="24" width="18.875" customWidth="1"/>
-    <col min="25" max="25" width="32.5083333333333" customWidth="1"/>
-    <col min="26" max="26" width="33.0083333333333" customWidth="1"/>
-    <col min="27" max="27" width="28.5083333333333" customWidth="1"/>
-    <col min="28" max="28" width="23.175" customWidth="1"/>
-    <col min="29" max="29" width="22.8416666666667" customWidth="1"/>
-    <col min="30" max="30" width="19.8416666666667" customWidth="1"/>
-    <col min="31" max="33" width="5.625" customWidth="1"/>
+    <col min="15" max="16" width="23.175" customWidth="1"/>
+    <col min="17" max="17" width="18.0083333333333" customWidth="1"/>
+    <col min="18" max="18" width="36.5083333333333" customWidth="1"/>
+    <col min="19" max="19" width="31.0083333333333" customWidth="1"/>
+    <col min="20" max="20" width="31.3416666666667" customWidth="1"/>
+    <col min="21" max="21" width="29.5083333333333" customWidth="1"/>
+    <col min="22" max="22" width="24.3416666666667" customWidth="1"/>
+    <col min="23" max="23" width="19.8416666666667" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="18.875" customWidth="1"/>
+    <col min="26" max="26" width="32.5083333333333" customWidth="1"/>
+    <col min="27" max="27" width="33.0083333333333" customWidth="1"/>
+    <col min="28" max="28" width="28.5083333333333" customWidth="1"/>
+    <col min="29" max="29" width="23.175" customWidth="1"/>
+    <col min="30" max="30" width="22.8416666666667" customWidth="1"/>
+    <col min="31" max="31" width="19.8416666666667" customWidth="1"/>
+    <col min="32" max="34" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.25" customHeight="1" spans="1:33">
+    <row r="1" s="1" customFormat="1" ht="31.25" customHeight="1" spans="1:34">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3194,136 +3202,142 @@
       <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="9"/>
+      <c r="Q1" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="50" t="s">
+      <c r="V1" s="9"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="42" t="s">
         <v>16</v>
       </c>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="50" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="2" s="1" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A2" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="37">
-        <v>1</v>
-      </c>
-      <c r="R2" s="37">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="36">
+        <v>1</v>
+      </c>
+      <c r="S2" s="36">
         <v>2</v>
       </c>
-      <c r="S2" s="37">
+      <c r="T2" s="36">
         <v>3</v>
       </c>
-      <c r="T2" s="12">
+      <c r="U2" s="12">
         <v>4</v>
       </c>
-      <c r="U2" s="12">
+      <c r="V2" s="12">
         <v>5</v>
       </c>
-      <c r="V2" s="38">
+      <c r="W2" s="37">
         <v>6</v>
       </c>
-      <c r="W2" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" s="46">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="46">
+      <c r="X2" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="44">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="44">
         <v>2</v>
       </c>
-      <c r="AA2" s="46">
+      <c r="AB2" s="44">
         <v>3</v>
       </c>
-      <c r="AB2" s="19">
+      <c r="AC2" s="19">
         <v>4</v>
       </c>
-      <c r="AC2" s="19">
+      <c r="AD2" s="19">
         <v>5</v>
       </c>
-      <c r="AD2" s="19">
+      <c r="AE2" s="19">
         <v>6</v>
       </c>
-      <c r="AE2" s="19">
+      <c r="AF2" s="19">
         <v>7</v>
       </c>
-      <c r="AF2" s="19">
+      <c r="AG2" s="19">
         <v>8</v>
       </c>
-      <c r="AG2" s="40" t="s">
-        <v>32</v>
+      <c r="AH2" s="39" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" ht="49.5" spans="1:33">
+    <row r="3" ht="49.5" spans="1:34">
       <c r="A3" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="19">
@@ -3348,54 +3362,57 @@
         <v>1</v>
       </c>
       <c r="L3" s="32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O3" s="19">
         <v>0</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19"/>
       <c r="R3" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z3" s="12"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
-      <c r="AG3" s="38"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="37"/>
     </row>
-    <row r="4" ht="30.5" customHeight="1" spans="1:33">
+    <row r="4" ht="30.5" customHeight="1" spans="1:34">
       <c r="A4" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
@@ -3419,47 +3436,50 @@
         <v>1</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O4" s="12">
         <v>0</v>
       </c>
-      <c r="P4" s="12"/>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" s="19"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="AA4" s="19"/>
       <c r="AB4" s="19"/>
       <c r="AC4" s="19"/>
       <c r="AD4" s="19"/>
       <c r="AE4" s="19"/>
       <c r="AF4" s="19"/>
-      <c r="AG4" s="40"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="39"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="49.5" spans="1:33">
+    <row r="5" s="2" customFormat="1" ht="49.5" spans="1:34">
       <c r="A5" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="19">
@@ -3484,52 +3504,55 @@
         <v>1</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O5" s="19">
         <v>0</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="R5" s="19"/>
+      <c r="P5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z5" s="12"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
-      <c r="AG5" s="38"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="37"/>
     </row>
-    <row r="6" ht="30.5" customHeight="1" spans="1:33">
+    <row r="6" ht="30.5" customHeight="1" spans="1:34">
       <c r="A6" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
@@ -3553,47 +3576,50 @@
         <v>1</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O6" s="12">
         <v>0</v>
       </c>
-      <c r="P6" s="12"/>
+      <c r="P6" s="19">
+        <v>0</v>
+      </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z6" s="19"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="AA6" s="19"/>
       <c r="AB6" s="19"/>
       <c r="AC6" s="19"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
-      <c r="AG6" s="40"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="39"/>
     </row>
-    <row r="7" ht="49.5" spans="1:33">
+    <row r="7" ht="49.5" spans="1:34">
       <c r="A7" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="19">
@@ -3618,29 +3644,31 @@
         <v>1</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O7" s="19">
         <v>0</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="19"/>
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="12"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="11"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
       <c r="AB7" s="12"/>
@@ -3648,17 +3676,18 @@
       <c r="AD7" s="12"/>
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
-      <c r="AG7" s="38"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="37"/>
     </row>
-    <row r="8" ht="49.5" spans="1:33">
+    <row r="8" ht="49.5" spans="1:34">
       <c r="A8" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="12">
@@ -3683,29 +3712,31 @@
         <v>1</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O8" s="12">
         <v>0</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="R8" s="12"/>
+      <c r="P8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="19"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="15"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
       <c r="AB8" s="19"/>
@@ -3713,17 +3744,18 @@
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
-      <c r="AG8" s="40"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="39"/>
     </row>
-    <row r="9" ht="49.5" spans="1:33">
+    <row r="9" ht="49.5" spans="1:34">
       <c r="A9" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="19">
@@ -3748,29 +3780,31 @@
         <v>1</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O9" s="19">
         <v>0</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="R9" s="19"/>
+      <c r="P9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="12"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="11"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
@@ -3778,20 +3812,21 @@
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
-      <c r="AG9" s="38"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="37"/>
     </row>
-    <row r="10" ht="33" spans="1:33">
+    <row r="10" ht="33" spans="1:34">
       <c r="A10" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
@@ -3815,54 +3850,57 @@
         <v>1</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O10" s="12">
         <v>0</v>
       </c>
-      <c r="P10" s="12"/>
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="19" t="s">
-        <v>81</v>
-      </c>
+      <c r="V10" s="12"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="15"/>
       <c r="Z10" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB10" s="19"/>
+        <v>84</v>
+      </c>
+      <c r="AB10" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="AC10" s="19"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
-      <c r="AG10" s="40"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="39"/>
     </row>
-    <row r="11" ht="49.5" spans="1:33">
+    <row r="11" ht="49.5" spans="1:34">
       <c r="A11" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E11" s="19">
         <v>1</v>
@@ -3886,54 +3924,57 @@
         <v>1</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O11" s="19">
         <v>0</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="R11" s="19"/>
+      <c r="P11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="12" t="s">
-        <v>92</v>
-      </c>
+      <c r="V11" s="19"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="11"/>
       <c r="Z11" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA11" s="12"/>
+        <v>94</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
       <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
-      <c r="AG11" s="38"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="37"/>
     </row>
-    <row r="12" ht="30.5" customHeight="1" spans="1:33">
+    <row r="12" ht="30.5" customHeight="1" spans="1:34">
       <c r="A12" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E12" s="12">
         <v>1</v>
@@ -3957,52 +3998,55 @@
         <v>1</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M12" s="33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O12" s="12">
         <v>0</v>
       </c>
-      <c r="P12" s="12"/>
+      <c r="P12" s="19">
+        <v>0</v>
+      </c>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="19" t="s">
-        <v>99</v>
-      </c>
+      <c r="V12" s="12"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="15"/>
       <c r="Z12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA12" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="AA12" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="AB12" s="19"/>
       <c r="AC12" s="19"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
-      <c r="AG12" s="40"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="39"/>
     </row>
-    <row r="13" ht="30.5" customHeight="1" spans="1:33">
+    <row r="13" ht="30.5" customHeight="1" spans="1:34">
       <c r="A13" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
@@ -4026,56 +4070,59 @@
         <v>1</v>
       </c>
       <c r="L13" s="32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O13" s="19">
         <v>0</v>
       </c>
-      <c r="P13" s="19"/>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="12" t="s">
-        <v>106</v>
-      </c>
+      <c r="V13" s="19"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="11"/>
       <c r="Z13" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC13" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="AC13" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="12"/>
-      <c r="AG13" s="38"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="37"/>
     </row>
-    <row r="14" ht="49.5" spans="1:33">
+    <row r="14" ht="49.5" spans="1:34">
       <c r="A14" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E14" s="12">
         <v>1</v>
@@ -4099,51 +4146,54 @@
         <v>1</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O14" s="12">
         <v>0</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="R14" s="12"/>
+      <c r="P14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12" t="s">
+        <v>117</v>
+      </c>
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="19" t="s">
-        <v>116</v>
-      </c>
+      <c r="V14" s="12"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="15"/>
       <c r="Z14" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA14" s="19"/>
+        <v>118</v>
+      </c>
+      <c r="AA14" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="AB14" s="19"/>
       <c r="AC14" s="19"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
-      <c r="AG14" s="40"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="39"/>
     </row>
-    <row r="15" ht="49.5" spans="1:33">
+    <row r="15" ht="49.5" spans="1:34">
       <c r="A15" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="19">
@@ -4168,31 +4218,33 @@
         <v>1</v>
       </c>
       <c r="L15" s="32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O15" s="19">
         <v>0</v>
       </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19" t="s">
-        <v>122</v>
-      </c>
+      <c r="P15" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19"/>
       <c r="R15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="S15" s="19"/>
+        <v>124</v>
+      </c>
+      <c r="S15" s="19" t="s">
+        <v>125</v>
+      </c>
       <c r="T15" s="19"/>
       <c r="U15" s="19"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="12"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="11"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
@@ -4200,20 +4252,21 @@
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
-      <c r="AG15" s="38"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="37"/>
     </row>
-    <row r="16" ht="49.5" spans="1:33">
+    <row r="16" ht="49.5" spans="1:34">
       <c r="A16" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E16" s="12">
         <v>1</v>
@@ -4237,52 +4290,55 @@
         <v>1</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O16" s="12">
         <v>0</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="R16" s="12"/>
+      <c r="P16" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z16" s="19"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
       <c r="AC16" s="19"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
-      <c r="AG16" s="40"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="39"/>
     </row>
-    <row r="17" ht="30.5" customHeight="1" spans="1:33">
+    <row r="17" ht="30.5" customHeight="1" spans="1:34">
       <c r="A17" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E17" s="19">
         <v>1</v>
@@ -4306,52 +4362,55 @@
         <v>1</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O17" s="19">
         <v>0</v>
       </c>
-      <c r="P17" s="19"/>
+      <c r="P17" s="19">
+        <v>0</v>
+      </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
       <c r="U17" s="19"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="12" t="s">
-        <v>106</v>
-      </c>
+      <c r="V17" s="19"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA17" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="AA17" s="12" t="s">
+        <v>137</v>
+      </c>
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
       <c r="AF17" s="12"/>
-      <c r="AG17" s="38"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="37"/>
     </row>
-    <row r="18" ht="49.5" spans="1:33">
+    <row r="18" ht="49.5" spans="1:34">
       <c r="A18" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E18" s="12">
         <v>1</v>
@@ -4375,54 +4434,57 @@
         <v>1</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O18" s="12">
         <v>0</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="R18" s="12"/>
+      <c r="P18" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12" t="s">
+        <v>142</v>
+      </c>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="19" t="s">
-        <v>141</v>
-      </c>
+      <c r="V18" s="12"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="15"/>
       <c r="Z18" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA18" s="19"/>
+        <v>143</v>
+      </c>
+      <c r="AA18" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="AB18" s="19"/>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
-      <c r="AG18" s="40"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="39"/>
     </row>
-    <row r="19" ht="33" spans="1:33">
+    <row r="19" ht="33" spans="1:34">
       <c r="A19" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E19" s="19">
         <v>1</v>
@@ -4446,52 +4508,55 @@
         <v>1</v>
       </c>
       <c r="L19" s="32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O19" s="19">
         <v>0</v>
       </c>
-      <c r="P19" s="19"/>
+      <c r="P19" s="19">
+        <v>0</v>
+      </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
       <c r="U19" s="19"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="12" t="s">
-        <v>147</v>
-      </c>
+      <c r="V19" s="19"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="11"/>
       <c r="Z19" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA19" s="12"/>
+        <v>149</v>
+      </c>
+      <c r="AA19" s="12" t="s">
+        <v>150</v>
+      </c>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
       <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="12"/>
-      <c r="AG19" s="38"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="37"/>
     </row>
-    <row r="20" ht="49.5" spans="1:33">
+    <row r="20" ht="49.5" spans="1:34">
       <c r="A20" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E20" s="12">
         <v>1</v>
@@ -4515,31 +4580,33 @@
         <v>1</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O20" s="12">
         <v>0</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12" t="s">
-        <v>153</v>
-      </c>
+      <c r="P20" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="12"/>
       <c r="R20" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="S20" s="12"/>
+        <v>155</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="19"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="15"/>
       <c r="Z20" s="19"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
@@ -4547,17 +4614,18 @@
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
-      <c r="AG20" s="40"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="39"/>
     </row>
-    <row r="21" ht="49.5" spans="1:33">
+    <row r="21" ht="49.5" spans="1:34">
       <c r="A21" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="19">
@@ -4582,29 +4650,31 @@
         <v>1</v>
       </c>
       <c r="L21" s="32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O21" s="19">
         <v>0</v>
       </c>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="R21" s="19"/>
+      <c r="P21" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19" t="s">
+        <v>161</v>
+      </c>
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="12"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="11"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
@@ -4612,20 +4682,21 @@
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="12"/>
-      <c r="AG21" s="38"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="37"/>
     </row>
-    <row r="22" ht="49.5" spans="1:33">
+    <row r="22" ht="49.5" spans="1:34">
       <c r="A22" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E22" s="12">
         <v>1</v>
@@ -4649,54 +4720,57 @@
         <v>1</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O22" s="12">
         <v>0</v>
       </c>
-      <c r="P22" s="12"/>
+      <c r="P22" s="19">
+        <v>0</v>
+      </c>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="19" t="s">
-        <v>164</v>
-      </c>
+      <c r="V22" s="12"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="15"/>
       <c r="Z22" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA22" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB22" s="19"/>
+        <v>167</v>
+      </c>
+      <c r="AB22" s="19" t="s">
+        <v>168</v>
+      </c>
       <c r="AC22" s="19"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
-      <c r="AG22" s="40"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="39"/>
     </row>
-    <row r="23" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="23" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A23" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E23" s="19">
         <v>1</v>
@@ -4720,27 +4794,29 @@
         <v>1</v>
       </c>
       <c r="L23" s="32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O23" s="19">
         <v>0</v>
       </c>
-      <c r="P23" s="19"/>
+      <c r="P23" s="19">
+        <v>0</v>
+      </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="12"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="11"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
@@ -4748,20 +4824,21 @@
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="12"/>
-      <c r="AG23" s="38"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="37"/>
     </row>
-    <row r="24" ht="30.5" customHeight="1" spans="1:33">
+    <row r="24" ht="30.5" customHeight="1" spans="1:34">
       <c r="A24" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
@@ -4785,54 +4862,57 @@
         <v>1</v>
       </c>
       <c r="L24" s="33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M24" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O24" s="12">
         <v>0</v>
       </c>
-      <c r="P24" s="12"/>
+      <c r="P24" s="19">
+        <v>0</v>
+      </c>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="19" t="s">
-        <v>175</v>
-      </c>
+      <c r="V24" s="12"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="15"/>
       <c r="Z24" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA24" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB24" s="19"/>
+        <v>178</v>
+      </c>
+      <c r="AB24" s="19" t="s">
+        <v>179</v>
+      </c>
       <c r="AC24" s="19"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
-      <c r="AG24" s="40"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="39"/>
     </row>
-    <row r="25" ht="30.5" customHeight="1" spans="1:33">
+    <row r="25" ht="30.5" customHeight="1" spans="1:34">
       <c r="A25" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E25" s="19">
         <v>1</v>
@@ -4856,52 +4936,55 @@
         <v>1</v>
       </c>
       <c r="L25" s="32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O25" s="19">
         <v>0</v>
       </c>
-      <c r="P25" s="19"/>
+      <c r="P25" s="19">
+        <v>0</v>
+      </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
       <c r="S25" s="19"/>
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="12" t="s">
-        <v>99</v>
-      </c>
+      <c r="V25" s="19"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="11"/>
       <c r="Z25" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA25" s="12"/>
+        <v>101</v>
+      </c>
+      <c r="AA25" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="12"/>
-      <c r="AG25" s="38"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="37"/>
     </row>
-    <row r="26" ht="30.5" customHeight="1" spans="1:33">
+    <row r="26" ht="30.5" customHeight="1" spans="1:34">
       <c r="A26" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E26" s="12">
         <v>1</v>
@@ -4925,52 +5008,55 @@
         <v>1</v>
       </c>
       <c r="L26" s="33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M26" s="33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O26" s="12">
         <v>0</v>
       </c>
-      <c r="P26" s="12"/>
+      <c r="P26" s="19">
+        <v>0</v>
+      </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="19" t="s">
-        <v>187</v>
-      </c>
+      <c r="V26" s="12"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="15"/>
       <c r="Z26" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA26" s="19"/>
+        <v>189</v>
+      </c>
+      <c r="AA26" s="19" t="s">
+        <v>190</v>
+      </c>
       <c r="AB26" s="19"/>
       <c r="AC26" s="19"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
-      <c r="AG26" s="40"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="39"/>
     </row>
-    <row r="27" ht="30.5" customHeight="1" spans="1:33">
+    <row r="27" ht="49" customHeight="1" spans="1:34">
       <c r="A27" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E27" s="19">
         <v>1</v>
@@ -4994,29 +5080,31 @@
         <v>1</v>
       </c>
       <c r="L27" s="32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N27" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O27" s="19">
         <v>0</v>
       </c>
-      <c r="P27" s="19"/>
+      <c r="P27" s="19">
+        <v>1</v>
+      </c>
       <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
+      <c r="R27" s="19" t="s">
+        <v>195</v>
+      </c>
       <c r="S27" s="19"/>
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="12" t="s">
-        <v>193</v>
-      </c>
+      <c r="V27" s="19"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="11"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
@@ -5024,17 +5112,18 @@
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
-      <c r="AG27" s="38"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="37"/>
     </row>
-    <row r="28" ht="30.5" customHeight="1" spans="1:33">
+    <row r="28" ht="30.5" customHeight="1" spans="1:34">
       <c r="A28" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="12">
@@ -5059,49 +5148,52 @@
         <v>1</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O28" s="12">
         <v>0</v>
       </c>
-      <c r="P28" s="12"/>
+      <c r="P28" s="19">
+        <v>0</v>
+      </c>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="19" t="s">
-        <v>199</v>
-      </c>
+      <c r="V28" s="12"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="15"/>
       <c r="Z28" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA28" s="19"/>
+        <v>201</v>
+      </c>
+      <c r="AA28" s="19" t="s">
+        <v>202</v>
+      </c>
       <c r="AB28" s="19"/>
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
-      <c r="AG28" s="40"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="39"/>
     </row>
-    <row r="29" ht="30.5" customHeight="1" spans="1:33">
+    <row r="29" ht="30.5" customHeight="1" spans="1:34">
       <c r="A29" s="15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="19">
@@ -5126,49 +5218,52 @@
         <v>1</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O29" s="19">
         <v>0</v>
       </c>
-      <c r="P29" s="19"/>
+      <c r="P29" s="19">
+        <v>0</v>
+      </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
       <c r="T29" s="19"/>
       <c r="U29" s="19"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="V29" s="19"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="11"/>
       <c r="Z29" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA29" s="12"/>
+        <v>207</v>
+      </c>
+      <c r="AA29" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
       <c r="AF29" s="12"/>
-      <c r="AG29" s="38"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="37"/>
     </row>
-    <row r="30" ht="30.5" customHeight="1" spans="1:33">
+    <row r="30" ht="30.5" customHeight="1" spans="1:34">
       <c r="A30" s="15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="12">
@@ -5193,47 +5288,50 @@
         <v>1</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O30" s="12">
         <v>0</v>
       </c>
-      <c r="P30" s="12"/>
+      <c r="P30" s="19">
+        <v>0</v>
+      </c>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z30" s="19"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="19" t="s">
+        <v>213</v>
+      </c>
       <c r="AA30" s="19"/>
       <c r="AB30" s="19"/>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
-      <c r="AG30" s="40"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="39"/>
     </row>
-    <row r="31" ht="30.5" customHeight="1" spans="1:33">
+    <row r="31" ht="30.5" customHeight="1" spans="1:34">
       <c r="A31" s="15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="19">
@@ -5258,49 +5356,52 @@
         <v>1</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N31" s="19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O31" s="19">
         <v>0</v>
       </c>
-      <c r="P31" s="19"/>
+      <c r="P31" s="19">
+        <v>0</v>
+      </c>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="12" t="s">
-        <v>215</v>
-      </c>
+      <c r="V31" s="19"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="11"/>
       <c r="Z31" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA31" s="12"/>
+        <v>217</v>
+      </c>
+      <c r="AA31" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
       <c r="AF31" s="12"/>
-      <c r="AG31" s="38"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="37"/>
     </row>
-    <row r="32" ht="30.5" customHeight="1" spans="1:33">
+    <row r="32" ht="30.5" customHeight="1" spans="1:34">
       <c r="A32" s="15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="12">
@@ -5325,47 +5426,50 @@
         <v>1</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O32" s="12">
         <v>0</v>
       </c>
-      <c r="P32" s="12"/>
+      <c r="P32" s="19">
+        <v>0</v>
+      </c>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z32" s="19"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="19" t="s">
+        <v>213</v>
+      </c>
       <c r="AA32" s="19"/>
       <c r="AB32" s="19"/>
       <c r="AC32" s="19"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
-      <c r="AG32" s="40"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="39"/>
     </row>
-    <row r="33" ht="30.5" customHeight="1" spans="1:33">
+    <row r="33" ht="30.5" customHeight="1" spans="1:34">
       <c r="A33" s="15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="19">
@@ -5390,47 +5494,50 @@
         <v>1</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O33" s="19">
         <v>0</v>
       </c>
-      <c r="P33" s="19"/>
+      <c r="P33" s="19">
+        <v>0</v>
+      </c>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
       <c r="T33" s="19"/>
       <c r="U33" s="19"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z33" s="12"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
       <c r="AC33" s="12"/>
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
       <c r="AF33" s="12"/>
-      <c r="AG33" s="38"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="37"/>
     </row>
-    <row r="34" ht="30.5" customHeight="1" spans="1:33">
+    <row r="34" ht="30.5" customHeight="1" spans="1:34">
       <c r="A34" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="12">
@@ -5455,47 +5562,50 @@
         <v>1</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N34" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O34" s="12">
         <v>0</v>
       </c>
-      <c r="P34" s="12"/>
+      <c r="P34" s="19">
+        <v>0</v>
+      </c>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z34" s="19"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="19" t="s">
+        <v>213</v>
+      </c>
       <c r="AA34" s="19"/>
       <c r="AB34" s="19"/>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
-      <c r="AG34" s="40"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="39"/>
     </row>
-    <row r="35" ht="30.5" customHeight="1" spans="1:33">
+    <row r="35" ht="30.5" customHeight="1" spans="1:34">
       <c r="A35" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="19">
@@ -5520,47 +5630,50 @@
         <v>1</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O35" s="19">
         <v>0</v>
       </c>
-      <c r="P35" s="19"/>
+      <c r="P35" s="19">
+        <v>0</v>
+      </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
       <c r="S35" s="19"/>
       <c r="T35" s="19"/>
       <c r="U35" s="19"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z35" s="12"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
       <c r="AC35" s="12"/>
       <c r="AD35" s="12"/>
       <c r="AE35" s="12"/>
       <c r="AF35" s="12"/>
-      <c r="AG35" s="38"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="37"/>
     </row>
-    <row r="36" ht="30.5" customHeight="1" spans="1:33">
+    <row r="36" ht="30.5" customHeight="1" spans="1:34">
       <c r="A36" s="15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="12">
@@ -5585,47 +5698,50 @@
         <v>1</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N36" s="19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O36" s="12">
         <v>0</v>
       </c>
-      <c r="P36" s="12"/>
+      <c r="P36" s="19">
+        <v>0</v>
+      </c>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z36" s="19"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="19" t="s">
+        <v>241</v>
+      </c>
       <c r="AA36" s="19"/>
       <c r="AB36" s="19"/>
       <c r="AC36" s="19"/>
       <c r="AD36" s="19"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
-      <c r="AG36" s="40"/>
+      <c r="AG36" s="19"/>
+      <c r="AH36" s="39"/>
     </row>
-    <row r="37" ht="30.5" customHeight="1" spans="1:33">
+    <row r="37" ht="30.5" customHeight="1" spans="1:34">
       <c r="A37" s="15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="19">
@@ -5650,47 +5766,50 @@
         <v>1</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N37" s="19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O37" s="19">
         <v>0</v>
       </c>
-      <c r="P37" s="19"/>
+      <c r="P37" s="19">
+        <v>0</v>
+      </c>
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
       <c r="S37" s="19"/>
       <c r="T37" s="19"/>
       <c r="U37" s="19"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z37" s="12"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="12" t="s">
+        <v>245</v>
+      </c>
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
       <c r="AD37" s="12"/>
       <c r="AE37" s="12"/>
       <c r="AF37" s="12"/>
-      <c r="AG37" s="38"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="37"/>
     </row>
-    <row r="38" ht="31.25" customHeight="1" spans="1:33">
+    <row r="38" ht="31.25" customHeight="1" spans="1:34">
       <c r="A38" s="15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="12">
@@ -5715,47 +5834,50 @@
         <v>1</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N38" s="19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O38" s="12">
         <v>0</v>
       </c>
-      <c r="P38" s="12"/>
+      <c r="P38" s="19">
+        <v>0</v>
+      </c>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z38" s="47"/>
-      <c r="AA38" s="47"/>
-      <c r="AB38" s="47"/>
-      <c r="AC38" s="19"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="45"/>
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
-      <c r="AG38" s="40"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="39"/>
     </row>
-    <row r="39" ht="30.5" customHeight="1" spans="1:33">
+    <row r="39" ht="30.5" customHeight="1" spans="1:34">
       <c r="A39" s="15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="19">
@@ -5780,47 +5902,50 @@
         <v>1</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N39" s="19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O39" s="19">
         <v>0</v>
       </c>
-      <c r="P39" s="19"/>
+      <c r="P39" s="19">
+        <v>0</v>
+      </c>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
       <c r="S39" s="19"/>
       <c r="T39" s="19"/>
       <c r="U39" s="19"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z39" s="12"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="12" t="s">
+        <v>254</v>
+      </c>
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
-      <c r="AC39" s="48"/>
-      <c r="AD39" s="48"/>
-      <c r="AE39" s="48"/>
-      <c r="AF39" s="48"/>
-      <c r="AG39" s="51"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="51"/>
     </row>
-    <row r="40" ht="30.5" customHeight="1" spans="1:33">
+    <row r="40" ht="30.5" customHeight="1" spans="1:34">
       <c r="A40" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D40" s="27"/>
       <c r="E40" s="12">
@@ -5845,47 +5970,50 @@
         <v>1</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N40" s="19" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O40" s="12">
         <v>0</v>
       </c>
-      <c r="P40" s="12"/>
+      <c r="P40" s="19">
+        <v>0</v>
+      </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="44"/>
-      <c r="Y40" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z40" s="19"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="19" t="s">
+        <v>259</v>
+      </c>
       <c r="AA40" s="19"/>
       <c r="AB40" s="19"/>
-      <c r="AC40" s="49"/>
+      <c r="AC40" s="19"/>
       <c r="AD40" s="49"/>
       <c r="AE40" s="49"/>
       <c r="AF40" s="49"/>
-      <c r="AG40" s="52"/>
+      <c r="AG40" s="49"/>
+      <c r="AH40" s="52"/>
     </row>
-    <row r="41" ht="30.5" customHeight="1" spans="1:33">
+    <row r="41" ht="30.5" customHeight="1" spans="1:34">
       <c r="A41" s="15" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="19">
@@ -5910,47 +6038,50 @@
         <v>1</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M41" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N41" s="19" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O41" s="19">
         <v>0</v>
       </c>
-      <c r="P41" s="19"/>
+      <c r="P41" s="19">
+        <v>0</v>
+      </c>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z41" s="12"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="12" t="s">
+        <v>264</v>
+      </c>
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
-      <c r="AC41" s="48"/>
-      <c r="AD41" s="48"/>
-      <c r="AE41" s="48"/>
-      <c r="AF41" s="48"/>
-      <c r="AG41" s="51"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="47"/>
+      <c r="AE41" s="47"/>
+      <c r="AF41" s="47"/>
+      <c r="AG41" s="47"/>
+      <c r="AH41" s="51"/>
     </row>
-    <row r="42" ht="30.5" customHeight="1" spans="1:33">
+    <row r="42" ht="30.5" customHeight="1" spans="1:34">
       <c r="A42" s="15" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="12">
@@ -5975,47 +6106,50 @@
         <v>1</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N42" s="19" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O42" s="12">
         <v>0</v>
       </c>
-      <c r="P42" s="12"/>
+      <c r="P42" s="19">
+        <v>0</v>
+      </c>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z42" s="19"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="19" t="s">
+        <v>269</v>
+      </c>
       <c r="AA42" s="19"/>
       <c r="AB42" s="19"/>
       <c r="AC42" s="19"/>
       <c r="AD42" s="19"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
-      <c r="AG42" s="40"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="39"/>
     </row>
-    <row r="43" ht="30.5" customHeight="1" spans="1:33">
+    <row r="43" ht="30.5" customHeight="1" spans="1:34">
       <c r="A43" s="15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="19">
@@ -6040,47 +6174,50 @@
         <v>1</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M43" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N43" s="19" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O43" s="19">
         <v>0</v>
       </c>
-      <c r="P43" s="19"/>
+      <c r="P43" s="19">
+        <v>0</v>
+      </c>
       <c r="Q43" s="19"/>
       <c r="R43" s="19"/>
       <c r="S43" s="19"/>
       <c r="T43" s="19"/>
       <c r="U43" s="19"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="41"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z43" s="12"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="46"/>
+      <c r="Z43" s="12" t="s">
+        <v>274</v>
+      </c>
       <c r="AA43" s="12"/>
       <c r="AB43" s="12"/>
-      <c r="AC43" s="48"/>
-      <c r="AD43" s="48"/>
-      <c r="AE43" s="48"/>
-      <c r="AF43" s="48"/>
-      <c r="AG43" s="51"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="47"/>
+      <c r="AE43" s="47"/>
+      <c r="AF43" s="47"/>
+      <c r="AG43" s="47"/>
+      <c r="AH43" s="51"/>
     </row>
-    <row r="44" ht="30.5" customHeight="1" spans="1:33">
+    <row r="44" ht="30.5" customHeight="1" spans="1:34">
       <c r="A44" s="15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="12">
@@ -6105,47 +6242,50 @@
         <v>1</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N44" s="19" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O44" s="12">
         <v>0</v>
       </c>
-      <c r="P44" s="12"/>
+      <c r="P44" s="19">
+        <v>0</v>
+      </c>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z44" s="19"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="41"/>
+      <c r="Y44" s="48"/>
+      <c r="Z44" s="19" t="s">
+        <v>279</v>
+      </c>
       <c r="AA44" s="19"/>
       <c r="AB44" s="19"/>
-      <c r="AC44" s="49"/>
+      <c r="AC44" s="19"/>
       <c r="AD44" s="49"/>
       <c r="AE44" s="49"/>
       <c r="AF44" s="49"/>
-      <c r="AG44" s="52"/>
+      <c r="AG44" s="49"/>
+      <c r="AH44" s="52"/>
     </row>
-    <row r="45" ht="30.5" customHeight="1" spans="1:33">
+    <row r="45" ht="30.5" customHeight="1" spans="1:34">
       <c r="A45" s="15" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D45" s="29"/>
       <c r="E45" s="19">
@@ -6170,47 +6310,50 @@
         <v>1</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M45" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N45" s="19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O45" s="19">
         <v>0</v>
       </c>
-      <c r="P45" s="19"/>
+      <c r="P45" s="19">
+        <v>0</v>
+      </c>
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
       <c r="T45" s="19"/>
       <c r="U45" s="19"/>
-      <c r="V45" s="40"/>
-      <c r="W45" s="41"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z45" s="12"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="46"/>
+      <c r="Z45" s="12" t="s">
+        <v>284</v>
+      </c>
       <c r="AA45" s="12"/>
       <c r="AB45" s="12"/>
-      <c r="AC45" s="48"/>
-      <c r="AD45" s="48"/>
-      <c r="AE45" s="48"/>
-      <c r="AF45" s="48"/>
-      <c r="AG45" s="51"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="47"/>
+      <c r="AE45" s="47"/>
+      <c r="AF45" s="47"/>
+      <c r="AG45" s="47"/>
+      <c r="AH45" s="51"/>
     </row>
-    <row r="46" ht="30.5" customHeight="1" spans="1:33">
+    <row r="46" ht="30.5" customHeight="1" spans="1:34">
       <c r="A46" s="15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="12">
@@ -6235,47 +6378,50 @@
         <v>1</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N46" s="19" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O46" s="12">
         <v>0</v>
       </c>
-      <c r="P46" s="12"/>
+      <c r="P46" s="19">
+        <v>0</v>
+      </c>
       <c r="Q46" s="12"/>
       <c r="R46" s="12"/>
       <c r="S46" s="12"/>
       <c r="T46" s="12"/>
       <c r="U46" s="12"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="44"/>
-      <c r="Y46" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z46" s="19"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="48"/>
+      <c r="Z46" s="19" t="s">
+        <v>289</v>
+      </c>
       <c r="AA46" s="19"/>
       <c r="AB46" s="19"/>
-      <c r="AC46" s="49"/>
+      <c r="AC46" s="19"/>
       <c r="AD46" s="49"/>
       <c r="AE46" s="49"/>
       <c r="AF46" s="49"/>
-      <c r="AG46" s="52"/>
+      <c r="AG46" s="49"/>
+      <c r="AH46" s="52"/>
     </row>
-    <row r="47" ht="30.5" customHeight="1" spans="1:33">
+    <row r="47" ht="30.5" customHeight="1" spans="1:34">
       <c r="A47" s="15" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="19">
@@ -6300,49 +6446,52 @@
         <v>1</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N47" s="19" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O47" s="19">
         <v>0</v>
       </c>
-      <c r="P47" s="19"/>
+      <c r="P47" s="19">
+        <v>0</v>
+      </c>
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
       <c r="T47" s="19"/>
       <c r="U47" s="19"/>
-      <c r="V47" s="40"/>
-      <c r="W47" s="41"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="12" t="s">
-        <v>292</v>
-      </c>
+      <c r="V47" s="19"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="46"/>
       <c r="Z47" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA47" s="12"/>
+        <v>294</v>
+      </c>
+      <c r="AA47" s="12" t="s">
+        <v>295</v>
+      </c>
       <c r="AB47" s="12"/>
-      <c r="AC47" s="48"/>
-      <c r="AD47" s="48"/>
-      <c r="AE47" s="48"/>
-      <c r="AF47" s="48"/>
-      <c r="AG47" s="51"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="47"/>
+      <c r="AE47" s="47"/>
+      <c r="AF47" s="47"/>
+      <c r="AG47" s="47"/>
+      <c r="AH47" s="51"/>
     </row>
-    <row r="48" ht="30.5" customHeight="1" spans="1:33">
+    <row r="48" ht="30.5" customHeight="1" spans="1:34">
       <c r="A48" s="15" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="12">
@@ -6367,47 +6516,50 @@
         <v>1</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N48" s="19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O48" s="12">
         <v>0</v>
       </c>
-      <c r="P48" s="12"/>
+      <c r="P48" s="19">
+        <v>0</v>
+      </c>
       <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="42"/>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="Z48" s="19"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="48"/>
+      <c r="Z48" s="19" t="s">
+        <v>300</v>
+      </c>
       <c r="AA48" s="19"/>
       <c r="AB48" s="19"/>
-      <c r="AC48" s="49"/>
+      <c r="AC48" s="19"/>
       <c r="AD48" s="49"/>
       <c r="AE48" s="49"/>
       <c r="AF48" s="49"/>
-      <c r="AG48" s="52"/>
+      <c r="AG48" s="49"/>
+      <c r="AH48" s="52"/>
     </row>
-    <row r="49" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="49" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A49" s="15" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D49" s="29"/>
       <c r="E49" s="19">
@@ -6432,47 +6584,50 @@
         <v>1</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M49" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N49" s="19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O49" s="19">
         <v>0</v>
       </c>
-      <c r="P49" s="19"/>
+      <c r="P49" s="19">
+        <v>0</v>
+      </c>
       <c r="Q49" s="19"/>
       <c r="R49" s="19"/>
       <c r="S49" s="19"/>
       <c r="T49" s="19"/>
       <c r="U49" s="19"/>
-      <c r="V49" s="40"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="43"/>
-      <c r="Y49" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z49" s="12"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="46"/>
+      <c r="Z49" s="12" t="s">
+        <v>305</v>
+      </c>
       <c r="AA49" s="12"/>
       <c r="AB49" s="12"/>
-      <c r="AC49" s="48"/>
-      <c r="AD49" s="48"/>
-      <c r="AE49" s="48"/>
-      <c r="AF49" s="48"/>
-      <c r="AG49" s="51"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="47"/>
+      <c r="AE49" s="47"/>
+      <c r="AF49" s="47"/>
+      <c r="AG49" s="47"/>
+      <c r="AH49" s="51"/>
     </row>
-    <row r="50" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="50" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A50" s="15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="12">
@@ -6497,49 +6652,52 @@
         <v>1</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N50" s="19" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O50" s="12">
         <v>0</v>
       </c>
-      <c r="P50" s="12"/>
+      <c r="P50" s="19">
+        <v>0</v>
+      </c>
       <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
       <c r="S50" s="12"/>
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="42"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="19" t="s">
-        <v>308</v>
-      </c>
+      <c r="V50" s="12"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="41"/>
+      <c r="Y50" s="48"/>
       <c r="Z50" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA50" s="19"/>
+        <v>310</v>
+      </c>
+      <c r="AA50" s="19" t="s">
+        <v>311</v>
+      </c>
       <c r="AB50" s="19"/>
-      <c r="AC50" s="49"/>
+      <c r="AC50" s="19"/>
       <c r="AD50" s="49"/>
       <c r="AE50" s="49"/>
       <c r="AF50" s="49"/>
-      <c r="AG50" s="52"/>
+      <c r="AG50" s="49"/>
+      <c r="AH50" s="52"/>
     </row>
-    <row r="51" ht="30.5" customHeight="1" spans="1:33">
+    <row r="51" ht="30.5" customHeight="1" spans="1:34">
       <c r="A51" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D51" s="29"/>
       <c r="E51" s="19">
@@ -6564,49 +6722,52 @@
         <v>1</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M51" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N51" s="19" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O51" s="19">
         <v>0</v>
       </c>
-      <c r="P51" s="19"/>
+      <c r="P51" s="19">
+        <v>0</v>
+      </c>
       <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
       <c r="S51" s="19"/>
       <c r="T51" s="19"/>
       <c r="U51" s="19"/>
-      <c r="V51" s="40"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="43"/>
-      <c r="Y51" s="12" t="s">
-        <v>313</v>
-      </c>
+      <c r="V51" s="19"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="46"/>
       <c r="Z51" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA51" s="12"/>
+        <v>315</v>
+      </c>
+      <c r="AA51" s="12" t="s">
+        <v>311</v>
+      </c>
       <c r="AB51" s="12"/>
-      <c r="AC51" s="48"/>
-      <c r="AD51" s="48"/>
-      <c r="AE51" s="48"/>
-      <c r="AF51" s="48"/>
-      <c r="AG51" s="51"/>
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="47"/>
+      <c r="AE51" s="47"/>
+      <c r="AF51" s="47"/>
+      <c r="AG51" s="47"/>
+      <c r="AH51" s="51"/>
     </row>
-    <row r="52" ht="30.5" customHeight="1" spans="1:33">
+    <row r="52" ht="30.5" customHeight="1" spans="1:34">
       <c r="A52" s="15" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="12">
@@ -6631,47 +6792,50 @@
         <v>1</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N52" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O52" s="12">
         <v>0</v>
       </c>
-      <c r="P52" s="12"/>
+      <c r="P52" s="19">
+        <v>0</v>
+      </c>
       <c r="Q52" s="12"/>
       <c r="R52" s="12"/>
       <c r="S52" s="12"/>
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
-      <c r="V52" s="38"/>
-      <c r="W52" s="42"/>
-      <c r="X52" s="44"/>
-      <c r="Y52" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="Z52" s="19"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="41"/>
+      <c r="Y52" s="48"/>
+      <c r="Z52" s="19" t="s">
+        <v>320</v>
+      </c>
       <c r="AA52" s="19"/>
       <c r="AB52" s="19"/>
-      <c r="AC52" s="49"/>
+      <c r="AC52" s="19"/>
       <c r="AD52" s="49"/>
       <c r="AE52" s="49"/>
       <c r="AF52" s="49"/>
-      <c r="AG52" s="52"/>
+      <c r="AG52" s="49"/>
+      <c r="AH52" s="52"/>
     </row>
-    <row r="53" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="53" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A53" s="15" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="19">
@@ -6696,47 +6860,50 @@
         <v>1</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M53" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N53" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O53" s="19">
         <v>0</v>
       </c>
-      <c r="P53" s="19"/>
+      <c r="P53" s="19">
+        <v>0</v>
+      </c>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
       <c r="S53" s="19"/>
       <c r="T53" s="19"/>
       <c r="U53" s="19"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="41"/>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z53" s="12"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="46"/>
+      <c r="Z53" s="12" t="s">
+        <v>324</v>
+      </c>
       <c r="AA53" s="12"/>
       <c r="AB53" s="12"/>
-      <c r="AC53" s="48"/>
-      <c r="AD53" s="48"/>
-      <c r="AE53" s="48"/>
-      <c r="AF53" s="48"/>
-      <c r="AG53" s="51"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="47"/>
+      <c r="AE53" s="47"/>
+      <c r="AF53" s="47"/>
+      <c r="AG53" s="47"/>
+      <c r="AH53" s="51"/>
     </row>
-    <row r="54" ht="30.5" customHeight="1" spans="1:33">
+    <row r="54" ht="30.5" customHeight="1" spans="1:34">
       <c r="A54" s="15" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D54" s="31"/>
       <c r="E54" s="12">
@@ -6761,45 +6928,48 @@
         <v>1</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N54" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O54" s="12">
         <v>0</v>
       </c>
-      <c r="P54" s="12"/>
+      <c r="P54" s="19">
+        <v>0</v>
+      </c>
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
       <c r="S54" s="12"/>
       <c r="T54" s="12"/>
       <c r="U54" s="12"/>
-      <c r="V54" s="38"/>
-      <c r="W54" s="42"/>
-      <c r="X54" s="44"/>
-      <c r="Y54" s="19"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="48"/>
       <c r="Z54" s="19"/>
       <c r="AA54" s="19"/>
       <c r="AB54" s="19"/>
-      <c r="AC54" s="49"/>
+      <c r="AC54" s="19"/>
       <c r="AD54" s="49"/>
       <c r="AE54" s="49"/>
       <c r="AF54" s="49"/>
-      <c r="AG54" s="52"/>
+      <c r="AG54" s="49"/>
+      <c r="AH54" s="52"/>
     </row>
-    <row r="55" ht="30.5" customHeight="1" spans="1:33">
+    <row r="55" ht="30.5" customHeight="1" spans="1:34">
       <c r="A55" s="15" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D55" s="30"/>
       <c r="E55" s="19">
@@ -6824,45 +6994,48 @@
         <v>1</v>
       </c>
       <c r="L55" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M55" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N55" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O55" s="19">
         <v>0</v>
       </c>
-      <c r="P55" s="19"/>
+      <c r="P55" s="19">
+        <v>0</v>
+      </c>
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
       <c r="S55" s="19"/>
       <c r="T55" s="19"/>
       <c r="U55" s="19"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="41"/>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="12"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="46"/>
       <c r="Z55" s="12"/>
       <c r="AA55" s="12"/>
       <c r="AB55" s="12"/>
-      <c r="AC55" s="48"/>
-      <c r="AD55" s="48"/>
-      <c r="AE55" s="48"/>
-      <c r="AF55" s="48"/>
-      <c r="AG55" s="51"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="47"/>
+      <c r="AE55" s="47"/>
+      <c r="AF55" s="47"/>
+      <c r="AG55" s="47"/>
+      <c r="AH55" s="51"/>
     </row>
-    <row r="56" ht="30.5" customHeight="1" spans="1:33">
+    <row r="56" ht="30.5" customHeight="1" spans="1:34">
       <c r="A56" s="15" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D56" s="31"/>
       <c r="E56" s="12">
@@ -6887,45 +7060,48 @@
         <v>1</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N56" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O56" s="12">
         <v>0</v>
       </c>
-      <c r="P56" s="12"/>
+      <c r="P56" s="19">
+        <v>0</v>
+      </c>
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
       <c r="U56" s="12"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="42"/>
-      <c r="X56" s="44"/>
-      <c r="Y56" s="19"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="41"/>
+      <c r="Y56" s="48"/>
       <c r="Z56" s="19"/>
       <c r="AA56" s="19"/>
       <c r="AB56" s="19"/>
-      <c r="AC56" s="49"/>
+      <c r="AC56" s="19"/>
       <c r="AD56" s="49"/>
       <c r="AE56" s="49"/>
       <c r="AF56" s="49"/>
-      <c r="AG56" s="52"/>
+      <c r="AG56" s="49"/>
+      <c r="AH56" s="52"/>
     </row>
-    <row r="57" ht="30.5" customHeight="1" spans="1:33">
+    <row r="57" ht="30.5" customHeight="1" spans="1:34">
       <c r="A57" s="15" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="19">
@@ -6950,45 +7126,48 @@
         <v>1</v>
       </c>
       <c r="L57" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M57" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N57" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O57" s="19">
         <v>0</v>
       </c>
-      <c r="P57" s="19"/>
+      <c r="P57" s="19">
+        <v>0</v>
+      </c>
       <c r="Q57" s="19"/>
       <c r="R57" s="19"/>
       <c r="S57" s="19"/>
       <c r="T57" s="19"/>
       <c r="U57" s="19"/>
-      <c r="V57" s="40"/>
-      <c r="W57" s="41"/>
-      <c r="X57" s="43"/>
-      <c r="Y57" s="12"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="39"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="46"/>
       <c r="Z57" s="12"/>
       <c r="AA57" s="12"/>
       <c r="AB57" s="12"/>
-      <c r="AC57" s="48"/>
-      <c r="AD57" s="48"/>
-      <c r="AE57" s="48"/>
-      <c r="AF57" s="48"/>
-      <c r="AG57" s="51"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="47"/>
+      <c r="AE57" s="47"/>
+      <c r="AF57" s="47"/>
+      <c r="AG57" s="47"/>
+      <c r="AH57" s="51"/>
     </row>
-    <row r="58" ht="30.5" customHeight="1" spans="1:33">
+    <row r="58" ht="30.5" customHeight="1" spans="1:34">
       <c r="A58" s="15" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D58" s="31"/>
       <c r="E58" s="12">
@@ -7013,45 +7192,48 @@
         <v>1</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N58" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O58" s="12">
         <v>0</v>
       </c>
-      <c r="P58" s="12"/>
+      <c r="P58" s="19">
+        <v>0</v>
+      </c>
       <c r="Q58" s="12"/>
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
       <c r="U58" s="12"/>
-      <c r="V58" s="38"/>
-      <c r="W58" s="42"/>
-      <c r="X58" s="44"/>
-      <c r="Y58" s="19"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="41"/>
+      <c r="Y58" s="48"/>
       <c r="Z58" s="19"/>
       <c r="AA58" s="19"/>
       <c r="AB58" s="19"/>
-      <c r="AC58" s="49"/>
+      <c r="AC58" s="19"/>
       <c r="AD58" s="49"/>
       <c r="AE58" s="49"/>
       <c r="AF58" s="49"/>
-      <c r="AG58" s="52"/>
+      <c r="AG58" s="49"/>
+      <c r="AH58" s="52"/>
     </row>
-    <row r="59" ht="30.5" customHeight="1" spans="1:33">
+    <row r="59" ht="30.5" customHeight="1" spans="1:34">
       <c r="A59" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D59" s="30"/>
       <c r="E59" s="19">
@@ -7076,45 +7258,48 @@
         <v>1</v>
       </c>
       <c r="L59" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M59" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N59" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O59" s="19">
         <v>0</v>
       </c>
-      <c r="P59" s="19"/>
+      <c r="P59" s="19">
+        <v>0</v>
+      </c>
       <c r="Q59" s="19"/>
       <c r="R59" s="19"/>
       <c r="S59" s="19"/>
       <c r="T59" s="19"/>
       <c r="U59" s="19"/>
-      <c r="V59" s="40"/>
-      <c r="W59" s="41"/>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="12"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="46"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
       <c r="AB59" s="12"/>
-      <c r="AC59" s="48"/>
-      <c r="AD59" s="48"/>
-      <c r="AE59" s="48"/>
-      <c r="AF59" s="48"/>
-      <c r="AG59" s="51"/>
+      <c r="AC59" s="12"/>
+      <c r="AD59" s="47"/>
+      <c r="AE59" s="47"/>
+      <c r="AF59" s="47"/>
+      <c r="AG59" s="47"/>
+      <c r="AH59" s="51"/>
     </row>
-    <row r="60" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="60" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A60" s="15" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D60" s="31"/>
       <c r="E60" s="12">
@@ -7139,45 +7324,48 @@
         <v>1</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N60" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O60" s="12">
         <v>0</v>
       </c>
-      <c r="P60" s="12"/>
+      <c r="P60" s="19">
+        <v>0</v>
+      </c>
       <c r="Q60" s="12"/>
       <c r="R60" s="12"/>
       <c r="S60" s="12"/>
       <c r="T60" s="12"/>
       <c r="U60" s="12"/>
-      <c r="V60" s="38"/>
-      <c r="W60" s="42"/>
-      <c r="X60" s="44"/>
-      <c r="Y60" s="19"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="41"/>
+      <c r="Y60" s="48"/>
       <c r="Z60" s="19"/>
       <c r="AA60" s="19"/>
       <c r="AB60" s="19"/>
-      <c r="AC60" s="49"/>
+      <c r="AC60" s="19"/>
       <c r="AD60" s="49"/>
       <c r="AE60" s="49"/>
       <c r="AF60" s="49"/>
-      <c r="AG60" s="52"/>
+      <c r="AG60" s="49"/>
+      <c r="AH60" s="52"/>
     </row>
-    <row r="61" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="61" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A61" s="15" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D61" s="30"/>
       <c r="E61" s="19">
@@ -7202,45 +7390,48 @@
         <v>1</v>
       </c>
       <c r="L61" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M61" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N61" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O61" s="19">
         <v>0</v>
       </c>
-      <c r="P61" s="19"/>
+      <c r="P61" s="19">
+        <v>0</v>
+      </c>
       <c r="Q61" s="19"/>
       <c r="R61" s="19"/>
       <c r="S61" s="19"/>
       <c r="T61" s="19"/>
       <c r="U61" s="19"/>
-      <c r="V61" s="40"/>
-      <c r="W61" s="41"/>
-      <c r="X61" s="43"/>
-      <c r="Y61" s="12"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="40"/>
+      <c r="Y61" s="46"/>
       <c r="Z61" s="12"/>
       <c r="AA61" s="12"/>
       <c r="AB61" s="12"/>
-      <c r="AC61" s="48"/>
-      <c r="AD61" s="48"/>
-      <c r="AE61" s="48"/>
-      <c r="AF61" s="48"/>
-      <c r="AG61" s="51"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="47"/>
+      <c r="AE61" s="47"/>
+      <c r="AF61" s="47"/>
+      <c r="AG61" s="47"/>
+      <c r="AH61" s="51"/>
     </row>
-    <row r="62" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="62" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A62" s="15" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D62" s="31"/>
       <c r="E62" s="12">
@@ -7265,45 +7456,48 @@
         <v>1</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N62" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O62" s="12">
         <v>0</v>
       </c>
-      <c r="P62" s="12"/>
+      <c r="P62" s="19">
+        <v>0</v>
+      </c>
       <c r="Q62" s="12"/>
       <c r="R62" s="12"/>
       <c r="S62" s="12"/>
       <c r="T62" s="12"/>
       <c r="U62" s="12"/>
-      <c r="V62" s="38"/>
-      <c r="W62" s="42"/>
-      <c r="X62" s="44"/>
-      <c r="Y62" s="19"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="41"/>
+      <c r="Y62" s="48"/>
       <c r="Z62" s="19"/>
       <c r="AA62" s="19"/>
       <c r="AB62" s="19"/>
-      <c r="AC62" s="49"/>
+      <c r="AC62" s="19"/>
       <c r="AD62" s="49"/>
       <c r="AE62" s="49"/>
       <c r="AF62" s="49"/>
-      <c r="AG62" s="52"/>
+      <c r="AG62" s="49"/>
+      <c r="AH62" s="52"/>
     </row>
-    <row r="63" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="63" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A63" s="15" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D63" s="30"/>
       <c r="E63" s="19">
@@ -7328,45 +7522,48 @@
         <v>1</v>
       </c>
       <c r="L63" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M63" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N63" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O63" s="19">
         <v>0</v>
       </c>
-      <c r="P63" s="19"/>
+      <c r="P63" s="19">
+        <v>0</v>
+      </c>
       <c r="Q63" s="19"/>
       <c r="R63" s="19"/>
       <c r="S63" s="19"/>
       <c r="T63" s="19"/>
       <c r="U63" s="19"/>
-      <c r="V63" s="40"/>
-      <c r="W63" s="41"/>
-      <c r="X63" s="43"/>
-      <c r="Y63" s="12"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="40"/>
+      <c r="Y63" s="46"/>
       <c r="Z63" s="12"/>
       <c r="AA63" s="12"/>
       <c r="AB63" s="12"/>
-      <c r="AC63" s="48"/>
-      <c r="AD63" s="48"/>
-      <c r="AE63" s="48"/>
-      <c r="AF63" s="48"/>
-      <c r="AG63" s="51"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="47"/>
+      <c r="AE63" s="47"/>
+      <c r="AF63" s="47"/>
+      <c r="AG63" s="47"/>
+      <c r="AH63" s="51"/>
     </row>
-    <row r="64" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="64" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A64" s="15" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="12">
@@ -7391,45 +7588,48 @@
         <v>1</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N64" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O64" s="12">
         <v>0</v>
       </c>
-      <c r="P64" s="12"/>
+      <c r="P64" s="19">
+        <v>0</v>
+      </c>
       <c r="Q64" s="12"/>
       <c r="R64" s="12"/>
       <c r="S64" s="12"/>
       <c r="T64" s="12"/>
       <c r="U64" s="12"/>
-      <c r="V64" s="38"/>
-      <c r="W64" s="42"/>
-      <c r="X64" s="44"/>
-      <c r="Y64" s="19"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="41"/>
+      <c r="Y64" s="48"/>
       <c r="Z64" s="19"/>
       <c r="AA64" s="19"/>
       <c r="AB64" s="19"/>
-      <c r="AC64" s="49"/>
+      <c r="AC64" s="19"/>
       <c r="AD64" s="49"/>
       <c r="AE64" s="49"/>
       <c r="AF64" s="49"/>
-      <c r="AG64" s="52"/>
+      <c r="AG64" s="49"/>
+      <c r="AH64" s="52"/>
     </row>
-    <row r="65" ht="30.5" customHeight="1" spans="1:33">
+    <row r="65" ht="30.5" customHeight="1" spans="1:34">
       <c r="A65" s="15" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="19">
@@ -7454,45 +7654,48 @@
         <v>1</v>
       </c>
       <c r="L65" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M65" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N65" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O65" s="19">
         <v>0</v>
       </c>
-      <c r="P65" s="19"/>
+      <c r="P65" s="19">
+        <v>0</v>
+      </c>
       <c r="Q65" s="19"/>
       <c r="R65" s="19"/>
       <c r="S65" s="19"/>
       <c r="T65" s="19"/>
       <c r="U65" s="19"/>
-      <c r="V65" s="40"/>
-      <c r="W65" s="41"/>
-      <c r="X65" s="43"/>
-      <c r="Y65" s="12"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="40"/>
+      <c r="Y65" s="46"/>
       <c r="Z65" s="12"/>
       <c r="AA65" s="12"/>
       <c r="AB65" s="12"/>
-      <c r="AC65" s="48"/>
-      <c r="AD65" s="48"/>
-      <c r="AE65" s="48"/>
-      <c r="AF65" s="48"/>
-      <c r="AG65" s="51"/>
+      <c r="AC65" s="12"/>
+      <c r="AD65" s="47"/>
+      <c r="AE65" s="47"/>
+      <c r="AF65" s="47"/>
+      <c r="AG65" s="47"/>
+      <c r="AH65" s="51"/>
     </row>
-    <row r="66" ht="30.5" customHeight="1" spans="1:33">
+    <row r="66" ht="30.5" customHeight="1" spans="1:34">
       <c r="A66" s="15" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="12">
@@ -7517,45 +7720,48 @@
         <v>1</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N66" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O66" s="12">
         <v>0</v>
       </c>
-      <c r="P66" s="12"/>
+      <c r="P66" s="19">
+        <v>0</v>
+      </c>
       <c r="Q66" s="12"/>
       <c r="R66" s="12"/>
       <c r="S66" s="12"/>
       <c r="T66" s="12"/>
       <c r="U66" s="12"/>
-      <c r="V66" s="38"/>
-      <c r="W66" s="42"/>
-      <c r="X66" s="44"/>
-      <c r="Y66" s="19"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="41"/>
+      <c r="Y66" s="48"/>
       <c r="Z66" s="19"/>
       <c r="AA66" s="19"/>
       <c r="AB66" s="19"/>
-      <c r="AC66" s="49"/>
+      <c r="AC66" s="19"/>
       <c r="AD66" s="49"/>
       <c r="AE66" s="49"/>
       <c r="AF66" s="49"/>
-      <c r="AG66" s="52"/>
+      <c r="AG66" s="49"/>
+      <c r="AH66" s="52"/>
     </row>
-    <row r="67" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="67" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A67" s="15" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D67" s="29"/>
       <c r="E67" s="19">
@@ -7580,45 +7786,48 @@
         <v>1</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M67" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N67" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O67" s="19">
         <v>0</v>
       </c>
-      <c r="P67" s="19"/>
+      <c r="P67" s="19">
+        <v>0</v>
+      </c>
       <c r="Q67" s="19"/>
       <c r="R67" s="19"/>
       <c r="S67" s="19"/>
       <c r="T67" s="19"/>
       <c r="U67" s="19"/>
-      <c r="V67" s="40"/>
-      <c r="W67" s="41"/>
-      <c r="X67" s="43"/>
-      <c r="Y67" s="12"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="40"/>
+      <c r="Y67" s="46"/>
       <c r="Z67" s="12"/>
       <c r="AA67" s="12"/>
       <c r="AB67" s="12"/>
-      <c r="AC67" s="48"/>
-      <c r="AD67" s="48"/>
-      <c r="AE67" s="48"/>
-      <c r="AF67" s="48"/>
-      <c r="AG67" s="51"/>
+      <c r="AC67" s="12"/>
+      <c r="AD67" s="47"/>
+      <c r="AE67" s="47"/>
+      <c r="AF67" s="47"/>
+      <c r="AG67" s="47"/>
+      <c r="AH67" s="51"/>
     </row>
-    <row r="68" ht="30.5" customHeight="1" spans="1:33">
+    <row r="68" ht="30.5" customHeight="1" spans="1:34">
       <c r="A68" s="15" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D68" s="27"/>
       <c r="E68" s="12">
@@ -7643,45 +7852,48 @@
         <v>1</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N68" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O68" s="12">
         <v>0</v>
       </c>
-      <c r="P68" s="12"/>
+      <c r="P68" s="19">
+        <v>0</v>
+      </c>
       <c r="Q68" s="12"/>
       <c r="R68" s="12"/>
       <c r="S68" s="12"/>
       <c r="T68" s="12"/>
       <c r="U68" s="12"/>
-      <c r="V68" s="38"/>
-      <c r="W68" s="42"/>
-      <c r="X68" s="44"/>
-      <c r="Y68" s="19"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="41"/>
+      <c r="Y68" s="48"/>
       <c r="Z68" s="19"/>
       <c r="AA68" s="19"/>
       <c r="AB68" s="19"/>
-      <c r="AC68" s="49"/>
+      <c r="AC68" s="19"/>
       <c r="AD68" s="49"/>
       <c r="AE68" s="49"/>
       <c r="AF68" s="49"/>
-      <c r="AG68" s="52"/>
+      <c r="AG68" s="49"/>
+      <c r="AH68" s="52"/>
     </row>
-    <row r="69" ht="30.5" customHeight="1" spans="1:33">
+    <row r="69" ht="30.5" customHeight="1" spans="1:34">
       <c r="A69" s="15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="19">
@@ -7706,45 +7918,48 @@
         <v>1</v>
       </c>
       <c r="L69" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M69" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N69" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O69" s="19">
         <v>0</v>
       </c>
-      <c r="P69" s="19"/>
+      <c r="P69" s="19">
+        <v>0</v>
+      </c>
       <c r="Q69" s="19"/>
       <c r="R69" s="19"/>
       <c r="S69" s="19"/>
       <c r="T69" s="19"/>
       <c r="U69" s="19"/>
-      <c r="V69" s="40"/>
-      <c r="W69" s="41"/>
-      <c r="X69" s="43"/>
-      <c r="Y69" s="12"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="39"/>
+      <c r="X69" s="40"/>
+      <c r="Y69" s="46"/>
       <c r="Z69" s="12"/>
       <c r="AA69" s="12"/>
       <c r="AB69" s="12"/>
-      <c r="AC69" s="48"/>
-      <c r="AD69" s="48"/>
-      <c r="AE69" s="48"/>
-      <c r="AF69" s="48"/>
-      <c r="AG69" s="51"/>
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="47"/>
+      <c r="AE69" s="47"/>
+      <c r="AF69" s="47"/>
+      <c r="AG69" s="47"/>
+      <c r="AH69" s="51"/>
     </row>
-    <row r="70" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="70" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A70" s="15" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D70" s="27"/>
       <c r="E70" s="12">
@@ -7769,45 +7984,48 @@
         <v>1</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N70" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O70" s="12">
         <v>0</v>
       </c>
-      <c r="P70" s="12"/>
+      <c r="P70" s="19">
+        <v>0</v>
+      </c>
       <c r="Q70" s="12"/>
       <c r="R70" s="12"/>
       <c r="S70" s="12"/>
       <c r="T70" s="12"/>
       <c r="U70" s="12"/>
-      <c r="V70" s="38"/>
-      <c r="W70" s="42"/>
-      <c r="X70" s="44"/>
-      <c r="Y70" s="19"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="41"/>
+      <c r="Y70" s="48"/>
       <c r="Z70" s="19"/>
       <c r="AA70" s="19"/>
       <c r="AB70" s="19"/>
-      <c r="AC70" s="49"/>
+      <c r="AC70" s="19"/>
       <c r="AD70" s="49"/>
       <c r="AE70" s="49"/>
       <c r="AF70" s="49"/>
-      <c r="AG70" s="52"/>
+      <c r="AG70" s="49"/>
+      <c r="AH70" s="52"/>
     </row>
-    <row r="71" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="71" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A71" s="15" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D71" s="29"/>
       <c r="E71" s="19">
@@ -7832,45 +8050,48 @@
         <v>1</v>
       </c>
       <c r="L71" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M71" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N71" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O71" s="19">
         <v>0</v>
       </c>
-      <c r="P71" s="19"/>
+      <c r="P71" s="19">
+        <v>0</v>
+      </c>
       <c r="Q71" s="19"/>
       <c r="R71" s="19"/>
       <c r="S71" s="19"/>
       <c r="T71" s="19"/>
       <c r="U71" s="19"/>
-      <c r="V71" s="40"/>
-      <c r="W71" s="41"/>
-      <c r="X71" s="43"/>
-      <c r="Y71" s="12"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="39"/>
+      <c r="X71" s="40"/>
+      <c r="Y71" s="46"/>
       <c r="Z71" s="12"/>
       <c r="AA71" s="12"/>
       <c r="AB71" s="12"/>
-      <c r="AC71" s="48"/>
-      <c r="AD71" s="48"/>
-      <c r="AE71" s="48"/>
-      <c r="AF71" s="48"/>
-      <c r="AG71" s="51"/>
+      <c r="AC71" s="12"/>
+      <c r="AD71" s="47"/>
+      <c r="AE71" s="47"/>
+      <c r="AF71" s="47"/>
+      <c r="AG71" s="47"/>
+      <c r="AH71" s="51"/>
     </row>
-    <row r="72" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="72" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A72" s="15" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D72" s="27"/>
       <c r="E72" s="12">
@@ -7895,45 +8116,48 @@
         <v>1</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N72" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O72" s="12">
         <v>0</v>
       </c>
-      <c r="P72" s="12"/>
+      <c r="P72" s="19">
+        <v>0</v>
+      </c>
       <c r="Q72" s="12"/>
       <c r="R72" s="12"/>
       <c r="S72" s="12"/>
       <c r="T72" s="12"/>
       <c r="U72" s="12"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="42"/>
-      <c r="X72" s="44"/>
-      <c r="Y72" s="19"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="37"/>
+      <c r="X72" s="41"/>
+      <c r="Y72" s="48"/>
       <c r="Z72" s="19"/>
       <c r="AA72" s="19"/>
       <c r="AB72" s="19"/>
-      <c r="AC72" s="49"/>
+      <c r="AC72" s="19"/>
       <c r="AD72" s="49"/>
       <c r="AE72" s="49"/>
       <c r="AF72" s="49"/>
-      <c r="AG72" s="52"/>
+      <c r="AG72" s="49"/>
+      <c r="AH72" s="52"/>
     </row>
-    <row r="73" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="73" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A73" s="15" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D73" s="29"/>
       <c r="E73" s="19">
@@ -7958,45 +8182,48 @@
         <v>1</v>
       </c>
       <c r="L73" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M73" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N73" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O73" s="19">
         <v>0</v>
       </c>
-      <c r="P73" s="19"/>
+      <c r="P73" s="19">
+        <v>0</v>
+      </c>
       <c r="Q73" s="19"/>
       <c r="R73" s="19"/>
       <c r="S73" s="19"/>
       <c r="T73" s="19"/>
       <c r="U73" s="19"/>
-      <c r="V73" s="40"/>
-      <c r="W73" s="41"/>
-      <c r="X73" s="43"/>
-      <c r="Y73" s="12"/>
+      <c r="V73" s="19"/>
+      <c r="W73" s="39"/>
+      <c r="X73" s="40"/>
+      <c r="Y73" s="46"/>
       <c r="Z73" s="12"/>
       <c r="AA73" s="12"/>
       <c r="AB73" s="12"/>
-      <c r="AC73" s="48"/>
-      <c r="AD73" s="48"/>
-      <c r="AE73" s="48"/>
-      <c r="AF73" s="48"/>
-      <c r="AG73" s="51"/>
+      <c r="AC73" s="12"/>
+      <c r="AD73" s="47"/>
+      <c r="AE73" s="47"/>
+      <c r="AF73" s="47"/>
+      <c r="AG73" s="47"/>
+      <c r="AH73" s="51"/>
     </row>
-    <row r="74" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="74" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A74" s="15" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D74" s="27"/>
       <c r="E74" s="12">
@@ -8021,45 +8248,48 @@
         <v>1</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N74" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O74" s="12">
         <v>0</v>
       </c>
-      <c r="P74" s="12"/>
+      <c r="P74" s="19">
+        <v>0</v>
+      </c>
       <c r="Q74" s="12"/>
       <c r="R74" s="12"/>
       <c r="S74" s="12"/>
       <c r="T74" s="12"/>
       <c r="U74" s="12"/>
-      <c r="V74" s="38"/>
-      <c r="W74" s="42"/>
-      <c r="X74" s="44"/>
-      <c r="Y74" s="19"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="41"/>
+      <c r="Y74" s="48"/>
       <c r="Z74" s="19"/>
       <c r="AA74" s="19"/>
       <c r="AB74" s="19"/>
-      <c r="AC74" s="49"/>
+      <c r="AC74" s="19"/>
       <c r="AD74" s="49"/>
       <c r="AE74" s="49"/>
       <c r="AF74" s="49"/>
-      <c r="AG74" s="52"/>
+      <c r="AG74" s="49"/>
+      <c r="AH74" s="52"/>
     </row>
-    <row r="75" s="2" customFormat="1" ht="31.25" customHeight="1" spans="1:33">
+    <row r="75" s="2" customFormat="1" ht="31.25" customHeight="1" spans="1:34">
       <c r="A75" s="15" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D75" s="29"/>
       <c r="E75" s="19">
@@ -8084,45 +8314,48 @@
         <v>1</v>
       </c>
       <c r="L75" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M75" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N75" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O75" s="19">
         <v>0</v>
       </c>
-      <c r="P75" s="19"/>
+      <c r="P75" s="19">
+        <v>0</v>
+      </c>
       <c r="Q75" s="19"/>
       <c r="R75" s="19"/>
       <c r="S75" s="19"/>
       <c r="T75" s="19"/>
       <c r="U75" s="19"/>
-      <c r="V75" s="40"/>
-      <c r="W75" s="41"/>
-      <c r="X75" s="43"/>
-      <c r="Y75" s="58"/>
-      <c r="Z75" s="58"/>
-      <c r="AA75" s="58"/>
-      <c r="AB75" s="58"/>
-      <c r="AC75" s="58"/>
-      <c r="AD75" s="58"/>
-      <c r="AE75" s="48"/>
-      <c r="AF75" s="48"/>
-      <c r="AG75" s="51"/>
+      <c r="V75" s="19"/>
+      <c r="W75" s="39"/>
+      <c r="X75" s="40"/>
+      <c r="Y75" s="46"/>
+      <c r="Z75" s="57"/>
+      <c r="AA75" s="57"/>
+      <c r="AB75" s="57"/>
+      <c r="AC75" s="57"/>
+      <c r="AD75" s="57"/>
+      <c r="AE75" s="57"/>
+      <c r="AF75" s="47"/>
+      <c r="AG75" s="47"/>
+      <c r="AH75" s="51"/>
     </row>
-    <row r="76" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="76" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A76" s="15" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="12">
@@ -8147,45 +8380,48 @@
         <v>1</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N76" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O76" s="12">
         <v>0</v>
       </c>
-      <c r="P76" s="12"/>
+      <c r="P76" s="19">
+        <v>0</v>
+      </c>
       <c r="Q76" s="12"/>
       <c r="R76" s="12"/>
       <c r="S76" s="12"/>
       <c r="T76" s="12"/>
       <c r="U76" s="12"/>
-      <c r="V76" s="38"/>
-      <c r="W76" s="42"/>
-      <c r="X76" s="44"/>
-      <c r="Y76" s="19"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="37"/>
+      <c r="X76" s="41"/>
+      <c r="Y76" s="48"/>
       <c r="Z76" s="19"/>
       <c r="AA76" s="19"/>
       <c r="AB76" s="19"/>
       <c r="AC76" s="19"/>
       <c r="AD76" s="19"/>
-      <c r="AE76" s="49"/>
+      <c r="AE76" s="19"/>
       <c r="AF76" s="49"/>
-      <c r="AG76" s="52"/>
+      <c r="AG76" s="49"/>
+      <c r="AH76" s="52"/>
     </row>
-    <row r="77" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="77" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A77" s="15" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D77" s="29"/>
       <c r="E77" s="19">
@@ -8210,45 +8446,48 @@
         <v>1</v>
       </c>
       <c r="L77" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M77" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N77" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O77" s="19">
         <v>0</v>
       </c>
-      <c r="P77" s="19"/>
+      <c r="P77" s="19">
+        <v>0</v>
+      </c>
       <c r="Q77" s="19"/>
       <c r="R77" s="19"/>
       <c r="S77" s="19"/>
       <c r="T77" s="19"/>
       <c r="U77" s="19"/>
-      <c r="V77" s="40"/>
-      <c r="W77" s="41"/>
-      <c r="X77" s="43"/>
-      <c r="Y77" s="12"/>
+      <c r="V77" s="19"/>
+      <c r="W77" s="39"/>
+      <c r="X77" s="40"/>
+      <c r="Y77" s="46"/>
       <c r="Z77" s="12"/>
       <c r="AA77" s="12"/>
       <c r="AB77" s="12"/>
       <c r="AC77" s="12"/>
       <c r="AD77" s="12"/>
-      <c r="AE77" s="48"/>
-      <c r="AF77" s="48"/>
-      <c r="AG77" s="51"/>
+      <c r="AE77" s="12"/>
+      <c r="AF77" s="47"/>
+      <c r="AG77" s="47"/>
+      <c r="AH77" s="51"/>
     </row>
-    <row r="78" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="78" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A78" s="15" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D78" s="27"/>
       <c r="E78" s="12">
@@ -8273,45 +8512,48 @@
         <v>1</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N78" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O78" s="12">
         <v>0</v>
       </c>
-      <c r="P78" s="12"/>
+      <c r="P78" s="19">
+        <v>0</v>
+      </c>
       <c r="Q78" s="12"/>
       <c r="R78" s="12"/>
       <c r="S78" s="12"/>
       <c r="T78" s="12"/>
       <c r="U78" s="12"/>
-      <c r="V78" s="38"/>
-      <c r="W78" s="42"/>
-      <c r="X78" s="44"/>
-      <c r="Y78" s="19"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="37"/>
+      <c r="X78" s="41"/>
+      <c r="Y78" s="48"/>
       <c r="Z78" s="19"/>
       <c r="AA78" s="19"/>
       <c r="AB78" s="19"/>
       <c r="AC78" s="19"/>
       <c r="AD78" s="19"/>
-      <c r="AE78" s="49"/>
+      <c r="AE78" s="19"/>
       <c r="AF78" s="49"/>
-      <c r="AG78" s="52"/>
+      <c r="AG78" s="49"/>
+      <c r="AH78" s="52"/>
     </row>
-    <row r="79" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="79" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A79" s="15" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D79" s="29"/>
       <c r="E79" s="19">
@@ -8336,45 +8578,48 @@
         <v>1</v>
       </c>
       <c r="L79" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M79" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N79" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O79" s="19">
         <v>0</v>
       </c>
-      <c r="P79" s="19"/>
+      <c r="P79" s="19">
+        <v>0</v>
+      </c>
       <c r="Q79" s="19"/>
       <c r="R79" s="19"/>
       <c r="S79" s="19"/>
       <c r="T79" s="19"/>
       <c r="U79" s="19"/>
-      <c r="V79" s="40"/>
-      <c r="W79" s="41"/>
-      <c r="X79" s="43"/>
-      <c r="Y79" s="12"/>
+      <c r="V79" s="19"/>
+      <c r="W79" s="39"/>
+      <c r="X79" s="40"/>
+      <c r="Y79" s="46"/>
       <c r="Z79" s="12"/>
       <c r="AA79" s="12"/>
       <c r="AB79" s="12"/>
       <c r="AC79" s="12"/>
       <c r="AD79" s="12"/>
-      <c r="AE79" s="48"/>
-      <c r="AF79" s="48"/>
-      <c r="AG79" s="51"/>
+      <c r="AE79" s="12"/>
+      <c r="AF79" s="47"/>
+      <c r="AG79" s="47"/>
+      <c r="AH79" s="51"/>
     </row>
-    <row r="80" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="80" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A80" s="15" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D80" s="27"/>
       <c r="E80" s="12">
@@ -8399,45 +8644,48 @@
         <v>1</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M80" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N80" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O80" s="12">
         <v>0</v>
       </c>
-      <c r="P80" s="12"/>
+      <c r="P80" s="19">
+        <v>0</v>
+      </c>
       <c r="Q80" s="12"/>
       <c r="R80" s="12"/>
       <c r="S80" s="12"/>
       <c r="T80" s="12"/>
       <c r="U80" s="12"/>
-      <c r="V80" s="38"/>
-      <c r="W80" s="42"/>
-      <c r="X80" s="44"/>
-      <c r="Y80" s="19"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="37"/>
+      <c r="X80" s="41"/>
+      <c r="Y80" s="48"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="19"/>
       <c r="AB80" s="19"/>
       <c r="AC80" s="19"/>
       <c r="AD80" s="19"/>
-      <c r="AE80" s="49"/>
+      <c r="AE80" s="19"/>
       <c r="AF80" s="49"/>
-      <c r="AG80" s="52"/>
+      <c r="AG80" s="49"/>
+      <c r="AH80" s="52"/>
     </row>
-    <row r="81" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="81" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A81" s="15" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="19">
@@ -8462,45 +8710,48 @@
         <v>1</v>
       </c>
       <c r="L81" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M81" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N81" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O81" s="19">
         <v>0</v>
       </c>
-      <c r="P81" s="19"/>
+      <c r="P81" s="19">
+        <v>0</v>
+      </c>
       <c r="Q81" s="19"/>
       <c r="R81" s="19"/>
       <c r="S81" s="19"/>
       <c r="T81" s="19"/>
       <c r="U81" s="19"/>
-      <c r="V81" s="40"/>
-      <c r="W81" s="41"/>
-      <c r="X81" s="43"/>
-      <c r="Y81" s="12"/>
+      <c r="V81" s="19"/>
+      <c r="W81" s="39"/>
+      <c r="X81" s="40"/>
+      <c r="Y81" s="46"/>
       <c r="Z81" s="12"/>
       <c r="AA81" s="12"/>
       <c r="AB81" s="12"/>
       <c r="AC81" s="12"/>
       <c r="AD81" s="12"/>
-      <c r="AE81" s="48"/>
-      <c r="AF81" s="48"/>
-      <c r="AG81" s="51"/>
+      <c r="AE81" s="12"/>
+      <c r="AF81" s="47"/>
+      <c r="AG81" s="47"/>
+      <c r="AH81" s="51"/>
     </row>
-    <row r="82" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="82" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A82" s="15" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D82" s="27"/>
       <c r="E82" s="12">
@@ -8525,45 +8776,48 @@
         <v>1</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N82" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O82" s="12">
         <v>0</v>
       </c>
-      <c r="P82" s="12"/>
+      <c r="P82" s="19">
+        <v>0</v>
+      </c>
       <c r="Q82" s="12"/>
       <c r="R82" s="12"/>
       <c r="S82" s="12"/>
       <c r="T82" s="12"/>
       <c r="U82" s="12"/>
-      <c r="V82" s="38"/>
-      <c r="W82" s="42"/>
-      <c r="X82" s="44"/>
-      <c r="Y82" s="19"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="41"/>
+      <c r="Y82" s="48"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="19"/>
       <c r="AB82" s="19"/>
       <c r="AC82" s="19"/>
       <c r="AD82" s="19"/>
-      <c r="AE82" s="49"/>
+      <c r="AE82" s="19"/>
       <c r="AF82" s="49"/>
-      <c r="AG82" s="52"/>
+      <c r="AG82" s="49"/>
+      <c r="AH82" s="52"/>
     </row>
-    <row r="83" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="83" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A83" s="15" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="19">
@@ -8588,45 +8842,48 @@
         <v>1</v>
       </c>
       <c r="L83" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M83" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N83" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O83" s="19">
         <v>0</v>
       </c>
-      <c r="P83" s="19"/>
+      <c r="P83" s="19">
+        <v>0</v>
+      </c>
       <c r="Q83" s="19"/>
       <c r="R83" s="19"/>
       <c r="S83" s="19"/>
       <c r="T83" s="19"/>
       <c r="U83" s="19"/>
-      <c r="V83" s="40"/>
-      <c r="W83" s="41"/>
-      <c r="X83" s="43"/>
-      <c r="Y83" s="12"/>
+      <c r="V83" s="19"/>
+      <c r="W83" s="39"/>
+      <c r="X83" s="40"/>
+      <c r="Y83" s="46"/>
       <c r="Z83" s="12"/>
       <c r="AA83" s="12"/>
       <c r="AB83" s="12"/>
       <c r="AC83" s="12"/>
       <c r="AD83" s="12"/>
-      <c r="AE83" s="48"/>
-      <c r="AF83" s="48"/>
-      <c r="AG83" s="51"/>
+      <c r="AE83" s="12"/>
+      <c r="AF83" s="47"/>
+      <c r="AG83" s="47"/>
+      <c r="AH83" s="51"/>
     </row>
-    <row r="84" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="84" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A84" s="15" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D84" s="27"/>
       <c r="E84" s="12">
@@ -8651,45 +8908,48 @@
         <v>1</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N84" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O84" s="12">
         <v>0</v>
       </c>
-      <c r="P84" s="12"/>
+      <c r="P84" s="19">
+        <v>0</v>
+      </c>
       <c r="Q84" s="12"/>
       <c r="R84" s="12"/>
       <c r="S84" s="12"/>
       <c r="T84" s="12"/>
       <c r="U84" s="12"/>
-      <c r="V84" s="38"/>
-      <c r="W84" s="42"/>
-      <c r="X84" s="44"/>
-      <c r="Y84" s="19"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="37"/>
+      <c r="X84" s="41"/>
+      <c r="Y84" s="48"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="19"/>
       <c r="AB84" s="19"/>
       <c r="AC84" s="19"/>
       <c r="AD84" s="19"/>
-      <c r="AE84" s="49"/>
+      <c r="AE84" s="19"/>
       <c r="AF84" s="49"/>
-      <c r="AG84" s="52"/>
+      <c r="AG84" s="49"/>
+      <c r="AH84" s="52"/>
     </row>
-    <row r="85" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="85" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A85" s="15" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D85" s="29"/>
       <c r="E85" s="19">
@@ -8714,45 +8974,48 @@
         <v>1</v>
       </c>
       <c r="L85" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M85" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N85" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O85" s="19">
         <v>0</v>
       </c>
-      <c r="P85" s="19"/>
+      <c r="P85" s="19">
+        <v>0</v>
+      </c>
       <c r="Q85" s="19"/>
       <c r="R85" s="19"/>
       <c r="S85" s="19"/>
       <c r="T85" s="19"/>
       <c r="U85" s="19"/>
-      <c r="V85" s="40"/>
-      <c r="W85" s="41"/>
-      <c r="X85" s="43"/>
-      <c r="Y85" s="12"/>
+      <c r="V85" s="19"/>
+      <c r="W85" s="39"/>
+      <c r="X85" s="40"/>
+      <c r="Y85" s="46"/>
       <c r="Z85" s="12"/>
       <c r="AA85" s="12"/>
       <c r="AB85" s="12"/>
       <c r="AC85" s="12"/>
       <c r="AD85" s="12"/>
-      <c r="AE85" s="48"/>
-      <c r="AF85" s="48"/>
-      <c r="AG85" s="51"/>
+      <c r="AE85" s="12"/>
+      <c r="AF85" s="47"/>
+      <c r="AG85" s="47"/>
+      <c r="AH85" s="51"/>
     </row>
-    <row r="86" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="86" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A86" s="15" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D86" s="27"/>
       <c r="E86" s="12">
@@ -8777,45 +9040,48 @@
         <v>1</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M86" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N86" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O86" s="12">
         <v>0</v>
       </c>
-      <c r="P86" s="12"/>
+      <c r="P86" s="19">
+        <v>0</v>
+      </c>
       <c r="Q86" s="12"/>
       <c r="R86" s="12"/>
       <c r="S86" s="12"/>
       <c r="T86" s="12"/>
       <c r="U86" s="12"/>
-      <c r="V86" s="38"/>
-      <c r="W86" s="42"/>
-      <c r="X86" s="44"/>
-      <c r="Y86" s="19"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="37"/>
+      <c r="X86" s="41"/>
+      <c r="Y86" s="48"/>
       <c r="Z86" s="19"/>
       <c r="AA86" s="19"/>
       <c r="AB86" s="19"/>
       <c r="AC86" s="19"/>
       <c r="AD86" s="19"/>
-      <c r="AE86" s="49"/>
+      <c r="AE86" s="19"/>
       <c r="AF86" s="49"/>
-      <c r="AG86" s="52"/>
+      <c r="AG86" s="49"/>
+      <c r="AH86" s="52"/>
     </row>
-    <row r="87" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="87" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A87" s="15" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="19">
@@ -8840,45 +9106,48 @@
         <v>1</v>
       </c>
       <c r="L87" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M87" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N87" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O87" s="19">
         <v>0</v>
       </c>
-      <c r="P87" s="19"/>
+      <c r="P87" s="19">
+        <v>0</v>
+      </c>
       <c r="Q87" s="19"/>
       <c r="R87" s="19"/>
       <c r="S87" s="19"/>
       <c r="T87" s="19"/>
       <c r="U87" s="19"/>
-      <c r="V87" s="40"/>
-      <c r="W87" s="41"/>
-      <c r="X87" s="43"/>
-      <c r="Y87" s="12"/>
+      <c r="V87" s="19"/>
+      <c r="W87" s="39"/>
+      <c r="X87" s="40"/>
+      <c r="Y87" s="46"/>
       <c r="Z87" s="12"/>
       <c r="AA87" s="12"/>
       <c r="AB87" s="12"/>
       <c r="AC87" s="12"/>
       <c r="AD87" s="12"/>
-      <c r="AE87" s="48"/>
-      <c r="AF87" s="48"/>
-      <c r="AG87" s="51"/>
+      <c r="AE87" s="12"/>
+      <c r="AF87" s="47"/>
+      <c r="AG87" s="47"/>
+      <c r="AH87" s="51"/>
     </row>
-    <row r="88" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="88" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A88" s="15" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D88" s="27"/>
       <c r="E88" s="12">
@@ -8903,45 +9172,48 @@
         <v>1</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M88" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N88" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O88" s="12">
         <v>0</v>
       </c>
-      <c r="P88" s="12"/>
+      <c r="P88" s="19">
+        <v>0</v>
+      </c>
       <c r="Q88" s="12"/>
       <c r="R88" s="12"/>
       <c r="S88" s="12"/>
       <c r="T88" s="12"/>
       <c r="U88" s="12"/>
-      <c r="V88" s="38"/>
-      <c r="W88" s="42"/>
-      <c r="X88" s="44"/>
-      <c r="Y88" s="19"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="37"/>
+      <c r="X88" s="41"/>
+      <c r="Y88" s="48"/>
       <c r="Z88" s="19"/>
       <c r="AA88" s="19"/>
       <c r="AB88" s="19"/>
       <c r="AC88" s="19"/>
       <c r="AD88" s="19"/>
-      <c r="AE88" s="49"/>
+      <c r="AE88" s="19"/>
       <c r="AF88" s="49"/>
-      <c r="AG88" s="52"/>
+      <c r="AG88" s="49"/>
+      <c r="AH88" s="52"/>
     </row>
-    <row r="89" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="89" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A89" s="15" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="19">
@@ -8966,45 +9238,48 @@
         <v>1</v>
       </c>
       <c r="L89" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M89" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N89" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O89" s="19">
         <v>0</v>
       </c>
-      <c r="P89" s="19"/>
+      <c r="P89" s="19">
+        <v>0</v>
+      </c>
       <c r="Q89" s="19"/>
       <c r="R89" s="19"/>
       <c r="S89" s="19"/>
       <c r="T89" s="19"/>
       <c r="U89" s="19"/>
-      <c r="V89" s="40"/>
-      <c r="W89" s="41"/>
-      <c r="X89" s="43"/>
-      <c r="Y89" s="12"/>
+      <c r="V89" s="19"/>
+      <c r="W89" s="39"/>
+      <c r="X89" s="40"/>
+      <c r="Y89" s="46"/>
       <c r="Z89" s="12"/>
       <c r="AA89" s="12"/>
       <c r="AB89" s="12"/>
       <c r="AC89" s="12"/>
       <c r="AD89" s="12"/>
-      <c r="AE89" s="48"/>
-      <c r="AF89" s="48"/>
-      <c r="AG89" s="51"/>
+      <c r="AE89" s="12"/>
+      <c r="AF89" s="47"/>
+      <c r="AG89" s="47"/>
+      <c r="AH89" s="51"/>
     </row>
-    <row r="90" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="90" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A90" s="15" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D90" s="27"/>
       <c r="E90" s="12">
@@ -9029,45 +9304,48 @@
         <v>1</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M90" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N90" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O90" s="12">
         <v>0</v>
       </c>
-      <c r="P90" s="12"/>
+      <c r="P90" s="19">
+        <v>0</v>
+      </c>
       <c r="Q90" s="12"/>
       <c r="R90" s="12"/>
       <c r="S90" s="12"/>
       <c r="T90" s="12"/>
       <c r="U90" s="12"/>
-      <c r="V90" s="38"/>
-      <c r="W90" s="42"/>
-      <c r="X90" s="44"/>
-      <c r="Y90" s="19"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="37"/>
+      <c r="X90" s="41"/>
+      <c r="Y90" s="48"/>
       <c r="Z90" s="19"/>
       <c r="AA90" s="19"/>
       <c r="AB90" s="19"/>
       <c r="AC90" s="19"/>
       <c r="AD90" s="19"/>
-      <c r="AE90" s="49"/>
+      <c r="AE90" s="19"/>
       <c r="AF90" s="49"/>
-      <c r="AG90" s="52"/>
+      <c r="AG90" s="49"/>
+      <c r="AH90" s="52"/>
     </row>
-    <row r="91" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="91" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A91" s="15" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="19">
@@ -9092,45 +9370,48 @@
         <v>1</v>
       </c>
       <c r="L91" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M91" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N91" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O91" s="19">
         <v>0</v>
       </c>
-      <c r="P91" s="19"/>
+      <c r="P91" s="19">
+        <v>0</v>
+      </c>
       <c r="Q91" s="19"/>
       <c r="R91" s="19"/>
       <c r="S91" s="19"/>
       <c r="T91" s="19"/>
       <c r="U91" s="19"/>
-      <c r="V91" s="40"/>
-      <c r="W91" s="41"/>
-      <c r="X91" s="43"/>
-      <c r="Y91" s="12"/>
+      <c r="V91" s="19"/>
+      <c r="W91" s="39"/>
+      <c r="X91" s="40"/>
+      <c r="Y91" s="46"/>
       <c r="Z91" s="12"/>
       <c r="AA91" s="12"/>
       <c r="AB91" s="12"/>
       <c r="AC91" s="12"/>
       <c r="AD91" s="12"/>
-      <c r="AE91" s="48"/>
-      <c r="AF91" s="48"/>
-      <c r="AG91" s="51"/>
+      <c r="AE91" s="12"/>
+      <c r="AF91" s="47"/>
+      <c r="AG91" s="47"/>
+      <c r="AH91" s="51"/>
     </row>
-    <row r="92" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="92" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A92" s="15" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D92" s="27"/>
       <c r="E92" s="12">
@@ -9155,45 +9436,48 @@
         <v>1</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M92" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N92" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O92" s="12">
         <v>0</v>
       </c>
-      <c r="P92" s="12"/>
+      <c r="P92" s="19">
+        <v>0</v>
+      </c>
       <c r="Q92" s="12"/>
       <c r="R92" s="12"/>
       <c r="S92" s="12"/>
       <c r="T92" s="12"/>
       <c r="U92" s="12"/>
-      <c r="V92" s="38"/>
-      <c r="W92" s="42"/>
-      <c r="X92" s="44"/>
-      <c r="Y92" s="19"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="37"/>
+      <c r="X92" s="41"/>
+      <c r="Y92" s="48"/>
       <c r="Z92" s="19"/>
       <c r="AA92" s="19"/>
       <c r="AB92" s="19"/>
       <c r="AC92" s="19"/>
       <c r="AD92" s="19"/>
-      <c r="AE92" s="49"/>
+      <c r="AE92" s="19"/>
       <c r="AF92" s="49"/>
-      <c r="AG92" s="52"/>
+      <c r="AG92" s="49"/>
+      <c r="AH92" s="52"/>
     </row>
-    <row r="93" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="93" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A93" s="15" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="19">
@@ -9218,45 +9502,48 @@
         <v>1</v>
       </c>
       <c r="L93" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M93" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N93" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O93" s="19">
         <v>0</v>
       </c>
-      <c r="P93" s="19"/>
+      <c r="P93" s="19">
+        <v>0</v>
+      </c>
       <c r="Q93" s="19"/>
       <c r="R93" s="19"/>
       <c r="S93" s="19"/>
       <c r="T93" s="19"/>
       <c r="U93" s="19"/>
-      <c r="V93" s="40"/>
-      <c r="W93" s="41"/>
-      <c r="X93" s="43"/>
-      <c r="Y93" s="12"/>
+      <c r="V93" s="19"/>
+      <c r="W93" s="39"/>
+      <c r="X93" s="40"/>
+      <c r="Y93" s="46"/>
       <c r="Z93" s="12"/>
       <c r="AA93" s="12"/>
       <c r="AB93" s="12"/>
       <c r="AC93" s="12"/>
       <c r="AD93" s="12"/>
-      <c r="AE93" s="48"/>
-      <c r="AF93" s="48"/>
-      <c r="AG93" s="51"/>
+      <c r="AE93" s="12"/>
+      <c r="AF93" s="47"/>
+      <c r="AG93" s="47"/>
+      <c r="AH93" s="51"/>
     </row>
-    <row r="94" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="94" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A94" s="15" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D94" s="27"/>
       <c r="E94" s="12">
@@ -9281,45 +9568,48 @@
         <v>1</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M94" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N94" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O94" s="12">
         <v>0</v>
       </c>
-      <c r="P94" s="12"/>
+      <c r="P94" s="19">
+        <v>0</v>
+      </c>
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
       <c r="S94" s="12"/>
       <c r="T94" s="12"/>
       <c r="U94" s="12"/>
-      <c r="V94" s="38"/>
-      <c r="W94" s="42"/>
-      <c r="X94" s="44"/>
-      <c r="Y94" s="19"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="37"/>
+      <c r="X94" s="41"/>
+      <c r="Y94" s="48"/>
       <c r="Z94" s="19"/>
       <c r="AA94" s="19"/>
       <c r="AB94" s="19"/>
       <c r="AC94" s="19"/>
       <c r="AD94" s="19"/>
-      <c r="AE94" s="49"/>
+      <c r="AE94" s="19"/>
       <c r="AF94" s="49"/>
-      <c r="AG94" s="52"/>
+      <c r="AG94" s="49"/>
+      <c r="AH94" s="52"/>
     </row>
-    <row r="95" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="95" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A95" s="15" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D95" s="29"/>
       <c r="E95" s="19">
@@ -9344,27 +9634,29 @@
         <v>1</v>
       </c>
       <c r="L95" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M95" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N95" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O95" s="19">
         <v>0</v>
       </c>
-      <c r="P95" s="19"/>
+      <c r="P95" s="19">
+        <v>0</v>
+      </c>
       <c r="Q95" s="19"/>
       <c r="R95" s="19"/>
       <c r="S95" s="19"/>
       <c r="T95" s="19"/>
       <c r="U95" s="19"/>
-      <c r="V95" s="40"/>
-      <c r="W95" s="41"/>
-      <c r="X95" s="11"/>
-      <c r="Y95" s="12"/>
+      <c r="V95" s="19"/>
+      <c r="W95" s="39"/>
+      <c r="X95" s="40"/>
+      <c r="Y95" s="11"/>
       <c r="Z95" s="12"/>
       <c r="AA95" s="12"/>
       <c r="AB95" s="12"/>
@@ -9372,17 +9664,18 @@
       <c r="AD95" s="12"/>
       <c r="AE95" s="12"/>
       <c r="AF95" s="12"/>
-      <c r="AG95" s="38"/>
+      <c r="AG95" s="12"/>
+      <c r="AH95" s="37"/>
     </row>
-    <row r="96" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="96" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A96" s="15" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D96" s="27"/>
       <c r="E96" s="12">
@@ -9407,45 +9700,48 @@
         <v>1</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M96" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N96" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O96" s="12">
         <v>0</v>
       </c>
-      <c r="P96" s="12"/>
+      <c r="P96" s="19">
+        <v>0</v>
+      </c>
       <c r="Q96" s="12"/>
       <c r="R96" s="12"/>
       <c r="S96" s="12"/>
       <c r="T96" s="12"/>
       <c r="U96" s="12"/>
-      <c r="V96" s="38"/>
-      <c r="W96" s="42"/>
-      <c r="X96" s="44"/>
-      <c r="Y96" s="19"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="37"/>
+      <c r="X96" s="41"/>
+      <c r="Y96" s="48"/>
       <c r="Z96" s="19"/>
       <c r="AA96" s="19"/>
       <c r="AB96" s="19"/>
       <c r="AC96" s="19"/>
       <c r="AD96" s="19"/>
-      <c r="AE96" s="49"/>
+      <c r="AE96" s="19"/>
       <c r="AF96" s="49"/>
-      <c r="AG96" s="52"/>
+      <c r="AG96" s="49"/>
+      <c r="AH96" s="52"/>
     </row>
-    <row r="97" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="97" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A97" s="15" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D97" s="29"/>
       <c r="E97" s="19">
@@ -9470,45 +9766,48 @@
         <v>1</v>
       </c>
       <c r="L97" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M97" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N97" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O97" s="19">
         <v>0</v>
       </c>
-      <c r="P97" s="19"/>
+      <c r="P97" s="19">
+        <v>0</v>
+      </c>
       <c r="Q97" s="19"/>
       <c r="R97" s="19"/>
       <c r="S97" s="19"/>
       <c r="T97" s="19"/>
       <c r="U97" s="19"/>
-      <c r="V97" s="40"/>
-      <c r="W97" s="41"/>
-      <c r="X97" s="43"/>
-      <c r="Y97" s="12"/>
+      <c r="V97" s="19"/>
+      <c r="W97" s="39"/>
+      <c r="X97" s="40"/>
+      <c r="Y97" s="46"/>
       <c r="Z97" s="12"/>
       <c r="AA97" s="12"/>
       <c r="AB97" s="12"/>
       <c r="AC97" s="12"/>
       <c r="AD97" s="12"/>
-      <c r="AE97" s="48"/>
-      <c r="AF97" s="48"/>
-      <c r="AG97" s="51"/>
+      <c r="AE97" s="12"/>
+      <c r="AF97" s="47"/>
+      <c r="AG97" s="47"/>
+      <c r="AH97" s="51"/>
     </row>
-    <row r="98" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="98" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A98" s="15" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D98" s="27"/>
       <c r="E98" s="12">
@@ -9533,45 +9832,48 @@
         <v>1</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M98" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N98" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O98" s="12">
         <v>0</v>
       </c>
-      <c r="P98" s="12"/>
+      <c r="P98" s="19">
+        <v>0</v>
+      </c>
       <c r="Q98" s="12"/>
       <c r="R98" s="12"/>
       <c r="S98" s="12"/>
       <c r="T98" s="12"/>
       <c r="U98" s="12"/>
-      <c r="V98" s="38"/>
-      <c r="W98" s="42"/>
-      <c r="X98" s="44"/>
-      <c r="Y98" s="19"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="37"/>
+      <c r="X98" s="41"/>
+      <c r="Y98" s="48"/>
       <c r="Z98" s="19"/>
       <c r="AA98" s="19"/>
       <c r="AB98" s="19"/>
       <c r="AC98" s="19"/>
       <c r="AD98" s="19"/>
-      <c r="AE98" s="49"/>
+      <c r="AE98" s="19"/>
       <c r="AF98" s="49"/>
-      <c r="AG98" s="52"/>
+      <c r="AG98" s="49"/>
+      <c r="AH98" s="52"/>
     </row>
-    <row r="99" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="99" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A99" s="15" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="19">
@@ -9596,45 +9898,48 @@
         <v>1</v>
       </c>
       <c r="L99" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M99" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N99" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O99" s="19">
         <v>0</v>
       </c>
-      <c r="P99" s="19"/>
+      <c r="P99" s="19">
+        <v>0</v>
+      </c>
       <c r="Q99" s="19"/>
       <c r="R99" s="19"/>
       <c r="S99" s="19"/>
       <c r="T99" s="19"/>
       <c r="U99" s="19"/>
-      <c r="V99" s="40"/>
-      <c r="W99" s="41"/>
-      <c r="X99" s="43"/>
-      <c r="Y99" s="12"/>
+      <c r="V99" s="19"/>
+      <c r="W99" s="39"/>
+      <c r="X99" s="40"/>
+      <c r="Y99" s="46"/>
       <c r="Z99" s="12"/>
       <c r="AA99" s="12"/>
       <c r="AB99" s="12"/>
       <c r="AC99" s="12"/>
       <c r="AD99" s="12"/>
-      <c r="AE99" s="48"/>
-      <c r="AF99" s="48"/>
-      <c r="AG99" s="51"/>
+      <c r="AE99" s="12"/>
+      <c r="AF99" s="47"/>
+      <c r="AG99" s="47"/>
+      <c r="AH99" s="51"/>
     </row>
-    <row r="100" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:33">
+    <row r="100" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A100" s="15" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C100" s="53" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D100" s="54"/>
       <c r="E100" s="55">
@@ -9659,39 +9964,42 @@
         <v>1</v>
       </c>
       <c r="L100" s="55" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M100" s="55" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N100" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O100" s="55">
         <v>0</v>
       </c>
-      <c r="P100" s="55"/>
+      <c r="P100" s="19">
+        <v>0</v>
+      </c>
       <c r="Q100" s="55"/>
       <c r="R100" s="55"/>
       <c r="S100" s="55"/>
       <c r="T100" s="55"/>
       <c r="U100" s="55"/>
-      <c r="V100" s="56"/>
-      <c r="W100" s="42"/>
-      <c r="X100" s="57"/>
-      <c r="Y100" s="59"/>
+      <c r="V100" s="55"/>
+      <c r="W100" s="56"/>
+      <c r="X100" s="41"/>
+      <c r="Y100" s="58"/>
       <c r="Z100" s="59"/>
       <c r="AA100" s="59"/>
       <c r="AB100" s="59"/>
       <c r="AC100" s="59"/>
       <c r="AD100" s="59"/>
-      <c r="AE100" s="60"/>
+      <c r="AE100" s="59"/>
       <c r="AF100" s="60"/>
-      <c r="AG100" s="61"/>
+      <c r="AG100" s="60"/>
+      <c r="AH100" s="61"/>
     </row>
     <row r="101" ht="14.25"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AG100" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AH100" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="L11">

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="rune_config" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
     <t>展示容错</t>
   </si>
   <si>
-    <t>每损失10%生命值，提高%ever_hp_pct%%%移动速度</t>
+    <t>每损失%ever_hp_pct%%生命值，提高%ms_pct%%%移动速度</t>
   </si>
   <si>
     <t>周期</t>
@@ -1730,15 +1730,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="3" tint="0.4"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2804,7 +2804,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{BBE30F67-CE95-4872-915B-52FFE02EB996}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4468DF19-AADA-46B7-82EC-AC33F854C637}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -3116,10 +3116,10 @@
   <sheetPr/>
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A8" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="X1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O5" sqref="O5"/>
+      <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -928,7 +928,7 @@
     <t>游侠#18</t>
   </si>
   <si>
-    <t>风暴环绕 【暴雪】记录值提高100%</t>
+    <t>风暴环绕 【暴雪】记录值翻倍</t>
   </si>
   <si>
     <t>hero/drow/暴雪</t>
@@ -1730,15 +1730,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.4"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3" tint="0.4"/>
-      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2804,7 +2804,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4468DF19-AADA-46B7-82EC-AC33F854C637}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{15227F2D-3977-483B-8D1D-EE7E27C4043F}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -3116,10 +3116,10 @@
   <sheetPr/>
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A29" workbookViewId="0">
       <pane xSplit="4" topLeftCell="X1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D13" sqref="D13"/>
+      <selection pane="topRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -898,7 +898,7 @@
     <t>游侠#16</t>
   </si>
   <si>
-    <t>风暴环绕【疾风】生效时，风元素伤害增加50%</t>
+    <t>风暴环绕【退散】生效时，风元素伤害增加50%</t>
   </si>
   <si>
     <t>hero/drow/疾风</t>
@@ -958,16 +958,16 @@
     <t>游侠#20</t>
   </si>
   <si>
-    <t>箭雨【燃矢】灼烧伤害提升至200%，持续时间延长至10秒</t>
+    <t>箭雨【燃矢】灼烧伤害提升%rs_to_dmg%%%，持续时间延长%rs_duration%秒</t>
   </si>
   <si>
     <t>hero/drow/燃矢</t>
   </si>
   <si>
-    <t>rs_to_dmg 200</t>
-  </si>
-  <si>
-    <t>rs_duration 10</t>
+    <t>rs_to_dmg 100</t>
+  </si>
+  <si>
+    <t>rs_duration 5</t>
   </si>
   <si>
     <t>rune_46</t>
@@ -976,13 +976,13 @@
     <t>游侠#21</t>
   </si>
   <si>
-    <t>箭雨【集火】最高可叠加层数增加至20层</t>
+    <t>箭雨【集火】最高可叠加层数增加%jihuo_stack%层</t>
   </si>
   <si>
     <t>hero/drow/集火</t>
   </si>
   <si>
-    <t>jihuo_stack 20</t>
+    <t>jihuo_stack 10</t>
   </si>
   <si>
     <t>rune_47</t>
@@ -991,7 +991,7 @@
     <t>游侠#22</t>
   </si>
   <si>
-    <t>箭雨【急冻】生效时，额外增加的5支箭</t>
+    <t>箭雨【急冻】生效时，额外增加%jidong_bonus%支箭</t>
   </si>
   <si>
     <t>hero/drow/急冻</t>
@@ -1128,7 +1128,7 @@
     <t>法爷#5</t>
   </si>
   <si>
-    <t>霜冻触发时，伤害提高至10倍</t>
+    <t>霜冻触发时，伤害提高10倍</t>
   </si>
   <si>
     <t>rune_57</t>
@@ -1164,7 +1164,7 @@
     <t>法爷#9</t>
   </si>
   <si>
-    <t>炎爆每次生成火球时，一次性生成5个，火球上限突破至8个</t>
+    <t>炎爆每次生成火球时，一次性生成5个，火球数量上限+3</t>
   </si>
   <si>
     <t>rune_61</t>
@@ -1236,7 +1236,7 @@
     <t>法爷#17</t>
   </si>
   <si>
-    <t>冷气效果上限增加至20层</t>
+    <t>冷气效果上限提高一倍</t>
   </si>
   <si>
     <t>rune_69</t>
@@ -1290,7 +1290,7 @@
     <t>法爷#23</t>
   </si>
   <si>
-    <t>雷云可攻击目标增加为3名敌人</t>
+    <t>雷云可攻击目标额外增加2名敌人</t>
   </si>
   <si>
     <t>rune_75</t>
@@ -1335,7 +1335,7 @@
     <t>法爷#28</t>
   </si>
   <si>
-    <t>聪慧每消耗1点蓝量该次技能消耗提高2%</t>
+    <t>聪慧每消耗1点蓝量该次技能伤害提高2%</t>
   </si>
   <si>
     <t>rune_80</t>
@@ -1730,15 +1730,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="3" tint="0.4"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2484,7 +2484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2576,6 +2576,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2804,7 +2807,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{15227F2D-3977-483B-8D1D-EE7E27C4043F}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{845560D7-C78B-49FE-B10D-DE86F85EC1EE}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -3116,10 +3119,10 @@
   <sheetPr/>
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A28" workbookViewId="0">
       <pane xSplit="4" topLeftCell="X1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C45" sqref="C45"/>
+      <selection pane="topRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3210,20 +3213,20 @@
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="42" t="s">
+      <c r="W1" s="35"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="50" t="s">
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="51" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3277,13 +3280,13 @@
       <c r="Q2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="36">
-        <v>1</v>
-      </c>
-      <c r="S2" s="36">
+      <c r="R2" s="37">
+        <v>1</v>
+      </c>
+      <c r="S2" s="37">
         <v>2</v>
       </c>
-      <c r="T2" s="36">
+      <c r="T2" s="37">
         <v>3</v>
       </c>
       <c r="U2" s="12">
@@ -3292,22 +3295,22 @@
       <c r="V2" s="12">
         <v>5</v>
       </c>
-      <c r="W2" s="37">
+      <c r="W2" s="38">
         <v>6</v>
       </c>
-      <c r="X2" s="38" t="s">
+      <c r="X2" s="39" t="s">
         <v>34</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="44">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="44">
+      <c r="Z2" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="45">
         <v>2</v>
       </c>
-      <c r="AB2" s="44">
+      <c r="AB2" s="45">
         <v>3</v>
       </c>
       <c r="AC2" s="19">
@@ -3325,7 +3328,7 @@
       <c r="AG2" s="19">
         <v>8</v>
       </c>
-      <c r="AH2" s="39" t="s">
+      <c r="AH2" s="40" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3361,10 +3364,10 @@
       <c r="K3" s="19">
         <v>1</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="33" t="s">
         <v>40</v>
       </c>
       <c r="N3" s="19" t="s">
@@ -3386,8 +3389,8 @@
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="41"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="12" t="s">
         <v>44</v>
@@ -3399,7 +3402,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
-      <c r="AH3" s="37"/>
+      <c r="AH3" s="38"/>
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:34">
       <c r="A4" s="15" t="s">
@@ -3435,10 +3438,10 @@
       <c r="K4" s="12">
         <v>1</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="34" t="s">
         <v>40</v>
       </c>
       <c r="N4" s="19" t="s">
@@ -3456,8 +3459,8 @@
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="41"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="42"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="19" t="s">
         <v>50</v>
@@ -3469,7 +3472,7 @@
       <c r="AE4" s="19"/>
       <c r="AF4" s="19"/>
       <c r="AG4" s="19"/>
-      <c r="AH4" s="39"/>
+      <c r="AH4" s="40"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="49.5" spans="1:34">
       <c r="A5" s="15" t="s">
@@ -3503,10 +3506,10 @@
       <c r="K5" s="19">
         <v>1</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="33" t="s">
         <v>40</v>
       </c>
       <c r="N5" s="19" t="s">
@@ -3526,8 +3529,8 @@
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="41"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="12" t="s">
         <v>56</v>
@@ -3539,7 +3542,7 @@
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
-      <c r="AH5" s="37"/>
+      <c r="AH5" s="38"/>
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:34">
       <c r="A6" s="15" t="s">
@@ -3575,10 +3578,10 @@
       <c r="K6" s="12">
         <v>1</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="33" t="s">
+      <c r="M6" s="34" t="s">
         <v>40</v>
       </c>
       <c r="N6" s="19" t="s">
@@ -3596,8 +3599,8 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="41"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="42"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="19" t="s">
         <v>62</v>
@@ -3609,7 +3612,7 @@
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
-      <c r="AH6" s="39"/>
+      <c r="AH6" s="40"/>
     </row>
     <row r="7" ht="49.5" spans="1:34">
       <c r="A7" s="15" t="s">
@@ -3643,10 +3646,10 @@
       <c r="K7" s="19">
         <v>1</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="33" t="s">
         <v>40</v>
       </c>
       <c r="N7" s="19" t="s">
@@ -3666,8 +3669,8 @@
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="41"/>
       <c r="Y7" s="11"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
@@ -3677,7 +3680,7 @@
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
-      <c r="AH7" s="37"/>
+      <c r="AH7" s="38"/>
     </row>
     <row r="8" ht="49.5" spans="1:34">
       <c r="A8" s="15" t="s">
@@ -3711,10 +3714,10 @@
       <c r="K8" s="12">
         <v>1</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="33" t="s">
+      <c r="M8" s="34" t="s">
         <v>40</v>
       </c>
       <c r="N8" s="19" t="s">
@@ -3734,8 +3737,8 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="41"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="42"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
@@ -3745,7 +3748,7 @@
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
-      <c r="AH8" s="39"/>
+      <c r="AH8" s="40"/>
     </row>
     <row r="9" ht="49.5" spans="1:34">
       <c r="A9" s="15" t="s">
@@ -3779,10 +3782,10 @@
       <c r="K9" s="19">
         <v>1</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="33" t="s">
         <v>40</v>
       </c>
       <c r="N9" s="19" t="s">
@@ -3802,8 +3805,8 @@
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="41"/>
       <c r="Y9" s="11"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
@@ -3813,7 +3816,7 @@
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
-      <c r="AH9" s="37"/>
+      <c r="AH9" s="38"/>
     </row>
     <row r="10" ht="33" spans="1:34">
       <c r="A10" s="15" t="s">
@@ -3849,10 +3852,10 @@
       <c r="K10" s="12">
         <v>1</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="L10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="33" t="s">
+      <c r="M10" s="34" t="s">
         <v>40</v>
       </c>
       <c r="N10" s="19" t="s">
@@ -3870,8 +3873,8 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="41"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="42"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="19" t="s">
         <v>83</v>
@@ -3887,7 +3890,7 @@
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
-      <c r="AH10" s="39"/>
+      <c r="AH10" s="40"/>
     </row>
     <row r="11" ht="49.5" spans="1:34">
       <c r="A11" s="15" t="s">
@@ -3923,10 +3926,10 @@
       <c r="K11" s="19">
         <v>1</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="33" t="s">
         <v>91</v>
       </c>
       <c r="N11" s="19" t="s">
@@ -3946,8 +3949,8 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="41"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="12" t="s">
         <v>94</v>
@@ -3961,7 +3964,7 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
-      <c r="AH11" s="37"/>
+      <c r="AH11" s="38"/>
     </row>
     <row r="12" ht="30.5" customHeight="1" spans="1:34">
       <c r="A12" s="15" t="s">
@@ -3997,10 +4000,10 @@
       <c r="K12" s="12">
         <v>1</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="L12" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="33" t="s">
+      <c r="M12" s="34" t="s">
         <v>40</v>
       </c>
       <c r="N12" s="19" t="s">
@@ -4018,8 +4021,8 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="41"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="42"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="19" t="s">
         <v>101</v>
@@ -4033,7 +4036,7 @@
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
-      <c r="AH12" s="39"/>
+      <c r="AH12" s="40"/>
     </row>
     <row r="13" ht="30.5" customHeight="1" spans="1:34">
       <c r="A13" s="15" t="s">
@@ -4069,10 +4072,10 @@
       <c r="K13" s="19">
         <v>1</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="33" t="s">
         <v>40</v>
       </c>
       <c r="N13" s="19" t="s">
@@ -4090,8 +4093,8 @@
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="41"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="12" t="s">
         <v>108</v>
@@ -4109,7 +4112,7 @@
       <c r="AE13" s="12"/>
       <c r="AF13" s="12"/>
       <c r="AG13" s="12"/>
-      <c r="AH13" s="37"/>
+      <c r="AH13" s="38"/>
     </row>
     <row r="14" ht="49.5" spans="1:34">
       <c r="A14" s="15" t="s">
@@ -4145,10 +4148,10 @@
       <c r="K14" s="12">
         <v>1</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="M14" s="33" t="s">
+      <c r="M14" s="34" t="s">
         <v>115</v>
       </c>
       <c r="N14" s="19" t="s">
@@ -4168,8 +4171,8 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="41"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="42"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="19" t="s">
         <v>118</v>
@@ -4183,7 +4186,7 @@
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
-      <c r="AH14" s="39"/>
+      <c r="AH14" s="40"/>
     </row>
     <row r="15" ht="49.5" spans="1:34">
       <c r="A15" s="15" t="s">
@@ -4217,10 +4220,10 @@
       <c r="K15" s="19">
         <v>1</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="33" t="s">
         <v>115</v>
       </c>
       <c r="N15" s="19" t="s">
@@ -4242,8 +4245,8 @@
       <c r="T15" s="19"/>
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="41"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
@@ -4253,7 +4256,7 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
-      <c r="AH15" s="37"/>
+      <c r="AH15" s="38"/>
     </row>
     <row r="16" ht="49.5" spans="1:34">
       <c r="A16" s="15" t="s">
@@ -4289,10 +4292,10 @@
       <c r="K16" s="12">
         <v>1</v>
       </c>
-      <c r="L16" s="33" t="s">
+      <c r="L16" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="M16" s="33" t="s">
+      <c r="M16" s="34" t="s">
         <v>115</v>
       </c>
       <c r="N16" s="19" t="s">
@@ -4312,8 +4315,8 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="41"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="42"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="19" t="s">
         <v>132</v>
@@ -4325,7 +4328,7 @@
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
-      <c r="AH16" s="39"/>
+      <c r="AH16" s="40"/>
     </row>
     <row r="17" ht="30.5" customHeight="1" spans="1:34">
       <c r="A17" s="15" t="s">
@@ -4361,10 +4364,10 @@
       <c r="K17" s="19">
         <v>1</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="M17" s="33" t="s">
         <v>40</v>
       </c>
       <c r="N17" s="19" t="s">
@@ -4382,8 +4385,8 @@
       <c r="T17" s="19"/>
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="41"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="12" t="s">
         <v>108</v>
@@ -4397,7 +4400,7 @@
       <c r="AE17" s="12"/>
       <c r="AF17" s="12"/>
       <c r="AG17" s="12"/>
-      <c r="AH17" s="37"/>
+      <c r="AH17" s="38"/>
     </row>
     <row r="18" ht="49.5" spans="1:34">
       <c r="A18" s="15" t="s">
@@ -4433,10 +4436,10 @@
       <c r="K18" s="12">
         <v>1</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="L18" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="M18" s="33" t="s">
+      <c r="M18" s="34" t="s">
         <v>115</v>
       </c>
       <c r="N18" s="19" t="s">
@@ -4456,8 +4459,8 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="41"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="42"/>
       <c r="Y18" s="15"/>
       <c r="Z18" s="19" t="s">
         <v>143</v>
@@ -4471,7 +4474,7 @@
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
-      <c r="AH18" s="39"/>
+      <c r="AH18" s="40"/>
     </row>
     <row r="19" ht="33" spans="1:34">
       <c r="A19" s="15" t="s">
@@ -4507,10 +4510,10 @@
       <c r="K19" s="19">
         <v>1</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L19" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="M19" s="32" t="s">
+      <c r="M19" s="33" t="s">
         <v>115</v>
       </c>
       <c r="N19" s="19" t="s">
@@ -4528,8 +4531,8 @@
       <c r="T19" s="19"/>
       <c r="U19" s="19"/>
       <c r="V19" s="19"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="41"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="12" t="s">
         <v>149</v>
@@ -4543,7 +4546,7 @@
       <c r="AE19" s="12"/>
       <c r="AF19" s="12"/>
       <c r="AG19" s="12"/>
-      <c r="AH19" s="37"/>
+      <c r="AH19" s="38"/>
     </row>
     <row r="20" ht="49.5" spans="1:34">
       <c r="A20" s="15" t="s">
@@ -4579,10 +4582,10 @@
       <c r="K20" s="12">
         <v>1</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="L20" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="33" t="s">
+      <c r="M20" s="34" t="s">
         <v>40</v>
       </c>
       <c r="N20" s="19" t="s">
@@ -4604,8 +4607,8 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="41"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="42"/>
       <c r="Y20" s="15"/>
       <c r="Z20" s="19"/>
       <c r="AA20" s="19"/>
@@ -4615,7 +4618,7 @@
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
-      <c r="AH20" s="39"/>
+      <c r="AH20" s="40"/>
     </row>
     <row r="21" ht="49.5" spans="1:34">
       <c r="A21" s="15" t="s">
@@ -4649,10 +4652,10 @@
       <c r="K21" s="19">
         <v>1</v>
       </c>
-      <c r="L21" s="32" t="s">
+      <c r="L21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="32" t="s">
+      <c r="M21" s="33" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="19" t="s">
@@ -4672,8 +4675,8 @@
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="41"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
@@ -4683,7 +4686,7 @@
       <c r="AE21" s="12"/>
       <c r="AF21" s="12"/>
       <c r="AG21" s="12"/>
-      <c r="AH21" s="37"/>
+      <c r="AH21" s="38"/>
     </row>
     <row r="22" ht="49.5" spans="1:34">
       <c r="A22" s="15" t="s">
@@ -4719,10 +4722,10 @@
       <c r="K22" s="12">
         <v>1</v>
       </c>
-      <c r="L22" s="33" t="s">
+      <c r="L22" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="33" t="s">
+      <c r="M22" s="34" t="s">
         <v>40</v>
       </c>
       <c r="N22" s="19" t="s">
@@ -4740,8 +4743,8 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="41"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="42"/>
       <c r="Y22" s="15"/>
       <c r="Z22" s="19" t="s">
         <v>166</v>
@@ -4757,7 +4760,7 @@
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
-      <c r="AH22" s="39"/>
+      <c r="AH22" s="40"/>
     </row>
     <row r="23" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A23" s="15" t="s">
@@ -4793,10 +4796,10 @@
       <c r="K23" s="19">
         <v>1</v>
       </c>
-      <c r="L23" s="32" t="s">
+      <c r="L23" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="M23" s="32" t="s">
+      <c r="M23" s="33" t="s">
         <v>115</v>
       </c>
       <c r="N23" s="19" t="s">
@@ -4814,8 +4817,8 @@
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="41"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
@@ -4825,7 +4828,7 @@
       <c r="AE23" s="12"/>
       <c r="AF23" s="12"/>
       <c r="AG23" s="12"/>
-      <c r="AH23" s="37"/>
+      <c r="AH23" s="38"/>
     </row>
     <row r="24" ht="30.5" customHeight="1" spans="1:34">
       <c r="A24" s="15" t="s">
@@ -4861,10 +4864,10 @@
       <c r="K24" s="12">
         <v>1</v>
       </c>
-      <c r="L24" s="33" t="s">
+      <c r="L24" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="M24" s="33" t="s">
+      <c r="M24" s="34" t="s">
         <v>115</v>
       </c>
       <c r="N24" s="19" t="s">
@@ -4882,8 +4885,8 @@
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="41"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="42"/>
       <c r="Y24" s="15"/>
       <c r="Z24" s="19" t="s">
         <v>177</v>
@@ -4899,7 +4902,7 @@
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
-      <c r="AH24" s="39"/>
+      <c r="AH24" s="40"/>
     </row>
     <row r="25" ht="30.5" customHeight="1" spans="1:34">
       <c r="A25" s="15" t="s">
@@ -4935,10 +4938,10 @@
       <c r="K25" s="19">
         <v>1</v>
       </c>
-      <c r="L25" s="32" t="s">
+      <c r="L25" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="M25" s="32" t="s">
+      <c r="M25" s="33" t="s">
         <v>40</v>
       </c>
       <c r="N25" s="19" t="s">
@@ -4956,8 +4959,8 @@
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="41"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="12" t="s">
         <v>101</v>
@@ -4971,7 +4974,7 @@
       <c r="AE25" s="12"/>
       <c r="AF25" s="12"/>
       <c r="AG25" s="12"/>
-      <c r="AH25" s="37"/>
+      <c r="AH25" s="38"/>
     </row>
     <row r="26" ht="30.5" customHeight="1" spans="1:34">
       <c r="A26" s="15" t="s">
@@ -5007,10 +5010,10 @@
       <c r="K26" s="12">
         <v>1</v>
       </c>
-      <c r="L26" s="33" t="s">
+      <c r="L26" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="33" t="s">
+      <c r="M26" s="34" t="s">
         <v>40</v>
       </c>
       <c r="N26" s="19" t="s">
@@ -5028,8 +5031,8 @@
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="41"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="42"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="19" t="s">
         <v>189</v>
@@ -5043,7 +5046,7 @@
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
-      <c r="AH26" s="39"/>
+      <c r="AH26" s="40"/>
     </row>
     <row r="27" ht="49" customHeight="1" spans="1:34">
       <c r="A27" s="15" t="s">
@@ -5079,10 +5082,10 @@
       <c r="K27" s="19">
         <v>1</v>
       </c>
-      <c r="L27" s="32" t="s">
+      <c r="L27" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="M27" s="32" t="s">
+      <c r="M27" s="33" t="s">
         <v>40</v>
       </c>
       <c r="N27" s="19" t="s">
@@ -5102,8 +5105,8 @@
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="41"/>
       <c r="Y27" s="11"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
@@ -5113,7 +5116,7 @@
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
       <c r="AG27" s="12"/>
-      <c r="AH27" s="37"/>
+      <c r="AH27" s="38"/>
     </row>
     <row r="28" ht="30.5" customHeight="1" spans="1:34">
       <c r="A28" s="15" t="s">
@@ -5168,8 +5171,8 @@
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="41"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="42"/>
       <c r="Y28" s="15"/>
       <c r="Z28" s="19" t="s">
         <v>201</v>
@@ -5183,7 +5186,7 @@
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
-      <c r="AH28" s="39"/>
+      <c r="AH28" s="40"/>
     </row>
     <row r="29" ht="30.5" customHeight="1" spans="1:34">
       <c r="A29" s="15" t="s">
@@ -5238,8 +5241,8 @@
       <c r="T29" s="19"/>
       <c r="U29" s="19"/>
       <c r="V29" s="19"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="41"/>
       <c r="Y29" s="11"/>
       <c r="Z29" s="12" t="s">
         <v>207</v>
@@ -5253,7 +5256,7 @@
       <c r="AE29" s="12"/>
       <c r="AF29" s="12"/>
       <c r="AG29" s="12"/>
-      <c r="AH29" s="37"/>
+      <c r="AH29" s="38"/>
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:34">
       <c r="A30" s="15" t="s">
@@ -5308,8 +5311,8 @@
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="41"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="42"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="19" t="s">
         <v>213</v>
@@ -5321,7 +5324,7 @@
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
-      <c r="AH30" s="39"/>
+      <c r="AH30" s="40"/>
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:34">
       <c r="A31" s="15" t="s">
@@ -5376,8 +5379,8 @@
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="41"/>
       <c r="Y31" s="11"/>
       <c r="Z31" s="12" t="s">
         <v>217</v>
@@ -5391,7 +5394,7 @@
       <c r="AE31" s="12"/>
       <c r="AF31" s="12"/>
       <c r="AG31" s="12"/>
-      <c r="AH31" s="37"/>
+      <c r="AH31" s="38"/>
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:34">
       <c r="A32" s="15" t="s">
@@ -5446,8 +5449,8 @@
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="41"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="42"/>
       <c r="Y32" s="15"/>
       <c r="Z32" s="19" t="s">
         <v>213</v>
@@ -5459,7 +5462,7 @@
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
-      <c r="AH32" s="39"/>
+      <c r="AH32" s="40"/>
     </row>
     <row r="33" ht="30.5" customHeight="1" spans="1:34">
       <c r="A33" s="15" t="s">
@@ -5514,8 +5517,8 @@
       <c r="T33" s="19"/>
       <c r="U33" s="19"/>
       <c r="V33" s="19"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="41"/>
       <c r="Y33" s="11"/>
       <c r="Z33" s="12" t="s">
         <v>227</v>
@@ -5527,7 +5530,7 @@
       <c r="AE33" s="12"/>
       <c r="AF33" s="12"/>
       <c r="AG33" s="12"/>
-      <c r="AH33" s="37"/>
+      <c r="AH33" s="38"/>
     </row>
     <row r="34" ht="30.5" customHeight="1" spans="1:34">
       <c r="A34" s="15" t="s">
@@ -5582,8 +5585,8 @@
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="41"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="42"/>
       <c r="Y34" s="15"/>
       <c r="Z34" s="19" t="s">
         <v>213</v>
@@ -5595,7 +5598,7 @@
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
-      <c r="AH34" s="39"/>
+      <c r="AH34" s="40"/>
     </row>
     <row r="35" ht="30.5" customHeight="1" spans="1:34">
       <c r="A35" s="15" t="s">
@@ -5650,8 +5653,8 @@
       <c r="T35" s="19"/>
       <c r="U35" s="19"/>
       <c r="V35" s="19"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="41"/>
       <c r="Y35" s="11"/>
       <c r="Z35" s="12" t="s">
         <v>236</v>
@@ -5663,7 +5666,7 @@
       <c r="AE35" s="12"/>
       <c r="AF35" s="12"/>
       <c r="AG35" s="12"/>
-      <c r="AH35" s="37"/>
+      <c r="AH35" s="38"/>
     </row>
     <row r="36" ht="30.5" customHeight="1" spans="1:34">
       <c r="A36" s="15" t="s">
@@ -5718,8 +5721,8 @@
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="41"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="42"/>
       <c r="Y36" s="15"/>
       <c r="Z36" s="19" t="s">
         <v>241</v>
@@ -5731,7 +5734,7 @@
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
-      <c r="AH36" s="39"/>
+      <c r="AH36" s="40"/>
     </row>
     <row r="37" ht="30.5" customHeight="1" spans="1:34">
       <c r="A37" s="15" t="s">
@@ -5786,8 +5789,8 @@
       <c r="T37" s="19"/>
       <c r="U37" s="19"/>
       <c r="V37" s="19"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="41"/>
       <c r="Y37" s="11"/>
       <c r="Z37" s="12" t="s">
         <v>245</v>
@@ -5799,7 +5802,7 @@
       <c r="AE37" s="12"/>
       <c r="AF37" s="12"/>
       <c r="AG37" s="12"/>
-      <c r="AH37" s="37"/>
+      <c r="AH37" s="38"/>
     </row>
     <row r="38" ht="31.25" customHeight="1" spans="1:34">
       <c r="A38" s="15" t="s">
@@ -5854,20 +5857,20 @@
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
       <c r="V38" s="12"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="41"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="42"/>
       <c r="Y38" s="15"/>
-      <c r="Z38" s="45" t="s">
+      <c r="Z38" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="AA38" s="45"/>
-      <c r="AB38" s="45"/>
-      <c r="AC38" s="45"/>
+      <c r="AA38" s="46"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="46"/>
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
-      <c r="AH38" s="39"/>
+      <c r="AH38" s="40"/>
     </row>
     <row r="39" ht="30.5" customHeight="1" spans="1:34">
       <c r="A39" s="15" t="s">
@@ -5922,20 +5925,20 @@
       <c r="T39" s="19"/>
       <c r="U39" s="19"/>
       <c r="V39" s="19"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="46"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="47"/>
       <c r="Z39" s="12" t="s">
         <v>254</v>
       </c>
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
       <c r="AC39" s="12"/>
-      <c r="AD39" s="47"/>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="47"/>
-      <c r="AG39" s="47"/>
-      <c r="AH39" s="51"/>
+      <c r="AD39" s="48"/>
+      <c r="AE39" s="48"/>
+      <c r="AF39" s="48"/>
+      <c r="AG39" s="48"/>
+      <c r="AH39" s="52"/>
     </row>
     <row r="40" ht="30.5" customHeight="1" spans="1:34">
       <c r="A40" s="15" t="s">
@@ -5990,20 +5993,20 @@
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
       <c r="V40" s="12"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="48"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="49"/>
       <c r="Z40" s="19" t="s">
         <v>259</v>
       </c>
       <c r="AA40" s="19"/>
       <c r="AB40" s="19"/>
       <c r="AC40" s="19"/>
-      <c r="AD40" s="49"/>
-      <c r="AE40" s="49"/>
-      <c r="AF40" s="49"/>
-      <c r="AG40" s="49"/>
-      <c r="AH40" s="52"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="50"/>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="50"/>
+      <c r="AH40" s="53"/>
     </row>
     <row r="41" ht="30.5" customHeight="1" spans="1:34">
       <c r="A41" s="15" t="s">
@@ -6058,20 +6061,20 @@
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
       <c r="V41" s="19"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="46"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="47"/>
       <c r="Z41" s="12" t="s">
         <v>264</v>
       </c>
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
       <c r="AC41" s="12"/>
-      <c r="AD41" s="47"/>
-      <c r="AE41" s="47"/>
-      <c r="AF41" s="47"/>
-      <c r="AG41" s="47"/>
-      <c r="AH41" s="51"/>
+      <c r="AD41" s="48"/>
+      <c r="AE41" s="48"/>
+      <c r="AF41" s="48"/>
+      <c r="AG41" s="48"/>
+      <c r="AH41" s="52"/>
     </row>
     <row r="42" ht="30.5" customHeight="1" spans="1:34">
       <c r="A42" s="15" t="s">
@@ -6126,8 +6129,8 @@
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="41"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="42"/>
       <c r="Y42" s="15"/>
       <c r="Z42" s="19" t="s">
         <v>269</v>
@@ -6139,7 +6142,7 @@
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
-      <c r="AH42" s="39"/>
+      <c r="AH42" s="40"/>
     </row>
     <row r="43" ht="30.5" customHeight="1" spans="1:34">
       <c r="A43" s="15" t="s">
@@ -6194,20 +6197,20 @@
       <c r="T43" s="19"/>
       <c r="U43" s="19"/>
       <c r="V43" s="19"/>
-      <c r="W43" s="39"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="46"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="47"/>
       <c r="Z43" s="12" t="s">
         <v>274</v>
       </c>
       <c r="AA43" s="12"/>
       <c r="AB43" s="12"/>
       <c r="AC43" s="12"/>
-      <c r="AD43" s="47"/>
-      <c r="AE43" s="47"/>
-      <c r="AF43" s="47"/>
-      <c r="AG43" s="47"/>
-      <c r="AH43" s="51"/>
+      <c r="AD43" s="48"/>
+      <c r="AE43" s="48"/>
+      <c r="AF43" s="48"/>
+      <c r="AG43" s="48"/>
+      <c r="AH43" s="52"/>
     </row>
     <row r="44" ht="30.5" customHeight="1" spans="1:34">
       <c r="A44" s="15" t="s">
@@ -6262,20 +6265,20 @@
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
       <c r="V44" s="12"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="41"/>
-      <c r="Y44" s="48"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="49"/>
       <c r="Z44" s="19" t="s">
         <v>279</v>
       </c>
       <c r="AA44" s="19"/>
       <c r="AB44" s="19"/>
       <c r="AC44" s="19"/>
-      <c r="AD44" s="49"/>
-      <c r="AE44" s="49"/>
-      <c r="AF44" s="49"/>
-      <c r="AG44" s="49"/>
-      <c r="AH44" s="52"/>
+      <c r="AD44" s="50"/>
+      <c r="AE44" s="50"/>
+      <c r="AF44" s="50"/>
+      <c r="AG44" s="50"/>
+      <c r="AH44" s="53"/>
     </row>
     <row r="45" ht="30.5" customHeight="1" spans="1:34">
       <c r="A45" s="15" t="s">
@@ -6330,20 +6333,20 @@
       <c r="T45" s="19"/>
       <c r="U45" s="19"/>
       <c r="V45" s="19"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="46"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="47"/>
       <c r="Z45" s="12" t="s">
         <v>284</v>
       </c>
       <c r="AA45" s="12"/>
       <c r="AB45" s="12"/>
       <c r="AC45" s="12"/>
-      <c r="AD45" s="47"/>
-      <c r="AE45" s="47"/>
-      <c r="AF45" s="47"/>
-      <c r="AG45" s="47"/>
-      <c r="AH45" s="51"/>
+      <c r="AD45" s="48"/>
+      <c r="AE45" s="48"/>
+      <c r="AF45" s="48"/>
+      <c r="AG45" s="48"/>
+      <c r="AH45" s="52"/>
     </row>
     <row r="46" ht="30.5" customHeight="1" spans="1:34">
       <c r="A46" s="15" t="s">
@@ -6398,20 +6401,20 @@
       <c r="T46" s="12"/>
       <c r="U46" s="12"/>
       <c r="V46" s="12"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="41"/>
-      <c r="Y46" s="48"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="49"/>
       <c r="Z46" s="19" t="s">
         <v>289</v>
       </c>
       <c r="AA46" s="19"/>
       <c r="AB46" s="19"/>
       <c r="AC46" s="19"/>
-      <c r="AD46" s="49"/>
-      <c r="AE46" s="49"/>
-      <c r="AF46" s="49"/>
-      <c r="AG46" s="49"/>
-      <c r="AH46" s="52"/>
+      <c r="AD46" s="50"/>
+      <c r="AE46" s="50"/>
+      <c r="AF46" s="50"/>
+      <c r="AG46" s="50"/>
+      <c r="AH46" s="53"/>
     </row>
     <row r="47" ht="30.5" customHeight="1" spans="1:34">
       <c r="A47" s="15" t="s">
@@ -6466,9 +6469,9 @@
       <c r="T47" s="19"/>
       <c r="U47" s="19"/>
       <c r="V47" s="19"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="46"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="47"/>
       <c r="Z47" s="12" t="s">
         <v>294</v>
       </c>
@@ -6477,11 +6480,11 @@
       </c>
       <c r="AB47" s="12"/>
       <c r="AC47" s="12"/>
-      <c r="AD47" s="47"/>
-      <c r="AE47" s="47"/>
-      <c r="AF47" s="47"/>
-      <c r="AG47" s="47"/>
-      <c r="AH47" s="51"/>
+      <c r="AD47" s="48"/>
+      <c r="AE47" s="48"/>
+      <c r="AF47" s="48"/>
+      <c r="AG47" s="48"/>
+      <c r="AH47" s="52"/>
     </row>
     <row r="48" ht="30.5" customHeight="1" spans="1:34">
       <c r="A48" s="15" t="s">
@@ -6536,20 +6539,20 @@
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
       <c r="V48" s="12"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="48"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="42"/>
+      <c r="Y48" s="49"/>
       <c r="Z48" s="19" t="s">
         <v>300</v>
       </c>
       <c r="AA48" s="19"/>
       <c r="AB48" s="19"/>
       <c r="AC48" s="19"/>
-      <c r="AD48" s="49"/>
-      <c r="AE48" s="49"/>
-      <c r="AF48" s="49"/>
-      <c r="AG48" s="49"/>
-      <c r="AH48" s="52"/>
+      <c r="AD48" s="50"/>
+      <c r="AE48" s="50"/>
+      <c r="AF48" s="50"/>
+      <c r="AG48" s="50"/>
+      <c r="AH48" s="53"/>
     </row>
     <row r="49" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A49" s="15" t="s">
@@ -6604,20 +6607,20 @@
       <c r="T49" s="19"/>
       <c r="U49" s="19"/>
       <c r="V49" s="19"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="46"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="47"/>
       <c r="Z49" s="12" t="s">
         <v>305</v>
       </c>
       <c r="AA49" s="12"/>
       <c r="AB49" s="12"/>
       <c r="AC49" s="12"/>
-      <c r="AD49" s="47"/>
-      <c r="AE49" s="47"/>
-      <c r="AF49" s="47"/>
-      <c r="AG49" s="47"/>
-      <c r="AH49" s="51"/>
+      <c r="AD49" s="48"/>
+      <c r="AE49" s="48"/>
+      <c r="AF49" s="48"/>
+      <c r="AG49" s="48"/>
+      <c r="AH49" s="52"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A50" s="15" t="s">
@@ -6672,9 +6675,9 @@
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
       <c r="V50" s="12"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="41"/>
-      <c r="Y50" s="48"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="42"/>
+      <c r="Y50" s="49"/>
       <c r="Z50" s="19" t="s">
         <v>310</v>
       </c>
@@ -6683,11 +6686,11 @@
       </c>
       <c r="AB50" s="19"/>
       <c r="AC50" s="19"/>
-      <c r="AD50" s="49"/>
-      <c r="AE50" s="49"/>
-      <c r="AF50" s="49"/>
-      <c r="AG50" s="49"/>
-      <c r="AH50" s="52"/>
+      <c r="AD50" s="50"/>
+      <c r="AE50" s="50"/>
+      <c r="AF50" s="50"/>
+      <c r="AG50" s="50"/>
+      <c r="AH50" s="53"/>
     </row>
     <row r="51" ht="30.5" customHeight="1" spans="1:34">
       <c r="A51" s="15" t="s">
@@ -6742,9 +6745,9 @@
       <c r="T51" s="19"/>
       <c r="U51" s="19"/>
       <c r="V51" s="19"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="46"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="47"/>
       <c r="Z51" s="12" t="s">
         <v>315</v>
       </c>
@@ -6753,11 +6756,11 @@
       </c>
       <c r="AB51" s="12"/>
       <c r="AC51" s="12"/>
-      <c r="AD51" s="47"/>
-      <c r="AE51" s="47"/>
-      <c r="AF51" s="47"/>
-      <c r="AG51" s="47"/>
-      <c r="AH51" s="51"/>
+      <c r="AD51" s="48"/>
+      <c r="AE51" s="48"/>
+      <c r="AF51" s="48"/>
+      <c r="AG51" s="48"/>
+      <c r="AH51" s="52"/>
     </row>
     <row r="52" ht="30.5" customHeight="1" spans="1:34">
       <c r="A52" s="15" t="s">
@@ -6812,20 +6815,20 @@
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
       <c r="V52" s="12"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="41"/>
-      <c r="Y52" s="48"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="42"/>
+      <c r="Y52" s="49"/>
       <c r="Z52" s="19" t="s">
         <v>320</v>
       </c>
       <c r="AA52" s="19"/>
       <c r="AB52" s="19"/>
       <c r="AC52" s="19"/>
-      <c r="AD52" s="49"/>
-      <c r="AE52" s="49"/>
-      <c r="AF52" s="49"/>
-      <c r="AG52" s="49"/>
-      <c r="AH52" s="52"/>
+      <c r="AD52" s="50"/>
+      <c r="AE52" s="50"/>
+      <c r="AF52" s="50"/>
+      <c r="AG52" s="50"/>
+      <c r="AH52" s="53"/>
     </row>
     <row r="53" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A53" s="15" t="s">
@@ -6880,20 +6883,20 @@
       <c r="T53" s="19"/>
       <c r="U53" s="19"/>
       <c r="V53" s="19"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="46"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="47"/>
       <c r="Z53" s="12" t="s">
         <v>324</v>
       </c>
       <c r="AA53" s="12"/>
       <c r="AB53" s="12"/>
       <c r="AC53" s="12"/>
-      <c r="AD53" s="47"/>
-      <c r="AE53" s="47"/>
-      <c r="AF53" s="47"/>
-      <c r="AG53" s="47"/>
-      <c r="AH53" s="51"/>
+      <c r="AD53" s="48"/>
+      <c r="AE53" s="48"/>
+      <c r="AF53" s="48"/>
+      <c r="AG53" s="48"/>
+      <c r="AH53" s="52"/>
     </row>
     <row r="54" ht="30.5" customHeight="1" spans="1:34">
       <c r="A54" s="15" t="s">
@@ -6902,10 +6905,10 @@
       <c r="B54" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="D54" s="31"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="12">
         <v>0</v>
       </c>
@@ -6948,18 +6951,18 @@
       <c r="T54" s="12"/>
       <c r="U54" s="12"/>
       <c r="V54" s="12"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="41"/>
-      <c r="Y54" s="48"/>
+      <c r="W54" s="38"/>
+      <c r="X54" s="42"/>
+      <c r="Y54" s="49"/>
       <c r="Z54" s="19"/>
       <c r="AA54" s="19"/>
       <c r="AB54" s="19"/>
       <c r="AC54" s="19"/>
-      <c r="AD54" s="49"/>
-      <c r="AE54" s="49"/>
-      <c r="AF54" s="49"/>
-      <c r="AG54" s="49"/>
-      <c r="AH54" s="52"/>
+      <c r="AD54" s="50"/>
+      <c r="AE54" s="50"/>
+      <c r="AF54" s="50"/>
+      <c r="AG54" s="50"/>
+      <c r="AH54" s="53"/>
     </row>
     <row r="55" ht="30.5" customHeight="1" spans="1:34">
       <c r="A55" s="15" t="s">
@@ -7014,18 +7017,18 @@
       <c r="T55" s="19"/>
       <c r="U55" s="19"/>
       <c r="V55" s="19"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="40"/>
-      <c r="Y55" s="46"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="41"/>
+      <c r="Y55" s="47"/>
       <c r="Z55" s="12"/>
       <c r="AA55" s="12"/>
       <c r="AB55" s="12"/>
       <c r="AC55" s="12"/>
-      <c r="AD55" s="47"/>
-      <c r="AE55" s="47"/>
-      <c r="AF55" s="47"/>
-      <c r="AG55" s="47"/>
-      <c r="AH55" s="51"/>
+      <c r="AD55" s="48"/>
+      <c r="AE55" s="48"/>
+      <c r="AF55" s="48"/>
+      <c r="AG55" s="48"/>
+      <c r="AH55" s="52"/>
     </row>
     <row r="56" ht="30.5" customHeight="1" spans="1:34">
       <c r="A56" s="15" t="s">
@@ -7034,10 +7037,10 @@
       <c r="B56" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D56" s="31"/>
+      <c r="D56" s="32"/>
       <c r="E56" s="12">
         <v>0</v>
       </c>
@@ -7080,18 +7083,18 @@
       <c r="T56" s="12"/>
       <c r="U56" s="12"/>
       <c r="V56" s="12"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="41"/>
-      <c r="Y56" s="48"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="42"/>
+      <c r="Y56" s="49"/>
       <c r="Z56" s="19"/>
       <c r="AA56" s="19"/>
       <c r="AB56" s="19"/>
       <c r="AC56" s="19"/>
-      <c r="AD56" s="49"/>
-      <c r="AE56" s="49"/>
-      <c r="AF56" s="49"/>
-      <c r="AG56" s="49"/>
-      <c r="AH56" s="52"/>
+      <c r="AD56" s="50"/>
+      <c r="AE56" s="50"/>
+      <c r="AF56" s="50"/>
+      <c r="AG56" s="50"/>
+      <c r="AH56" s="53"/>
     </row>
     <row r="57" ht="30.5" customHeight="1" spans="1:34">
       <c r="A57" s="15" t="s">
@@ -7146,18 +7149,18 @@
       <c r="T57" s="19"/>
       <c r="U57" s="19"/>
       <c r="V57" s="19"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="46"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="41"/>
+      <c r="Y57" s="47"/>
       <c r="Z57" s="12"/>
       <c r="AA57" s="12"/>
       <c r="AB57" s="12"/>
       <c r="AC57" s="12"/>
-      <c r="AD57" s="47"/>
-      <c r="AE57" s="47"/>
-      <c r="AF57" s="47"/>
-      <c r="AG57" s="47"/>
-      <c r="AH57" s="51"/>
+      <c r="AD57" s="48"/>
+      <c r="AE57" s="48"/>
+      <c r="AF57" s="48"/>
+      <c r="AG57" s="48"/>
+      <c r="AH57" s="52"/>
     </row>
     <row r="58" ht="30.5" customHeight="1" spans="1:34">
       <c r="A58" s="15" t="s">
@@ -7166,10 +7169,10 @@
       <c r="B58" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="D58" s="31"/>
+      <c r="D58" s="32"/>
       <c r="E58" s="12">
         <v>0</v>
       </c>
@@ -7212,18 +7215,18 @@
       <c r="T58" s="12"/>
       <c r="U58" s="12"/>
       <c r="V58" s="12"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="41"/>
-      <c r="Y58" s="48"/>
+      <c r="W58" s="38"/>
+      <c r="X58" s="42"/>
+      <c r="Y58" s="49"/>
       <c r="Z58" s="19"/>
       <c r="AA58" s="19"/>
       <c r="AB58" s="19"/>
       <c r="AC58" s="19"/>
-      <c r="AD58" s="49"/>
-      <c r="AE58" s="49"/>
-      <c r="AF58" s="49"/>
-      <c r="AG58" s="49"/>
-      <c r="AH58" s="52"/>
+      <c r="AD58" s="50"/>
+      <c r="AE58" s="50"/>
+      <c r="AF58" s="50"/>
+      <c r="AG58" s="50"/>
+      <c r="AH58" s="53"/>
     </row>
     <row r="59" ht="30.5" customHeight="1" spans="1:34">
       <c r="A59" s="15" t="s">
@@ -7278,18 +7281,18 @@
       <c r="T59" s="19"/>
       <c r="U59" s="19"/>
       <c r="V59" s="19"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="40"/>
-      <c r="Y59" s="46"/>
+      <c r="W59" s="40"/>
+      <c r="X59" s="41"/>
+      <c r="Y59" s="47"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
       <c r="AB59" s="12"/>
       <c r="AC59" s="12"/>
-      <c r="AD59" s="47"/>
-      <c r="AE59" s="47"/>
-      <c r="AF59" s="47"/>
-      <c r="AG59" s="47"/>
-      <c r="AH59" s="51"/>
+      <c r="AD59" s="48"/>
+      <c r="AE59" s="48"/>
+      <c r="AF59" s="48"/>
+      <c r="AG59" s="48"/>
+      <c r="AH59" s="52"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A60" s="15" t="s">
@@ -7298,10 +7301,10 @@
       <c r="B60" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="D60" s="31"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="12">
         <v>1</v>
       </c>
@@ -7344,18 +7347,18 @@
       <c r="T60" s="12"/>
       <c r="U60" s="12"/>
       <c r="V60" s="12"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="41"/>
-      <c r="Y60" s="48"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="42"/>
+      <c r="Y60" s="49"/>
       <c r="Z60" s="19"/>
       <c r="AA60" s="19"/>
       <c r="AB60" s="19"/>
       <c r="AC60" s="19"/>
-      <c r="AD60" s="49"/>
-      <c r="AE60" s="49"/>
-      <c r="AF60" s="49"/>
-      <c r="AG60" s="49"/>
-      <c r="AH60" s="52"/>
+      <c r="AD60" s="50"/>
+      <c r="AE60" s="50"/>
+      <c r="AF60" s="50"/>
+      <c r="AG60" s="50"/>
+      <c r="AH60" s="53"/>
     </row>
     <row r="61" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A61" s="15" t="s">
@@ -7410,18 +7413,18 @@
       <c r="T61" s="19"/>
       <c r="U61" s="19"/>
       <c r="V61" s="19"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="46"/>
+      <c r="W61" s="40"/>
+      <c r="X61" s="41"/>
+      <c r="Y61" s="47"/>
       <c r="Z61" s="12"/>
       <c r="AA61" s="12"/>
       <c r="AB61" s="12"/>
       <c r="AC61" s="12"/>
-      <c r="AD61" s="47"/>
-      <c r="AE61" s="47"/>
-      <c r="AF61" s="47"/>
-      <c r="AG61" s="47"/>
-      <c r="AH61" s="51"/>
+      <c r="AD61" s="48"/>
+      <c r="AE61" s="48"/>
+      <c r="AF61" s="48"/>
+      <c r="AG61" s="48"/>
+      <c r="AH61" s="52"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A62" s="15" t="s">
@@ -7430,10 +7433,10 @@
       <c r="B62" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="D62" s="31"/>
+      <c r="D62" s="32"/>
       <c r="E62" s="12">
         <v>0</v>
       </c>
@@ -7476,18 +7479,18 @@
       <c r="T62" s="12"/>
       <c r="U62" s="12"/>
       <c r="V62" s="12"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="41"/>
-      <c r="Y62" s="48"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="42"/>
+      <c r="Y62" s="49"/>
       <c r="Z62" s="19"/>
       <c r="AA62" s="19"/>
       <c r="AB62" s="19"/>
       <c r="AC62" s="19"/>
-      <c r="AD62" s="49"/>
-      <c r="AE62" s="49"/>
-      <c r="AF62" s="49"/>
-      <c r="AG62" s="49"/>
-      <c r="AH62" s="52"/>
+      <c r="AD62" s="50"/>
+      <c r="AE62" s="50"/>
+      <c r="AF62" s="50"/>
+      <c r="AG62" s="50"/>
+      <c r="AH62" s="53"/>
     </row>
     <row r="63" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A63" s="15" t="s">
@@ -7542,18 +7545,18 @@
       <c r="T63" s="19"/>
       <c r="U63" s="19"/>
       <c r="V63" s="19"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="46"/>
+      <c r="W63" s="40"/>
+      <c r="X63" s="41"/>
+      <c r="Y63" s="47"/>
       <c r="Z63" s="12"/>
       <c r="AA63" s="12"/>
       <c r="AB63" s="12"/>
       <c r="AC63" s="12"/>
-      <c r="AD63" s="47"/>
-      <c r="AE63" s="47"/>
-      <c r="AF63" s="47"/>
-      <c r="AG63" s="47"/>
-      <c r="AH63" s="51"/>
+      <c r="AD63" s="48"/>
+      <c r="AE63" s="48"/>
+      <c r="AF63" s="48"/>
+      <c r="AG63" s="48"/>
+      <c r="AH63" s="52"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A64" s="15" t="s">
@@ -7562,7 +7565,7 @@
       <c r="B64" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="31" t="s">
         <v>358</v>
       </c>
       <c r="D64" s="27"/>
@@ -7608,18 +7611,18 @@
       <c r="T64" s="12"/>
       <c r="U64" s="12"/>
       <c r="V64" s="12"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="41"/>
-      <c r="Y64" s="48"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="42"/>
+      <c r="Y64" s="49"/>
       <c r="Z64" s="19"/>
       <c r="AA64" s="19"/>
       <c r="AB64" s="19"/>
       <c r="AC64" s="19"/>
-      <c r="AD64" s="49"/>
-      <c r="AE64" s="49"/>
-      <c r="AF64" s="49"/>
-      <c r="AG64" s="49"/>
-      <c r="AH64" s="52"/>
+      <c r="AD64" s="50"/>
+      <c r="AE64" s="50"/>
+      <c r="AF64" s="50"/>
+      <c r="AG64" s="50"/>
+      <c r="AH64" s="53"/>
     </row>
     <row r="65" ht="30.5" customHeight="1" spans="1:34">
       <c r="A65" s="15" t="s">
@@ -7674,18 +7677,18 @@
       <c r="T65" s="19"/>
       <c r="U65" s="19"/>
       <c r="V65" s="19"/>
-      <c r="W65" s="39"/>
-      <c r="X65" s="40"/>
-      <c r="Y65" s="46"/>
+      <c r="W65" s="40"/>
+      <c r="X65" s="41"/>
+      <c r="Y65" s="47"/>
       <c r="Z65" s="12"/>
       <c r="AA65" s="12"/>
       <c r="AB65" s="12"/>
       <c r="AC65" s="12"/>
-      <c r="AD65" s="47"/>
-      <c r="AE65" s="47"/>
-      <c r="AF65" s="47"/>
-      <c r="AG65" s="47"/>
-      <c r="AH65" s="51"/>
+      <c r="AD65" s="48"/>
+      <c r="AE65" s="48"/>
+      <c r="AF65" s="48"/>
+      <c r="AG65" s="48"/>
+      <c r="AH65" s="52"/>
     </row>
     <row r="66" ht="30.5" customHeight="1" spans="1:34">
       <c r="A66" s="15" t="s">
@@ -7694,7 +7697,7 @@
       <c r="B66" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="31" t="s">
         <v>364</v>
       </c>
       <c r="D66" s="27"/>
@@ -7740,18 +7743,18 @@
       <c r="T66" s="12"/>
       <c r="U66" s="12"/>
       <c r="V66" s="12"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="41"/>
-      <c r="Y66" s="48"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="42"/>
+      <c r="Y66" s="49"/>
       <c r="Z66" s="19"/>
       <c r="AA66" s="19"/>
       <c r="AB66" s="19"/>
       <c r="AC66" s="19"/>
-      <c r="AD66" s="49"/>
-      <c r="AE66" s="49"/>
-      <c r="AF66" s="49"/>
-      <c r="AG66" s="49"/>
-      <c r="AH66" s="52"/>
+      <c r="AD66" s="50"/>
+      <c r="AE66" s="50"/>
+      <c r="AF66" s="50"/>
+      <c r="AG66" s="50"/>
+      <c r="AH66" s="53"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A67" s="15" t="s">
@@ -7806,18 +7809,18 @@
       <c r="T67" s="19"/>
       <c r="U67" s="19"/>
       <c r="V67" s="19"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="40"/>
-      <c r="Y67" s="46"/>
+      <c r="W67" s="40"/>
+      <c r="X67" s="41"/>
+      <c r="Y67" s="47"/>
       <c r="Z67" s="12"/>
       <c r="AA67" s="12"/>
       <c r="AB67" s="12"/>
       <c r="AC67" s="12"/>
-      <c r="AD67" s="47"/>
-      <c r="AE67" s="47"/>
-      <c r="AF67" s="47"/>
-      <c r="AG67" s="47"/>
-      <c r="AH67" s="51"/>
+      <c r="AD67" s="48"/>
+      <c r="AE67" s="48"/>
+      <c r="AF67" s="48"/>
+      <c r="AG67" s="48"/>
+      <c r="AH67" s="52"/>
     </row>
     <row r="68" ht="30.5" customHeight="1" spans="1:34">
       <c r="A68" s="15" t="s">
@@ -7826,7 +7829,7 @@
       <c r="B68" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="31" t="s">
         <v>370</v>
       </c>
       <c r="D68" s="27"/>
@@ -7872,18 +7875,18 @@
       <c r="T68" s="12"/>
       <c r="U68" s="12"/>
       <c r="V68" s="12"/>
-      <c r="W68" s="37"/>
-      <c r="X68" s="41"/>
-      <c r="Y68" s="48"/>
+      <c r="W68" s="38"/>
+      <c r="X68" s="42"/>
+      <c r="Y68" s="49"/>
       <c r="Z68" s="19"/>
       <c r="AA68" s="19"/>
       <c r="AB68" s="19"/>
       <c r="AC68" s="19"/>
-      <c r="AD68" s="49"/>
-      <c r="AE68" s="49"/>
-      <c r="AF68" s="49"/>
-      <c r="AG68" s="49"/>
-      <c r="AH68" s="52"/>
+      <c r="AD68" s="50"/>
+      <c r="AE68" s="50"/>
+      <c r="AF68" s="50"/>
+      <c r="AG68" s="50"/>
+      <c r="AH68" s="53"/>
     </row>
     <row r="69" ht="30.5" customHeight="1" spans="1:34">
       <c r="A69" s="15" t="s">
@@ -7938,18 +7941,18 @@
       <c r="T69" s="19"/>
       <c r="U69" s="19"/>
       <c r="V69" s="19"/>
-      <c r="W69" s="39"/>
-      <c r="X69" s="40"/>
-      <c r="Y69" s="46"/>
+      <c r="W69" s="40"/>
+      <c r="X69" s="41"/>
+      <c r="Y69" s="47"/>
       <c r="Z69" s="12"/>
       <c r="AA69" s="12"/>
       <c r="AB69" s="12"/>
       <c r="AC69" s="12"/>
-      <c r="AD69" s="47"/>
-      <c r="AE69" s="47"/>
-      <c r="AF69" s="47"/>
-      <c r="AG69" s="47"/>
-      <c r="AH69" s="51"/>
+      <c r="AD69" s="48"/>
+      <c r="AE69" s="48"/>
+      <c r="AF69" s="48"/>
+      <c r="AG69" s="48"/>
+      <c r="AH69" s="52"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A70" s="15" t="s">
@@ -7958,7 +7961,7 @@
       <c r="B70" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="31" t="s">
         <v>376</v>
       </c>
       <c r="D70" s="27"/>
@@ -8004,18 +8007,18 @@
       <c r="T70" s="12"/>
       <c r="U70" s="12"/>
       <c r="V70" s="12"/>
-      <c r="W70" s="37"/>
-      <c r="X70" s="41"/>
-      <c r="Y70" s="48"/>
+      <c r="W70" s="38"/>
+      <c r="X70" s="42"/>
+      <c r="Y70" s="49"/>
       <c r="Z70" s="19"/>
       <c r="AA70" s="19"/>
       <c r="AB70" s="19"/>
       <c r="AC70" s="19"/>
-      <c r="AD70" s="49"/>
-      <c r="AE70" s="49"/>
-      <c r="AF70" s="49"/>
-      <c r="AG70" s="49"/>
-      <c r="AH70" s="52"/>
+      <c r="AD70" s="50"/>
+      <c r="AE70" s="50"/>
+      <c r="AF70" s="50"/>
+      <c r="AG70" s="50"/>
+      <c r="AH70" s="53"/>
     </row>
     <row r="71" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A71" s="15" t="s">
@@ -8070,18 +8073,18 @@
       <c r="T71" s="19"/>
       <c r="U71" s="19"/>
       <c r="V71" s="19"/>
-      <c r="W71" s="39"/>
-      <c r="X71" s="40"/>
-      <c r="Y71" s="46"/>
+      <c r="W71" s="40"/>
+      <c r="X71" s="41"/>
+      <c r="Y71" s="47"/>
       <c r="Z71" s="12"/>
       <c r="AA71" s="12"/>
       <c r="AB71" s="12"/>
       <c r="AC71" s="12"/>
-      <c r="AD71" s="47"/>
-      <c r="AE71" s="47"/>
-      <c r="AF71" s="47"/>
-      <c r="AG71" s="47"/>
-      <c r="AH71" s="51"/>
+      <c r="AD71" s="48"/>
+      <c r="AE71" s="48"/>
+      <c r="AF71" s="48"/>
+      <c r="AG71" s="48"/>
+      <c r="AH71" s="52"/>
     </row>
     <row r="72" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A72" s="15" t="s">
@@ -8090,7 +8093,7 @@
       <c r="B72" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="31" t="s">
         <v>382</v>
       </c>
       <c r="D72" s="27"/>
@@ -8136,18 +8139,18 @@
       <c r="T72" s="12"/>
       <c r="U72" s="12"/>
       <c r="V72" s="12"/>
-      <c r="W72" s="37"/>
-      <c r="X72" s="41"/>
-      <c r="Y72" s="48"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="42"/>
+      <c r="Y72" s="49"/>
       <c r="Z72" s="19"/>
       <c r="AA72" s="19"/>
       <c r="AB72" s="19"/>
       <c r="AC72" s="19"/>
-      <c r="AD72" s="49"/>
-      <c r="AE72" s="49"/>
-      <c r="AF72" s="49"/>
-      <c r="AG72" s="49"/>
-      <c r="AH72" s="52"/>
+      <c r="AD72" s="50"/>
+      <c r="AE72" s="50"/>
+      <c r="AF72" s="50"/>
+      <c r="AG72" s="50"/>
+      <c r="AH72" s="53"/>
     </row>
     <row r="73" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A73" s="15" t="s">
@@ -8202,18 +8205,18 @@
       <c r="T73" s="19"/>
       <c r="U73" s="19"/>
       <c r="V73" s="19"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="40"/>
-      <c r="Y73" s="46"/>
+      <c r="W73" s="40"/>
+      <c r="X73" s="41"/>
+      <c r="Y73" s="47"/>
       <c r="Z73" s="12"/>
       <c r="AA73" s="12"/>
       <c r="AB73" s="12"/>
       <c r="AC73" s="12"/>
-      <c r="AD73" s="47"/>
-      <c r="AE73" s="47"/>
-      <c r="AF73" s="47"/>
-      <c r="AG73" s="47"/>
-      <c r="AH73" s="51"/>
+      <c r="AD73" s="48"/>
+      <c r="AE73" s="48"/>
+      <c r="AF73" s="48"/>
+      <c r="AG73" s="48"/>
+      <c r="AH73" s="52"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A74" s="15" t="s">
@@ -8222,7 +8225,7 @@
       <c r="B74" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="31" t="s">
         <v>388</v>
       </c>
       <c r="D74" s="27"/>
@@ -8268,18 +8271,18 @@
       <c r="T74" s="12"/>
       <c r="U74" s="12"/>
       <c r="V74" s="12"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="41"/>
-      <c r="Y74" s="48"/>
+      <c r="W74" s="38"/>
+      <c r="X74" s="42"/>
+      <c r="Y74" s="49"/>
       <c r="Z74" s="19"/>
       <c r="AA74" s="19"/>
       <c r="AB74" s="19"/>
       <c r="AC74" s="19"/>
-      <c r="AD74" s="49"/>
-      <c r="AE74" s="49"/>
-      <c r="AF74" s="49"/>
-      <c r="AG74" s="49"/>
-      <c r="AH74" s="52"/>
+      <c r="AD74" s="50"/>
+      <c r="AE74" s="50"/>
+      <c r="AF74" s="50"/>
+      <c r="AG74" s="50"/>
+      <c r="AH74" s="53"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="31.25" customHeight="1" spans="1:34">
       <c r="A75" s="15" t="s">
@@ -8334,18 +8337,18 @@
       <c r="T75" s="19"/>
       <c r="U75" s="19"/>
       <c r="V75" s="19"/>
-      <c r="W75" s="39"/>
-      <c r="X75" s="40"/>
-      <c r="Y75" s="46"/>
-      <c r="Z75" s="57"/>
-      <c r="AA75" s="57"/>
-      <c r="AB75" s="57"/>
-      <c r="AC75" s="57"/>
-      <c r="AD75" s="57"/>
-      <c r="AE75" s="57"/>
-      <c r="AF75" s="47"/>
-      <c r="AG75" s="47"/>
-      <c r="AH75" s="51"/>
+      <c r="W75" s="40"/>
+      <c r="X75" s="41"/>
+      <c r="Y75" s="47"/>
+      <c r="Z75" s="58"/>
+      <c r="AA75" s="58"/>
+      <c r="AB75" s="58"/>
+      <c r="AC75" s="58"/>
+      <c r="AD75" s="58"/>
+      <c r="AE75" s="58"/>
+      <c r="AF75" s="48"/>
+      <c r="AG75" s="48"/>
+      <c r="AH75" s="52"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A76" s="15" t="s">
@@ -8354,7 +8357,7 @@
       <c r="B76" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="31" t="s">
         <v>394</v>
       </c>
       <c r="D76" s="27"/>
@@ -8400,18 +8403,18 @@
       <c r="T76" s="12"/>
       <c r="U76" s="12"/>
       <c r="V76" s="12"/>
-      <c r="W76" s="37"/>
-      <c r="X76" s="41"/>
-      <c r="Y76" s="48"/>
+      <c r="W76" s="38"/>
+      <c r="X76" s="42"/>
+      <c r="Y76" s="49"/>
       <c r="Z76" s="19"/>
       <c r="AA76" s="19"/>
       <c r="AB76" s="19"/>
       <c r="AC76" s="19"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
-      <c r="AF76" s="49"/>
-      <c r="AG76" s="49"/>
-      <c r="AH76" s="52"/>
+      <c r="AF76" s="50"/>
+      <c r="AG76" s="50"/>
+      <c r="AH76" s="53"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A77" s="15" t="s">
@@ -8466,18 +8469,18 @@
       <c r="T77" s="19"/>
       <c r="U77" s="19"/>
       <c r="V77" s="19"/>
-      <c r="W77" s="39"/>
-      <c r="X77" s="40"/>
-      <c r="Y77" s="46"/>
+      <c r="W77" s="40"/>
+      <c r="X77" s="41"/>
+      <c r="Y77" s="47"/>
       <c r="Z77" s="12"/>
       <c r="AA77" s="12"/>
       <c r="AB77" s="12"/>
       <c r="AC77" s="12"/>
       <c r="AD77" s="12"/>
       <c r="AE77" s="12"/>
-      <c r="AF77" s="47"/>
-      <c r="AG77" s="47"/>
-      <c r="AH77" s="51"/>
+      <c r="AF77" s="48"/>
+      <c r="AG77" s="48"/>
+      <c r="AH77" s="52"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A78" s="15" t="s">
@@ -8486,7 +8489,7 @@
       <c r="B78" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="31" t="s">
         <v>400</v>
       </c>
       <c r="D78" s="27"/>
@@ -8532,18 +8535,18 @@
       <c r="T78" s="12"/>
       <c r="U78" s="12"/>
       <c r="V78" s="12"/>
-      <c r="W78" s="37"/>
-      <c r="X78" s="41"/>
-      <c r="Y78" s="48"/>
+      <c r="W78" s="38"/>
+      <c r="X78" s="42"/>
+      <c r="Y78" s="49"/>
       <c r="Z78" s="19"/>
       <c r="AA78" s="19"/>
       <c r="AB78" s="19"/>
       <c r="AC78" s="19"/>
       <c r="AD78" s="19"/>
       <c r="AE78" s="19"/>
-      <c r="AF78" s="49"/>
-      <c r="AG78" s="49"/>
-      <c r="AH78" s="52"/>
+      <c r="AF78" s="50"/>
+      <c r="AG78" s="50"/>
+      <c r="AH78" s="53"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A79" s="15" t="s">
@@ -8598,18 +8601,18 @@
       <c r="T79" s="19"/>
       <c r="U79" s="19"/>
       <c r="V79" s="19"/>
-      <c r="W79" s="39"/>
-      <c r="X79" s="40"/>
-      <c r="Y79" s="46"/>
+      <c r="W79" s="40"/>
+      <c r="X79" s="41"/>
+      <c r="Y79" s="47"/>
       <c r="Z79" s="12"/>
       <c r="AA79" s="12"/>
       <c r="AB79" s="12"/>
       <c r="AC79" s="12"/>
       <c r="AD79" s="12"/>
       <c r="AE79" s="12"/>
-      <c r="AF79" s="47"/>
-      <c r="AG79" s="47"/>
-      <c r="AH79" s="51"/>
+      <c r="AF79" s="48"/>
+      <c r="AG79" s="48"/>
+      <c r="AH79" s="52"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A80" s="15" t="s">
@@ -8618,7 +8621,7 @@
       <c r="B80" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="31" t="s">
         <v>406</v>
       </c>
       <c r="D80" s="27"/>
@@ -8664,18 +8667,18 @@
       <c r="T80" s="12"/>
       <c r="U80" s="12"/>
       <c r="V80" s="12"/>
-      <c r="W80" s="37"/>
-      <c r="X80" s="41"/>
-      <c r="Y80" s="48"/>
+      <c r="W80" s="38"/>
+      <c r="X80" s="42"/>
+      <c r="Y80" s="49"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="19"/>
       <c r="AB80" s="19"/>
       <c r="AC80" s="19"/>
       <c r="AD80" s="19"/>
       <c r="AE80" s="19"/>
-      <c r="AF80" s="49"/>
-      <c r="AG80" s="49"/>
-      <c r="AH80" s="52"/>
+      <c r="AF80" s="50"/>
+      <c r="AG80" s="50"/>
+      <c r="AH80" s="53"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A81" s="15" t="s">
@@ -8730,18 +8733,18 @@
       <c r="T81" s="19"/>
       <c r="U81" s="19"/>
       <c r="V81" s="19"/>
-      <c r="W81" s="39"/>
-      <c r="X81" s="40"/>
-      <c r="Y81" s="46"/>
+      <c r="W81" s="40"/>
+      <c r="X81" s="41"/>
+      <c r="Y81" s="47"/>
       <c r="Z81" s="12"/>
       <c r="AA81" s="12"/>
       <c r="AB81" s="12"/>
       <c r="AC81" s="12"/>
       <c r="AD81" s="12"/>
       <c r="AE81" s="12"/>
-      <c r="AF81" s="47"/>
-      <c r="AG81" s="47"/>
-      <c r="AH81" s="51"/>
+      <c r="AF81" s="48"/>
+      <c r="AG81" s="48"/>
+      <c r="AH81" s="52"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A82" s="15" t="s">
@@ -8750,7 +8753,7 @@
       <c r="B82" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="31" t="s">
         <v>412</v>
       </c>
       <c r="D82" s="27"/>
@@ -8796,18 +8799,18 @@
       <c r="T82" s="12"/>
       <c r="U82" s="12"/>
       <c r="V82" s="12"/>
-      <c r="W82" s="37"/>
-      <c r="X82" s="41"/>
-      <c r="Y82" s="48"/>
+      <c r="W82" s="38"/>
+      <c r="X82" s="42"/>
+      <c r="Y82" s="49"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="19"/>
       <c r="AB82" s="19"/>
       <c r="AC82" s="19"/>
       <c r="AD82" s="19"/>
       <c r="AE82" s="19"/>
-      <c r="AF82" s="49"/>
-      <c r="AG82" s="49"/>
-      <c r="AH82" s="52"/>
+      <c r="AF82" s="50"/>
+      <c r="AG82" s="50"/>
+      <c r="AH82" s="53"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A83" s="15" t="s">
@@ -8862,18 +8865,18 @@
       <c r="T83" s="19"/>
       <c r="U83" s="19"/>
       <c r="V83" s="19"/>
-      <c r="W83" s="39"/>
-      <c r="X83" s="40"/>
-      <c r="Y83" s="46"/>
+      <c r="W83" s="40"/>
+      <c r="X83" s="41"/>
+      <c r="Y83" s="47"/>
       <c r="Z83" s="12"/>
       <c r="AA83" s="12"/>
       <c r="AB83" s="12"/>
       <c r="AC83" s="12"/>
       <c r="AD83" s="12"/>
       <c r="AE83" s="12"/>
-      <c r="AF83" s="47"/>
-      <c r="AG83" s="47"/>
-      <c r="AH83" s="51"/>
+      <c r="AF83" s="48"/>
+      <c r="AG83" s="48"/>
+      <c r="AH83" s="52"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A84" s="15" t="s">
@@ -8928,18 +8931,18 @@
       <c r="T84" s="12"/>
       <c r="U84" s="12"/>
       <c r="V84" s="12"/>
-      <c r="W84" s="37"/>
-      <c r="X84" s="41"/>
-      <c r="Y84" s="48"/>
+      <c r="W84" s="38"/>
+      <c r="X84" s="42"/>
+      <c r="Y84" s="49"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="19"/>
       <c r="AB84" s="19"/>
       <c r="AC84" s="19"/>
       <c r="AD84" s="19"/>
       <c r="AE84" s="19"/>
-      <c r="AF84" s="49"/>
-      <c r="AG84" s="49"/>
-      <c r="AH84" s="52"/>
+      <c r="AF84" s="50"/>
+      <c r="AG84" s="50"/>
+      <c r="AH84" s="53"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A85" s="15" t="s">
@@ -8994,18 +8997,18 @@
       <c r="T85" s="19"/>
       <c r="U85" s="19"/>
       <c r="V85" s="19"/>
-      <c r="W85" s="39"/>
-      <c r="X85" s="40"/>
-      <c r="Y85" s="46"/>
+      <c r="W85" s="40"/>
+      <c r="X85" s="41"/>
+      <c r="Y85" s="47"/>
       <c r="Z85" s="12"/>
       <c r="AA85" s="12"/>
       <c r="AB85" s="12"/>
       <c r="AC85" s="12"/>
       <c r="AD85" s="12"/>
       <c r="AE85" s="12"/>
-      <c r="AF85" s="47"/>
-      <c r="AG85" s="47"/>
-      <c r="AH85" s="51"/>
+      <c r="AF85" s="48"/>
+      <c r="AG85" s="48"/>
+      <c r="AH85" s="52"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A86" s="15" t="s">
@@ -9060,18 +9063,18 @@
       <c r="T86" s="12"/>
       <c r="U86" s="12"/>
       <c r="V86" s="12"/>
-      <c r="W86" s="37"/>
-      <c r="X86" s="41"/>
-      <c r="Y86" s="48"/>
+      <c r="W86" s="38"/>
+      <c r="X86" s="42"/>
+      <c r="Y86" s="49"/>
       <c r="Z86" s="19"/>
       <c r="AA86" s="19"/>
       <c r="AB86" s="19"/>
       <c r="AC86" s="19"/>
       <c r="AD86" s="19"/>
       <c r="AE86" s="19"/>
-      <c r="AF86" s="49"/>
-      <c r="AG86" s="49"/>
-      <c r="AH86" s="52"/>
+      <c r="AF86" s="50"/>
+      <c r="AG86" s="50"/>
+      <c r="AH86" s="53"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A87" s="15" t="s">
@@ -9126,18 +9129,18 @@
       <c r="T87" s="19"/>
       <c r="U87" s="19"/>
       <c r="V87" s="19"/>
-      <c r="W87" s="39"/>
-      <c r="X87" s="40"/>
-      <c r="Y87" s="46"/>
+      <c r="W87" s="40"/>
+      <c r="X87" s="41"/>
+      <c r="Y87" s="47"/>
       <c r="Z87" s="12"/>
       <c r="AA87" s="12"/>
       <c r="AB87" s="12"/>
       <c r="AC87" s="12"/>
       <c r="AD87" s="12"/>
       <c r="AE87" s="12"/>
-      <c r="AF87" s="47"/>
-      <c r="AG87" s="47"/>
-      <c r="AH87" s="51"/>
+      <c r="AF87" s="48"/>
+      <c r="AG87" s="48"/>
+      <c r="AH87" s="52"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A88" s="15" t="s">
@@ -9192,18 +9195,18 @@
       <c r="T88" s="12"/>
       <c r="U88" s="12"/>
       <c r="V88" s="12"/>
-      <c r="W88" s="37"/>
-      <c r="X88" s="41"/>
-      <c r="Y88" s="48"/>
+      <c r="W88" s="38"/>
+      <c r="X88" s="42"/>
+      <c r="Y88" s="49"/>
       <c r="Z88" s="19"/>
       <c r="AA88" s="19"/>
       <c r="AB88" s="19"/>
       <c r="AC88" s="19"/>
       <c r="AD88" s="19"/>
       <c r="AE88" s="19"/>
-      <c r="AF88" s="49"/>
-      <c r="AG88" s="49"/>
-      <c r="AH88" s="52"/>
+      <c r="AF88" s="50"/>
+      <c r="AG88" s="50"/>
+      <c r="AH88" s="53"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A89" s="15" t="s">
@@ -9258,18 +9261,18 @@
       <c r="T89" s="19"/>
       <c r="U89" s="19"/>
       <c r="V89" s="19"/>
-      <c r="W89" s="39"/>
-      <c r="X89" s="40"/>
-      <c r="Y89" s="46"/>
+      <c r="W89" s="40"/>
+      <c r="X89" s="41"/>
+      <c r="Y89" s="47"/>
       <c r="Z89" s="12"/>
       <c r="AA89" s="12"/>
       <c r="AB89" s="12"/>
       <c r="AC89" s="12"/>
       <c r="AD89" s="12"/>
       <c r="AE89" s="12"/>
-      <c r="AF89" s="47"/>
-      <c r="AG89" s="47"/>
-      <c r="AH89" s="51"/>
+      <c r="AF89" s="48"/>
+      <c r="AG89" s="48"/>
+      <c r="AH89" s="52"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A90" s="15" t="s">
@@ -9324,18 +9327,18 @@
       <c r="T90" s="12"/>
       <c r="U90" s="12"/>
       <c r="V90" s="12"/>
-      <c r="W90" s="37"/>
-      <c r="X90" s="41"/>
-      <c r="Y90" s="48"/>
+      <c r="W90" s="38"/>
+      <c r="X90" s="42"/>
+      <c r="Y90" s="49"/>
       <c r="Z90" s="19"/>
       <c r="AA90" s="19"/>
       <c r="AB90" s="19"/>
       <c r="AC90" s="19"/>
       <c r="AD90" s="19"/>
       <c r="AE90" s="19"/>
-      <c r="AF90" s="49"/>
-      <c r="AG90" s="49"/>
-      <c r="AH90" s="52"/>
+      <c r="AF90" s="50"/>
+      <c r="AG90" s="50"/>
+      <c r="AH90" s="53"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A91" s="15" t="s">
@@ -9390,18 +9393,18 @@
       <c r="T91" s="19"/>
       <c r="U91" s="19"/>
       <c r="V91" s="19"/>
-      <c r="W91" s="39"/>
-      <c r="X91" s="40"/>
-      <c r="Y91" s="46"/>
+      <c r="W91" s="40"/>
+      <c r="X91" s="41"/>
+      <c r="Y91" s="47"/>
       <c r="Z91" s="12"/>
       <c r="AA91" s="12"/>
       <c r="AB91" s="12"/>
       <c r="AC91" s="12"/>
       <c r="AD91" s="12"/>
       <c r="AE91" s="12"/>
-      <c r="AF91" s="47"/>
-      <c r="AG91" s="47"/>
-      <c r="AH91" s="51"/>
+      <c r="AF91" s="48"/>
+      <c r="AG91" s="48"/>
+      <c r="AH91" s="52"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A92" s="15" t="s">
@@ -9456,18 +9459,18 @@
       <c r="T92" s="12"/>
       <c r="U92" s="12"/>
       <c r="V92" s="12"/>
-      <c r="W92" s="37"/>
-      <c r="X92" s="41"/>
-      <c r="Y92" s="48"/>
+      <c r="W92" s="38"/>
+      <c r="X92" s="42"/>
+      <c r="Y92" s="49"/>
       <c r="Z92" s="19"/>
       <c r="AA92" s="19"/>
       <c r="AB92" s="19"/>
       <c r="AC92" s="19"/>
       <c r="AD92" s="19"/>
       <c r="AE92" s="19"/>
-      <c r="AF92" s="49"/>
-      <c r="AG92" s="49"/>
-      <c r="AH92" s="52"/>
+      <c r="AF92" s="50"/>
+      <c r="AG92" s="50"/>
+      <c r="AH92" s="53"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A93" s="15" t="s">
@@ -9522,18 +9525,18 @@
       <c r="T93" s="19"/>
       <c r="U93" s="19"/>
       <c r="V93" s="19"/>
-      <c r="W93" s="39"/>
-      <c r="X93" s="40"/>
-      <c r="Y93" s="46"/>
+      <c r="W93" s="40"/>
+      <c r="X93" s="41"/>
+      <c r="Y93" s="47"/>
       <c r="Z93" s="12"/>
       <c r="AA93" s="12"/>
       <c r="AB93" s="12"/>
       <c r="AC93" s="12"/>
       <c r="AD93" s="12"/>
       <c r="AE93" s="12"/>
-      <c r="AF93" s="47"/>
-      <c r="AG93" s="47"/>
-      <c r="AH93" s="51"/>
+      <c r="AF93" s="48"/>
+      <c r="AG93" s="48"/>
+      <c r="AH93" s="52"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A94" s="15" t="s">
@@ -9588,18 +9591,18 @@
       <c r="T94" s="12"/>
       <c r="U94" s="12"/>
       <c r="V94" s="12"/>
-      <c r="W94" s="37"/>
-      <c r="X94" s="41"/>
-      <c r="Y94" s="48"/>
+      <c r="W94" s="38"/>
+      <c r="X94" s="42"/>
+      <c r="Y94" s="49"/>
       <c r="Z94" s="19"/>
       <c r="AA94" s="19"/>
       <c r="AB94" s="19"/>
       <c r="AC94" s="19"/>
       <c r="AD94" s="19"/>
       <c r="AE94" s="19"/>
-      <c r="AF94" s="49"/>
-      <c r="AG94" s="49"/>
-      <c r="AH94" s="52"/>
+      <c r="AF94" s="50"/>
+      <c r="AG94" s="50"/>
+      <c r="AH94" s="53"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A95" s="15" t="s">
@@ -9654,8 +9657,8 @@
       <c r="T95" s="19"/>
       <c r="U95" s="19"/>
       <c r="V95" s="19"/>
-      <c r="W95" s="39"/>
-      <c r="X95" s="40"/>
+      <c r="W95" s="40"/>
+      <c r="X95" s="41"/>
       <c r="Y95" s="11"/>
       <c r="Z95" s="12"/>
       <c r="AA95" s="12"/>
@@ -9665,7 +9668,7 @@
       <c r="AE95" s="12"/>
       <c r="AF95" s="12"/>
       <c r="AG95" s="12"/>
-      <c r="AH95" s="37"/>
+      <c r="AH95" s="38"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A96" s="15" t="s">
@@ -9720,18 +9723,18 @@
       <c r="T96" s="12"/>
       <c r="U96" s="12"/>
       <c r="V96" s="12"/>
-      <c r="W96" s="37"/>
-      <c r="X96" s="41"/>
-      <c r="Y96" s="48"/>
+      <c r="W96" s="38"/>
+      <c r="X96" s="42"/>
+      <c r="Y96" s="49"/>
       <c r="Z96" s="19"/>
       <c r="AA96" s="19"/>
       <c r="AB96" s="19"/>
       <c r="AC96" s="19"/>
       <c r="AD96" s="19"/>
       <c r="AE96" s="19"/>
-      <c r="AF96" s="49"/>
-      <c r="AG96" s="49"/>
-      <c r="AH96" s="52"/>
+      <c r="AF96" s="50"/>
+      <c r="AG96" s="50"/>
+      <c r="AH96" s="53"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A97" s="15" t="s">
@@ -9786,18 +9789,18 @@
       <c r="T97" s="19"/>
       <c r="U97" s="19"/>
       <c r="V97" s="19"/>
-      <c r="W97" s="39"/>
-      <c r="X97" s="40"/>
-      <c r="Y97" s="46"/>
+      <c r="W97" s="40"/>
+      <c r="X97" s="41"/>
+      <c r="Y97" s="47"/>
       <c r="Z97" s="12"/>
       <c r="AA97" s="12"/>
       <c r="AB97" s="12"/>
       <c r="AC97" s="12"/>
       <c r="AD97" s="12"/>
       <c r="AE97" s="12"/>
-      <c r="AF97" s="47"/>
-      <c r="AG97" s="47"/>
-      <c r="AH97" s="51"/>
+      <c r="AF97" s="48"/>
+      <c r="AG97" s="48"/>
+      <c r="AH97" s="52"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A98" s="15" t="s">
@@ -9852,18 +9855,18 @@
       <c r="T98" s="12"/>
       <c r="U98" s="12"/>
       <c r="V98" s="12"/>
-      <c r="W98" s="37"/>
-      <c r="X98" s="41"/>
-      <c r="Y98" s="48"/>
+      <c r="W98" s="38"/>
+      <c r="X98" s="42"/>
+      <c r="Y98" s="49"/>
       <c r="Z98" s="19"/>
       <c r="AA98" s="19"/>
       <c r="AB98" s="19"/>
       <c r="AC98" s="19"/>
       <c r="AD98" s="19"/>
       <c r="AE98" s="19"/>
-      <c r="AF98" s="49"/>
-      <c r="AG98" s="49"/>
-      <c r="AH98" s="52"/>
+      <c r="AF98" s="50"/>
+      <c r="AG98" s="50"/>
+      <c r="AH98" s="53"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A99" s="15" t="s">
@@ -9918,18 +9921,18 @@
       <c r="T99" s="19"/>
       <c r="U99" s="19"/>
       <c r="V99" s="19"/>
-      <c r="W99" s="39"/>
-      <c r="X99" s="40"/>
-      <c r="Y99" s="46"/>
+      <c r="W99" s="40"/>
+      <c r="X99" s="41"/>
+      <c r="Y99" s="47"/>
       <c r="Z99" s="12"/>
       <c r="AA99" s="12"/>
       <c r="AB99" s="12"/>
       <c r="AC99" s="12"/>
       <c r="AD99" s="12"/>
       <c r="AE99" s="12"/>
-      <c r="AF99" s="47"/>
-      <c r="AG99" s="47"/>
-      <c r="AH99" s="51"/>
+      <c r="AF99" s="48"/>
+      <c r="AG99" s="48"/>
+      <c r="AH99" s="52"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
       <c r="A100" s="15" t="s">
@@ -9938,64 +9941,64 @@
       <c r="B100" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="C100" s="53" t="s">
+      <c r="C100" s="54" t="s">
         <v>466</v>
       </c>
-      <c r="D100" s="54"/>
-      <c r="E100" s="55">
-        <v>0</v>
-      </c>
-      <c r="F100" s="54">
+      <c r="D100" s="55"/>
+      <c r="E100" s="56">
+        <v>0</v>
+      </c>
+      <c r="F100" s="55">
         <v>3</v>
       </c>
-      <c r="G100" s="55">
+      <c r="G100" s="56">
         <v>101</v>
       </c>
-      <c r="H100" s="55">
+      <c r="H100" s="56">
         <v>100</v>
       </c>
-      <c r="I100" s="55">
-        <v>1</v>
-      </c>
-      <c r="J100" s="55">
-        <v>1</v>
-      </c>
-      <c r="K100" s="55">
-        <v>1</v>
-      </c>
-      <c r="L100" s="55" t="s">
+      <c r="I100" s="56">
+        <v>1</v>
+      </c>
+      <c r="J100" s="56">
+        <v>1</v>
+      </c>
+      <c r="K100" s="56">
+        <v>1</v>
+      </c>
+      <c r="L100" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="M100" s="55" t="s">
+      <c r="M100" s="56" t="s">
         <v>199</v>
       </c>
       <c r="N100" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="O100" s="55">
+      <c r="O100" s="56">
         <v>0</v>
       </c>
       <c r="P100" s="19">
         <v>0</v>
       </c>
-      <c r="Q100" s="55"/>
-      <c r="R100" s="55"/>
-      <c r="S100" s="55"/>
-      <c r="T100" s="55"/>
-      <c r="U100" s="55"/>
-      <c r="V100" s="55"/>
-      <c r="W100" s="56"/>
-      <c r="X100" s="41"/>
-      <c r="Y100" s="58"/>
-      <c r="Z100" s="59"/>
-      <c r="AA100" s="59"/>
-      <c r="AB100" s="59"/>
-      <c r="AC100" s="59"/>
-      <c r="AD100" s="59"/>
-      <c r="AE100" s="59"/>
-      <c r="AF100" s="60"/>
-      <c r="AG100" s="60"/>
-      <c r="AH100" s="61"/>
+      <c r="Q100" s="56"/>
+      <c r="R100" s="56"/>
+      <c r="S100" s="56"/>
+      <c r="T100" s="56"/>
+      <c r="U100" s="56"/>
+      <c r="V100" s="56"/>
+      <c r="W100" s="57"/>
+      <c r="X100" s="42"/>
+      <c r="Y100" s="59"/>
+      <c r="Z100" s="60"/>
+      <c r="AA100" s="60"/>
+      <c r="AB100" s="60"/>
+      <c r="AC100" s="60"/>
+      <c r="AD100" s="60"/>
+      <c r="AE100" s="60"/>
+      <c r="AF100" s="61"/>
+      <c r="AG100" s="61"/>
+      <c r="AH100" s="62"/>
     </row>
     <row r="101" ht="14.25"/>
   </sheetData>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="rune_config" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="560">
   <si>
     <t>名字</t>
   </si>
@@ -1628,6 +1628,16 @@
   <si>
     <t>1.提高最终伤害
 2.降低生命值乘算</t>
+  </si>
+  <si>
+    <t>FinalDamageMul {
+"Base" "40"
+}</t>
+  </si>
+  <si>
+    <t>MaxHealth {
+"BasePercent" "-40"
+}</t>
   </si>
   <si>
     <t>rune_110</t>
@@ -1754,7 +1764,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1776,12 +1786,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1790,6 +1794,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
@@ -1810,12 +1820,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -2626,13 +2630,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2641,122 +2648,119 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2823,9 +2827,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2841,16 +2842,16 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2913,29 +2914,14 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3571,12 +3557,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{390B311D-2CED-42E2-A8FC-4967D340C94D}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C6431460-3F36-4D71-B265-E369767C8208}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{82A5F8C2-C1F8-4C78-B4CC-CBC1299BD86E}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{FE6A1F9F-C118-4A00-8E09-31CF9D530C77}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -3588,7 +3574,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{FDC22E5F-9138-459A-A468-E02BBA7256E6}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{90CFE99E-AFEF-4197-8CC9-D48963DEFD12}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3904,10 +3890,10 @@
   <sheetPr/>
   <dimension ref="A1:AI120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A102" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A98" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E111" sqref="E111"/>
+      <selection pane="topRight" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3916,27 +3902,28 @@
     <col min="2" max="2" width="20.0083333333333" style="6" customWidth="1"/>
     <col min="3" max="3" width="50.625" style="7" customWidth="1"/>
     <col min="4" max="4" width="50.625" customWidth="1"/>
-    <col min="5" max="5" width="27.0333333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.0083333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.8416666666667" customWidth="1"/>
     <col min="7" max="10" width="19.0083333333333" customWidth="1"/>
     <col min="11" max="11" width="17.8416666666667" customWidth="1"/>
     <col min="12" max="12" width="24.8416666666667" customWidth="1"/>
     <col min="13" max="13" width="19.5083333333333" customWidth="1"/>
-    <col min="14" max="15" width="28.675" customWidth="1"/>
+    <col min="14" max="14" width="28.675" customWidth="1"/>
+    <col min="15" max="15" width="19.5083333333333" customWidth="1"/>
     <col min="16" max="16" width="23.175" customWidth="1"/>
     <col min="17" max="17" width="16.625" customWidth="1"/>
     <col min="18" max="18" width="20.5083333333333" customWidth="1"/>
     <col min="19" max="19" width="28.675" customWidth="1"/>
-    <col min="20" max="20" width="26.175" customWidth="1"/>
+    <col min="20" max="20" width="26.3416666666667" customWidth="1"/>
     <col min="21" max="24" width="8.24166666666667" customWidth="1"/>
     <col min="25" max="25" width="3.625" customWidth="1"/>
-    <col min="26" max="26" width="14.0583333333333" customWidth="1"/>
+    <col min="26" max="26" width="5.625" customWidth="1"/>
     <col min="27" max="27" width="28.3416666666667" customWidth="1"/>
     <col min="28" max="28" width="23.5083333333333" customWidth="1"/>
     <col min="29" max="35" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="55" customHeight="1" spans="1:35">
+    <row r="1" s="1" customFormat="1" ht="48.5" customHeight="1" spans="1:35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3994,8 +3981,8 @@
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="28"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="27"/>
       <c r="Z1" s="8" t="s">
         <v>17</v>
       </c>
@@ -4007,7 +3994,7 @@
       <c r="AF1" s="9"/>
       <c r="AG1" s="9"/>
       <c r="AH1" s="9"/>
-      <c r="AI1" s="23" t="s">
+      <c r="AI1" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4064,13 +4051,13 @@
       <c r="R2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="24">
-        <v>1</v>
-      </c>
-      <c r="T2" s="24">
+      <c r="S2" s="23">
+        <v>1</v>
+      </c>
+      <c r="T2" s="23">
         <v>2</v>
       </c>
-      <c r="U2" s="25">
+      <c r="U2" s="24">
         <v>3</v>
       </c>
       <c r="V2" s="12">
@@ -4079,22 +4066,22 @@
       <c r="W2" s="12">
         <v>5</v>
       </c>
-      <c r="X2" s="26">
+      <c r="X2" s="25">
         <v>6</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Y2" s="28" t="s">
         <v>36</v>
       </c>
       <c r="Z2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="25">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="25">
+      <c r="AA2" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="24">
         <v>2</v>
       </c>
-      <c r="AC2" s="25">
+      <c r="AC2" s="24">
         <v>3</v>
       </c>
       <c r="AD2" s="12">
@@ -4112,11 +4099,11 @@
       <c r="AH2" s="12">
         <v>8</v>
       </c>
-      <c r="AI2" s="26" t="s">
+      <c r="AI2" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" ht="30.5" customHeight="1" spans="1:35">
+    <row r="3" ht="63.5" customHeight="1" spans="1:35">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -4157,7 +4144,7 @@
       <c r="N3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P3" s="19">
@@ -4176,8 +4163,8 @@
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
       <c r="W3" s="19"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="30"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="29"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="19" t="s">
         <v>47</v>
@@ -4189,9 +4176,9 @@
       <c r="AF3" s="19"/>
       <c r="AG3" s="19"/>
       <c r="AH3" s="19"/>
-      <c r="AI3" s="27"/>
+      <c r="AI3" s="26"/>
     </row>
-    <row r="4" ht="30.5" customHeight="1" spans="1:35">
+    <row r="4" ht="47" customHeight="1" spans="1:35">
       <c r="A4" s="15" t="s">
         <v>48</v>
       </c>
@@ -4234,7 +4221,7 @@
       <c r="N4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P4" s="19">
@@ -4249,8 +4236,8 @@
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
       <c r="W4" s="19"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="31"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="30"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="19" t="s">
         <v>53</v>
@@ -4262,9 +4249,9 @@
       <c r="AF4" s="19"/>
       <c r="AG4" s="19"/>
       <c r="AH4" s="19"/>
-      <c r="AI4" s="27"/>
+      <c r="AI4" s="26"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
+    <row r="5" s="2" customFormat="1" ht="63.5" customHeight="1" spans="1:35">
       <c r="A5" s="15" t="s">
         <v>54</v>
       </c>
@@ -4305,7 +4292,7 @@
       <c r="N5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P5" s="19">
@@ -4322,8 +4309,8 @@
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
       <c r="W5" s="19"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="30"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="29"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="19" t="s">
         <v>59</v>
@@ -4335,9 +4322,9 @@
       <c r="AF5" s="19"/>
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
-      <c r="AI5" s="27"/>
+      <c r="AI5" s="26"/>
     </row>
-    <row r="6" ht="30.5" customHeight="1" spans="1:35">
+    <row r="6" ht="47" customHeight="1" spans="1:35">
       <c r="A6" s="15" t="s">
         <v>60</v>
       </c>
@@ -4380,7 +4367,7 @@
       <c r="N6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P6" s="19">
@@ -4395,8 +4382,8 @@
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="31"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="30"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="19" t="s">
         <v>65</v>
@@ -4408,9 +4395,9 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
-      <c r="AI6" s="27"/>
+      <c r="AI6" s="26"/>
     </row>
-    <row r="7" ht="30.5" customHeight="1" spans="1:35">
+    <row r="7" ht="63.5" customHeight="1" spans="1:35">
       <c r="A7" s="15" t="s">
         <v>66</v>
       </c>
@@ -4451,7 +4438,7 @@
       <c r="N7" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P7" s="19">
@@ -4468,8 +4455,8 @@
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
       <c r="W7" s="19"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="30"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="29"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
@@ -4479,9 +4466,9 @@
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
-      <c r="AI7" s="27"/>
+      <c r="AI7" s="26"/>
     </row>
-    <row r="8" ht="30.5" customHeight="1" spans="1:35">
+    <row r="8" ht="63.5" customHeight="1" spans="1:35">
       <c r="A8" s="15" t="s">
         <v>71</v>
       </c>
@@ -4522,7 +4509,7 @@
       <c r="N8" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P8" s="19">
@@ -4539,8 +4526,8 @@
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="31"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="30"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="19"/>
       <c r="AB8" s="19"/>
@@ -4550,9 +4537,9 @@
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
-      <c r="AI8" s="27"/>
+      <c r="AI8" s="26"/>
     </row>
-    <row r="9" ht="30.5" customHeight="1" spans="1:35">
+    <row r="9" ht="63.5" customHeight="1" spans="1:35">
       <c r="A9" s="15" t="s">
         <v>76</v>
       </c>
@@ -4593,7 +4580,7 @@
       <c r="N9" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P9" s="19">
@@ -4610,8 +4597,8 @@
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="30"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="29"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="19"/>
       <c r="AB9" s="19"/>
@@ -4621,9 +4608,9 @@
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
-      <c r="AI9" s="27"/>
+      <c r="AI9" s="26"/>
     </row>
-    <row r="10" ht="30.5" customHeight="1" spans="1:35">
+    <row r="10" ht="47" customHeight="1" spans="1:35">
       <c r="A10" s="15" t="s">
         <v>81</v>
       </c>
@@ -4666,7 +4653,7 @@
       <c r="N10" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P10" s="19">
@@ -4681,8 +4668,8 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="31"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="30"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="19" t="s">
         <v>86</v>
@@ -4698,9 +4685,9 @@
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
-      <c r="AI10" s="27"/>
+      <c r="AI10" s="26"/>
     </row>
-    <row r="11" ht="30.5" customHeight="1" spans="1:35">
+    <row r="11" ht="63.5" customHeight="1" spans="1:35">
       <c r="A11" s="15" t="s">
         <v>89</v>
       </c>
@@ -4743,7 +4730,7 @@
       <c r="N11" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="O11" s="22" t="s">
+      <c r="O11" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P11" s="19">
@@ -4760,8 +4747,8 @@
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="30"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="29"/>
       <c r="Z11" s="15"/>
       <c r="AA11" s="19" t="s">
         <v>97</v>
@@ -4775,9 +4762,9 @@
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
-      <c r="AI11" s="27"/>
+      <c r="AI11" s="26"/>
     </row>
-    <row r="12" ht="30.5" customHeight="1" spans="1:35">
+    <row r="12" ht="47" customHeight="1" spans="1:35">
       <c r="A12" s="15" t="s">
         <v>99</v>
       </c>
@@ -4820,7 +4807,7 @@
       <c r="N12" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="O12" s="22" t="s">
+      <c r="O12" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P12" s="19">
@@ -4835,8 +4822,8 @@
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="31"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="30"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="19" t="s">
         <v>104</v>
@@ -4850,9 +4837,9 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
-      <c r="AI12" s="27"/>
+      <c r="AI12" s="26"/>
     </row>
-    <row r="13" ht="30.5" customHeight="1" spans="1:35">
+    <row r="13" ht="47" customHeight="1" spans="1:35">
       <c r="A13" s="15" t="s">
         <v>106</v>
       </c>
@@ -4895,7 +4882,7 @@
       <c r="N13" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="O13" s="22" t="s">
+      <c r="O13" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P13" s="19">
@@ -4910,8 +4897,8 @@
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="30"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="29"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="19" t="s">
         <v>111</v>
@@ -4929,9 +4916,9 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
-      <c r="AI13" s="27"/>
+      <c r="AI13" s="26"/>
     </row>
-    <row r="14" ht="30.5" customHeight="1" spans="1:35">
+    <row r="14" ht="63.5" customHeight="1" spans="1:35">
       <c r="A14" s="15" t="s">
         <v>114</v>
       </c>
@@ -4974,7 +4961,7 @@
       <c r="N14" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="O14" s="22" t="s">
+      <c r="O14" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P14" s="19">
@@ -4991,8 +4978,8 @@
       <c r="U14" s="19"/>
       <c r="V14" s="19"/>
       <c r="W14" s="19"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="31"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="30"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="19" t="s">
         <v>121</v>
@@ -5006,9 +4993,9 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
-      <c r="AI14" s="27"/>
+      <c r="AI14" s="26"/>
     </row>
-    <row r="15" ht="30.5" customHeight="1" spans="1:35">
+    <row r="15" ht="63.5" customHeight="1" spans="1:35">
       <c r="A15" s="15" t="s">
         <v>123</v>
       </c>
@@ -5049,7 +5036,7 @@
       <c r="N15" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="O15" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P15" s="19">
@@ -5068,8 +5055,8 @@
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="30"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="29"/>
       <c r="Z15" s="15"/>
       <c r="AA15" s="19"/>
       <c r="AB15" s="19"/>
@@ -5079,9 +5066,9 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
-      <c r="AI15" s="27"/>
+      <c r="AI15" s="26"/>
     </row>
-    <row r="16" ht="30.5" customHeight="1" spans="1:35">
+    <row r="16" ht="63.5" customHeight="1" spans="1:35">
       <c r="A16" s="15" t="s">
         <v>129</v>
       </c>
@@ -5124,7 +5111,7 @@
       <c r="N16" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="O16" s="22" t="s">
+      <c r="O16" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P16" s="19">
@@ -5141,8 +5128,8 @@
       <c r="U16" s="19"/>
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="31"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="30"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="19" t="s">
         <v>135</v>
@@ -5154,9 +5141,9 @@
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
-      <c r="AI16" s="27"/>
+      <c r="AI16" s="26"/>
     </row>
-    <row r="17" ht="30.5" customHeight="1" spans="1:35">
+    <row r="17" ht="47" customHeight="1" spans="1:35">
       <c r="A17" s="15" t="s">
         <v>136</v>
       </c>
@@ -5199,7 +5186,7 @@
       <c r="N17" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="O17" s="22" t="s">
+      <c r="O17" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P17" s="19">
@@ -5214,8 +5201,8 @@
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="30"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="29"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="19" t="s">
         <v>111</v>
@@ -5229,9 +5216,9 @@
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
-      <c r="AI17" s="27"/>
+      <c r="AI17" s="26"/>
     </row>
-    <row r="18" ht="30.5" customHeight="1" spans="1:35">
+    <row r="18" ht="63.5" customHeight="1" spans="1:35">
       <c r="A18" s="15" t="s">
         <v>141</v>
       </c>
@@ -5274,7 +5261,7 @@
       <c r="N18" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="O18" s="22" t="s">
+      <c r="O18" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P18" s="19">
@@ -5291,8 +5278,8 @@
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="31"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="30"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="19" t="s">
         <v>146</v>
@@ -5306,9 +5293,9 @@
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
-      <c r="AI18" s="27"/>
+      <c r="AI18" s="26"/>
     </row>
-    <row r="19" ht="30.5" customHeight="1" spans="1:35">
+    <row r="19" ht="47" customHeight="1" spans="1:35">
       <c r="A19" s="15" t="s">
         <v>148</v>
       </c>
@@ -5351,7 +5338,7 @@
       <c r="N19" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="O19" s="22" t="s">
+      <c r="O19" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P19" s="19">
@@ -5366,8 +5353,8 @@
       <c r="U19" s="19"/>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="30"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="29"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="19" t="s">
         <v>152</v>
@@ -5381,9 +5368,9 @@
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
-      <c r="AI19" s="27"/>
+      <c r="AI19" s="26"/>
     </row>
-    <row r="20" ht="30.5" customHeight="1" spans="1:35">
+    <row r="20" ht="63.5" customHeight="1" spans="1:35">
       <c r="A20" s="15" t="s">
         <v>154</v>
       </c>
@@ -5426,7 +5413,7 @@
       <c r="N20" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="O20" s="22" t="s">
+      <c r="O20" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P20" s="19">
@@ -5445,8 +5432,8 @@
       <c r="U20" s="19"/>
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="31"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="30"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
@@ -5456,9 +5443,9 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
-      <c r="AI20" s="27"/>
+      <c r="AI20" s="26"/>
     </row>
-    <row r="21" ht="30.5" customHeight="1" spans="1:35">
+    <row r="21" ht="63.5" customHeight="1" spans="1:35">
       <c r="A21" s="15" t="s">
         <v>160</v>
       </c>
@@ -5499,7 +5486,7 @@
       <c r="N21" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="O21" s="22" t="s">
+      <c r="O21" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P21" s="19">
@@ -5516,8 +5503,8 @@
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="30"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="29"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="19"/>
@@ -5527,9 +5514,9 @@
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
-      <c r="AI21" s="27"/>
+      <c r="AI21" s="26"/>
     </row>
-    <row r="22" ht="30.5" customHeight="1" spans="1:35">
+    <row r="22" ht="63.5" customHeight="1" spans="1:35">
       <c r="A22" s="15" t="s">
         <v>165</v>
       </c>
@@ -5572,7 +5559,7 @@
       <c r="N22" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="O22" s="22" t="s">
+      <c r="O22" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P22" s="19">
@@ -5587,8 +5574,8 @@
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
       <c r="W22" s="19"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="31"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="30"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="19" t="s">
         <v>169</v>
@@ -5604,7 +5591,7 @@
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
-      <c r="AI22" s="27"/>
+      <c r="AI22" s="26"/>
     </row>
     <row r="23" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A23" s="15" t="s">
@@ -5649,7 +5636,7 @@
       <c r="N23" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="O23" s="22" t="s">
+      <c r="O23" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P23" s="19">
@@ -5664,8 +5651,8 @@
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
       <c r="W23" s="19"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="30"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="29"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="19"/>
@@ -5675,9 +5662,9 @@
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
-      <c r="AI23" s="27"/>
+      <c r="AI23" s="26"/>
     </row>
-    <row r="24" ht="30.5" customHeight="1" spans="1:35">
+    <row r="24" ht="47" customHeight="1" spans="1:35">
       <c r="A24" s="15" t="s">
         <v>176</v>
       </c>
@@ -5720,7 +5707,7 @@
       <c r="N24" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="O24" s="22" t="s">
+      <c r="O24" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P24" s="19">
@@ -5735,8 +5722,8 @@
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
       <c r="W24" s="19"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="31"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="30"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="19" t="s">
         <v>180</v>
@@ -5752,9 +5739,9 @@
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
-      <c r="AI24" s="27"/>
+      <c r="AI24" s="26"/>
     </row>
-    <row r="25" ht="30.5" customHeight="1" spans="1:35">
+    <row r="25" ht="47" customHeight="1" spans="1:35">
       <c r="A25" s="15" t="s">
         <v>183</v>
       </c>
@@ -5797,7 +5784,7 @@
       <c r="N25" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="O25" s="22" t="s">
+      <c r="O25" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P25" s="19">
@@ -5812,8 +5799,8 @@
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
       <c r="W25" s="19"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="30"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="29"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="19" t="s">
         <v>104</v>
@@ -5827,9 +5814,9 @@
       <c r="AF25" s="19"/>
       <c r="AG25" s="19"/>
       <c r="AH25" s="19"/>
-      <c r="AI25" s="27"/>
+      <c r="AI25" s="26"/>
     </row>
-    <row r="26" ht="30.5" customHeight="1" spans="1:35">
+    <row r="26" ht="47" customHeight="1" spans="1:35">
       <c r="A26" s="15" t="s">
         <v>188</v>
       </c>
@@ -5872,7 +5859,7 @@
       <c r="N26" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="O26" s="22" t="s">
+      <c r="O26" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P26" s="19">
@@ -5887,22 +5874,22 @@
       <c r="U26" s="19"/>
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="33" t="s">
+      <c r="X26" s="26"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="AB26" s="33" t="s">
+      <c r="AB26" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="33"/>
-      <c r="AI26" s="46"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="45"/>
     </row>
     <row r="27" ht="31.25" customHeight="1" spans="1:35">
       <c r="A27" s="15" t="s">
@@ -5947,7 +5934,7 @@
       <c r="N27" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="O27" s="22" t="s">
+      <c r="O27" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P27" s="19">
@@ -5964,18 +5951,18 @@
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
       <c r="W27" s="19"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="34"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="33"/>
       <c r="AA27" s="8"/>
-      <c r="AB27" s="23"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AI27" s="47"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="35"/>
+      <c r="AI27" s="46"/>
     </row>
     <row r="28" ht="30.5" customHeight="1" spans="1:35">
       <c r="A28" s="15" t="s">
@@ -6018,7 +6005,7 @@
       <c r="N28" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="O28" s="22" t="s">
+      <c r="O28" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P28" s="19">
@@ -6033,22 +6020,22 @@
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
       <c r="W28" s="19"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="37"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="36"/>
       <c r="AA28" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="AB28" s="26" t="s">
+      <c r="AB28" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="39"/>
-      <c r="AI28" s="48"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="47"/>
     </row>
     <row r="29" ht="30.5" customHeight="1" spans="1:35">
       <c r="A29" s="15" t="s">
@@ -6091,7 +6078,7 @@
       <c r="N29" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="O29" s="22" t="s">
+      <c r="O29" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P29" s="19">
@@ -6106,22 +6093,22 @@
       <c r="U29" s="19"/>
       <c r="V29" s="19"/>
       <c r="W29" s="19"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="34"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="33"/>
       <c r="AA29" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="AB29" s="27" t="s">
+      <c r="AB29" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="36"/>
-      <c r="AI29" s="47"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="35"/>
+      <c r="AI29" s="46"/>
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:35">
       <c r="A30" s="15" t="s">
@@ -6164,7 +6151,7 @@
       <c r="N30" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="O30" s="22" t="s">
+      <c r="O30" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P30" s="19">
@@ -6179,20 +6166,20 @@
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="37"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="36"/>
       <c r="AA30" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="39"/>
-      <c r="AH30" s="39"/>
-      <c r="AI30" s="48"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="38"/>
+      <c r="AI30" s="47"/>
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:35">
       <c r="A31" s="15" t="s">
@@ -6235,7 +6222,7 @@
       <c r="N31" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="O31" s="22" t="s">
+      <c r="O31" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P31" s="19">
@@ -6250,22 +6237,22 @@
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
       <c r="W31" s="19"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="34"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="33"/>
       <c r="AA31" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="AB31" s="27" t="s">
+      <c r="AB31" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="36"/>
-      <c r="AI31" s="47"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="35"/>
+      <c r="AI31" s="46"/>
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:35">
       <c r="A32" s="15" t="s">
@@ -6308,7 +6295,7 @@
       <c r="N32" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="O32" s="22" t="s">
+      <c r="O32" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P32" s="19">
@@ -6323,20 +6310,20 @@
       <c r="U32" s="19"/>
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="37"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="36"/>
       <c r="AA32" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="48"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="38"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="38"/>
+      <c r="AH32" s="38"/>
+      <c r="AI32" s="47"/>
     </row>
     <row r="33" ht="30.5" customHeight="1" spans="1:35">
       <c r="A33" s="15" t="s">
@@ -6379,7 +6366,7 @@
       <c r="N33" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="O33" s="22" t="s">
+      <c r="O33" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P33" s="19">
@@ -6394,20 +6381,20 @@
       <c r="U33" s="19"/>
       <c r="V33" s="19"/>
       <c r="W33" s="19"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="34"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="33"/>
       <c r="AA33" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="36"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="36"/>
-      <c r="AI33" s="47"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="35"/>
+      <c r="AI33" s="46"/>
     </row>
     <row r="34" ht="30.5" customHeight="1" spans="1:35">
       <c r="A34" s="15" t="s">
@@ -6450,7 +6437,7 @@
       <c r="N34" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="O34" s="22" t="s">
+      <c r="O34" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P34" s="19">
@@ -6465,20 +6452,20 @@
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="37"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="36"/>
       <c r="AA34" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="39"/>
-      <c r="AF34" s="39"/>
-      <c r="AG34" s="39"/>
-      <c r="AH34" s="39"/>
-      <c r="AI34" s="48"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="38"/>
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="38"/>
+      <c r="AI34" s="47"/>
     </row>
     <row r="35" ht="30.5" customHeight="1" spans="1:35">
       <c r="A35" s="15" t="s">
@@ -6521,7 +6508,7 @@
       <c r="N35" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="O35" s="22" t="s">
+      <c r="O35" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P35" s="19">
@@ -6536,20 +6523,20 @@
       <c r="U35" s="19"/>
       <c r="V35" s="19"/>
       <c r="W35" s="19"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="34"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="33"/>
       <c r="AA35" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="35"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="36"/>
-      <c r="AI35" s="47"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="35"/>
+      <c r="AI35" s="46"/>
     </row>
     <row r="36" ht="30.5" customHeight="1" spans="1:35">
       <c r="A36" s="15" t="s">
@@ -6592,7 +6579,7 @@
       <c r="N36" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="O36" s="22" t="s">
+      <c r="O36" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P36" s="19">
@@ -6607,20 +6594,20 @@
       <c r="U36" s="19"/>
       <c r="V36" s="19"/>
       <c r="W36" s="19"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="37"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="36"/>
       <c r="AA36" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="38"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="39"/>
-      <c r="AH36" s="39"/>
-      <c r="AI36" s="48"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="38"/>
+      <c r="AE36" s="38"/>
+      <c r="AF36" s="38"/>
+      <c r="AG36" s="38"/>
+      <c r="AH36" s="38"/>
+      <c r="AI36" s="47"/>
     </row>
     <row r="37" ht="30.5" customHeight="1" spans="1:35">
       <c r="A37" s="15" t="s">
@@ -6663,7 +6650,7 @@
       <c r="N37" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="O37" s="22" t="s">
+      <c r="O37" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P37" s="19">
@@ -6678,20 +6665,20 @@
       <c r="U37" s="19"/>
       <c r="V37" s="19"/>
       <c r="W37" s="19"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="34"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="33"/>
       <c r="AA37" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="36"/>
-      <c r="AI37" s="47"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
+      <c r="AG37" s="35"/>
+      <c r="AH37" s="35"/>
+      <c r="AI37" s="46"/>
     </row>
     <row r="38" ht="30.5" customHeight="1" spans="1:35">
       <c r="A38" s="15" t="s">
@@ -6734,7 +6721,7 @@
       <c r="N38" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="O38" s="22" t="s">
+      <c r="O38" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P38" s="19">
@@ -6749,20 +6736,20 @@
       <c r="U38" s="19"/>
       <c r="V38" s="19"/>
       <c r="W38" s="19"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="37"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="36"/>
       <c r="AA38" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="40"/>
-      <c r="AD38" s="41"/>
-      <c r="AE38" s="39"/>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="39"/>
-      <c r="AH38" s="39"/>
-      <c r="AI38" s="48"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="40"/>
+      <c r="AE38" s="38"/>
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="38"/>
+      <c r="AH38" s="38"/>
+      <c r="AI38" s="47"/>
     </row>
     <row r="39" ht="30.5" customHeight="1" spans="1:35">
       <c r="A39" s="15" t="s">
@@ -6805,7 +6792,7 @@
       <c r="N39" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="O39" s="22" t="s">
+      <c r="O39" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P39" s="19">
@@ -6820,20 +6807,20 @@
       <c r="U39" s="19"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="42"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="41"/>
       <c r="AA39" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="43"/>
-      <c r="AF39" s="43"/>
-      <c r="AG39" s="43"/>
-      <c r="AH39" s="43"/>
-      <c r="AI39" s="49"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="42"/>
+      <c r="AF39" s="42"/>
+      <c r="AG39" s="42"/>
+      <c r="AH39" s="42"/>
+      <c r="AI39" s="48"/>
     </row>
     <row r="40" ht="30.5" customHeight="1" spans="1:35">
       <c r="A40" s="15" t="s">
@@ -6876,7 +6863,7 @@
       <c r="N40" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="O40" s="22" t="s">
+      <c r="O40" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P40" s="19">
@@ -6891,20 +6878,20 @@
       <c r="U40" s="19"/>
       <c r="V40" s="19"/>
       <c r="W40" s="19"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="44"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="43"/>
       <c r="AA40" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="38"/>
-      <c r="AD40" s="39"/>
-      <c r="AE40" s="45"/>
-      <c r="AF40" s="45"/>
-      <c r="AG40" s="45"/>
-      <c r="AH40" s="45"/>
-      <c r="AI40" s="50"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="38"/>
+      <c r="AE40" s="44"/>
+      <c r="AF40" s="44"/>
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="44"/>
+      <c r="AI40" s="49"/>
     </row>
     <row r="41" ht="30.5" customHeight="1" spans="1:35">
       <c r="A41" s="15" t="s">
@@ -6947,7 +6934,7 @@
       <c r="N41" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="O41" s="22" t="s">
+      <c r="O41" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P41" s="19">
@@ -6962,20 +6949,20 @@
       <c r="U41" s="19"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="42"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="41"/>
       <c r="AA41" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="43"/>
-      <c r="AF41" s="43"/>
-      <c r="AG41" s="43"/>
-      <c r="AH41" s="43"/>
-      <c r="AI41" s="49"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="34"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="42"/>
+      <c r="AF41" s="42"/>
+      <c r="AG41" s="42"/>
+      <c r="AH41" s="42"/>
+      <c r="AI41" s="48"/>
     </row>
     <row r="42" ht="30.5" customHeight="1" spans="1:35">
       <c r="A42" s="15" t="s">
@@ -7018,7 +7005,7 @@
       <c r="N42" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="O42" s="22" t="s">
+      <c r="O42" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P42" s="19">
@@ -7033,20 +7020,20 @@
       <c r="U42" s="19"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="37"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="36"/>
       <c r="AA42" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="38"/>
-      <c r="AD42" s="39"/>
-      <c r="AE42" s="39"/>
-      <c r="AF42" s="39"/>
-      <c r="AG42" s="39"/>
-      <c r="AH42" s="39"/>
-      <c r="AI42" s="48"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="38"/>
+      <c r="AE42" s="38"/>
+      <c r="AF42" s="38"/>
+      <c r="AG42" s="38"/>
+      <c r="AH42" s="38"/>
+      <c r="AI42" s="47"/>
     </row>
     <row r="43" ht="30.5" customHeight="1" spans="1:35">
       <c r="A43" s="15" t="s">
@@ -7089,7 +7076,7 @@
       <c r="N43" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="O43" s="22" t="s">
+      <c r="O43" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P43" s="19">
@@ -7104,20 +7091,20 @@
       <c r="U43" s="19"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="42"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="41"/>
       <c r="AA43" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="35"/>
-      <c r="AD43" s="36"/>
-      <c r="AE43" s="43"/>
-      <c r="AF43" s="43"/>
-      <c r="AG43" s="43"/>
-      <c r="AH43" s="43"/>
-      <c r="AI43" s="49"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="35"/>
+      <c r="AE43" s="42"/>
+      <c r="AF43" s="42"/>
+      <c r="AG43" s="42"/>
+      <c r="AH43" s="42"/>
+      <c r="AI43" s="48"/>
     </row>
     <row r="44" ht="30.5" customHeight="1" spans="1:35">
       <c r="A44" s="15" t="s">
@@ -7160,7 +7147,7 @@
       <c r="N44" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="O44" s="22" t="s">
+      <c r="O44" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P44" s="19">
@@ -7175,20 +7162,20 @@
       <c r="U44" s="19"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="44"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="43"/>
       <c r="AA44" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="38"/>
-      <c r="AD44" s="39"/>
-      <c r="AE44" s="45"/>
-      <c r="AF44" s="45"/>
-      <c r="AG44" s="45"/>
-      <c r="AH44" s="45"/>
-      <c r="AI44" s="50"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="38"/>
+      <c r="AE44" s="44"/>
+      <c r="AF44" s="44"/>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="44"/>
+      <c r="AI44" s="49"/>
     </row>
     <row r="45" ht="30.5" customHeight="1" spans="1:35">
       <c r="A45" s="15" t="s">
@@ -7231,7 +7218,7 @@
       <c r="N45" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="O45" s="22" t="s">
+      <c r="O45" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P45" s="19">
@@ -7246,20 +7233,20 @@
       <c r="U45" s="19"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="30"/>
-      <c r="Z45" s="42"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="41"/>
       <c r="AA45" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="35"/>
-      <c r="AD45" s="36"/>
-      <c r="AE45" s="43"/>
-      <c r="AF45" s="43"/>
-      <c r="AG45" s="43"/>
-      <c r="AH45" s="43"/>
-      <c r="AI45" s="49"/>
+      <c r="AB45" s="26"/>
+      <c r="AC45" s="34"/>
+      <c r="AD45" s="35"/>
+      <c r="AE45" s="42"/>
+      <c r="AF45" s="42"/>
+      <c r="AG45" s="42"/>
+      <c r="AH45" s="42"/>
+      <c r="AI45" s="48"/>
     </row>
     <row r="46" ht="30.5" customHeight="1" spans="1:35">
       <c r="A46" s="15" t="s">
@@ -7302,7 +7289,7 @@
       <c r="N46" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="O46" s="22" t="s">
+      <c r="O46" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P46" s="19">
@@ -7317,20 +7304,20 @@
       <c r="U46" s="19"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="44"/>
+      <c r="X46" s="26"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="43"/>
       <c r="AA46" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="38"/>
-      <c r="AD46" s="39"/>
-      <c r="AE46" s="45"/>
-      <c r="AF46" s="45"/>
-      <c r="AG46" s="45"/>
-      <c r="AH46" s="45"/>
-      <c r="AI46" s="50"/>
+      <c r="AB46" s="26"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="38"/>
+      <c r="AE46" s="44"/>
+      <c r="AF46" s="44"/>
+      <c r="AG46" s="44"/>
+      <c r="AH46" s="44"/>
+      <c r="AI46" s="49"/>
     </row>
     <row r="47" ht="30.5" customHeight="1" spans="1:35">
       <c r="A47" s="15" t="s">
@@ -7373,7 +7360,7 @@
       <c r="N47" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="O47" s="22" t="s">
+      <c r="O47" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P47" s="19">
@@ -7388,22 +7375,22 @@
       <c r="U47" s="19"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="42"/>
+      <c r="X47" s="26"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="41"/>
       <c r="AA47" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="AB47" s="27" t="s">
+      <c r="AB47" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="AC47" s="35"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="43"/>
-      <c r="AF47" s="43"/>
-      <c r="AG47" s="43"/>
-      <c r="AH47" s="43"/>
-      <c r="AI47" s="49"/>
+      <c r="AC47" s="34"/>
+      <c r="AD47" s="35"/>
+      <c r="AE47" s="42"/>
+      <c r="AF47" s="42"/>
+      <c r="AG47" s="42"/>
+      <c r="AH47" s="42"/>
+      <c r="AI47" s="48"/>
     </row>
     <row r="48" ht="30.5" customHeight="1" spans="1:35">
       <c r="A48" s="15" t="s">
@@ -7446,7 +7433,7 @@
       <c r="N48" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="O48" s="22" t="s">
+      <c r="O48" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P48" s="19">
@@ -7461,20 +7448,20 @@
       <c r="U48" s="19"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="31"/>
-      <c r="Z48" s="44"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="43"/>
       <c r="AA48" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="AB48" s="27"/>
-      <c r="AC48" s="38"/>
-      <c r="AD48" s="39"/>
-      <c r="AE48" s="45"/>
-      <c r="AF48" s="45"/>
-      <c r="AG48" s="45"/>
-      <c r="AH48" s="45"/>
-      <c r="AI48" s="50"/>
+      <c r="AB48" s="26"/>
+      <c r="AC48" s="37"/>
+      <c r="AD48" s="38"/>
+      <c r="AE48" s="44"/>
+      <c r="AF48" s="44"/>
+      <c r="AG48" s="44"/>
+      <c r="AH48" s="44"/>
+      <c r="AI48" s="49"/>
     </row>
     <row r="49" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A49" s="15" t="s">
@@ -7517,7 +7504,7 @@
       <c r="N49" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="O49" s="22" t="s">
+      <c r="O49" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P49" s="19">
@@ -7532,20 +7519,20 @@
       <c r="U49" s="19"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="42"/>
+      <c r="X49" s="26"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="41"/>
       <c r="AA49" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="AB49" s="27"/>
-      <c r="AC49" s="35"/>
-      <c r="AD49" s="36"/>
-      <c r="AE49" s="43"/>
-      <c r="AF49" s="43"/>
-      <c r="AG49" s="43"/>
-      <c r="AH49" s="43"/>
-      <c r="AI49" s="49"/>
+      <c r="AB49" s="26"/>
+      <c r="AC49" s="34"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="42"/>
+      <c r="AF49" s="42"/>
+      <c r="AG49" s="42"/>
+      <c r="AH49" s="42"/>
+      <c r="AI49" s="48"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A50" s="15" t="s">
@@ -7588,7 +7575,7 @@
       <c r="N50" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="O50" s="22" t="s">
+      <c r="O50" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P50" s="19">
@@ -7603,22 +7590,22 @@
       <c r="U50" s="19"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="31"/>
-      <c r="Z50" s="44"/>
+      <c r="X50" s="26"/>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="43"/>
       <c r="AA50" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="AB50" s="27" t="s">
+      <c r="AB50" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="AC50" s="38"/>
-      <c r="AD50" s="39"/>
-      <c r="AE50" s="45"/>
-      <c r="AF50" s="45"/>
-      <c r="AG50" s="45"/>
-      <c r="AH50" s="45"/>
-      <c r="AI50" s="50"/>
+      <c r="AC50" s="37"/>
+      <c r="AD50" s="38"/>
+      <c r="AE50" s="44"/>
+      <c r="AF50" s="44"/>
+      <c r="AG50" s="44"/>
+      <c r="AH50" s="44"/>
+      <c r="AI50" s="49"/>
     </row>
     <row r="51" ht="30.5" customHeight="1" spans="1:35">
       <c r="A51" s="15" t="s">
@@ -7661,7 +7648,7 @@
       <c r="N51" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="O51" s="22" t="s">
+      <c r="O51" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P51" s="19">
@@ -7676,22 +7663,22 @@
       <c r="U51" s="19"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="30"/>
-      <c r="Z51" s="42"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="41"/>
       <c r="AA51" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="AB51" s="27" t="s">
+      <c r="AB51" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="36"/>
-      <c r="AE51" s="43"/>
-      <c r="AF51" s="43"/>
-      <c r="AG51" s="43"/>
-      <c r="AH51" s="43"/>
-      <c r="AI51" s="49"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="35"/>
+      <c r="AE51" s="42"/>
+      <c r="AF51" s="42"/>
+      <c r="AG51" s="42"/>
+      <c r="AH51" s="42"/>
+      <c r="AI51" s="48"/>
     </row>
     <row r="52" ht="30.5" customHeight="1" spans="1:35">
       <c r="A52" s="15" t="s">
@@ -7734,7 +7721,7 @@
       <c r="N52" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="O52" s="22" t="s">
+      <c r="O52" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P52" s="19">
@@ -7749,20 +7736,20 @@
       <c r="U52" s="19"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="44"/>
+      <c r="X52" s="26"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="43"/>
       <c r="AA52" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="AB52" s="27"/>
-      <c r="AC52" s="38"/>
-      <c r="AD52" s="39"/>
-      <c r="AE52" s="45"/>
-      <c r="AF52" s="45"/>
-      <c r="AG52" s="45"/>
-      <c r="AH52" s="45"/>
-      <c r="AI52" s="50"/>
+      <c r="AB52" s="26"/>
+      <c r="AC52" s="37"/>
+      <c r="AD52" s="38"/>
+      <c r="AE52" s="44"/>
+      <c r="AF52" s="44"/>
+      <c r="AG52" s="44"/>
+      <c r="AH52" s="44"/>
+      <c r="AI52" s="49"/>
     </row>
     <row r="53" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A53" s="15" t="s">
@@ -7805,7 +7792,7 @@
       <c r="N53" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="O53" s="22" t="s">
+      <c r="O53" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P53" s="19">
@@ -7820,20 +7807,20 @@
       <c r="U53" s="19"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="30"/>
-      <c r="Z53" s="42"/>
+      <c r="X53" s="26"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="41"/>
       <c r="AA53" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="AB53" s="27"/>
-      <c r="AC53" s="35"/>
-      <c r="AD53" s="36"/>
-      <c r="AE53" s="43"/>
-      <c r="AF53" s="43"/>
-      <c r="AG53" s="43"/>
-      <c r="AH53" s="43"/>
-      <c r="AI53" s="49"/>
+      <c r="AB53" s="26"/>
+      <c r="AC53" s="34"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="42"/>
+      <c r="AF53" s="42"/>
+      <c r="AG53" s="42"/>
+      <c r="AH53" s="42"/>
+      <c r="AI53" s="48"/>
     </row>
     <row r="54" ht="30.5" customHeight="1" spans="1:35">
       <c r="A54" s="15" t="s">
@@ -7876,7 +7863,7 @@
       <c r="N54" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O54" s="22" t="s">
+      <c r="O54" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P54" s="19">
@@ -7891,18 +7878,18 @@
       <c r="U54" s="19"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="31"/>
-      <c r="Z54" s="44"/>
+      <c r="X54" s="26"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="43"/>
       <c r="AA54" s="15"/>
-      <c r="AB54" s="27"/>
-      <c r="AC54" s="38"/>
-      <c r="AD54" s="39"/>
-      <c r="AE54" s="45"/>
-      <c r="AF54" s="45"/>
-      <c r="AG54" s="45"/>
-      <c r="AH54" s="45"/>
-      <c r="AI54" s="50"/>
+      <c r="AB54" s="26"/>
+      <c r="AC54" s="37"/>
+      <c r="AD54" s="38"/>
+      <c r="AE54" s="44"/>
+      <c r="AF54" s="44"/>
+      <c r="AG54" s="44"/>
+      <c r="AH54" s="44"/>
+      <c r="AI54" s="49"/>
     </row>
     <row r="55" ht="30.5" customHeight="1" spans="1:35">
       <c r="A55" s="15" t="s">
@@ -7945,7 +7932,7 @@
       <c r="N55" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O55" s="22" t="s">
+      <c r="O55" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P55" s="19">
@@ -7960,18 +7947,18 @@
       <c r="U55" s="19"/>
       <c r="V55" s="19"/>
       <c r="W55" s="19"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="30"/>
-      <c r="Z55" s="42"/>
+      <c r="X55" s="26"/>
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="41"/>
       <c r="AA55" s="15"/>
-      <c r="AB55" s="27"/>
-      <c r="AC55" s="35"/>
-      <c r="AD55" s="36"/>
-      <c r="AE55" s="43"/>
-      <c r="AF55" s="43"/>
-      <c r="AG55" s="43"/>
-      <c r="AH55" s="43"/>
-      <c r="AI55" s="49"/>
+      <c r="AB55" s="26"/>
+      <c r="AC55" s="34"/>
+      <c r="AD55" s="35"/>
+      <c r="AE55" s="42"/>
+      <c r="AF55" s="42"/>
+      <c r="AG55" s="42"/>
+      <c r="AH55" s="42"/>
+      <c r="AI55" s="48"/>
     </row>
     <row r="56" ht="30.5" customHeight="1" spans="1:35">
       <c r="A56" s="15" t="s">
@@ -8014,7 +8001,7 @@
       <c r="N56" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O56" s="22" t="s">
+      <c r="O56" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P56" s="19">
@@ -8029,18 +8016,18 @@
       <c r="U56" s="19"/>
       <c r="V56" s="19"/>
       <c r="W56" s="19"/>
-      <c r="X56" s="27"/>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="44"/>
+      <c r="X56" s="26"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="43"/>
       <c r="AA56" s="15"/>
-      <c r="AB56" s="27"/>
-      <c r="AC56" s="38"/>
-      <c r="AD56" s="39"/>
-      <c r="AE56" s="45"/>
-      <c r="AF56" s="45"/>
-      <c r="AG56" s="45"/>
-      <c r="AH56" s="45"/>
-      <c r="AI56" s="50"/>
+      <c r="AB56" s="26"/>
+      <c r="AC56" s="37"/>
+      <c r="AD56" s="38"/>
+      <c r="AE56" s="44"/>
+      <c r="AF56" s="44"/>
+      <c r="AG56" s="44"/>
+      <c r="AH56" s="44"/>
+      <c r="AI56" s="49"/>
     </row>
     <row r="57" ht="30.5" customHeight="1" spans="1:35">
       <c r="A57" s="15" t="s">
@@ -8083,7 +8070,7 @@
       <c r="N57" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O57" s="22" t="s">
+      <c r="O57" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P57" s="19">
@@ -8098,18 +8085,18 @@
       <c r="U57" s="19"/>
       <c r="V57" s="19"/>
       <c r="W57" s="19"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="30"/>
-      <c r="Z57" s="42"/>
+      <c r="X57" s="26"/>
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="41"/>
       <c r="AA57" s="15"/>
-      <c r="AB57" s="27"/>
-      <c r="AC57" s="35"/>
-      <c r="AD57" s="36"/>
-      <c r="AE57" s="43"/>
-      <c r="AF57" s="43"/>
-      <c r="AG57" s="43"/>
-      <c r="AH57" s="43"/>
-      <c r="AI57" s="49"/>
+      <c r="AB57" s="26"/>
+      <c r="AC57" s="34"/>
+      <c r="AD57" s="35"/>
+      <c r="AE57" s="42"/>
+      <c r="AF57" s="42"/>
+      <c r="AG57" s="42"/>
+      <c r="AH57" s="42"/>
+      <c r="AI57" s="48"/>
     </row>
     <row r="58" ht="30.5" customHeight="1" spans="1:35">
       <c r="A58" s="15" t="s">
@@ -8152,7 +8139,7 @@
       <c r="N58" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O58" s="22" t="s">
+      <c r="O58" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P58" s="19">
@@ -8167,18 +8154,18 @@
       <c r="U58" s="19"/>
       <c r="V58" s="19"/>
       <c r="W58" s="19"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="31"/>
-      <c r="Z58" s="44"/>
+      <c r="X58" s="26"/>
+      <c r="Y58" s="30"/>
+      <c r="Z58" s="43"/>
       <c r="AA58" s="15"/>
-      <c r="AB58" s="27"/>
-      <c r="AC58" s="38"/>
-      <c r="AD58" s="39"/>
-      <c r="AE58" s="45"/>
-      <c r="AF58" s="45"/>
-      <c r="AG58" s="45"/>
-      <c r="AH58" s="45"/>
-      <c r="AI58" s="50"/>
+      <c r="AB58" s="26"/>
+      <c r="AC58" s="37"/>
+      <c r="AD58" s="38"/>
+      <c r="AE58" s="44"/>
+      <c r="AF58" s="44"/>
+      <c r="AG58" s="44"/>
+      <c r="AH58" s="44"/>
+      <c r="AI58" s="49"/>
     </row>
     <row r="59" ht="30.5" customHeight="1" spans="1:35">
       <c r="A59" s="15" t="s">
@@ -8221,7 +8208,7 @@
       <c r="N59" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O59" s="22" t="s">
+      <c r="O59" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P59" s="19">
@@ -8236,18 +8223,18 @@
       <c r="U59" s="19"/>
       <c r="V59" s="19"/>
       <c r="W59" s="19"/>
-      <c r="X59" s="27"/>
-      <c r="Y59" s="30"/>
-      <c r="Z59" s="42"/>
+      <c r="X59" s="26"/>
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="41"/>
       <c r="AA59" s="15"/>
-      <c r="AB59" s="27"/>
-      <c r="AC59" s="35"/>
-      <c r="AD59" s="36"/>
-      <c r="AE59" s="43"/>
-      <c r="AF59" s="43"/>
-      <c r="AG59" s="43"/>
-      <c r="AH59" s="43"/>
-      <c r="AI59" s="49"/>
+      <c r="AB59" s="26"/>
+      <c r="AC59" s="34"/>
+      <c r="AD59" s="35"/>
+      <c r="AE59" s="42"/>
+      <c r="AF59" s="42"/>
+      <c r="AG59" s="42"/>
+      <c r="AH59" s="42"/>
+      <c r="AI59" s="48"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A60" s="15" t="s">
@@ -8290,7 +8277,7 @@
       <c r="N60" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O60" s="22" t="s">
+      <c r="O60" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P60" s="19">
@@ -8305,18 +8292,18 @@
       <c r="U60" s="19"/>
       <c r="V60" s="19"/>
       <c r="W60" s="19"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="31"/>
-      <c r="Z60" s="44"/>
+      <c r="X60" s="26"/>
+      <c r="Y60" s="30"/>
+      <c r="Z60" s="43"/>
       <c r="AA60" s="15"/>
-      <c r="AB60" s="27"/>
-      <c r="AC60" s="38"/>
-      <c r="AD60" s="39"/>
-      <c r="AE60" s="45"/>
-      <c r="AF60" s="45"/>
-      <c r="AG60" s="45"/>
-      <c r="AH60" s="45"/>
-      <c r="AI60" s="50"/>
+      <c r="AB60" s="26"/>
+      <c r="AC60" s="37"/>
+      <c r="AD60" s="38"/>
+      <c r="AE60" s="44"/>
+      <c r="AF60" s="44"/>
+      <c r="AG60" s="44"/>
+      <c r="AH60" s="44"/>
+      <c r="AI60" s="49"/>
     </row>
     <row r="61" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A61" s="15" t="s">
@@ -8359,7 +8346,7 @@
       <c r="N61" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O61" s="22" t="s">
+      <c r="O61" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P61" s="19">
@@ -8374,18 +8361,18 @@
       <c r="U61" s="19"/>
       <c r="V61" s="19"/>
       <c r="W61" s="19"/>
-      <c r="X61" s="27"/>
-      <c r="Y61" s="30"/>
-      <c r="Z61" s="42"/>
+      <c r="X61" s="26"/>
+      <c r="Y61" s="29"/>
+      <c r="Z61" s="41"/>
       <c r="AA61" s="15"/>
-      <c r="AB61" s="27"/>
-      <c r="AC61" s="35"/>
-      <c r="AD61" s="36"/>
-      <c r="AE61" s="43"/>
-      <c r="AF61" s="43"/>
-      <c r="AG61" s="43"/>
-      <c r="AH61" s="43"/>
-      <c r="AI61" s="49"/>
+      <c r="AB61" s="26"/>
+      <c r="AC61" s="34"/>
+      <c r="AD61" s="35"/>
+      <c r="AE61" s="42"/>
+      <c r="AF61" s="42"/>
+      <c r="AG61" s="42"/>
+      <c r="AH61" s="42"/>
+      <c r="AI61" s="48"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A62" s="15" t="s">
@@ -8428,7 +8415,7 @@
       <c r="N62" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O62" s="22" t="s">
+      <c r="O62" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P62" s="19">
@@ -8443,18 +8430,18 @@
       <c r="U62" s="19"/>
       <c r="V62" s="19"/>
       <c r="W62" s="19"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="31"/>
-      <c r="Z62" s="44"/>
+      <c r="X62" s="26"/>
+      <c r="Y62" s="30"/>
+      <c r="Z62" s="43"/>
       <c r="AA62" s="15"/>
-      <c r="AB62" s="27"/>
-      <c r="AC62" s="38"/>
-      <c r="AD62" s="39"/>
-      <c r="AE62" s="45"/>
-      <c r="AF62" s="45"/>
-      <c r="AG62" s="45"/>
-      <c r="AH62" s="45"/>
-      <c r="AI62" s="50"/>
+      <c r="AB62" s="26"/>
+      <c r="AC62" s="37"/>
+      <c r="AD62" s="38"/>
+      <c r="AE62" s="44"/>
+      <c r="AF62" s="44"/>
+      <c r="AG62" s="44"/>
+      <c r="AH62" s="44"/>
+      <c r="AI62" s="49"/>
     </row>
     <row r="63" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A63" s="15" t="s">
@@ -8497,7 +8484,7 @@
       <c r="N63" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O63" s="22" t="s">
+      <c r="O63" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P63" s="19">
@@ -8512,18 +8499,18 @@
       <c r="U63" s="19"/>
       <c r="V63" s="19"/>
       <c r="W63" s="19"/>
-      <c r="X63" s="27"/>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="42"/>
+      <c r="X63" s="26"/>
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="41"/>
       <c r="AA63" s="15"/>
-      <c r="AB63" s="27"/>
-      <c r="AC63" s="35"/>
-      <c r="AD63" s="36"/>
-      <c r="AE63" s="43"/>
-      <c r="AF63" s="43"/>
-      <c r="AG63" s="43"/>
-      <c r="AH63" s="43"/>
-      <c r="AI63" s="49"/>
+      <c r="AB63" s="26"/>
+      <c r="AC63" s="34"/>
+      <c r="AD63" s="35"/>
+      <c r="AE63" s="42"/>
+      <c r="AF63" s="42"/>
+      <c r="AG63" s="42"/>
+      <c r="AH63" s="42"/>
+      <c r="AI63" s="48"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A64" s="15" t="s">
@@ -8566,7 +8553,7 @@
       <c r="N64" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O64" s="22" t="s">
+      <c r="O64" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P64" s="19">
@@ -8581,18 +8568,18 @@
       <c r="U64" s="19"/>
       <c r="V64" s="19"/>
       <c r="W64" s="19"/>
-      <c r="X64" s="27"/>
-      <c r="Y64" s="31"/>
-      <c r="Z64" s="44"/>
+      <c r="X64" s="26"/>
+      <c r="Y64" s="30"/>
+      <c r="Z64" s="43"/>
       <c r="AA64" s="15"/>
-      <c r="AB64" s="27"/>
-      <c r="AC64" s="38"/>
-      <c r="AD64" s="39"/>
-      <c r="AE64" s="45"/>
-      <c r="AF64" s="45"/>
-      <c r="AG64" s="45"/>
-      <c r="AH64" s="45"/>
-      <c r="AI64" s="50"/>
+      <c r="AB64" s="26"/>
+      <c r="AC64" s="37"/>
+      <c r="AD64" s="38"/>
+      <c r="AE64" s="44"/>
+      <c r="AF64" s="44"/>
+      <c r="AG64" s="44"/>
+      <c r="AH64" s="44"/>
+      <c r="AI64" s="49"/>
     </row>
     <row r="65" ht="30.5" customHeight="1" spans="1:35">
       <c r="A65" s="15" t="s">
@@ -8635,7 +8622,7 @@
       <c r="N65" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O65" s="22" t="s">
+      <c r="O65" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P65" s="19">
@@ -8650,18 +8637,18 @@
       <c r="U65" s="19"/>
       <c r="V65" s="19"/>
       <c r="W65" s="19"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="30"/>
-      <c r="Z65" s="42"/>
+      <c r="X65" s="26"/>
+      <c r="Y65" s="29"/>
+      <c r="Z65" s="41"/>
       <c r="AA65" s="15"/>
-      <c r="AB65" s="27"/>
-      <c r="AC65" s="35"/>
-      <c r="AD65" s="36"/>
-      <c r="AE65" s="43"/>
-      <c r="AF65" s="43"/>
-      <c r="AG65" s="43"/>
-      <c r="AH65" s="43"/>
-      <c r="AI65" s="49"/>
+      <c r="AB65" s="26"/>
+      <c r="AC65" s="34"/>
+      <c r="AD65" s="35"/>
+      <c r="AE65" s="42"/>
+      <c r="AF65" s="42"/>
+      <c r="AG65" s="42"/>
+      <c r="AH65" s="42"/>
+      <c r="AI65" s="48"/>
     </row>
     <row r="66" ht="30.5" customHeight="1" spans="1:35">
       <c r="A66" s="15" t="s">
@@ -8704,7 +8691,7 @@
       <c r="N66" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O66" s="22" t="s">
+      <c r="O66" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P66" s="19">
@@ -8719,18 +8706,18 @@
       <c r="U66" s="19"/>
       <c r="V66" s="19"/>
       <c r="W66" s="19"/>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="31"/>
-      <c r="Z66" s="44"/>
+      <c r="X66" s="26"/>
+      <c r="Y66" s="30"/>
+      <c r="Z66" s="43"/>
       <c r="AA66" s="15"/>
-      <c r="AB66" s="27"/>
-      <c r="AC66" s="38"/>
-      <c r="AD66" s="39"/>
-      <c r="AE66" s="45"/>
-      <c r="AF66" s="45"/>
-      <c r="AG66" s="45"/>
-      <c r="AH66" s="45"/>
-      <c r="AI66" s="50"/>
+      <c r="AB66" s="26"/>
+      <c r="AC66" s="37"/>
+      <c r="AD66" s="38"/>
+      <c r="AE66" s="44"/>
+      <c r="AF66" s="44"/>
+      <c r="AG66" s="44"/>
+      <c r="AH66" s="44"/>
+      <c r="AI66" s="49"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A67" s="15" t="s">
@@ -8773,7 +8760,7 @@
       <c r="N67" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O67" s="22" t="s">
+      <c r="O67" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P67" s="19">
@@ -8788,18 +8775,18 @@
       <c r="U67" s="19"/>
       <c r="V67" s="19"/>
       <c r="W67" s="19"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="30"/>
-      <c r="Z67" s="42"/>
+      <c r="X67" s="26"/>
+      <c r="Y67" s="29"/>
+      <c r="Z67" s="41"/>
       <c r="AA67" s="15"/>
-      <c r="AB67" s="27"/>
-      <c r="AC67" s="35"/>
-      <c r="AD67" s="36"/>
-      <c r="AE67" s="43"/>
-      <c r="AF67" s="43"/>
-      <c r="AG67" s="43"/>
-      <c r="AH67" s="43"/>
-      <c r="AI67" s="49"/>
+      <c r="AB67" s="26"/>
+      <c r="AC67" s="34"/>
+      <c r="AD67" s="35"/>
+      <c r="AE67" s="42"/>
+      <c r="AF67" s="42"/>
+      <c r="AG67" s="42"/>
+      <c r="AH67" s="42"/>
+      <c r="AI67" s="48"/>
     </row>
     <row r="68" ht="30.5" customHeight="1" spans="1:35">
       <c r="A68" s="15" t="s">
@@ -8842,7 +8829,7 @@
       <c r="N68" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O68" s="22" t="s">
+      <c r="O68" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P68" s="19">
@@ -8857,18 +8844,18 @@
       <c r="U68" s="19"/>
       <c r="V68" s="19"/>
       <c r="W68" s="19"/>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="31"/>
-      <c r="Z68" s="44"/>
+      <c r="X68" s="26"/>
+      <c r="Y68" s="30"/>
+      <c r="Z68" s="43"/>
       <c r="AA68" s="15"/>
-      <c r="AB68" s="27"/>
-      <c r="AC68" s="38"/>
-      <c r="AD68" s="39"/>
-      <c r="AE68" s="45"/>
-      <c r="AF68" s="45"/>
-      <c r="AG68" s="45"/>
-      <c r="AH68" s="45"/>
-      <c r="AI68" s="50"/>
+      <c r="AB68" s="26"/>
+      <c r="AC68" s="37"/>
+      <c r="AD68" s="38"/>
+      <c r="AE68" s="44"/>
+      <c r="AF68" s="44"/>
+      <c r="AG68" s="44"/>
+      <c r="AH68" s="44"/>
+      <c r="AI68" s="49"/>
     </row>
     <row r="69" ht="30.5" customHeight="1" spans="1:35">
       <c r="A69" s="15" t="s">
@@ -8911,7 +8898,7 @@
       <c r="N69" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O69" s="22" t="s">
+      <c r="O69" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P69" s="19">
@@ -8926,18 +8913,18 @@
       <c r="U69" s="19"/>
       <c r="V69" s="19"/>
       <c r="W69" s="19"/>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="30"/>
-      <c r="Z69" s="42"/>
+      <c r="X69" s="26"/>
+      <c r="Y69" s="29"/>
+      <c r="Z69" s="41"/>
       <c r="AA69" s="15"/>
-      <c r="AB69" s="27"/>
-      <c r="AC69" s="35"/>
-      <c r="AD69" s="36"/>
-      <c r="AE69" s="43"/>
-      <c r="AF69" s="43"/>
-      <c r="AG69" s="43"/>
-      <c r="AH69" s="43"/>
-      <c r="AI69" s="49"/>
+      <c r="AB69" s="26"/>
+      <c r="AC69" s="34"/>
+      <c r="AD69" s="35"/>
+      <c r="AE69" s="42"/>
+      <c r="AF69" s="42"/>
+      <c r="AG69" s="42"/>
+      <c r="AH69" s="42"/>
+      <c r="AI69" s="48"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A70" s="15" t="s">
@@ -8980,7 +8967,7 @@
       <c r="N70" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O70" s="22" t="s">
+      <c r="O70" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P70" s="19">
@@ -8995,18 +8982,18 @@
       <c r="U70" s="19"/>
       <c r="V70" s="19"/>
       <c r="W70" s="19"/>
-      <c r="X70" s="27"/>
-      <c r="Y70" s="31"/>
-      <c r="Z70" s="44"/>
+      <c r="X70" s="26"/>
+      <c r="Y70" s="30"/>
+      <c r="Z70" s="43"/>
       <c r="AA70" s="15"/>
-      <c r="AB70" s="27"/>
-      <c r="AC70" s="38"/>
-      <c r="AD70" s="39"/>
-      <c r="AE70" s="45"/>
-      <c r="AF70" s="45"/>
-      <c r="AG70" s="45"/>
-      <c r="AH70" s="45"/>
-      <c r="AI70" s="50"/>
+      <c r="AB70" s="26"/>
+      <c r="AC70" s="37"/>
+      <c r="AD70" s="38"/>
+      <c r="AE70" s="44"/>
+      <c r="AF70" s="44"/>
+      <c r="AG70" s="44"/>
+      <c r="AH70" s="44"/>
+      <c r="AI70" s="49"/>
     </row>
     <row r="71" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A71" s="15" t="s">
@@ -9049,7 +9036,7 @@
       <c r="N71" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O71" s="22" t="s">
+      <c r="O71" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P71" s="19">
@@ -9064,18 +9051,18 @@
       <c r="U71" s="19"/>
       <c r="V71" s="19"/>
       <c r="W71" s="19"/>
-      <c r="X71" s="27"/>
-      <c r="Y71" s="30"/>
-      <c r="Z71" s="42"/>
+      <c r="X71" s="26"/>
+      <c r="Y71" s="29"/>
+      <c r="Z71" s="41"/>
       <c r="AA71" s="15"/>
-      <c r="AB71" s="27"/>
-      <c r="AC71" s="35"/>
-      <c r="AD71" s="36"/>
-      <c r="AE71" s="43"/>
-      <c r="AF71" s="43"/>
-      <c r="AG71" s="43"/>
-      <c r="AH71" s="43"/>
-      <c r="AI71" s="49"/>
+      <c r="AB71" s="26"/>
+      <c r="AC71" s="34"/>
+      <c r="AD71" s="35"/>
+      <c r="AE71" s="42"/>
+      <c r="AF71" s="42"/>
+      <c r="AG71" s="42"/>
+      <c r="AH71" s="42"/>
+      <c r="AI71" s="48"/>
     </row>
     <row r="72" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A72" s="15" t="s">
@@ -9118,7 +9105,7 @@
       <c r="N72" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O72" s="22" t="s">
+      <c r="O72" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P72" s="19">
@@ -9133,18 +9120,18 @@
       <c r="U72" s="19"/>
       <c r="V72" s="19"/>
       <c r="W72" s="19"/>
-      <c r="X72" s="27"/>
-      <c r="Y72" s="31"/>
-      <c r="Z72" s="44"/>
+      <c r="X72" s="26"/>
+      <c r="Y72" s="30"/>
+      <c r="Z72" s="43"/>
       <c r="AA72" s="15"/>
-      <c r="AB72" s="27"/>
-      <c r="AC72" s="38"/>
-      <c r="AD72" s="39"/>
-      <c r="AE72" s="45"/>
-      <c r="AF72" s="45"/>
-      <c r="AG72" s="45"/>
-      <c r="AH72" s="45"/>
-      <c r="AI72" s="50"/>
+      <c r="AB72" s="26"/>
+      <c r="AC72" s="37"/>
+      <c r="AD72" s="38"/>
+      <c r="AE72" s="44"/>
+      <c r="AF72" s="44"/>
+      <c r="AG72" s="44"/>
+      <c r="AH72" s="44"/>
+      <c r="AI72" s="49"/>
     </row>
     <row r="73" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A73" s="15" t="s">
@@ -9187,7 +9174,7 @@
       <c r="N73" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O73" s="22" t="s">
+      <c r="O73" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P73" s="19">
@@ -9202,18 +9189,18 @@
       <c r="U73" s="19"/>
       <c r="V73" s="19"/>
       <c r="W73" s="19"/>
-      <c r="X73" s="27"/>
-      <c r="Y73" s="30"/>
-      <c r="Z73" s="42"/>
+      <c r="X73" s="26"/>
+      <c r="Y73" s="29"/>
+      <c r="Z73" s="41"/>
       <c r="AA73" s="15"/>
-      <c r="AB73" s="27"/>
-      <c r="AC73" s="35"/>
-      <c r="AD73" s="36"/>
-      <c r="AE73" s="43"/>
-      <c r="AF73" s="43"/>
-      <c r="AG73" s="43"/>
-      <c r="AH73" s="43"/>
-      <c r="AI73" s="49"/>
+      <c r="AB73" s="26"/>
+      <c r="AC73" s="34"/>
+      <c r="AD73" s="35"/>
+      <c r="AE73" s="42"/>
+      <c r="AF73" s="42"/>
+      <c r="AG73" s="42"/>
+      <c r="AH73" s="42"/>
+      <c r="AI73" s="48"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A74" s="15" t="s">
@@ -9256,7 +9243,7 @@
       <c r="N74" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O74" s="22" t="s">
+      <c r="O74" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P74" s="19">
@@ -9271,18 +9258,18 @@
       <c r="U74" s="19"/>
       <c r="V74" s="19"/>
       <c r="W74" s="19"/>
-      <c r="X74" s="27"/>
-      <c r="Y74" s="31"/>
-      <c r="Z74" s="44"/>
+      <c r="X74" s="26"/>
+      <c r="Y74" s="30"/>
+      <c r="Z74" s="43"/>
       <c r="AA74" s="15"/>
-      <c r="AB74" s="27"/>
-      <c r="AC74" s="38"/>
-      <c r="AD74" s="39"/>
-      <c r="AE74" s="45"/>
-      <c r="AF74" s="45"/>
-      <c r="AG74" s="45"/>
-      <c r="AH74" s="45"/>
-      <c r="AI74" s="50"/>
+      <c r="AB74" s="26"/>
+      <c r="AC74" s="37"/>
+      <c r="AD74" s="38"/>
+      <c r="AE74" s="44"/>
+      <c r="AF74" s="44"/>
+      <c r="AG74" s="44"/>
+      <c r="AH74" s="44"/>
+      <c r="AI74" s="49"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A75" s="15" t="s">
@@ -9325,7 +9312,7 @@
       <c r="N75" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O75" s="22" t="s">
+      <c r="O75" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P75" s="19">
@@ -9340,18 +9327,18 @@
       <c r="U75" s="19"/>
       <c r="V75" s="19"/>
       <c r="W75" s="19"/>
-      <c r="X75" s="27"/>
-      <c r="Y75" s="30"/>
-      <c r="Z75" s="42"/>
+      <c r="X75" s="26"/>
+      <c r="Y75" s="29"/>
+      <c r="Z75" s="41"/>
       <c r="AA75" s="15"/>
-      <c r="AB75" s="27"/>
-      <c r="AC75" s="76"/>
-      <c r="AD75" s="77"/>
-      <c r="AE75" s="77"/>
-      <c r="AF75" s="77"/>
-      <c r="AG75" s="43"/>
-      <c r="AH75" s="43"/>
-      <c r="AI75" s="49"/>
+      <c r="AB75" s="26"/>
+      <c r="AC75" s="70"/>
+      <c r="AD75" s="71"/>
+      <c r="AE75" s="71"/>
+      <c r="AF75" s="71"/>
+      <c r="AG75" s="42"/>
+      <c r="AH75" s="42"/>
+      <c r="AI75" s="48"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A76" s="15" t="s">
@@ -9394,7 +9381,7 @@
       <c r="N76" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O76" s="22" t="s">
+      <c r="O76" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P76" s="19">
@@ -9409,18 +9396,18 @@
       <c r="U76" s="19"/>
       <c r="V76" s="19"/>
       <c r="W76" s="19"/>
-      <c r="X76" s="27"/>
-      <c r="Y76" s="31"/>
-      <c r="Z76" s="44"/>
+      <c r="X76" s="26"/>
+      <c r="Y76" s="30"/>
+      <c r="Z76" s="43"/>
       <c r="AA76" s="15"/>
-      <c r="AB76" s="27"/>
-      <c r="AC76" s="38"/>
-      <c r="AD76" s="39"/>
-      <c r="AE76" s="39"/>
-      <c r="AF76" s="39"/>
-      <c r="AG76" s="45"/>
-      <c r="AH76" s="45"/>
-      <c r="AI76" s="50"/>
+      <c r="AB76" s="26"/>
+      <c r="AC76" s="37"/>
+      <c r="AD76" s="38"/>
+      <c r="AE76" s="38"/>
+      <c r="AF76" s="38"/>
+      <c r="AG76" s="44"/>
+      <c r="AH76" s="44"/>
+      <c r="AI76" s="49"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A77" s="15" t="s">
@@ -9463,7 +9450,7 @@
       <c r="N77" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O77" s="22" t="s">
+      <c r="O77" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P77" s="19">
@@ -9478,18 +9465,18 @@
       <c r="U77" s="19"/>
       <c r="V77" s="19"/>
       <c r="W77" s="19"/>
-      <c r="X77" s="27"/>
-      <c r="Y77" s="30"/>
-      <c r="Z77" s="42"/>
+      <c r="X77" s="26"/>
+      <c r="Y77" s="29"/>
+      <c r="Z77" s="41"/>
       <c r="AA77" s="15"/>
-      <c r="AB77" s="27"/>
-      <c r="AC77" s="35"/>
-      <c r="AD77" s="36"/>
-      <c r="AE77" s="36"/>
-      <c r="AF77" s="36"/>
-      <c r="AG77" s="43"/>
-      <c r="AH77" s="43"/>
-      <c r="AI77" s="49"/>
+      <c r="AB77" s="26"/>
+      <c r="AC77" s="34"/>
+      <c r="AD77" s="35"/>
+      <c r="AE77" s="35"/>
+      <c r="AF77" s="35"/>
+      <c r="AG77" s="42"/>
+      <c r="AH77" s="42"/>
+      <c r="AI77" s="48"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A78" s="15" t="s">
@@ -9532,7 +9519,7 @@
       <c r="N78" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O78" s="22" t="s">
+      <c r="O78" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P78" s="19">
@@ -9547,18 +9534,18 @@
       <c r="U78" s="19"/>
       <c r="V78" s="19"/>
       <c r="W78" s="19"/>
-      <c r="X78" s="27"/>
-      <c r="Y78" s="31"/>
-      <c r="Z78" s="44"/>
+      <c r="X78" s="26"/>
+      <c r="Y78" s="30"/>
+      <c r="Z78" s="43"/>
       <c r="AA78" s="15"/>
-      <c r="AB78" s="27"/>
-      <c r="AC78" s="38"/>
-      <c r="AD78" s="39"/>
-      <c r="AE78" s="39"/>
-      <c r="AF78" s="39"/>
-      <c r="AG78" s="45"/>
-      <c r="AH78" s="45"/>
-      <c r="AI78" s="50"/>
+      <c r="AB78" s="26"/>
+      <c r="AC78" s="37"/>
+      <c r="AD78" s="38"/>
+      <c r="AE78" s="38"/>
+      <c r="AF78" s="38"/>
+      <c r="AG78" s="44"/>
+      <c r="AH78" s="44"/>
+      <c r="AI78" s="49"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A79" s="15" t="s">
@@ -9601,7 +9588,7 @@
       <c r="N79" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O79" s="22" t="s">
+      <c r="O79" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P79" s="19">
@@ -9616,18 +9603,18 @@
       <c r="U79" s="19"/>
       <c r="V79" s="19"/>
       <c r="W79" s="19"/>
-      <c r="X79" s="27"/>
-      <c r="Y79" s="30"/>
-      <c r="Z79" s="42"/>
+      <c r="X79" s="26"/>
+      <c r="Y79" s="29"/>
+      <c r="Z79" s="41"/>
       <c r="AA79" s="15"/>
-      <c r="AB79" s="27"/>
-      <c r="AC79" s="35"/>
-      <c r="AD79" s="36"/>
-      <c r="AE79" s="36"/>
-      <c r="AF79" s="36"/>
-      <c r="AG79" s="43"/>
-      <c r="AH79" s="43"/>
-      <c r="AI79" s="49"/>
+      <c r="AB79" s="26"/>
+      <c r="AC79" s="34"/>
+      <c r="AD79" s="35"/>
+      <c r="AE79" s="35"/>
+      <c r="AF79" s="35"/>
+      <c r="AG79" s="42"/>
+      <c r="AH79" s="42"/>
+      <c r="AI79" s="48"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A80" s="15" t="s">
@@ -9670,7 +9657,7 @@
       <c r="N80" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O80" s="22" t="s">
+      <c r="O80" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P80" s="19">
@@ -9685,18 +9672,18 @@
       <c r="U80" s="19"/>
       <c r="V80" s="19"/>
       <c r="W80" s="19"/>
-      <c r="X80" s="27"/>
-      <c r="Y80" s="31"/>
-      <c r="Z80" s="44"/>
+      <c r="X80" s="26"/>
+      <c r="Y80" s="30"/>
+      <c r="Z80" s="43"/>
       <c r="AA80" s="15"/>
-      <c r="AB80" s="27"/>
-      <c r="AC80" s="38"/>
-      <c r="AD80" s="39"/>
-      <c r="AE80" s="39"/>
-      <c r="AF80" s="39"/>
-      <c r="AG80" s="45"/>
-      <c r="AH80" s="45"/>
-      <c r="AI80" s="50"/>
+      <c r="AB80" s="26"/>
+      <c r="AC80" s="37"/>
+      <c r="AD80" s="38"/>
+      <c r="AE80" s="38"/>
+      <c r="AF80" s="38"/>
+      <c r="AG80" s="44"/>
+      <c r="AH80" s="44"/>
+      <c r="AI80" s="49"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A81" s="15" t="s">
@@ -9739,7 +9726,7 @@
       <c r="N81" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O81" s="22" t="s">
+      <c r="O81" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P81" s="19">
@@ -9754,18 +9741,18 @@
       <c r="U81" s="19"/>
       <c r="V81" s="19"/>
       <c r="W81" s="19"/>
-      <c r="X81" s="27"/>
-      <c r="Y81" s="30"/>
-      <c r="Z81" s="42"/>
+      <c r="X81" s="26"/>
+      <c r="Y81" s="29"/>
+      <c r="Z81" s="41"/>
       <c r="AA81" s="15"/>
-      <c r="AB81" s="27"/>
-      <c r="AC81" s="35"/>
-      <c r="AD81" s="36"/>
-      <c r="AE81" s="36"/>
-      <c r="AF81" s="36"/>
-      <c r="AG81" s="43"/>
-      <c r="AH81" s="43"/>
-      <c r="AI81" s="49"/>
+      <c r="AB81" s="26"/>
+      <c r="AC81" s="34"/>
+      <c r="AD81" s="35"/>
+      <c r="AE81" s="35"/>
+      <c r="AF81" s="35"/>
+      <c r="AG81" s="42"/>
+      <c r="AH81" s="42"/>
+      <c r="AI81" s="48"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A82" s="15" t="s">
@@ -9808,7 +9795,7 @@
       <c r="N82" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O82" s="22" t="s">
+      <c r="O82" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P82" s="19">
@@ -9823,18 +9810,18 @@
       <c r="U82" s="19"/>
       <c r="V82" s="19"/>
       <c r="W82" s="19"/>
-      <c r="X82" s="27"/>
-      <c r="Y82" s="31"/>
-      <c r="Z82" s="44"/>
+      <c r="X82" s="26"/>
+      <c r="Y82" s="30"/>
+      <c r="Z82" s="43"/>
       <c r="AA82" s="15"/>
-      <c r="AB82" s="27"/>
-      <c r="AC82" s="38"/>
-      <c r="AD82" s="39"/>
-      <c r="AE82" s="39"/>
-      <c r="AF82" s="39"/>
-      <c r="AG82" s="45"/>
-      <c r="AH82" s="45"/>
-      <c r="AI82" s="50"/>
+      <c r="AB82" s="26"/>
+      <c r="AC82" s="37"/>
+      <c r="AD82" s="38"/>
+      <c r="AE82" s="38"/>
+      <c r="AF82" s="38"/>
+      <c r="AG82" s="44"/>
+      <c r="AH82" s="44"/>
+      <c r="AI82" s="49"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A83" s="15" t="s">
@@ -9877,7 +9864,7 @@
       <c r="N83" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O83" s="22" t="s">
+      <c r="O83" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P83" s="19">
@@ -9892,18 +9879,18 @@
       <c r="U83" s="19"/>
       <c r="V83" s="19"/>
       <c r="W83" s="19"/>
-      <c r="X83" s="27"/>
-      <c r="Y83" s="30"/>
-      <c r="Z83" s="42"/>
+      <c r="X83" s="26"/>
+      <c r="Y83" s="29"/>
+      <c r="Z83" s="41"/>
       <c r="AA83" s="15"/>
-      <c r="AB83" s="27"/>
-      <c r="AC83" s="35"/>
-      <c r="AD83" s="36"/>
-      <c r="AE83" s="36"/>
-      <c r="AF83" s="36"/>
-      <c r="AG83" s="43"/>
-      <c r="AH83" s="43"/>
-      <c r="AI83" s="49"/>
+      <c r="AB83" s="26"/>
+      <c r="AC83" s="34"/>
+      <c r="AD83" s="35"/>
+      <c r="AE83" s="35"/>
+      <c r="AF83" s="35"/>
+      <c r="AG83" s="42"/>
+      <c r="AH83" s="42"/>
+      <c r="AI83" s="48"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A84" s="15" t="s">
@@ -9946,7 +9933,7 @@
       <c r="N84" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O84" s="22" t="s">
+      <c r="O84" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P84" s="19">
@@ -9961,18 +9948,18 @@
       <c r="U84" s="19"/>
       <c r="V84" s="19"/>
       <c r="W84" s="19"/>
-      <c r="X84" s="27"/>
-      <c r="Y84" s="31"/>
-      <c r="Z84" s="44"/>
+      <c r="X84" s="26"/>
+      <c r="Y84" s="30"/>
+      <c r="Z84" s="43"/>
       <c r="AA84" s="15"/>
-      <c r="AB84" s="27"/>
-      <c r="AC84" s="38"/>
-      <c r="AD84" s="39"/>
-      <c r="AE84" s="39"/>
-      <c r="AF84" s="39"/>
-      <c r="AG84" s="45"/>
-      <c r="AH84" s="45"/>
-      <c r="AI84" s="50"/>
+      <c r="AB84" s="26"/>
+      <c r="AC84" s="37"/>
+      <c r="AD84" s="38"/>
+      <c r="AE84" s="38"/>
+      <c r="AF84" s="38"/>
+      <c r="AG84" s="44"/>
+      <c r="AH84" s="44"/>
+      <c r="AI84" s="49"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A85" s="15" t="s">
@@ -10015,7 +10002,7 @@
       <c r="N85" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O85" s="22" t="s">
+      <c r="O85" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P85" s="19">
@@ -10030,18 +10017,18 @@
       <c r="U85" s="19"/>
       <c r="V85" s="19"/>
       <c r="W85" s="19"/>
-      <c r="X85" s="27"/>
-      <c r="Y85" s="30"/>
-      <c r="Z85" s="42"/>
+      <c r="X85" s="26"/>
+      <c r="Y85" s="29"/>
+      <c r="Z85" s="41"/>
       <c r="AA85" s="15"/>
-      <c r="AB85" s="27"/>
-      <c r="AC85" s="35"/>
-      <c r="AD85" s="36"/>
-      <c r="AE85" s="36"/>
-      <c r="AF85" s="36"/>
-      <c r="AG85" s="43"/>
-      <c r="AH85" s="43"/>
-      <c r="AI85" s="49"/>
+      <c r="AB85" s="26"/>
+      <c r="AC85" s="34"/>
+      <c r="AD85" s="35"/>
+      <c r="AE85" s="35"/>
+      <c r="AF85" s="35"/>
+      <c r="AG85" s="42"/>
+      <c r="AH85" s="42"/>
+      <c r="AI85" s="48"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A86" s="15" t="s">
@@ -10084,7 +10071,7 @@
       <c r="N86" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O86" s="22" t="s">
+      <c r="O86" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P86" s="19">
@@ -10099,18 +10086,18 @@
       <c r="U86" s="19"/>
       <c r="V86" s="19"/>
       <c r="W86" s="19"/>
-      <c r="X86" s="27"/>
-      <c r="Y86" s="31"/>
-      <c r="Z86" s="44"/>
+      <c r="X86" s="26"/>
+      <c r="Y86" s="30"/>
+      <c r="Z86" s="43"/>
       <c r="AA86" s="15"/>
-      <c r="AB86" s="27"/>
-      <c r="AC86" s="38"/>
-      <c r="AD86" s="39"/>
-      <c r="AE86" s="39"/>
-      <c r="AF86" s="39"/>
-      <c r="AG86" s="45"/>
-      <c r="AH86" s="45"/>
-      <c r="AI86" s="50"/>
+      <c r="AB86" s="26"/>
+      <c r="AC86" s="37"/>
+      <c r="AD86" s="38"/>
+      <c r="AE86" s="38"/>
+      <c r="AF86" s="38"/>
+      <c r="AG86" s="44"/>
+      <c r="AH86" s="44"/>
+      <c r="AI86" s="49"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A87" s="15" t="s">
@@ -10153,7 +10140,7 @@
       <c r="N87" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O87" s="22" t="s">
+      <c r="O87" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P87" s="19">
@@ -10168,18 +10155,18 @@
       <c r="U87" s="19"/>
       <c r="V87" s="19"/>
       <c r="W87" s="19"/>
-      <c r="X87" s="27"/>
-      <c r="Y87" s="30"/>
-      <c r="Z87" s="42"/>
+      <c r="X87" s="26"/>
+      <c r="Y87" s="29"/>
+      <c r="Z87" s="41"/>
       <c r="AA87" s="15"/>
-      <c r="AB87" s="27"/>
-      <c r="AC87" s="35"/>
-      <c r="AD87" s="36"/>
-      <c r="AE87" s="36"/>
-      <c r="AF87" s="36"/>
-      <c r="AG87" s="43"/>
-      <c r="AH87" s="43"/>
-      <c r="AI87" s="49"/>
+      <c r="AB87" s="26"/>
+      <c r="AC87" s="34"/>
+      <c r="AD87" s="35"/>
+      <c r="AE87" s="35"/>
+      <c r="AF87" s="35"/>
+      <c r="AG87" s="42"/>
+      <c r="AH87" s="42"/>
+      <c r="AI87" s="48"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A88" s="15" t="s">
@@ -10222,7 +10209,7 @@
       <c r="N88" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O88" s="22" t="s">
+      <c r="O88" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P88" s="19">
@@ -10237,18 +10224,18 @@
       <c r="U88" s="19"/>
       <c r="V88" s="19"/>
       <c r="W88" s="19"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="31"/>
-      <c r="Z88" s="44"/>
+      <c r="X88" s="26"/>
+      <c r="Y88" s="30"/>
+      <c r="Z88" s="43"/>
       <c r="AA88" s="15"/>
-      <c r="AB88" s="27"/>
-      <c r="AC88" s="38"/>
-      <c r="AD88" s="39"/>
-      <c r="AE88" s="39"/>
-      <c r="AF88" s="39"/>
-      <c r="AG88" s="45"/>
-      <c r="AH88" s="45"/>
-      <c r="AI88" s="50"/>
+      <c r="AB88" s="26"/>
+      <c r="AC88" s="37"/>
+      <c r="AD88" s="38"/>
+      <c r="AE88" s="38"/>
+      <c r="AF88" s="38"/>
+      <c r="AG88" s="44"/>
+      <c r="AH88" s="44"/>
+      <c r="AI88" s="49"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A89" s="15" t="s">
@@ -10291,7 +10278,7 @@
       <c r="N89" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O89" s="22" t="s">
+      <c r="O89" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P89" s="19">
@@ -10306,18 +10293,18 @@
       <c r="U89" s="19"/>
       <c r="V89" s="19"/>
       <c r="W89" s="19"/>
-      <c r="X89" s="27"/>
-      <c r="Y89" s="30"/>
-      <c r="Z89" s="42"/>
+      <c r="X89" s="26"/>
+      <c r="Y89" s="29"/>
+      <c r="Z89" s="41"/>
       <c r="AA89" s="15"/>
-      <c r="AB89" s="27"/>
-      <c r="AC89" s="35"/>
-      <c r="AD89" s="36"/>
-      <c r="AE89" s="36"/>
-      <c r="AF89" s="36"/>
-      <c r="AG89" s="43"/>
-      <c r="AH89" s="43"/>
-      <c r="AI89" s="49"/>
+      <c r="AB89" s="26"/>
+      <c r="AC89" s="34"/>
+      <c r="AD89" s="35"/>
+      <c r="AE89" s="35"/>
+      <c r="AF89" s="35"/>
+      <c r="AG89" s="42"/>
+      <c r="AH89" s="42"/>
+      <c r="AI89" s="48"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A90" s="15" t="s">
@@ -10360,7 +10347,7 @@
       <c r="N90" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O90" s="22" t="s">
+      <c r="O90" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P90" s="19">
@@ -10375,18 +10362,18 @@
       <c r="U90" s="19"/>
       <c r="V90" s="19"/>
       <c r="W90" s="19"/>
-      <c r="X90" s="27"/>
-      <c r="Y90" s="31"/>
-      <c r="Z90" s="44"/>
+      <c r="X90" s="26"/>
+      <c r="Y90" s="30"/>
+      <c r="Z90" s="43"/>
       <c r="AA90" s="15"/>
-      <c r="AB90" s="27"/>
-      <c r="AC90" s="38"/>
-      <c r="AD90" s="39"/>
-      <c r="AE90" s="39"/>
-      <c r="AF90" s="39"/>
-      <c r="AG90" s="45"/>
-      <c r="AH90" s="45"/>
-      <c r="AI90" s="50"/>
+      <c r="AB90" s="26"/>
+      <c r="AC90" s="37"/>
+      <c r="AD90" s="38"/>
+      <c r="AE90" s="38"/>
+      <c r="AF90" s="38"/>
+      <c r="AG90" s="44"/>
+      <c r="AH90" s="44"/>
+      <c r="AI90" s="49"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A91" s="15" t="s">
@@ -10429,7 +10416,7 @@
       <c r="N91" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O91" s="22" t="s">
+      <c r="O91" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P91" s="19">
@@ -10444,18 +10431,18 @@
       <c r="U91" s="19"/>
       <c r="V91" s="19"/>
       <c r="W91" s="19"/>
-      <c r="X91" s="27"/>
-      <c r="Y91" s="30"/>
-      <c r="Z91" s="42"/>
+      <c r="X91" s="26"/>
+      <c r="Y91" s="29"/>
+      <c r="Z91" s="41"/>
       <c r="AA91" s="15"/>
-      <c r="AB91" s="27"/>
-      <c r="AC91" s="35"/>
-      <c r="AD91" s="36"/>
-      <c r="AE91" s="36"/>
-      <c r="AF91" s="36"/>
-      <c r="AG91" s="43"/>
-      <c r="AH91" s="43"/>
-      <c r="AI91" s="49"/>
+      <c r="AB91" s="26"/>
+      <c r="AC91" s="34"/>
+      <c r="AD91" s="35"/>
+      <c r="AE91" s="35"/>
+      <c r="AF91" s="35"/>
+      <c r="AG91" s="42"/>
+      <c r="AH91" s="42"/>
+      <c r="AI91" s="48"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A92" s="15" t="s">
@@ -10498,7 +10485,7 @@
       <c r="N92" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O92" s="22" t="s">
+      <c r="O92" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P92" s="19">
@@ -10513,18 +10500,18 @@
       <c r="U92" s="19"/>
       <c r="V92" s="19"/>
       <c r="W92" s="19"/>
-      <c r="X92" s="27"/>
-      <c r="Y92" s="31"/>
-      <c r="Z92" s="44"/>
+      <c r="X92" s="26"/>
+      <c r="Y92" s="30"/>
+      <c r="Z92" s="43"/>
       <c r="AA92" s="15"/>
-      <c r="AB92" s="27"/>
-      <c r="AC92" s="38"/>
-      <c r="AD92" s="39"/>
-      <c r="AE92" s="39"/>
-      <c r="AF92" s="39"/>
-      <c r="AG92" s="45"/>
-      <c r="AH92" s="45"/>
-      <c r="AI92" s="50"/>
+      <c r="AB92" s="26"/>
+      <c r="AC92" s="37"/>
+      <c r="AD92" s="38"/>
+      <c r="AE92" s="38"/>
+      <c r="AF92" s="38"/>
+      <c r="AG92" s="44"/>
+      <c r="AH92" s="44"/>
+      <c r="AI92" s="49"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A93" s="15" t="s">
@@ -10567,7 +10554,7 @@
       <c r="N93" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O93" s="22" t="s">
+      <c r="O93" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P93" s="19">
@@ -10582,18 +10569,18 @@
       <c r="U93" s="19"/>
       <c r="V93" s="19"/>
       <c r="W93" s="19"/>
-      <c r="X93" s="27"/>
-      <c r="Y93" s="30"/>
-      <c r="Z93" s="42"/>
+      <c r="X93" s="26"/>
+      <c r="Y93" s="29"/>
+      <c r="Z93" s="41"/>
       <c r="AA93" s="15"/>
-      <c r="AB93" s="27"/>
-      <c r="AC93" s="35"/>
-      <c r="AD93" s="36"/>
-      <c r="AE93" s="36"/>
-      <c r="AF93" s="36"/>
-      <c r="AG93" s="43"/>
-      <c r="AH93" s="43"/>
-      <c r="AI93" s="49"/>
+      <c r="AB93" s="26"/>
+      <c r="AC93" s="34"/>
+      <c r="AD93" s="35"/>
+      <c r="AE93" s="35"/>
+      <c r="AF93" s="35"/>
+      <c r="AG93" s="42"/>
+      <c r="AH93" s="42"/>
+      <c r="AI93" s="48"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A94" s="15" t="s">
@@ -10636,7 +10623,7 @@
       <c r="N94" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O94" s="22" t="s">
+      <c r="O94" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P94" s="19">
@@ -10651,18 +10638,18 @@
       <c r="U94" s="19"/>
       <c r="V94" s="19"/>
       <c r="W94" s="19"/>
-      <c r="X94" s="27"/>
-      <c r="Y94" s="31"/>
-      <c r="Z94" s="44"/>
+      <c r="X94" s="26"/>
+      <c r="Y94" s="30"/>
+      <c r="Z94" s="43"/>
       <c r="AA94" s="15"/>
-      <c r="AB94" s="27"/>
-      <c r="AC94" s="38"/>
-      <c r="AD94" s="39"/>
-      <c r="AE94" s="39"/>
-      <c r="AF94" s="39"/>
-      <c r="AG94" s="45"/>
-      <c r="AH94" s="45"/>
-      <c r="AI94" s="50"/>
+      <c r="AB94" s="26"/>
+      <c r="AC94" s="37"/>
+      <c r="AD94" s="38"/>
+      <c r="AE94" s="38"/>
+      <c r="AF94" s="38"/>
+      <c r="AG94" s="44"/>
+      <c r="AH94" s="44"/>
+      <c r="AI94" s="49"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A95" s="15" t="s">
@@ -10705,7 +10692,7 @@
       <c r="N95" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O95" s="22" t="s">
+      <c r="O95" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P95" s="19">
@@ -10720,18 +10707,18 @@
       <c r="U95" s="19"/>
       <c r="V95" s="19"/>
       <c r="W95" s="19"/>
-      <c r="X95" s="27"/>
-      <c r="Y95" s="30"/>
-      <c r="Z95" s="34"/>
+      <c r="X95" s="26"/>
+      <c r="Y95" s="29"/>
+      <c r="Z95" s="33"/>
       <c r="AA95" s="15"/>
-      <c r="AB95" s="27"/>
-      <c r="AC95" s="35"/>
-      <c r="AD95" s="36"/>
-      <c r="AE95" s="36"/>
-      <c r="AF95" s="36"/>
-      <c r="AG95" s="36"/>
-      <c r="AH95" s="36"/>
-      <c r="AI95" s="47"/>
+      <c r="AB95" s="26"/>
+      <c r="AC95" s="34"/>
+      <c r="AD95" s="35"/>
+      <c r="AE95" s="35"/>
+      <c r="AF95" s="35"/>
+      <c r="AG95" s="35"/>
+      <c r="AH95" s="35"/>
+      <c r="AI95" s="46"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A96" s="15" t="s">
@@ -10774,7 +10761,7 @@
       <c r="N96" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O96" s="22" t="s">
+      <c r="O96" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P96" s="19">
@@ -10789,18 +10776,18 @@
       <c r="U96" s="19"/>
       <c r="V96" s="19"/>
       <c r="W96" s="19"/>
-      <c r="X96" s="27"/>
-      <c r="Y96" s="31"/>
-      <c r="Z96" s="44"/>
+      <c r="X96" s="26"/>
+      <c r="Y96" s="30"/>
+      <c r="Z96" s="43"/>
       <c r="AA96" s="15"/>
-      <c r="AB96" s="27"/>
-      <c r="AC96" s="38"/>
-      <c r="AD96" s="39"/>
-      <c r="AE96" s="39"/>
-      <c r="AF96" s="39"/>
-      <c r="AG96" s="45"/>
-      <c r="AH96" s="45"/>
-      <c r="AI96" s="50"/>
+      <c r="AB96" s="26"/>
+      <c r="AC96" s="37"/>
+      <c r="AD96" s="38"/>
+      <c r="AE96" s="38"/>
+      <c r="AF96" s="38"/>
+      <c r="AG96" s="44"/>
+      <c r="AH96" s="44"/>
+      <c r="AI96" s="49"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A97" s="15" t="s">
@@ -10843,7 +10830,7 @@
       <c r="N97" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O97" s="22" t="s">
+      <c r="O97" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P97" s="19">
@@ -10858,18 +10845,18 @@
       <c r="U97" s="19"/>
       <c r="V97" s="19"/>
       <c r="W97" s="19"/>
-      <c r="X97" s="27"/>
-      <c r="Y97" s="30"/>
-      <c r="Z97" s="42"/>
+      <c r="X97" s="26"/>
+      <c r="Y97" s="29"/>
+      <c r="Z97" s="41"/>
       <c r="AA97" s="15"/>
-      <c r="AB97" s="27"/>
-      <c r="AC97" s="35"/>
-      <c r="AD97" s="36"/>
-      <c r="AE97" s="36"/>
-      <c r="AF97" s="36"/>
-      <c r="AG97" s="43"/>
-      <c r="AH97" s="43"/>
-      <c r="AI97" s="49"/>
+      <c r="AB97" s="26"/>
+      <c r="AC97" s="34"/>
+      <c r="AD97" s="35"/>
+      <c r="AE97" s="35"/>
+      <c r="AF97" s="35"/>
+      <c r="AG97" s="42"/>
+      <c r="AH97" s="42"/>
+      <c r="AI97" s="48"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A98" s="15" t="s">
@@ -10912,7 +10899,7 @@
       <c r="N98" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O98" s="22" t="s">
+      <c r="O98" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P98" s="19">
@@ -10927,18 +10914,18 @@
       <c r="U98" s="19"/>
       <c r="V98" s="19"/>
       <c r="W98" s="19"/>
-      <c r="X98" s="27"/>
-      <c r="Y98" s="31"/>
-      <c r="Z98" s="44"/>
+      <c r="X98" s="26"/>
+      <c r="Y98" s="30"/>
+      <c r="Z98" s="43"/>
       <c r="AA98" s="15"/>
-      <c r="AB98" s="27"/>
-      <c r="AC98" s="38"/>
-      <c r="AD98" s="39"/>
-      <c r="AE98" s="39"/>
-      <c r="AF98" s="39"/>
-      <c r="AG98" s="45"/>
-      <c r="AH98" s="45"/>
-      <c r="AI98" s="50"/>
+      <c r="AB98" s="26"/>
+      <c r="AC98" s="37"/>
+      <c r="AD98" s="38"/>
+      <c r="AE98" s="38"/>
+      <c r="AF98" s="38"/>
+      <c r="AG98" s="44"/>
+      <c r="AH98" s="44"/>
+      <c r="AI98" s="49"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A99" s="15" t="s">
@@ -10981,7 +10968,7 @@
       <c r="N99" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O99" s="22" t="s">
+      <c r="O99" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P99" s="19">
@@ -10996,18 +10983,18 @@
       <c r="U99" s="19"/>
       <c r="V99" s="19"/>
       <c r="W99" s="19"/>
-      <c r="X99" s="27"/>
-      <c r="Y99" s="30"/>
-      <c r="Z99" s="42"/>
+      <c r="X99" s="26"/>
+      <c r="Y99" s="29"/>
+      <c r="Z99" s="41"/>
       <c r="AA99" s="15"/>
-      <c r="AB99" s="27"/>
-      <c r="AC99" s="35"/>
-      <c r="AD99" s="36"/>
-      <c r="AE99" s="36"/>
-      <c r="AF99" s="36"/>
-      <c r="AG99" s="43"/>
-      <c r="AH99" s="43"/>
-      <c r="AI99" s="49"/>
+      <c r="AB99" s="26"/>
+      <c r="AC99" s="34"/>
+      <c r="AD99" s="35"/>
+      <c r="AE99" s="35"/>
+      <c r="AF99" s="35"/>
+      <c r="AG99" s="42"/>
+      <c r="AH99" s="42"/>
+      <c r="AI99" s="48"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A100" s="15" t="s">
@@ -11050,7 +11037,7 @@
       <c r="N100" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O100" s="22" t="s">
+      <c r="O100" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P100" s="19">
@@ -11065,33 +11052,33 @@
       <c r="U100" s="19"/>
       <c r="V100" s="19"/>
       <c r="W100" s="19"/>
-      <c r="X100" s="27"/>
-      <c r="Y100" s="30"/>
-      <c r="Z100" s="42"/>
+      <c r="X100" s="26"/>
+      <c r="Y100" s="29"/>
+      <c r="Z100" s="41"/>
       <c r="AA100" s="15"/>
-      <c r="AB100" s="27"/>
-      <c r="AC100" s="35"/>
-      <c r="AD100" s="36"/>
-      <c r="AE100" s="36"/>
-      <c r="AF100" s="36"/>
-      <c r="AG100" s="43"/>
-      <c r="AH100" s="43"/>
-      <c r="AI100" s="49"/>
+      <c r="AB100" s="26"/>
+      <c r="AC100" s="34"/>
+      <c r="AD100" s="35"/>
+      <c r="AE100" s="35"/>
+      <c r="AF100" s="35"/>
+      <c r="AG100" s="42"/>
+      <c r="AH100" s="42"/>
+      <c r="AI100" s="48"/>
     </row>
     <row r="101" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A101" s="51" t="s">
+      <c r="A101" s="50" t="s">
         <v>470</v>
       </c>
-      <c r="B101" s="52" t="s">
+      <c r="B101" s="51" t="s">
         <v>471</v>
       </c>
-      <c r="C101" s="53" t="s">
+      <c r="C101" s="52" t="s">
         <v>472</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="E101" s="54">
+      <c r="E101" s="20">
         <v>1</v>
       </c>
       <c r="F101" s="19">
@@ -11136,33 +11123,33 @@
       <c r="U101" s="19"/>
       <c r="V101" s="19"/>
       <c r="W101" s="19"/>
-      <c r="X101" s="27"/>
-      <c r="Y101" s="30"/>
-      <c r="Z101" s="42"/>
+      <c r="X101" s="26"/>
+      <c r="Y101" s="29"/>
+      <c r="Z101" s="41"/>
       <c r="AA101" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="AB101" s="27"/>
-      <c r="AC101" s="35"/>
-      <c r="AD101" s="36"/>
-      <c r="AE101" s="36"/>
-      <c r="AF101" s="36"/>
-      <c r="AG101" s="43"/>
-      <c r="AH101" s="43"/>
-      <c r="AI101" s="49"/>
+      <c r="AB101" s="26"/>
+      <c r="AC101" s="34"/>
+      <c r="AD101" s="35"/>
+      <c r="AE101" s="35"/>
+      <c r="AF101" s="35"/>
+      <c r="AG101" s="42"/>
+      <c r="AH101" s="42"/>
+      <c r="AI101" s="48"/>
     </row>
     <row r="102" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A102" s="51" t="s">
+      <c r="A102" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="B102" s="52" t="s">
+      <c r="B102" s="51" t="s">
         <v>477</v>
       </c>
-      <c r="C102" s="53" t="s">
+      <c r="C102" s="52" t="s">
         <v>478</v>
       </c>
       <c r="D102" s="18"/>
-      <c r="E102" s="54">
+      <c r="E102" s="20">
         <v>1</v>
       </c>
       <c r="F102" s="19">
@@ -11192,7 +11179,7 @@
       <c r="N102" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O102" s="22" t="s">
+      <c r="O102" s="19" t="s">
         <v>479</v>
       </c>
       <c r="P102" s="19">
@@ -11207,35 +11194,35 @@
       <c r="U102" s="19"/>
       <c r="V102" s="19"/>
       <c r="W102" s="19"/>
-      <c r="X102" s="27"/>
-      <c r="Y102" s="30"/>
-      <c r="Z102" s="42"/>
+      <c r="X102" s="26"/>
+      <c r="Y102" s="29"/>
+      <c r="Z102" s="41"/>
       <c r="AA102" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="AB102" s="27"/>
-      <c r="AC102" s="35"/>
-      <c r="AD102" s="36"/>
-      <c r="AE102" s="36"/>
-      <c r="AF102" s="36"/>
-      <c r="AG102" s="43"/>
-      <c r="AH102" s="43"/>
-      <c r="AI102" s="49"/>
+      <c r="AB102" s="26"/>
+      <c r="AC102" s="34"/>
+      <c r="AD102" s="35"/>
+      <c r="AE102" s="35"/>
+      <c r="AF102" s="35"/>
+      <c r="AG102" s="42"/>
+      <c r="AH102" s="42"/>
+      <c r="AI102" s="48"/>
     </row>
     <row r="103" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A103" s="55" t="s">
+      <c r="A103" s="53" t="s">
         <v>481</v>
       </c>
-      <c r="B103" s="56" t="s">
+      <c r="B103" s="54" t="s">
         <v>482</v>
       </c>
-      <c r="C103" s="57" t="s">
+      <c r="C103" s="55" t="s">
         <v>483</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="E103" s="54">
+      <c r="E103" s="20">
         <v>1</v>
       </c>
       <c r="F103" s="19">
@@ -11265,7 +11252,7 @@
       <c r="N103" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O103" s="22" t="s">
+      <c r="O103" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P103" s="19">
@@ -11280,33 +11267,33 @@
       <c r="U103" s="19"/>
       <c r="V103" s="19"/>
       <c r="W103" s="19"/>
-      <c r="X103" s="27"/>
-      <c r="Y103" s="30"/>
-      <c r="Z103" s="42"/>
+      <c r="X103" s="26"/>
+      <c r="Y103" s="29"/>
+      <c r="Z103" s="41"/>
       <c r="AA103" s="15"/>
-      <c r="AB103" s="27"/>
-      <c r="AC103" s="35"/>
-      <c r="AD103" s="36"/>
-      <c r="AE103" s="36"/>
-      <c r="AF103" s="36"/>
-      <c r="AG103" s="43"/>
-      <c r="AH103" s="43"/>
-      <c r="AI103" s="49"/>
+      <c r="AB103" s="26"/>
+      <c r="AC103" s="34"/>
+      <c r="AD103" s="35"/>
+      <c r="AE103" s="35"/>
+      <c r="AF103" s="35"/>
+      <c r="AG103" s="42"/>
+      <c r="AH103" s="42"/>
+      <c r="AI103" s="48"/>
     </row>
     <row r="104" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A104" s="51" t="s">
+      <c r="A104" s="50" t="s">
         <v>485</v>
       </c>
-      <c r="B104" s="52" t="s">
+      <c r="B104" s="51" t="s">
         <v>486</v>
       </c>
-      <c r="C104" s="53" t="s">
+      <c r="C104" s="52" t="s">
         <v>487</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="E104" s="54">
+      <c r="E104" s="20">
         <v>1</v>
       </c>
       <c r="F104" s="19">
@@ -11336,7 +11323,7 @@
       <c r="N104" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O104" s="22" t="s">
+      <c r="O104" s="19" t="s">
         <v>489</v>
       </c>
       <c r="P104" s="19">
@@ -11351,35 +11338,35 @@
       <c r="U104" s="19"/>
       <c r="V104" s="19"/>
       <c r="W104" s="19"/>
-      <c r="X104" s="27"/>
-      <c r="Y104" s="30"/>
-      <c r="Z104" s="42"/>
+      <c r="X104" s="26"/>
+      <c r="Y104" s="29"/>
+      <c r="Z104" s="41"/>
       <c r="AA104" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="AB104" s="27"/>
-      <c r="AC104" s="35"/>
-      <c r="AD104" s="36"/>
-      <c r="AE104" s="36"/>
-      <c r="AF104" s="36"/>
-      <c r="AG104" s="43"/>
-      <c r="AH104" s="43"/>
-      <c r="AI104" s="49"/>
+      <c r="AB104" s="26"/>
+      <c r="AC104" s="34"/>
+      <c r="AD104" s="35"/>
+      <c r="AE104" s="35"/>
+      <c r="AF104" s="35"/>
+      <c r="AG104" s="42"/>
+      <c r="AH104" s="42"/>
+      <c r="AI104" s="48"/>
     </row>
     <row r="105" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A105" s="51" t="s">
+      <c r="A105" s="50" t="s">
         <v>491</v>
       </c>
-      <c r="B105" s="52" t="s">
+      <c r="B105" s="51" t="s">
         <v>492</v>
       </c>
-      <c r="C105" s="53" t="s">
+      <c r="C105" s="52" t="s">
         <v>493</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="E105" s="54">
+      <c r="E105" s="20">
         <v>1</v>
       </c>
       <c r="F105" s="19">
@@ -11409,7 +11396,7 @@
       <c r="N105" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O105" s="22" t="s">
+      <c r="O105" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P105" s="19">
@@ -11424,35 +11411,35 @@
       <c r="U105" s="19"/>
       <c r="V105" s="19"/>
       <c r="W105" s="19"/>
-      <c r="X105" s="27"/>
-      <c r="Y105" s="30"/>
-      <c r="Z105" s="42"/>
+      <c r="X105" s="26"/>
+      <c r="Y105" s="29"/>
+      <c r="Z105" s="41"/>
       <c r="AA105" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="AB105" s="27"/>
-      <c r="AC105" s="35"/>
-      <c r="AD105" s="36"/>
-      <c r="AE105" s="36"/>
-      <c r="AF105" s="36"/>
-      <c r="AG105" s="43"/>
-      <c r="AH105" s="43"/>
-      <c r="AI105" s="49"/>
+      <c r="AB105" s="26"/>
+      <c r="AC105" s="34"/>
+      <c r="AD105" s="35"/>
+      <c r="AE105" s="35"/>
+      <c r="AF105" s="35"/>
+      <c r="AG105" s="42"/>
+      <c r="AH105" s="42"/>
+      <c r="AI105" s="48"/>
     </row>
     <row r="106" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A106" s="55" t="s">
+      <c r="A106" s="53" t="s">
         <v>496</v>
       </c>
-      <c r="B106" s="56" t="s">
+      <c r="B106" s="54" t="s">
         <v>497</v>
       </c>
-      <c r="C106" s="57" t="s">
+      <c r="C106" s="55" t="s">
         <v>498</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="E106" s="54">
+      <c r="E106" s="20">
         <v>1</v>
       </c>
       <c r="F106" s="19">
@@ -11482,7 +11469,7 @@
       <c r="N106" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O106" s="22" t="s">
+      <c r="O106" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P106" s="19">
@@ -11497,31 +11484,31 @@
       <c r="U106" s="19"/>
       <c r="V106" s="19"/>
       <c r="W106" s="19"/>
-      <c r="X106" s="27"/>
-      <c r="Y106" s="30"/>
-      <c r="Z106" s="42"/>
+      <c r="X106" s="26"/>
+      <c r="Y106" s="29"/>
+      <c r="Z106" s="41"/>
       <c r="AA106" s="15"/>
-      <c r="AB106" s="27"/>
-      <c r="AC106" s="35"/>
-      <c r="AD106" s="36"/>
-      <c r="AE106" s="36"/>
-      <c r="AF106" s="36"/>
-      <c r="AG106" s="43"/>
-      <c r="AH106" s="43"/>
-      <c r="AI106" s="49"/>
+      <c r="AB106" s="26"/>
+      <c r="AC106" s="34"/>
+      <c r="AD106" s="35"/>
+      <c r="AE106" s="35"/>
+      <c r="AF106" s="35"/>
+      <c r="AG106" s="42"/>
+      <c r="AH106" s="42"/>
+      <c r="AI106" s="48"/>
     </row>
     <row r="107" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A107" s="55" t="s">
+      <c r="A107" s="53" t="s">
         <v>500</v>
       </c>
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="54" t="s">
         <v>501</v>
       </c>
-      <c r="C107" s="57" t="s">
+      <c r="C107" s="55" t="s">
         <v>502</v>
       </c>
       <c r="D107" s="18"/>
-      <c r="E107" s="54">
+      <c r="E107" s="20">
         <v>1</v>
       </c>
       <c r="F107" s="19">
@@ -11551,7 +11538,7 @@
       <c r="N107" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O107" s="22" t="s">
+      <c r="O107" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P107" s="19">
@@ -11566,27 +11553,27 @@
       <c r="U107" s="19"/>
       <c r="V107" s="19"/>
       <c r="W107" s="19"/>
-      <c r="X107" s="27"/>
-      <c r="Y107" s="30"/>
-      <c r="Z107" s="42"/>
+      <c r="X107" s="26"/>
+      <c r="Y107" s="29"/>
+      <c r="Z107" s="41"/>
       <c r="AA107" s="15"/>
-      <c r="AB107" s="27"/>
-      <c r="AC107" s="35"/>
-      <c r="AD107" s="36"/>
-      <c r="AE107" s="36"/>
-      <c r="AF107" s="36"/>
-      <c r="AG107" s="43"/>
-      <c r="AH107" s="43"/>
-      <c r="AI107" s="49"/>
+      <c r="AB107" s="26"/>
+      <c r="AC107" s="34"/>
+      <c r="AD107" s="35"/>
+      <c r="AE107" s="35"/>
+      <c r="AF107" s="35"/>
+      <c r="AG107" s="42"/>
+      <c r="AH107" s="42"/>
+      <c r="AI107" s="48"/>
     </row>
     <row r="108" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A108" s="51" t="s">
+      <c r="A108" s="50" t="s">
         <v>503</v>
       </c>
-      <c r="B108" s="58" t="s">
+      <c r="B108" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="C108" s="59" t="s">
+      <c r="C108" s="52" t="s">
         <v>505</v>
       </c>
       <c r="D108" s="18" t="s">
@@ -11622,7 +11609,7 @@
       <c r="N108" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O108" s="22" t="s">
+      <c r="O108" s="19" t="s">
         <v>507</v>
       </c>
       <c r="P108" s="19">
@@ -11637,29 +11624,29 @@
       <c r="U108" s="19"/>
       <c r="V108" s="19"/>
       <c r="W108" s="19"/>
-      <c r="X108" s="27"/>
-      <c r="Y108" s="30"/>
-      <c r="Z108" s="42"/>
+      <c r="X108" s="26"/>
+      <c r="Y108" s="29"/>
+      <c r="Z108" s="41"/>
       <c r="AA108" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="AB108" s="27"/>
-      <c r="AC108" s="35"/>
-      <c r="AD108" s="36"/>
-      <c r="AE108" s="36"/>
-      <c r="AF108" s="36"/>
-      <c r="AG108" s="43"/>
-      <c r="AH108" s="43"/>
-      <c r="AI108" s="49"/>
+      <c r="AB108" s="26"/>
+      <c r="AC108" s="34"/>
+      <c r="AD108" s="35"/>
+      <c r="AE108" s="35"/>
+      <c r="AF108" s="35"/>
+      <c r="AG108" s="42"/>
+      <c r="AH108" s="42"/>
+      <c r="AI108" s="48"/>
     </row>
     <row r="109" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A109" s="51" t="s">
+      <c r="A109" s="50" t="s">
         <v>509</v>
       </c>
-      <c r="B109" s="58" t="s">
+      <c r="B109" s="51" t="s">
         <v>510</v>
       </c>
-      <c r="C109" s="59" t="s">
+      <c r="C109" s="52" t="s">
         <v>511</v>
       </c>
       <c r="D109" s="18" t="s">
@@ -11695,7 +11682,7 @@
       <c r="N109" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O109" s="22" t="s">
+      <c r="O109" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P109" s="19">
@@ -11710,27 +11697,27 @@
       <c r="U109" s="19"/>
       <c r="V109" s="19"/>
       <c r="W109" s="19"/>
-      <c r="X109" s="27"/>
-      <c r="Y109" s="30"/>
-      <c r="Z109" s="42"/>
+      <c r="X109" s="26"/>
+      <c r="Y109" s="29"/>
+      <c r="Z109" s="41"/>
       <c r="AA109" s="15"/>
-      <c r="AB109" s="27"/>
-      <c r="AC109" s="35"/>
-      <c r="AD109" s="36"/>
-      <c r="AE109" s="36"/>
-      <c r="AF109" s="36"/>
-      <c r="AG109" s="43"/>
-      <c r="AH109" s="43"/>
-      <c r="AI109" s="49"/>
+      <c r="AB109" s="26"/>
+      <c r="AC109" s="34"/>
+      <c r="AD109" s="35"/>
+      <c r="AE109" s="35"/>
+      <c r="AF109" s="35"/>
+      <c r="AG109" s="42"/>
+      <c r="AH109" s="42"/>
+      <c r="AI109" s="48"/>
     </row>
     <row r="110" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A110" s="55" t="s">
+      <c r="A110" s="53" t="s">
         <v>513</v>
       </c>
-      <c r="B110" s="60" t="s">
+      <c r="B110" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="C110" s="61" t="s">
+      <c r="C110" s="55" t="s">
         <v>515</v>
       </c>
       <c r="D110" s="18" t="s">
@@ -11766,7 +11753,7 @@
       <c r="N110" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O110" s="22" t="s">
+      <c r="O110" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P110" s="19">
@@ -11781,27 +11768,27 @@
       <c r="U110" s="19"/>
       <c r="V110" s="19"/>
       <c r="W110" s="19"/>
-      <c r="X110" s="27"/>
-      <c r="Y110" s="30"/>
-      <c r="Z110" s="42"/>
+      <c r="X110" s="26"/>
+      <c r="Y110" s="29"/>
+      <c r="Z110" s="41"/>
       <c r="AA110" s="15"/>
-      <c r="AB110" s="27"/>
-      <c r="AC110" s="35"/>
-      <c r="AD110" s="36"/>
-      <c r="AE110" s="36"/>
-      <c r="AF110" s="36"/>
-      <c r="AG110" s="43"/>
-      <c r="AH110" s="43"/>
-      <c r="AI110" s="49"/>
+      <c r="AB110" s="26"/>
+      <c r="AC110" s="34"/>
+      <c r="AD110" s="35"/>
+      <c r="AE110" s="35"/>
+      <c r="AF110" s="35"/>
+      <c r="AG110" s="42"/>
+      <c r="AH110" s="42"/>
+      <c r="AI110" s="48"/>
     </row>
     <row r="111" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A111" s="62" t="s">
+      <c r="A111" s="56" t="s">
         <v>517</v>
       </c>
-      <c r="B111" s="63" t="s">
+      <c r="B111" s="57" t="s">
         <v>518</v>
       </c>
-      <c r="C111" s="64" t="s">
+      <c r="C111" s="58" t="s">
         <v>519</v>
       </c>
       <c r="D111" s="18" t="s">
@@ -11837,7 +11824,7 @@
       <c r="N111" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O111" s="22" t="s">
+      <c r="O111" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P111" s="19">
@@ -11847,36 +11834,40 @@
         <v>0</v>
       </c>
       <c r="R111" s="19"/>
-      <c r="S111" s="21"/>
-      <c r="T111" s="21"/>
+      <c r="S111" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="T111" s="21" t="s">
+        <v>522</v>
+      </c>
       <c r="U111" s="19"/>
       <c r="V111" s="19"/>
       <c r="W111" s="19"/>
-      <c r="X111" s="27"/>
-      <c r="Y111" s="30"/>
-      <c r="Z111" s="42"/>
+      <c r="X111" s="26"/>
+      <c r="Y111" s="29"/>
+      <c r="Z111" s="41"/>
       <c r="AA111" s="15"/>
-      <c r="AB111" s="27"/>
-      <c r="AC111" s="35"/>
-      <c r="AD111" s="36"/>
-      <c r="AE111" s="36"/>
-      <c r="AF111" s="36"/>
-      <c r="AG111" s="43"/>
-      <c r="AH111" s="43"/>
-      <c r="AI111" s="49"/>
+      <c r="AB111" s="26"/>
+      <c r="AC111" s="34"/>
+      <c r="AD111" s="35"/>
+      <c r="AE111" s="35"/>
+      <c r="AF111" s="35"/>
+      <c r="AG111" s="42"/>
+      <c r="AH111" s="42"/>
+      <c r="AI111" s="48"/>
     </row>
     <row r="112" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A112" s="55" t="s">
-        <v>521</v>
-      </c>
-      <c r="B112" s="60" t="s">
-        <v>522</v>
-      </c>
-      <c r="C112" s="61" t="s">
+      <c r="A112" s="53" t="s">
         <v>523</v>
       </c>
+      <c r="B112" s="54" t="s">
+        <v>524</v>
+      </c>
+      <c r="C112" s="55" t="s">
+        <v>525</v>
+      </c>
       <c r="D112" s="18" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E112" s="20">
         <v>2</v>
@@ -11908,7 +11899,7 @@
       <c r="N112" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O112" s="22" t="s">
+      <c r="O112" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P112" s="19">
@@ -11923,31 +11914,31 @@
       <c r="U112" s="19"/>
       <c r="V112" s="19"/>
       <c r="W112" s="19"/>
-      <c r="X112" s="27"/>
-      <c r="Y112" s="30"/>
-      <c r="Z112" s="42"/>
+      <c r="X112" s="26"/>
+      <c r="Y112" s="29"/>
+      <c r="Z112" s="41"/>
       <c r="AA112" s="15"/>
-      <c r="AB112" s="27"/>
-      <c r="AC112" s="35"/>
-      <c r="AD112" s="36"/>
-      <c r="AE112" s="36"/>
-      <c r="AF112" s="36"/>
-      <c r="AG112" s="43"/>
-      <c r="AH112" s="43"/>
-      <c r="AI112" s="49"/>
+      <c r="AB112" s="26"/>
+      <c r="AC112" s="34"/>
+      <c r="AD112" s="35"/>
+      <c r="AE112" s="35"/>
+      <c r="AF112" s="35"/>
+      <c r="AG112" s="42"/>
+      <c r="AH112" s="42"/>
+      <c r="AI112" s="48"/>
     </row>
     <row r="113" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A113" s="55" t="s">
-        <v>525</v>
-      </c>
-      <c r="B113" s="60" t="s">
-        <v>526</v>
-      </c>
-      <c r="C113" s="61" t="s">
+      <c r="A113" s="53" t="s">
         <v>527</v>
       </c>
+      <c r="B113" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="C113" s="55" t="s">
+        <v>529</v>
+      </c>
       <c r="D113" s="18" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E113" s="20">
         <v>2</v>
@@ -11979,7 +11970,7 @@
       <c r="N113" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O113" s="22" t="s">
+      <c r="O113" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P113" s="19">
@@ -11994,28 +11985,28 @@
       <c r="U113" s="19"/>
       <c r="V113" s="19"/>
       <c r="W113" s="19"/>
-      <c r="X113" s="27"/>
-      <c r="Y113" s="30"/>
-      <c r="Z113" s="42"/>
+      <c r="X113" s="26"/>
+      <c r="Y113" s="29"/>
+      <c r="Z113" s="41"/>
       <c r="AA113" s="15"/>
-      <c r="AB113" s="27"/>
-      <c r="AC113" s="35"/>
-      <c r="AD113" s="36"/>
-      <c r="AE113" s="36"/>
-      <c r="AF113" s="36"/>
-      <c r="AG113" s="43"/>
-      <c r="AH113" s="43"/>
-      <c r="AI113" s="49"/>
+      <c r="AB113" s="26"/>
+      <c r="AC113" s="34"/>
+      <c r="AD113" s="35"/>
+      <c r="AE113" s="35"/>
+      <c r="AF113" s="35"/>
+      <c r="AG113" s="42"/>
+      <c r="AH113" s="42"/>
+      <c r="AI113" s="48"/>
     </row>
     <row r="114" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A114" s="55" t="s">
-        <v>529</v>
-      </c>
-      <c r="B114" s="60" t="s">
-        <v>530</v>
-      </c>
-      <c r="C114" s="61" t="s">
+      <c r="A114" s="53" t="s">
         <v>531</v>
+      </c>
+      <c r="B114" s="54" t="s">
+        <v>532</v>
+      </c>
+      <c r="C114" s="55" t="s">
+        <v>533</v>
       </c>
       <c r="D114" s="18" t="s">
         <v>512</v>
@@ -12050,7 +12041,7 @@
       <c r="N114" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O114" s="22" t="s">
+      <c r="O114" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P114" s="19">
@@ -12065,31 +12056,31 @@
       <c r="U114" s="19"/>
       <c r="V114" s="19"/>
       <c r="W114" s="19"/>
-      <c r="X114" s="27"/>
-      <c r="Y114" s="30"/>
-      <c r="Z114" s="42"/>
+      <c r="X114" s="26"/>
+      <c r="Y114" s="29"/>
+      <c r="Z114" s="41"/>
       <c r="AA114" s="15"/>
-      <c r="AB114" s="27"/>
-      <c r="AC114" s="35"/>
-      <c r="AD114" s="36"/>
-      <c r="AE114" s="36"/>
-      <c r="AF114" s="36"/>
-      <c r="AG114" s="43"/>
-      <c r="AH114" s="43"/>
-      <c r="AI114" s="49"/>
+      <c r="AB114" s="26"/>
+      <c r="AC114" s="34"/>
+      <c r="AD114" s="35"/>
+      <c r="AE114" s="35"/>
+      <c r="AF114" s="35"/>
+      <c r="AG114" s="42"/>
+      <c r="AH114" s="42"/>
+      <c r="AI114" s="48"/>
     </row>
     <row r="115" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A115" s="55" t="s">
-        <v>532</v>
-      </c>
-      <c r="B115" s="60" t="s">
-        <v>533</v>
-      </c>
-      <c r="C115" s="61" t="s">
+      <c r="A115" s="53" t="s">
         <v>534</v>
       </c>
+      <c r="B115" s="54" t="s">
+        <v>535</v>
+      </c>
+      <c r="C115" s="55" t="s">
+        <v>536</v>
+      </c>
       <c r="D115" s="18" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E115" s="20">
         <v>2</v>
@@ -12121,7 +12112,7 @@
       <c r="N115" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O115" s="22" t="s">
+      <c r="O115" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P115" s="19">
@@ -12136,31 +12127,31 @@
       <c r="U115" s="19"/>
       <c r="V115" s="19"/>
       <c r="W115" s="19"/>
-      <c r="X115" s="27"/>
-      <c r="Y115" s="30"/>
-      <c r="Z115" s="42"/>
+      <c r="X115" s="26"/>
+      <c r="Y115" s="29"/>
+      <c r="Z115" s="41"/>
       <c r="AA115" s="15"/>
-      <c r="AB115" s="27"/>
-      <c r="AC115" s="35"/>
-      <c r="AD115" s="36"/>
-      <c r="AE115" s="36"/>
-      <c r="AF115" s="36"/>
-      <c r="AG115" s="43"/>
-      <c r="AH115" s="43"/>
-      <c r="AI115" s="49"/>
+      <c r="AB115" s="26"/>
+      <c r="AC115" s="34"/>
+      <c r="AD115" s="35"/>
+      <c r="AE115" s="35"/>
+      <c r="AF115" s="35"/>
+      <c r="AG115" s="42"/>
+      <c r="AH115" s="42"/>
+      <c r="AI115" s="48"/>
     </row>
     <row r="116" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A116" s="55" t="s">
-        <v>535</v>
-      </c>
-      <c r="B116" s="60" t="s">
-        <v>536</v>
-      </c>
-      <c r="C116" s="61" t="s">
+      <c r="A116" s="53" t="s">
         <v>537</v>
       </c>
+      <c r="B116" s="54" t="s">
+        <v>538</v>
+      </c>
+      <c r="C116" s="55" t="s">
+        <v>539</v>
+      </c>
       <c r="D116" s="18" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E116" s="20">
         <v>2</v>
@@ -12192,7 +12183,7 @@
       <c r="N116" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O116" s="22" t="s">
+      <c r="O116" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P116" s="19">
@@ -12207,31 +12198,31 @@
       <c r="U116" s="19"/>
       <c r="V116" s="19"/>
       <c r="W116" s="19"/>
-      <c r="X116" s="27"/>
-      <c r="Y116" s="30"/>
-      <c r="Z116" s="42"/>
+      <c r="X116" s="26"/>
+      <c r="Y116" s="29"/>
+      <c r="Z116" s="41"/>
       <c r="AA116" s="15"/>
-      <c r="AB116" s="27"/>
-      <c r="AC116" s="35"/>
-      <c r="AD116" s="36"/>
-      <c r="AE116" s="36"/>
-      <c r="AF116" s="36"/>
-      <c r="AG116" s="43"/>
-      <c r="AH116" s="43"/>
-      <c r="AI116" s="49"/>
+      <c r="AB116" s="26"/>
+      <c r="AC116" s="34"/>
+      <c r="AD116" s="35"/>
+      <c r="AE116" s="35"/>
+      <c r="AF116" s="35"/>
+      <c r="AG116" s="42"/>
+      <c r="AH116" s="42"/>
+      <c r="AI116" s="48"/>
     </row>
     <row r="117" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A117" s="55" t="s">
-        <v>539</v>
-      </c>
-      <c r="B117" s="60" t="s">
-        <v>540</v>
-      </c>
-      <c r="C117" s="61" t="s">
+      <c r="A117" s="53" t="s">
         <v>541</v>
       </c>
+      <c r="B117" s="54" t="s">
+        <v>542</v>
+      </c>
+      <c r="C117" s="55" t="s">
+        <v>543</v>
+      </c>
       <c r="D117" s="18" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E117" s="20">
         <v>2</v>
@@ -12263,7 +12254,7 @@
       <c r="N117" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O117" s="22" t="s">
+      <c r="O117" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P117" s="19">
@@ -12278,31 +12269,31 @@
       <c r="U117" s="19"/>
       <c r="V117" s="19"/>
       <c r="W117" s="19"/>
-      <c r="X117" s="27"/>
-      <c r="Y117" s="30"/>
-      <c r="Z117" s="42"/>
+      <c r="X117" s="26"/>
+      <c r="Y117" s="29"/>
+      <c r="Z117" s="41"/>
       <c r="AA117" s="15"/>
-      <c r="AB117" s="27"/>
-      <c r="AC117" s="35"/>
-      <c r="AD117" s="36"/>
-      <c r="AE117" s="36"/>
-      <c r="AF117" s="36"/>
-      <c r="AG117" s="43"/>
-      <c r="AH117" s="43"/>
-      <c r="AI117" s="49"/>
+      <c r="AB117" s="26"/>
+      <c r="AC117" s="34"/>
+      <c r="AD117" s="35"/>
+      <c r="AE117" s="35"/>
+      <c r="AF117" s="35"/>
+      <c r="AG117" s="42"/>
+      <c r="AH117" s="42"/>
+      <c r="AI117" s="48"/>
     </row>
     <row r="118" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A118" s="51" t="s">
-        <v>543</v>
-      </c>
-      <c r="B118" s="65" t="s">
-        <v>544</v>
-      </c>
-      <c r="C118" s="66" t="s">
+      <c r="A118" s="50" t="s">
         <v>545</v>
       </c>
+      <c r="B118" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="C118" s="60" t="s">
+        <v>547</v>
+      </c>
       <c r="D118" s="21" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E118" s="20">
         <v>2</v>
@@ -12334,8 +12325,8 @@
       <c r="N118" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O118" s="22" t="s">
-        <v>547</v>
+      <c r="O118" s="19" t="s">
+        <v>549</v>
       </c>
       <c r="P118" s="19">
         <v>0</v>
@@ -12349,35 +12340,35 @@
       <c r="U118" s="19"/>
       <c r="V118" s="19"/>
       <c r="W118" s="19"/>
-      <c r="X118" s="27"/>
-      <c r="Y118" s="30"/>
-      <c r="Z118" s="42"/>
+      <c r="X118" s="26"/>
+      <c r="Y118" s="29"/>
+      <c r="Z118" s="41"/>
       <c r="AA118" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="AB118" s="27" t="s">
-        <v>549</v>
-      </c>
-      <c r="AC118" s="35"/>
-      <c r="AD118" s="36"/>
-      <c r="AE118" s="36"/>
-      <c r="AF118" s="36"/>
-      <c r="AG118" s="43"/>
-      <c r="AH118" s="43"/>
-      <c r="AI118" s="49"/>
+        <v>550</v>
+      </c>
+      <c r="AB118" s="26" t="s">
+        <v>551</v>
+      </c>
+      <c r="AC118" s="34"/>
+      <c r="AD118" s="35"/>
+      <c r="AE118" s="35"/>
+      <c r="AF118" s="35"/>
+      <c r="AG118" s="42"/>
+      <c r="AH118" s="42"/>
+      <c r="AI118" s="48"/>
     </row>
     <row r="119" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A119" s="55" t="s">
-        <v>550</v>
-      </c>
-      <c r="B119" s="67" t="s">
-        <v>551</v>
-      </c>
-      <c r="C119" s="68" t="s">
+      <c r="A119" s="53" t="s">
         <v>552</v>
       </c>
+      <c r="B119" s="61" t="s">
+        <v>553</v>
+      </c>
+      <c r="C119" s="62" t="s">
+        <v>554</v>
+      </c>
       <c r="D119" s="21" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E119" s="20">
         <v>2</v>
@@ -12409,7 +12400,7 @@
       <c r="N119" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="O119" s="22" t="s">
+      <c r="O119" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P119" s="19">
@@ -12424,89 +12415,89 @@
       <c r="U119" s="19"/>
       <c r="V119" s="19"/>
       <c r="W119" s="19"/>
-      <c r="X119" s="27"/>
-      <c r="Y119" s="30"/>
-      <c r="Z119" s="42"/>
+      <c r="X119" s="26"/>
+      <c r="Y119" s="29"/>
+      <c r="Z119" s="41"/>
       <c r="AA119" s="15"/>
-      <c r="AB119" s="27"/>
-      <c r="AC119" s="35"/>
-      <c r="AD119" s="36"/>
-      <c r="AE119" s="36"/>
-      <c r="AF119" s="36"/>
-      <c r="AG119" s="43"/>
-      <c r="AH119" s="43"/>
-      <c r="AI119" s="49"/>
+      <c r="AB119" s="26"/>
+      <c r="AC119" s="34"/>
+      <c r="AD119" s="35"/>
+      <c r="AE119" s="35"/>
+      <c r="AF119" s="35"/>
+      <c r="AG119" s="42"/>
+      <c r="AH119" s="42"/>
+      <c r="AI119" s="48"/>
     </row>
     <row r="120" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A120" s="69" t="s">
-        <v>554</v>
-      </c>
-      <c r="B120" s="70" t="s">
-        <v>555</v>
-      </c>
-      <c r="C120" s="71" t="s">
+      <c r="A120" s="63" t="s">
         <v>556</v>
       </c>
-      <c r="D120" s="72" t="s">
+      <c r="B120" s="64" t="s">
         <v>557</v>
       </c>
-      <c r="E120" s="73">
+      <c r="C120" s="65" t="s">
+        <v>558</v>
+      </c>
+      <c r="D120" s="66" t="s">
+        <v>559</v>
+      </c>
+      <c r="E120" s="67">
         <v>2</v>
       </c>
       <c r="F120" s="19">
         <v>0</v>
       </c>
-      <c r="G120" s="74">
+      <c r="G120" s="68">
         <v>101</v>
       </c>
-      <c r="H120" s="74">
+      <c r="H120" s="68">
         <v>60</v>
       </c>
-      <c r="I120" s="74">
-        <v>1</v>
-      </c>
-      <c r="J120" s="74">
-        <v>1</v>
-      </c>
-      <c r="K120" s="74">
-        <v>1</v>
-      </c>
-      <c r="L120" s="74" t="s">
+      <c r="I120" s="68">
+        <v>1</v>
+      </c>
+      <c r="J120" s="68">
+        <v>1</v>
+      </c>
+      <c r="K120" s="68">
+        <v>1</v>
+      </c>
+      <c r="L120" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="M120" s="74" t="s">
+      <c r="M120" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="N120" s="74" t="s">
+      <c r="N120" s="68" t="s">
         <v>331</v>
       </c>
-      <c r="O120" s="22" t="s">
+      <c r="O120" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="P120" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="74">
-        <v>0</v>
-      </c>
-      <c r="R120" s="74"/>
-      <c r="S120" s="72"/>
-      <c r="T120" s="72"/>
-      <c r="U120" s="74"/>
-      <c r="V120" s="74"/>
-      <c r="W120" s="74"/>
-      <c r="X120" s="75"/>
-      <c r="Y120" s="30"/>
-      <c r="Z120" s="42"/>
-      <c r="AA120" s="78"/>
-      <c r="AB120" s="75"/>
-      <c r="AC120" s="35"/>
-      <c r="AD120" s="36"/>
-      <c r="AE120" s="36"/>
-      <c r="AF120" s="36"/>
-      <c r="AG120" s="43"/>
-      <c r="AH120" s="43"/>
-      <c r="AI120" s="49"/>
+      <c r="P120" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="68">
+        <v>0</v>
+      </c>
+      <c r="R120" s="68"/>
+      <c r="S120" s="66"/>
+      <c r="T120" s="66"/>
+      <c r="U120" s="68"/>
+      <c r="V120" s="68"/>
+      <c r="W120" s="68"/>
+      <c r="X120" s="69"/>
+      <c r="Y120" s="29"/>
+      <c r="Z120" s="41"/>
+      <c r="AA120" s="72"/>
+      <c r="AB120" s="69"/>
+      <c r="AC120" s="34"/>
+      <c r="AD120" s="35"/>
+      <c r="AE120" s="35"/>
+      <c r="AF120" s="35"/>
+      <c r="AG120" s="42"/>
+      <c r="AH120" s="42"/>
+      <c r="AI120" s="48"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI120" etc:filterBottomFollowUsedRange="0">

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="rune_config" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="577">
   <si>
     <t>名字</t>
   </si>
@@ -1521,6 +1521,9 @@
 2.向上取整</t>
   </si>
   <si>
+    <t>value 1</t>
+  </si>
+  <si>
     <t>rune_102</t>
   </si>
   <si>
@@ -1566,6 +1569,9 @@
     <t>恢复生命</t>
   </si>
   <si>
+    <t>ratio 1</t>
+  </si>
+  <si>
     <t>rune_105</t>
   </si>
   <si>
@@ -1575,6 +1581,9 @@
     <t>击杀敌人时，会额外获得3点灵魂</t>
   </si>
   <si>
+    <t>bonus 3</t>
+  </si>
+  <si>
     <t>rune_106</t>
   </si>
   <si>
@@ -1615,6 +1624,9 @@
   </si>
   <si>
     <t>最终结算，最终伤害+100%，伤害减免+50%</t>
+  </si>
+  <si>
+    <t>dmg_reduction 50</t>
   </si>
   <si>
     <t>rune_109</t>
@@ -1636,7 +1648,7 @@
   </si>
   <si>
     <t>MaxHealth {
-"BasePercent" "-40"
+"MulRegion" "-40"
 }</t>
   </si>
   <si>
@@ -1652,6 +1664,14 @@
     <t>先计算减少60%的最大生命值，后根据当前最大生命值计算每秒恢复50%最大生命值</t>
   </si>
   <si>
+    <t>MaxHealth {
+"MulRegion" "-60"
+}</t>
+  </si>
+  <si>
+    <t>heal_pct 50</t>
+  </si>
+  <si>
     <t>rune_111</t>
   </si>
   <si>
@@ -1664,6 +1684,17 @@
     <t>基础速度</t>
   </si>
   <si>
+    <t>MoveSpeed {
+    "BasePercent" "-15"
+  }</t>
+  </si>
+  <si>
+    <t>ever_distance 3000</t>
+  </si>
+  <si>
+    <t>ms_pct 1</t>
+  </si>
+  <si>
     <t>rune_112</t>
   </si>
   <si>
@@ -1673,6 +1704,11 @@
     <t>最大生命值降低20%，每存活一波，下一波开局提高3%最大生命值</t>
   </si>
   <si>
+    <t>MaxHealth {
+"MulRegion" "-20"
+}</t>
+  </si>
+  <si>
     <t>rune_113</t>
   </si>
   <si>
@@ -1694,6 +1730,15 @@
     <t>每次波动之后效果持续15秒，下一个15秒切换</t>
   </si>
   <si>
+    <t>min -50</t>
+  </si>
+  <si>
+    <t>max 125</t>
+  </si>
+  <si>
+    <t>interval 15</t>
+  </si>
+  <si>
     <t>rune_115</t>
   </si>
   <si>
@@ -1704,6 +1749,12 @@
   </si>
   <si>
     <t>精英怪=1，boss=1</t>
+  </si>
+  <si>
+    <t>ever_kills 50</t>
+  </si>
+  <si>
+    <t>haste 1</t>
   </si>
   <si>
     <t>rune_116</t>
@@ -1738,6 +1789,12 @@
   </si>
   <si>
     <t>每秒扣蓝可以和其他扣蓝叠加，真实伤害=无视护甲魔抗和任意抗性</t>
+  </si>
+  <si>
+    <t>radius 500</t>
+  </si>
+  <si>
+    <t>ratio 1000</t>
   </si>
   <si>
     <t>rune_118</t>
@@ -3557,12 +3614,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C6431460-3F36-4D71-B265-E369767C8208}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3282DF3A-51F7-4CB6-A061-FD8F2124057A}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{FE6A1F9F-C118-4A00-8E09-31CF9D530C77}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BEE0C5CE-50CA-4550-BFF9-A448CC0DBBEC}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -3574,7 +3631,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{90CFE99E-AFEF-4197-8CC9-D48963DEFD12}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{BC28858B-1C9F-42EC-AD9D-3C66B5D1A823}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3890,10 +3947,10 @@
   <sheetPr/>
   <dimension ref="A1:AI120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A98" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A106" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D111" sqref="D111"/>
+      <selection pane="topRight" activeCell="S119" sqref="S119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3920,7 +3977,8 @@
     <col min="26" max="26" width="5.625" customWidth="1"/>
     <col min="27" max="27" width="28.3416666666667" customWidth="1"/>
     <col min="28" max="28" width="23.5083333333333" customWidth="1"/>
-    <col min="29" max="35" width="5.625" customWidth="1"/>
+    <col min="29" max="29" width="15.3166666666667" customWidth="1"/>
+    <col min="30" max="35" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="48.5" customHeight="1" spans="1:35">
@@ -11209,7 +11267,7 @@
       <c r="AH102" s="42"/>
       <c r="AI102" s="48"/>
     </row>
-    <row r="103" ht="30.5" customHeight="1" spans="1:35">
+    <row r="103" ht="33" spans="1:35">
       <c r="A103" s="53" t="s">
         <v>481</v>
       </c>
@@ -11270,7 +11328,9 @@
       <c r="X103" s="26"/>
       <c r="Y103" s="29"/>
       <c r="Z103" s="41"/>
-      <c r="AA103" s="15"/>
+      <c r="AA103" s="15" t="s">
+        <v>485</v>
+      </c>
       <c r="AB103" s="26"/>
       <c r="AC103" s="34"/>
       <c r="AD103" s="35"/>
@@ -11282,16 +11342,16 @@
     </row>
     <row r="104" ht="30.5" customHeight="1" spans="1:35">
       <c r="A104" s="50" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B104" s="51" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C104" s="52" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E104" s="20">
         <v>1</v>
@@ -11324,7 +11384,7 @@
         <v>331</v>
       </c>
       <c r="O104" s="19" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P104" s="19">
         <v>0</v>
@@ -11342,7 +11402,7 @@
       <c r="Y104" s="29"/>
       <c r="Z104" s="41"/>
       <c r="AA104" s="15" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AB104" s="26"/>
       <c r="AC104" s="34"/>
@@ -11355,16 +11415,16 @@
     </row>
     <row r="105" ht="30.5" customHeight="1" spans="1:35">
       <c r="A105" s="50" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B105" s="51" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C105" s="52" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E105" s="20">
         <v>1</v>
@@ -11415,7 +11475,7 @@
       <c r="Y105" s="29"/>
       <c r="Z105" s="41"/>
       <c r="AA105" s="15" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AB105" s="26"/>
       <c r="AC105" s="34"/>
@@ -11428,16 +11488,16 @@
     </row>
     <row r="106" ht="30.5" customHeight="1" spans="1:35">
       <c r="A106" s="53" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B106" s="54" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C106" s="55" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E106" s="20">
         <v>1</v>
@@ -11487,7 +11547,9 @@
       <c r="X106" s="26"/>
       <c r="Y106" s="29"/>
       <c r="Z106" s="41"/>
-      <c r="AA106" s="15"/>
+      <c r="AA106" s="15" t="s">
+        <v>501</v>
+      </c>
       <c r="AB106" s="26"/>
       <c r="AC106" s="34"/>
       <c r="AD106" s="35"/>
@@ -11499,13 +11561,13 @@
     </row>
     <row r="107" ht="30.5" customHeight="1" spans="1:35">
       <c r="A107" s="53" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B107" s="54" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="20">
@@ -11556,7 +11618,9 @@
       <c r="X107" s="26"/>
       <c r="Y107" s="29"/>
       <c r="Z107" s="41"/>
-      <c r="AA107" s="15"/>
+      <c r="AA107" s="15" t="s">
+        <v>505</v>
+      </c>
       <c r="AB107" s="26"/>
       <c r="AC107" s="34"/>
       <c r="AD107" s="35"/>
@@ -11568,16 +11632,16 @@
     </row>
     <row r="108" ht="30.5" customHeight="1" spans="1:35">
       <c r="A108" s="50" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B108" s="51" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C108" s="52" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E108" s="20">
         <v>1</v>
@@ -11610,7 +11674,7 @@
         <v>331</v>
       </c>
       <c r="O108" s="19" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="P108" s="19">
         <v>0</v>
@@ -11628,7 +11692,7 @@
       <c r="Y108" s="29"/>
       <c r="Z108" s="41"/>
       <c r="AA108" s="15" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="AB108" s="26"/>
       <c r="AC108" s="34"/>
@@ -11641,16 +11705,16 @@
     </row>
     <row r="109" ht="30.5" customHeight="1" spans="1:35">
       <c r="A109" s="50" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B109" s="51" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C109" s="52" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E109" s="20">
         <v>1</v>
@@ -11712,16 +11776,16 @@
     </row>
     <row r="110" ht="30.5" customHeight="1" spans="1:35">
       <c r="A110" s="53" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B110" s="54" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C110" s="55" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E110" s="20">
         <v>1</v>
@@ -11771,8 +11835,12 @@
       <c r="X110" s="26"/>
       <c r="Y110" s="29"/>
       <c r="Z110" s="41"/>
-      <c r="AA110" s="15"/>
-      <c r="AB110" s="26"/>
+      <c r="AA110" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB110" s="26" t="s">
+        <v>520</v>
+      </c>
       <c r="AC110" s="34"/>
       <c r="AD110" s="35"/>
       <c r="AE110" s="35"/>
@@ -11781,18 +11849,18 @@
       <c r="AH110" s="42"/>
       <c r="AI110" s="48"/>
     </row>
-    <row r="111" ht="30.5" customHeight="1" spans="1:35">
+    <row r="111" ht="49.5" spans="1:35">
       <c r="A111" s="56" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E111" s="20">
         <v>2</v>
@@ -11835,10 +11903,10 @@
       </c>
       <c r="R111" s="19"/>
       <c r="S111" s="21" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="T111" s="21" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="U111" s="19"/>
       <c r="V111" s="19"/>
@@ -11856,18 +11924,18 @@
       <c r="AH111" s="42"/>
       <c r="AI111" s="48"/>
     </row>
-    <row r="112" ht="30.5" customHeight="1" spans="1:35">
+    <row r="112" ht="49.5" spans="1:35">
       <c r="A112" s="53" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B112" s="54" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C112" s="55" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E112" s="20">
         <v>2</v>
@@ -11910,14 +11978,18 @@
       </c>
       <c r="R112" s="19"/>
       <c r="S112" s="21"/>
-      <c r="T112" s="21"/>
+      <c r="T112" s="21" t="s">
+        <v>531</v>
+      </c>
       <c r="U112" s="19"/>
       <c r="V112" s="19"/>
       <c r="W112" s="19"/>
       <c r="X112" s="26"/>
       <c r="Y112" s="29"/>
       <c r="Z112" s="41"/>
-      <c r="AA112" s="15"/>
+      <c r="AA112" s="15" t="s">
+        <v>532</v>
+      </c>
       <c r="AB112" s="26"/>
       <c r="AC112" s="34"/>
       <c r="AD112" s="35"/>
@@ -11927,18 +11999,18 @@
       <c r="AH112" s="42"/>
       <c r="AI112" s="48"/>
     </row>
-    <row r="113" ht="30.5" customHeight="1" spans="1:35">
+    <row r="113" ht="49.5" spans="1:35">
       <c r="A113" s="53" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B113" s="54" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C113" s="55" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="E113" s="20">
         <v>2</v>
@@ -11980,7 +12052,9 @@
         <v>0</v>
       </c>
       <c r="R113" s="19"/>
-      <c r="S113" s="21"/>
+      <c r="S113" s="21" t="s">
+        <v>537</v>
+      </c>
       <c r="T113" s="21"/>
       <c r="U113" s="19"/>
       <c r="V113" s="19"/>
@@ -11988,8 +12062,12 @@
       <c r="X113" s="26"/>
       <c r="Y113" s="29"/>
       <c r="Z113" s="41"/>
-      <c r="AA113" s="15"/>
-      <c r="AB113" s="26"/>
+      <c r="AA113" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB113" s="26" t="s">
+        <v>539</v>
+      </c>
       <c r="AC113" s="34"/>
       <c r="AD113" s="35"/>
       <c r="AE113" s="35"/>
@@ -11998,18 +12076,18 @@
       <c r="AH113" s="42"/>
       <c r="AI113" s="48"/>
     </row>
-    <row r="114" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A114" s="53" t="s">
-        <v>531</v>
-      </c>
-      <c r="B114" s="54" t="s">
-        <v>532</v>
-      </c>
-      <c r="C114" s="55" t="s">
-        <v>533</v>
+    <row r="114" ht="49.5" spans="1:35">
+      <c r="A114" s="50" t="s">
+        <v>540</v>
+      </c>
+      <c r="B114" s="51" t="s">
+        <v>541</v>
+      </c>
+      <c r="C114" s="52" t="s">
+        <v>542</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E114" s="20">
         <v>2</v>
@@ -12052,7 +12130,9 @@
       </c>
       <c r="R114" s="19"/>
       <c r="S114" s="21"/>
-      <c r="T114" s="21"/>
+      <c r="T114" s="21" t="s">
+        <v>543</v>
+      </c>
       <c r="U114" s="19"/>
       <c r="V114" s="19"/>
       <c r="W114" s="19"/>
@@ -12070,17 +12150,17 @@
       <c r="AI114" s="48"/>
     </row>
     <row r="115" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A115" s="53" t="s">
-        <v>534</v>
-      </c>
-      <c r="B115" s="54" t="s">
-        <v>535</v>
-      </c>
-      <c r="C115" s="55" t="s">
+      <c r="A115" s="50" t="s">
+        <v>544</v>
+      </c>
+      <c r="B115" s="51" t="s">
+        <v>545</v>
+      </c>
+      <c r="C115" s="52" t="s">
+        <v>546</v>
+      </c>
+      <c r="D115" s="18" t="s">
         <v>536</v>
-      </c>
-      <c r="D115" s="18" t="s">
-        <v>530</v>
       </c>
       <c r="E115" s="20">
         <v>2</v>
@@ -12142,16 +12222,16 @@
     </row>
     <row r="116" ht="30.5" customHeight="1" spans="1:35">
       <c r="A116" s="53" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B116" s="54" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="C116" s="55" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="E116" s="20">
         <v>2</v>
@@ -12201,9 +12281,15 @@
       <c r="X116" s="26"/>
       <c r="Y116" s="29"/>
       <c r="Z116" s="41"/>
-      <c r="AA116" s="15"/>
-      <c r="AB116" s="26"/>
-      <c r="AC116" s="34"/>
+      <c r="AA116" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="AB116" s="26" t="s">
+        <v>552</v>
+      </c>
+      <c r="AC116" s="34" t="s">
+        <v>553</v>
+      </c>
       <c r="AD116" s="35"/>
       <c r="AE116" s="35"/>
       <c r="AF116" s="35"/>
@@ -12213,16 +12299,16 @@
     </row>
     <row r="117" ht="30.5" customHeight="1" spans="1:35">
       <c r="A117" s="53" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="B117" s="54" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="C117" s="55" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="E117" s="20">
         <v>2</v>
@@ -12272,8 +12358,12 @@
       <c r="X117" s="26"/>
       <c r="Y117" s="29"/>
       <c r="Z117" s="41"/>
-      <c r="AA117" s="15"/>
-      <c r="AB117" s="26"/>
+      <c r="AA117" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="AB117" s="26" t="s">
+        <v>559</v>
+      </c>
       <c r="AC117" s="34"/>
       <c r="AD117" s="35"/>
       <c r="AE117" s="35"/>
@@ -12284,16 +12374,16 @@
     </row>
     <row r="118" ht="30.5" customHeight="1" spans="1:35">
       <c r="A118" s="50" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="B118" s="59" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="C118" s="60" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="E118" s="20">
         <v>2</v>
@@ -12326,7 +12416,7 @@
         <v>331</v>
       </c>
       <c r="O118" s="19" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="P118" s="19">
         <v>0</v>
@@ -12344,10 +12434,10 @@
       <c r="Y118" s="29"/>
       <c r="Z118" s="41"/>
       <c r="AA118" s="15" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="AB118" s="26" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="AC118" s="34"/>
       <c r="AD118" s="35"/>
@@ -12357,18 +12447,18 @@
       <c r="AH118" s="42"/>
       <c r="AI118" s="48"/>
     </row>
-    <row r="119" ht="30.5" customHeight="1" spans="1:35">
+    <row r="119" ht="49.5" spans="1:35">
       <c r="A119" s="53" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="B119" s="61" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="C119" s="62" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="E119" s="20">
         <v>2</v>
@@ -12410,7 +12500,9 @@
         <v>0</v>
       </c>
       <c r="R119" s="19"/>
-      <c r="S119" s="21"/>
+      <c r="S119" s="21" t="s">
+        <v>145</v>
+      </c>
       <c r="T119" s="21"/>
       <c r="U119" s="19"/>
       <c r="V119" s="19"/>
@@ -12418,8 +12510,12 @@
       <c r="X119" s="26"/>
       <c r="Y119" s="29"/>
       <c r="Z119" s="41"/>
-      <c r="AA119" s="15"/>
-      <c r="AB119" s="26"/>
+      <c r="AA119" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="AB119" s="26" t="s">
+        <v>572</v>
+      </c>
       <c r="AC119" s="34"/>
       <c r="AD119" s="35"/>
       <c r="AE119" s="35"/>
@@ -12430,16 +12526,16 @@
     </row>
     <row r="120" ht="30.5" customHeight="1" spans="1:35">
       <c r="A120" s="63" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="B120" s="64" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="C120" s="65" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="D120" s="66" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="E120" s="67">
         <v>2</v>
@@ -12504,7 +12600,7 @@
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="L11">
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12516,6 +12612,124 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E$1:E$1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H$1:H$1048576">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I$1:I$1048576">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J$1:J$1048576">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K$1:K$1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L5">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:L19">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M10">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:M19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -12527,114 +12741,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H$1:H$1048576">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I$1:I$1048576">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J$1:J$1048576">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K$1:K$1048576">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L5">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13:L19">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M10">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13:M19">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L1:M2 L121:M1048576">
-    <cfRule type="colorScale" priority="103">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12646,7 +12754,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L10 L12 L28:M120 L20:L27">
-    <cfRule type="colorScale" priority="100">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12658,7 +12766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20:M27 M12">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="rune_config" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="580">
   <si>
     <t>名字</t>
   </si>
@@ -186,7 +186,18 @@
     <t>锁技</t>
   </si>
   <si>
-    <t>每拥有一个未分配的技能点都会提供%value%%%的伤害加成</t>
+    <r>
+      <t>每拥有一个未分配的技能点都会提供%value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>技能点变更时</t>
@@ -204,7 +215,18 @@
     <t>基础提高</t>
   </si>
   <si>
-    <t>基础技能造成的伤害提高%BasicAbilityDmg.Base%%%</t>
+    <r>
+      <t>基础技能提高%BasicAbilityDmg.Base%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>item_rune/基础提高I_II_III</t>
@@ -224,7 +246,18 @@
     <t>蓝量转换</t>
   </si>
   <si>
-    <t>所有耗蓝型技能基于消耗的蓝量提升伤害，每消耗最大蓝量的1%，提高伤害%value%%%</t>
+    <r>
+      <t>所有耗蓝型技能基于消耗的蓝量提升伤害，每消耗最大蓝量的1%，提高%value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>根据当前消耗的蓝量获得伤害</t>
@@ -242,7 +275,7 @@
     <t>唯快不破</t>
   </si>
   <si>
-    <t>攻击速度提高%AttackSpeed.Base%</t>
+    <t>提高%AttackSpeed.Base%攻击速度</t>
   </si>
   <si>
     <t>item_rune/唯快不破I_II_III</t>
@@ -259,7 +292,18 @@
     <t>免伤</t>
   </si>
   <si>
-    <t>获得%DmgReductionPct.Base%%%伤害减免</t>
+    <r>
+      <t>获得%DmgReductionPct.Base%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害减免</t>
+    </r>
   </si>
   <si>
     <t>item_rune/免伤I_II_III</t>
@@ -293,7 +337,7 @@
     <t>甲叠甲</t>
   </si>
   <si>
-    <t>使用技能之后，护甲提高%armor_pct%%%，持续%duration%秒，可叠加%max_stack%层</t>
+    <t>使用技能之后，提高%armor_pct%%%的护甲，持续%duration%秒，可叠加%max_stack%层</t>
   </si>
   <si>
     <t>使用技能时</t>
@@ -317,7 +361,7 @@
     <t>快跑</t>
   </si>
   <si>
-    <t>移速提高%movespeed%%%，受到伤害后失去该效果8秒</t>
+    <t>提高%movespeed%%%的移动速度，受到伤害后失去该效果8秒</t>
   </si>
   <si>
     <t>收到伤害</t>
@@ -349,7 +393,7 @@
     <t>展示容错</t>
   </si>
   <si>
-    <t>每损失%ever_hp_pct%%生命值，提高%ms_pct%%%移动速度</t>
+    <t>每损失%ever_hp_pct%%生命值，提高%ms_pct%%%的移动速度</t>
   </si>
   <si>
     <t>周期</t>
@@ -370,7 +414,27 @@
     <t>杀手快感</t>
   </si>
   <si>
-    <t>击杀敌人时有%chance%%%概率获得%bp_ingame%%%伤害加成，持续5秒，最高%max_stack%层</t>
+    <r>
+      <t>击杀敌人时有%chance%%%概率获得%bp_ingame%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，持续5秒，最高%max_stack%层</t>
+    </r>
   </si>
   <si>
     <t>击杀</t>
@@ -394,7 +458,27 @@
     <t>伤害代价</t>
   </si>
   <si>
-    <t>获得%DamageBonusMul.Base%%%伤害加成，作为代价，在生命值高于%last_hp_pct%%%时，每秒扣除%deduct_hp_pct%%%最大生命值</t>
+    <r>
+      <t>获得%DamageBonusMul.Base%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，作为代价，在生命值高于%last_hp_pct%%%时，每秒扣除%deduct_hp_pct%%%最大生命值</t>
+    </r>
   </si>
   <si>
     <t>6|6</t>
@@ -423,7 +507,7 @@
     <t>冷却代价</t>
   </si>
   <si>
-    <t>获得%AbilityCooldown.Base%%%技能冷却缩减，但是技能消耗蓝量翻倍</t>
+    <t>获得%AbilityCooldown.Base%%%的技能冷却缩减，但是技能消耗蓝量翻倍</t>
   </si>
   <si>
     <t>item_rune/冷却代价</t>
@@ -445,7 +529,18 @@
     <t>神圣提升</t>
   </si>
   <si>
-    <t>来自于神圣装备的技能造成的伤害提高%SacredEquipSkillDmg%%%</t>
+    <r>
+      <t>来自于神圣装备的技能获得%SacredEquipSkillDmg%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>直接修改</t>
@@ -483,7 +578,18 @@
     <t>法力盈能</t>
   </si>
   <si>
-    <t>每秒会降低5点蓝量，但是蓝量大于%last_mana_pct%%%时，所有技能伤害提高%bp_ingame%%%</t>
+    <r>
+      <t>每秒会降低5点蓝量，但是蓝量大于%last_mana_pct%%%时，获得%bp_ingame%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能增强</t>
+    </r>
   </si>
   <si>
     <t>item_rune/法力盈能</t>
@@ -524,7 +630,27 @@
     <t>刀尖舔血</t>
   </si>
   <si>
-    <t>获得%DamageBonusMul.Base%%%伤害加成，但受到的伤害也会提高%DmgReductionPct.Base%%%</t>
+    <r>
+      <t>获得%DamageBonusMul.Base%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，但受到的伤害也会提高%DmgReductionPct.Base%%%</t>
+    </r>
   </si>
   <si>
     <t>item_rune/刀尖舔血I_II_III</t>
@@ -563,7 +689,7 @@
     <t>眼疾手快</t>
   </si>
   <si>
-    <t>自身500范围内每存在一个敌军，提高自身%StackAttackSpeed%攻击速度,最高提升%MaxValue%
+    <t>自身500范围内每存在一个敌军，提高自身%StackAttackSpeed%的攻击速度,最高提升%MaxValue%
 boss单位视为15个敌军</t>
   </si>
   <si>
@@ -597,7 +723,7 @@
     <t>蓝量减伤</t>
   </si>
   <si>
-    <t>最大蓝量值蓝量大于100时，每高1点着获得1%伤害减免，最高可获得%dmg_reduction_limit%%%伤害减免</t>
+    <t>最大蓝量值蓝量大于100时，每高1点获得1%伤害减免，最高可获得%dmg_reduction_limit%%%的伤害减免</t>
   </si>
   <si>
     <t>item_rune/蓝量减伤</t>
@@ -618,7 +744,18 @@
     <t>越挫越勇</t>
   </si>
   <si>
-    <t>每损失%ever_hp_pct%%%生命值，提高%ever_dmg_bonus%%%伤害加成</t>
+    <r>
+      <t>每损失%ever_hp_pct%%%生命值，提高%ever_dmg_bonus%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>item_rune/越挫越勇I_II_III</t>
@@ -633,7 +770,7 @@
     <t>独行侠</t>
   </si>
   <si>
-    <t>自身%range_check%码以内没有敌人时，暴击概率提高%crit_chance%%%</t>
+    <t>自身%range_check%码以内没有敌人时，提高%crit_chance%%%的暴击概率</t>
   </si>
   <si>
     <t>item_rune/独行侠I_II_III</t>
@@ -668,7 +805,18 @@
     <t>游侠#1</t>
   </si>
   <si>
-    <t>爆炸箭对生命值高于%hp_pct%%%的敌人伤害提高%bonus_value%%%</t>
+    <r>
+      <t>爆炸箭对生命值高于%hp_pct%%%的敌人提高%bonus_value%%%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
   </si>
   <si>
     <t>1|1</t>
@@ -689,7 +837,7 @@
     <t>游侠#2</t>
   </si>
   <si>
-    <t>爆裂箭【浓缩】的触发概率提高至%mul_chance%%%，伤害提高%mul_value%倍</t>
+    <t>爆裂箭【浓缩】的触发概率提高至%mul_chance%%%，伤害倍率提高%mul_value%倍</t>
   </si>
   <si>
     <t>hero/drow/浓缩</t>
@@ -707,7 +855,27 @@
     <t>游侠#3</t>
   </si>
   <si>
-    <t>穿透箭基础伤害提高200%</t>
+    <r>
+      <t>穿透箭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高200%</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/穿透箭</t>
@@ -737,7 +905,27 @@
     <t>游侠#5</t>
   </si>
   <si>
-    <t>分裂箭的基础伤害提高200%</t>
+    <r>
+      <t>分裂箭的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高200%</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/分裂箭2</t>
@@ -749,7 +937,18 @@
     <t>游侠#6</t>
   </si>
   <si>
-    <t>分裂箭对减速的敌人造成的伤害提高200%</t>
+    <r>
+      <t>分裂箭对减速的敌人提高200%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/分裂箭</t>
@@ -764,7 +963,27 @@
     <t>游侠#7</t>
   </si>
   <si>
-    <t>连续射击的基础伤害提高200%</t>
+    <r>
+      <t>连续射击的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高200%</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/连续射击</t>
@@ -776,7 +995,7 @@
     <t>游侠#8</t>
   </si>
   <si>
-    <t>连续射击【击破】最大层数提高至30层</t>
+    <t>连续射击【击破】最大层数提高20层</t>
   </si>
   <si>
     <t>hero/drow/击破</t>
@@ -791,7 +1010,27 @@
     <t>游侠#9</t>
   </si>
   <si>
-    <t>连续射击【冰爆】的伤害提升至500%</t>
+    <r>
+      <t>连续射击【冰爆】的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高250%</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/冰爆</t>
@@ -818,7 +1057,27 @@
     <t>游侠#11</t>
   </si>
   <si>
-    <t>散射的基础伤害提高200%</t>
+    <r>
+      <t>散射的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高200%</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/散射</t>
@@ -830,7 +1089,18 @@
     <t>游侠#12</t>
   </si>
   <si>
-    <t>散射【火力覆盖】火元素伤害提高50%</t>
+    <r>
+      <t>散射【火力覆盖】提高50%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火元素伤害</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/火力覆盖</t>
@@ -845,7 +1115,10 @@
     <t>游侠#13</t>
   </si>
   <si>
-    <t>双喷再次释放时可以再次触发效果（可套娃）</t>
+    <t>双喷再次释放时可以再次触发效果</t>
+  </si>
+  <si>
+    <t>不可套娃</t>
   </si>
   <si>
     <t>hero/drow/双喷</t>
@@ -860,7 +1133,30 @@
     <t>游侠#14</t>
   </si>
   <si>
-    <t>散射【痛击】生效时，造成伤害提供至500%，但该次伤害不会再暴击</t>
+    <r>
+      <t>散射【痛击】生效时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高400%，但该次伤害不会再暴击</t>
+    </r>
+  </si>
+  <si>
+    <t>不可暴击</t>
   </si>
   <si>
     <t>hero/drow/痛击</t>
@@ -875,7 +1171,27 @@
     <t>游侠#15</t>
   </si>
   <si>
-    <t>风暴环绕的基础伤害提高100%</t>
+    <r>
+      <t>风暴环绕的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高100%</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/风暴环绕</t>
@@ -890,7 +1206,18 @@
     <t>游侠#16</t>
   </si>
   <si>
-    <t>风暴环绕【退散】生效时，风元素伤害增加50%</t>
+    <r>
+      <t>风暴环绕【退散】生效时，增加50%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风元素伤害</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/疾风</t>
@@ -935,7 +1262,27 @@
     <t>游侠#19</t>
   </si>
   <si>
-    <t>箭雨的基础伤害提高50%</t>
+    <r>
+      <t>箭雨的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高50%</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/箭雨</t>
@@ -950,7 +1297,30 @@
     <t>游侠#20</t>
   </si>
   <si>
-    <t>箭雨【燃矢】灼烧伤害提升%rs_to_dmg%%%，持续时间延长%rs_duration%秒</t>
+    <r>
+      <t>箭雨【燃矢】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灼烧伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提升%rs_to_dmg%%%，持续时间延长%rs_duration%秒</t>
+    </r>
+  </si>
+  <si>
+    <t>灼烧伤害=1秒1跳</t>
   </si>
   <si>
     <t>hero/drow/燃矢</t>
@@ -1016,7 +1386,27 @@
     <t>游侠#24</t>
   </si>
   <si>
-    <t>使用能量回复后，获得35%伤害加成，持续15秒</t>
+    <r>
+      <t>使用能量回复后，获得35%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，持续15秒</t>
+    </r>
   </si>
   <si>
     <t>bonus_ingame 35</t>
@@ -1028,7 +1418,18 @@
     <t>游侠#25</t>
   </si>
   <si>
-    <t>复仇持续期间，基础技能的伤害提高1倍</t>
+    <r>
+      <t>复仇持续期间，基础技能提高100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
   </si>
   <si>
     <t>hero/drow/复仇</t>
@@ -1055,7 +1456,27 @@
     <t>法爷#1</t>
   </si>
   <si>
-    <t>雷鸣基础伤害提高100%</t>
+    <r>
+      <t>雷鸣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高100%</t>
+    </r>
   </si>
   <si>
     <t>item_rune/1</t>
@@ -1085,7 +1506,7 @@
     <t>法爷#4</t>
   </si>
   <si>
-    <t>寒风波基础伤害提高100%</t>
+    <t>寒风波技能基础伤害提高100%</t>
   </si>
   <si>
     <t>rune_56</t>
@@ -1103,7 +1524,27 @@
     <t>法爷#6</t>
   </si>
   <si>
-    <t>炎龙基础伤害提高100%</t>
+    <r>
+      <t>炎龙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高100%</t>
+    </r>
   </si>
   <si>
     <t>rune_58</t>
@@ -1121,7 +1562,27 @@
     <t>法爷#8</t>
   </si>
   <si>
-    <t>元素缠绕系列基础伤害提高200%</t>
+    <r>
+      <t>元素缠绕系列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高200%</t>
+    </r>
   </si>
   <si>
     <t>rune_60</t>
@@ -1148,7 +1609,18 @@
     <t>法爷#11</t>
   </si>
   <si>
-    <t>霜降对被冻结的单位造成伤害提高200%</t>
+    <r>
+      <t>霜降对被冻结的单位提高200%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
   </si>
   <si>
     <t>rune_63</t>
@@ -1166,7 +1638,27 @@
     <t>法爷#13</t>
   </si>
   <si>
-    <t>雷电屏障系列的基础伤害提高100%</t>
+    <r>
+      <t>雷电屏障系列的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高100%</t>
+    </r>
   </si>
   <si>
     <t>rune_65</t>
@@ -1211,7 +1703,27 @@
     <t>法爷#18</t>
   </si>
   <si>
-    <t>元素轰炸系列的基础伤害提高100%</t>
+    <r>
+      <t>元素轰炸系列的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高100%</t>
+    </r>
   </si>
   <si>
     <t>rune_70</t>
@@ -1274,7 +1786,18 @@
     <t>法爷#25</t>
   </si>
   <si>
-    <t>极寒领域对冻结的单位造成伤害提升55%</t>
+    <r>
+      <t>极寒领域对冻结的单位提升55%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
   </si>
   <si>
     <t>rune_77</t>
@@ -1283,7 +1806,7 @@
     <t>法爷#26</t>
   </si>
   <si>
-    <t>死亡空间的基础伤害提升100%</t>
+    <t>死亡空间的技能基础伤害提升100%</t>
   </si>
   <si>
     <t>rune_78</t>
@@ -1301,7 +1824,18 @@
     <t>法爷#28</t>
   </si>
   <si>
-    <t>聪慧每消耗1点蓝量该次技能伤害提高2%</t>
+    <r>
+      <t>聪慧每消耗1点蓝量该次技能提高2%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能增强</t>
+    </r>
   </si>
   <si>
     <t>rune_80</t>
@@ -1319,7 +1853,27 @@
     <t>战士#1</t>
   </si>
   <si>
-    <t>旋风斩基础伤害提高100%</t>
+    <r>
+      <t>旋风斩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高100%</t>
+    </r>
   </si>
   <si>
     <t>rune_82</t>
@@ -1328,7 +1882,27 @@
     <t>战士#2</t>
   </si>
   <si>
-    <t>锤锤基础伤害提高100%</t>
+    <r>
+      <t>锤锤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高100%</t>
+    </r>
   </si>
   <si>
     <t>rune_83</t>
@@ -1337,7 +1911,27 @@
     <t>战士#3</t>
   </si>
   <si>
-    <t>冲锋基础伤害提高100%</t>
+    <r>
+      <t>冲锋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高100%</t>
+    </r>
   </si>
   <si>
     <t>rune_84</t>
@@ -1346,7 +1940,27 @@
     <t>战士#4</t>
   </si>
   <si>
-    <t>裂地斩基础伤害提高100%</t>
+    <r>
+      <t>裂地斩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能基础伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高100%</t>
+    </r>
   </si>
   <si>
     <t>rune_85</t>
@@ -1355,7 +1969,27 @@
     <t>战士#5</t>
   </si>
   <si>
-    <t>冲锋触发公牛时，公牛伤害提高100%，且爆炸范围提升50%</t>
+    <r>
+      <t>冲锋触发公牛时，公牛提高100%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，且爆炸范围提升50%</t>
+    </r>
   </si>
   <si>
     <t>rune_86</t>
@@ -1382,7 +2016,45 @@
     <t>战士#8</t>
   </si>
   <si>
-    <t>痛割命中多人时伤害提高30%，但目标会有一个时伤害提高100%</t>
+    <r>
+      <t>痛割命中多人时提高30%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，但目标会有一个时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变为100%</t>
+    </r>
   </si>
   <si>
     <t>rune_89</t>
@@ -1400,7 +2072,18 @@
     <t>战士#10</t>
   </si>
   <si>
-    <t>旋风斩触发收割时，伤害提高200%</t>
+    <r>
+      <t>旋风斩触发收割时，提高200%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>rune_91</t>
@@ -1418,7 +2101,18 @@
     <t>战士#12</t>
   </si>
   <si>
-    <t>冲锋在触发牵制的期间伤害提高100%</t>
+    <r>
+      <t>冲锋在触发牵制的期间提高100%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>rune_93</t>
@@ -1436,7 +2130,7 @@
     <t>战士#14</t>
   </si>
   <si>
-    <t>使用钩爪后获得50%伤害减免，持续5秒</t>
+    <t>使用钩爪后获得50%的伤害减免，持续5秒</t>
   </si>
   <si>
     <t>rune_95</t>
@@ -1463,7 +2157,7 @@
     <t>战士#17</t>
   </si>
   <si>
-    <t>冲锋在触发牵制的期间，获得30%伤害加成和30%伤害减免</t>
+    <t>冲锋在触发牵制的期间，获得30%的伤害加成和30%的伤害减免</t>
   </si>
   <si>
     <t>rune_98</t>
@@ -1514,7 +2208,18 @@
     <t>飞毛腿</t>
   </si>
   <si>
-    <t>自身每拥有1%移速加成，自身造成的伤害提高1%</t>
+    <r>
+      <t>自身每拥有1%移速加成，自身获得1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>1.移速加成以自身初始移速350为100%的基础开始计算
@@ -1608,7 +2313,18 @@
     <t>砥砺前行</t>
   </si>
   <si>
-    <t>每存活一波，下一波开局提升10点技能急速，10%技能增强</t>
+    <r>
+      <t>每存活一波，下一波开局提升10点技能急速，10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能增强</t>
+    </r>
   </si>
   <si>
     <t>下一波刷新时结算，包括boss波</t>
@@ -1635,7 +2351,27 @@
     <t>玻璃大炮</t>
   </si>
   <si>
-    <t>造成的伤害提高40%，但是最大生命值降低40%</t>
+    <r>
+      <t>提高40%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，但是最大生命值降低40%</t>
+    </r>
   </si>
   <si>
     <t>1.提高最终伤害
@@ -1724,7 +2460,27 @@
     <t>无人之境</t>
   </si>
   <si>
-    <t>每过15秒，获得伤害加成在-50%~125%波动，持续15秒</t>
+    <r>
+      <t>每过15秒，获得在-50%~125%波动的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，持续15秒</t>
+    </r>
   </si>
   <si>
     <t>每次波动之后效果持续15秒，下一个15秒切换</t>
@@ -1785,7 +2541,18 @@
     <t>法力燃烧</t>
   </si>
   <si>
-    <t>每秒扣除5点蓝量，对自身500码范围内敌人造成每秒扣除蓝量的1000%真实伤害</t>
+    <r>
+      <t>每秒扣除5点蓝量，对自身500码范围内敌人造成每秒扣除蓝量的1000%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>真实伤害</t>
+    </r>
   </si>
   <si>
     <t>每秒扣蓝可以和其他扣蓝叠加，真实伤害=无视护甲魔抗和任意抗性</t>
@@ -1821,7 +2588,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2023,6 +2790,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -3614,12 +4387,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3282DF3A-51F7-4CB6-A061-FD8F2124057A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E8710E2B-51A0-4E9C-A362-D240BE9CA782}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BEE0C5CE-50CA-4550-BFF9-A448CC0DBBEC}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0A56AA1B-FE22-4752-8076-EF36341B9431}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -3631,7 +4404,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{BC28858B-1C9F-42EC-AD9D-3C66B5D1A823}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{6ACFA246-58E5-4C7C-B4DB-BA4B63BC593D}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -3947,10 +4720,10 @@
   <sheetPr/>
   <dimension ref="A1:AI120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A106" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="S119" sqref="S119"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6890,7 +7663,9 @@
       <c r="C40" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="D40" s="21"/>
+      <c r="D40" s="21" t="s">
+        <v>261</v>
+      </c>
       <c r="E40" s="20">
         <v>0</v>
       </c>
@@ -6919,7 +7694,7 @@
         <v>202</v>
       </c>
       <c r="N40" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O40" s="19" t="s">
         <v>44</v>
@@ -6940,7 +7715,7 @@
       <c r="Y40" s="30"/>
       <c r="Z40" s="43"/>
       <c r="AA40" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB40" s="26"/>
       <c r="AC40" s="37"/>
@@ -6953,15 +7728,17 @@
     </row>
     <row r="41" ht="30.5" customHeight="1" spans="1:35">
       <c r="A41" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="D41" s="21"/>
+        <v>266</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>267</v>
+      </c>
       <c r="E41" s="20">
         <v>0</v>
       </c>
@@ -6990,7 +7767,7 @@
         <v>202</v>
       </c>
       <c r="N41" s="19" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O41" s="19" t="s">
         <v>44</v>
@@ -7011,7 +7788,7 @@
       <c r="Y41" s="29"/>
       <c r="Z41" s="41"/>
       <c r="AA41" s="15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AB41" s="26"/>
       <c r="AC41" s="34"/>
@@ -7024,13 +7801,13 @@
     </row>
     <row r="42" ht="30.5" customHeight="1" spans="1:35">
       <c r="A42" s="15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="20">
@@ -7061,7 +7838,7 @@
         <v>202</v>
       </c>
       <c r="N42" s="19" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O42" s="19" t="s">
         <v>44</v>
@@ -7082,7 +7859,7 @@
       <c r="Y42" s="30"/>
       <c r="Z42" s="36"/>
       <c r="AA42" s="15" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AB42" s="26"/>
       <c r="AC42" s="37"/>
@@ -7095,13 +7872,13 @@
     </row>
     <row r="43" ht="30.5" customHeight="1" spans="1:35">
       <c r="A43" s="15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="20">
@@ -7132,7 +7909,7 @@
         <v>202</v>
       </c>
       <c r="N43" s="19" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O43" s="19" t="s">
         <v>44</v>
@@ -7153,7 +7930,7 @@
       <c r="Y43" s="29"/>
       <c r="Z43" s="41"/>
       <c r="AA43" s="15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AB43" s="26"/>
       <c r="AC43" s="34"/>
@@ -7166,13 +7943,13 @@
     </row>
     <row r="44" ht="30.5" customHeight="1" spans="1:35">
       <c r="A44" s="15" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="20">
@@ -7203,7 +7980,7 @@
         <v>202</v>
       </c>
       <c r="N44" s="19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O44" s="19" t="s">
         <v>44</v>
@@ -7224,7 +8001,7 @@
       <c r="Y44" s="30"/>
       <c r="Z44" s="43"/>
       <c r="AA44" s="15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AB44" s="26"/>
       <c r="AC44" s="37"/>
@@ -7237,13 +8014,13 @@
     </row>
     <row r="45" ht="30.5" customHeight="1" spans="1:35">
       <c r="A45" s="15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="20">
@@ -7274,7 +8051,7 @@
         <v>202</v>
       </c>
       <c r="N45" s="19" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O45" s="19" t="s">
         <v>44</v>
@@ -7295,7 +8072,7 @@
       <c r="Y45" s="29"/>
       <c r="Z45" s="41"/>
       <c r="AA45" s="15" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AB45" s="26"/>
       <c r="AC45" s="34"/>
@@ -7308,13 +8085,13 @@
     </row>
     <row r="46" ht="30.5" customHeight="1" spans="1:35">
       <c r="A46" s="15" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="20">
@@ -7345,7 +8122,7 @@
         <v>202</v>
       </c>
       <c r="N46" s="19" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O46" s="19" t="s">
         <v>44</v>
@@ -7366,7 +8143,7 @@
       <c r="Y46" s="30"/>
       <c r="Z46" s="43"/>
       <c r="AA46" s="15" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AB46" s="26"/>
       <c r="AC46" s="37"/>
@@ -7379,15 +8156,17 @@
     </row>
     <row r="47" ht="30.5" customHeight="1" spans="1:35">
       <c r="A47" s="15" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D47" s="21"/>
+        <v>297</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>298</v>
+      </c>
       <c r="E47" s="20">
         <v>0</v>
       </c>
@@ -7416,7 +8195,7 @@
         <v>202</v>
       </c>
       <c r="N47" s="19" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O47" s="19" t="s">
         <v>44</v>
@@ -7437,10 +8216,10 @@
       <c r="Y47" s="29"/>
       <c r="Z47" s="41"/>
       <c r="AA47" s="15" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AB47" s="26" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AC47" s="34"/>
       <c r="AD47" s="35"/>
@@ -7452,13 +8231,13 @@
     </row>
     <row r="48" ht="30.5" customHeight="1" spans="1:35">
       <c r="A48" s="15" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="20">
@@ -7489,7 +8268,7 @@
         <v>202</v>
       </c>
       <c r="N48" s="19" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="O48" s="19" t="s">
         <v>44</v>
@@ -7510,7 +8289,7 @@
       <c r="Y48" s="30"/>
       <c r="Z48" s="43"/>
       <c r="AA48" s="15" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AB48" s="26"/>
       <c r="AC48" s="37"/>
@@ -7523,13 +8302,13 @@
     </row>
     <row r="49" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A49" s="15" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="20">
@@ -7560,7 +8339,7 @@
         <v>202</v>
       </c>
       <c r="N49" s="19" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O49" s="19" t="s">
         <v>44</v>
@@ -7581,7 +8360,7 @@
       <c r="Y49" s="29"/>
       <c r="Z49" s="41"/>
       <c r="AA49" s="15" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AB49" s="26"/>
       <c r="AC49" s="34"/>
@@ -7594,13 +8373,13 @@
     </row>
     <row r="50" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A50" s="15" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="20">
@@ -7631,7 +8410,7 @@
         <v>202</v>
       </c>
       <c r="N50" s="19" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O50" s="19" t="s">
         <v>44</v>
@@ -7652,10 +8431,10 @@
       <c r="Y50" s="30"/>
       <c r="Z50" s="43"/>
       <c r="AA50" s="15" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AB50" s="26" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AC50" s="37"/>
       <c r="AD50" s="38"/>
@@ -7667,13 +8446,13 @@
     </row>
     <row r="51" ht="30.5" customHeight="1" spans="1:35">
       <c r="A51" s="15" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="20">
@@ -7704,7 +8483,7 @@
         <v>202</v>
       </c>
       <c r="N51" s="19" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O51" s="19" t="s">
         <v>44</v>
@@ -7725,10 +8504,10 @@
       <c r="Y51" s="29"/>
       <c r="Z51" s="41"/>
       <c r="AA51" s="15" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AB51" s="26" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AC51" s="34"/>
       <c r="AD51" s="35"/>
@@ -7740,13 +8519,13 @@
     </row>
     <row r="52" ht="30.5" customHeight="1" spans="1:35">
       <c r="A52" s="15" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="20">
@@ -7777,7 +8556,7 @@
         <v>202</v>
       </c>
       <c r="N52" s="19" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O52" s="19" t="s">
         <v>44</v>
@@ -7798,7 +8577,7 @@
       <c r="Y52" s="30"/>
       <c r="Z52" s="43"/>
       <c r="AA52" s="15" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AB52" s="26"/>
       <c r="AC52" s="37"/>
@@ -7811,13 +8590,13 @@
     </row>
     <row r="53" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A53" s="15" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="20">
@@ -7848,7 +8627,7 @@
         <v>202</v>
       </c>
       <c r="N53" s="19" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O53" s="19" t="s">
         <v>44</v>
@@ -7869,7 +8648,7 @@
       <c r="Y53" s="29"/>
       <c r="Z53" s="41"/>
       <c r="AA53" s="15" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AB53" s="26"/>
       <c r="AC53" s="34"/>
@@ -7882,13 +8661,13 @@
     </row>
     <row r="54" ht="30.5" customHeight="1" spans="1:35">
       <c r="A54" s="15" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="20">
@@ -7919,7 +8698,7 @@
         <v>202</v>
       </c>
       <c r="N54" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O54" s="19" t="s">
         <v>44</v>
@@ -7951,13 +8730,13 @@
     </row>
     <row r="55" ht="30.5" customHeight="1" spans="1:35">
       <c r="A55" s="15" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="20">
@@ -7988,7 +8767,7 @@
         <v>202</v>
       </c>
       <c r="N55" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O55" s="19" t="s">
         <v>44</v>
@@ -8020,13 +8799,13 @@
     </row>
     <row r="56" ht="30.5" customHeight="1" spans="1:35">
       <c r="A56" s="15" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="20">
@@ -8057,7 +8836,7 @@
         <v>202</v>
       </c>
       <c r="N56" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O56" s="19" t="s">
         <v>44</v>
@@ -8089,13 +8868,13 @@
     </row>
     <row r="57" ht="30.5" customHeight="1" spans="1:35">
       <c r="A57" s="15" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="20">
@@ -8126,7 +8905,7 @@
         <v>202</v>
       </c>
       <c r="N57" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O57" s="19" t="s">
         <v>44</v>
@@ -8158,13 +8937,13 @@
     </row>
     <row r="58" ht="30.5" customHeight="1" spans="1:35">
       <c r="A58" s="15" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="20">
@@ -8195,7 +8974,7 @@
         <v>202</v>
       </c>
       <c r="N58" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O58" s="19" t="s">
         <v>44</v>
@@ -8227,13 +9006,13 @@
     </row>
     <row r="59" ht="30.5" customHeight="1" spans="1:35">
       <c r="A59" s="15" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="20">
@@ -8264,7 +9043,7 @@
         <v>202</v>
       </c>
       <c r="N59" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O59" s="19" t="s">
         <v>44</v>
@@ -8296,13 +9075,13 @@
     </row>
     <row r="60" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A60" s="15" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="20">
@@ -8333,7 +9112,7 @@
         <v>202</v>
       </c>
       <c r="N60" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O60" s="19" t="s">
         <v>44</v>
@@ -8365,13 +9144,13 @@
     </row>
     <row r="61" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A61" s="15" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="20">
@@ -8402,7 +9181,7 @@
         <v>202</v>
       </c>
       <c r="N61" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O61" s="19" t="s">
         <v>44</v>
@@ -8434,13 +9213,13 @@
     </row>
     <row r="62" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A62" s="15" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="20">
@@ -8471,7 +9250,7 @@
         <v>202</v>
       </c>
       <c r="N62" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O62" s="19" t="s">
         <v>44</v>
@@ -8503,13 +9282,13 @@
     </row>
     <row r="63" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A63" s="15" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="20">
@@ -8540,7 +9319,7 @@
         <v>202</v>
       </c>
       <c r="N63" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O63" s="19" t="s">
         <v>44</v>
@@ -8572,13 +9351,13 @@
     </row>
     <row r="64" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A64" s="15" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="20">
@@ -8609,7 +9388,7 @@
         <v>202</v>
       </c>
       <c r="N64" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O64" s="19" t="s">
         <v>44</v>
@@ -8641,13 +9420,13 @@
     </row>
     <row r="65" ht="30.5" customHeight="1" spans="1:35">
       <c r="A65" s="15" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D65" s="21"/>
       <c r="E65" s="20">
@@ -8678,7 +9457,7 @@
         <v>202</v>
       </c>
       <c r="N65" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O65" s="19" t="s">
         <v>44</v>
@@ -8710,13 +9489,13 @@
     </row>
     <row r="66" ht="30.5" customHeight="1" spans="1:35">
       <c r="A66" s="15" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="20">
@@ -8747,7 +9526,7 @@
         <v>202</v>
       </c>
       <c r="N66" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O66" s="19" t="s">
         <v>44</v>
@@ -8779,13 +9558,13 @@
     </row>
     <row r="67" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A67" s="15" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D67" s="21"/>
       <c r="E67" s="20">
@@ -8816,7 +9595,7 @@
         <v>202</v>
       </c>
       <c r="N67" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O67" s="19" t="s">
         <v>44</v>
@@ -8848,13 +9627,13 @@
     </row>
     <row r="68" ht="30.5" customHeight="1" spans="1:35">
       <c r="A68" s="15" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="20">
@@ -8885,7 +9664,7 @@
         <v>202</v>
       </c>
       <c r="N68" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O68" s="19" t="s">
         <v>44</v>
@@ -8917,13 +9696,13 @@
     </row>
     <row r="69" ht="30.5" customHeight="1" spans="1:35">
       <c r="A69" s="15" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D69" s="21"/>
       <c r="E69" s="20">
@@ -8954,7 +9733,7 @@
         <v>202</v>
       </c>
       <c r="N69" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O69" s="19" t="s">
         <v>44</v>
@@ -8986,13 +9765,13 @@
     </row>
     <row r="70" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A70" s="15" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="20">
@@ -9023,7 +9802,7 @@
         <v>202</v>
       </c>
       <c r="N70" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O70" s="19" t="s">
         <v>44</v>
@@ -9055,13 +9834,13 @@
     </row>
     <row r="71" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A71" s="15" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D71" s="21"/>
       <c r="E71" s="20">
@@ -9092,7 +9871,7 @@
         <v>202</v>
       </c>
       <c r="N71" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O71" s="19" t="s">
         <v>44</v>
@@ -9124,13 +9903,13 @@
     </row>
     <row r="72" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A72" s="15" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="20">
@@ -9161,7 +9940,7 @@
         <v>202</v>
       </c>
       <c r="N72" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O72" s="19" t="s">
         <v>44</v>
@@ -9193,13 +9972,13 @@
     </row>
     <row r="73" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A73" s="15" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="20">
@@ -9230,7 +10009,7 @@
         <v>202</v>
       </c>
       <c r="N73" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O73" s="19" t="s">
         <v>44</v>
@@ -9262,13 +10041,13 @@
     </row>
     <row r="74" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A74" s="15" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="20">
@@ -9299,7 +10078,7 @@
         <v>202</v>
       </c>
       <c r="N74" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O74" s="19" t="s">
         <v>44</v>
@@ -9331,13 +10110,13 @@
     </row>
     <row r="75" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A75" s="15" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D75" s="21"/>
       <c r="E75" s="20">
@@ -9368,7 +10147,7 @@
         <v>202</v>
       </c>
       <c r="N75" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O75" s="19" t="s">
         <v>44</v>
@@ -9400,13 +10179,13 @@
     </row>
     <row r="76" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A76" s="15" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="20">
@@ -9437,7 +10216,7 @@
         <v>202</v>
       </c>
       <c r="N76" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O76" s="19" t="s">
         <v>44</v>
@@ -9469,13 +10248,13 @@
     </row>
     <row r="77" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A77" s="15" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D77" s="21"/>
       <c r="E77" s="20">
@@ -9506,7 +10285,7 @@
         <v>202</v>
       </c>
       <c r="N77" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O77" s="19" t="s">
         <v>44</v>
@@ -9538,13 +10317,13 @@
     </row>
     <row r="78" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A78" s="15" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="20">
@@ -9575,7 +10354,7 @@
         <v>202</v>
       </c>
       <c r="N78" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O78" s="19" t="s">
         <v>44</v>
@@ -9607,13 +10386,13 @@
     </row>
     <row r="79" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A79" s="15" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D79" s="21"/>
       <c r="E79" s="20">
@@ -9644,7 +10423,7 @@
         <v>202</v>
       </c>
       <c r="N79" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O79" s="19" t="s">
         <v>44</v>
@@ -9676,13 +10455,13 @@
     </row>
     <row r="80" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A80" s="15" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="20">
@@ -9713,7 +10492,7 @@
         <v>202</v>
       </c>
       <c r="N80" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O80" s="19" t="s">
         <v>44</v>
@@ -9745,13 +10524,13 @@
     </row>
     <row r="81" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A81" s="15" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="20">
@@ -9782,7 +10561,7 @@
         <v>202</v>
       </c>
       <c r="N81" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O81" s="19" t="s">
         <v>44</v>
@@ -9814,13 +10593,13 @@
     </row>
     <row r="82" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A82" s="15" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="20">
@@ -9851,7 +10630,7 @@
         <v>202</v>
       </c>
       <c r="N82" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O82" s="19" t="s">
         <v>44</v>
@@ -9883,13 +10662,13 @@
     </row>
     <row r="83" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A83" s="15" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="20">
@@ -9920,7 +10699,7 @@
         <v>202</v>
       </c>
       <c r="N83" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O83" s="19" t="s">
         <v>44</v>
@@ -9952,13 +10731,13 @@
     </row>
     <row r="84" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A84" s="15" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="20">
@@ -9989,7 +10768,7 @@
         <v>202</v>
       </c>
       <c r="N84" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O84" s="19" t="s">
         <v>44</v>
@@ -10021,13 +10800,13 @@
     </row>
     <row r="85" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A85" s="15" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="20">
@@ -10058,7 +10837,7 @@
         <v>202</v>
       </c>
       <c r="N85" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O85" s="19" t="s">
         <v>44</v>
@@ -10090,13 +10869,13 @@
     </row>
     <row r="86" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A86" s="15" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="20">
@@ -10127,7 +10906,7 @@
         <v>202</v>
       </c>
       <c r="N86" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O86" s="19" t="s">
         <v>44</v>
@@ -10159,13 +10938,13 @@
     </row>
     <row r="87" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A87" s="15" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D87" s="21"/>
       <c r="E87" s="20">
@@ -10196,7 +10975,7 @@
         <v>202</v>
       </c>
       <c r="N87" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O87" s="19" t="s">
         <v>44</v>
@@ -10228,13 +11007,13 @@
     </row>
     <row r="88" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A88" s="15" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="20">
@@ -10265,7 +11044,7 @@
         <v>202</v>
       </c>
       <c r="N88" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O88" s="19" t="s">
         <v>44</v>
@@ -10297,13 +11076,13 @@
     </row>
     <row r="89" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A89" s="15" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D89" s="21"/>
       <c r="E89" s="20">
@@ -10334,7 +11113,7 @@
         <v>202</v>
       </c>
       <c r="N89" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O89" s="19" t="s">
         <v>44</v>
@@ -10366,13 +11145,13 @@
     </row>
     <row r="90" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A90" s="15" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="20">
@@ -10403,7 +11182,7 @@
         <v>202</v>
       </c>
       <c r="N90" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O90" s="19" t="s">
         <v>44</v>
@@ -10435,13 +11214,13 @@
     </row>
     <row r="91" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A91" s="15" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D91" s="21"/>
       <c r="E91" s="20">
@@ -10472,7 +11251,7 @@
         <v>202</v>
       </c>
       <c r="N91" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O91" s="19" t="s">
         <v>44</v>
@@ -10504,13 +11283,13 @@
     </row>
     <row r="92" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A92" s="15" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="20">
@@ -10541,7 +11320,7 @@
         <v>202</v>
       </c>
       <c r="N92" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O92" s="19" t="s">
         <v>44</v>
@@ -10573,13 +11352,13 @@
     </row>
     <row r="93" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A93" s="15" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D93" s="21"/>
       <c r="E93" s="20">
@@ -10610,7 +11389,7 @@
         <v>202</v>
       </c>
       <c r="N93" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O93" s="19" t="s">
         <v>44</v>
@@ -10642,13 +11421,13 @@
     </row>
     <row r="94" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A94" s="15" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D94" s="21"/>
       <c r="E94" s="20">
@@ -10679,7 +11458,7 @@
         <v>202</v>
       </c>
       <c r="N94" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O94" s="19" t="s">
         <v>44</v>
@@ -10711,13 +11490,13 @@
     </row>
     <row r="95" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A95" s="15" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D95" s="21"/>
       <c r="E95" s="20">
@@ -10748,7 +11527,7 @@
         <v>202</v>
       </c>
       <c r="N95" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O95" s="19" t="s">
         <v>44</v>
@@ -10780,13 +11559,13 @@
     </row>
     <row r="96" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A96" s="15" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D96" s="21"/>
       <c r="E96" s="20">
@@ -10817,7 +11596,7 @@
         <v>202</v>
       </c>
       <c r="N96" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O96" s="19" t="s">
         <v>44</v>
@@ -10849,13 +11628,13 @@
     </row>
     <row r="97" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A97" s="15" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D97" s="21"/>
       <c r="E97" s="20">
@@ -10886,7 +11665,7 @@
         <v>202</v>
       </c>
       <c r="N97" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O97" s="19" t="s">
         <v>44</v>
@@ -10918,13 +11697,13 @@
     </row>
     <row r="98" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A98" s="15" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="20">
@@ -10955,7 +11734,7 @@
         <v>202</v>
       </c>
       <c r="N98" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O98" s="19" t="s">
         <v>44</v>
@@ -10987,13 +11766,13 @@
     </row>
     <row r="99" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A99" s="15" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D99" s="21"/>
       <c r="E99" s="20">
@@ -11024,7 +11803,7 @@
         <v>202</v>
       </c>
       <c r="N99" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O99" s="19" t="s">
         <v>44</v>
@@ -11056,13 +11835,13 @@
     </row>
     <row r="100" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A100" s="15" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="20">
@@ -11093,7 +11872,7 @@
         <v>202</v>
       </c>
       <c r="N100" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O100" s="19" t="s">
         <v>44</v>
@@ -11125,16 +11904,16 @@
     </row>
     <row r="101" ht="30.5" customHeight="1" spans="1:35">
       <c r="A101" s="50" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B101" s="51" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C101" s="52" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E101" s="20">
         <v>1</v>
@@ -11164,10 +11943,10 @@
         <v>202</v>
       </c>
       <c r="N101" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O101" s="19" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="P101" s="19">
         <v>0</v>
@@ -11185,7 +11964,7 @@
       <c r="Y101" s="29"/>
       <c r="Z101" s="41"/>
       <c r="AA101" s="19" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AB101" s="26"/>
       <c r="AC101" s="34"/>
@@ -11198,13 +11977,13 @@
     </row>
     <row r="102" ht="30.5" customHeight="1" spans="1:35">
       <c r="A102" s="50" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B102" s="51" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C102" s="52" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D102" s="18"/>
       <c r="E102" s="20">
@@ -11235,10 +12014,10 @@
         <v>202</v>
       </c>
       <c r="N102" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O102" s="19" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="P102" s="19">
         <v>0</v>
@@ -11256,7 +12035,7 @@
       <c r="Y102" s="29"/>
       <c r="Z102" s="41"/>
       <c r="AA102" s="15" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AB102" s="26"/>
       <c r="AC102" s="34"/>
@@ -11269,16 +12048,16 @@
     </row>
     <row r="103" ht="33" spans="1:35">
       <c r="A103" s="53" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B103" s="54" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C103" s="55" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E103" s="20">
         <v>1</v>
@@ -11308,7 +12087,7 @@
         <v>202</v>
       </c>
       <c r="N103" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O103" s="19" t="s">
         <v>44</v>
@@ -11329,7 +12108,7 @@
       <c r="Y103" s="29"/>
       <c r="Z103" s="41"/>
       <c r="AA103" s="15" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AB103" s="26"/>
       <c r="AC103" s="34"/>
@@ -11342,16 +12121,16 @@
     </row>
     <row r="104" ht="30.5" customHeight="1" spans="1:35">
       <c r="A104" s="50" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B104" s="51" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C104" s="52" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E104" s="20">
         <v>1</v>
@@ -11381,10 +12160,10 @@
         <v>202</v>
       </c>
       <c r="N104" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O104" s="19" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="P104" s="19">
         <v>0</v>
@@ -11402,7 +12181,7 @@
       <c r="Y104" s="29"/>
       <c r="Z104" s="41"/>
       <c r="AA104" s="15" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="AB104" s="26"/>
       <c r="AC104" s="34"/>
@@ -11415,16 +12194,16 @@
     </row>
     <row r="105" ht="30.5" customHeight="1" spans="1:35">
       <c r="A105" s="50" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B105" s="51" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C105" s="52" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E105" s="20">
         <v>1</v>
@@ -11454,7 +12233,7 @@
         <v>202</v>
       </c>
       <c r="N105" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O105" s="19" t="s">
         <v>44</v>
@@ -11475,7 +12254,7 @@
       <c r="Y105" s="29"/>
       <c r="Z105" s="41"/>
       <c r="AA105" s="15" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AB105" s="26"/>
       <c r="AC105" s="34"/>
@@ -11488,16 +12267,16 @@
     </row>
     <row r="106" ht="30.5" customHeight="1" spans="1:35">
       <c r="A106" s="53" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B106" s="54" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C106" s="55" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E106" s="20">
         <v>1</v>
@@ -11527,7 +12306,7 @@
         <v>202</v>
       </c>
       <c r="N106" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O106" s="19" t="s">
         <v>44</v>
@@ -11548,7 +12327,7 @@
       <c r="Y106" s="29"/>
       <c r="Z106" s="41"/>
       <c r="AA106" s="15" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="AB106" s="26"/>
       <c r="AC106" s="34"/>
@@ -11561,13 +12340,13 @@
     </row>
     <row r="107" ht="30.5" customHeight="1" spans="1:35">
       <c r="A107" s="53" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B107" s="54" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="20">
@@ -11598,7 +12377,7 @@
         <v>202</v>
       </c>
       <c r="N107" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O107" s="19" t="s">
         <v>44</v>
@@ -11619,7 +12398,7 @@
       <c r="Y107" s="29"/>
       <c r="Z107" s="41"/>
       <c r="AA107" s="15" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="AB107" s="26"/>
       <c r="AC107" s="34"/>
@@ -11632,16 +12411,16 @@
     </row>
     <row r="108" ht="30.5" customHeight="1" spans="1:35">
       <c r="A108" s="50" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B108" s="51" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C108" s="52" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E108" s="20">
         <v>1</v>
@@ -11671,10 +12450,10 @@
         <v>202</v>
       </c>
       <c r="N108" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O108" s="19" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="P108" s="19">
         <v>0</v>
@@ -11692,7 +12471,7 @@
       <c r="Y108" s="29"/>
       <c r="Z108" s="41"/>
       <c r="AA108" s="15" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AB108" s="26"/>
       <c r="AC108" s="34"/>
@@ -11705,16 +12484,16 @@
     </row>
     <row r="109" ht="30.5" customHeight="1" spans="1:35">
       <c r="A109" s="50" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B109" s="51" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C109" s="52" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E109" s="20">
         <v>1</v>
@@ -11744,7 +12523,7 @@
         <v>202</v>
       </c>
       <c r="N109" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O109" s="19" t="s">
         <v>44</v>
@@ -11776,16 +12555,16 @@
     </row>
     <row r="110" ht="30.5" customHeight="1" spans="1:35">
       <c r="A110" s="53" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B110" s="54" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C110" s="55" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E110" s="20">
         <v>1</v>
@@ -11815,7 +12594,7 @@
         <v>202</v>
       </c>
       <c r="N110" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O110" s="19" t="s">
         <v>44</v>
@@ -11836,10 +12615,10 @@
       <c r="Y110" s="29"/>
       <c r="Z110" s="41"/>
       <c r="AA110" s="15" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AB110" s="26" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="AC110" s="34"/>
       <c r="AD110" s="35"/>
@@ -11851,16 +12630,16 @@
     </row>
     <row r="111" ht="49.5" spans="1:35">
       <c r="A111" s="56" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E111" s="20">
         <v>2</v>
@@ -11890,7 +12669,7 @@
         <v>202</v>
       </c>
       <c r="N111" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O111" s="19" t="s">
         <v>44</v>
@@ -11903,10 +12682,10 @@
       </c>
       <c r="R111" s="19"/>
       <c r="S111" s="21" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="T111" s="21" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="U111" s="19"/>
       <c r="V111" s="19"/>
@@ -11926,16 +12705,16 @@
     </row>
     <row r="112" ht="49.5" spans="1:35">
       <c r="A112" s="53" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B112" s="54" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C112" s="55" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E112" s="20">
         <v>2</v>
@@ -11965,7 +12744,7 @@
         <v>202</v>
       </c>
       <c r="N112" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O112" s="19" t="s">
         <v>44</v>
@@ -11979,7 +12758,7 @@
       <c r="R112" s="19"/>
       <c r="S112" s="21"/>
       <c r="T112" s="21" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="U112" s="19"/>
       <c r="V112" s="19"/>
@@ -11988,7 +12767,7 @@
       <c r="Y112" s="29"/>
       <c r="Z112" s="41"/>
       <c r="AA112" s="15" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AB112" s="26"/>
       <c r="AC112" s="34"/>
@@ -12001,16 +12780,16 @@
     </row>
     <row r="113" ht="49.5" spans="1:35">
       <c r="A113" s="53" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B113" s="54" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C113" s="55" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E113" s="20">
         <v>2</v>
@@ -12040,7 +12819,7 @@
         <v>202</v>
       </c>
       <c r="N113" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O113" s="19" t="s">
         <v>44</v>
@@ -12053,7 +12832,7 @@
       </c>
       <c r="R113" s="19"/>
       <c r="S113" s="21" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="T113" s="21"/>
       <c r="U113" s="19"/>
@@ -12063,10 +12842,10 @@
       <c r="Y113" s="29"/>
       <c r="Z113" s="41"/>
       <c r="AA113" s="15" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AB113" s="26" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AC113" s="34"/>
       <c r="AD113" s="35"/>
@@ -12078,16 +12857,16 @@
     </row>
     <row r="114" ht="49.5" spans="1:35">
       <c r="A114" s="50" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B114" s="51" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C114" s="52" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E114" s="20">
         <v>2</v>
@@ -12117,7 +12896,7 @@
         <v>202</v>
       </c>
       <c r="N114" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O114" s="19" t="s">
         <v>44</v>
@@ -12131,7 +12910,7 @@
       <c r="R114" s="19"/>
       <c r="S114" s="21"/>
       <c r="T114" s="21" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="U114" s="19"/>
       <c r="V114" s="19"/>
@@ -12151,16 +12930,16 @@
     </row>
     <row r="115" ht="30.5" customHeight="1" spans="1:35">
       <c r="A115" s="50" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B115" s="51" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C115" s="52" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E115" s="20">
         <v>2</v>
@@ -12190,7 +12969,7 @@
         <v>202</v>
       </c>
       <c r="N115" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O115" s="19" t="s">
         <v>44</v>
@@ -12222,16 +13001,16 @@
     </row>
     <row r="116" ht="30.5" customHeight="1" spans="1:35">
       <c r="A116" s="53" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B116" s="54" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C116" s="55" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E116" s="20">
         <v>2</v>
@@ -12261,7 +13040,7 @@
         <v>202</v>
       </c>
       <c r="N116" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O116" s="19" t="s">
         <v>44</v>
@@ -12282,13 +13061,13 @@
       <c r="Y116" s="29"/>
       <c r="Z116" s="41"/>
       <c r="AA116" s="15" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="AB116" s="26" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="AC116" s="34" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="AD116" s="35"/>
       <c r="AE116" s="35"/>
@@ -12299,16 +13078,16 @@
     </row>
     <row r="117" ht="30.5" customHeight="1" spans="1:35">
       <c r="A117" s="53" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B117" s="54" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C117" s="55" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E117" s="20">
         <v>2</v>
@@ -12338,7 +13117,7 @@
         <v>202</v>
       </c>
       <c r="N117" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O117" s="19" t="s">
         <v>44</v>
@@ -12359,10 +13138,10 @@
       <c r="Y117" s="29"/>
       <c r="Z117" s="41"/>
       <c r="AA117" s="15" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="AB117" s="26" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="AC117" s="34"/>
       <c r="AD117" s="35"/>
@@ -12374,16 +13153,16 @@
     </row>
     <row r="118" ht="30.5" customHeight="1" spans="1:35">
       <c r="A118" s="50" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B118" s="59" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C118" s="60" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E118" s="20">
         <v>2</v>
@@ -12413,10 +13192,10 @@
         <v>202</v>
       </c>
       <c r="N118" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O118" s="19" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="P118" s="19">
         <v>0</v>
@@ -12434,10 +13213,10 @@
       <c r="Y118" s="29"/>
       <c r="Z118" s="41"/>
       <c r="AA118" s="15" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AB118" s="26" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AC118" s="34"/>
       <c r="AD118" s="35"/>
@@ -12449,16 +13228,16 @@
     </row>
     <row r="119" ht="49.5" spans="1:35">
       <c r="A119" s="53" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B119" s="61" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C119" s="62" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E119" s="20">
         <v>2</v>
@@ -12488,7 +13267,7 @@
         <v>202</v>
       </c>
       <c r="N119" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O119" s="19" t="s">
         <v>44</v>
@@ -12511,10 +13290,10 @@
       <c r="Y119" s="29"/>
       <c r="Z119" s="41"/>
       <c r="AA119" s="15" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="AB119" s="26" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="AC119" s="34"/>
       <c r="AD119" s="35"/>
@@ -12526,16 +13305,16 @@
     </row>
     <row r="120" ht="30.5" customHeight="1" spans="1:35">
       <c r="A120" s="63" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B120" s="64" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C120" s="65" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D120" s="66" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E120" s="67">
         <v>2</v>
@@ -12565,7 +13344,7 @@
         <v>202</v>
       </c>
       <c r="N120" s="68" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O120" s="19" t="s">
         <v>44</v>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="rune_config" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="585">
   <si>
     <t>名字</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每拥有一个未分配的技能点都会提供%value%%%的</t>
     </r>
     <r>
@@ -216,6 +222,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>基础技能提高%BasicAbilityDmg.Base%%%的</t>
     </r>
     <r>
@@ -247,6 +259,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>所有耗蓝型技能基于消耗的蓝量提升伤害，每消耗最大蓝量的1%，提高%value%%%的</t>
     </r>
     <r>
@@ -293,6 +311,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>获得%DmgReductionPct.Base%%%的</t>
     </r>
     <r>
@@ -415,6 +439,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>击杀敌人时有%chance%%%概率获得%bp_ingame%%%的</t>
     </r>
     <r>
@@ -459,6 +489,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>获得%DamageBonusMul.Base%%%的</t>
     </r>
     <r>
@@ -530,6 +566,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>来自于神圣装备的技能获得%SacredEquipSkillDmg%%%的</t>
     </r>
     <r>
@@ -579,6 +621,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每秒会降低5点蓝量，但是蓝量大于%last_mana_pct%%%时，获得%bp_ingame%%%的</t>
     </r>
     <r>
@@ -631,6 +679,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>获得%DamageBonusMul.Base%%%的</t>
     </r>
     <r>
@@ -745,6 +799,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每损失%ever_hp_pct%%%生命值，提高%ever_dmg_bonus%%%的</t>
     </r>
     <r>
@@ -806,6 +866,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>爆炸箭对生命值高于%hp_pct%%%的敌人提高%bonus_value%%%的</t>
     </r>
     <r>
@@ -856,6 +922,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>穿透箭</t>
     </r>
     <r>
@@ -906,6 +978,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>分裂箭的</t>
     </r>
     <r>
@@ -938,6 +1016,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>分裂箭对减速的敌人提高200%的</t>
     </r>
     <r>
@@ -964,6 +1048,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>连续射击的</t>
     </r>
     <r>
@@ -1011,6 +1101,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>连续射击【冰爆】的</t>
     </r>
     <r>
@@ -1058,6 +1154,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>散射的</t>
     </r>
     <r>
@@ -1090,6 +1192,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>散射【火力覆盖】提高50%的</t>
     </r>
     <r>
@@ -1134,6 +1242,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>散射【痛击】生效时，</t>
     </r>
     <r>
@@ -1172,6 +1286,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>风暴环绕的</t>
     </r>
     <r>
@@ -1207,6 +1327,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>风暴环绕【退散】生效时，增加50%的</t>
     </r>
     <r>
@@ -1263,6 +1389,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>箭雨的</t>
     </r>
     <r>
@@ -1298,6 +1430,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>箭雨【燃矢】</t>
     </r>
     <r>
@@ -1387,6 +1525,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>使用能量回复后，获得35%</t>
     </r>
     <r>
@@ -1419,6 +1563,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>复仇持续期间，基础技能提高100%</t>
     </r>
     <r>
@@ -1457,6 +1607,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>雷鸣</t>
     </r>
     <r>
@@ -1525,6 +1681,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>炎龙</t>
     </r>
     <r>
@@ -1563,6 +1725,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>元素缠绕系列</t>
     </r>
     <r>
@@ -1610,6 +1778,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>霜降对被冻结的单位提高200%的</t>
     </r>
     <r>
@@ -1639,6 +1813,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>雷电屏障系列的</t>
     </r>
     <r>
@@ -1704,6 +1884,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>元素轰炸系列的</t>
     </r>
     <r>
@@ -1787,6 +1973,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>极寒领域对冻结的单位提升55%的</t>
     </r>
     <r>
@@ -1825,6 +2017,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>聪慧每消耗1点蓝量该次技能提高2%的</t>
     </r>
     <r>
@@ -1854,6 +2052,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>旋风斩</t>
     </r>
     <r>
@@ -1883,6 +2087,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>锤锤</t>
     </r>
     <r>
@@ -1912,6 +2122,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>冲锋</t>
     </r>
     <r>
@@ -1941,6 +2157,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>裂地斩</t>
     </r>
     <r>
@@ -1970,6 +2192,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>冲锋触发公牛时，公牛提高100%的</t>
     </r>
     <r>
@@ -2017,6 +2245,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>痛割命中多人时提高30%的</t>
     </r>
     <r>
@@ -2073,6 +2307,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>旋风斩触发收割时，提高200%的</t>
     </r>
     <r>
@@ -2102,6 +2342,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>冲锋在触发牵制的期间提高100%的</t>
     </r>
     <r>
@@ -2328,6 +2574,12 @@
   </si>
   <si>
     <t>下一波刷新时结算，包括boss波</t>
+  </si>
+  <si>
+    <t>AHB 10</t>
+  </si>
+  <si>
+    <t>AIBP 25</t>
   </si>
   <si>
     <t>rune_108</t>
@@ -2445,6 +2697,9 @@
 }</t>
   </si>
   <si>
+    <t>hp_pct 3</t>
+  </si>
+  <si>
     <t>rune_113</t>
   </si>
   <si>
@@ -2454,6 +2709,14 @@
     <t>移动速度降低15%，每升一级提高1%移动速度</t>
   </si>
   <si>
+    <t>MoveSpeed {
+"MulRegion" "-15"
+}</t>
+  </si>
+  <si>
+    <t>move_speed 1</t>
+  </si>
+  <si>
     <t>rune_114</t>
   </si>
   <si>
@@ -2461,6 +2724,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每过15秒，获得在-50%~125%波动的</t>
     </r>
     <r>
@@ -2529,7 +2798,7 @@
     <t>GetExpProALL</t>
   </si>
   <si>
-    <t>self 25</t>
+    <t>self 50</t>
   </si>
   <si>
     <t>else 25</t>
@@ -2542,6 +2811,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每秒扣除5点蓝量，对自身500码范围内敌人造成每秒扣除蓝量的1000%</t>
     </r>
     <r>
@@ -4387,12 +4662,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E8710E2B-51A0-4E9C-A362-D240BE9CA782}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{79C3D567-1EB4-4C61-8998-507CBE0EA25E}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0A56AA1B-FE22-4752-8076-EF36341B9431}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0F78A6C0-8A92-4B22-ABD7-514E890BB43A}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -4404,7 +4679,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{6ACFA246-58E5-4C7C-B4DB-BA4B63BC593D}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{C61AE516-7C33-4A34-A6DF-319C472219D7}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -4720,10 +4995,10 @@
   <sheetPr/>
   <dimension ref="A1:AI120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A99" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="Y1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="AB108" sqref="AB108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12543,8 +12818,12 @@
       <c r="X109" s="26"/>
       <c r="Y109" s="29"/>
       <c r="Z109" s="41"/>
-      <c r="AA109" s="15"/>
-      <c r="AB109" s="26"/>
+      <c r="AA109" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB109" s="26" t="s">
+        <v>520</v>
+      </c>
       <c r="AC109" s="34"/>
       <c r="AD109" s="35"/>
       <c r="AE109" s="35"/>
@@ -12555,16 +12834,16 @@
     </row>
     <row r="110" ht="30.5" customHeight="1" spans="1:35">
       <c r="A110" s="53" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B110" s="54" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C110" s="55" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E110" s="20">
         <v>1</v>
@@ -12618,7 +12897,7 @@
         <v>317</v>
       </c>
       <c r="AB110" s="26" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AC110" s="34"/>
       <c r="AD110" s="35"/>
@@ -12630,16 +12909,16 @@
     </row>
     <row r="111" ht="49.5" spans="1:35">
       <c r="A111" s="56" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E111" s="20">
         <v>2</v>
@@ -12682,10 +12961,10 @@
       </c>
       <c r="R111" s="19"/>
       <c r="S111" s="21" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="T111" s="21" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="U111" s="19"/>
       <c r="V111" s="19"/>
@@ -12705,16 +12984,16 @@
     </row>
     <row r="112" ht="49.5" spans="1:35">
       <c r="A112" s="53" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B112" s="54" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C112" s="55" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E112" s="20">
         <v>2</v>
@@ -12758,7 +13037,7 @@
       <c r="R112" s="19"/>
       <c r="S112" s="21"/>
       <c r="T112" s="21" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="U112" s="19"/>
       <c r="V112" s="19"/>
@@ -12767,7 +13046,7 @@
       <c r="Y112" s="29"/>
       <c r="Z112" s="41"/>
       <c r="AA112" s="15" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AB112" s="26"/>
       <c r="AC112" s="34"/>
@@ -12780,16 +13059,16 @@
     </row>
     <row r="113" ht="49.5" spans="1:35">
       <c r="A113" s="53" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B113" s="54" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C113" s="55" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E113" s="20">
         <v>2</v>
@@ -12832,7 +13111,7 @@
       </c>
       <c r="R113" s="19"/>
       <c r="S113" s="21" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="T113" s="21"/>
       <c r="U113" s="19"/>
@@ -12842,10 +13121,10 @@
       <c r="Y113" s="29"/>
       <c r="Z113" s="41"/>
       <c r="AA113" s="15" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AB113" s="26" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AC113" s="34"/>
       <c r="AD113" s="35"/>
@@ -12857,13 +13136,13 @@
     </row>
     <row r="114" ht="49.5" spans="1:35">
       <c r="A114" s="50" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B114" s="51" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C114" s="52" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D114" s="18" t="s">
         <v>518</v>
@@ -12910,7 +13189,7 @@
       <c r="R114" s="19"/>
       <c r="S114" s="21"/>
       <c r="T114" s="21" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="U114" s="19"/>
       <c r="V114" s="19"/>
@@ -12918,7 +13197,9 @@
       <c r="X114" s="26"/>
       <c r="Y114" s="29"/>
       <c r="Z114" s="41"/>
-      <c r="AA114" s="15"/>
+      <c r="AA114" s="15" t="s">
+        <v>549</v>
+      </c>
       <c r="AB114" s="26"/>
       <c r="AC114" s="34"/>
       <c r="AD114" s="35"/>
@@ -12930,16 +13211,16 @@
     </row>
     <row r="115" ht="30.5" customHeight="1" spans="1:35">
       <c r="A115" s="50" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B115" s="51" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C115" s="52" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E115" s="20">
         <v>2</v>
@@ -12982,14 +13263,18 @@
       </c>
       <c r="R115" s="19"/>
       <c r="S115" s="21"/>
-      <c r="T115" s="21"/>
+      <c r="T115" s="21" t="s">
+        <v>553</v>
+      </c>
       <c r="U115" s="19"/>
       <c r="V115" s="19"/>
       <c r="W115" s="19"/>
       <c r="X115" s="26"/>
       <c r="Y115" s="29"/>
       <c r="Z115" s="41"/>
-      <c r="AA115" s="15"/>
+      <c r="AA115" s="15" t="s">
+        <v>554</v>
+      </c>
       <c r="AB115" s="26"/>
       <c r="AC115" s="34"/>
       <c r="AD115" s="35"/>
@@ -13001,16 +13286,16 @@
     </row>
     <row r="116" ht="30.5" customHeight="1" spans="1:35">
       <c r="A116" s="53" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B116" s="54" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C116" s="55" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="E116" s="20">
         <v>2</v>
@@ -13061,13 +13346,13 @@
       <c r="Y116" s="29"/>
       <c r="Z116" s="41"/>
       <c r="AA116" s="15" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="AB116" s="26" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="AC116" s="34" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="AD116" s="35"/>
       <c r="AE116" s="35"/>
@@ -13078,16 +13363,16 @@
     </row>
     <row r="117" ht="30.5" customHeight="1" spans="1:35">
       <c r="A117" s="53" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B117" s="54" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C117" s="55" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="E117" s="20">
         <v>2</v>
@@ -13138,10 +13423,10 @@
       <c r="Y117" s="29"/>
       <c r="Z117" s="41"/>
       <c r="AA117" s="15" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AB117" s="26" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="AC117" s="34"/>
       <c r="AD117" s="35"/>
@@ -13153,16 +13438,16 @@
     </row>
     <row r="118" ht="30.5" customHeight="1" spans="1:35">
       <c r="A118" s="50" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B118" s="59" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="C118" s="60" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="E118" s="20">
         <v>2</v>
@@ -13195,7 +13480,7 @@
         <v>334</v>
       </c>
       <c r="O118" s="19" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="P118" s="19">
         <v>0</v>
@@ -13213,10 +13498,10 @@
       <c r="Y118" s="29"/>
       <c r="Z118" s="41"/>
       <c r="AA118" s="15" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="AB118" s="26" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="AC118" s="34"/>
       <c r="AD118" s="35"/>
@@ -13228,16 +13513,16 @@
     </row>
     <row r="119" ht="49.5" spans="1:35">
       <c r="A119" s="53" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B119" s="61" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C119" s="62" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="E119" s="20">
         <v>2</v>
@@ -13290,10 +13575,10 @@
       <c r="Y119" s="29"/>
       <c r="Z119" s="41"/>
       <c r="AA119" s="15" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="AB119" s="26" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="AC119" s="34"/>
       <c r="AD119" s="35"/>
@@ -13305,16 +13590,16 @@
     </row>
     <row r="120" ht="30.5" customHeight="1" spans="1:35">
       <c r="A120" s="63" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B120" s="64" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C120" s="65" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D120" s="66" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="E120" s="67">
         <v>2</v>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="rune_config" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="586">
   <si>
     <t>名字</t>
   </si>
@@ -769,6 +769,9 @@
   </si>
   <si>
     <t>item_rune/移动圣塔</t>
+  </si>
+  <si>
+    <t>chance 8</t>
   </si>
   <si>
     <t>rune_22</t>
@@ -2455,6 +2458,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>自身每拥有1%移速加成，自身获得1%</t>
     </r>
     <r>
@@ -2560,6 +2569,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每存活一波，下一波开局提升10点技能急速，10%</t>
     </r>
     <r>
@@ -2604,6 +2619,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>提高40%的</t>
     </r>
     <r>
@@ -4662,12 +4683,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{79C3D567-1EB4-4C61-8998-507CBE0EA25E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D2FC62DC-C8C0-48EB-A3B1-09EC11477362}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0F78A6C0-8A92-4B22-ABD7-514E890BB43A}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{773556B0-76F4-49C1-AFA0-4A14595825A9}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -4679,7 +4700,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{C61AE516-7C33-4A34-A6DF-319C472219D7}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{17E34D0B-0F92-444E-85D8-280BC8DDE12E}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -4995,10 +5016,10 @@
   <sheetPr/>
   <dimension ref="A1:AI120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A99" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AB108" sqref="AB108"/>
+      <selection pane="topRight" activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6760,8 +6781,12 @@
       <c r="X23" s="26"/>
       <c r="Y23" s="29"/>
       <c r="Z23" s="15"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
+      <c r="AA23" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB23" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="AC23" s="19"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
@@ -6772,13 +6797,13 @@
     </row>
     <row r="24" ht="47" customHeight="1" spans="1:35">
       <c r="A24" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>102</v>
@@ -6811,7 +6836,7 @@
         <v>118</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O24" s="19" t="s">
         <v>44</v>
@@ -6832,13 +6857,13 @@
       <c r="Y24" s="30"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AB24" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AC24" s="19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
@@ -6849,13 +6874,13 @@
     </row>
     <row r="25" ht="47" customHeight="1" spans="1:35">
       <c r="A25" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>102</v>
@@ -6888,7 +6913,7 @@
         <v>42</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>44</v>
@@ -6912,7 +6937,7 @@
         <v>104</v>
       </c>
       <c r="AB25" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AC25" s="19"/>
       <c r="AD25" s="19"/>
@@ -6924,13 +6949,13 @@
     </row>
     <row r="26" ht="47" customHeight="1" spans="1:35">
       <c r="A26" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>102</v>
@@ -6963,7 +6988,7 @@
         <v>42</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O26" s="19" t="s">
         <v>44</v>
@@ -6984,10 +7009,10 @@
       <c r="Y26" s="30"/>
       <c r="Z26" s="31"/>
       <c r="AA26" s="32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AB26" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC26" s="32"/>
       <c r="AD26" s="32"/>
@@ -6999,13 +7024,13 @@
     </row>
     <row r="27" ht="31.25" customHeight="1" spans="1:35">
       <c r="A27" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>132</v>
@@ -7038,7 +7063,7 @@
         <v>42</v>
       </c>
       <c r="N27" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O27" s="19" t="s">
         <v>44</v>
@@ -7051,7 +7076,7 @@
       </c>
       <c r="R27" s="19"/>
       <c r="S27" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T27" s="21"/>
       <c r="U27" s="19"/>
@@ -7072,13 +7097,13 @@
     </row>
     <row r="28" ht="30.5" customHeight="1" spans="1:35">
       <c r="A28" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="20">
@@ -7106,10 +7131,10 @@
         <v>117</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O28" s="19" t="s">
         <v>44</v>
@@ -7130,10 +7155,10 @@
       <c r="Y28" s="30"/>
       <c r="Z28" s="36"/>
       <c r="AA28" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AB28" s="25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AC28" s="37"/>
       <c r="AD28" s="38"/>
@@ -7145,13 +7170,13 @@
     </row>
     <row r="29" ht="30.5" customHeight="1" spans="1:35">
       <c r="A29" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="20">
@@ -7179,10 +7204,10 @@
         <v>117</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O29" s="19" t="s">
         <v>44</v>
@@ -7203,10 +7228,10 @@
       <c r="Y29" s="29"/>
       <c r="Z29" s="33"/>
       <c r="AA29" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB29" s="26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AC29" s="34"/>
       <c r="AD29" s="35"/>
@@ -7218,13 +7243,13 @@
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:35">
       <c r="A30" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="20">
@@ -7252,10 +7277,10 @@
         <v>117</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O30" s="19" t="s">
         <v>44</v>
@@ -7276,7 +7301,7 @@
       <c r="Y30" s="30"/>
       <c r="Z30" s="36"/>
       <c r="AA30" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB30" s="26"/>
       <c r="AC30" s="37"/>
@@ -7289,13 +7314,13 @@
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:35">
       <c r="A31" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="20">
@@ -7323,10 +7348,10 @@
         <v>117</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N31" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O31" s="19" t="s">
         <v>44</v>
@@ -7347,10 +7372,10 @@
       <c r="Y31" s="29"/>
       <c r="Z31" s="33"/>
       <c r="AA31" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AB31" s="26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AC31" s="34"/>
       <c r="AD31" s="35"/>
@@ -7362,13 +7387,13 @@
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:35">
       <c r="A32" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="20">
@@ -7396,10 +7421,10 @@
         <v>117</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O32" s="19" t="s">
         <v>44</v>
@@ -7420,7 +7445,7 @@
       <c r="Y32" s="30"/>
       <c r="Z32" s="36"/>
       <c r="AA32" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB32" s="26"/>
       <c r="AC32" s="37"/>
@@ -7433,13 +7458,13 @@
     </row>
     <row r="33" ht="30.5" customHeight="1" spans="1:35">
       <c r="A33" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="20">
@@ -7467,10 +7492,10 @@
         <v>117</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O33" s="19" t="s">
         <v>44</v>
@@ -7491,7 +7516,7 @@
       <c r="Y33" s="29"/>
       <c r="Z33" s="33"/>
       <c r="AA33" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AB33" s="26"/>
       <c r="AC33" s="34"/>
@@ -7504,13 +7529,13 @@
     </row>
     <row r="34" ht="30.5" customHeight="1" spans="1:35">
       <c r="A34" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="20">
@@ -7538,10 +7563,10 @@
         <v>117</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N34" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O34" s="19" t="s">
         <v>44</v>
@@ -7562,7 +7587,7 @@
       <c r="Y34" s="30"/>
       <c r="Z34" s="36"/>
       <c r="AA34" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB34" s="26"/>
       <c r="AC34" s="37"/>
@@ -7575,13 +7600,13 @@
     </row>
     <row r="35" ht="30.5" customHeight="1" spans="1:35">
       <c r="A35" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="20">
@@ -7609,10 +7634,10 @@
         <v>117</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O35" s="19" t="s">
         <v>44</v>
@@ -7633,7 +7658,7 @@
       <c r="Y35" s="29"/>
       <c r="Z35" s="33"/>
       <c r="AA35" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AB35" s="26"/>
       <c r="AC35" s="34"/>
@@ -7646,13 +7671,13 @@
     </row>
     <row r="36" ht="30.5" customHeight="1" spans="1:35">
       <c r="A36" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="20">
@@ -7680,10 +7705,10 @@
         <v>117</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N36" s="19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O36" s="19" t="s">
         <v>44</v>
@@ -7704,7 +7729,7 @@
       <c r="Y36" s="30"/>
       <c r="Z36" s="36"/>
       <c r="AA36" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB36" s="26"/>
       <c r="AC36" s="37"/>
@@ -7717,13 +7742,13 @@
     </row>
     <row r="37" ht="30.5" customHeight="1" spans="1:35">
       <c r="A37" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="20">
@@ -7751,10 +7776,10 @@
         <v>117</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N37" s="19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O37" s="19" t="s">
         <v>44</v>
@@ -7775,7 +7800,7 @@
       <c r="Y37" s="29"/>
       <c r="Z37" s="33"/>
       <c r="AA37" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AB37" s="26"/>
       <c r="AC37" s="34"/>
@@ -7788,13 +7813,13 @@
     </row>
     <row r="38" ht="30.5" customHeight="1" spans="1:35">
       <c r="A38" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="20">
@@ -7822,10 +7847,10 @@
         <v>117</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N38" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O38" s="19" t="s">
         <v>44</v>
@@ -7846,7 +7871,7 @@
       <c r="Y38" s="30"/>
       <c r="Z38" s="36"/>
       <c r="AA38" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB38" s="26"/>
       <c r="AC38" s="39"/>
@@ -7859,13 +7884,13 @@
     </row>
     <row r="39" ht="30.5" customHeight="1" spans="1:35">
       <c r="A39" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="20">
@@ -7893,10 +7918,10 @@
         <v>117</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N39" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O39" s="19" t="s">
         <v>44</v>
@@ -7917,7 +7942,7 @@
       <c r="Y39" s="29"/>
       <c r="Z39" s="41"/>
       <c r="AA39" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AB39" s="26"/>
       <c r="AC39" s="34"/>
@@ -7930,16 +7955,16 @@
     </row>
     <row r="40" ht="30.5" customHeight="1" spans="1:35">
       <c r="A40" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E40" s="20">
         <v>0</v>
@@ -7966,10 +7991,10 @@
         <v>117</v>
       </c>
       <c r="M40" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N40" s="19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O40" s="19" t="s">
         <v>44</v>
@@ -7990,7 +8015,7 @@
       <c r="Y40" s="30"/>
       <c r="Z40" s="43"/>
       <c r="AA40" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AB40" s="26"/>
       <c r="AC40" s="37"/>
@@ -8003,16 +8028,16 @@
     </row>
     <row r="41" ht="30.5" customHeight="1" spans="1:35">
       <c r="A41" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E41" s="20">
         <v>0</v>
@@ -8039,10 +8064,10 @@
         <v>117</v>
       </c>
       <c r="M41" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N41" s="19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O41" s="19" t="s">
         <v>44</v>
@@ -8063,7 +8088,7 @@
       <c r="Y41" s="29"/>
       <c r="Z41" s="41"/>
       <c r="AA41" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB41" s="26"/>
       <c r="AC41" s="34"/>
@@ -8076,13 +8101,13 @@
     </row>
     <row r="42" ht="30.5" customHeight="1" spans="1:35">
       <c r="A42" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="20">
@@ -8110,10 +8135,10 @@
         <v>117</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N42" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O42" s="19" t="s">
         <v>44</v>
@@ -8134,7 +8159,7 @@
       <c r="Y42" s="30"/>
       <c r="Z42" s="36"/>
       <c r="AA42" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AB42" s="26"/>
       <c r="AC42" s="37"/>
@@ -8147,13 +8172,13 @@
     </row>
     <row r="43" ht="30.5" customHeight="1" spans="1:35">
       <c r="A43" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="20">
@@ -8181,10 +8206,10 @@
         <v>117</v>
       </c>
       <c r="M43" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N43" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O43" s="19" t="s">
         <v>44</v>
@@ -8205,7 +8230,7 @@
       <c r="Y43" s="29"/>
       <c r="Z43" s="41"/>
       <c r="AA43" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AB43" s="26"/>
       <c r="AC43" s="34"/>
@@ -8218,13 +8243,13 @@
     </row>
     <row r="44" ht="30.5" customHeight="1" spans="1:35">
       <c r="A44" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="20">
@@ -8252,10 +8277,10 @@
         <v>117</v>
       </c>
       <c r="M44" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N44" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O44" s="19" t="s">
         <v>44</v>
@@ -8276,7 +8301,7 @@
       <c r="Y44" s="30"/>
       <c r="Z44" s="43"/>
       <c r="AA44" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AB44" s="26"/>
       <c r="AC44" s="37"/>
@@ -8289,13 +8314,13 @@
     </row>
     <row r="45" ht="30.5" customHeight="1" spans="1:35">
       <c r="A45" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="20">
@@ -8323,10 +8348,10 @@
         <v>117</v>
       </c>
       <c r="M45" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N45" s="19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O45" s="19" t="s">
         <v>44</v>
@@ -8347,7 +8372,7 @@
       <c r="Y45" s="29"/>
       <c r="Z45" s="41"/>
       <c r="AA45" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB45" s="26"/>
       <c r="AC45" s="34"/>
@@ -8360,13 +8385,13 @@
     </row>
     <row r="46" ht="30.5" customHeight="1" spans="1:35">
       <c r="A46" s="15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="20">
@@ -8394,10 +8419,10 @@
         <v>117</v>
       </c>
       <c r="M46" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N46" s="19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O46" s="19" t="s">
         <v>44</v>
@@ -8418,7 +8443,7 @@
       <c r="Y46" s="30"/>
       <c r="Z46" s="43"/>
       <c r="AA46" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AB46" s="26"/>
       <c r="AC46" s="37"/>
@@ -8431,16 +8456,16 @@
     </row>
     <row r="47" ht="30.5" customHeight="1" spans="1:35">
       <c r="A47" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E47" s="20">
         <v>0</v>
@@ -8467,10 +8492,10 @@
         <v>117</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N47" s="19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O47" s="19" t="s">
         <v>44</v>
@@ -8491,10 +8516,10 @@
       <c r="Y47" s="29"/>
       <c r="Z47" s="41"/>
       <c r="AA47" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AB47" s="26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AC47" s="34"/>
       <c r="AD47" s="35"/>
@@ -8506,13 +8531,13 @@
     </row>
     <row r="48" ht="30.5" customHeight="1" spans="1:35">
       <c r="A48" s="15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="20">
@@ -8540,10 +8565,10 @@
         <v>117</v>
       </c>
       <c r="M48" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N48" s="19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O48" s="19" t="s">
         <v>44</v>
@@ -8564,7 +8589,7 @@
       <c r="Y48" s="30"/>
       <c r="Z48" s="43"/>
       <c r="AA48" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AB48" s="26"/>
       <c r="AC48" s="37"/>
@@ -8577,13 +8602,13 @@
     </row>
     <row r="49" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A49" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="20">
@@ -8611,10 +8636,10 @@
         <v>117</v>
       </c>
       <c r="M49" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N49" s="19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O49" s="19" t="s">
         <v>44</v>
@@ -8635,7 +8660,7 @@
       <c r="Y49" s="29"/>
       <c r="Z49" s="41"/>
       <c r="AA49" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AB49" s="26"/>
       <c r="AC49" s="34"/>
@@ -8648,13 +8673,13 @@
     </row>
     <row r="50" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A50" s="15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="20">
@@ -8682,10 +8707,10 @@
         <v>117</v>
       </c>
       <c r="M50" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N50" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O50" s="19" t="s">
         <v>44</v>
@@ -8706,10 +8731,10 @@
       <c r="Y50" s="30"/>
       <c r="Z50" s="43"/>
       <c r="AA50" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB50" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC50" s="37"/>
       <c r="AD50" s="38"/>
@@ -8721,13 +8746,13 @@
     </row>
     <row r="51" ht="30.5" customHeight="1" spans="1:35">
       <c r="A51" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="20">
@@ -8755,10 +8780,10 @@
         <v>117</v>
       </c>
       <c r="M51" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N51" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O51" s="19" t="s">
         <v>44</v>
@@ -8779,10 +8804,10 @@
       <c r="Y51" s="29"/>
       <c r="Z51" s="41"/>
       <c r="AA51" s="15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AB51" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC51" s="34"/>
       <c r="AD51" s="35"/>
@@ -8794,13 +8819,13 @@
     </row>
     <row r="52" ht="30.5" customHeight="1" spans="1:35">
       <c r="A52" s="15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="20">
@@ -8828,10 +8853,10 @@
         <v>117</v>
       </c>
       <c r="M52" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N52" s="19" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O52" s="19" t="s">
         <v>44</v>
@@ -8852,7 +8877,7 @@
       <c r="Y52" s="30"/>
       <c r="Z52" s="43"/>
       <c r="AA52" s="15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AB52" s="26"/>
       <c r="AC52" s="37"/>
@@ -8865,13 +8890,13 @@
     </row>
     <row r="53" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A53" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="20">
@@ -8899,10 +8924,10 @@
         <v>117</v>
       </c>
       <c r="M53" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N53" s="19" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O53" s="19" t="s">
         <v>44</v>
@@ -8923,7 +8948,7 @@
       <c r="Y53" s="29"/>
       <c r="Z53" s="41"/>
       <c r="AA53" s="15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AB53" s="26"/>
       <c r="AC53" s="34"/>
@@ -8936,13 +8961,13 @@
     </row>
     <row r="54" ht="30.5" customHeight="1" spans="1:35">
       <c r="A54" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="20">
@@ -8970,10 +8995,10 @@
         <v>117</v>
       </c>
       <c r="M54" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N54" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O54" s="19" t="s">
         <v>44</v>
@@ -9005,13 +9030,13 @@
     </row>
     <row r="55" ht="30.5" customHeight="1" spans="1:35">
       <c r="A55" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="20">
@@ -9039,10 +9064,10 @@
         <v>117</v>
       </c>
       <c r="M55" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N55" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O55" s="19" t="s">
         <v>44</v>
@@ -9074,13 +9099,13 @@
     </row>
     <row r="56" ht="30.5" customHeight="1" spans="1:35">
       <c r="A56" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="20">
@@ -9108,10 +9133,10 @@
         <v>117</v>
       </c>
       <c r="M56" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N56" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O56" s="19" t="s">
         <v>44</v>
@@ -9143,13 +9168,13 @@
     </row>
     <row r="57" ht="30.5" customHeight="1" spans="1:35">
       <c r="A57" s="15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="20">
@@ -9177,10 +9202,10 @@
         <v>117</v>
       </c>
       <c r="M57" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N57" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O57" s="19" t="s">
         <v>44</v>
@@ -9212,13 +9237,13 @@
     </row>
     <row r="58" ht="30.5" customHeight="1" spans="1:35">
       <c r="A58" s="15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="20">
@@ -9246,10 +9271,10 @@
         <v>117</v>
       </c>
       <c r="M58" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N58" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O58" s="19" t="s">
         <v>44</v>
@@ -9281,13 +9306,13 @@
     </row>
     <row r="59" ht="30.5" customHeight="1" spans="1:35">
       <c r="A59" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="20">
@@ -9315,10 +9340,10 @@
         <v>117</v>
       </c>
       <c r="M59" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N59" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O59" s="19" t="s">
         <v>44</v>
@@ -9350,13 +9375,13 @@
     </row>
     <row r="60" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A60" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="20">
@@ -9384,10 +9409,10 @@
         <v>117</v>
       </c>
       <c r="M60" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N60" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O60" s="19" t="s">
         <v>44</v>
@@ -9419,13 +9444,13 @@
     </row>
     <row r="61" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A61" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="20">
@@ -9453,10 +9478,10 @@
         <v>117</v>
       </c>
       <c r="M61" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N61" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O61" s="19" t="s">
         <v>44</v>
@@ -9488,13 +9513,13 @@
     </row>
     <row r="62" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A62" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="20">
@@ -9522,10 +9547,10 @@
         <v>117</v>
       </c>
       <c r="M62" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N62" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O62" s="19" t="s">
         <v>44</v>
@@ -9557,13 +9582,13 @@
     </row>
     <row r="63" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A63" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="20">
@@ -9591,10 +9616,10 @@
         <v>117</v>
       </c>
       <c r="M63" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N63" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O63" s="19" t="s">
         <v>44</v>
@@ -9626,13 +9651,13 @@
     </row>
     <row r="64" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A64" s="15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="20">
@@ -9660,10 +9685,10 @@
         <v>117</v>
       </c>
       <c r="M64" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N64" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O64" s="19" t="s">
         <v>44</v>
@@ -9695,13 +9720,13 @@
     </row>
     <row r="65" ht="30.5" customHeight="1" spans="1:35">
       <c r="A65" s="15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D65" s="21"/>
       <c r="E65" s="20">
@@ -9729,10 +9754,10 @@
         <v>117</v>
       </c>
       <c r="M65" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N65" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O65" s="19" t="s">
         <v>44</v>
@@ -9764,13 +9789,13 @@
     </row>
     <row r="66" ht="30.5" customHeight="1" spans="1:35">
       <c r="A66" s="15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="20">
@@ -9798,10 +9823,10 @@
         <v>117</v>
       </c>
       <c r="M66" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N66" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O66" s="19" t="s">
         <v>44</v>
@@ -9833,13 +9858,13 @@
     </row>
     <row r="67" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A67" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D67" s="21"/>
       <c r="E67" s="20">
@@ -9867,10 +9892,10 @@
         <v>117</v>
       </c>
       <c r="M67" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N67" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O67" s="19" t="s">
         <v>44</v>
@@ -9902,13 +9927,13 @@
     </row>
     <row r="68" ht="30.5" customHeight="1" spans="1:35">
       <c r="A68" s="15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="20">
@@ -9936,10 +9961,10 @@
         <v>117</v>
       </c>
       <c r="M68" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N68" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O68" s="19" t="s">
         <v>44</v>
@@ -9971,13 +9996,13 @@
     </row>
     <row r="69" ht="30.5" customHeight="1" spans="1:35">
       <c r="A69" s="15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D69" s="21"/>
       <c r="E69" s="20">
@@ -10005,10 +10030,10 @@
         <v>117</v>
       </c>
       <c r="M69" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N69" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O69" s="19" t="s">
         <v>44</v>
@@ -10040,13 +10065,13 @@
     </row>
     <row r="70" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A70" s="15" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="20">
@@ -10074,10 +10099,10 @@
         <v>117</v>
       </c>
       <c r="M70" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N70" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O70" s="19" t="s">
         <v>44</v>
@@ -10109,13 +10134,13 @@
     </row>
     <row r="71" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A71" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D71" s="21"/>
       <c r="E71" s="20">
@@ -10143,10 +10168,10 @@
         <v>117</v>
       </c>
       <c r="M71" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N71" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O71" s="19" t="s">
         <v>44</v>
@@ -10178,13 +10203,13 @@
     </row>
     <row r="72" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A72" s="15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="20">
@@ -10212,10 +10237,10 @@
         <v>117</v>
       </c>
       <c r="M72" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N72" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O72" s="19" t="s">
         <v>44</v>
@@ -10247,13 +10272,13 @@
     </row>
     <row r="73" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A73" s="15" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="20">
@@ -10281,10 +10306,10 @@
         <v>117</v>
       </c>
       <c r="M73" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N73" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O73" s="19" t="s">
         <v>44</v>
@@ -10316,13 +10341,13 @@
     </row>
     <row r="74" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A74" s="15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="20">
@@ -10350,10 +10375,10 @@
         <v>117</v>
       </c>
       <c r="M74" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N74" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O74" s="19" t="s">
         <v>44</v>
@@ -10385,13 +10410,13 @@
     </row>
     <row r="75" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A75" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D75" s="21"/>
       <c r="E75" s="20">
@@ -10419,10 +10444,10 @@
         <v>117</v>
       </c>
       <c r="M75" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N75" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O75" s="19" t="s">
         <v>44</v>
@@ -10454,13 +10479,13 @@
     </row>
     <row r="76" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A76" s="15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="20">
@@ -10488,10 +10513,10 @@
         <v>117</v>
       </c>
       <c r="M76" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N76" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O76" s="19" t="s">
         <v>44</v>
@@ -10523,13 +10548,13 @@
     </row>
     <row r="77" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A77" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D77" s="21"/>
       <c r="E77" s="20">
@@ -10557,10 +10582,10 @@
         <v>117</v>
       </c>
       <c r="M77" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N77" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O77" s="19" t="s">
         <v>44</v>
@@ -10592,13 +10617,13 @@
     </row>
     <row r="78" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A78" s="15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="20">
@@ -10626,10 +10651,10 @@
         <v>117</v>
       </c>
       <c r="M78" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N78" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O78" s="19" t="s">
         <v>44</v>
@@ -10661,13 +10686,13 @@
     </row>
     <row r="79" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A79" s="15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D79" s="21"/>
       <c r="E79" s="20">
@@ -10695,10 +10720,10 @@
         <v>117</v>
       </c>
       <c r="M79" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N79" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O79" s="19" t="s">
         <v>44</v>
@@ -10730,13 +10755,13 @@
     </row>
     <row r="80" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A80" s="15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="20">
@@ -10764,10 +10789,10 @@
         <v>117</v>
       </c>
       <c r="M80" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N80" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O80" s="19" t="s">
         <v>44</v>
@@ -10799,13 +10824,13 @@
     </row>
     <row r="81" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A81" s="15" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="20">
@@ -10833,10 +10858,10 @@
         <v>117</v>
       </c>
       <c r="M81" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N81" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O81" s="19" t="s">
         <v>44</v>
@@ -10868,13 +10893,13 @@
     </row>
     <row r="82" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A82" s="15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="20">
@@ -10902,10 +10927,10 @@
         <v>117</v>
       </c>
       <c r="M82" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N82" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O82" s="19" t="s">
         <v>44</v>
@@ -10937,13 +10962,13 @@
     </row>
     <row r="83" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A83" s="15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="20">
@@ -10971,10 +10996,10 @@
         <v>117</v>
       </c>
       <c r="M83" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N83" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O83" s="19" t="s">
         <v>44</v>
@@ -11006,13 +11031,13 @@
     </row>
     <row r="84" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A84" s="15" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="20">
@@ -11040,10 +11065,10 @@
         <v>117</v>
       </c>
       <c r="M84" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N84" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O84" s="19" t="s">
         <v>44</v>
@@ -11075,13 +11100,13 @@
     </row>
     <row r="85" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A85" s="15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="20">
@@ -11109,10 +11134,10 @@
         <v>117</v>
       </c>
       <c r="M85" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N85" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O85" s="19" t="s">
         <v>44</v>
@@ -11144,13 +11169,13 @@
     </row>
     <row r="86" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A86" s="15" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="20">
@@ -11178,10 +11203,10 @@
         <v>117</v>
       </c>
       <c r="M86" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N86" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O86" s="19" t="s">
         <v>44</v>
@@ -11213,13 +11238,13 @@
     </row>
     <row r="87" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A87" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D87" s="21"/>
       <c r="E87" s="20">
@@ -11247,10 +11272,10 @@
         <v>117</v>
       </c>
       <c r="M87" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N87" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O87" s="19" t="s">
         <v>44</v>
@@ -11282,13 +11307,13 @@
     </row>
     <row r="88" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A88" s="15" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="20">
@@ -11316,10 +11341,10 @@
         <v>117</v>
       </c>
       <c r="M88" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N88" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O88" s="19" t="s">
         <v>44</v>
@@ -11351,13 +11376,13 @@
     </row>
     <row r="89" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A89" s="15" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D89" s="21"/>
       <c r="E89" s="20">
@@ -11385,10 +11410,10 @@
         <v>117</v>
       </c>
       <c r="M89" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N89" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O89" s="19" t="s">
         <v>44</v>
@@ -11420,13 +11445,13 @@
     </row>
     <row r="90" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A90" s="15" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="20">
@@ -11454,10 +11479,10 @@
         <v>117</v>
       </c>
       <c r="M90" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N90" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O90" s="19" t="s">
         <v>44</v>
@@ -11489,13 +11514,13 @@
     </row>
     <row r="91" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A91" s="15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D91" s="21"/>
       <c r="E91" s="20">
@@ -11523,10 +11548,10 @@
         <v>117</v>
       </c>
       <c r="M91" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N91" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O91" s="19" t="s">
         <v>44</v>
@@ -11558,13 +11583,13 @@
     </row>
     <row r="92" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A92" s="15" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="20">
@@ -11592,10 +11617,10 @@
         <v>117</v>
       </c>
       <c r="M92" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N92" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O92" s="19" t="s">
         <v>44</v>
@@ -11627,13 +11652,13 @@
     </row>
     <row r="93" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A93" s="15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D93" s="21"/>
       <c r="E93" s="20">
@@ -11661,10 +11686,10 @@
         <v>117</v>
       </c>
       <c r="M93" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N93" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O93" s="19" t="s">
         <v>44</v>
@@ -11696,13 +11721,13 @@
     </row>
     <row r="94" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A94" s="15" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D94" s="21"/>
       <c r="E94" s="20">
@@ -11730,10 +11755,10 @@
         <v>117</v>
       </c>
       <c r="M94" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N94" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O94" s="19" t="s">
         <v>44</v>
@@ -11765,13 +11790,13 @@
     </row>
     <row r="95" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A95" s="15" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D95" s="21"/>
       <c r="E95" s="20">
@@ -11799,10 +11824,10 @@
         <v>117</v>
       </c>
       <c r="M95" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N95" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O95" s="19" t="s">
         <v>44</v>
@@ -11834,13 +11859,13 @@
     </row>
     <row r="96" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A96" s="15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D96" s="21"/>
       <c r="E96" s="20">
@@ -11868,10 +11893,10 @@
         <v>117</v>
       </c>
       <c r="M96" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N96" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O96" s="19" t="s">
         <v>44</v>
@@ -11903,13 +11928,13 @@
     </row>
     <row r="97" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A97" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D97" s="21"/>
       <c r="E97" s="20">
@@ -11937,10 +11962,10 @@
         <v>117</v>
       </c>
       <c r="M97" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N97" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O97" s="19" t="s">
         <v>44</v>
@@ -11972,13 +11997,13 @@
     </row>
     <row r="98" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A98" s="15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="20">
@@ -12006,10 +12031,10 @@
         <v>117</v>
       </c>
       <c r="M98" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N98" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O98" s="19" t="s">
         <v>44</v>
@@ -12041,13 +12066,13 @@
     </row>
     <row r="99" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A99" s="15" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D99" s="21"/>
       <c r="E99" s="20">
@@ -12075,10 +12100,10 @@
         <v>117</v>
       </c>
       <c r="M99" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N99" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O99" s="19" t="s">
         <v>44</v>
@@ -12110,13 +12135,13 @@
     </row>
     <row r="100" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A100" s="15" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="20">
@@ -12144,10 +12169,10 @@
         <v>117</v>
       </c>
       <c r="M100" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N100" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O100" s="19" t="s">
         <v>44</v>
@@ -12179,16 +12204,16 @@
     </row>
     <row r="101" ht="30.5" customHeight="1" spans="1:35">
       <c r="A101" s="50" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B101" s="51" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C101" s="52" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E101" s="20">
         <v>1</v>
@@ -12215,13 +12240,13 @@
         <v>117</v>
       </c>
       <c r="M101" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N101" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O101" s="19" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P101" s="19">
         <v>0</v>
@@ -12239,7 +12264,7 @@
       <c r="Y101" s="29"/>
       <c r="Z101" s="41"/>
       <c r="AA101" s="19" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AB101" s="26"/>
       <c r="AC101" s="34"/>
@@ -12252,13 +12277,13 @@
     </row>
     <row r="102" ht="30.5" customHeight="1" spans="1:35">
       <c r="A102" s="50" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B102" s="51" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C102" s="52" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D102" s="18"/>
       <c r="E102" s="20">
@@ -12286,13 +12311,13 @@
         <v>117</v>
       </c>
       <c r="M102" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N102" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O102" s="19" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P102" s="19">
         <v>0</v>
@@ -12310,7 +12335,7 @@
       <c r="Y102" s="29"/>
       <c r="Z102" s="41"/>
       <c r="AA102" s="15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AB102" s="26"/>
       <c r="AC102" s="34"/>
@@ -12323,16 +12348,16 @@
     </row>
     <row r="103" ht="33" spans="1:35">
       <c r="A103" s="53" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B103" s="54" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C103" s="55" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E103" s="20">
         <v>1</v>
@@ -12359,10 +12384,10 @@
         <v>117</v>
       </c>
       <c r="M103" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N103" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O103" s="19" t="s">
         <v>44</v>
@@ -12383,7 +12408,7 @@
       <c r="Y103" s="29"/>
       <c r="Z103" s="41"/>
       <c r="AA103" s="15" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AB103" s="26"/>
       <c r="AC103" s="34"/>
@@ -12396,16 +12421,16 @@
     </row>
     <row r="104" ht="30.5" customHeight="1" spans="1:35">
       <c r="A104" s="50" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B104" s="51" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C104" s="52" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E104" s="20">
         <v>1</v>
@@ -12432,13 +12457,13 @@
         <v>117</v>
       </c>
       <c r="M104" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N104" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O104" s="19" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P104" s="19">
         <v>0</v>
@@ -12456,7 +12481,7 @@
       <c r="Y104" s="29"/>
       <c r="Z104" s="41"/>
       <c r="AA104" s="15" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AB104" s="26"/>
       <c r="AC104" s="34"/>
@@ -12469,16 +12494,16 @@
     </row>
     <row r="105" ht="30.5" customHeight="1" spans="1:35">
       <c r="A105" s="50" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B105" s="51" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C105" s="52" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E105" s="20">
         <v>1</v>
@@ -12505,10 +12530,10 @@
         <v>117</v>
       </c>
       <c r="M105" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N105" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O105" s="19" t="s">
         <v>44</v>
@@ -12529,7 +12554,7 @@
       <c r="Y105" s="29"/>
       <c r="Z105" s="41"/>
       <c r="AA105" s="15" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AB105" s="26"/>
       <c r="AC105" s="34"/>
@@ -12542,16 +12567,16 @@
     </row>
     <row r="106" ht="30.5" customHeight="1" spans="1:35">
       <c r="A106" s="53" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B106" s="54" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C106" s="55" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E106" s="20">
         <v>1</v>
@@ -12578,10 +12603,10 @@
         <v>117</v>
       </c>
       <c r="M106" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N106" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O106" s="19" t="s">
         <v>44</v>
@@ -12602,7 +12627,7 @@
       <c r="Y106" s="29"/>
       <c r="Z106" s="41"/>
       <c r="AA106" s="15" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AB106" s="26"/>
       <c r="AC106" s="34"/>
@@ -12615,13 +12640,13 @@
     </row>
     <row r="107" ht="30.5" customHeight="1" spans="1:35">
       <c r="A107" s="53" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B107" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="20">
@@ -12649,10 +12674,10 @@
         <v>117</v>
       </c>
       <c r="M107" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N107" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O107" s="19" t="s">
         <v>44</v>
@@ -12673,7 +12698,7 @@
       <c r="Y107" s="29"/>
       <c r="Z107" s="41"/>
       <c r="AA107" s="15" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AB107" s="26"/>
       <c r="AC107" s="34"/>
@@ -12686,16 +12711,16 @@
     </row>
     <row r="108" ht="30.5" customHeight="1" spans="1:35">
       <c r="A108" s="50" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B108" s="51" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C108" s="52" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E108" s="20">
         <v>1</v>
@@ -12722,13 +12747,13 @@
         <v>117</v>
       </c>
       <c r="M108" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N108" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O108" s="19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P108" s="19">
         <v>0</v>
@@ -12746,7 +12771,7 @@
       <c r="Y108" s="29"/>
       <c r="Z108" s="41"/>
       <c r="AA108" s="15" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AB108" s="26"/>
       <c r="AC108" s="34"/>
@@ -12759,16 +12784,16 @@
     </row>
     <row r="109" ht="30.5" customHeight="1" spans="1:35">
       <c r="A109" s="50" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B109" s="51" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C109" s="52" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E109" s="20">
         <v>1</v>
@@ -12795,10 +12820,10 @@
         <v>117</v>
       </c>
       <c r="M109" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N109" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O109" s="19" t="s">
         <v>44</v>
@@ -12819,10 +12844,10 @@
       <c r="Y109" s="29"/>
       <c r="Z109" s="41"/>
       <c r="AA109" s="15" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AB109" s="26" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AC109" s="34"/>
       <c r="AD109" s="35"/>
@@ -12834,16 +12859,16 @@
     </row>
     <row r="110" ht="30.5" customHeight="1" spans="1:35">
       <c r="A110" s="53" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B110" s="54" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C110" s="55" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E110" s="20">
         <v>1</v>
@@ -12870,10 +12895,10 @@
         <v>117</v>
       </c>
       <c r="M110" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N110" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O110" s="19" t="s">
         <v>44</v>
@@ -12894,10 +12919,10 @@
       <c r="Y110" s="29"/>
       <c r="Z110" s="41"/>
       <c r="AA110" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AB110" s="26" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AC110" s="34"/>
       <c r="AD110" s="35"/>
@@ -12909,16 +12934,16 @@
     </row>
     <row r="111" ht="49.5" spans="1:35">
       <c r="A111" s="56" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E111" s="20">
         <v>2</v>
@@ -12945,10 +12970,10 @@
         <v>117</v>
       </c>
       <c r="M111" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N111" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O111" s="19" t="s">
         <v>44</v>
@@ -12961,10 +12986,10 @@
       </c>
       <c r="R111" s="19"/>
       <c r="S111" s="21" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="T111" s="21" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="U111" s="19"/>
       <c r="V111" s="19"/>
@@ -12984,16 +13009,16 @@
     </row>
     <row r="112" ht="49.5" spans="1:35">
       <c r="A112" s="53" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B112" s="54" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C112" s="55" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E112" s="20">
         <v>2</v>
@@ -13020,10 +13045,10 @@
         <v>117</v>
       </c>
       <c r="M112" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N112" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O112" s="19" t="s">
         <v>44</v>
@@ -13037,7 +13062,7 @@
       <c r="R112" s="19"/>
       <c r="S112" s="21"/>
       <c r="T112" s="21" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="U112" s="19"/>
       <c r="V112" s="19"/>
@@ -13046,7 +13071,7 @@
       <c r="Y112" s="29"/>
       <c r="Z112" s="41"/>
       <c r="AA112" s="15" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AB112" s="26"/>
       <c r="AC112" s="34"/>
@@ -13059,16 +13084,16 @@
     </row>
     <row r="113" ht="49.5" spans="1:35">
       <c r="A113" s="53" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B113" s="54" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C113" s="55" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E113" s="20">
         <v>2</v>
@@ -13095,10 +13120,10 @@
         <v>117</v>
       </c>
       <c r="M113" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N113" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O113" s="19" t="s">
         <v>44</v>
@@ -13111,7 +13136,7 @@
       </c>
       <c r="R113" s="19"/>
       <c r="S113" s="21" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="T113" s="21"/>
       <c r="U113" s="19"/>
@@ -13121,10 +13146,10 @@
       <c r="Y113" s="29"/>
       <c r="Z113" s="41"/>
       <c r="AA113" s="15" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AB113" s="26" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AC113" s="34"/>
       <c r="AD113" s="35"/>
@@ -13136,16 +13161,16 @@
     </row>
     <row r="114" ht="49.5" spans="1:35">
       <c r="A114" s="50" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B114" s="51" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C114" s="52" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E114" s="20">
         <v>2</v>
@@ -13172,10 +13197,10 @@
         <v>117</v>
       </c>
       <c r="M114" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N114" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O114" s="19" t="s">
         <v>44</v>
@@ -13189,7 +13214,7 @@
       <c r="R114" s="19"/>
       <c r="S114" s="21"/>
       <c r="T114" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="U114" s="19"/>
       <c r="V114" s="19"/>
@@ -13198,7 +13223,7 @@
       <c r="Y114" s="29"/>
       <c r="Z114" s="41"/>
       <c r="AA114" s="15" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AB114" s="26"/>
       <c r="AC114" s="34"/>
@@ -13211,16 +13236,16 @@
     </row>
     <row r="115" ht="30.5" customHeight="1" spans="1:35">
       <c r="A115" s="50" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B115" s="51" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C115" s="52" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E115" s="20">
         <v>2</v>
@@ -13247,10 +13272,10 @@
         <v>117</v>
       </c>
       <c r="M115" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N115" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O115" s="19" t="s">
         <v>44</v>
@@ -13264,7 +13289,7 @@
       <c r="R115" s="19"/>
       <c r="S115" s="21"/>
       <c r="T115" s="21" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="U115" s="19"/>
       <c r="V115" s="19"/>
@@ -13273,7 +13298,7 @@
       <c r="Y115" s="29"/>
       <c r="Z115" s="41"/>
       <c r="AA115" s="15" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AB115" s="26"/>
       <c r="AC115" s="34"/>
@@ -13286,16 +13311,16 @@
     </row>
     <row r="116" ht="30.5" customHeight="1" spans="1:35">
       <c r="A116" s="53" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B116" s="54" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C116" s="55" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E116" s="20">
         <v>2</v>
@@ -13322,10 +13347,10 @@
         <v>117</v>
       </c>
       <c r="M116" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N116" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O116" s="19" t="s">
         <v>44</v>
@@ -13346,13 +13371,13 @@
       <c r="Y116" s="29"/>
       <c r="Z116" s="41"/>
       <c r="AA116" s="15" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AB116" s="26" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AC116" s="34" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AD116" s="35"/>
       <c r="AE116" s="35"/>
@@ -13363,16 +13388,16 @@
     </row>
     <row r="117" ht="30.5" customHeight="1" spans="1:35">
       <c r="A117" s="53" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B117" s="54" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C117" s="55" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E117" s="20">
         <v>2</v>
@@ -13399,10 +13424,10 @@
         <v>117</v>
       </c>
       <c r="M117" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N117" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O117" s="19" t="s">
         <v>44</v>
@@ -13423,10 +13448,10 @@
       <c r="Y117" s="29"/>
       <c r="Z117" s="41"/>
       <c r="AA117" s="15" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AB117" s="26" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AC117" s="34"/>
       <c r="AD117" s="35"/>
@@ -13438,16 +13463,16 @@
     </row>
     <row r="118" ht="30.5" customHeight="1" spans="1:35">
       <c r="A118" s="50" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B118" s="59" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C118" s="60" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E118" s="20">
         <v>2</v>
@@ -13474,13 +13499,13 @@
         <v>117</v>
       </c>
       <c r="M118" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N118" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O118" s="19" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P118" s="19">
         <v>0</v>
@@ -13498,10 +13523,10 @@
       <c r="Y118" s="29"/>
       <c r="Z118" s="41"/>
       <c r="AA118" s="15" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AB118" s="26" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AC118" s="34"/>
       <c r="AD118" s="35"/>
@@ -13513,16 +13538,16 @@
     </row>
     <row r="119" ht="49.5" spans="1:35">
       <c r="A119" s="53" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B119" s="61" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C119" s="62" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E119" s="20">
         <v>2</v>
@@ -13549,10 +13574,10 @@
         <v>117</v>
       </c>
       <c r="M119" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N119" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O119" s="19" t="s">
         <v>44</v>
@@ -13575,10 +13600,10 @@
       <c r="Y119" s="29"/>
       <c r="Z119" s="41"/>
       <c r="AA119" s="15" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AB119" s="26" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AC119" s="34"/>
       <c r="AD119" s="35"/>
@@ -13590,16 +13615,16 @@
     </row>
     <row r="120" ht="30.5" customHeight="1" spans="1:35">
       <c r="A120" s="63" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B120" s="64" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C120" s="65" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D120" s="66" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E120" s="67">
         <v>2</v>
@@ -13626,10 +13651,10 @@
         <v>117</v>
       </c>
       <c r="M120" s="68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N120" s="68" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O120" s="19" t="s">
         <v>44</v>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="595">
   <si>
     <t>名字</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>普通技能值</t>
+  </si>
+  <si>
+    <t>kv1</t>
   </si>
   <si>
     <t>end</t>
@@ -1641,6 +1644,9 @@
     <t>item_rune/1</t>
   </si>
   <si>
+    <t>value 100</t>
+  </si>
+  <si>
     <t>rune_53</t>
   </si>
   <si>
@@ -1650,13 +1656,19 @@
     <t>悲鸣的要求改变为不需要暴击可直接触发</t>
   </si>
   <si>
+    <t>bm_value 1</t>
+  </si>
+  <si>
     <t>rune_54</t>
   </si>
   <si>
     <t>法爷#3</t>
   </si>
   <si>
-    <t>引雷区域扩大至半径500码</t>
+    <t>引雷区域半径提高200码</t>
+  </si>
+  <si>
+    <t>radius 200</t>
   </si>
   <si>
     <t>rune_55</t>
@@ -1675,6 +1687,9 @@
   </si>
   <si>
     <t>霜冻触发时，伤害提高10倍</t>
+  </si>
+  <si>
+    <t>bonus_mul 10</t>
   </si>
   <si>
     <t>rune_57</t>
@@ -1721,6 +1736,9 @@
     <t>龙啸不再需要蓄力即可发出最高数量炎龙</t>
   </si>
   <si>
+    <t>lx_key 1</t>
+  </si>
+  <si>
     <t>rune_59</t>
   </si>
   <si>
@@ -1756,6 +1774,9 @@
     </r>
   </si>
   <si>
+    <t>value 200</t>
+  </si>
+  <si>
     <t>rune_60</t>
   </si>
   <si>
@@ -1763,6 +1784,12 @@
   </si>
   <si>
     <t>炎爆每次生成火球时，一次性生成5个，火球数量上限+3</t>
+  </si>
+  <si>
+    <t>value 5</t>
+  </si>
+  <si>
+    <t>limit 3</t>
   </si>
   <si>
     <t>rune_61</t>
@@ -4683,12 +4710,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D2FC62DC-C8C0-48EB-A3B1-09EC11477362}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3F7FD713-E41B-45A2-9310-0DDA57E9DE35}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{773556B0-76F4-49C1-AFA0-4A14595825A9}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{042C2C82-8329-461C-A0B1-046E5015301B}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -4700,7 +4727,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{17E34D0B-0F92-444E-85D8-280BC8DDE12E}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{C2C54E0D-A090-4022-B41C-D8491ECC5475}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -5016,10 +5043,10 @@
   <sheetPr/>
   <dimension ref="A1:AI120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A53" workbookViewId="0">
       <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AA24" sqref="AA24"/>
+      <selection pane="topRight" activeCell="AA63" sqref="AA63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5113,7 +5140,9 @@
       <c r="Z1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="9"/>
+      <c r="AA1" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="AB1" s="9"/>
       <c r="AC1" s="9"/>
       <c r="AD1" s="9"/>
@@ -5122,61 +5151,61 @@
       <c r="AG1" s="9"/>
       <c r="AH1" s="9"/>
       <c r="AI1" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A2" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" s="23">
         <v>1</v>
@@ -5197,10 +5226,10 @@
         <v>6</v>
       </c>
       <c r="Y2" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA2" s="24">
         <v>1</v>
@@ -5227,18 +5256,18 @@
         <v>8</v>
       </c>
       <c r="AI2" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="63.5" customHeight="1" spans="1:35">
       <c r="A3" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="19">
@@ -5263,16 +5292,16 @@
         <v>1</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P3" s="19">
         <v>0</v>
@@ -5282,10 +5311,10 @@
       </c>
       <c r="R3" s="19"/>
       <c r="S3" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
@@ -5294,7 +5323,7 @@
       <c r="Y3" s="29"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB3" s="19"/>
       <c r="AC3" s="19"/>
@@ -5307,16 +5336,16 @@
     </row>
     <row r="4" ht="47" customHeight="1" spans="1:35">
       <c r="A4" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="19">
         <v>3</v>
@@ -5340,16 +5369,16 @@
         <v>1</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P4" s="19">
         <v>0</v>
@@ -5367,7 +5396,7 @@
       <c r="Y4" s="30"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB4" s="19"/>
       <c r="AC4" s="19"/>
@@ -5380,13 +5409,13 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="63.5" customHeight="1" spans="1:35">
       <c r="A5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="19">
@@ -5411,16 +5440,16 @@
         <v>1</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P5" s="19">
         <v>0</v>
@@ -5430,7 +5459,7 @@
       </c>
       <c r="R5" s="19"/>
       <c r="S5" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T5" s="21"/>
       <c r="U5" s="19"/>
@@ -5440,7 +5469,7 @@
       <c r="Y5" s="29"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB5" s="19"/>
       <c r="AC5" s="19"/>
@@ -5453,16 +5482,16 @@
     </row>
     <row r="6" ht="47" customHeight="1" spans="1:35">
       <c r="A6" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="19">
         <v>3</v>
@@ -5486,16 +5515,16 @@
         <v>1</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P6" s="19">
         <v>0</v>
@@ -5513,7 +5542,7 @@
       <c r="Y6" s="30"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB6" s="19"/>
       <c r="AC6" s="19"/>
@@ -5526,13 +5555,13 @@
     </row>
     <row r="7" ht="63.5" customHeight="1" spans="1:35">
       <c r="A7" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="19">
@@ -5557,16 +5586,16 @@
         <v>1</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="19">
         <v>0</v>
@@ -5576,7 +5605,7 @@
       </c>
       <c r="R7" s="19"/>
       <c r="S7" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" s="21"/>
       <c r="U7" s="19"/>
@@ -5597,13 +5626,13 @@
     </row>
     <row r="8" ht="63.5" customHeight="1" spans="1:35">
       <c r="A8" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19">
@@ -5628,16 +5657,16 @@
         <v>1</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P8" s="19">
         <v>0</v>
@@ -5647,7 +5676,7 @@
       </c>
       <c r="R8" s="19"/>
       <c r="S8" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" s="21"/>
       <c r="U8" s="19"/>
@@ -5668,13 +5697,13 @@
     </row>
     <row r="9" ht="63.5" customHeight="1" spans="1:35">
       <c r="A9" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="19">
@@ -5699,16 +5728,16 @@
         <v>1</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P9" s="19">
         <v>0</v>
@@ -5718,7 +5747,7 @@
       </c>
       <c r="R9" s="19"/>
       <c r="S9" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T9" s="21"/>
       <c r="U9" s="19"/>
@@ -5739,16 +5768,16 @@
     </row>
     <row r="10" ht="47" customHeight="1" spans="1:35">
       <c r="A10" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="19">
         <v>3</v>
@@ -5772,16 +5801,16 @@
         <v>1</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P10" s="19">
         <v>0</v>
@@ -5799,13 +5828,13 @@
       <c r="Y10" s="30"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB10" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC10" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
@@ -5816,16 +5845,16 @@
     </row>
     <row r="11" ht="63.5" customHeight="1" spans="1:35">
       <c r="A11" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" s="19">
         <v>0</v>
@@ -5849,16 +5878,16 @@
         <v>1</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P11" s="19">
         <v>0</v>
@@ -5868,7 +5897,7 @@
       </c>
       <c r="R11" s="19"/>
       <c r="S11" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="19"/>
@@ -5878,10 +5907,10 @@
       <c r="Y11" s="29"/>
       <c r="Z11" s="15"/>
       <c r="AA11" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB11" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC11" s="19"/>
       <c r="AD11" s="19"/>
@@ -5893,16 +5922,16 @@
     </row>
     <row r="12" ht="47" customHeight="1" spans="1:35">
       <c r="A12" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E12" s="19">
         <v>3</v>
@@ -5926,16 +5955,16 @@
         <v>1</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P12" s="19">
         <v>0</v>
@@ -5953,10 +5982,10 @@
       <c r="Y12" s="30"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB12" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC12" s="19"/>
       <c r="AD12" s="19"/>
@@ -5968,16 +5997,16 @@
     </row>
     <row r="13" ht="47" customHeight="1" spans="1:35">
       <c r="A13" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E13" s="19">
         <v>3</v>
@@ -6001,16 +6030,16 @@
         <v>1</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P13" s="19">
         <v>0</v>
@@ -6028,16 +6057,16 @@
       <c r="Y13" s="29"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB13" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC13" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD13" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
@@ -6047,16 +6076,16 @@
     </row>
     <row r="14" ht="63.5" customHeight="1" spans="1:35">
       <c r="A14" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E14" s="19">
         <v>3</v>
@@ -6080,16 +6109,16 @@
         <v>1</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P14" s="19">
         <v>0</v>
@@ -6099,7 +6128,7 @@
       </c>
       <c r="R14" s="19"/>
       <c r="S14" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T14" s="21"/>
       <c r="U14" s="19"/>
@@ -6109,10 +6138,10 @@
       <c r="Y14" s="30"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB14" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC14" s="19"/>
       <c r="AD14" s="19"/>
@@ -6124,13 +6153,13 @@
     </row>
     <row r="15" ht="63.5" customHeight="1" spans="1:35">
       <c r="A15" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="19">
@@ -6155,16 +6184,16 @@
         <v>1</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P15" s="19">
         <v>0</v>
@@ -6174,10 +6203,10 @@
       </c>
       <c r="R15" s="19"/>
       <c r="S15" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
@@ -6197,16 +6226,16 @@
     </row>
     <row r="16" ht="63.5" customHeight="1" spans="1:35">
       <c r="A16" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E16" s="19">
         <v>3</v>
@@ -6230,16 +6259,16 @@
         <v>1</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P16" s="19">
         <v>0</v>
@@ -6249,7 +6278,7 @@
       </c>
       <c r="R16" s="19"/>
       <c r="S16" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T16" s="21"/>
       <c r="U16" s="19"/>
@@ -6259,7 +6288,7 @@
       <c r="Y16" s="30"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB16" s="19"/>
       <c r="AC16" s="19"/>
@@ -6272,16 +6301,16 @@
     </row>
     <row r="17" ht="47" customHeight="1" spans="1:35">
       <c r="A17" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E17" s="19">
         <v>3</v>
@@ -6305,16 +6334,16 @@
         <v>1</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P17" s="19">
         <v>0</v>
@@ -6332,10 +6361,10 @@
       <c r="Y17" s="29"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB17" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC17" s="19"/>
       <c r="AD17" s="19"/>
@@ -6347,16 +6376,16 @@
     </row>
     <row r="18" ht="63.5" customHeight="1" spans="1:35">
       <c r="A18" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E18" s="19">
         <v>3</v>
@@ -6380,16 +6409,16 @@
         <v>1</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P18" s="19">
         <v>0</v>
@@ -6399,7 +6428,7 @@
       </c>
       <c r="R18" s="19"/>
       <c r="S18" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T18" s="21"/>
       <c r="U18" s="19"/>
@@ -6409,10 +6438,10 @@
       <c r="Y18" s="30"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AB18" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
@@ -6424,16 +6453,16 @@
     </row>
     <row r="19" ht="47" customHeight="1" spans="1:35">
       <c r="A19" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E19" s="19">
         <v>3</v>
@@ -6457,16 +6486,16 @@
         <v>1</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P19" s="19">
         <v>0</v>
@@ -6484,10 +6513,10 @@
       <c r="Y19" s="29"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AB19" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
@@ -6499,16 +6528,16 @@
     </row>
     <row r="20" ht="63.5" customHeight="1" spans="1:35">
       <c r="A20" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E20" s="19">
         <v>3</v>
@@ -6532,16 +6561,16 @@
         <v>1</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P20" s="19">
         <v>0</v>
@@ -6551,10 +6580,10 @@
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U20" s="19"/>
       <c r="V20" s="19"/>
@@ -6574,13 +6603,13 @@
     </row>
     <row r="21" ht="63.5" customHeight="1" spans="1:35">
       <c r="A21" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="19">
@@ -6605,16 +6634,16 @@
         <v>1</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P21" s="19">
         <v>0</v>
@@ -6624,7 +6653,7 @@
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T21" s="21"/>
       <c r="U21" s="19"/>
@@ -6645,16 +6674,16 @@
     </row>
     <row r="22" ht="63.5" customHeight="1" spans="1:35">
       <c r="A22" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22" s="19">
         <v>3</v>
@@ -6678,16 +6707,16 @@
         <v>1</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P22" s="19">
         <v>0</v>
@@ -6705,13 +6734,13 @@
       <c r="Y22" s="30"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AB22" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC22" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
@@ -6722,16 +6751,16 @@
     </row>
     <row r="23" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A23" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23" s="19">
         <v>3</v>
@@ -6755,16 +6784,16 @@
         <v>1</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O23" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P23" s="19">
         <v>0</v>
@@ -6782,10 +6811,10 @@
       <c r="Y23" s="29"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AB23" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC23" s="19"/>
       <c r="AD23" s="19"/>
@@ -6797,16 +6826,16 @@
     </row>
     <row r="24" ht="47" customHeight="1" spans="1:35">
       <c r="A24" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E24" s="19">
         <v>3</v>
@@ -6830,16 +6859,16 @@
         <v>1</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P24" s="19">
         <v>0</v>
@@ -6857,13 +6886,13 @@
       <c r="Y24" s="30"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB24" s="19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC24" s="19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
@@ -6874,16 +6903,16 @@
     </row>
     <row r="25" ht="47" customHeight="1" spans="1:35">
       <c r="A25" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E25" s="19">
         <v>3</v>
@@ -6907,16 +6936,16 @@
         <v>1</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P25" s="19">
         <v>0</v>
@@ -6934,10 +6963,10 @@
       <c r="Y25" s="29"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB25" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC25" s="19"/>
       <c r="AD25" s="19"/>
@@ -6949,16 +6978,16 @@
     </row>
     <row r="26" ht="47" customHeight="1" spans="1:35">
       <c r="A26" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E26" s="19">
         <v>3</v>
@@ -6982,16 +7011,16 @@
         <v>1</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O26" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P26" s="19">
         <v>0</v>
@@ -7009,10 +7038,10 @@
       <c r="Y26" s="30"/>
       <c r="Z26" s="31"/>
       <c r="AA26" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AB26" s="32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AC26" s="32"/>
       <c r="AD26" s="32"/>
@@ -7024,16 +7053,16 @@
     </row>
     <row r="27" ht="31.25" customHeight="1" spans="1:35">
       <c r="A27" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" s="20">
         <v>3</v>
@@ -7057,16 +7086,16 @@
         <v>1</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N27" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O27" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P27" s="19">
         <v>0</v>
@@ -7076,7 +7105,7 @@
       </c>
       <c r="R27" s="19"/>
       <c r="S27" s="21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T27" s="21"/>
       <c r="U27" s="19"/>
@@ -7097,13 +7126,13 @@
     </row>
     <row r="28" ht="30.5" customHeight="1" spans="1:35">
       <c r="A28" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="20">
@@ -7128,16 +7157,16 @@
         <v>1</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O28" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P28" s="19">
         <v>0</v>
@@ -7155,10 +7184,10 @@
       <c r="Y28" s="30"/>
       <c r="Z28" s="36"/>
       <c r="AA28" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB28" s="25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AC28" s="37"/>
       <c r="AD28" s="38"/>
@@ -7170,13 +7199,13 @@
     </row>
     <row r="29" ht="30.5" customHeight="1" spans="1:35">
       <c r="A29" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="20">
@@ -7201,16 +7230,16 @@
         <v>1</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P29" s="19">
         <v>0</v>
@@ -7228,10 +7257,10 @@
       <c r="Y29" s="29"/>
       <c r="Z29" s="33"/>
       <c r="AA29" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB29" s="26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AC29" s="34"/>
       <c r="AD29" s="35"/>
@@ -7243,13 +7272,13 @@
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:35">
       <c r="A30" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="20">
@@ -7274,16 +7303,16 @@
         <v>1</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O30" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P30" s="19">
         <v>0</v>
@@ -7301,7 +7330,7 @@
       <c r="Y30" s="30"/>
       <c r="Z30" s="36"/>
       <c r="AA30" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AB30" s="26"/>
       <c r="AC30" s="37"/>
@@ -7314,13 +7343,13 @@
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:35">
       <c r="A31" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="20">
@@ -7345,16 +7374,16 @@
         <v>1</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N31" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O31" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P31" s="19">
         <v>0</v>
@@ -7372,10 +7401,10 @@
       <c r="Y31" s="29"/>
       <c r="Z31" s="33"/>
       <c r="AA31" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AB31" s="26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AC31" s="34"/>
       <c r="AD31" s="35"/>
@@ -7387,13 +7416,13 @@
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:35">
       <c r="A32" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="20">
@@ -7418,16 +7447,16 @@
         <v>1</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O32" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P32" s="19">
         <v>0</v>
@@ -7445,7 +7474,7 @@
       <c r="Y32" s="30"/>
       <c r="Z32" s="36"/>
       <c r="AA32" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AB32" s="26"/>
       <c r="AC32" s="37"/>
@@ -7458,13 +7487,13 @@
     </row>
     <row r="33" ht="30.5" customHeight="1" spans="1:35">
       <c r="A33" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="20">
@@ -7489,16 +7518,16 @@
         <v>1</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P33" s="19">
         <v>0</v>
@@ -7516,7 +7545,7 @@
       <c r="Y33" s="29"/>
       <c r="Z33" s="33"/>
       <c r="AA33" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AB33" s="26"/>
       <c r="AC33" s="34"/>
@@ -7529,13 +7558,13 @@
     </row>
     <row r="34" ht="30.5" customHeight="1" spans="1:35">
       <c r="A34" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="20">
@@ -7560,16 +7589,16 @@
         <v>1</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N34" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O34" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P34" s="19">
         <v>0</v>
@@ -7587,7 +7616,7 @@
       <c r="Y34" s="30"/>
       <c r="Z34" s="36"/>
       <c r="AA34" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AB34" s="26"/>
       <c r="AC34" s="37"/>
@@ -7600,13 +7629,13 @@
     </row>
     <row r="35" ht="30.5" customHeight="1" spans="1:35">
       <c r="A35" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="20">
@@ -7631,16 +7660,16 @@
         <v>1</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O35" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P35" s="19">
         <v>0</v>
@@ -7658,7 +7687,7 @@
       <c r="Y35" s="29"/>
       <c r="Z35" s="33"/>
       <c r="AA35" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AB35" s="26"/>
       <c r="AC35" s="34"/>
@@ -7671,13 +7700,13 @@
     </row>
     <row r="36" ht="30.5" customHeight="1" spans="1:35">
       <c r="A36" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="20">
@@ -7702,16 +7731,16 @@
         <v>1</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N36" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O36" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P36" s="19">
         <v>0</v>
@@ -7729,7 +7758,7 @@
       <c r="Y36" s="30"/>
       <c r="Z36" s="36"/>
       <c r="AA36" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB36" s="26"/>
       <c r="AC36" s="37"/>
@@ -7742,13 +7771,13 @@
     </row>
     <row r="37" ht="30.5" customHeight="1" spans="1:35">
       <c r="A37" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="20">
@@ -7773,16 +7802,16 @@
         <v>1</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N37" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O37" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P37" s="19">
         <v>0</v>
@@ -7800,7 +7829,7 @@
       <c r="Y37" s="29"/>
       <c r="Z37" s="33"/>
       <c r="AA37" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AB37" s="26"/>
       <c r="AC37" s="34"/>
@@ -7813,13 +7842,13 @@
     </row>
     <row r="38" ht="30.5" customHeight="1" spans="1:35">
       <c r="A38" s="15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="20">
@@ -7844,16 +7873,16 @@
         <v>1</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N38" s="19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O38" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P38" s="19">
         <v>0</v>
@@ -7871,7 +7900,7 @@
       <c r="Y38" s="30"/>
       <c r="Z38" s="36"/>
       <c r="AA38" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AB38" s="26"/>
       <c r="AC38" s="39"/>
@@ -7884,13 +7913,13 @@
     </row>
     <row r="39" ht="30.5" customHeight="1" spans="1:35">
       <c r="A39" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="20">
@@ -7915,16 +7944,16 @@
         <v>1</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N39" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O39" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P39" s="19">
         <v>0</v>
@@ -7942,7 +7971,7 @@
       <c r="Y39" s="29"/>
       <c r="Z39" s="41"/>
       <c r="AA39" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AB39" s="26"/>
       <c r="AC39" s="34"/>
@@ -7955,16 +7984,16 @@
     </row>
     <row r="40" ht="30.5" customHeight="1" spans="1:35">
       <c r="A40" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E40" s="20">
         <v>0</v>
@@ -7988,16 +8017,16 @@
         <v>1</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M40" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N40" s="19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O40" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P40" s="19">
         <v>0</v>
@@ -8015,7 +8044,7 @@
       <c r="Y40" s="30"/>
       <c r="Z40" s="43"/>
       <c r="AA40" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AB40" s="26"/>
       <c r="AC40" s="37"/>
@@ -8028,16 +8057,16 @@
     </row>
     <row r="41" ht="30.5" customHeight="1" spans="1:35">
       <c r="A41" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E41" s="20">
         <v>0</v>
@@ -8061,16 +8090,16 @@
         <v>1</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M41" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N41" s="19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O41" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P41" s="19">
         <v>0</v>
@@ -8088,7 +8117,7 @@
       <c r="Y41" s="29"/>
       <c r="Z41" s="41"/>
       <c r="AA41" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AB41" s="26"/>
       <c r="AC41" s="34"/>
@@ -8101,13 +8130,13 @@
     </row>
     <row r="42" ht="30.5" customHeight="1" spans="1:35">
       <c r="A42" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="20">
@@ -8132,16 +8161,16 @@
         <v>1</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N42" s="19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O42" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P42" s="19">
         <v>0</v>
@@ -8159,7 +8188,7 @@
       <c r="Y42" s="30"/>
       <c r="Z42" s="36"/>
       <c r="AA42" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AB42" s="26"/>
       <c r="AC42" s="37"/>
@@ -8172,13 +8201,13 @@
     </row>
     <row r="43" ht="30.5" customHeight="1" spans="1:35">
       <c r="A43" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="20">
@@ -8203,16 +8232,16 @@
         <v>1</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M43" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N43" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O43" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P43" s="19">
         <v>0</v>
@@ -8230,7 +8259,7 @@
       <c r="Y43" s="29"/>
       <c r="Z43" s="41"/>
       <c r="AA43" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AB43" s="26"/>
       <c r="AC43" s="34"/>
@@ -8243,13 +8272,13 @@
     </row>
     <row r="44" ht="30.5" customHeight="1" spans="1:35">
       <c r="A44" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="20">
@@ -8274,16 +8303,16 @@
         <v>1</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M44" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N44" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O44" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P44" s="19">
         <v>0</v>
@@ -8301,7 +8330,7 @@
       <c r="Y44" s="30"/>
       <c r="Z44" s="43"/>
       <c r="AA44" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AB44" s="26"/>
       <c r="AC44" s="37"/>
@@ -8314,13 +8343,13 @@
     </row>
     <row r="45" ht="30.5" customHeight="1" spans="1:35">
       <c r="A45" s="15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="20">
@@ -8345,16 +8374,16 @@
         <v>1</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M45" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N45" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O45" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P45" s="19">
         <v>0</v>
@@ -8372,7 +8401,7 @@
       <c r="Y45" s="29"/>
       <c r="Z45" s="41"/>
       <c r="AA45" s="15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AB45" s="26"/>
       <c r="AC45" s="34"/>
@@ -8385,13 +8414,13 @@
     </row>
     <row r="46" ht="30.5" customHeight="1" spans="1:35">
       <c r="A46" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="20">
@@ -8416,16 +8445,16 @@
         <v>1</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M46" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N46" s="19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O46" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P46" s="19">
         <v>0</v>
@@ -8443,7 +8472,7 @@
       <c r="Y46" s="30"/>
       <c r="Z46" s="43"/>
       <c r="AA46" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AB46" s="26"/>
       <c r="AC46" s="37"/>
@@ -8456,16 +8485,16 @@
     </row>
     <row r="47" ht="30.5" customHeight="1" spans="1:35">
       <c r="A47" s="15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E47" s="20">
         <v>0</v>
@@ -8489,16 +8518,16 @@
         <v>1</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N47" s="19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O47" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P47" s="19">
         <v>0</v>
@@ -8516,10 +8545,10 @@
       <c r="Y47" s="29"/>
       <c r="Z47" s="41"/>
       <c r="AA47" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AB47" s="26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AC47" s="34"/>
       <c r="AD47" s="35"/>
@@ -8531,13 +8560,13 @@
     </row>
     <row r="48" ht="30.5" customHeight="1" spans="1:35">
       <c r="A48" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="20">
@@ -8562,16 +8591,16 @@
         <v>1</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M48" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N48" s="19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O48" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P48" s="19">
         <v>0</v>
@@ -8589,7 +8618,7 @@
       <c r="Y48" s="30"/>
       <c r="Z48" s="43"/>
       <c r="AA48" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB48" s="26"/>
       <c r="AC48" s="37"/>
@@ -8602,13 +8631,13 @@
     </row>
     <row r="49" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A49" s="15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="20">
@@ -8633,16 +8662,16 @@
         <v>1</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M49" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N49" s="19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O49" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P49" s="19">
         <v>0</v>
@@ -8660,7 +8689,7 @@
       <c r="Y49" s="29"/>
       <c r="Z49" s="41"/>
       <c r="AA49" s="15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AB49" s="26"/>
       <c r="AC49" s="34"/>
@@ -8673,13 +8702,13 @@
     </row>
     <row r="50" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A50" s="15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="20">
@@ -8704,16 +8733,16 @@
         <v>1</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M50" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N50" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O50" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P50" s="19">
         <v>0</v>
@@ -8731,10 +8760,10 @@
       <c r="Y50" s="30"/>
       <c r="Z50" s="43"/>
       <c r="AA50" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AB50" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC50" s="37"/>
       <c r="AD50" s="38"/>
@@ -8746,13 +8775,13 @@
     </row>
     <row r="51" ht="30.5" customHeight="1" spans="1:35">
       <c r="A51" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="20">
@@ -8777,16 +8806,16 @@
         <v>1</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M51" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N51" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O51" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P51" s="19">
         <v>0</v>
@@ -8804,10 +8833,10 @@
       <c r="Y51" s="29"/>
       <c r="Z51" s="41"/>
       <c r="AA51" s="15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB51" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC51" s="34"/>
       <c r="AD51" s="35"/>
@@ -8819,13 +8848,13 @@
     </row>
     <row r="52" ht="30.5" customHeight="1" spans="1:35">
       <c r="A52" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="20">
@@ -8850,16 +8879,16 @@
         <v>1</v>
       </c>
       <c r="L52" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M52" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N52" s="19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O52" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P52" s="19">
         <v>0</v>
@@ -8877,7 +8906,7 @@
       <c r="Y52" s="30"/>
       <c r="Z52" s="43"/>
       <c r="AA52" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AB52" s="26"/>
       <c r="AC52" s="37"/>
@@ -8890,13 +8919,13 @@
     </row>
     <row r="53" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A53" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="20">
@@ -8921,16 +8950,16 @@
         <v>1</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M53" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N53" s="19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P53" s="19">
         <v>0</v>
@@ -8948,7 +8977,7 @@
       <c r="Y53" s="29"/>
       <c r="Z53" s="41"/>
       <c r="AA53" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AB53" s="26"/>
       <c r="AC53" s="34"/>
@@ -8961,20 +8990,20 @@
     </row>
     <row r="54" ht="30.5" customHeight="1" spans="1:35">
       <c r="A54" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="20">
         <v>0</v>
       </c>
       <c r="F54" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G54" s="19">
         <v>101</v>
@@ -8992,16 +9021,16 @@
         <v>1</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M54" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N54" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O54" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P54" s="19">
         <v>0</v>
@@ -9018,7 +9047,9 @@
       <c r="X54" s="26"/>
       <c r="Y54" s="30"/>
       <c r="Z54" s="43"/>
-      <c r="AA54" s="15"/>
+      <c r="AA54" s="15" t="s">
+        <v>337</v>
+      </c>
       <c r="AB54" s="26"/>
       <c r="AC54" s="37"/>
       <c r="AD54" s="38"/>
@@ -9030,20 +9061,20 @@
     </row>
     <row r="55" ht="30.5" customHeight="1" spans="1:35">
       <c r="A55" s="15" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="20">
         <v>0</v>
       </c>
       <c r="F55" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G55" s="19">
         <v>101</v>
@@ -9061,16 +9092,16 @@
         <v>1</v>
       </c>
       <c r="L55" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M55" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N55" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O55" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P55" s="19">
         <v>0</v>
@@ -9087,7 +9118,9 @@
       <c r="X55" s="26"/>
       <c r="Y55" s="29"/>
       <c r="Z55" s="41"/>
-      <c r="AA55" s="15"/>
+      <c r="AA55" s="15" t="s">
+        <v>341</v>
+      </c>
       <c r="AB55" s="26"/>
       <c r="AC55" s="34"/>
       <c r="AD55" s="35"/>
@@ -9099,20 +9132,20 @@
     </row>
     <row r="56" ht="30.5" customHeight="1" spans="1:35">
       <c r="A56" s="15" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="20">
         <v>0</v>
       </c>
       <c r="F56" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G56" s="19">
         <v>101</v>
@@ -9130,16 +9163,16 @@
         <v>1</v>
       </c>
       <c r="L56" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M56" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N56" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O56" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P56" s="19">
         <v>0</v>
@@ -9156,7 +9189,9 @@
       <c r="X56" s="26"/>
       <c r="Y56" s="30"/>
       <c r="Z56" s="43"/>
-      <c r="AA56" s="15"/>
+      <c r="AA56" s="15" t="s">
+        <v>345</v>
+      </c>
       <c r="AB56" s="26"/>
       <c r="AC56" s="37"/>
       <c r="AD56" s="38"/>
@@ -9168,20 +9203,20 @@
     </row>
     <row r="57" ht="30.5" customHeight="1" spans="1:35">
       <c r="A57" s="15" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="20">
         <v>0</v>
       </c>
       <c r="F57" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G57" s="19">
         <v>101</v>
@@ -9199,16 +9234,16 @@
         <v>1</v>
       </c>
       <c r="L57" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M57" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N57" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O57" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P57" s="19">
         <v>0</v>
@@ -9225,7 +9260,9 @@
       <c r="X57" s="26"/>
       <c r="Y57" s="29"/>
       <c r="Z57" s="41"/>
-      <c r="AA57" s="15"/>
+      <c r="AA57" s="15" t="s">
+        <v>337</v>
+      </c>
       <c r="AB57" s="26"/>
       <c r="AC57" s="34"/>
       <c r="AD57" s="35"/>
@@ -9237,20 +9274,20 @@
     </row>
     <row r="58" ht="30.5" customHeight="1" spans="1:35">
       <c r="A58" s="15" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="20">
         <v>0</v>
       </c>
       <c r="F58" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G58" s="19">
         <v>101</v>
@@ -9268,16 +9305,16 @@
         <v>1</v>
       </c>
       <c r="L58" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M58" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N58" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O58" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P58" s="19">
         <v>0</v>
@@ -9294,7 +9331,9 @@
       <c r="X58" s="26"/>
       <c r="Y58" s="30"/>
       <c r="Z58" s="43"/>
-      <c r="AA58" s="15"/>
+      <c r="AA58" s="15" t="s">
+        <v>352</v>
+      </c>
       <c r="AB58" s="26"/>
       <c r="AC58" s="37"/>
       <c r="AD58" s="38"/>
@@ -9306,20 +9345,20 @@
     </row>
     <row r="59" ht="30.5" customHeight="1" spans="1:35">
       <c r="A59" s="15" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="20">
         <v>0</v>
       </c>
       <c r="F59" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G59" s="19">
         <v>101</v>
@@ -9337,16 +9376,16 @@
         <v>1</v>
       </c>
       <c r="L59" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M59" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N59" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O59" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P59" s="19">
         <v>0</v>
@@ -9363,7 +9402,9 @@
       <c r="X59" s="26"/>
       <c r="Y59" s="29"/>
       <c r="Z59" s="41"/>
-      <c r="AA59" s="15"/>
+      <c r="AA59" s="15" t="s">
+        <v>337</v>
+      </c>
       <c r="AB59" s="26"/>
       <c r="AC59" s="34"/>
       <c r="AD59" s="35"/>
@@ -9375,20 +9416,20 @@
     </row>
     <row r="60" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A60" s="15" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="20">
         <v>0</v>
       </c>
       <c r="F60" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G60" s="19">
         <v>101</v>
@@ -9406,16 +9447,16 @@
         <v>1</v>
       </c>
       <c r="L60" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M60" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N60" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O60" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P60" s="19">
         <v>0</v>
@@ -9432,7 +9473,9 @@
       <c r="X60" s="26"/>
       <c r="Y60" s="30"/>
       <c r="Z60" s="43"/>
-      <c r="AA60" s="15"/>
+      <c r="AA60" s="15" t="s">
+        <v>359</v>
+      </c>
       <c r="AB60" s="26"/>
       <c r="AC60" s="37"/>
       <c r="AD60" s="38"/>
@@ -9444,20 +9487,20 @@
     </row>
     <row r="61" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A61" s="15" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="20">
         <v>0</v>
       </c>
       <c r="F61" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G61" s="19">
         <v>101</v>
@@ -9475,16 +9518,16 @@
         <v>1</v>
       </c>
       <c r="L61" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M61" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N61" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O61" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P61" s="19">
         <v>0</v>
@@ -9501,7 +9544,9 @@
       <c r="X61" s="26"/>
       <c r="Y61" s="29"/>
       <c r="Z61" s="41"/>
-      <c r="AA61" s="15"/>
+      <c r="AA61" s="15" t="s">
+        <v>363</v>
+      </c>
       <c r="AB61" s="26"/>
       <c r="AC61" s="34"/>
       <c r="AD61" s="35"/>
@@ -9513,20 +9558,20 @@
     </row>
     <row r="62" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A62" s="15" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="20">
         <v>0</v>
       </c>
       <c r="F62" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G62" s="19">
         <v>101</v>
@@ -9544,16 +9589,16 @@
         <v>1</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M62" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N62" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O62" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P62" s="19">
         <v>0</v>
@@ -9570,8 +9615,12 @@
       <c r="X62" s="26"/>
       <c r="Y62" s="30"/>
       <c r="Z62" s="43"/>
-      <c r="AA62" s="15"/>
-      <c r="AB62" s="26"/>
+      <c r="AA62" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB62" s="26" t="s">
+        <v>368</v>
+      </c>
       <c r="AC62" s="37"/>
       <c r="AD62" s="38"/>
       <c r="AE62" s="44"/>
@@ -9582,20 +9631,20 @@
     </row>
     <row r="63" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A63" s="15" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="20">
         <v>0</v>
       </c>
       <c r="F63" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G63" s="19">
         <v>101</v>
@@ -9613,16 +9662,16 @@
         <v>1</v>
       </c>
       <c r="L63" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M63" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N63" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O63" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P63" s="19">
         <v>0</v>
@@ -9651,20 +9700,20 @@
     </row>
     <row r="64" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A64" s="15" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="20">
         <v>0</v>
       </c>
       <c r="F64" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G64" s="19">
         <v>101</v>
@@ -9682,16 +9731,16 @@
         <v>1</v>
       </c>
       <c r="L64" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M64" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N64" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O64" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P64" s="19">
         <v>0</v>
@@ -9720,20 +9769,20 @@
     </row>
     <row r="65" ht="30.5" customHeight="1" spans="1:35">
       <c r="A65" s="15" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="D65" s="21"/>
       <c r="E65" s="20">
         <v>0</v>
       </c>
       <c r="F65" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G65" s="19">
         <v>101</v>
@@ -9751,16 +9800,16 @@
         <v>1</v>
       </c>
       <c r="L65" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M65" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N65" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O65" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P65" s="19">
         <v>0</v>
@@ -9789,20 +9838,20 @@
     </row>
     <row r="66" ht="30.5" customHeight="1" spans="1:35">
       <c r="A66" s="15" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="20">
         <v>0</v>
       </c>
       <c r="F66" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G66" s="19">
         <v>101</v>
@@ -9820,16 +9869,16 @@
         <v>1</v>
       </c>
       <c r="L66" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M66" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N66" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O66" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P66" s="19">
         <v>0</v>
@@ -9858,20 +9907,20 @@
     </row>
     <row r="67" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A67" s="15" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D67" s="21"/>
       <c r="E67" s="20">
         <v>0</v>
       </c>
       <c r="F67" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G67" s="19">
         <v>101</v>
@@ -9889,16 +9938,16 @@
         <v>1</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M67" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N67" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O67" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P67" s="19">
         <v>0</v>
@@ -9927,20 +9976,20 @@
     </row>
     <row r="68" ht="30.5" customHeight="1" spans="1:35">
       <c r="A68" s="15" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="20">
         <v>0</v>
       </c>
       <c r="F68" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G68" s="19">
         <v>101</v>
@@ -9958,16 +10007,16 @@
         <v>1</v>
       </c>
       <c r="L68" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M68" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N68" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O68" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P68" s="19">
         <v>0</v>
@@ -9996,20 +10045,20 @@
     </row>
     <row r="69" ht="30.5" customHeight="1" spans="1:35">
       <c r="A69" s="15" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="D69" s="21"/>
       <c r="E69" s="20">
         <v>0</v>
       </c>
       <c r="F69" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G69" s="19">
         <v>101</v>
@@ -10027,16 +10076,16 @@
         <v>1</v>
       </c>
       <c r="L69" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M69" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N69" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O69" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P69" s="19">
         <v>0</v>
@@ -10065,20 +10114,20 @@
     </row>
     <row r="70" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A70" s="15" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="20">
         <v>0</v>
       </c>
       <c r="F70" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G70" s="19">
         <v>101</v>
@@ -10096,16 +10145,16 @@
         <v>1</v>
       </c>
       <c r="L70" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M70" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N70" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O70" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P70" s="19">
         <v>0</v>
@@ -10134,20 +10183,20 @@
     </row>
     <row r="71" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A71" s="15" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D71" s="21"/>
       <c r="E71" s="20">
         <v>0</v>
       </c>
       <c r="F71" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G71" s="19">
         <v>101</v>
@@ -10165,16 +10214,16 @@
         <v>1</v>
       </c>
       <c r="L71" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M71" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N71" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O71" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P71" s="19">
         <v>0</v>
@@ -10203,20 +10252,20 @@
     </row>
     <row r="72" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A72" s="15" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="20">
         <v>0</v>
       </c>
       <c r="F72" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G72" s="19">
         <v>101</v>
@@ -10234,16 +10283,16 @@
         <v>1</v>
       </c>
       <c r="L72" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M72" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N72" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O72" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P72" s="19">
         <v>0</v>
@@ -10272,20 +10321,20 @@
     </row>
     <row r="73" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A73" s="15" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="20">
         <v>0</v>
       </c>
       <c r="F73" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G73" s="19">
         <v>101</v>
@@ -10303,16 +10352,16 @@
         <v>1</v>
       </c>
       <c r="L73" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M73" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N73" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O73" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P73" s="19">
         <v>0</v>
@@ -10341,20 +10390,20 @@
     </row>
     <row r="74" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A74" s="15" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="20">
         <v>0</v>
       </c>
       <c r="F74" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G74" s="19">
         <v>101</v>
@@ -10372,16 +10421,16 @@
         <v>1</v>
       </c>
       <c r="L74" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M74" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N74" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O74" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P74" s="19">
         <v>0</v>
@@ -10410,20 +10459,20 @@
     </row>
     <row r="75" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A75" s="15" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D75" s="21"/>
       <c r="E75" s="20">
         <v>0</v>
       </c>
       <c r="F75" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G75" s="19">
         <v>101</v>
@@ -10441,16 +10490,16 @@
         <v>1</v>
       </c>
       <c r="L75" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M75" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N75" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O75" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P75" s="19">
         <v>0</v>
@@ -10479,20 +10528,20 @@
     </row>
     <row r="76" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A76" s="15" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="20">
         <v>0</v>
       </c>
       <c r="F76" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G76" s="19">
         <v>101</v>
@@ -10510,16 +10559,16 @@
         <v>1</v>
       </c>
       <c r="L76" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M76" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N76" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O76" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P76" s="19">
         <v>0</v>
@@ -10548,20 +10597,20 @@
     </row>
     <row r="77" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A77" s="15" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="D77" s="21"/>
       <c r="E77" s="20">
         <v>0</v>
       </c>
       <c r="F77" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G77" s="19">
         <v>101</v>
@@ -10579,16 +10628,16 @@
         <v>1</v>
       </c>
       <c r="L77" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M77" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N77" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P77" s="19">
         <v>0</v>
@@ -10617,20 +10666,20 @@
     </row>
     <row r="78" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A78" s="15" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="20">
         <v>0</v>
       </c>
       <c r="F78" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G78" s="19">
         <v>101</v>
@@ -10648,16 +10697,16 @@
         <v>1</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M78" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N78" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O78" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P78" s="19">
         <v>0</v>
@@ -10686,20 +10735,20 @@
     </row>
     <row r="79" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A79" s="15" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="D79" s="21"/>
       <c r="E79" s="20">
         <v>0</v>
       </c>
       <c r="F79" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G79" s="19">
         <v>101</v>
@@ -10717,16 +10766,16 @@
         <v>1</v>
       </c>
       <c r="L79" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M79" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N79" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O79" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P79" s="19">
         <v>0</v>
@@ -10755,20 +10804,20 @@
     </row>
     <row r="80" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A80" s="15" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="20">
         <v>0</v>
       </c>
       <c r="F80" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G80" s="19">
         <v>101</v>
@@ -10786,16 +10835,16 @@
         <v>1</v>
       </c>
       <c r="L80" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M80" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N80" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O80" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P80" s="19">
         <v>0</v>
@@ -10824,20 +10873,20 @@
     </row>
     <row r="81" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A81" s="15" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="20">
         <v>0</v>
       </c>
       <c r="F81" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G81" s="19">
         <v>101</v>
@@ -10855,16 +10904,16 @@
         <v>1</v>
       </c>
       <c r="L81" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M81" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N81" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O81" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P81" s="19">
         <v>0</v>
@@ -10893,20 +10942,20 @@
     </row>
     <row r="82" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A82" s="15" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="20">
         <v>0</v>
       </c>
       <c r="F82" s="19">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G82" s="19">
         <v>101</v>
@@ -10924,16 +10973,16 @@
         <v>1</v>
       </c>
       <c r="L82" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M82" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N82" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O82" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P82" s="19">
         <v>0</v>
@@ -10962,13 +11011,13 @@
     </row>
     <row r="83" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A83" s="15" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="20">
@@ -10993,16 +11042,16 @@
         <v>1</v>
       </c>
       <c r="L83" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M83" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N83" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O83" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P83" s="19">
         <v>0</v>
@@ -11031,13 +11080,13 @@
     </row>
     <row r="84" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A84" s="15" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="20">
@@ -11062,16 +11111,16 @@
         <v>1</v>
       </c>
       <c r="L84" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M84" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N84" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O84" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P84" s="19">
         <v>0</v>
@@ -11100,13 +11149,13 @@
     </row>
     <row r="85" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A85" s="15" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="20">
@@ -11131,16 +11180,16 @@
         <v>1</v>
       </c>
       <c r="L85" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M85" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N85" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O85" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P85" s="19">
         <v>0</v>
@@ -11169,13 +11218,13 @@
     </row>
     <row r="86" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A86" s="15" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="20">
@@ -11200,16 +11249,16 @@
         <v>1</v>
       </c>
       <c r="L86" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M86" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N86" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O86" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P86" s="19">
         <v>0</v>
@@ -11238,13 +11287,13 @@
     </row>
     <row r="87" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A87" s="15" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="D87" s="21"/>
       <c r="E87" s="20">
@@ -11269,16 +11318,16 @@
         <v>1</v>
       </c>
       <c r="L87" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M87" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N87" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O87" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P87" s="19">
         <v>0</v>
@@ -11307,13 +11356,13 @@
     </row>
     <row r="88" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A88" s="15" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="20">
@@ -11338,16 +11387,16 @@
         <v>1</v>
       </c>
       <c r="L88" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M88" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N88" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O88" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P88" s="19">
         <v>0</v>
@@ -11376,13 +11425,13 @@
     </row>
     <row r="89" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A89" s="15" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="D89" s="21"/>
       <c r="E89" s="20">
@@ -11407,16 +11456,16 @@
         <v>1</v>
       </c>
       <c r="L89" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M89" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N89" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O89" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P89" s="19">
         <v>0</v>
@@ -11445,13 +11494,13 @@
     </row>
     <row r="90" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A90" s="15" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="20">
@@ -11476,16 +11525,16 @@
         <v>1</v>
       </c>
       <c r="L90" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M90" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N90" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O90" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P90" s="19">
         <v>0</v>
@@ -11514,13 +11563,13 @@
     </row>
     <row r="91" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A91" s="15" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="D91" s="21"/>
       <c r="E91" s="20">
@@ -11545,16 +11594,16 @@
         <v>1</v>
       </c>
       <c r="L91" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M91" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N91" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O91" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P91" s="19">
         <v>0</v>
@@ -11583,13 +11632,13 @@
     </row>
     <row r="92" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A92" s="15" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="20">
@@ -11614,16 +11663,16 @@
         <v>1</v>
       </c>
       <c r="L92" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M92" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N92" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O92" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P92" s="19">
         <v>0</v>
@@ -11652,13 +11701,13 @@
     </row>
     <row r="93" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A93" s="15" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="D93" s="21"/>
       <c r="E93" s="20">
@@ -11683,16 +11732,16 @@
         <v>1</v>
       </c>
       <c r="L93" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M93" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N93" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O93" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P93" s="19">
         <v>0</v>
@@ -11721,13 +11770,13 @@
     </row>
     <row r="94" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A94" s="15" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="D94" s="21"/>
       <c r="E94" s="20">
@@ -11752,16 +11801,16 @@
         <v>1</v>
       </c>
       <c r="L94" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M94" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N94" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O94" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P94" s="19">
         <v>0</v>
@@ -11790,13 +11839,13 @@
     </row>
     <row r="95" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A95" s="15" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="D95" s="21"/>
       <c r="E95" s="20">
@@ -11821,16 +11870,16 @@
         <v>1</v>
       </c>
       <c r="L95" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M95" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N95" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O95" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P95" s="19">
         <v>0</v>
@@ -11859,13 +11908,13 @@
     </row>
     <row r="96" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A96" s="15" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="D96" s="21"/>
       <c r="E96" s="20">
@@ -11890,16 +11939,16 @@
         <v>1</v>
       </c>
       <c r="L96" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M96" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N96" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O96" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P96" s="19">
         <v>0</v>
@@ -11928,13 +11977,13 @@
     </row>
     <row r="97" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A97" s="15" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="D97" s="21"/>
       <c r="E97" s="20">
@@ -11959,16 +12008,16 @@
         <v>1</v>
       </c>
       <c r="L97" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M97" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N97" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O97" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P97" s="19">
         <v>0</v>
@@ -11997,13 +12046,13 @@
     </row>
     <row r="98" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A98" s="15" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="20">
@@ -12028,16 +12077,16 @@
         <v>1</v>
       </c>
       <c r="L98" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M98" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N98" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O98" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P98" s="19">
         <v>0</v>
@@ -12066,13 +12115,13 @@
     </row>
     <row r="99" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A99" s="15" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D99" s="21"/>
       <c r="E99" s="20">
@@ -12097,16 +12146,16 @@
         <v>1</v>
       </c>
       <c r="L99" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M99" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N99" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O99" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P99" s="19">
         <v>0</v>
@@ -12135,13 +12184,13 @@
     </row>
     <row r="100" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A100" s="15" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="20">
@@ -12166,16 +12215,16 @@
         <v>1</v>
       </c>
       <c r="L100" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M100" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N100" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O100" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P100" s="19">
         <v>0</v>
@@ -12204,16 +12253,16 @@
     </row>
     <row r="101" ht="30.5" customHeight="1" spans="1:35">
       <c r="A101" s="50" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B101" s="51" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="C101" s="52" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="E101" s="20">
         <v>1</v>
@@ -12237,16 +12286,16 @@
         <v>1</v>
       </c>
       <c r="L101" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M101" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N101" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O101" s="19" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="P101" s="19">
         <v>0</v>
@@ -12264,7 +12313,7 @@
       <c r="Y101" s="29"/>
       <c r="Z101" s="41"/>
       <c r="AA101" s="19" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="AB101" s="26"/>
       <c r="AC101" s="34"/>
@@ -12277,13 +12326,13 @@
     </row>
     <row r="102" ht="30.5" customHeight="1" spans="1:35">
       <c r="A102" s="50" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="B102" s="51" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C102" s="52" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D102" s="18"/>
       <c r="E102" s="20">
@@ -12308,16 +12357,16 @@
         <v>1</v>
       </c>
       <c r="L102" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M102" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N102" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O102" s="19" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="P102" s="19">
         <v>0</v>
@@ -12335,7 +12384,7 @@
       <c r="Y102" s="29"/>
       <c r="Z102" s="41"/>
       <c r="AA102" s="15" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="AB102" s="26"/>
       <c r="AC102" s="34"/>
@@ -12348,16 +12397,16 @@
     </row>
     <row r="103" ht="33" spans="1:35">
       <c r="A103" s="53" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B103" s="54" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="C103" s="55" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="E103" s="20">
         <v>1</v>
@@ -12381,16 +12430,16 @@
         <v>1</v>
       </c>
       <c r="L103" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M103" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N103" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O103" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P103" s="19">
         <v>0</v>
@@ -12408,7 +12457,7 @@
       <c r="Y103" s="29"/>
       <c r="Z103" s="41"/>
       <c r="AA103" s="15" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="AB103" s="26"/>
       <c r="AC103" s="34"/>
@@ -12421,16 +12470,16 @@
     </row>
     <row r="104" ht="30.5" customHeight="1" spans="1:35">
       <c r="A104" s="50" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B104" s="51" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="C104" s="52" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="E104" s="20">
         <v>1</v>
@@ -12454,16 +12503,16 @@
         <v>1</v>
       </c>
       <c r="L104" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M104" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N104" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O104" s="19" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="P104" s="19">
         <v>0</v>
@@ -12481,7 +12530,7 @@
       <c r="Y104" s="29"/>
       <c r="Z104" s="41"/>
       <c r="AA104" s="15" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="AB104" s="26"/>
       <c r="AC104" s="34"/>
@@ -12494,16 +12543,16 @@
     </row>
     <row r="105" ht="30.5" customHeight="1" spans="1:35">
       <c r="A105" s="50" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B105" s="51" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="C105" s="52" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="E105" s="20">
         <v>1</v>
@@ -12527,16 +12576,16 @@
         <v>1</v>
       </c>
       <c r="L105" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M105" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N105" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O105" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P105" s="19">
         <v>0</v>
@@ -12554,7 +12603,7 @@
       <c r="Y105" s="29"/>
       <c r="Z105" s="41"/>
       <c r="AA105" s="15" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="AB105" s="26"/>
       <c r="AC105" s="34"/>
@@ -12567,16 +12616,16 @@
     </row>
     <row r="106" ht="30.5" customHeight="1" spans="1:35">
       <c r="A106" s="53" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B106" s="54" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="C106" s="55" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E106" s="20">
         <v>1</v>
@@ -12600,16 +12649,16 @@
         <v>1</v>
       </c>
       <c r="L106" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M106" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N106" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O106" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P106" s="19">
         <v>0</v>
@@ -12627,7 +12676,7 @@
       <c r="Y106" s="29"/>
       <c r="Z106" s="41"/>
       <c r="AA106" s="15" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="AB106" s="26"/>
       <c r="AC106" s="34"/>
@@ -12640,13 +12689,13 @@
     </row>
     <row r="107" ht="30.5" customHeight="1" spans="1:35">
       <c r="A107" s="53" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B107" s="54" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="20">
@@ -12671,16 +12720,16 @@
         <v>1</v>
       </c>
       <c r="L107" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M107" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N107" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O107" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P107" s="19">
         <v>0</v>
@@ -12698,7 +12747,7 @@
       <c r="Y107" s="29"/>
       <c r="Z107" s="41"/>
       <c r="AA107" s="15" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="AB107" s="26"/>
       <c r="AC107" s="34"/>
@@ -12711,16 +12760,16 @@
     </row>
     <row r="108" ht="30.5" customHeight="1" spans="1:35">
       <c r="A108" s="50" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B108" s="51" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C108" s="52" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="E108" s="20">
         <v>1</v>
@@ -12744,16 +12793,16 @@
         <v>1</v>
       </c>
       <c r="L108" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M108" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N108" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O108" s="19" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="P108" s="19">
         <v>0</v>
@@ -12771,7 +12820,7 @@
       <c r="Y108" s="29"/>
       <c r="Z108" s="41"/>
       <c r="AA108" s="15" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="AB108" s="26"/>
       <c r="AC108" s="34"/>
@@ -12784,16 +12833,16 @@
     </row>
     <row r="109" ht="30.5" customHeight="1" spans="1:35">
       <c r="A109" s="50" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B109" s="51" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="C109" s="52" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="E109" s="20">
         <v>1</v>
@@ -12817,16 +12866,16 @@
         <v>1</v>
       </c>
       <c r="L109" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M109" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N109" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O109" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P109" s="19">
         <v>0</v>
@@ -12844,10 +12893,10 @@
       <c r="Y109" s="29"/>
       <c r="Z109" s="41"/>
       <c r="AA109" s="15" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="AB109" s="26" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="AC109" s="34"/>
       <c r="AD109" s="35"/>
@@ -12859,16 +12908,16 @@
     </row>
     <row r="110" ht="30.5" customHeight="1" spans="1:35">
       <c r="A110" s="53" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B110" s="54" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="C110" s="55" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E110" s="20">
         <v>1</v>
@@ -12892,16 +12941,16 @@
         <v>1</v>
       </c>
       <c r="L110" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M110" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N110" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O110" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P110" s="19">
         <v>0</v>
@@ -12919,10 +12968,10 @@
       <c r="Y110" s="29"/>
       <c r="Z110" s="41"/>
       <c r="AA110" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AB110" s="26" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="AC110" s="34"/>
       <c r="AD110" s="35"/>
@@ -12934,16 +12983,16 @@
     </row>
     <row r="111" ht="49.5" spans="1:35">
       <c r="A111" s="56" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="E111" s="20">
         <v>2</v>
@@ -12967,16 +13016,16 @@
         <v>1</v>
       </c>
       <c r="L111" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M111" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N111" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O111" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P111" s="19">
         <v>0</v>
@@ -12986,10 +13035,10 @@
       </c>
       <c r="R111" s="19"/>
       <c r="S111" s="21" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="T111" s="21" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="U111" s="19"/>
       <c r="V111" s="19"/>
@@ -13009,16 +13058,16 @@
     </row>
     <row r="112" ht="49.5" spans="1:35">
       <c r="A112" s="53" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="B112" s="54" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="C112" s="55" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="E112" s="20">
         <v>2</v>
@@ -13042,16 +13091,16 @@
         <v>1</v>
       </c>
       <c r="L112" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M112" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N112" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O112" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P112" s="19">
         <v>0</v>
@@ -13062,7 +13111,7 @@
       <c r="R112" s="19"/>
       <c r="S112" s="21"/>
       <c r="T112" s="21" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="U112" s="19"/>
       <c r="V112" s="19"/>
@@ -13071,7 +13120,7 @@
       <c r="Y112" s="29"/>
       <c r="Z112" s="41"/>
       <c r="AA112" s="15" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="AB112" s="26"/>
       <c r="AC112" s="34"/>
@@ -13084,16 +13133,16 @@
     </row>
     <row r="113" ht="49.5" spans="1:35">
       <c r="A113" s="53" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="B113" s="54" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="C113" s="55" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="E113" s="20">
         <v>2</v>
@@ -13117,16 +13166,16 @@
         <v>1</v>
       </c>
       <c r="L113" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M113" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N113" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O113" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P113" s="19">
         <v>0</v>
@@ -13136,7 +13185,7 @@
       </c>
       <c r="R113" s="19"/>
       <c r="S113" s="21" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="T113" s="21"/>
       <c r="U113" s="19"/>
@@ -13146,10 +13195,10 @@
       <c r="Y113" s="29"/>
       <c r="Z113" s="41"/>
       <c r="AA113" s="15" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="AB113" s="26" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="AC113" s="34"/>
       <c r="AD113" s="35"/>
@@ -13161,16 +13210,16 @@
     </row>
     <row r="114" ht="49.5" spans="1:35">
       <c r="A114" s="50" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B114" s="51" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="C114" s="52" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="E114" s="20">
         <v>2</v>
@@ -13194,16 +13243,16 @@
         <v>1</v>
       </c>
       <c r="L114" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M114" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N114" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O114" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P114" s="19">
         <v>0</v>
@@ -13214,7 +13263,7 @@
       <c r="R114" s="19"/>
       <c r="S114" s="21"/>
       <c r="T114" s="21" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="U114" s="19"/>
       <c r="V114" s="19"/>
@@ -13223,7 +13272,7 @@
       <c r="Y114" s="29"/>
       <c r="Z114" s="41"/>
       <c r="AA114" s="15" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="AB114" s="26"/>
       <c r="AC114" s="34"/>
@@ -13236,16 +13285,16 @@
     </row>
     <row r="115" ht="30.5" customHeight="1" spans="1:35">
       <c r="A115" s="50" t="s">
+        <v>560</v>
+      </c>
+      <c r="B115" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="C115" s="52" t="s">
+        <v>562</v>
+      </c>
+      <c r="D115" s="18" t="s">
         <v>551</v>
-      </c>
-      <c r="B115" s="51" t="s">
-        <v>552</v>
-      </c>
-      <c r="C115" s="52" t="s">
-        <v>553</v>
-      </c>
-      <c r="D115" s="18" t="s">
-        <v>542</v>
       </c>
       <c r="E115" s="20">
         <v>2</v>
@@ -13269,16 +13318,16 @@
         <v>1</v>
       </c>
       <c r="L115" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M115" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N115" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O115" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P115" s="19">
         <v>0</v>
@@ -13289,7 +13338,7 @@
       <c r="R115" s="19"/>
       <c r="S115" s="21"/>
       <c r="T115" s="21" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="U115" s="19"/>
       <c r="V115" s="19"/>
@@ -13298,7 +13347,7 @@
       <c r="Y115" s="29"/>
       <c r="Z115" s="41"/>
       <c r="AA115" s="15" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="AB115" s="26"/>
       <c r="AC115" s="34"/>
@@ -13311,16 +13360,16 @@
     </row>
     <row r="116" ht="30.5" customHeight="1" spans="1:35">
       <c r="A116" s="53" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="B116" s="54" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="C116" s="55" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="E116" s="20">
         <v>2</v>
@@ -13344,16 +13393,16 @@
         <v>1</v>
       </c>
       <c r="L116" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M116" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N116" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O116" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P116" s="19">
         <v>0</v>
@@ -13371,13 +13420,13 @@
       <c r="Y116" s="29"/>
       <c r="Z116" s="41"/>
       <c r="AA116" s="15" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="AB116" s="26" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="AC116" s="34" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="AD116" s="35"/>
       <c r="AE116" s="35"/>
@@ -13388,16 +13437,16 @@
     </row>
     <row r="117" ht="30.5" customHeight="1" spans="1:35">
       <c r="A117" s="53" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="B117" s="54" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="C117" s="55" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="E117" s="20">
         <v>2</v>
@@ -13421,16 +13470,16 @@
         <v>1</v>
       </c>
       <c r="L117" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M117" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N117" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O117" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P117" s="19">
         <v>0</v>
@@ -13448,10 +13497,10 @@
       <c r="Y117" s="29"/>
       <c r="Z117" s="41"/>
       <c r="AA117" s="15" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="AB117" s="26" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="AC117" s="34"/>
       <c r="AD117" s="35"/>
@@ -13463,16 +13512,16 @@
     </row>
     <row r="118" ht="30.5" customHeight="1" spans="1:35">
       <c r="A118" s="50" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="B118" s="59" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="C118" s="60" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="E118" s="20">
         <v>2</v>
@@ -13496,16 +13545,16 @@
         <v>1</v>
       </c>
       <c r="L118" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M118" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N118" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O118" s="19" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="P118" s="19">
         <v>0</v>
@@ -13523,10 +13572,10 @@
       <c r="Y118" s="29"/>
       <c r="Z118" s="41"/>
       <c r="AA118" s="15" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="AB118" s="26" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="AC118" s="34"/>
       <c r="AD118" s="35"/>
@@ -13538,16 +13587,16 @@
     </row>
     <row r="119" ht="49.5" spans="1:35">
       <c r="A119" s="53" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="B119" s="61" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="C119" s="62" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="E119" s="20">
         <v>2</v>
@@ -13571,16 +13620,16 @@
         <v>1</v>
       </c>
       <c r="L119" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M119" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N119" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O119" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P119" s="19">
         <v>0</v>
@@ -13590,7 +13639,7 @@
       </c>
       <c r="R119" s="19"/>
       <c r="S119" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T119" s="21"/>
       <c r="U119" s="19"/>
@@ -13600,10 +13649,10 @@
       <c r="Y119" s="29"/>
       <c r="Z119" s="41"/>
       <c r="AA119" s="15" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="AB119" s="26" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="AC119" s="34"/>
       <c r="AD119" s="35"/>
@@ -13615,16 +13664,16 @@
     </row>
     <row r="120" ht="30.5" customHeight="1" spans="1:35">
       <c r="A120" s="63" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="B120" s="64" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="C120" s="65" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="D120" s="66" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="E120" s="67">
         <v>2</v>
@@ -13648,16 +13697,16 @@
         <v>1</v>
       </c>
       <c r="L120" s="68" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M120" s="68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N120" s="68" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O120" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P120" s="68">
         <v>0</v>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="624">
   <si>
     <t>名字</t>
   </si>
@@ -1641,7 +1641,7 @@
     </r>
   </si>
   <si>
-    <t>item_rune/1</t>
+    <t>hero/skywrath/雷鸣</t>
   </si>
   <si>
     <t>value 100</t>
@@ -1656,6 +1656,9 @@
     <t>悲鸣的要求改变为不需要暴击可直接触发</t>
   </si>
   <si>
+    <t>hero/skywrath/悲鸣</t>
+  </si>
+  <si>
     <t>bm_value 1</t>
   </si>
   <si>
@@ -1668,6 +1671,9 @@
     <t>引雷区域半径提高200码</t>
   </si>
   <si>
+    <t>hero/skywrath/引雷</t>
+  </si>
+  <si>
     <t>radius 200</t>
   </si>
   <si>
@@ -1680,6 +1686,9 @@
     <t>寒风波技能基础伤害提高100%</t>
   </si>
   <si>
+    <t>hero/skywrath/寒风波</t>
+  </si>
+  <si>
     <t>rune_56</t>
   </si>
   <si>
@@ -1687,6 +1696,9 @@
   </si>
   <si>
     <t>霜冻触发时，伤害提高10倍</t>
+  </si>
+  <si>
+    <t>hero/skywrath/霜冻</t>
   </si>
   <si>
     <t>bonus_mul 10</t>
@@ -1727,6 +1739,9 @@
     </r>
   </si>
   <si>
+    <t>hero/skywrath/炎龙</t>
+  </si>
+  <si>
     <t>rune_58</t>
   </si>
   <si>
@@ -1734,6 +1749,9 @@
   </si>
   <si>
     <t>龙啸不再需要蓄力即可发出最高数量炎龙</t>
+  </si>
+  <si>
+    <t>hero/skywrath/龙哮</t>
   </si>
   <si>
     <t>lx_key 1</t>
@@ -1774,6 +1792,9 @@
     </r>
   </si>
   <si>
+    <t>hero/skywrath/元素缭绕</t>
+  </si>
+  <si>
     <t>value 200</t>
   </si>
   <si>
@@ -1786,6 +1807,9 @@
     <t>炎爆每次生成火球时，一次性生成5个，火球数量上限+3</t>
   </si>
   <si>
+    <t>hero/skywrath/炎爆</t>
+  </si>
+  <si>
     <t>value 5</t>
   </si>
   <si>
@@ -1799,6 +1823,9 @@
   </si>
   <si>
     <t>元素缠绕系列基础伤害间隔减少50%</t>
+  </si>
+  <si>
+    <t>interval_increase 50</t>
   </si>
   <si>
     <t>rune_62</t>
@@ -1827,6 +1854,9 @@
     </r>
   </si>
   <si>
+    <t>hero/skywrath/霜降</t>
+  </si>
+  <si>
     <t>rune_63</t>
   </si>
   <si>
@@ -1834,6 +1864,9 @@
   </si>
   <si>
     <t>霜降生成的冰块数量翻倍</t>
+  </si>
+  <si>
+    <t>value 2</t>
   </si>
   <si>
     <t>rune_64</t>
@@ -1871,6 +1904,9 @@
     </r>
   </si>
   <si>
+    <t>hero/skywrath/雷电屏障</t>
+  </si>
+  <si>
     <t>rune_65</t>
   </si>
   <si>
@@ -1880,6 +1916,12 @@
     <t>感电线圈伤害间隔减少50%</t>
   </si>
   <si>
+    <t>hero/skywrath/感电线圈_</t>
+  </si>
+  <si>
+    <t>value 50</t>
+  </si>
+  <si>
     <t>rune_66</t>
   </si>
   <si>
@@ -1889,6 +1931,9 @@
     <t>极寒冰圈伤害间隔减少50%</t>
   </si>
   <si>
+    <t>hero/skywrath/极寒冰圈</t>
+  </si>
+  <si>
     <t>rune_67</t>
   </si>
   <si>
@@ -1898,6 +1943,12 @@
     <t>控雷生成的电圈将永久存在</t>
   </si>
   <si>
+    <t>hero/skywrath/控雷</t>
+  </si>
+  <si>
+    <t>value 1</t>
+  </si>
+  <si>
     <t>rune_68</t>
   </si>
   <si>
@@ -1905,6 +1956,9 @@
   </si>
   <si>
     <t>冷气效果上限提高一倍</t>
+  </si>
+  <si>
+    <t>hero/skywrath/冷气</t>
   </si>
   <si>
     <t>rune_69</t>
@@ -1942,6 +1996,9 @@
     </r>
   </si>
   <si>
+    <t>hero/skywrath/元素轰炸</t>
+  </si>
+  <si>
     <t>rune_70</t>
   </si>
   <si>
@@ -1951,6 +2008,12 @@
     <t>陨石雨数量增加1枚，范围扩大100码</t>
   </si>
   <si>
+    <t>hero/skywrath/陨石雨</t>
+  </si>
+  <si>
+    <t>radius 100</t>
+  </si>
+  <si>
     <t>rune_71</t>
   </si>
   <si>
@@ -1978,6 +2041,12 @@
     <t>雷云数量翻倍，雷云攻击间隔降低至0.75</t>
   </si>
   <si>
+    <t>hero/skywrath/雷云</t>
+  </si>
+  <si>
+    <t>value 0.75</t>
+  </si>
+  <si>
     <t>rune_74</t>
   </si>
   <si>
@@ -1994,6 +2063,9 @@
   </si>
   <si>
     <t>焚天效果变为可叠加，至多叠加5层</t>
+  </si>
+  <si>
+    <t>hero/skywrath/焚天</t>
   </si>
   <si>
     <t>rune_76</t>
@@ -2022,6 +2094,12 @@
     </r>
   </si>
   <si>
+    <t>hero/skywrath/极寒领域</t>
+  </si>
+  <si>
+    <t>value 55</t>
+  </si>
+  <si>
     <t>rune_77</t>
   </si>
   <si>
@@ -2031,6 +2109,9 @@
     <t>死亡空间的技能基础伤害提升100%</t>
   </si>
   <si>
+    <t>hero/skywrath/死亡空间</t>
+  </si>
+  <si>
     <t>rune_78</t>
   </si>
   <si>
@@ -2046,24 +2127,10 @@
     <t>法爷#28</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>聪慧每消耗1点蓝量该次技能提高2%的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技能增强</t>
-    </r>
+    <t>聪慧每消耗1点蓝量该次技能提高2%的伤害加成</t>
+  </si>
+  <si>
+    <t>hero/skywrath/聪慧</t>
   </si>
   <si>
     <t>rune_80</t>
@@ -2073,6 +2140,12 @@
   </si>
   <si>
     <t>分身的基础cd减少20秒</t>
+  </si>
+  <si>
+    <t>hero/skywrath/奥术分身</t>
+  </si>
+  <si>
+    <t>value 20</t>
   </si>
   <si>
     <t>rune_81</t>
@@ -2108,6 +2181,9 @@
       </rPr>
       <t>提高100%</t>
     </r>
+  </si>
+  <si>
+    <t>item_rune/1</t>
   </si>
   <si>
     <t>rune_82</t>
@@ -2508,9 +2584,6 @@
 2.向上取整</t>
   </si>
   <si>
-    <t>value 1</t>
-  </si>
-  <si>
     <t>rune_102</t>
   </si>
   <si>
@@ -2539,9 +2612,6 @@
   </si>
   <si>
     <t>获取符文后开始计算</t>
-  </si>
-  <si>
-    <t>value 2</t>
   </si>
   <si>
     <t>rune_104</t>
@@ -2933,6 +3003,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2947,12 +3029,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
@@ -2960,12 +3036,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -3121,7 +3191,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3155,6 +3225,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3363,7 +3451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -3458,6 +3546,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -3539,17 +3653,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
       <right style="medium">
         <color rgb="FFFFFFFF"/>
       </right>
@@ -3789,7 +3892,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3801,106 +3904,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3912,8 +4003,20 @@
     <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3980,7 +4083,19 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3989,148 +4104,145 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4710,12 +4822,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3F7FD713-E41B-45A2-9310-0DDA57E9DE35}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1D638A9E-4A0A-4A40-B3A9-8AB01CE70F05}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{042C2C82-8329-461C-A0B1-046E5015301B}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{5D818DA4-83D6-43F8-A6EF-3288751E20E8}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -4727,7 +4839,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{C2C54E0D-A090-4022-B41C-D8491ECC5475}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{196F1FDA-55E2-4914-B58D-15757D2F790A}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -5043,10 +5155,10 @@
   <sheetPr/>
   <dimension ref="A1:AI120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A53" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A42" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AA63" sqref="AA63"/>
+      <selection pane="topRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5135,8 +5247,8 @@
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="27"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="31"/>
       <c r="Z1" s="8" t="s">
         <v>17</v>
       </c>
@@ -5150,7 +5262,7 @@
       <c r="AF1" s="9"/>
       <c r="AG1" s="9"/>
       <c r="AH1" s="9"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AI1" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5207,13 +5319,13 @@
       <c r="R2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="23">
-        <v>1</v>
-      </c>
-      <c r="T2" s="23">
+      <c r="S2" s="27">
+        <v>1</v>
+      </c>
+      <c r="T2" s="27">
         <v>2</v>
       </c>
-      <c r="U2" s="24">
+      <c r="U2" s="28">
         <v>3</v>
       </c>
       <c r="V2" s="12">
@@ -5222,22 +5334,22 @@
       <c r="W2" s="12">
         <v>5</v>
       </c>
-      <c r="X2" s="25">
+      <c r="X2" s="29">
         <v>6</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Y2" s="32" t="s">
         <v>37</v>
       </c>
       <c r="Z2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="24">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="24">
+      <c r="AA2" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="28">
         <v>2</v>
       </c>
-      <c r="AC2" s="24">
+      <c r="AC2" s="28">
         <v>3</v>
       </c>
       <c r="AD2" s="12">
@@ -5255,7 +5367,7 @@
       <c r="AH2" s="12">
         <v>8</v>
       </c>
-      <c r="AI2" s="25" t="s">
+      <c r="AI2" s="29" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5319,8 +5431,8 @@
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
       <c r="W3" s="19"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="29"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="33"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="19" t="s">
         <v>48</v>
@@ -5332,7 +5444,7 @@
       <c r="AF3" s="19"/>
       <c r="AG3" s="19"/>
       <c r="AH3" s="19"/>
-      <c r="AI3" s="26"/>
+      <c r="AI3" s="30"/>
     </row>
     <row r="4" ht="47" customHeight="1" spans="1:35">
       <c r="A4" s="15" t="s">
@@ -5392,8 +5504,8 @@
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
       <c r="W4" s="19"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="34"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="19" t="s">
         <v>54</v>
@@ -5405,7 +5517,7 @@
       <c r="AF4" s="19"/>
       <c r="AG4" s="19"/>
       <c r="AH4" s="19"/>
-      <c r="AI4" s="26"/>
+      <c r="AI4" s="30"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="63.5" customHeight="1" spans="1:35">
       <c r="A5" s="15" t="s">
@@ -5465,8 +5577,8 @@
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
       <c r="W5" s="19"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="29"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="33"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="19" t="s">
         <v>60</v>
@@ -5478,7 +5590,7 @@
       <c r="AF5" s="19"/>
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
-      <c r="AI5" s="26"/>
+      <c r="AI5" s="30"/>
     </row>
     <row r="6" ht="47" customHeight="1" spans="1:35">
       <c r="A6" s="15" t="s">
@@ -5538,8 +5650,8 @@
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="34"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="19" t="s">
         <v>66</v>
@@ -5551,7 +5663,7 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
-      <c r="AI6" s="26"/>
+      <c r="AI6" s="30"/>
     </row>
     <row r="7" ht="63.5" customHeight="1" spans="1:35">
       <c r="A7" s="15" t="s">
@@ -5611,8 +5723,8 @@
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
       <c r="W7" s="19"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="29"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="33"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
@@ -5622,7 +5734,7 @@
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
-      <c r="AI7" s="26"/>
+      <c r="AI7" s="30"/>
     </row>
     <row r="8" ht="63.5" customHeight="1" spans="1:35">
       <c r="A8" s="15" t="s">
@@ -5682,8 +5794,8 @@
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="34"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="19"/>
       <c r="AB8" s="19"/>
@@ -5693,7 +5805,7 @@
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
-      <c r="AI8" s="26"/>
+      <c r="AI8" s="30"/>
     </row>
     <row r="9" ht="63.5" customHeight="1" spans="1:35">
       <c r="A9" s="15" t="s">
@@ -5753,8 +5865,8 @@
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="29"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="33"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="19"/>
       <c r="AB9" s="19"/>
@@ -5764,7 +5876,7 @@
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
-      <c r="AI9" s="26"/>
+      <c r="AI9" s="30"/>
     </row>
     <row r="10" ht="47" customHeight="1" spans="1:35">
       <c r="A10" s="15" t="s">
@@ -5824,8 +5936,8 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="34"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="19" t="s">
         <v>87</v>
@@ -5841,7 +5953,7 @@
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
-      <c r="AI10" s="26"/>
+      <c r="AI10" s="30"/>
     </row>
     <row r="11" ht="63.5" customHeight="1" spans="1:35">
       <c r="A11" s="15" t="s">
@@ -5903,8 +6015,8 @@
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="29"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="33"/>
       <c r="Z11" s="15"/>
       <c r="AA11" s="19" t="s">
         <v>98</v>
@@ -5918,7 +6030,7 @@
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
-      <c r="AI11" s="26"/>
+      <c r="AI11" s="30"/>
     </row>
     <row r="12" ht="47" customHeight="1" spans="1:35">
       <c r="A12" s="15" t="s">
@@ -5978,8 +6090,8 @@
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="34"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="19" t="s">
         <v>105</v>
@@ -5993,7 +6105,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
-      <c r="AI12" s="26"/>
+      <c r="AI12" s="30"/>
     </row>
     <row r="13" ht="47" customHeight="1" spans="1:35">
       <c r="A13" s="15" t="s">
@@ -6053,8 +6165,8 @@
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="29"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="33"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="19" t="s">
         <v>112</v>
@@ -6072,7 +6184,7 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
-      <c r="AI13" s="26"/>
+      <c r="AI13" s="30"/>
     </row>
     <row r="14" ht="63.5" customHeight="1" spans="1:35">
       <c r="A14" s="15" t="s">
@@ -6134,8 +6246,8 @@
       <c r="U14" s="19"/>
       <c r="V14" s="19"/>
       <c r="W14" s="19"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="34"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="19" t="s">
         <v>122</v>
@@ -6149,7 +6261,7 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
-      <c r="AI14" s="26"/>
+      <c r="AI14" s="30"/>
     </row>
     <row r="15" ht="63.5" customHeight="1" spans="1:35">
       <c r="A15" s="15" t="s">
@@ -6211,8 +6323,8 @@
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="29"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="33"/>
       <c r="Z15" s="15"/>
       <c r="AA15" s="19"/>
       <c r="AB15" s="19"/>
@@ -6222,7 +6334,7 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
-      <c r="AI15" s="26"/>
+      <c r="AI15" s="30"/>
     </row>
     <row r="16" ht="63.5" customHeight="1" spans="1:35">
       <c r="A16" s="15" t="s">
@@ -6284,8 +6396,8 @@
       <c r="U16" s="19"/>
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="34"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="19" t="s">
         <v>136</v>
@@ -6297,7 +6409,7 @@
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
-      <c r="AI16" s="26"/>
+      <c r="AI16" s="30"/>
     </row>
     <row r="17" ht="47" customHeight="1" spans="1:35">
       <c r="A17" s="15" t="s">
@@ -6357,8 +6469,8 @@
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="29"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="33"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="19" t="s">
         <v>112</v>
@@ -6372,7 +6484,7 @@
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
-      <c r="AI17" s="26"/>
+      <c r="AI17" s="30"/>
     </row>
     <row r="18" ht="63.5" customHeight="1" spans="1:35">
       <c r="A18" s="15" t="s">
@@ -6434,8 +6546,8 @@
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="34"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="19" t="s">
         <v>147</v>
@@ -6449,7 +6561,7 @@
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
-      <c r="AI18" s="26"/>
+      <c r="AI18" s="30"/>
     </row>
     <row r="19" ht="47" customHeight="1" spans="1:35">
       <c r="A19" s="15" t="s">
@@ -6509,8 +6621,8 @@
       <c r="U19" s="19"/>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="29"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="33"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="19" t="s">
         <v>153</v>
@@ -6524,7 +6636,7 @@
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
-      <c r="AI19" s="26"/>
+      <c r="AI19" s="30"/>
     </row>
     <row r="20" ht="63.5" customHeight="1" spans="1:35">
       <c r="A20" s="15" t="s">
@@ -6588,8 +6700,8 @@
       <c r="U20" s="19"/>
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="34"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
@@ -6599,7 +6711,7 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
-      <c r="AI20" s="26"/>
+      <c r="AI20" s="30"/>
     </row>
     <row r="21" ht="63.5" customHeight="1" spans="1:35">
       <c r="A21" s="15" t="s">
@@ -6659,8 +6771,8 @@
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="29"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="33"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="19"/>
@@ -6670,7 +6782,7 @@
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
-      <c r="AI21" s="26"/>
+      <c r="AI21" s="30"/>
     </row>
     <row r="22" ht="63.5" customHeight="1" spans="1:35">
       <c r="A22" s="15" t="s">
@@ -6730,8 +6842,8 @@
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
       <c r="W22" s="19"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="34"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="19" t="s">
         <v>170</v>
@@ -6747,7 +6859,7 @@
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
-      <c r="AI22" s="26"/>
+      <c r="AI22" s="30"/>
     </row>
     <row r="23" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A23" s="15" t="s">
@@ -6807,8 +6919,8 @@
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
       <c r="W23" s="19"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="29"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="33"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="19" t="s">
         <v>177</v>
@@ -6822,7 +6934,7 @@
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
-      <c r="AI23" s="26"/>
+      <c r="AI23" s="30"/>
     </row>
     <row r="24" ht="47" customHeight="1" spans="1:35">
       <c r="A24" s="15" t="s">
@@ -6882,8 +6994,8 @@
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
       <c r="W24" s="19"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="34"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="19" t="s">
         <v>182</v>
@@ -6899,7 +7011,7 @@
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
-      <c r="AI24" s="26"/>
+      <c r="AI24" s="30"/>
     </row>
     <row r="25" ht="47" customHeight="1" spans="1:35">
       <c r="A25" s="15" t="s">
@@ -6959,8 +7071,8 @@
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
       <c r="W25" s="19"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="29"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="33"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="19" t="s">
         <v>105</v>
@@ -6974,7 +7086,7 @@
       <c r="AF25" s="19"/>
       <c r="AG25" s="19"/>
       <c r="AH25" s="19"/>
-      <c r="AI25" s="26"/>
+      <c r="AI25" s="30"/>
     </row>
     <row r="26" ht="47" customHeight="1" spans="1:35">
       <c r="A26" s="15" t="s">
@@ -7034,22 +7146,22 @@
       <c r="U26" s="19"/>
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="32" t="s">
+      <c r="X26" s="30"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="AB26" s="32" t="s">
+      <c r="AB26" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="45"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="48"/>
     </row>
     <row r="27" ht="31.25" customHeight="1" spans="1:35">
       <c r="A27" s="15" t="s">
@@ -7111,18 +7223,18 @@
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
       <c r="W27" s="19"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="33"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="37"/>
       <c r="AA27" s="8"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="35"/>
-      <c r="AE27" s="35"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="35"/>
-      <c r="AH27" s="35"/>
-      <c r="AI27" s="46"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="49"/>
     </row>
     <row r="28" ht="30.5" customHeight="1" spans="1:35">
       <c r="A28" s="15" t="s">
@@ -7180,22 +7292,22 @@
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
       <c r="W28" s="19"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="36"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="40"/>
       <c r="AA28" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="AB28" s="25" t="s">
+      <c r="AB28" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="38"/>
-      <c r="AF28" s="38"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="38"/>
-      <c r="AI28" s="47"/>
+      <c r="AC28" s="41"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="50"/>
     </row>
     <row r="29" ht="30.5" customHeight="1" spans="1:35">
       <c r="A29" s="15" t="s">
@@ -7253,22 +7365,22 @@
       <c r="U29" s="19"/>
       <c r="V29" s="19"/>
       <c r="W29" s="19"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="33"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="37"/>
       <c r="AA29" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="AB29" s="26" t="s">
+      <c r="AB29" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="35"/>
-      <c r="AI29" s="46"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="39"/>
+      <c r="AF29" s="39"/>
+      <c r="AG29" s="39"/>
+      <c r="AH29" s="39"/>
+      <c r="AI29" s="49"/>
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:35">
       <c r="A30" s="15" t="s">
@@ -7326,20 +7438,20 @@
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="36"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="40"/>
       <c r="AA30" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="38"/>
-      <c r="AF30" s="38"/>
-      <c r="AG30" s="38"/>
-      <c r="AH30" s="38"/>
-      <c r="AI30" s="47"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="50"/>
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:35">
       <c r="A31" s="15" t="s">
@@ -7397,22 +7509,22 @@
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
       <c r="W31" s="19"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="33"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="37"/>
       <c r="AA31" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="AB31" s="26" t="s">
+      <c r="AB31" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="35"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="35"/>
-      <c r="AH31" s="35"/>
-      <c r="AI31" s="46"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="39"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="39"/>
+      <c r="AI31" s="49"/>
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:35">
       <c r="A32" s="15" t="s">
@@ -7470,20 +7582,20 @@
       <c r="U32" s="19"/>
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="36"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="40"/>
       <c r="AA32" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="38"/>
-      <c r="AF32" s="38"/>
-      <c r="AG32" s="38"/>
-      <c r="AH32" s="38"/>
-      <c r="AI32" s="47"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="42"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="42"/>
+      <c r="AH32" s="42"/>
+      <c r="AI32" s="50"/>
     </row>
     <row r="33" ht="30.5" customHeight="1" spans="1:35">
       <c r="A33" s="15" t="s">
@@ -7541,20 +7653,20 @@
       <c r="U33" s="19"/>
       <c r="V33" s="19"/>
       <c r="W33" s="19"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="33"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="37"/>
       <c r="AA33" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
-      <c r="AG33" s="35"/>
-      <c r="AH33" s="35"/>
-      <c r="AI33" s="46"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="39"/>
+      <c r="AH33" s="39"/>
+      <c r="AI33" s="49"/>
     </row>
     <row r="34" ht="30.5" customHeight="1" spans="1:35">
       <c r="A34" s="15" t="s">
@@ -7612,20 +7724,20 @@
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="36"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="40"/>
       <c r="AA34" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="38"/>
-      <c r="AE34" s="38"/>
-      <c r="AF34" s="38"/>
-      <c r="AG34" s="38"/>
-      <c r="AH34" s="38"/>
-      <c r="AI34" s="47"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="42"/>
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="42"/>
+      <c r="AH34" s="42"/>
+      <c r="AI34" s="50"/>
     </row>
     <row r="35" ht="30.5" customHeight="1" spans="1:35">
       <c r="A35" s="15" t="s">
@@ -7683,20 +7795,20 @@
       <c r="U35" s="19"/>
       <c r="V35" s="19"/>
       <c r="W35" s="19"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="33"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="37"/>
       <c r="AA35" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="34"/>
-      <c r="AD35" s="35"/>
-      <c r="AE35" s="35"/>
-      <c r="AF35" s="35"/>
-      <c r="AG35" s="35"/>
-      <c r="AH35" s="35"/>
-      <c r="AI35" s="46"/>
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="39"/>
+      <c r="AH35" s="39"/>
+      <c r="AI35" s="49"/>
     </row>
     <row r="36" ht="30.5" customHeight="1" spans="1:35">
       <c r="A36" s="15" t="s">
@@ -7754,20 +7866,20 @@
       <c r="U36" s="19"/>
       <c r="V36" s="19"/>
       <c r="W36" s="19"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="36"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="40"/>
       <c r="AA36" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="38"/>
-      <c r="AE36" s="38"/>
-      <c r="AF36" s="38"/>
-      <c r="AG36" s="38"/>
-      <c r="AH36" s="38"/>
-      <c r="AI36" s="47"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+      <c r="AH36" s="42"/>
+      <c r="AI36" s="50"/>
     </row>
     <row r="37" ht="30.5" customHeight="1" spans="1:35">
       <c r="A37" s="15" t="s">
@@ -7825,20 +7937,20 @@
       <c r="U37" s="19"/>
       <c r="V37" s="19"/>
       <c r="W37" s="19"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="33"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="37"/>
       <c r="AA37" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="35"/>
-      <c r="AF37" s="35"/>
-      <c r="AG37" s="35"/>
-      <c r="AH37" s="35"/>
-      <c r="AI37" s="46"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="38"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="39"/>
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="49"/>
     </row>
     <row r="38" ht="30.5" customHeight="1" spans="1:35">
       <c r="A38" s="15" t="s">
@@ -7896,20 +8008,20 @@
       <c r="U38" s="19"/>
       <c r="V38" s="19"/>
       <c r="W38" s="19"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="36"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="40"/>
       <c r="AA38" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="39"/>
-      <c r="AD38" s="40"/>
-      <c r="AE38" s="38"/>
-      <c r="AF38" s="38"/>
-      <c r="AG38" s="38"/>
-      <c r="AH38" s="38"/>
-      <c r="AI38" s="47"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="42"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="42"/>
+      <c r="AH38" s="42"/>
+      <c r="AI38" s="50"/>
     </row>
     <row r="39" ht="30.5" customHeight="1" spans="1:35">
       <c r="A39" s="15" t="s">
@@ -7967,20 +8079,20 @@
       <c r="U39" s="19"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="41"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="45"/>
       <c r="AA39" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="42"/>
-      <c r="AF39" s="42"/>
-      <c r="AG39" s="42"/>
-      <c r="AH39" s="42"/>
-      <c r="AI39" s="48"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="51"/>
     </row>
     <row r="40" ht="30.5" customHeight="1" spans="1:35">
       <c r="A40" s="15" t="s">
@@ -8040,20 +8152,20 @@
       <c r="U40" s="19"/>
       <c r="V40" s="19"/>
       <c r="W40" s="19"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="43"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="46"/>
       <c r="AA40" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="37"/>
-      <c r="AD40" s="38"/>
-      <c r="AE40" s="44"/>
-      <c r="AF40" s="44"/>
-      <c r="AG40" s="44"/>
-      <c r="AH40" s="44"/>
-      <c r="AI40" s="49"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="41"/>
+      <c r="AD40" s="42"/>
+      <c r="AE40" s="47"/>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="47"/>
+      <c r="AH40" s="47"/>
+      <c r="AI40" s="52"/>
     </row>
     <row r="41" ht="30.5" customHeight="1" spans="1:35">
       <c r="A41" s="15" t="s">
@@ -8113,20 +8225,20 @@
       <c r="U41" s="19"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="41"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="45"/>
       <c r="AA41" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="35"/>
-      <c r="AE41" s="42"/>
-      <c r="AF41" s="42"/>
-      <c r="AG41" s="42"/>
-      <c r="AH41" s="42"/>
-      <c r="AI41" s="48"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="38"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="23"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="51"/>
     </row>
     <row r="42" ht="30.5" customHeight="1" spans="1:35">
       <c r="A42" s="15" t="s">
@@ -8184,20 +8296,20 @@
       <c r="U42" s="19"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="36"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="40"/>
       <c r="AA42" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="37"/>
-      <c r="AD42" s="38"/>
-      <c r="AE42" s="38"/>
-      <c r="AF42" s="38"/>
-      <c r="AG42" s="38"/>
-      <c r="AH42" s="38"/>
-      <c r="AI42" s="47"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="41"/>
+      <c r="AD42" s="42"/>
+      <c r="AE42" s="42"/>
+      <c r="AF42" s="42"/>
+      <c r="AG42" s="42"/>
+      <c r="AH42" s="42"/>
+      <c r="AI42" s="50"/>
     </row>
     <row r="43" ht="30.5" customHeight="1" spans="1:35">
       <c r="A43" s="15" t="s">
@@ -8255,20 +8367,20 @@
       <c r="U43" s="19"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="41"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="45"/>
       <c r="AA43" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="35"/>
-      <c r="AE43" s="42"/>
-      <c r="AF43" s="42"/>
-      <c r="AG43" s="42"/>
-      <c r="AH43" s="42"/>
-      <c r="AI43" s="48"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="39"/>
+      <c r="AE43" s="23"/>
+      <c r="AF43" s="23"/>
+      <c r="AG43" s="23"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="51"/>
     </row>
     <row r="44" ht="30.5" customHeight="1" spans="1:35">
       <c r="A44" s="15" t="s">
@@ -8326,20 +8438,20 @@
       <c r="U44" s="19"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="43"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="46"/>
       <c r="AA44" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="38"/>
-      <c r="AE44" s="44"/>
-      <c r="AF44" s="44"/>
-      <c r="AG44" s="44"/>
-      <c r="AH44" s="44"/>
-      <c r="AI44" s="49"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="41"/>
+      <c r="AD44" s="42"/>
+      <c r="AE44" s="47"/>
+      <c r="AF44" s="47"/>
+      <c r="AG44" s="47"/>
+      <c r="AH44" s="47"/>
+      <c r="AI44" s="52"/>
     </row>
     <row r="45" ht="30.5" customHeight="1" spans="1:35">
       <c r="A45" s="15" t="s">
@@ -8397,20 +8509,20 @@
       <c r="U45" s="19"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="41"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="45"/>
       <c r="AA45" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="34"/>
-      <c r="AD45" s="35"/>
-      <c r="AE45" s="42"/>
-      <c r="AF45" s="42"/>
-      <c r="AG45" s="42"/>
-      <c r="AH45" s="42"/>
-      <c r="AI45" s="48"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="38"/>
+      <c r="AD45" s="39"/>
+      <c r="AE45" s="23"/>
+      <c r="AF45" s="23"/>
+      <c r="AG45" s="23"/>
+      <c r="AH45" s="23"/>
+      <c r="AI45" s="51"/>
     </row>
     <row r="46" ht="30.5" customHeight="1" spans="1:35">
       <c r="A46" s="15" t="s">
@@ -8468,20 +8580,20 @@
       <c r="U46" s="19"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
-      <c r="X46" s="26"/>
-      <c r="Y46" s="30"/>
-      <c r="Z46" s="43"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="46"/>
       <c r="AA46" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="37"/>
-      <c r="AD46" s="38"/>
-      <c r="AE46" s="44"/>
-      <c r="AF46" s="44"/>
-      <c r="AG46" s="44"/>
-      <c r="AH46" s="44"/>
-      <c r="AI46" s="49"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="41"/>
+      <c r="AD46" s="42"/>
+      <c r="AE46" s="47"/>
+      <c r="AF46" s="47"/>
+      <c r="AG46" s="47"/>
+      <c r="AH46" s="47"/>
+      <c r="AI46" s="52"/>
     </row>
     <row r="47" ht="30.5" customHeight="1" spans="1:35">
       <c r="A47" s="15" t="s">
@@ -8541,22 +8653,22 @@
       <c r="U47" s="19"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="41"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="45"/>
       <c r="AA47" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="AB47" s="26" t="s">
+      <c r="AB47" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="AC47" s="34"/>
-      <c r="AD47" s="35"/>
-      <c r="AE47" s="42"/>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42"/>
-      <c r="AI47" s="48"/>
+      <c r="AC47" s="38"/>
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="23"/>
+      <c r="AF47" s="23"/>
+      <c r="AG47" s="23"/>
+      <c r="AH47" s="23"/>
+      <c r="AI47" s="51"/>
     </row>
     <row r="48" ht="30.5" customHeight="1" spans="1:35">
       <c r="A48" s="15" t="s">
@@ -8614,20 +8726,20 @@
       <c r="U48" s="19"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
-      <c r="X48" s="26"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="43"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="46"/>
       <c r="AA48" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="37"/>
-      <c r="AD48" s="38"/>
-      <c r="AE48" s="44"/>
-      <c r="AF48" s="44"/>
-      <c r="AG48" s="44"/>
-      <c r="AH48" s="44"/>
-      <c r="AI48" s="49"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="41"/>
+      <c r="AD48" s="42"/>
+      <c r="AE48" s="47"/>
+      <c r="AF48" s="47"/>
+      <c r="AG48" s="47"/>
+      <c r="AH48" s="47"/>
+      <c r="AI48" s="52"/>
     </row>
     <row r="49" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A49" s="15" t="s">
@@ -8685,20 +8797,20 @@
       <c r="U49" s="19"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
-      <c r="X49" s="26"/>
-      <c r="Y49" s="29"/>
-      <c r="Z49" s="41"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="45"/>
       <c r="AA49" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="34"/>
-      <c r="AD49" s="35"/>
-      <c r="AE49" s="42"/>
-      <c r="AF49" s="42"/>
-      <c r="AG49" s="42"/>
-      <c r="AH49" s="42"/>
-      <c r="AI49" s="48"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="38"/>
+      <c r="AD49" s="39"/>
+      <c r="AE49" s="23"/>
+      <c r="AF49" s="23"/>
+      <c r="AG49" s="23"/>
+      <c r="AH49" s="23"/>
+      <c r="AI49" s="51"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A50" s="15" t="s">
@@ -8756,22 +8868,22 @@
       <c r="U50" s="19"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
-      <c r="X50" s="26"/>
-      <c r="Y50" s="30"/>
-      <c r="Z50" s="43"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="46"/>
       <c r="AA50" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="AB50" s="26" t="s">
+      <c r="AB50" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="AC50" s="37"/>
-      <c r="AD50" s="38"/>
-      <c r="AE50" s="44"/>
-      <c r="AF50" s="44"/>
-      <c r="AG50" s="44"/>
-      <c r="AH50" s="44"/>
-      <c r="AI50" s="49"/>
+      <c r="AC50" s="41"/>
+      <c r="AD50" s="42"/>
+      <c r="AE50" s="47"/>
+      <c r="AF50" s="47"/>
+      <c r="AG50" s="47"/>
+      <c r="AH50" s="47"/>
+      <c r="AI50" s="52"/>
     </row>
     <row r="51" ht="30.5" customHeight="1" spans="1:35">
       <c r="A51" s="15" t="s">
@@ -8829,22 +8941,22 @@
       <c r="U51" s="19"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="41"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="45"/>
       <c r="AA51" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="AB51" s="26" t="s">
+      <c r="AB51" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="AC51" s="34"/>
-      <c r="AD51" s="35"/>
-      <c r="AE51" s="42"/>
-      <c r="AF51" s="42"/>
-      <c r="AG51" s="42"/>
-      <c r="AH51" s="42"/>
-      <c r="AI51" s="48"/>
+      <c r="AC51" s="38"/>
+      <c r="AD51" s="39"/>
+      <c r="AE51" s="23"/>
+      <c r="AF51" s="23"/>
+      <c r="AG51" s="23"/>
+      <c r="AH51" s="23"/>
+      <c r="AI51" s="51"/>
     </row>
     <row r="52" ht="30.5" customHeight="1" spans="1:35">
       <c r="A52" s="15" t="s">
@@ -8902,20 +9014,20 @@
       <c r="U52" s="19"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
-      <c r="X52" s="26"/>
-      <c r="Y52" s="30"/>
-      <c r="Z52" s="43"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="46"/>
       <c r="AA52" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="AB52" s="26"/>
-      <c r="AC52" s="37"/>
-      <c r="AD52" s="38"/>
-      <c r="AE52" s="44"/>
-      <c r="AF52" s="44"/>
-      <c r="AG52" s="44"/>
-      <c r="AH52" s="44"/>
-      <c r="AI52" s="49"/>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="41"/>
+      <c r="AD52" s="42"/>
+      <c r="AE52" s="47"/>
+      <c r="AF52" s="47"/>
+      <c r="AG52" s="47"/>
+      <c r="AH52" s="47"/>
+      <c r="AI52" s="52"/>
     </row>
     <row r="53" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A53" s="15" t="s">
@@ -8973,26 +9085,26 @@
       <c r="U53" s="19"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
-      <c r="X53" s="26"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="41"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="45"/>
       <c r="AA53" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="AB53" s="26"/>
-      <c r="AC53" s="34"/>
-      <c r="AD53" s="35"/>
-      <c r="AE53" s="42"/>
-      <c r="AF53" s="42"/>
-      <c r="AG53" s="42"/>
-      <c r="AH53" s="42"/>
-      <c r="AI53" s="48"/>
+      <c r="AB53" s="30"/>
+      <c r="AC53" s="38"/>
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="23"/>
+      <c r="AF53" s="23"/>
+      <c r="AG53" s="23"/>
+      <c r="AH53" s="23"/>
+      <c r="AI53" s="51"/>
     </row>
     <row r="54" ht="30.5" customHeight="1" spans="1:35">
       <c r="A54" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="22" t="s">
         <v>334</v>
       </c>
       <c r="C54" s="17" t="s">
@@ -9026,7 +9138,7 @@
       <c r="M54" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N54" s="19" t="s">
+      <c r="N54" s="23" t="s">
         <v>336</v>
       </c>
       <c r="O54" s="19" t="s">
@@ -9044,26 +9156,26 @@
       <c r="U54" s="19"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
-      <c r="X54" s="26"/>
-      <c r="Y54" s="30"/>
-      <c r="Z54" s="43"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="46"/>
       <c r="AA54" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="AB54" s="26"/>
-      <c r="AC54" s="37"/>
-      <c r="AD54" s="38"/>
-      <c r="AE54" s="44"/>
-      <c r="AF54" s="44"/>
-      <c r="AG54" s="44"/>
-      <c r="AH54" s="44"/>
-      <c r="AI54" s="49"/>
+      <c r="AB54" s="30"/>
+      <c r="AC54" s="41"/>
+      <c r="AD54" s="42"/>
+      <c r="AE54" s="47"/>
+      <c r="AF54" s="47"/>
+      <c r="AG54" s="47"/>
+      <c r="AH54" s="47"/>
+      <c r="AI54" s="52"/>
     </row>
     <row r="55" ht="30.5" customHeight="1" spans="1:35">
       <c r="A55" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="22" t="s">
         <v>339</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -9097,8 +9209,8 @@
       <c r="M55" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N55" s="19" t="s">
-        <v>336</v>
+      <c r="N55" s="24" t="s">
+        <v>341</v>
       </c>
       <c r="O55" s="19" t="s">
         <v>45</v>
@@ -9115,30 +9227,30 @@
       <c r="U55" s="19"/>
       <c r="V55" s="19"/>
       <c r="W55" s="19"/>
-      <c r="X55" s="26"/>
-      <c r="Y55" s="29"/>
-      <c r="Z55" s="41"/>
+      <c r="X55" s="30"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="45"/>
       <c r="AA55" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="AB55" s="26"/>
-      <c r="AC55" s="34"/>
-      <c r="AD55" s="35"/>
-      <c r="AE55" s="42"/>
-      <c r="AF55" s="42"/>
-      <c r="AG55" s="42"/>
-      <c r="AH55" s="42"/>
-      <c r="AI55" s="48"/>
+        <v>342</v>
+      </c>
+      <c r="AB55" s="30"/>
+      <c r="AC55" s="38"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="23"/>
+      <c r="AF55" s="23"/>
+      <c r="AG55" s="23"/>
+      <c r="AH55" s="23"/>
+      <c r="AI55" s="51"/>
     </row>
     <row r="56" ht="30.5" customHeight="1" spans="1:35">
       <c r="A56" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="B56" s="19" t="s">
         <v>343</v>
       </c>
+      <c r="B56" s="22" t="s">
+        <v>344</v>
+      </c>
       <c r="C56" s="17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="20">
@@ -9168,8 +9280,8 @@
       <c r="M56" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N56" s="19" t="s">
-        <v>336</v>
+      <c r="N56" s="25" t="s">
+        <v>346</v>
       </c>
       <c r="O56" s="19" t="s">
         <v>45</v>
@@ -9186,30 +9298,30 @@
       <c r="U56" s="19"/>
       <c r="V56" s="19"/>
       <c r="W56" s="19"/>
-      <c r="X56" s="26"/>
-      <c r="Y56" s="30"/>
-      <c r="Z56" s="43"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="46"/>
       <c r="AA56" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="AB56" s="26"/>
-      <c r="AC56" s="37"/>
-      <c r="AD56" s="38"/>
-      <c r="AE56" s="44"/>
-      <c r="AF56" s="44"/>
-      <c r="AG56" s="44"/>
-      <c r="AH56" s="44"/>
-      <c r="AI56" s="49"/>
+        <v>347</v>
+      </c>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="41"/>
+      <c r="AD56" s="42"/>
+      <c r="AE56" s="47"/>
+      <c r="AF56" s="47"/>
+      <c r="AG56" s="47"/>
+      <c r="AH56" s="47"/>
+      <c r="AI56" s="52"/>
     </row>
     <row r="57" ht="30.5" customHeight="1" spans="1:35">
       <c r="A57" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>347</v>
+        <v>348</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="20">
@@ -9239,8 +9351,8 @@
       <c r="M57" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N57" s="19" t="s">
-        <v>336</v>
+      <c r="N57" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="O57" s="19" t="s">
         <v>45</v>
@@ -9257,30 +9369,30 @@
       <c r="U57" s="19"/>
       <c r="V57" s="19"/>
       <c r="W57" s="19"/>
-      <c r="X57" s="26"/>
-      <c r="Y57" s="29"/>
-      <c r="Z57" s="41"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="45"/>
       <c r="AA57" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="AB57" s="26"/>
-      <c r="AC57" s="34"/>
-      <c r="AD57" s="35"/>
-      <c r="AE57" s="42"/>
-      <c r="AF57" s="42"/>
-      <c r="AG57" s="42"/>
-      <c r="AH57" s="42"/>
-      <c r="AI57" s="48"/>
+      <c r="AB57" s="30"/>
+      <c r="AC57" s="38"/>
+      <c r="AD57" s="39"/>
+      <c r="AE57" s="23"/>
+      <c r="AF57" s="23"/>
+      <c r="AG57" s="23"/>
+      <c r="AH57" s="23"/>
+      <c r="AI57" s="51"/>
     </row>
     <row r="58" ht="30.5" customHeight="1" spans="1:35">
       <c r="A58" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>353</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="20">
@@ -9310,8 +9422,8 @@
       <c r="M58" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N58" s="19" t="s">
-        <v>336</v>
+      <c r="N58" s="24" t="s">
+        <v>355</v>
       </c>
       <c r="O58" s="19" t="s">
         <v>45</v>
@@ -9328,30 +9440,30 @@
       <c r="U58" s="19"/>
       <c r="V58" s="19"/>
       <c r="W58" s="19"/>
-      <c r="X58" s="26"/>
-      <c r="Y58" s="30"/>
-      <c r="Z58" s="43"/>
+      <c r="X58" s="30"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="46"/>
       <c r="AA58" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="AB58" s="26"/>
-      <c r="AC58" s="37"/>
-      <c r="AD58" s="38"/>
-      <c r="AE58" s="44"/>
-      <c r="AF58" s="44"/>
-      <c r="AG58" s="44"/>
-      <c r="AH58" s="44"/>
-      <c r="AI58" s="49"/>
+        <v>356</v>
+      </c>
+      <c r="AB58" s="30"/>
+      <c r="AC58" s="41"/>
+      <c r="AD58" s="42"/>
+      <c r="AE58" s="47"/>
+      <c r="AF58" s="47"/>
+      <c r="AG58" s="47"/>
+      <c r="AH58" s="47"/>
+      <c r="AI58" s="52"/>
     </row>
     <row r="59" ht="30.5" customHeight="1" spans="1:35">
       <c r="A59" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>354</v>
+        <v>357</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="20">
@@ -9381,8 +9493,8 @@
       <c r="M59" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N59" s="19" t="s">
-        <v>336</v>
+      <c r="N59" s="25" t="s">
+        <v>360</v>
       </c>
       <c r="O59" s="19" t="s">
         <v>45</v>
@@ -9399,30 +9511,30 @@
       <c r="U59" s="19"/>
       <c r="V59" s="19"/>
       <c r="W59" s="19"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="41"/>
+      <c r="X59" s="30"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="45"/>
       <c r="AA59" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="AB59" s="26"/>
-      <c r="AC59" s="34"/>
-      <c r="AD59" s="35"/>
-      <c r="AE59" s="42"/>
-      <c r="AF59" s="42"/>
-      <c r="AG59" s="42"/>
-      <c r="AH59" s="42"/>
-      <c r="AI59" s="48"/>
+      <c r="AB59" s="30"/>
+      <c r="AC59" s="38"/>
+      <c r="AD59" s="39"/>
+      <c r="AE59" s="23"/>
+      <c r="AF59" s="23"/>
+      <c r="AG59" s="23"/>
+      <c r="AH59" s="23"/>
+      <c r="AI59" s="51"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A60" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>357</v>
+        <v>361</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>362</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="20">
@@ -9452,8 +9564,8 @@
       <c r="M60" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N60" s="19" t="s">
-        <v>336</v>
+      <c r="N60" s="24" t="s">
+        <v>364</v>
       </c>
       <c r="O60" s="19" t="s">
         <v>45</v>
@@ -9470,30 +9582,30 @@
       <c r="U60" s="19"/>
       <c r="V60" s="19"/>
       <c r="W60" s="19"/>
-      <c r="X60" s="26"/>
-      <c r="Y60" s="30"/>
-      <c r="Z60" s="43"/>
+      <c r="X60" s="30"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="46"/>
       <c r="AA60" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="37"/>
-      <c r="AD60" s="38"/>
-      <c r="AE60" s="44"/>
-      <c r="AF60" s="44"/>
-      <c r="AG60" s="44"/>
-      <c r="AH60" s="44"/>
-      <c r="AI60" s="49"/>
+        <v>365</v>
+      </c>
+      <c r="AB60" s="30"/>
+      <c r="AC60" s="41"/>
+      <c r="AD60" s="42"/>
+      <c r="AE60" s="47"/>
+      <c r="AF60" s="47"/>
+      <c r="AG60" s="47"/>
+      <c r="AH60" s="47"/>
+      <c r="AI60" s="52"/>
     </row>
     <row r="61" s="3" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A61" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>361</v>
+        <v>366</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>367</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="20">
@@ -9523,8 +9635,8 @@
       <c r="M61" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N61" s="19" t="s">
-        <v>336</v>
+      <c r="N61" s="24" t="s">
+        <v>369</v>
       </c>
       <c r="O61" s="19" t="s">
         <v>45</v>
@@ -9541,30 +9653,30 @@
       <c r="U61" s="19"/>
       <c r="V61" s="19"/>
       <c r="W61" s="19"/>
-      <c r="X61" s="26"/>
-      <c r="Y61" s="29"/>
-      <c r="Z61" s="41"/>
+      <c r="X61" s="30"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="45"/>
       <c r="AA61" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB61" s="26"/>
-      <c r="AC61" s="34"/>
-      <c r="AD61" s="35"/>
-      <c r="AE61" s="42"/>
-      <c r="AF61" s="42"/>
-      <c r="AG61" s="42"/>
-      <c r="AH61" s="42"/>
-      <c r="AI61" s="48"/>
+        <v>370</v>
+      </c>
+      <c r="AB61" s="30"/>
+      <c r="AC61" s="38"/>
+      <c r="AD61" s="39"/>
+      <c r="AE61" s="23"/>
+      <c r="AF61" s="23"/>
+      <c r="AG61" s="23"/>
+      <c r="AH61" s="23"/>
+      <c r="AI61" s="51"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A62" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>365</v>
+        <v>371</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="20">
@@ -9594,8 +9706,8 @@
       <c r="M62" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N62" s="19" t="s">
-        <v>336</v>
+      <c r="N62" s="25" t="s">
+        <v>374</v>
       </c>
       <c r="O62" s="19" t="s">
         <v>45</v>
@@ -9612,32 +9724,32 @@
       <c r="U62" s="19"/>
       <c r="V62" s="19"/>
       <c r="W62" s="19"/>
-      <c r="X62" s="26"/>
-      <c r="Y62" s="30"/>
-      <c r="Z62" s="43"/>
+      <c r="X62" s="30"/>
+      <c r="Y62" s="34"/>
+      <c r="Z62" s="46"/>
       <c r="AA62" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB62" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC62" s="37"/>
-      <c r="AD62" s="38"/>
-      <c r="AE62" s="44"/>
-      <c r="AF62" s="44"/>
-      <c r="AG62" s="44"/>
-      <c r="AH62" s="44"/>
-      <c r="AI62" s="49"/>
+        <v>375</v>
+      </c>
+      <c r="AB62" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC62" s="41"/>
+      <c r="AD62" s="42"/>
+      <c r="AE62" s="47"/>
+      <c r="AF62" s="47"/>
+      <c r="AG62" s="47"/>
+      <c r="AH62" s="47"/>
+      <c r="AI62" s="52"/>
     </row>
     <row r="63" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A63" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>370</v>
+        <v>377</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>378</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="20">
@@ -9667,8 +9779,8 @@
       <c r="M63" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N63" s="19" t="s">
-        <v>336</v>
+      <c r="N63" s="24" t="s">
+        <v>369</v>
       </c>
       <c r="O63" s="19" t="s">
         <v>45</v>
@@ -9685,28 +9797,30 @@
       <c r="U63" s="19"/>
       <c r="V63" s="19"/>
       <c r="W63" s="19"/>
-      <c r="X63" s="26"/>
-      <c r="Y63" s="29"/>
-      <c r="Z63" s="41"/>
-      <c r="AA63" s="15"/>
-      <c r="AB63" s="26"/>
-      <c r="AC63" s="34"/>
-      <c r="AD63" s="35"/>
-      <c r="AE63" s="42"/>
-      <c r="AF63" s="42"/>
-      <c r="AG63" s="42"/>
-      <c r="AH63" s="42"/>
-      <c r="AI63" s="48"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="33"/>
+      <c r="Z63" s="45"/>
+      <c r="AA63" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB63" s="30"/>
+      <c r="AC63" s="38"/>
+      <c r="AD63" s="39"/>
+      <c r="AE63" s="23"/>
+      <c r="AF63" s="23"/>
+      <c r="AG63" s="23"/>
+      <c r="AH63" s="23"/>
+      <c r="AI63" s="51"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A64" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>373</v>
+        <v>381</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>382</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="20">
@@ -9736,8 +9850,8 @@
       <c r="M64" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N64" s="19" t="s">
-        <v>336</v>
+      <c r="N64" s="24" t="s">
+        <v>384</v>
       </c>
       <c r="O64" s="19" t="s">
         <v>45</v>
@@ -9754,28 +9868,30 @@
       <c r="U64" s="19"/>
       <c r="V64" s="19"/>
       <c r="W64" s="19"/>
-      <c r="X64" s="26"/>
-      <c r="Y64" s="30"/>
-      <c r="Z64" s="43"/>
-      <c r="AA64" s="15"/>
-      <c r="AB64" s="26"/>
-      <c r="AC64" s="37"/>
-      <c r="AD64" s="38"/>
-      <c r="AE64" s="44"/>
-      <c r="AF64" s="44"/>
-      <c r="AG64" s="44"/>
-      <c r="AH64" s="44"/>
-      <c r="AI64" s="49"/>
+      <c r="X64" s="30"/>
+      <c r="Y64" s="34"/>
+      <c r="Z64" s="46"/>
+      <c r="AA64" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB64" s="30"/>
+      <c r="AC64" s="41"/>
+      <c r="AD64" s="42"/>
+      <c r="AE64" s="47"/>
+      <c r="AF64" s="47"/>
+      <c r="AG64" s="47"/>
+      <c r="AH64" s="47"/>
+      <c r="AI64" s="52"/>
     </row>
     <row r="65" ht="30.5" customHeight="1" spans="1:35">
       <c r="A65" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>376</v>
+        <v>385</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>386</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D65" s="21"/>
       <c r="E65" s="20">
@@ -9805,8 +9921,8 @@
       <c r="M65" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N65" s="19" t="s">
-        <v>336</v>
+      <c r="N65" s="24" t="s">
+        <v>384</v>
       </c>
       <c r="O65" s="19" t="s">
         <v>45</v>
@@ -9823,28 +9939,30 @@
       <c r="U65" s="19"/>
       <c r="V65" s="19"/>
       <c r="W65" s="19"/>
-      <c r="X65" s="26"/>
-      <c r="Y65" s="29"/>
-      <c r="Z65" s="41"/>
-      <c r="AA65" s="15"/>
-      <c r="AB65" s="26"/>
-      <c r="AC65" s="34"/>
-      <c r="AD65" s="35"/>
-      <c r="AE65" s="42"/>
-      <c r="AF65" s="42"/>
-      <c r="AG65" s="42"/>
-      <c r="AH65" s="42"/>
-      <c r="AI65" s="48"/>
+      <c r="X65" s="30"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="45"/>
+      <c r="AA65" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB65" s="30"/>
+      <c r="AC65" s="38"/>
+      <c r="AD65" s="39"/>
+      <c r="AE65" s="23"/>
+      <c r="AF65" s="23"/>
+      <c r="AG65" s="23"/>
+      <c r="AH65" s="23"/>
+      <c r="AI65" s="51"/>
     </row>
     <row r="66" ht="30.5" customHeight="1" spans="1:35">
       <c r="A66" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>379</v>
+        <v>389</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>390</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="20">
@@ -9874,8 +9992,8 @@
       <c r="M66" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N66" s="19" t="s">
-        <v>336</v>
+      <c r="N66" s="25" t="s">
+        <v>392</v>
       </c>
       <c r="O66" s="19" t="s">
         <v>45</v>
@@ -9892,28 +10010,30 @@
       <c r="U66" s="19"/>
       <c r="V66" s="19"/>
       <c r="W66" s="19"/>
-      <c r="X66" s="26"/>
-      <c r="Y66" s="30"/>
-      <c r="Z66" s="43"/>
-      <c r="AA66" s="15"/>
-      <c r="AB66" s="26"/>
-      <c r="AC66" s="37"/>
-      <c r="AD66" s="38"/>
-      <c r="AE66" s="44"/>
-      <c r="AF66" s="44"/>
-      <c r="AG66" s="44"/>
-      <c r="AH66" s="44"/>
-      <c r="AI66" s="49"/>
+      <c r="X66" s="30"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="46"/>
+      <c r="AA66" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB66" s="30"/>
+      <c r="AC66" s="41"/>
+      <c r="AD66" s="42"/>
+      <c r="AE66" s="47"/>
+      <c r="AF66" s="47"/>
+      <c r="AG66" s="47"/>
+      <c r="AH66" s="47"/>
+      <c r="AI66" s="52"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A67" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>382</v>
+        <v>393</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>394</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="D67" s="21"/>
       <c r="E67" s="20">
@@ -9943,8 +10063,8 @@
       <c r="M67" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N67" s="19" t="s">
-        <v>336</v>
+      <c r="N67" s="24" t="s">
+        <v>396</v>
       </c>
       <c r="O67" s="19" t="s">
         <v>45</v>
@@ -9961,28 +10081,30 @@
       <c r="U67" s="19"/>
       <c r="V67" s="19"/>
       <c r="W67" s="19"/>
-      <c r="X67" s="26"/>
-      <c r="Y67" s="29"/>
-      <c r="Z67" s="41"/>
-      <c r="AA67" s="15"/>
-      <c r="AB67" s="26"/>
-      <c r="AC67" s="34"/>
-      <c r="AD67" s="35"/>
-      <c r="AE67" s="42"/>
-      <c r="AF67" s="42"/>
-      <c r="AG67" s="42"/>
-      <c r="AH67" s="42"/>
-      <c r="AI67" s="48"/>
+      <c r="X67" s="30"/>
+      <c r="Y67" s="33"/>
+      <c r="Z67" s="45"/>
+      <c r="AA67" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB67" s="30"/>
+      <c r="AC67" s="38"/>
+      <c r="AD67" s="39"/>
+      <c r="AE67" s="23"/>
+      <c r="AF67" s="23"/>
+      <c r="AG67" s="23"/>
+      <c r="AH67" s="23"/>
+      <c r="AI67" s="51"/>
     </row>
     <row r="68" ht="30.5" customHeight="1" spans="1:35">
       <c r="A68" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>385</v>
+        <v>398</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>399</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="20">
@@ -10012,8 +10134,8 @@
       <c r="M68" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N68" s="19" t="s">
-        <v>336</v>
+      <c r="N68" s="25" t="s">
+        <v>401</v>
       </c>
       <c r="O68" s="19" t="s">
         <v>45</v>
@@ -10030,28 +10152,30 @@
       <c r="U68" s="19"/>
       <c r="V68" s="19"/>
       <c r="W68" s="19"/>
-      <c r="X68" s="26"/>
-      <c r="Y68" s="30"/>
-      <c r="Z68" s="43"/>
-      <c r="AA68" s="15"/>
-      <c r="AB68" s="26"/>
-      <c r="AC68" s="37"/>
-      <c r="AD68" s="38"/>
-      <c r="AE68" s="44"/>
-      <c r="AF68" s="44"/>
-      <c r="AG68" s="44"/>
-      <c r="AH68" s="44"/>
-      <c r="AI68" s="49"/>
+      <c r="X68" s="30"/>
+      <c r="Y68" s="34"/>
+      <c r="Z68" s="46"/>
+      <c r="AA68" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB68" s="30"/>
+      <c r="AC68" s="41"/>
+      <c r="AD68" s="42"/>
+      <c r="AE68" s="47"/>
+      <c r="AF68" s="47"/>
+      <c r="AG68" s="47"/>
+      <c r="AH68" s="47"/>
+      <c r="AI68" s="52"/>
     </row>
     <row r="69" ht="30.5" customHeight="1" spans="1:35">
       <c r="A69" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>388</v>
+        <v>402</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>403</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="D69" s="21"/>
       <c r="E69" s="20">
@@ -10081,8 +10205,8 @@
       <c r="M69" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N69" s="19" t="s">
-        <v>336</v>
+      <c r="N69" s="24" t="s">
+        <v>405</v>
       </c>
       <c r="O69" s="19" t="s">
         <v>45</v>
@@ -10099,28 +10223,30 @@
       <c r="U69" s="19"/>
       <c r="V69" s="19"/>
       <c r="W69" s="19"/>
-      <c r="X69" s="26"/>
-      <c r="Y69" s="29"/>
-      <c r="Z69" s="41"/>
-      <c r="AA69" s="15"/>
-      <c r="AB69" s="26"/>
-      <c r="AC69" s="34"/>
-      <c r="AD69" s="35"/>
-      <c r="AE69" s="42"/>
-      <c r="AF69" s="42"/>
-      <c r="AG69" s="42"/>
-      <c r="AH69" s="42"/>
-      <c r="AI69" s="48"/>
+      <c r="X69" s="30"/>
+      <c r="Y69" s="33"/>
+      <c r="Z69" s="45"/>
+      <c r="AA69" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB69" s="30"/>
+      <c r="AC69" s="38"/>
+      <c r="AD69" s="39"/>
+      <c r="AE69" s="23"/>
+      <c r="AF69" s="23"/>
+      <c r="AG69" s="23"/>
+      <c r="AH69" s="23"/>
+      <c r="AI69" s="51"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A70" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>391</v>
+        <v>407</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="20">
@@ -10150,8 +10276,8 @@
       <c r="M70" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N70" s="19" t="s">
-        <v>336</v>
+      <c r="N70" s="25" t="s">
+        <v>410</v>
       </c>
       <c r="O70" s="19" t="s">
         <v>45</v>
@@ -10168,28 +10294,30 @@
       <c r="U70" s="19"/>
       <c r="V70" s="19"/>
       <c r="W70" s="19"/>
-      <c r="X70" s="26"/>
-      <c r="Y70" s="30"/>
-      <c r="Z70" s="43"/>
-      <c r="AA70" s="15"/>
-      <c r="AB70" s="26"/>
-      <c r="AC70" s="37"/>
-      <c r="AD70" s="38"/>
-      <c r="AE70" s="44"/>
-      <c r="AF70" s="44"/>
-      <c r="AG70" s="44"/>
-      <c r="AH70" s="44"/>
-      <c r="AI70" s="49"/>
+      <c r="X70" s="30"/>
+      <c r="Y70" s="34"/>
+      <c r="Z70" s="46"/>
+      <c r="AA70" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB70" s="30"/>
+      <c r="AC70" s="41"/>
+      <c r="AD70" s="42"/>
+      <c r="AE70" s="47"/>
+      <c r="AF70" s="47"/>
+      <c r="AG70" s="47"/>
+      <c r="AH70" s="47"/>
+      <c r="AI70" s="52"/>
     </row>
     <row r="71" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A71" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>394</v>
+        <v>411</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>412</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D71" s="21"/>
       <c r="E71" s="20">
@@ -10219,8 +10347,8 @@
       <c r="M71" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N71" s="19" t="s">
-        <v>336</v>
+      <c r="N71" s="24" t="s">
+        <v>414</v>
       </c>
       <c r="O71" s="19" t="s">
         <v>45</v>
@@ -10237,28 +10365,30 @@
       <c r="U71" s="19"/>
       <c r="V71" s="19"/>
       <c r="W71" s="19"/>
-      <c r="X71" s="26"/>
-      <c r="Y71" s="29"/>
-      <c r="Z71" s="41"/>
-      <c r="AA71" s="15"/>
-      <c r="AB71" s="26"/>
-      <c r="AC71" s="34"/>
-      <c r="AD71" s="35"/>
-      <c r="AE71" s="42"/>
-      <c r="AF71" s="42"/>
-      <c r="AG71" s="42"/>
-      <c r="AH71" s="42"/>
-      <c r="AI71" s="48"/>
+      <c r="X71" s="30"/>
+      <c r="Y71" s="33"/>
+      <c r="Z71" s="45"/>
+      <c r="AA71" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB71" s="30"/>
+      <c r="AC71" s="38"/>
+      <c r="AD71" s="39"/>
+      <c r="AE71" s="23"/>
+      <c r="AF71" s="23"/>
+      <c r="AG71" s="23"/>
+      <c r="AH71" s="23"/>
+      <c r="AI71" s="51"/>
     </row>
     <row r="72" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A72" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>397</v>
+        <v>415</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>416</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="20">
@@ -10288,8 +10418,8 @@
       <c r="M72" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N72" s="19" t="s">
-        <v>336</v>
+      <c r="N72" s="25" t="s">
+        <v>418</v>
       </c>
       <c r="O72" s="19" t="s">
         <v>45</v>
@@ -10306,28 +10436,32 @@
       <c r="U72" s="19"/>
       <c r="V72" s="19"/>
       <c r="W72" s="19"/>
-      <c r="X72" s="26"/>
-      <c r="Y72" s="30"/>
-      <c r="Z72" s="43"/>
-      <c r="AA72" s="15"/>
-      <c r="AB72" s="26"/>
-      <c r="AC72" s="37"/>
-      <c r="AD72" s="38"/>
-      <c r="AE72" s="44"/>
-      <c r="AF72" s="44"/>
-      <c r="AG72" s="44"/>
-      <c r="AH72" s="44"/>
-      <c r="AI72" s="49"/>
+      <c r="X72" s="30"/>
+      <c r="Y72" s="34"/>
+      <c r="Z72" s="46"/>
+      <c r="AA72" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB72" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC72" s="41"/>
+      <c r="AD72" s="42"/>
+      <c r="AE72" s="47"/>
+      <c r="AF72" s="47"/>
+      <c r="AG72" s="47"/>
+      <c r="AH72" s="47"/>
+      <c r="AI72" s="52"/>
     </row>
     <row r="73" s="5" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A73" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>400</v>
+        <v>420</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>421</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="20">
@@ -10357,8 +10491,8 @@
       <c r="M73" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N73" s="19" t="s">
-        <v>336</v>
+      <c r="N73" s="25" t="s">
+        <v>418</v>
       </c>
       <c r="O73" s="19" t="s">
         <v>45</v>
@@ -10375,28 +10509,30 @@
       <c r="U73" s="19"/>
       <c r="V73" s="19"/>
       <c r="W73" s="19"/>
-      <c r="X73" s="26"/>
-      <c r="Y73" s="29"/>
-      <c r="Z73" s="41"/>
-      <c r="AA73" s="15"/>
-      <c r="AB73" s="26"/>
-      <c r="AC73" s="34"/>
-      <c r="AD73" s="35"/>
-      <c r="AE73" s="42"/>
-      <c r="AF73" s="42"/>
-      <c r="AG73" s="42"/>
-      <c r="AH73" s="42"/>
-      <c r="AI73" s="48"/>
+      <c r="X73" s="30"/>
+      <c r="Y73" s="33"/>
+      <c r="Z73" s="45"/>
+      <c r="AA73" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB73" s="30"/>
+      <c r="AC73" s="38"/>
+      <c r="AD73" s="39"/>
+      <c r="AE73" s="23"/>
+      <c r="AF73" s="23"/>
+      <c r="AG73" s="23"/>
+      <c r="AH73" s="23"/>
+      <c r="AI73" s="51"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A74" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>403</v>
+        <v>423</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>424</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="20">
@@ -10426,8 +10562,8 @@
       <c r="M74" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N74" s="19" t="s">
-        <v>336</v>
+      <c r="N74" s="25" t="s">
+        <v>418</v>
       </c>
       <c r="O74" s="19" t="s">
         <v>45</v>
@@ -10444,28 +10580,30 @@
       <c r="U74" s="19"/>
       <c r="V74" s="19"/>
       <c r="W74" s="19"/>
-      <c r="X74" s="26"/>
-      <c r="Y74" s="30"/>
-      <c r="Z74" s="43"/>
-      <c r="AA74" s="15"/>
-      <c r="AB74" s="26"/>
-      <c r="AC74" s="37"/>
-      <c r="AD74" s="38"/>
-      <c r="AE74" s="44"/>
-      <c r="AF74" s="44"/>
-      <c r="AG74" s="44"/>
-      <c r="AH74" s="44"/>
-      <c r="AI74" s="49"/>
+      <c r="X74" s="30"/>
+      <c r="Y74" s="34"/>
+      <c r="Z74" s="46"/>
+      <c r="AA74" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB74" s="30"/>
+      <c r="AC74" s="41"/>
+      <c r="AD74" s="42"/>
+      <c r="AE74" s="47"/>
+      <c r="AF74" s="47"/>
+      <c r="AG74" s="47"/>
+      <c r="AH74" s="47"/>
+      <c r="AI74" s="52"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A75" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>406</v>
+        <v>426</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>427</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="D75" s="21"/>
       <c r="E75" s="20">
@@ -10495,8 +10633,8 @@
       <c r="M75" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N75" s="19" t="s">
-        <v>336</v>
+      <c r="N75" s="24" t="s">
+        <v>429</v>
       </c>
       <c r="O75" s="19" t="s">
         <v>45</v>
@@ -10513,28 +10651,30 @@
       <c r="U75" s="19"/>
       <c r="V75" s="19"/>
       <c r="W75" s="19"/>
-      <c r="X75" s="26"/>
-      <c r="Y75" s="29"/>
-      <c r="Z75" s="41"/>
-      <c r="AA75" s="15"/>
-      <c r="AB75" s="26"/>
-      <c r="AC75" s="70"/>
-      <c r="AD75" s="71"/>
-      <c r="AE75" s="71"/>
-      <c r="AF75" s="71"/>
-      <c r="AG75" s="42"/>
-      <c r="AH75" s="42"/>
-      <c r="AI75" s="48"/>
+      <c r="X75" s="30"/>
+      <c r="Y75" s="33"/>
+      <c r="Z75" s="45"/>
+      <c r="AA75" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB75" s="30"/>
+      <c r="AC75" s="73"/>
+      <c r="AD75" s="74"/>
+      <c r="AE75" s="74"/>
+      <c r="AF75" s="74"/>
+      <c r="AG75" s="23"/>
+      <c r="AH75" s="23"/>
+      <c r="AI75" s="51"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A76" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>409</v>
+        <v>431</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>432</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="20">
@@ -10564,8 +10704,8 @@
       <c r="M76" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N76" s="19" t="s">
-        <v>336</v>
+      <c r="N76" s="24" t="s">
+        <v>429</v>
       </c>
       <c r="O76" s="19" t="s">
         <v>45</v>
@@ -10582,28 +10722,30 @@
       <c r="U76" s="19"/>
       <c r="V76" s="19"/>
       <c r="W76" s="19"/>
-      <c r="X76" s="26"/>
-      <c r="Y76" s="30"/>
-      <c r="Z76" s="43"/>
-      <c r="AA76" s="15"/>
-      <c r="AB76" s="26"/>
-      <c r="AC76" s="37"/>
-      <c r="AD76" s="38"/>
-      <c r="AE76" s="38"/>
-      <c r="AF76" s="38"/>
-      <c r="AG76" s="44"/>
-      <c r="AH76" s="44"/>
-      <c r="AI76" s="49"/>
+      <c r="X76" s="30"/>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="46"/>
+      <c r="AA76" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB76" s="30"/>
+      <c r="AC76" s="41"/>
+      <c r="AD76" s="42"/>
+      <c r="AE76" s="42"/>
+      <c r="AF76" s="42"/>
+      <c r="AG76" s="47"/>
+      <c r="AH76" s="47"/>
+      <c r="AI76" s="52"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A77" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>412</v>
+        <v>434</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>435</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="D77" s="21"/>
       <c r="E77" s="20">
@@ -10633,8 +10775,8 @@
       <c r="M77" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N77" s="19" t="s">
-        <v>336</v>
+      <c r="N77" s="24" t="s">
+        <v>437</v>
       </c>
       <c r="O77" s="19" t="s">
         <v>45</v>
@@ -10651,28 +10793,30 @@
       <c r="U77" s="19"/>
       <c r="V77" s="19"/>
       <c r="W77" s="19"/>
-      <c r="X77" s="26"/>
-      <c r="Y77" s="29"/>
-      <c r="Z77" s="41"/>
-      <c r="AA77" s="15"/>
-      <c r="AB77" s="26"/>
-      <c r="AC77" s="34"/>
-      <c r="AD77" s="35"/>
-      <c r="AE77" s="35"/>
-      <c r="AF77" s="35"/>
-      <c r="AG77" s="42"/>
-      <c r="AH77" s="42"/>
-      <c r="AI77" s="48"/>
+      <c r="X77" s="30"/>
+      <c r="Y77" s="33"/>
+      <c r="Z77" s="45"/>
+      <c r="AA77" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB77" s="30"/>
+      <c r="AC77" s="38"/>
+      <c r="AD77" s="39"/>
+      <c r="AE77" s="39"/>
+      <c r="AF77" s="39"/>
+      <c r="AG77" s="23"/>
+      <c r="AH77" s="23"/>
+      <c r="AI77" s="51"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A78" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>415</v>
+        <v>438</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>439</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="20">
@@ -10702,8 +10846,8 @@
       <c r="M78" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N78" s="19" t="s">
-        <v>336</v>
+      <c r="N78" s="25" t="s">
+        <v>441</v>
       </c>
       <c r="O78" s="19" t="s">
         <v>45</v>
@@ -10720,28 +10864,30 @@
       <c r="U78" s="19"/>
       <c r="V78" s="19"/>
       <c r="W78" s="19"/>
-      <c r="X78" s="26"/>
-      <c r="Y78" s="30"/>
-      <c r="Z78" s="43"/>
-      <c r="AA78" s="15"/>
-      <c r="AB78" s="26"/>
-      <c r="AC78" s="37"/>
-      <c r="AD78" s="38"/>
-      <c r="AE78" s="38"/>
-      <c r="AF78" s="38"/>
-      <c r="AG78" s="44"/>
-      <c r="AH78" s="44"/>
-      <c r="AI78" s="49"/>
+      <c r="X78" s="30"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="46"/>
+      <c r="AA78" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="AB78" s="30"/>
+      <c r="AC78" s="41"/>
+      <c r="AD78" s="42"/>
+      <c r="AE78" s="42"/>
+      <c r="AF78" s="42"/>
+      <c r="AG78" s="47"/>
+      <c r="AH78" s="47"/>
+      <c r="AI78" s="52"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A79" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>418</v>
+        <v>443</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>444</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="D79" s="21"/>
       <c r="E79" s="20">
@@ -10771,8 +10917,8 @@
       <c r="M79" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N79" s="19" t="s">
-        <v>336</v>
+      <c r="N79" s="25" t="s">
+        <v>446</v>
       </c>
       <c r="O79" s="19" t="s">
         <v>45</v>
@@ -10789,28 +10935,30 @@
       <c r="U79" s="19"/>
       <c r="V79" s="19"/>
       <c r="W79" s="19"/>
-      <c r="X79" s="26"/>
-      <c r="Y79" s="29"/>
-      <c r="Z79" s="41"/>
-      <c r="AA79" s="15"/>
-      <c r="AB79" s="26"/>
-      <c r="AC79" s="34"/>
-      <c r="AD79" s="35"/>
-      <c r="AE79" s="35"/>
-      <c r="AF79" s="35"/>
-      <c r="AG79" s="42"/>
-      <c r="AH79" s="42"/>
-      <c r="AI79" s="48"/>
+      <c r="X79" s="30"/>
+      <c r="Y79" s="33"/>
+      <c r="Z79" s="45"/>
+      <c r="AA79" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB79" s="30"/>
+      <c r="AC79" s="38"/>
+      <c r="AD79" s="39"/>
+      <c r="AE79" s="39"/>
+      <c r="AF79" s="39"/>
+      <c r="AG79" s="23"/>
+      <c r="AH79" s="23"/>
+      <c r="AI79" s="51"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A80" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>421</v>
+        <v>447</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>448</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="20">
@@ -10840,8 +10988,8 @@
       <c r="M80" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N80" s="19" t="s">
-        <v>336</v>
+      <c r="N80" s="25" t="s">
+        <v>446</v>
       </c>
       <c r="O80" s="19" t="s">
         <v>45</v>
@@ -10858,28 +11006,30 @@
       <c r="U80" s="19"/>
       <c r="V80" s="19"/>
       <c r="W80" s="19"/>
-      <c r="X80" s="26"/>
-      <c r="Y80" s="30"/>
-      <c r="Z80" s="43"/>
-      <c r="AA80" s="15"/>
-      <c r="AB80" s="26"/>
-      <c r="AC80" s="37"/>
-      <c r="AD80" s="38"/>
-      <c r="AE80" s="38"/>
-      <c r="AF80" s="38"/>
-      <c r="AG80" s="44"/>
-      <c r="AH80" s="44"/>
-      <c r="AI80" s="49"/>
+      <c r="X80" s="30"/>
+      <c r="Y80" s="34"/>
+      <c r="Z80" s="46"/>
+      <c r="AA80" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB80" s="30"/>
+      <c r="AC80" s="41"/>
+      <c r="AD80" s="42"/>
+      <c r="AE80" s="42"/>
+      <c r="AF80" s="42"/>
+      <c r="AG80" s="47"/>
+      <c r="AH80" s="47"/>
+      <c r="AI80" s="52"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A81" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>424</v>
+        <v>450</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>451</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="20">
@@ -10909,8 +11059,8 @@
       <c r="M81" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N81" s="19" t="s">
-        <v>336</v>
+      <c r="N81" s="25" t="s">
+        <v>453</v>
       </c>
       <c r="O81" s="19" t="s">
         <v>45</v>
@@ -10927,28 +11077,30 @@
       <c r="U81" s="19"/>
       <c r="V81" s="19"/>
       <c r="W81" s="19"/>
-      <c r="X81" s="26"/>
-      <c r="Y81" s="29"/>
-      <c r="Z81" s="41"/>
-      <c r="AA81" s="15"/>
-      <c r="AB81" s="26"/>
-      <c r="AC81" s="34"/>
-      <c r="AD81" s="35"/>
-      <c r="AE81" s="35"/>
-      <c r="AF81" s="35"/>
-      <c r="AG81" s="42"/>
-      <c r="AH81" s="42"/>
-      <c r="AI81" s="48"/>
+      <c r="X81" s="30"/>
+      <c r="Y81" s="33"/>
+      <c r="Z81" s="45"/>
+      <c r="AA81" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB81" s="30"/>
+      <c r="AC81" s="38"/>
+      <c r="AD81" s="39"/>
+      <c r="AE81" s="39"/>
+      <c r="AF81" s="39"/>
+      <c r="AG81" s="23"/>
+      <c r="AH81" s="23"/>
+      <c r="AI81" s="51"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A82" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>427</v>
+        <v>454</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>455</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="20">
@@ -10978,8 +11130,8 @@
       <c r="M82" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N82" s="19" t="s">
-        <v>336</v>
+      <c r="N82" s="25" t="s">
+        <v>457</v>
       </c>
       <c r="O82" s="19" t="s">
         <v>45</v>
@@ -10996,28 +11148,30 @@
       <c r="U82" s="19"/>
       <c r="V82" s="19"/>
       <c r="W82" s="19"/>
-      <c r="X82" s="26"/>
-      <c r="Y82" s="30"/>
-      <c r="Z82" s="43"/>
-      <c r="AA82" s="15"/>
-      <c r="AB82" s="26"/>
-      <c r="AC82" s="37"/>
-      <c r="AD82" s="38"/>
-      <c r="AE82" s="38"/>
-      <c r="AF82" s="38"/>
-      <c r="AG82" s="44"/>
-      <c r="AH82" s="44"/>
-      <c r="AI82" s="49"/>
+      <c r="X82" s="30"/>
+      <c r="Y82" s="34"/>
+      <c r="Z82" s="46"/>
+      <c r="AA82" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="AB82" s="30"/>
+      <c r="AC82" s="41"/>
+      <c r="AD82" s="42"/>
+      <c r="AE82" s="42"/>
+      <c r="AF82" s="42"/>
+      <c r="AG82" s="47"/>
+      <c r="AH82" s="47"/>
+      <c r="AI82" s="52"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A83" s="15" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="20">
@@ -11048,7 +11202,7 @@
         <v>204</v>
       </c>
       <c r="N83" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O83" s="19" t="s">
         <v>45</v>
@@ -11065,28 +11219,28 @@
       <c r="U83" s="19"/>
       <c r="V83" s="19"/>
       <c r="W83" s="19"/>
-      <c r="X83" s="26"/>
-      <c r="Y83" s="29"/>
-      <c r="Z83" s="41"/>
+      <c r="X83" s="30"/>
+      <c r="Y83" s="33"/>
+      <c r="Z83" s="45"/>
       <c r="AA83" s="15"/>
-      <c r="AB83" s="26"/>
-      <c r="AC83" s="34"/>
-      <c r="AD83" s="35"/>
-      <c r="AE83" s="35"/>
-      <c r="AF83" s="35"/>
-      <c r="AG83" s="42"/>
-      <c r="AH83" s="42"/>
-      <c r="AI83" s="48"/>
+      <c r="AB83" s="30"/>
+      <c r="AC83" s="38"/>
+      <c r="AD83" s="39"/>
+      <c r="AE83" s="39"/>
+      <c r="AF83" s="39"/>
+      <c r="AG83" s="23"/>
+      <c r="AH83" s="23"/>
+      <c r="AI83" s="51"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A84" s="15" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="20">
@@ -11117,7 +11271,7 @@
         <v>204</v>
       </c>
       <c r="N84" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O84" s="19" t="s">
         <v>45</v>
@@ -11134,28 +11288,28 @@
       <c r="U84" s="19"/>
       <c r="V84" s="19"/>
       <c r="W84" s="19"/>
-      <c r="X84" s="26"/>
-      <c r="Y84" s="30"/>
-      <c r="Z84" s="43"/>
+      <c r="X84" s="30"/>
+      <c r="Y84" s="34"/>
+      <c r="Z84" s="46"/>
       <c r="AA84" s="15"/>
-      <c r="AB84" s="26"/>
-      <c r="AC84" s="37"/>
-      <c r="AD84" s="38"/>
-      <c r="AE84" s="38"/>
-      <c r="AF84" s="38"/>
-      <c r="AG84" s="44"/>
-      <c r="AH84" s="44"/>
-      <c r="AI84" s="49"/>
+      <c r="AB84" s="30"/>
+      <c r="AC84" s="41"/>
+      <c r="AD84" s="42"/>
+      <c r="AE84" s="42"/>
+      <c r="AF84" s="42"/>
+      <c r="AG84" s="47"/>
+      <c r="AH84" s="47"/>
+      <c r="AI84" s="52"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A85" s="15" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="20">
@@ -11186,7 +11340,7 @@
         <v>204</v>
       </c>
       <c r="N85" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O85" s="19" t="s">
         <v>45</v>
@@ -11203,28 +11357,28 @@
       <c r="U85" s="19"/>
       <c r="V85" s="19"/>
       <c r="W85" s="19"/>
-      <c r="X85" s="26"/>
-      <c r="Y85" s="29"/>
-      <c r="Z85" s="41"/>
+      <c r="X85" s="30"/>
+      <c r="Y85" s="33"/>
+      <c r="Z85" s="45"/>
       <c r="AA85" s="15"/>
-      <c r="AB85" s="26"/>
-      <c r="AC85" s="34"/>
-      <c r="AD85" s="35"/>
-      <c r="AE85" s="35"/>
-      <c r="AF85" s="35"/>
-      <c r="AG85" s="42"/>
-      <c r="AH85" s="42"/>
-      <c r="AI85" s="48"/>
+      <c r="AB85" s="30"/>
+      <c r="AC85" s="38"/>
+      <c r="AD85" s="39"/>
+      <c r="AE85" s="39"/>
+      <c r="AF85" s="39"/>
+      <c r="AG85" s="23"/>
+      <c r="AH85" s="23"/>
+      <c r="AI85" s="51"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A86" s="15" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="20">
@@ -11255,7 +11409,7 @@
         <v>204</v>
       </c>
       <c r="N86" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O86" s="19" t="s">
         <v>45</v>
@@ -11272,28 +11426,28 @@
       <c r="U86" s="19"/>
       <c r="V86" s="19"/>
       <c r="W86" s="19"/>
-      <c r="X86" s="26"/>
-      <c r="Y86" s="30"/>
-      <c r="Z86" s="43"/>
+      <c r="X86" s="30"/>
+      <c r="Y86" s="34"/>
+      <c r="Z86" s="46"/>
       <c r="AA86" s="15"/>
-      <c r="AB86" s="26"/>
-      <c r="AC86" s="37"/>
-      <c r="AD86" s="38"/>
-      <c r="AE86" s="38"/>
-      <c r="AF86" s="38"/>
-      <c r="AG86" s="44"/>
-      <c r="AH86" s="44"/>
-      <c r="AI86" s="49"/>
+      <c r="AB86" s="30"/>
+      <c r="AC86" s="41"/>
+      <c r="AD86" s="42"/>
+      <c r="AE86" s="42"/>
+      <c r="AF86" s="42"/>
+      <c r="AG86" s="47"/>
+      <c r="AH86" s="47"/>
+      <c r="AI86" s="52"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A87" s="15" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="D87" s="21"/>
       <c r="E87" s="20">
@@ -11324,7 +11478,7 @@
         <v>204</v>
       </c>
       <c r="N87" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O87" s="19" t="s">
         <v>45</v>
@@ -11341,28 +11495,28 @@
       <c r="U87" s="19"/>
       <c r="V87" s="19"/>
       <c r="W87" s="19"/>
-      <c r="X87" s="26"/>
-      <c r="Y87" s="29"/>
-      <c r="Z87" s="41"/>
+      <c r="X87" s="30"/>
+      <c r="Y87" s="33"/>
+      <c r="Z87" s="45"/>
       <c r="AA87" s="15"/>
-      <c r="AB87" s="26"/>
-      <c r="AC87" s="34"/>
-      <c r="AD87" s="35"/>
-      <c r="AE87" s="35"/>
-      <c r="AF87" s="35"/>
-      <c r="AG87" s="42"/>
-      <c r="AH87" s="42"/>
-      <c r="AI87" s="48"/>
+      <c r="AB87" s="30"/>
+      <c r="AC87" s="38"/>
+      <c r="AD87" s="39"/>
+      <c r="AE87" s="39"/>
+      <c r="AF87" s="39"/>
+      <c r="AG87" s="23"/>
+      <c r="AH87" s="23"/>
+      <c r="AI87" s="51"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A88" s="15" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="20">
@@ -11393,7 +11547,7 @@
         <v>204</v>
       </c>
       <c r="N88" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O88" s="19" t="s">
         <v>45</v>
@@ -11410,28 +11564,28 @@
       <c r="U88" s="19"/>
       <c r="V88" s="19"/>
       <c r="W88" s="19"/>
-      <c r="X88" s="26"/>
-      <c r="Y88" s="30"/>
-      <c r="Z88" s="43"/>
+      <c r="X88" s="30"/>
+      <c r="Y88" s="34"/>
+      <c r="Z88" s="46"/>
       <c r="AA88" s="15"/>
-      <c r="AB88" s="26"/>
-      <c r="AC88" s="37"/>
-      <c r="AD88" s="38"/>
-      <c r="AE88" s="38"/>
-      <c r="AF88" s="38"/>
-      <c r="AG88" s="44"/>
-      <c r="AH88" s="44"/>
-      <c r="AI88" s="49"/>
+      <c r="AB88" s="30"/>
+      <c r="AC88" s="41"/>
+      <c r="AD88" s="42"/>
+      <c r="AE88" s="42"/>
+      <c r="AF88" s="42"/>
+      <c r="AG88" s="47"/>
+      <c r="AH88" s="47"/>
+      <c r="AI88" s="52"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A89" s="15" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="D89" s="21"/>
       <c r="E89" s="20">
@@ -11462,7 +11616,7 @@
         <v>204</v>
       </c>
       <c r="N89" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O89" s="19" t="s">
         <v>45</v>
@@ -11479,28 +11633,28 @@
       <c r="U89" s="19"/>
       <c r="V89" s="19"/>
       <c r="W89" s="19"/>
-      <c r="X89" s="26"/>
-      <c r="Y89" s="29"/>
-      <c r="Z89" s="41"/>
+      <c r="X89" s="30"/>
+      <c r="Y89" s="33"/>
+      <c r="Z89" s="45"/>
       <c r="AA89" s="15"/>
-      <c r="AB89" s="26"/>
-      <c r="AC89" s="34"/>
-      <c r="AD89" s="35"/>
-      <c r="AE89" s="35"/>
-      <c r="AF89" s="35"/>
-      <c r="AG89" s="42"/>
-      <c r="AH89" s="42"/>
-      <c r="AI89" s="48"/>
+      <c r="AB89" s="30"/>
+      <c r="AC89" s="38"/>
+      <c r="AD89" s="39"/>
+      <c r="AE89" s="39"/>
+      <c r="AF89" s="39"/>
+      <c r="AG89" s="23"/>
+      <c r="AH89" s="23"/>
+      <c r="AI89" s="51"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A90" s="15" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="20">
@@ -11531,7 +11685,7 @@
         <v>204</v>
       </c>
       <c r="N90" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O90" s="19" t="s">
         <v>45</v>
@@ -11548,28 +11702,28 @@
       <c r="U90" s="19"/>
       <c r="V90" s="19"/>
       <c r="W90" s="19"/>
-      <c r="X90" s="26"/>
-      <c r="Y90" s="30"/>
-      <c r="Z90" s="43"/>
+      <c r="X90" s="30"/>
+      <c r="Y90" s="34"/>
+      <c r="Z90" s="46"/>
       <c r="AA90" s="15"/>
-      <c r="AB90" s="26"/>
-      <c r="AC90" s="37"/>
-      <c r="AD90" s="38"/>
-      <c r="AE90" s="38"/>
-      <c r="AF90" s="38"/>
-      <c r="AG90" s="44"/>
-      <c r="AH90" s="44"/>
-      <c r="AI90" s="49"/>
+      <c r="AB90" s="30"/>
+      <c r="AC90" s="41"/>
+      <c r="AD90" s="42"/>
+      <c r="AE90" s="42"/>
+      <c r="AF90" s="42"/>
+      <c r="AG90" s="47"/>
+      <c r="AH90" s="47"/>
+      <c r="AI90" s="52"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A91" s="15" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="D91" s="21"/>
       <c r="E91" s="20">
@@ -11600,7 +11754,7 @@
         <v>204</v>
       </c>
       <c r="N91" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O91" s="19" t="s">
         <v>45</v>
@@ -11617,28 +11771,28 @@
       <c r="U91" s="19"/>
       <c r="V91" s="19"/>
       <c r="W91" s="19"/>
-      <c r="X91" s="26"/>
-      <c r="Y91" s="29"/>
-      <c r="Z91" s="41"/>
+      <c r="X91" s="30"/>
+      <c r="Y91" s="33"/>
+      <c r="Z91" s="45"/>
       <c r="AA91" s="15"/>
-      <c r="AB91" s="26"/>
-      <c r="AC91" s="34"/>
-      <c r="AD91" s="35"/>
-      <c r="AE91" s="35"/>
-      <c r="AF91" s="35"/>
-      <c r="AG91" s="42"/>
-      <c r="AH91" s="42"/>
-      <c r="AI91" s="48"/>
+      <c r="AB91" s="30"/>
+      <c r="AC91" s="38"/>
+      <c r="AD91" s="39"/>
+      <c r="AE91" s="39"/>
+      <c r="AF91" s="39"/>
+      <c r="AG91" s="23"/>
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="51"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A92" s="15" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="20">
@@ -11669,7 +11823,7 @@
         <v>204</v>
       </c>
       <c r="N92" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O92" s="19" t="s">
         <v>45</v>
@@ -11686,28 +11840,28 @@
       <c r="U92" s="19"/>
       <c r="V92" s="19"/>
       <c r="W92" s="19"/>
-      <c r="X92" s="26"/>
-      <c r="Y92" s="30"/>
-      <c r="Z92" s="43"/>
+      <c r="X92" s="30"/>
+      <c r="Y92" s="34"/>
+      <c r="Z92" s="46"/>
       <c r="AA92" s="15"/>
-      <c r="AB92" s="26"/>
-      <c r="AC92" s="37"/>
-      <c r="AD92" s="38"/>
-      <c r="AE92" s="38"/>
-      <c r="AF92" s="38"/>
-      <c r="AG92" s="44"/>
-      <c r="AH92" s="44"/>
-      <c r="AI92" s="49"/>
+      <c r="AB92" s="30"/>
+      <c r="AC92" s="41"/>
+      <c r="AD92" s="42"/>
+      <c r="AE92" s="42"/>
+      <c r="AF92" s="42"/>
+      <c r="AG92" s="47"/>
+      <c r="AH92" s="47"/>
+      <c r="AI92" s="52"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A93" s="15" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="D93" s="21"/>
       <c r="E93" s="20">
@@ -11738,7 +11892,7 @@
         <v>204</v>
       </c>
       <c r="N93" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O93" s="19" t="s">
         <v>45</v>
@@ -11755,28 +11909,28 @@
       <c r="U93" s="19"/>
       <c r="V93" s="19"/>
       <c r="W93" s="19"/>
-      <c r="X93" s="26"/>
-      <c r="Y93" s="29"/>
-      <c r="Z93" s="41"/>
+      <c r="X93" s="30"/>
+      <c r="Y93" s="33"/>
+      <c r="Z93" s="45"/>
       <c r="AA93" s="15"/>
-      <c r="AB93" s="26"/>
-      <c r="AC93" s="34"/>
-      <c r="AD93" s="35"/>
-      <c r="AE93" s="35"/>
-      <c r="AF93" s="35"/>
-      <c r="AG93" s="42"/>
-      <c r="AH93" s="42"/>
-      <c r="AI93" s="48"/>
+      <c r="AB93" s="30"/>
+      <c r="AC93" s="38"/>
+      <c r="AD93" s="39"/>
+      <c r="AE93" s="39"/>
+      <c r="AF93" s="39"/>
+      <c r="AG93" s="23"/>
+      <c r="AH93" s="23"/>
+      <c r="AI93" s="51"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A94" s="15" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="D94" s="21"/>
       <c r="E94" s="20">
@@ -11807,7 +11961,7 @@
         <v>204</v>
       </c>
       <c r="N94" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O94" s="19" t="s">
         <v>45</v>
@@ -11824,28 +11978,28 @@
       <c r="U94" s="19"/>
       <c r="V94" s="19"/>
       <c r="W94" s="19"/>
-      <c r="X94" s="26"/>
-      <c r="Y94" s="30"/>
-      <c r="Z94" s="43"/>
+      <c r="X94" s="30"/>
+      <c r="Y94" s="34"/>
+      <c r="Z94" s="46"/>
       <c r="AA94" s="15"/>
-      <c r="AB94" s="26"/>
-      <c r="AC94" s="37"/>
-      <c r="AD94" s="38"/>
-      <c r="AE94" s="38"/>
-      <c r="AF94" s="38"/>
-      <c r="AG94" s="44"/>
-      <c r="AH94" s="44"/>
-      <c r="AI94" s="49"/>
+      <c r="AB94" s="30"/>
+      <c r="AC94" s="41"/>
+      <c r="AD94" s="42"/>
+      <c r="AE94" s="42"/>
+      <c r="AF94" s="42"/>
+      <c r="AG94" s="47"/>
+      <c r="AH94" s="47"/>
+      <c r="AI94" s="52"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A95" s="15" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="D95" s="21"/>
       <c r="E95" s="20">
@@ -11876,7 +12030,7 @@
         <v>204</v>
       </c>
       <c r="N95" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O95" s="19" t="s">
         <v>45</v>
@@ -11893,28 +12047,28 @@
       <c r="U95" s="19"/>
       <c r="V95" s="19"/>
       <c r="W95" s="19"/>
-      <c r="X95" s="26"/>
-      <c r="Y95" s="29"/>
-      <c r="Z95" s="33"/>
+      <c r="X95" s="30"/>
+      <c r="Y95" s="33"/>
+      <c r="Z95" s="37"/>
       <c r="AA95" s="15"/>
-      <c r="AB95" s="26"/>
-      <c r="AC95" s="34"/>
-      <c r="AD95" s="35"/>
-      <c r="AE95" s="35"/>
-      <c r="AF95" s="35"/>
-      <c r="AG95" s="35"/>
-      <c r="AH95" s="35"/>
-      <c r="AI95" s="46"/>
+      <c r="AB95" s="30"/>
+      <c r="AC95" s="38"/>
+      <c r="AD95" s="39"/>
+      <c r="AE95" s="39"/>
+      <c r="AF95" s="39"/>
+      <c r="AG95" s="39"/>
+      <c r="AH95" s="39"/>
+      <c r="AI95" s="49"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A96" s="15" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="D96" s="21"/>
       <c r="E96" s="20">
@@ -11945,7 +12099,7 @@
         <v>204</v>
       </c>
       <c r="N96" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O96" s="19" t="s">
         <v>45</v>
@@ -11962,28 +12116,28 @@
       <c r="U96" s="19"/>
       <c r="V96" s="19"/>
       <c r="W96" s="19"/>
-      <c r="X96" s="26"/>
-      <c r="Y96" s="30"/>
-      <c r="Z96" s="43"/>
+      <c r="X96" s="30"/>
+      <c r="Y96" s="34"/>
+      <c r="Z96" s="46"/>
       <c r="AA96" s="15"/>
-      <c r="AB96" s="26"/>
-      <c r="AC96" s="37"/>
-      <c r="AD96" s="38"/>
-      <c r="AE96" s="38"/>
-      <c r="AF96" s="38"/>
-      <c r="AG96" s="44"/>
-      <c r="AH96" s="44"/>
-      <c r="AI96" s="49"/>
+      <c r="AB96" s="30"/>
+      <c r="AC96" s="41"/>
+      <c r="AD96" s="42"/>
+      <c r="AE96" s="42"/>
+      <c r="AF96" s="42"/>
+      <c r="AG96" s="47"/>
+      <c r="AH96" s="47"/>
+      <c r="AI96" s="52"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A97" s="15" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="D97" s="21"/>
       <c r="E97" s="20">
@@ -12014,7 +12168,7 @@
         <v>204</v>
       </c>
       <c r="N97" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O97" s="19" t="s">
         <v>45</v>
@@ -12031,28 +12185,28 @@
       <c r="U97" s="19"/>
       <c r="V97" s="19"/>
       <c r="W97" s="19"/>
-      <c r="X97" s="26"/>
-      <c r="Y97" s="29"/>
-      <c r="Z97" s="41"/>
+      <c r="X97" s="30"/>
+      <c r="Y97" s="33"/>
+      <c r="Z97" s="45"/>
       <c r="AA97" s="15"/>
-      <c r="AB97" s="26"/>
-      <c r="AC97" s="34"/>
-      <c r="AD97" s="35"/>
-      <c r="AE97" s="35"/>
-      <c r="AF97" s="35"/>
-      <c r="AG97" s="42"/>
-      <c r="AH97" s="42"/>
-      <c r="AI97" s="48"/>
+      <c r="AB97" s="30"/>
+      <c r="AC97" s="38"/>
+      <c r="AD97" s="39"/>
+      <c r="AE97" s="39"/>
+      <c r="AF97" s="39"/>
+      <c r="AG97" s="23"/>
+      <c r="AH97" s="23"/>
+      <c r="AI97" s="51"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A98" s="15" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="20">
@@ -12083,7 +12237,7 @@
         <v>204</v>
       </c>
       <c r="N98" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O98" s="19" t="s">
         <v>45</v>
@@ -12100,28 +12254,28 @@
       <c r="U98" s="19"/>
       <c r="V98" s="19"/>
       <c r="W98" s="19"/>
-      <c r="X98" s="26"/>
-      <c r="Y98" s="30"/>
-      <c r="Z98" s="43"/>
+      <c r="X98" s="30"/>
+      <c r="Y98" s="34"/>
+      <c r="Z98" s="46"/>
       <c r="AA98" s="15"/>
-      <c r="AB98" s="26"/>
-      <c r="AC98" s="37"/>
-      <c r="AD98" s="38"/>
-      <c r="AE98" s="38"/>
-      <c r="AF98" s="38"/>
-      <c r="AG98" s="44"/>
-      <c r="AH98" s="44"/>
-      <c r="AI98" s="49"/>
+      <c r="AB98" s="30"/>
+      <c r="AC98" s="41"/>
+      <c r="AD98" s="42"/>
+      <c r="AE98" s="42"/>
+      <c r="AF98" s="42"/>
+      <c r="AG98" s="47"/>
+      <c r="AH98" s="47"/>
+      <c r="AI98" s="52"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A99" s="15" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="D99" s="21"/>
       <c r="E99" s="20">
@@ -12152,7 +12306,7 @@
         <v>204</v>
       </c>
       <c r="N99" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O99" s="19" t="s">
         <v>45</v>
@@ -12169,28 +12323,28 @@
       <c r="U99" s="19"/>
       <c r="V99" s="19"/>
       <c r="W99" s="19"/>
-      <c r="X99" s="26"/>
-      <c r="Y99" s="29"/>
-      <c r="Z99" s="41"/>
+      <c r="X99" s="30"/>
+      <c r="Y99" s="33"/>
+      <c r="Z99" s="45"/>
       <c r="AA99" s="15"/>
-      <c r="AB99" s="26"/>
-      <c r="AC99" s="34"/>
-      <c r="AD99" s="35"/>
-      <c r="AE99" s="35"/>
-      <c r="AF99" s="35"/>
-      <c r="AG99" s="42"/>
-      <c r="AH99" s="42"/>
-      <c r="AI99" s="48"/>
+      <c r="AB99" s="30"/>
+      <c r="AC99" s="38"/>
+      <c r="AD99" s="39"/>
+      <c r="AE99" s="39"/>
+      <c r="AF99" s="39"/>
+      <c r="AG99" s="23"/>
+      <c r="AH99" s="23"/>
+      <c r="AI99" s="51"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A100" s="15" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="20">
@@ -12221,7 +12375,7 @@
         <v>204</v>
       </c>
       <c r="N100" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O100" s="19" t="s">
         <v>45</v>
@@ -12238,31 +12392,31 @@
       <c r="U100" s="19"/>
       <c r="V100" s="19"/>
       <c r="W100" s="19"/>
-      <c r="X100" s="26"/>
-      <c r="Y100" s="29"/>
-      <c r="Z100" s="41"/>
+      <c r="X100" s="30"/>
+      <c r="Y100" s="33"/>
+      <c r="Z100" s="45"/>
       <c r="AA100" s="15"/>
-      <c r="AB100" s="26"/>
-      <c r="AC100" s="34"/>
-      <c r="AD100" s="35"/>
-      <c r="AE100" s="35"/>
-      <c r="AF100" s="35"/>
-      <c r="AG100" s="42"/>
-      <c r="AH100" s="42"/>
-      <c r="AI100" s="48"/>
+      <c r="AB100" s="30"/>
+      <c r="AC100" s="38"/>
+      <c r="AD100" s="39"/>
+      <c r="AE100" s="39"/>
+      <c r="AF100" s="39"/>
+      <c r="AG100" s="23"/>
+      <c r="AH100" s="23"/>
+      <c r="AI100" s="51"/>
     </row>
     <row r="101" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A101" s="50" t="s">
-        <v>483</v>
-      </c>
-      <c r="B101" s="51" t="s">
-        <v>484</v>
-      </c>
-      <c r="C101" s="52" t="s">
-        <v>485</v>
+      <c r="A101" s="53" t="s">
+        <v>514</v>
+      </c>
+      <c r="B101" s="54" t="s">
+        <v>515</v>
+      </c>
+      <c r="C101" s="55" t="s">
+        <v>516</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="E101" s="20">
         <v>1</v>
@@ -12292,10 +12446,10 @@
         <v>204</v>
       </c>
       <c r="N101" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O101" s="19" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="P101" s="19">
         <v>0</v>
@@ -12309,30 +12463,30 @@
       <c r="U101" s="19"/>
       <c r="V101" s="19"/>
       <c r="W101" s="19"/>
-      <c r="X101" s="26"/>
-      <c r="Y101" s="29"/>
-      <c r="Z101" s="41"/>
+      <c r="X101" s="30"/>
+      <c r="Y101" s="33"/>
+      <c r="Z101" s="45"/>
       <c r="AA101" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="AB101" s="26"/>
-      <c r="AC101" s="34"/>
-      <c r="AD101" s="35"/>
-      <c r="AE101" s="35"/>
-      <c r="AF101" s="35"/>
-      <c r="AG101" s="42"/>
-      <c r="AH101" s="42"/>
-      <c r="AI101" s="48"/>
+        <v>519</v>
+      </c>
+      <c r="AB101" s="30"/>
+      <c r="AC101" s="38"/>
+      <c r="AD101" s="39"/>
+      <c r="AE101" s="39"/>
+      <c r="AF101" s="39"/>
+      <c r="AG101" s="23"/>
+      <c r="AH101" s="23"/>
+      <c r="AI101" s="51"/>
     </row>
     <row r="102" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A102" s="50" t="s">
-        <v>489</v>
-      </c>
-      <c r="B102" s="51" t="s">
-        <v>490</v>
-      </c>
-      <c r="C102" s="52" t="s">
-        <v>491</v>
+      <c r="A102" s="53" t="s">
+        <v>520</v>
+      </c>
+      <c r="B102" s="54" t="s">
+        <v>521</v>
+      </c>
+      <c r="C102" s="55" t="s">
+        <v>522</v>
       </c>
       <c r="D102" s="18"/>
       <c r="E102" s="20">
@@ -12363,10 +12517,10 @@
         <v>204</v>
       </c>
       <c r="N102" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O102" s="19" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="P102" s="19">
         <v>0</v>
@@ -12380,33 +12534,33 @@
       <c r="U102" s="19"/>
       <c r="V102" s="19"/>
       <c r="W102" s="19"/>
-      <c r="X102" s="26"/>
-      <c r="Y102" s="29"/>
-      <c r="Z102" s="41"/>
+      <c r="X102" s="30"/>
+      <c r="Y102" s="33"/>
+      <c r="Z102" s="45"/>
       <c r="AA102" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="AB102" s="26"/>
-      <c r="AC102" s="34"/>
-      <c r="AD102" s="35"/>
-      <c r="AE102" s="35"/>
-      <c r="AF102" s="35"/>
-      <c r="AG102" s="42"/>
-      <c r="AH102" s="42"/>
-      <c r="AI102" s="48"/>
+        <v>524</v>
+      </c>
+      <c r="AB102" s="30"/>
+      <c r="AC102" s="38"/>
+      <c r="AD102" s="39"/>
+      <c r="AE102" s="39"/>
+      <c r="AF102" s="39"/>
+      <c r="AG102" s="23"/>
+      <c r="AH102" s="23"/>
+      <c r="AI102" s="51"/>
     </row>
     <row r="103" ht="33" spans="1:35">
-      <c r="A103" s="53" t="s">
-        <v>494</v>
-      </c>
-      <c r="B103" s="54" t="s">
-        <v>495</v>
-      </c>
-      <c r="C103" s="55" t="s">
-        <v>496</v>
+      <c r="A103" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="B103" s="57" t="s">
+        <v>526</v>
+      </c>
+      <c r="C103" s="58" t="s">
+        <v>527</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="E103" s="20">
         <v>1</v>
@@ -12436,7 +12590,7 @@
         <v>204</v>
       </c>
       <c r="N103" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O103" s="19" t="s">
         <v>45</v>
@@ -12453,33 +12607,33 @@
       <c r="U103" s="19"/>
       <c r="V103" s="19"/>
       <c r="W103" s="19"/>
-      <c r="X103" s="26"/>
-      <c r="Y103" s="29"/>
-      <c r="Z103" s="41"/>
+      <c r="X103" s="30"/>
+      <c r="Y103" s="33"/>
+      <c r="Z103" s="45"/>
       <c r="AA103" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="AB103" s="26"/>
-      <c r="AC103" s="34"/>
-      <c r="AD103" s="35"/>
-      <c r="AE103" s="35"/>
-      <c r="AF103" s="35"/>
-      <c r="AG103" s="42"/>
-      <c r="AH103" s="42"/>
-      <c r="AI103" s="48"/>
+        <v>406</v>
+      </c>
+      <c r="AB103" s="30"/>
+      <c r="AC103" s="38"/>
+      <c r="AD103" s="39"/>
+      <c r="AE103" s="39"/>
+      <c r="AF103" s="39"/>
+      <c r="AG103" s="23"/>
+      <c r="AH103" s="23"/>
+      <c r="AI103" s="51"/>
     </row>
     <row r="104" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A104" s="50" t="s">
-        <v>499</v>
-      </c>
-      <c r="B104" s="51" t="s">
-        <v>500</v>
-      </c>
-      <c r="C104" s="52" t="s">
-        <v>501</v>
+      <c r="A104" s="53" t="s">
+        <v>529</v>
+      </c>
+      <c r="B104" s="54" t="s">
+        <v>530</v>
+      </c>
+      <c r="C104" s="55" t="s">
+        <v>531</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="E104" s="20">
         <v>1</v>
@@ -12509,10 +12663,10 @@
         <v>204</v>
       </c>
       <c r="N104" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O104" s="19" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="P104" s="19">
         <v>0</v>
@@ -12526,33 +12680,33 @@
       <c r="U104" s="19"/>
       <c r="V104" s="19"/>
       <c r="W104" s="19"/>
-      <c r="X104" s="26"/>
-      <c r="Y104" s="29"/>
-      <c r="Z104" s="41"/>
+      <c r="X104" s="30"/>
+      <c r="Y104" s="33"/>
+      <c r="Z104" s="45"/>
       <c r="AA104" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="AB104" s="26"/>
-      <c r="AC104" s="34"/>
-      <c r="AD104" s="35"/>
-      <c r="AE104" s="35"/>
-      <c r="AF104" s="35"/>
-      <c r="AG104" s="42"/>
-      <c r="AH104" s="42"/>
-      <c r="AI104" s="48"/>
+        <v>534</v>
+      </c>
+      <c r="AB104" s="30"/>
+      <c r="AC104" s="38"/>
+      <c r="AD104" s="39"/>
+      <c r="AE104" s="39"/>
+      <c r="AF104" s="39"/>
+      <c r="AG104" s="23"/>
+      <c r="AH104" s="23"/>
+      <c r="AI104" s="51"/>
     </row>
     <row r="105" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A105" s="50" t="s">
-        <v>505</v>
-      </c>
-      <c r="B105" s="51" t="s">
-        <v>506</v>
-      </c>
-      <c r="C105" s="52" t="s">
-        <v>507</v>
+      <c r="A105" s="53" t="s">
+        <v>535</v>
+      </c>
+      <c r="B105" s="54" t="s">
+        <v>536</v>
+      </c>
+      <c r="C105" s="55" t="s">
+        <v>537</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="E105" s="20">
         <v>1</v>
@@ -12582,7 +12736,7 @@
         <v>204</v>
       </c>
       <c r="N105" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O105" s="19" t="s">
         <v>45</v>
@@ -12599,33 +12753,33 @@
       <c r="U105" s="19"/>
       <c r="V105" s="19"/>
       <c r="W105" s="19"/>
-      <c r="X105" s="26"/>
-      <c r="Y105" s="29"/>
-      <c r="Z105" s="41"/>
+      <c r="X105" s="30"/>
+      <c r="Y105" s="33"/>
+      <c r="Z105" s="45"/>
       <c r="AA105" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="AB105" s="26"/>
-      <c r="AC105" s="34"/>
-      <c r="AD105" s="35"/>
-      <c r="AE105" s="35"/>
-      <c r="AF105" s="35"/>
-      <c r="AG105" s="42"/>
-      <c r="AH105" s="42"/>
-      <c r="AI105" s="48"/>
+        <v>388</v>
+      </c>
+      <c r="AB105" s="30"/>
+      <c r="AC105" s="38"/>
+      <c r="AD105" s="39"/>
+      <c r="AE105" s="39"/>
+      <c r="AF105" s="39"/>
+      <c r="AG105" s="23"/>
+      <c r="AH105" s="23"/>
+      <c r="AI105" s="51"/>
     </row>
     <row r="106" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A106" s="53" t="s">
-        <v>510</v>
-      </c>
-      <c r="B106" s="54" t="s">
-        <v>511</v>
-      </c>
-      <c r="C106" s="55" t="s">
-        <v>512</v>
+      <c r="A106" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="B106" s="57" t="s">
+        <v>540</v>
+      </c>
+      <c r="C106" s="58" t="s">
+        <v>541</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="E106" s="20">
         <v>1</v>
@@ -12655,7 +12809,7 @@
         <v>204</v>
       </c>
       <c r="N106" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O106" s="19" t="s">
         <v>45</v>
@@ -12672,30 +12826,30 @@
       <c r="U106" s="19"/>
       <c r="V106" s="19"/>
       <c r="W106" s="19"/>
-      <c r="X106" s="26"/>
-      <c r="Y106" s="29"/>
-      <c r="Z106" s="41"/>
+      <c r="X106" s="30"/>
+      <c r="Y106" s="33"/>
+      <c r="Z106" s="45"/>
       <c r="AA106" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="AB106" s="26"/>
-      <c r="AC106" s="34"/>
-      <c r="AD106" s="35"/>
-      <c r="AE106" s="35"/>
-      <c r="AF106" s="35"/>
-      <c r="AG106" s="42"/>
-      <c r="AH106" s="42"/>
-      <c r="AI106" s="48"/>
+        <v>543</v>
+      </c>
+      <c r="AB106" s="30"/>
+      <c r="AC106" s="38"/>
+      <c r="AD106" s="39"/>
+      <c r="AE106" s="39"/>
+      <c r="AF106" s="39"/>
+      <c r="AG106" s="23"/>
+      <c r="AH106" s="23"/>
+      <c r="AI106" s="51"/>
     </row>
     <row r="107" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A107" s="53" t="s">
-        <v>515</v>
-      </c>
-      <c r="B107" s="54" t="s">
-        <v>516</v>
-      </c>
-      <c r="C107" s="55" t="s">
-        <v>517</v>
+      <c r="A107" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="B107" s="57" t="s">
+        <v>545</v>
+      </c>
+      <c r="C107" s="58" t="s">
+        <v>546</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="20">
@@ -12726,7 +12880,7 @@
         <v>204</v>
       </c>
       <c r="N107" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O107" s="19" t="s">
         <v>45</v>
@@ -12743,33 +12897,33 @@
       <c r="U107" s="19"/>
       <c r="V107" s="19"/>
       <c r="W107" s="19"/>
-      <c r="X107" s="26"/>
-      <c r="Y107" s="29"/>
-      <c r="Z107" s="41"/>
+      <c r="X107" s="30"/>
+      <c r="Y107" s="33"/>
+      <c r="Z107" s="45"/>
       <c r="AA107" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="AB107" s="26"/>
-      <c r="AC107" s="34"/>
-      <c r="AD107" s="35"/>
-      <c r="AE107" s="35"/>
-      <c r="AF107" s="35"/>
-      <c r="AG107" s="42"/>
-      <c r="AH107" s="42"/>
-      <c r="AI107" s="48"/>
+        <v>547</v>
+      </c>
+      <c r="AB107" s="30"/>
+      <c r="AC107" s="38"/>
+      <c r="AD107" s="39"/>
+      <c r="AE107" s="39"/>
+      <c r="AF107" s="39"/>
+      <c r="AG107" s="23"/>
+      <c r="AH107" s="23"/>
+      <c r="AI107" s="51"/>
     </row>
     <row r="108" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A108" s="50" t="s">
-        <v>519</v>
-      </c>
-      <c r="B108" s="51" t="s">
-        <v>520</v>
-      </c>
-      <c r="C108" s="52" t="s">
-        <v>521</v>
+      <c r="A108" s="53" t="s">
+        <v>548</v>
+      </c>
+      <c r="B108" s="54" t="s">
+        <v>549</v>
+      </c>
+      <c r="C108" s="55" t="s">
+        <v>550</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="E108" s="20">
         <v>1</v>
@@ -12799,10 +12953,10 @@
         <v>204</v>
       </c>
       <c r="N108" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O108" s="19" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="P108" s="19">
         <v>0</v>
@@ -12816,33 +12970,33 @@
       <c r="U108" s="19"/>
       <c r="V108" s="19"/>
       <c r="W108" s="19"/>
-      <c r="X108" s="26"/>
-      <c r="Y108" s="29"/>
-      <c r="Z108" s="41"/>
+      <c r="X108" s="30"/>
+      <c r="Y108" s="33"/>
+      <c r="Z108" s="45"/>
       <c r="AA108" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="AB108" s="26"/>
-      <c r="AC108" s="34"/>
-      <c r="AD108" s="35"/>
-      <c r="AE108" s="35"/>
-      <c r="AF108" s="35"/>
-      <c r="AG108" s="42"/>
-      <c r="AH108" s="42"/>
-      <c r="AI108" s="48"/>
+        <v>553</v>
+      </c>
+      <c r="AB108" s="30"/>
+      <c r="AC108" s="38"/>
+      <c r="AD108" s="39"/>
+      <c r="AE108" s="39"/>
+      <c r="AF108" s="39"/>
+      <c r="AG108" s="23"/>
+      <c r="AH108" s="23"/>
+      <c r="AI108" s="51"/>
     </row>
     <row r="109" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A109" s="50" t="s">
-        <v>525</v>
-      </c>
-      <c r="B109" s="51" t="s">
-        <v>526</v>
-      </c>
-      <c r="C109" s="52" t="s">
-        <v>527</v>
+      <c r="A109" s="53" t="s">
+        <v>554</v>
+      </c>
+      <c r="B109" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="C109" s="55" t="s">
+        <v>556</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>528</v>
+        <v>557</v>
       </c>
       <c r="E109" s="20">
         <v>1</v>
@@ -12872,7 +13026,7 @@
         <v>204</v>
       </c>
       <c r="N109" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O109" s="19" t="s">
         <v>45</v>
@@ -12889,35 +13043,35 @@
       <c r="U109" s="19"/>
       <c r="V109" s="19"/>
       <c r="W109" s="19"/>
-      <c r="X109" s="26"/>
-      <c r="Y109" s="29"/>
-      <c r="Z109" s="41"/>
+      <c r="X109" s="30"/>
+      <c r="Y109" s="33"/>
+      <c r="Z109" s="45"/>
       <c r="AA109" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="AB109" s="26" t="s">
-        <v>530</v>
-      </c>
-      <c r="AC109" s="34"/>
-      <c r="AD109" s="35"/>
-      <c r="AE109" s="35"/>
-      <c r="AF109" s="35"/>
-      <c r="AG109" s="42"/>
-      <c r="AH109" s="42"/>
-      <c r="AI109" s="48"/>
+        <v>558</v>
+      </c>
+      <c r="AB109" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="AC109" s="38"/>
+      <c r="AD109" s="39"/>
+      <c r="AE109" s="39"/>
+      <c r="AF109" s="39"/>
+      <c r="AG109" s="23"/>
+      <c r="AH109" s="23"/>
+      <c r="AI109" s="51"/>
     </row>
     <row r="110" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A110" s="53" t="s">
-        <v>531</v>
-      </c>
-      <c r="B110" s="54" t="s">
-        <v>532</v>
-      </c>
-      <c r="C110" s="55" t="s">
-        <v>533</v>
+      <c r="A110" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="B110" s="57" t="s">
+        <v>561</v>
+      </c>
+      <c r="C110" s="58" t="s">
+        <v>562</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>534</v>
+        <v>563</v>
       </c>
       <c r="E110" s="20">
         <v>1</v>
@@ -12947,7 +13101,7 @@
         <v>204</v>
       </c>
       <c r="N110" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O110" s="19" t="s">
         <v>45</v>
@@ -12964,35 +13118,35 @@
       <c r="U110" s="19"/>
       <c r="V110" s="19"/>
       <c r="W110" s="19"/>
-      <c r="X110" s="26"/>
-      <c r="Y110" s="29"/>
-      <c r="Z110" s="41"/>
+      <c r="X110" s="30"/>
+      <c r="Y110" s="33"/>
+      <c r="Z110" s="45"/>
       <c r="AA110" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="AB110" s="26" t="s">
-        <v>535</v>
-      </c>
-      <c r="AC110" s="34"/>
-      <c r="AD110" s="35"/>
-      <c r="AE110" s="35"/>
-      <c r="AF110" s="35"/>
-      <c r="AG110" s="42"/>
-      <c r="AH110" s="42"/>
-      <c r="AI110" s="48"/>
+      <c r="AB110" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="AC110" s="38"/>
+      <c r="AD110" s="39"/>
+      <c r="AE110" s="39"/>
+      <c r="AF110" s="39"/>
+      <c r="AG110" s="23"/>
+      <c r="AH110" s="23"/>
+      <c r="AI110" s="51"/>
     </row>
     <row r="111" ht="49.5" spans="1:35">
-      <c r="A111" s="56" t="s">
-        <v>536</v>
-      </c>
-      <c r="B111" s="57" t="s">
-        <v>537</v>
-      </c>
-      <c r="C111" s="58" t="s">
-        <v>538</v>
+      <c r="A111" s="59" t="s">
+        <v>565</v>
+      </c>
+      <c r="B111" s="60" t="s">
+        <v>566</v>
+      </c>
+      <c r="C111" s="61" t="s">
+        <v>567</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="E111" s="20">
         <v>2</v>
@@ -13022,7 +13176,7 @@
         <v>204</v>
       </c>
       <c r="N111" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O111" s="19" t="s">
         <v>45</v>
@@ -13035,39 +13189,39 @@
       </c>
       <c r="R111" s="19"/>
       <c r="S111" s="21" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="T111" s="21" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="U111" s="19"/>
       <c r="V111" s="19"/>
       <c r="W111" s="19"/>
-      <c r="X111" s="26"/>
-      <c r="Y111" s="29"/>
-      <c r="Z111" s="41"/>
+      <c r="X111" s="30"/>
+      <c r="Y111" s="33"/>
+      <c r="Z111" s="45"/>
       <c r="AA111" s="15"/>
-      <c r="AB111" s="26"/>
-      <c r="AC111" s="34"/>
-      <c r="AD111" s="35"/>
-      <c r="AE111" s="35"/>
-      <c r="AF111" s="35"/>
-      <c r="AG111" s="42"/>
-      <c r="AH111" s="42"/>
-      <c r="AI111" s="48"/>
+      <c r="AB111" s="30"/>
+      <c r="AC111" s="38"/>
+      <c r="AD111" s="39"/>
+      <c r="AE111" s="39"/>
+      <c r="AF111" s="39"/>
+      <c r="AG111" s="23"/>
+      <c r="AH111" s="23"/>
+      <c r="AI111" s="51"/>
     </row>
     <row r="112" ht="49.5" spans="1:35">
-      <c r="A112" s="53" t="s">
-        <v>542</v>
-      </c>
-      <c r="B112" s="54" t="s">
-        <v>543</v>
-      </c>
-      <c r="C112" s="55" t="s">
-        <v>544</v>
+      <c r="A112" s="56" t="s">
+        <v>571</v>
+      </c>
+      <c r="B112" s="57" t="s">
+        <v>572</v>
+      </c>
+      <c r="C112" s="58" t="s">
+        <v>573</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="E112" s="20">
         <v>2</v>
@@ -13097,7 +13251,7 @@
         <v>204</v>
       </c>
       <c r="N112" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O112" s="19" t="s">
         <v>45</v>
@@ -13111,38 +13265,38 @@
       <c r="R112" s="19"/>
       <c r="S112" s="21"/>
       <c r="T112" s="21" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="U112" s="19"/>
       <c r="V112" s="19"/>
       <c r="W112" s="19"/>
-      <c r="X112" s="26"/>
-      <c r="Y112" s="29"/>
-      <c r="Z112" s="41"/>
+      <c r="X112" s="30"/>
+      <c r="Y112" s="33"/>
+      <c r="Z112" s="45"/>
       <c r="AA112" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="AB112" s="26"/>
-      <c r="AC112" s="34"/>
-      <c r="AD112" s="35"/>
-      <c r="AE112" s="35"/>
-      <c r="AF112" s="35"/>
-      <c r="AG112" s="42"/>
-      <c r="AH112" s="42"/>
-      <c r="AI112" s="48"/>
+        <v>576</v>
+      </c>
+      <c r="AB112" s="30"/>
+      <c r="AC112" s="38"/>
+      <c r="AD112" s="39"/>
+      <c r="AE112" s="39"/>
+      <c r="AF112" s="39"/>
+      <c r="AG112" s="23"/>
+      <c r="AH112" s="23"/>
+      <c r="AI112" s="51"/>
     </row>
     <row r="113" ht="49.5" spans="1:35">
-      <c r="A113" s="53" t="s">
-        <v>548</v>
-      </c>
-      <c r="B113" s="54" t="s">
-        <v>549</v>
-      </c>
-      <c r="C113" s="55" t="s">
-        <v>550</v>
+      <c r="A113" s="56" t="s">
+        <v>577</v>
+      </c>
+      <c r="B113" s="57" t="s">
+        <v>578</v>
+      </c>
+      <c r="C113" s="58" t="s">
+        <v>579</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="E113" s="20">
         <v>2</v>
@@ -13172,7 +13326,7 @@
         <v>204</v>
       </c>
       <c r="N113" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O113" s="19" t="s">
         <v>45</v>
@@ -13185,41 +13339,41 @@
       </c>
       <c r="R113" s="19"/>
       <c r="S113" s="21" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="T113" s="21"/>
       <c r="U113" s="19"/>
       <c r="V113" s="19"/>
       <c r="W113" s="19"/>
-      <c r="X113" s="26"/>
-      <c r="Y113" s="29"/>
-      <c r="Z113" s="41"/>
+      <c r="X113" s="30"/>
+      <c r="Y113" s="33"/>
+      <c r="Z113" s="45"/>
       <c r="AA113" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="AB113" s="26" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC113" s="34"/>
-      <c r="AD113" s="35"/>
-      <c r="AE113" s="35"/>
-      <c r="AF113" s="35"/>
-      <c r="AG113" s="42"/>
-      <c r="AH113" s="42"/>
-      <c r="AI113" s="48"/>
+        <v>582</v>
+      </c>
+      <c r="AB113" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="AC113" s="38"/>
+      <c r="AD113" s="39"/>
+      <c r="AE113" s="39"/>
+      <c r="AF113" s="39"/>
+      <c r="AG113" s="23"/>
+      <c r="AH113" s="23"/>
+      <c r="AI113" s="51"/>
     </row>
     <row r="114" ht="49.5" spans="1:35">
-      <c r="A114" s="50" t="s">
-        <v>555</v>
-      </c>
-      <c r="B114" s="51" t="s">
-        <v>556</v>
-      </c>
-      <c r="C114" s="52" t="s">
+      <c r="A114" s="53" t="s">
+        <v>584</v>
+      </c>
+      <c r="B114" s="54" t="s">
+        <v>585</v>
+      </c>
+      <c r="C114" s="55" t="s">
+        <v>586</v>
+      </c>
+      <c r="D114" s="18" t="s">
         <v>557</v>
-      </c>
-      <c r="D114" s="18" t="s">
-        <v>528</v>
       </c>
       <c r="E114" s="20">
         <v>2</v>
@@ -13249,7 +13403,7 @@
         <v>204</v>
       </c>
       <c r="N114" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O114" s="19" t="s">
         <v>45</v>
@@ -13263,38 +13417,38 @@
       <c r="R114" s="19"/>
       <c r="S114" s="21"/>
       <c r="T114" s="21" t="s">
-        <v>558</v>
+        <v>587</v>
       </c>
       <c r="U114" s="19"/>
       <c r="V114" s="19"/>
       <c r="W114" s="19"/>
-      <c r="X114" s="26"/>
-      <c r="Y114" s="29"/>
-      <c r="Z114" s="41"/>
+      <c r="X114" s="30"/>
+      <c r="Y114" s="33"/>
+      <c r="Z114" s="45"/>
       <c r="AA114" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="AB114" s="26"/>
-      <c r="AC114" s="34"/>
-      <c r="AD114" s="35"/>
-      <c r="AE114" s="35"/>
-      <c r="AF114" s="35"/>
-      <c r="AG114" s="42"/>
-      <c r="AH114" s="42"/>
-      <c r="AI114" s="48"/>
+        <v>588</v>
+      </c>
+      <c r="AB114" s="30"/>
+      <c r="AC114" s="38"/>
+      <c r="AD114" s="39"/>
+      <c r="AE114" s="39"/>
+      <c r="AF114" s="39"/>
+      <c r="AG114" s="23"/>
+      <c r="AH114" s="23"/>
+      <c r="AI114" s="51"/>
     </row>
     <row r="115" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A115" s="50" t="s">
-        <v>560</v>
-      </c>
-      <c r="B115" s="51" t="s">
-        <v>561</v>
-      </c>
-      <c r="C115" s="52" t="s">
-        <v>562</v>
+      <c r="A115" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="B115" s="54" t="s">
+        <v>590</v>
+      </c>
+      <c r="C115" s="55" t="s">
+        <v>591</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="E115" s="20">
         <v>2</v>
@@ -13324,7 +13478,7 @@
         <v>204</v>
       </c>
       <c r="N115" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O115" s="19" t="s">
         <v>45</v>
@@ -13338,38 +13492,38 @@
       <c r="R115" s="19"/>
       <c r="S115" s="21"/>
       <c r="T115" s="21" t="s">
-        <v>563</v>
+        <v>592</v>
       </c>
       <c r="U115" s="19"/>
       <c r="V115" s="19"/>
       <c r="W115" s="19"/>
-      <c r="X115" s="26"/>
-      <c r="Y115" s="29"/>
-      <c r="Z115" s="41"/>
+      <c r="X115" s="30"/>
+      <c r="Y115" s="33"/>
+      <c r="Z115" s="45"/>
       <c r="AA115" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="AB115" s="26"/>
-      <c r="AC115" s="34"/>
-      <c r="AD115" s="35"/>
-      <c r="AE115" s="35"/>
-      <c r="AF115" s="35"/>
-      <c r="AG115" s="42"/>
-      <c r="AH115" s="42"/>
-      <c r="AI115" s="48"/>
+        <v>593</v>
+      </c>
+      <c r="AB115" s="30"/>
+      <c r="AC115" s="38"/>
+      <c r="AD115" s="39"/>
+      <c r="AE115" s="39"/>
+      <c r="AF115" s="39"/>
+      <c r="AG115" s="23"/>
+      <c r="AH115" s="23"/>
+      <c r="AI115" s="51"/>
     </row>
     <row r="116" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A116" s="53" t="s">
-        <v>565</v>
-      </c>
-      <c r="B116" s="54" t="s">
-        <v>566</v>
-      </c>
-      <c r="C116" s="55" t="s">
-        <v>567</v>
+      <c r="A116" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="B116" s="57" t="s">
+        <v>595</v>
+      </c>
+      <c r="C116" s="58" t="s">
+        <v>596</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
       <c r="E116" s="20">
         <v>2</v>
@@ -13399,7 +13553,7 @@
         <v>204</v>
       </c>
       <c r="N116" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O116" s="19" t="s">
         <v>45</v>
@@ -13416,37 +13570,37 @@
       <c r="U116" s="19"/>
       <c r="V116" s="19"/>
       <c r="W116" s="19"/>
-      <c r="X116" s="26"/>
-      <c r="Y116" s="29"/>
-      <c r="Z116" s="41"/>
+      <c r="X116" s="30"/>
+      <c r="Y116" s="33"/>
+      <c r="Z116" s="45"/>
       <c r="AA116" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="AB116" s="26" t="s">
-        <v>570</v>
-      </c>
-      <c r="AC116" s="34" t="s">
-        <v>571</v>
-      </c>
-      <c r="AD116" s="35"/>
-      <c r="AE116" s="35"/>
-      <c r="AF116" s="35"/>
-      <c r="AG116" s="42"/>
-      <c r="AH116" s="42"/>
-      <c r="AI116" s="48"/>
+        <v>598</v>
+      </c>
+      <c r="AB116" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="AC116" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="AD116" s="39"/>
+      <c r="AE116" s="39"/>
+      <c r="AF116" s="39"/>
+      <c r="AG116" s="23"/>
+      <c r="AH116" s="23"/>
+      <c r="AI116" s="51"/>
     </row>
     <row r="117" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A117" s="53" t="s">
-        <v>572</v>
-      </c>
-      <c r="B117" s="54" t="s">
-        <v>573</v>
-      </c>
-      <c r="C117" s="55" t="s">
-        <v>574</v>
+      <c r="A117" s="56" t="s">
+        <v>601</v>
+      </c>
+      <c r="B117" s="57" t="s">
+        <v>602</v>
+      </c>
+      <c r="C117" s="58" t="s">
+        <v>603</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="E117" s="20">
         <v>2</v>
@@ -13476,7 +13630,7 @@
         <v>204</v>
       </c>
       <c r="N117" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O117" s="19" t="s">
         <v>45</v>
@@ -13493,35 +13647,35 @@
       <c r="U117" s="19"/>
       <c r="V117" s="19"/>
       <c r="W117" s="19"/>
-      <c r="X117" s="26"/>
-      <c r="Y117" s="29"/>
-      <c r="Z117" s="41"/>
+      <c r="X117" s="30"/>
+      <c r="Y117" s="33"/>
+      <c r="Z117" s="45"/>
       <c r="AA117" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="AB117" s="26" t="s">
-        <v>577</v>
-      </c>
-      <c r="AC117" s="34"/>
-      <c r="AD117" s="35"/>
-      <c r="AE117" s="35"/>
-      <c r="AF117" s="35"/>
-      <c r="AG117" s="42"/>
-      <c r="AH117" s="42"/>
-      <c r="AI117" s="48"/>
+        <v>605</v>
+      </c>
+      <c r="AB117" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="AC117" s="38"/>
+      <c r="AD117" s="39"/>
+      <c r="AE117" s="39"/>
+      <c r="AF117" s="39"/>
+      <c r="AG117" s="23"/>
+      <c r="AH117" s="23"/>
+      <c r="AI117" s="51"/>
     </row>
     <row r="118" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A118" s="50" t="s">
-        <v>578</v>
-      </c>
-      <c r="B118" s="59" t="s">
-        <v>579</v>
-      </c>
-      <c r="C118" s="60" t="s">
-        <v>580</v>
+      <c r="A118" s="53" t="s">
+        <v>607</v>
+      </c>
+      <c r="B118" s="62" t="s">
+        <v>608</v>
+      </c>
+      <c r="C118" s="63" t="s">
+        <v>609</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>581</v>
+        <v>610</v>
       </c>
       <c r="E118" s="20">
         <v>2</v>
@@ -13551,10 +13705,10 @@
         <v>204</v>
       </c>
       <c r="N118" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O118" s="19" t="s">
-        <v>582</v>
+        <v>611</v>
       </c>
       <c r="P118" s="19">
         <v>0</v>
@@ -13568,35 +13722,35 @@
       <c r="U118" s="19"/>
       <c r="V118" s="19"/>
       <c r="W118" s="19"/>
-      <c r="X118" s="26"/>
-      <c r="Y118" s="29"/>
-      <c r="Z118" s="41"/>
+      <c r="X118" s="30"/>
+      <c r="Y118" s="33"/>
+      <c r="Z118" s="45"/>
       <c r="AA118" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="AB118" s="26" t="s">
-        <v>584</v>
-      </c>
-      <c r="AC118" s="34"/>
-      <c r="AD118" s="35"/>
-      <c r="AE118" s="35"/>
-      <c r="AF118" s="35"/>
-      <c r="AG118" s="42"/>
-      <c r="AH118" s="42"/>
-      <c r="AI118" s="48"/>
+        <v>612</v>
+      </c>
+      <c r="AB118" s="30" t="s">
+        <v>613</v>
+      </c>
+      <c r="AC118" s="38"/>
+      <c r="AD118" s="39"/>
+      <c r="AE118" s="39"/>
+      <c r="AF118" s="39"/>
+      <c r="AG118" s="23"/>
+      <c r="AH118" s="23"/>
+      <c r="AI118" s="51"/>
     </row>
     <row r="119" ht="49.5" spans="1:35">
-      <c r="A119" s="53" t="s">
-        <v>585</v>
-      </c>
-      <c r="B119" s="61" t="s">
-        <v>586</v>
-      </c>
-      <c r="C119" s="62" t="s">
-        <v>587</v>
+      <c r="A119" s="56" t="s">
+        <v>614</v>
+      </c>
+      <c r="B119" s="64" t="s">
+        <v>615</v>
+      </c>
+      <c r="C119" s="65" t="s">
+        <v>616</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
       <c r="E119" s="20">
         <v>2</v>
@@ -13626,7 +13780,7 @@
         <v>204</v>
       </c>
       <c r="N119" s="19" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O119" s="19" t="s">
         <v>45</v>
@@ -13645,93 +13799,93 @@
       <c r="U119" s="19"/>
       <c r="V119" s="19"/>
       <c r="W119" s="19"/>
-      <c r="X119" s="26"/>
-      <c r="Y119" s="29"/>
-      <c r="Z119" s="41"/>
+      <c r="X119" s="30"/>
+      <c r="Y119" s="33"/>
+      <c r="Z119" s="45"/>
       <c r="AA119" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="AB119" s="26" t="s">
-        <v>590</v>
-      </c>
-      <c r="AC119" s="34"/>
-      <c r="AD119" s="35"/>
-      <c r="AE119" s="35"/>
-      <c r="AF119" s="35"/>
-      <c r="AG119" s="42"/>
-      <c r="AH119" s="42"/>
-      <c r="AI119" s="48"/>
+        <v>618</v>
+      </c>
+      <c r="AB119" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="AC119" s="38"/>
+      <c r="AD119" s="39"/>
+      <c r="AE119" s="39"/>
+      <c r="AF119" s="39"/>
+      <c r="AG119" s="23"/>
+      <c r="AH119" s="23"/>
+      <c r="AI119" s="51"/>
     </row>
     <row r="120" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A120" s="63" t="s">
-        <v>591</v>
-      </c>
-      <c r="B120" s="64" t="s">
-        <v>592</v>
-      </c>
-      <c r="C120" s="65" t="s">
-        <v>593</v>
-      </c>
-      <c r="D120" s="66" t="s">
-        <v>594</v>
-      </c>
-      <c r="E120" s="67">
+      <c r="A120" s="66" t="s">
+        <v>620</v>
+      </c>
+      <c r="B120" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="C120" s="68" t="s">
+        <v>622</v>
+      </c>
+      <c r="D120" s="69" t="s">
+        <v>623</v>
+      </c>
+      <c r="E120" s="70">
         <v>2</v>
       </c>
       <c r="F120" s="19">
         <v>0</v>
       </c>
-      <c r="G120" s="68">
-        <v>101</v>
-      </c>
-      <c r="H120" s="68">
+      <c r="G120" s="71">
+        <v>101</v>
+      </c>
+      <c r="H120" s="71">
         <v>60</v>
       </c>
-      <c r="I120" s="68">
-        <v>1</v>
-      </c>
-      <c r="J120" s="68">
-        <v>1</v>
-      </c>
-      <c r="K120" s="68">
-        <v>1</v>
-      </c>
-      <c r="L120" s="68" t="s">
+      <c r="I120" s="71">
+        <v>1</v>
+      </c>
+      <c r="J120" s="71">
+        <v>1</v>
+      </c>
+      <c r="K120" s="71">
+        <v>1</v>
+      </c>
+      <c r="L120" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="M120" s="68" t="s">
+      <c r="M120" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="N120" s="68" t="s">
-        <v>336</v>
+      <c r="N120" s="71" t="s">
+        <v>462</v>
       </c>
       <c r="O120" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="P120" s="68">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="68">
-        <v>0</v>
-      </c>
-      <c r="R120" s="68"/>
-      <c r="S120" s="66"/>
-      <c r="T120" s="66"/>
-      <c r="U120" s="68"/>
-      <c r="V120" s="68"/>
-      <c r="W120" s="68"/>
-      <c r="X120" s="69"/>
-      <c r="Y120" s="29"/>
-      <c r="Z120" s="41"/>
-      <c r="AA120" s="72"/>
-      <c r="AB120" s="69"/>
-      <c r="AC120" s="34"/>
-      <c r="AD120" s="35"/>
-      <c r="AE120" s="35"/>
-      <c r="AF120" s="35"/>
-      <c r="AG120" s="42"/>
-      <c r="AH120" s="42"/>
-      <c r="AI120" s="48"/>
+      <c r="P120" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="71">
+        <v>0</v>
+      </c>
+      <c r="R120" s="71"/>
+      <c r="S120" s="69"/>
+      <c r="T120" s="69"/>
+      <c r="U120" s="71"/>
+      <c r="V120" s="71"/>
+      <c r="W120" s="71"/>
+      <c r="X120" s="72"/>
+      <c r="Y120" s="33"/>
+      <c r="Z120" s="45"/>
+      <c r="AA120" s="75"/>
+      <c r="AB120" s="72"/>
+      <c r="AC120" s="38"/>
+      <c r="AD120" s="39"/>
+      <c r="AE120" s="39"/>
+      <c r="AF120" s="39"/>
+      <c r="AG120" s="23"/>
+      <c r="AH120" s="23"/>
+      <c r="AI120" s="51"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI120" etc:filterBottomFollowUsedRange="0">

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4822,12 +4822,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1D638A9E-4A0A-4A40-B3A9-8AB01CE70F05}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EA426A33-E48D-4F8A-A1B0-ED8989D678B5}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{5D818DA4-83D6-43F8-A6EF-3288751E20E8}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{3828299B-A4CC-4FEA-A2C3-15A2D4FFEBC8}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -4839,7 +4839,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{196F1FDA-55E2-4914-B58D-15757D2F790A}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{B6DEEA1A-BF6A-409D-AD6D-8FF943B00C81}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -5155,10 +5155,10 @@
   <sheetPr/>
   <dimension ref="A1:AI120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A42" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D47" sqref="D47"/>
+      <selection pane="topRight" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="rune_config" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rune_config!$A$1:$AI$120</definedName>
@@ -4822,12 +4823,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EA426A33-E48D-4F8A-A1B0-ED8989D678B5}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9822F41C-2401-45CD-88CA-AB6F932D0776}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{3828299B-A4CC-4FEA-A2C3-15A2D4FFEBC8}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B57C6885-4FB4-47DD-AD88-3DABDFE42CA0}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -4839,7 +4840,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{B6DEEA1A-BF6A-409D-AD6D-8FF943B00C81}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{85763D80-11B9-4E7F-965E-247FF4B76F7F}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -5158,7 +5159,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="R2" sqref="R2"/>
+      <selection pane="topRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14073,4 +14074,20 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -195,6 +195,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每拥有一个未分配的技能点都会提供%value%%%的</t>
     </r>
     <r>
@@ -227,6 +233,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>基础技能获得%BasicAbilityDmg.Base%%%的</t>
     </r>
     <r>
@@ -258,6 +270,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>耗蓝型技能基于消耗的蓝量提升伤害
 每消耗最大蓝量的1%，提高%value%%%的</t>
     </r>
@@ -305,6 +323,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>+%DmgReductionPct.Base%%%的</t>
     </r>
     <r>
@@ -430,6 +454,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>击杀敌人时有%chance%%%概率获得%bp_ingame%%%的</t>
     </r>
     <r>
@@ -475,6 +505,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>+%DamageBonusMul.Base%%%的</t>
     </r>
     <r>
@@ -618,6 +654,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每秒会扣除5点蓝量
 但是蓝量大于%last_mana_pct%%%时，获得%bp_ingame%%%的</t>
     </r>
@@ -668,6 +710,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>+%DamageBonusMul.Base%%%的</t>
     </r>
     <r>
@@ -799,6 +847,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每损失%ever_hp_pct%%%生命值提高%ever_dmg_bonus%%%的</t>
     </r>
     <r>
@@ -860,6 +914,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>爆炸箭对生命值高于%hp_pct%%%的敌人提高%bonus_value%%%的</t>
     </r>
     <r>
@@ -911,6 +971,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">穿透箭
 </t>
     </r>
@@ -976,6 +1042,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>分裂箭
 对减速的敌人提高200%的</t>
     </r>
@@ -1074,6 +1146,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>散射
 【火力覆盖】生效时+50%的</t>
     </r>
@@ -1156,6 +1234,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>风暴环绕
 【退散】生效时+50%的</t>
     </r>
@@ -1306,6 +1390,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>能量回复
 使用后+35%</t>
     </r>
@@ -1340,6 +1430,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>复仇
 持续期间【基础技能】+100%</t>
     </r>
@@ -1534,6 +1630,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>霜降
 对被冻结的单位+200%的</t>
     </r>
@@ -1731,6 +1833,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>极寒领域
 对冻结的单位提升55%的</t>
     </r>
@@ -1809,6 +1917,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>旋风斩</t>
     </r>
     <r>
@@ -2209,6 +2323,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>自身每拥有1%移速加成，获得1%</t>
     </r>
     <r>
@@ -2308,6 +2428,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每存活一波，下一波开局：
 +10技能急速
 +10%</t>
@@ -2356,6 +2482,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>+40%</t>
     </r>
     <r>
@@ -2481,6 +2613,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每过15秒
 获得在-50%~125%波动的</t>
     </r>
@@ -2565,6 +2703,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每秒扣除5点蓝量
 并每秒500码范围内敌人造成扣除蓝量的1000%</t>
     </r>
@@ -4464,12 +4608,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0A4C1C3D-648A-4D1D-AA6E-7DE8FDBAE08B}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8AF9E21C-10EA-4663-9963-3B2EC0B5E9C9}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{3CFD7D26-2DBE-469B-9408-D106433DC3C9}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0CF276D3-CF9B-45A8-8FF0-3082B49EF8AC}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -4481,7 +4625,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{997A9C2E-C612-47A4-B278-26F5B2A7D243}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{74AB9808-4E4E-4A7D-A443-B2B7C4CAA60E}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -4797,10 +4941,10 @@
   <sheetPr/>
   <dimension ref="A1:AJ120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A106" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D119" sqref="D119"/>
+      <selection pane="topRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4808,8 +4952,7 @@
     <col min="1" max="1" width="14.8416666666667" customWidth="1"/>
     <col min="2" max="2" width="20.0083333333333" style="6" customWidth="1"/>
     <col min="3" max="3" width="50.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="50.625" customWidth="1"/>
-    <col min="5" max="5" width="50.625" customWidth="1"/>
+    <col min="4" max="5" width="50.625" customWidth="1"/>
     <col min="6" max="6" width="31.625" style="6" customWidth="1"/>
     <col min="7" max="7" width="16.8416666666667" customWidth="1"/>
     <col min="8" max="11" width="19.0083333333333" customWidth="1"/>
@@ -5039,9 +5182,7 @@
       <c r="H3" s="19">
         <v>101</v>
       </c>
-      <c r="I3" s="19">
-        <v>100</v>
-      </c>
+      <c r="I3" s="19"/>
       <c r="J3" s="19">
         <v>1</v>
       </c>
@@ -5120,7 +5261,7 @@
         <v>101</v>
       </c>
       <c r="I4" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J4" s="19">
         <v>1</v>
@@ -5192,7 +5333,7 @@
         <v>101</v>
       </c>
       <c r="I5" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J5" s="19">
         <v>1</v>
@@ -5268,7 +5409,7 @@
         <v>101</v>
       </c>
       <c r="I6" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J6" s="19">
         <v>1</v>
@@ -5340,7 +5481,7 @@
         <v>101</v>
       </c>
       <c r="I7" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J7" s="19">
         <v>1</v>
@@ -5412,7 +5553,7 @@
         <v>101</v>
       </c>
       <c r="I8" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J8" s="19">
         <v>1</v>
@@ -5484,7 +5625,7 @@
         <v>101</v>
       </c>
       <c r="I9" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J9" s="19">
         <v>1</v>
@@ -5558,7 +5699,7 @@
         <v>101</v>
       </c>
       <c r="I10" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J10" s="19">
         <v>1</v>
@@ -5636,7 +5777,7 @@
         <v>101</v>
       </c>
       <c r="I11" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J11" s="19">
         <v>1</v>
@@ -5714,7 +5855,7 @@
         <v>101</v>
       </c>
       <c r="I12" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J12" s="19">
         <v>1</v>
@@ -5790,7 +5931,7 @@
         <v>101</v>
       </c>
       <c r="I13" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J13" s="19">
         <v>1</v>
@@ -5872,7 +6013,7 @@
         <v>101</v>
       </c>
       <c r="I14" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J14" s="19">
         <v>1</v>
@@ -5948,7 +6089,7 @@
         <v>101</v>
       </c>
       <c r="I15" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J15" s="19">
         <v>1</v>
@@ -6100,7 +6241,7 @@
         <v>101</v>
       </c>
       <c r="I17" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J17" s="19">
         <v>1</v>
@@ -6176,7 +6317,7 @@
         <v>101</v>
       </c>
       <c r="I18" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J18" s="19">
         <v>1</v>
@@ -6254,7 +6395,7 @@
         <v>101</v>
       </c>
       <c r="I19" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J19" s="19">
         <v>1</v>
@@ -6332,7 +6473,7 @@
         <v>101</v>
       </c>
       <c r="I20" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J20" s="19">
         <v>1</v>
@@ -6406,7 +6547,7 @@
         <v>101</v>
       </c>
       <c r="I21" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J21" s="19">
         <v>1</v>
@@ -6482,7 +6623,7 @@
         <v>101</v>
       </c>
       <c r="I22" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J22" s="19">
         <v>1</v>
@@ -6560,7 +6701,7 @@
         <v>101</v>
       </c>
       <c r="I23" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J23" s="19">
         <v>1</v>
@@ -6636,7 +6777,7 @@
         <v>101</v>
       </c>
       <c r="I24" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J24" s="19">
         <v>1</v>
@@ -6714,7 +6855,7 @@
         <v>101</v>
       </c>
       <c r="I25" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J25" s="19">
         <v>1</v>
@@ -6790,7 +6931,7 @@
         <v>101</v>
       </c>
       <c r="I26" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J26" s="19">
         <v>1</v>
@@ -6866,7 +7007,7 @@
         <v>101</v>
       </c>
       <c r="I27" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J27" s="19">
         <v>1</v>
@@ -6938,7 +7079,7 @@
         <v>101</v>
       </c>
       <c r="I28" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J28" s="19">
         <v>1</v>
@@ -7012,7 +7153,7 @@
         <v>101</v>
       </c>
       <c r="I29" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J29" s="19">
         <v>1</v>
@@ -7086,7 +7227,7 @@
         <v>101</v>
       </c>
       <c r="I30" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J30" s="19">
         <v>1</v>
@@ -7158,7 +7299,7 @@
         <v>101</v>
       </c>
       <c r="I31" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J31" s="19">
         <v>1</v>
@@ -7232,7 +7373,7 @@
         <v>101</v>
       </c>
       <c r="I32" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J32" s="19">
         <v>1</v>
@@ -7304,7 +7445,7 @@
         <v>101</v>
       </c>
       <c r="I33" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J33" s="19">
         <v>1</v>
@@ -7376,7 +7517,7 @@
         <v>101</v>
       </c>
       <c r="I34" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J34" s="19">
         <v>1</v>
@@ -7448,7 +7589,7 @@
         <v>101</v>
       </c>
       <c r="I35" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J35" s="19">
         <v>1</v>
@@ -7520,7 +7661,7 @@
         <v>101</v>
       </c>
       <c r="I36" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J36" s="19">
         <v>1</v>
@@ -7592,7 +7733,7 @@
         <v>101</v>
       </c>
       <c r="I37" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J37" s="19">
         <v>1</v>
@@ -7664,7 +7805,7 @@
         <v>101</v>
       </c>
       <c r="I38" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J38" s="19">
         <v>1</v>
@@ -7736,7 +7877,7 @@
         <v>101</v>
       </c>
       <c r="I39" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J39" s="19">
         <v>1</v>
@@ -7810,7 +7951,7 @@
         <v>101</v>
       </c>
       <c r="I40" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J40" s="19">
         <v>1</v>
@@ -7884,7 +8025,7 @@
         <v>101</v>
       </c>
       <c r="I41" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J41" s="19">
         <v>1</v>
@@ -7956,7 +8097,7 @@
         <v>101</v>
       </c>
       <c r="I42" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J42" s="19">
         <v>1</v>
@@ -8028,7 +8169,7 @@
         <v>101</v>
       </c>
       <c r="I43" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J43" s="19">
         <v>1</v>
@@ -8100,7 +8241,7 @@
         <v>101</v>
       </c>
       <c r="I44" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J44" s="19">
         <v>1</v>
@@ -8172,7 +8313,7 @@
         <v>101</v>
       </c>
       <c r="I45" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J45" s="19">
         <v>1</v>
@@ -8244,7 +8385,7 @@
         <v>101</v>
       </c>
       <c r="I46" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J46" s="19">
         <v>1</v>
@@ -8318,7 +8459,7 @@
         <v>101</v>
       </c>
       <c r="I47" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J47" s="19">
         <v>1</v>
@@ -8392,7 +8533,7 @@
         <v>101</v>
       </c>
       <c r="I48" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J48" s="19">
         <v>1</v>
@@ -8464,7 +8605,7 @@
         <v>101</v>
       </c>
       <c r="I49" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J49" s="19">
         <v>1</v>
@@ -8536,7 +8677,7 @@
         <v>101</v>
       </c>
       <c r="I50" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J50" s="19">
         <v>1</v>
@@ -8610,7 +8751,7 @@
         <v>101</v>
       </c>
       <c r="I51" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J51" s="19">
         <v>1</v>
@@ -8684,7 +8825,7 @@
         <v>101</v>
       </c>
       <c r="I52" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J52" s="19">
         <v>1</v>
@@ -8756,7 +8897,7 @@
         <v>101</v>
       </c>
       <c r="I53" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J53" s="19">
         <v>1</v>
@@ -8828,7 +8969,7 @@
         <v>101</v>
       </c>
       <c r="I54" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J54" s="19">
         <v>1</v>
@@ -8900,7 +9041,7 @@
         <v>101</v>
       </c>
       <c r="I55" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J55" s="19">
         <v>1</v>
@@ -8972,7 +9113,7 @@
         <v>101</v>
       </c>
       <c r="I56" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J56" s="19">
         <v>1</v>
@@ -9044,7 +9185,7 @@
         <v>101</v>
       </c>
       <c r="I57" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J57" s="19">
         <v>1</v>
@@ -9116,7 +9257,7 @@
         <v>101</v>
       </c>
       <c r="I58" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J58" s="19">
         <v>1</v>
@@ -9188,7 +9329,7 @@
         <v>101</v>
       </c>
       <c r="I59" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J59" s="19">
         <v>1</v>
@@ -9260,7 +9401,7 @@
         <v>101</v>
       </c>
       <c r="I60" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J60" s="19">
         <v>1</v>
@@ -9332,7 +9473,7 @@
         <v>101</v>
       </c>
       <c r="I61" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J61" s="19">
         <v>1</v>
@@ -9404,7 +9545,7 @@
         <v>101</v>
       </c>
       <c r="I62" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J62" s="19">
         <v>1</v>
@@ -9478,7 +9619,7 @@
         <v>101</v>
       </c>
       <c r="I63" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J63" s="19">
         <v>1</v>
@@ -9550,7 +9691,7 @@
         <v>101</v>
       </c>
       <c r="I64" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J64" s="19">
         <v>1</v>
@@ -9622,7 +9763,7 @@
         <v>101</v>
       </c>
       <c r="I65" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J65" s="19">
         <v>1</v>
@@ -9694,7 +9835,7 @@
         <v>101</v>
       </c>
       <c r="I66" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J66" s="19">
         <v>1</v>
@@ -9766,7 +9907,7 @@
         <v>101</v>
       </c>
       <c r="I67" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J67" s="19">
         <v>1</v>
@@ -9838,7 +9979,7 @@
         <v>101</v>
       </c>
       <c r="I68" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J68" s="19">
         <v>1</v>
@@ -9910,7 +10051,7 @@
         <v>101</v>
       </c>
       <c r="I69" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J69" s="19">
         <v>1</v>
@@ -9982,7 +10123,7 @@
         <v>101</v>
       </c>
       <c r="I70" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J70" s="19">
         <v>1</v>
@@ -10054,7 +10195,7 @@
         <v>101</v>
       </c>
       <c r="I71" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J71" s="19">
         <v>1</v>
@@ -10126,7 +10267,7 @@
         <v>101</v>
       </c>
       <c r="I72" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J72" s="19">
         <v>1</v>
@@ -10200,7 +10341,7 @@
         <v>101</v>
       </c>
       <c r="I73" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J73" s="19">
         <v>1</v>
@@ -10272,7 +10413,7 @@
         <v>101</v>
       </c>
       <c r="I74" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J74" s="19">
         <v>1</v>
@@ -10344,7 +10485,7 @@
         <v>101</v>
       </c>
       <c r="I75" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J75" s="19">
         <v>1</v>
@@ -10416,7 +10557,7 @@
         <v>101</v>
       </c>
       <c r="I76" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J76" s="19">
         <v>1</v>
@@ -10488,7 +10629,7 @@
         <v>101</v>
       </c>
       <c r="I77" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J77" s="19">
         <v>1</v>
@@ -10560,7 +10701,7 @@
         <v>101</v>
       </c>
       <c r="I78" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J78" s="19">
         <v>1</v>
@@ -10632,7 +10773,7 @@
         <v>101</v>
       </c>
       <c r="I79" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J79" s="19">
         <v>1</v>
@@ -10704,7 +10845,7 @@
         <v>101</v>
       </c>
       <c r="I80" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J80" s="19">
         <v>1</v>
@@ -10776,7 +10917,7 @@
         <v>101</v>
       </c>
       <c r="I81" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J81" s="19">
         <v>1</v>
@@ -10848,7 +10989,7 @@
         <v>101</v>
       </c>
       <c r="I82" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J82" s="19">
         <v>1</v>
@@ -10920,7 +11061,7 @@
         <v>101</v>
       </c>
       <c r="I83" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J83" s="19">
         <v>1</v>
@@ -10990,7 +11131,7 @@
         <v>101</v>
       </c>
       <c r="I84" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J84" s="19">
         <v>1</v>
@@ -11060,7 +11201,7 @@
         <v>101</v>
       </c>
       <c r="I85" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J85" s="19">
         <v>1</v>
@@ -11130,7 +11271,7 @@
         <v>101</v>
       </c>
       <c r="I86" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J86" s="19">
         <v>1</v>
@@ -11200,7 +11341,7 @@
         <v>101</v>
       </c>
       <c r="I87" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J87" s="19">
         <v>1</v>
@@ -11270,7 +11411,7 @@
         <v>101</v>
       </c>
       <c r="I88" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J88" s="19">
         <v>1</v>
@@ -11340,7 +11481,7 @@
         <v>101</v>
       </c>
       <c r="I89" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J89" s="19">
         <v>1</v>
@@ -11410,7 +11551,7 @@
         <v>101</v>
       </c>
       <c r="I90" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J90" s="19">
         <v>1</v>
@@ -11480,7 +11621,7 @@
         <v>101</v>
       </c>
       <c r="I91" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J91" s="19">
         <v>1</v>
@@ -11550,7 +11691,7 @@
         <v>101</v>
       </c>
       <c r="I92" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J92" s="19">
         <v>1</v>
@@ -11620,7 +11761,7 @@
         <v>101</v>
       </c>
       <c r="I93" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J93" s="19">
         <v>1</v>
@@ -11690,7 +11831,7 @@
         <v>101</v>
       </c>
       <c r="I94" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J94" s="19">
         <v>1</v>
@@ -11760,7 +11901,7 @@
         <v>101</v>
       </c>
       <c r="I95" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J95" s="19">
         <v>1</v>
@@ -11830,7 +11971,7 @@
         <v>101</v>
       </c>
       <c r="I96" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J96" s="19">
         <v>1</v>
@@ -11900,7 +12041,7 @@
         <v>101</v>
       </c>
       <c r="I97" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J97" s="19">
         <v>1</v>
@@ -11970,7 +12111,7 @@
         <v>101</v>
       </c>
       <c r="I98" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J98" s="19">
         <v>1</v>
@@ -12040,7 +12181,7 @@
         <v>101</v>
       </c>
       <c r="I99" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J99" s="19">
         <v>1</v>
@@ -12110,7 +12251,7 @@
         <v>101</v>
       </c>
       <c r="I100" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J100" s="19">
         <v>1</v>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="rune_config" sheetId="1" r:id="rId1"/>
@@ -4608,12 +4608,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8AF9E21C-10EA-4663-9963-3B2EC0B5E9C9}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4D3B2911-2235-45FE-AEA7-88CAF3CDD4BA}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0CF276D3-CF9B-45A8-8FF0-3082B49EF8AC}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{AC503B88-27A6-4ADF-BEF5-64657EF58DEB}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -4625,7 +4625,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{74AB9808-4E4E-4A7D-A443-B2B7C4CAA60E}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{141C0D65-3EF4-4C1D-BEF8-CF3EB02A31D0}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -4944,7 +4944,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K8" sqref="K8"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5182,7 +5182,9 @@
       <c r="H3" s="19">
         <v>101</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="19">
+        <v>50</v>
+      </c>
       <c r="J3" s="19">
         <v>1</v>
       </c>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="rune_config" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="628">
   <si>
     <t>名字</t>
   </si>
@@ -399,7 +399,7 @@
   </si>
   <si>
     <t>+%movespeed%%%的移动速度
-受到伤害后失去该效果8秒</t>
+受到伤害后失去该效果%loss_time%秒</t>
   </si>
   <si>
     <t>收到伤害</t>
@@ -824,7 +824,7 @@
   </si>
   <si>
     <t>最大蓝量值&gt;100时
-超出部分每1点获得1%伤害减免
+超出部分每1点获得%ever_dmg_reduction%%%伤害减免
 最高可获得%dmg_reduction_limit%%%的伤害减免</t>
   </si>
   <si>
@@ -971,12 +971,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">穿透箭
 </t>
     </r>
@@ -987,7 +981,7 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>+</t>
+      <t>+%base_value%%</t>
     </r>
     <r>
       <rPr>
@@ -996,7 +990,7 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>200%技能基础伤害</t>
+      <t>%技能基础伤害</t>
     </r>
   </si>
   <si>
@@ -1013,7 +1007,7 @@
   </si>
   <si>
     <t>穿透箭
-命中时有40%概率造成5倍伤害</t>
+命中时有%chance%%%概率造成%bonus_mul%倍伤害</t>
   </si>
   <si>
     <t>chance 40</t>
@@ -1029,7 +1023,7 @@
   </si>
   <si>
     <t>分裂箭
-+200%技能基础伤害</t>
++%base_value%%%技能基础伤害</t>
   </si>
   <si>
     <t>hero/drow/分裂箭2</t>
@@ -1042,14 +1036,8 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>分裂箭
-对减速的敌人提高200%的</t>
+对减速的敌人提高%slow_bonus_value%%%的</t>
     </r>
     <r>
       <rPr>
@@ -1075,7 +1063,7 @@
   </si>
   <si>
     <t>连续射击
-+200%技能基础伤害</t>
++%base_value%%%技能基础伤害</t>
   </si>
   <si>
     <t>hero/drow/连续射击</t>
@@ -1088,13 +1076,13 @@
   </si>
   <si>
     <t>连续射击
-【击破】最大层数+20层</t>
+【击破】最大层数+%max_stack%层</t>
   </si>
   <si>
     <t>hero/drow/击破</t>
   </si>
   <si>
-    <t>max_stack 30</t>
+    <t>max_stack 20</t>
   </si>
   <si>
     <t>rune_34</t>
@@ -1104,13 +1092,13 @@
   </si>
   <si>
     <t>连续射击
-【冰爆】触发时+250%技能基础伤害</t>
+【冰爆】触发时+%bb_dmg%%%技能基础伤害</t>
   </si>
   <si>
     <t>hero/drow/冰爆</t>
   </si>
   <si>
-    <t>bb_dmg 500</t>
+    <t>bb_dmg 250</t>
   </si>
   <si>
     <t>rune_35</t>
@@ -1120,7 +1108,7 @@
   </si>
   <si>
     <t>连续射击
-【冰爆】+50%作用范围，且必定触发冰爆</t>
+【冰爆】+%bb_radius_bonus_pct%%%作用范围，且必定触发冰爆</t>
   </si>
   <si>
     <t>bb_radius_bonus_pct 50</t>
@@ -1133,7 +1121,7 @@
   </si>
   <si>
     <t>散射
-+200%技能基础伤害</t>
++%base_value%%%技能基础伤害</t>
   </si>
   <si>
     <t>hero/drow/散射</t>
@@ -1146,14 +1134,8 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>散射
-【火力覆盖】生效时+50%的</t>
+【火力覆盖】生效时+%fire_bonus%%%的</t>
     </r>
     <r>
       <rPr>
@@ -1198,7 +1180,7 @@
   </si>
   <si>
     <t>散射
-【痛击】生效时+400%技能基础伤害
+【痛击】生效时+%tj_dmg%%%技能基础伤害
 但该次伤害不会再暴击</t>
   </si>
   <si>
@@ -1208,7 +1190,7 @@
     <t>hero/drow/痛击</t>
   </si>
   <si>
-    <t>tj_dmg 500</t>
+    <t>tj_dmg 400</t>
   </si>
   <si>
     <t>rune_40</t>
@@ -1218,7 +1200,7 @@
   </si>
   <si>
     <t>风暴环绕
-+100%技能基础伤害</t>
++%base_value%%%技能基础伤害</t>
   </si>
   <si>
     <t>hero/drow/风暴环绕</t>
@@ -1234,14 +1216,8 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>风暴环绕
-【退散】生效时+50%的</t>
+【退散】生效时+%wind_bonus%%%的</t>
     </r>
     <r>
       <rPr>
@@ -1299,7 +1275,7 @@
   </si>
   <si>
     <t>箭雨
-+50%技能基础伤害</t>
++%base_value%%%技能基础伤害</t>
   </si>
   <si>
     <t>hero/drow/箭雨</t>
@@ -1370,8 +1346,8 @@
   </si>
   <si>
     <t>能量回复
-使用后+35%伤害减免
-持续15秒</t>
+使用后+%dmg_reduction%%%伤害减免
+持续%duration%秒</t>
   </si>
   <si>
     <t>hero/drow/能量回复</t>
@@ -1390,14 +1366,8 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>能量回复
-使用后+35%</t>
+使用后+%bonus_ingame%%%</t>
     </r>
     <r>
       <rPr>
@@ -1416,7 +1386,7 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>持续15秒</t>
+      <t>持续%duration%秒</t>
     </r>
   </si>
   <si>
@@ -1430,14 +1400,8 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>复仇
-持续期间【基础技能】+100%</t>
+持续期间【基础技能】+%base_ability_dmg%%%</t>
     </r>
     <r>
       <rPr>
@@ -1463,10 +1427,10 @@
   </si>
   <si>
     <t>复仇
-基础冷却时间-30%</t>
-  </si>
-  <si>
-    <t>fuchou_cd 35</t>
+基础冷却时间-%fuchou_cd%%%</t>
+  </si>
+  <si>
+    <t>fuchou_cd 30</t>
   </si>
   <si>
     <t>rune_52</t>
@@ -1476,7 +1440,7 @@
   </si>
   <si>
     <t>雷鸣
-+100%技能基础伤害</t>
++%value%%%技能基础伤害</t>
   </si>
   <si>
     <t>hero/skywrath/雷鸣</t>
@@ -1508,7 +1472,7 @@
   </si>
   <si>
     <t>雷鸣
-【引雷区域】半径+200码</t>
+【引雷区域】半径+%radius%码</t>
   </si>
   <si>
     <t>hero/skywrath/引雷</t>
@@ -1524,7 +1488,7 @@
   </si>
   <si>
     <t>寒风波
-+100%技能基础伤害</t>
++%value%%%技能基础伤害</t>
   </si>
   <si>
     <t>hero/skywrath/寒风波</t>
@@ -1536,7 +1500,7 @@
     <t>法爷#5</t>
   </si>
   <si>
-    <t>霜冻触发时，伤害提高10倍</t>
+    <t>霜冻触发时，伤害提高%bonus_mul%倍</t>
   </si>
   <si>
     <t>hero/skywrath/霜冻</t>
@@ -1552,7 +1516,7 @@
   </si>
   <si>
     <t>炎龙
-+100%技能基础伤害</t>
++%value%%%技能基础伤害</t>
   </si>
   <si>
     <t>hero/skywrath/炎龙</t>
@@ -1581,7 +1545,7 @@
   </si>
   <si>
     <t>元素缠绕
-+200%技能基础伤害</t>
++%value%%%技能基础伤害</t>
   </si>
   <si>
     <t>hero/skywrath/元素缭绕</t>
@@ -1597,8 +1561,8 @@
   </si>
   <si>
     <t>元素缠绕
-【炎爆】每次生成5个火球
-火球数量上限+3</t>
+【炎爆】每次生成%value%个火球
+火球数量上限+%limit%</t>
   </si>
   <si>
     <t>hero/skywrath/炎爆</t>
@@ -1617,7 +1581,7 @@
   </si>
   <si>
     <t>元素缠绕
--50%基础伤害间隔</t>
+-%interval_increase%%%基础伤害间隔</t>
   </si>
   <si>
     <t>interval_increase 50</t>
@@ -1630,14 +1594,8 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>霜降
-对被冻结的单位+200%的</t>
+对被冻结的单位+%value%%%的</t>
     </r>
     <r>
       <rPr>
@@ -1673,7 +1631,7 @@
   </si>
   <si>
     <t>雷电屏障
-+100%技能基础伤害</t>
++%value%%%技能基础伤害</t>
   </si>
   <si>
     <t>hero/skywrath/雷电屏障</t>
@@ -1686,7 +1644,7 @@
   </si>
   <si>
     <t>感电线圈
--50%基础伤害间隔</t>
+-%value%%%基础伤害间隔</t>
   </si>
   <si>
     <t>hero/skywrath/感电线圈_</t>
@@ -1702,7 +1660,7 @@
   </si>
   <si>
     <t>极寒冰圈
--50%基础伤害间隔</t>
+-%value%%%基础伤害间隔</t>
   </si>
   <si>
     <t>hero/skywrath/极寒冰圈</t>
@@ -1744,7 +1702,7 @@
   </si>
   <si>
     <t>元素轰炸
-+100%技能基础伤害</t>
++%value%%%技能基础伤害</t>
   </si>
   <si>
     <t>hero/skywrath/元素轰炸</t>
@@ -1757,8 +1715,8 @@
   </si>
   <si>
     <t>陨石雨
-+1陨石雨数量
-+100码作用范围</t>
++%value%陨石雨数量
++%radius%码作用范围</t>
   </si>
   <si>
     <t>hero/skywrath/陨石雨</t>
@@ -1795,7 +1753,7 @@
   <si>
     <t>奔雷领域
 【雷云】数量翻倍
-攻击间隔降低至0.75</t>
+攻击间隔降低至%value%</t>
   </si>
   <si>
     <t>hero/skywrath/雷云</t>
@@ -1811,7 +1769,7 @@
   </si>
   <si>
     <t>奔雷领域
-【雷云】+2可攻击目标</t>
+【雷云】+%value%可攻击目标</t>
   </si>
   <si>
     <t>rune_75</t>
@@ -1820,7 +1778,7 @@
     <t>法爷#24</t>
   </si>
   <si>
-    <t>焚天效果变为可叠加，至多叠加5层</t>
+    <t>焚天效果变为可叠加，至多叠加%value%层</t>
   </si>
   <si>
     <t>hero/skywrath/焚天</t>
@@ -1833,14 +1791,8 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>极寒领域
-对冻结的单位提升55%的</t>
+对冻结的单位提升%value%%%的</t>
     </r>
     <r>
       <rPr>
@@ -1866,7 +1818,7 @@
   </si>
   <si>
     <t>死亡空间
-+100%技能基础伤害</t>
++%value%%%技能基础伤害</t>
   </si>
   <si>
     <t>hero/skywrath/死亡空间</t>
@@ -1888,7 +1840,7 @@
   </si>
   <si>
     <t>聪慧
-每消耗1点蓝量该次技能提高2%的伤害加成</t>
+每消耗1点蓝量该次技能提高%value%%%的伤害加成</t>
   </si>
   <si>
     <t>hero/skywrath/聪慧</t>
@@ -1901,7 +1853,7 @@
   </si>
   <si>
     <t>奥术分身
--20秒基础冷却</t>
+-%value%秒基础冷却</t>
   </si>
   <si>
     <t>hero/skywrath/奥术分身</t>
@@ -2289,7 +2241,7 @@
     <t>飞速成长</t>
   </si>
   <si>
-    <t>立刻提升5级</t>
+    <t>立刻提升%level%级</t>
   </si>
   <si>
     <t>等级最高100级，距离100级以内以差多少级升多少级</t>
@@ -2307,7 +2259,7 @@
     <t>大量灵魂</t>
   </si>
   <si>
-    <t>+1000灵魂</t>
+    <t>+%soul%灵魂</t>
   </si>
   <si>
     <t>GetSoul</t>
@@ -2323,13 +2275,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自身每拥有1%移速加成，获得1%</t>
+      <t>自身每拥有1%移速加成，获得%value%%%</t>
     </r>
     <r>
       <rPr>
@@ -2352,7 +2298,7 @@
     <t>聚少成多</t>
   </si>
   <si>
-    <t>每拥有1个符文提升2.5%的攻击力</t>
+    <t>每拥有1个符文提升%value%%%的攻击力</t>
   </si>
   <si>
     <t>任意符文均生效</t>
@@ -2370,7 +2316,7 @@
     <t>疾行如风</t>
   </si>
   <si>
-    <t>每升1级，获得2点技能急速</t>
+    <t>每升1级，获得%value%点技能急速</t>
   </si>
   <si>
     <t>获取符文后开始计算</t>
@@ -2397,7 +2343,7 @@
     <t>灵魂征收</t>
   </si>
   <si>
-    <t>击杀敌人时，会额外获得3点灵魂</t>
+    <t>击杀敌人时，会额外获得%bonus%点灵魂</t>
   </si>
   <si>
     <t>bonus 3</t>
@@ -2409,7 +2355,7 @@
     <t>独乐乐</t>
   </si>
   <si>
-    <t>自身经验值获取率提高25%</t>
+    <t>自身经验值获取率提高%value%</t>
   </si>
   <si>
     <t>经验获取率加算，和其他人区分开</t>
@@ -2428,15 +2374,9 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>每存活一波，下一波开局：
-+10技能急速
-+10%</t>
++%AHB%技能急速
++%AIBP%</t>
     </r>
     <r>
       <rPr>
@@ -2455,7 +2395,7 @@
     <t>AHB 10</t>
   </si>
   <si>
-    <t>AIBP 25</t>
+    <t>AIBP 10</t>
   </si>
   <si>
     <t>rune_108</t>
@@ -2464,7 +2404,7 @@
     <t>储备</t>
   </si>
   <si>
-    <t>每次复活后15秒内：
+    <t>每次复活后%duration%秒内：
 造成的伤害翻倍
 受到的伤害减半</t>
   </si>
@@ -2482,13 +2422,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+40%</t>
+      <t>+%FinalDamageMul.Base%%%</t>
     </r>
     <r>
       <rPr>
@@ -2507,7 +2441,7 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>但是最大生命值降低40%</t>
+      <t>但是最大生命值降低%MaxHealth.MulRegion%%%</t>
     </r>
   </si>
   <si>
@@ -2531,8 +2465,8 @@
     <t>代谢增速</t>
   </si>
   <si>
-    <t>每秒恢复50%最大生命值
-但最大生命值减少60%</t>
+    <t>每秒恢复%heal_pct%%%最大生命值
+但最大生命值减少%MaxHealth.MulRegion%%%</t>
   </si>
   <si>
     <t>先计算减少60%的最大生命值，后根据当前最大生命值计算每秒恢复50%最大生命值</t>
@@ -2552,8 +2486,8 @@
     <t>累积跑动</t>
   </si>
   <si>
-    <t>移动速度降低15%
-每移动3000码+1%移动速度</t>
+    <t>移动速度降低%MoveSpeed.BasePercent%%%
+每移动%ever_distance%码+%ms_pct%%%移动速度</t>
   </si>
   <si>
     <t>基础速度</t>
@@ -2576,8 +2510,8 @@
     <t>累积生存</t>
   </si>
   <si>
-    <t>最大生命值降低20%
-每存活一波，下一波开局提高3%最大生命值</t>
+    <t>最大生命值降低%MaxHealth.MulRegion%%%
+每存活一波，下一波开局提高%hp_pct%%%最大生命值</t>
   </si>
   <si>
     <t>MaxHealth {
@@ -2594,13 +2528,8 @@
     <t>累积速度</t>
   </si>
   <si>
-    <t>移动速度降低15%
-每升一级提高1%移动速度</t>
-  </si>
-  <si>
-    <t>MoveSpeed {
-"MulRegion" "-15"
-}</t>
+    <t>移动速度降低%MoveSpeed.BasePercent%%%
+每升一级提高%move_speed%%%移动速度</t>
   </si>
   <si>
     <t>move_speed 1</t>
@@ -2613,14 +2542,8 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每过15秒
-获得在-50%~125%波动的</t>
+      <t>每过%interval%秒
+获得在%min%%%~%max%%%波动的</t>
     </r>
     <r>
       <rPr>
@@ -2638,7 +2561,7 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>，持续15秒</t>
+      <t>，持续%interval%秒</t>
     </r>
   </si>
   <si>
@@ -2660,7 +2583,7 @@
     <t>累积急速</t>
   </si>
   <si>
-    <t>每击杀50个敌人获得1点技能急速</t>
+    <t>每击杀%ever_kills%个敌人获得%haste%点技能急速</t>
   </si>
   <si>
     <t>精英怪=1，boss=1</t>
@@ -2703,14 +2626,8 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每秒扣除5点蓝量
-并每秒500码范围内敌人造成扣除蓝量的1000%</t>
+      <t>每秒扣除%ManaRegen.Base%点蓝量
+并每秒%radius%码范围内敌人造成扣除蓝量的%ratio%%%</t>
     </r>
     <r>
       <rPr>
@@ -4608,12 +4525,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4D3B2911-2235-45FE-AEA7-88CAF3CDD4BA}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7753F033-C2AD-435E-AEDA-920B0A80EE18}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{AC503B88-27A6-4ADF-BEF5-64657EF58DEB}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{A7F798F5-FBAC-43CF-BABF-B6268B3ECF43}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -4625,7 +4542,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{141C0D65-3EF4-4C1D-BEF8-CF3EB02A31D0}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{299B69A0-F9BC-46F4-9FF3-4C448EEBC31C}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -4941,10 +4858,10 @@
   <sheetPr/>
   <dimension ref="A1:AJ120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+      <selection pane="topRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7133,7 +7050,7 @@
       <c r="AI28" s="43"/>
       <c r="AJ28" s="51"/>
     </row>
-    <row r="29" ht="30.5" customHeight="1" spans="1:36">
+    <row r="29" ht="49.5" spans="1:36">
       <c r="A29" s="15" t="s">
         <v>213</v>
       </c>
@@ -13171,10 +13088,10 @@
         <v>0</v>
       </c>
       <c r="S112" s="19"/>
-      <c r="T112" s="21"/>
-      <c r="U112" s="21" t="s">
+      <c r="T112" s="21" t="s">
         <v>580</v>
       </c>
+      <c r="U112" s="21"/>
       <c r="V112" s="19"/>
       <c r="W112" s="19"/>
       <c r="X112" s="19"/>
@@ -13325,10 +13242,10 @@
         <v>0</v>
       </c>
       <c r="S114" s="19"/>
-      <c r="T114" s="21"/>
-      <c r="U114" s="21" t="s">
+      <c r="T114" s="21" t="s">
         <v>592</v>
       </c>
+      <c r="U114" s="21"/>
       <c r="V114" s="19"/>
       <c r="W114" s="19"/>
       <c r="X114" s="19"/>
@@ -13347,7 +13264,7 @@
       <c r="AI114" s="23"/>
       <c r="AJ114" s="52"/>
     </row>
-    <row r="115" ht="30.5" customHeight="1" spans="1:36">
+    <row r="115" ht="49.5" spans="1:36">
       <c r="A115" s="54" t="s">
         <v>594</v>
       </c>
@@ -13401,10 +13318,10 @@
         <v>0</v>
       </c>
       <c r="S115" s="19"/>
-      <c r="T115" s="21"/>
-      <c r="U115" s="21" t="s">
-        <v>597</v>
-      </c>
+      <c r="T115" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="U115" s="21"/>
       <c r="V115" s="19"/>
       <c r="W115" s="19"/>
       <c r="X115" s="19"/>
@@ -13412,7 +13329,7 @@
       <c r="Z115" s="34"/>
       <c r="AA115" s="46"/>
       <c r="AB115" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AC115" s="33"/>
       <c r="AD115" s="39"/>
@@ -13423,19 +13340,19 @@
       <c r="AI115" s="23"/>
       <c r="AJ115" s="52"/>
     </row>
-    <row r="116" ht="33" spans="1:36">
+    <row r="116" ht="49.5" spans="1:36">
       <c r="A116" s="57" t="s">
+        <v>598</v>
+      </c>
+      <c r="B116" s="58" t="s">
         <v>599</v>
       </c>
-      <c r="B116" s="58" t="s">
+      <c r="C116" s="59" t="s">
         <v>600</v>
-      </c>
-      <c r="C116" s="59" t="s">
-        <v>601</v>
       </c>
       <c r="D116" s="18"/>
       <c r="E116" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F116" s="20">
         <v>2</v>
@@ -13486,13 +13403,13 @@
       <c r="Z116" s="34"/>
       <c r="AA116" s="46"/>
       <c r="AB116" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="AC116" s="33" t="s">
         <v>603</v>
       </c>
-      <c r="AC116" s="33" t="s">
+      <c r="AD116" s="39" t="s">
         <v>604</v>
-      </c>
-      <c r="AD116" s="39" t="s">
-        <v>605</v>
       </c>
       <c r="AE116" s="40"/>
       <c r="AF116" s="40"/>
@@ -13503,17 +13420,17 @@
     </row>
     <row r="117" ht="30.5" customHeight="1" spans="1:36">
       <c r="A117" s="57" t="s">
+        <v>605</v>
+      </c>
+      <c r="B117" s="58" t="s">
         <v>606</v>
       </c>
-      <c r="B117" s="58" t="s">
+      <c r="C117" s="59" t="s">
         <v>607</v>
-      </c>
-      <c r="C117" s="59" t="s">
-        <v>608</v>
       </c>
       <c r="D117" s="18"/>
       <c r="E117" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F117" s="20">
         <v>2</v>
@@ -13564,10 +13481,10 @@
       <c r="Z117" s="34"/>
       <c r="AA117" s="46"/>
       <c r="AB117" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="AC117" s="33" t="s">
         <v>610</v>
-      </c>
-      <c r="AC117" s="33" t="s">
-        <v>611</v>
       </c>
       <c r="AD117" s="39"/>
       <c r="AE117" s="40"/>
@@ -13579,17 +13496,17 @@
     </row>
     <row r="118" ht="49.5" spans="1:36">
       <c r="A118" s="54" t="s">
+        <v>611</v>
+      </c>
+      <c r="B118" s="63" t="s">
         <v>612</v>
       </c>
-      <c r="B118" s="63" t="s">
+      <c r="C118" s="64" t="s">
         <v>613</v>
-      </c>
-      <c r="C118" s="64" t="s">
-        <v>614</v>
       </c>
       <c r="D118" s="21"/>
       <c r="E118" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F118" s="20">
         <v>2</v>
@@ -13622,7 +13539,7 @@
         <v>467</v>
       </c>
       <c r="P118" s="19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="Q118" s="19">
         <v>0</v>
@@ -13640,10 +13557,10 @@
       <c r="Z118" s="34"/>
       <c r="AA118" s="46"/>
       <c r="AB118" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="AC118" s="33" t="s">
         <v>617</v>
-      </c>
-      <c r="AC118" s="33" t="s">
-        <v>618</v>
       </c>
       <c r="AD118" s="39"/>
       <c r="AE118" s="40"/>
@@ -13655,17 +13572,17 @@
     </row>
     <row r="119" ht="49.5" spans="1:36">
       <c r="A119" s="57" t="s">
+        <v>618</v>
+      </c>
+      <c r="B119" s="65" t="s">
         <v>619</v>
       </c>
-      <c r="B119" s="65" t="s">
+      <c r="C119" s="66" t="s">
         <v>620</v>
-      </c>
-      <c r="C119" s="66" t="s">
-        <v>621</v>
       </c>
       <c r="D119" s="21"/>
       <c r="E119" s="21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F119" s="20">
         <v>2</v>
@@ -13718,10 +13635,10 @@
       <c r="Z119" s="34"/>
       <c r="AA119" s="46"/>
       <c r="AB119" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="AC119" s="33" t="s">
         <v>623</v>
-      </c>
-      <c r="AC119" s="33" t="s">
-        <v>624</v>
       </c>
       <c r="AD119" s="39"/>
       <c r="AE119" s="40"/>
@@ -13733,17 +13650,17 @@
     </row>
     <row r="120" ht="30.5" customHeight="1" spans="1:36">
       <c r="A120" s="67" t="s">
+        <v>624</v>
+      </c>
+      <c r="B120" s="68" t="s">
         <v>625</v>
       </c>
-      <c r="B120" s="68" t="s">
+      <c r="C120" s="69" t="s">
         <v>626</v>
-      </c>
-      <c r="C120" s="69" t="s">
-        <v>627</v>
       </c>
       <c r="D120" s="70"/>
       <c r="E120" s="70" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F120" s="71">
         <v>2</v>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -191,7 +191,7 @@
     <t>rune_2</t>
   </si>
   <si>
-    <t>锁技</t>
+    <t>投资收益</t>
   </si>
   <si>
     <r>
@@ -201,7 +201,7 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>每拥有一个未分配的技能点都会提供%value%%%的</t>
+      <t>灵魂投资等级每一提高1级都会提供%value%%%的</t>
     </r>
     <r>
       <rPr>
@@ -214,16 +214,16 @@
     </r>
   </si>
   <si>
-    <t>每拥有一个未分配的技能点都会提供15%的伤害加成</t>
-  </si>
-  <si>
-    <t>技能点变更时</t>
+    <t>灵魂投资等级每一提高1级，都会提供1%/3%5%的伤害加成</t>
+  </si>
+  <si>
+    <t>挂钩 灵魂投资 等级</t>
   </si>
   <si>
     <t>item_rune/锁技I_II_III</t>
   </si>
   <si>
-    <t>value 8 10 15</t>
+    <t>value 1 3 5</t>
   </si>
   <si>
     <t>rune_3</t>
@@ -971,6 +971,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">穿透箭
 </t>
     </r>
@@ -1036,6 +1042,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>分裂箭
 对减速的敌人提高%slow_bonus_value%%%的</t>
     </r>
@@ -1134,6 +1146,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>散射
 【火力覆盖】生效时+%fire_bonus%%%的</t>
     </r>
@@ -1216,6 +1234,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>风暴环绕
 【退散】生效时+%wind_bonus%%%的</t>
     </r>
@@ -1366,6 +1390,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>能量回复
 使用后+%bonus_ingame%%%</t>
     </r>
@@ -1400,6 +1430,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>复仇
 持续期间【基础技能】+%base_ability_dmg%%%</t>
     </r>
@@ -1594,6 +1630,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>霜降
 对被冻结的单位+%value%%%的</t>
     </r>
@@ -1791,6 +1833,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>极寒领域
 对冻结的单位提升%value%%%的</t>
     </r>
@@ -2275,6 +2323,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>自身每拥有1%移速加成，获得%value%%%</t>
     </r>
     <r>
@@ -2374,6 +2428,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每存活一波，下一波开局：
 +%AHB%技能急速
 +%AIBP%</t>
@@ -2422,6 +2482,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>+%FinalDamageMul.Base%%%</t>
     </r>
     <r>
@@ -2542,6 +2608,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每过%interval%秒
 获得在%min%%%~%max%%%波动的</t>
     </r>
@@ -2626,6 +2698,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每秒扣除%ManaRegen.Base%点蓝量
 并每秒%radius%码范围内敌人造成扣除蓝量的%ratio%%%</t>
     </r>
@@ -4525,12 +4603,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7753F033-C2AD-435E-AEDA-920B0A80EE18}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{87503852-6E74-4524-81C9-E533589D7DE9}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{A7F798F5-FBAC-43CF-BABF-B6268B3ECF43}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{26099C1E-ECF7-44B0-8EDA-CD216E224ABD}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -4542,7 +4620,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{299B69A0-F9BC-46F4-9FF3-4C448EEBC31C}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{0D0779FE-64EC-4567-A377-E6FFC61C08AB}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -4858,10 +4936,10 @@
   <sheetPr/>
   <dimension ref="A1:AJ120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="R1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C24" sqref="C24"/>
+      <selection pane="topRight" activeCell="B120" sqref="B3:B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="rune_config" sheetId="1" r:id="rId1"/>
@@ -195,12 +195,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>灵魂投资等级每一提高1级都会提供%value%%%的</t>
     </r>
     <r>
@@ -4603,12 +4597,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{87503852-6E74-4524-81C9-E533589D7DE9}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{585691A8-052E-404C-835F-9729FAA68DEB}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{26099C1E-ECF7-44B0-8EDA-CD216E224ABD}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{861C61A3-DA11-423E-BE3A-8927194D99BE}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -4620,7 +4614,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{0D0779FE-64EC-4567-A377-E6FFC61C08AB}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{2DE3CF7A-A4CC-4C04-BE8F-F81A477BDD26}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -4939,7 +4933,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B120" sqref="B3:B120"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="629">
   <si>
     <t>名字</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>灵魂投资等级每一提高1级都会提供%value%%%的</t>
     </r>
     <r>
@@ -2732,6 +2738,9 @@
   <si>
     <t>累积的效果包括：
 【累积跑动】【累积生存】【累积速度】【累积急速】 符文中的移速、最大生命值、技能急速这3个增益效果</t>
+  </si>
+  <si>
+    <t>Rune118</t>
   </si>
 </sst>
 </file>
@@ -4597,12 +4606,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{585691A8-052E-404C-835F-9729FAA68DEB}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{076B2CA6-873E-4B03-9733-08602B906562}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{861C61A3-DA11-423E-BE3A-8927194D99BE}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{CA8399E1-28F4-4CBA-8A43-CA5AB4650CE1}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -4614,7 +4623,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{2DE3CF7A-A4CC-4C04-BE8F-F81A477BDD26}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{794D9C9F-E3BF-43D2-94C2-560560618FF5}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -4930,10 +4939,10 @@
   <sheetPr/>
   <dimension ref="A1:AJ120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A110" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13765,7 +13774,7 @@
         <v>467</v>
       </c>
       <c r="P120" s="19" t="s">
-        <v>46</v>
+        <v>628</v>
       </c>
       <c r="Q120" s="72">
         <v>0</v>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="rune_config" sheetId="1" r:id="rId1"/>
@@ -194,30 +194,13 @@
     <t>投资收益</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灵魂投资等级每一提高1级都会提供%value%%%的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伤害加成</t>
-    </r>
-  </si>
-  <si>
-    <t>灵魂投资等级每一提高1级，都会提供1%/3%5%的伤害加成</t>
-  </si>
-  <si>
-    <t>挂钩 灵魂投资 等级</t>
+    <t>金币投资等级每一提高1级都会提供%value%%%的伤害加成</t>
+  </si>
+  <si>
+    <t>金币投资等级每一提高1级，都会提供1%/3%5%的伤害加成</t>
+  </si>
+  <si>
+    <t>挂钩 金币投资 等级</t>
   </si>
   <si>
     <t>item_rune/锁技I_II_III</t>
@@ -1369,12 +1352,12 @@
     <t>游侠#23</t>
   </si>
   <si>
-    <t>能量回复
+    <t>蓝量回复
 使用后+%dmg_reduction%%%伤害减免
 持续%duration%秒</t>
   </si>
   <si>
-    <t>hero/drow/能量回复</t>
+    <t>hero/drow/蓝量回复</t>
   </si>
   <si>
     <t>dmg_reduction 35</t>
@@ -1389,35 +1372,9 @@
     <t>游侠#24</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能量回复
-使用后+%bonus_ingame%%%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">伤害加成
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>持续%duration%秒</t>
-    </r>
+    <t>蓝量回复
+使用后+%bonus_ingame%%%伤害加成
+持续%duration%秒</t>
   </si>
   <si>
     <t>bonus_ingame 35</t>
@@ -2304,10 +2261,10 @@
     <t>rune_100</t>
   </si>
   <si>
-    <t>大量灵魂</t>
-  </si>
-  <si>
-    <t>+%soul%灵魂</t>
+    <t>大量金币</t>
+  </si>
+  <si>
+    <t>+%soul%金币</t>
   </si>
   <si>
     <t>GetSoul</t>
@@ -2379,10 +2336,10 @@
     <t>rune_104</t>
   </si>
   <si>
-    <t>灵魂补充</t>
-  </si>
-  <si>
-    <t>每获得1点灵魂，恢复同等的生命值</t>
+    <t>金币补充</t>
+  </si>
+  <si>
+    <t>每获得1点金币，恢复同等的生命值</t>
   </si>
   <si>
     <t>恢复生命</t>
@@ -2394,10 +2351,10 @@
     <t>rune_105</t>
   </si>
   <si>
-    <t>灵魂征收</t>
-  </si>
-  <si>
-    <t>击杀敌人时，会额外获得%bonus%点灵魂</t>
+    <t>金币征收</t>
+  </si>
+  <si>
+    <t>击杀敌人时，会额外获得%bonus%点金币</t>
   </si>
   <si>
     <t>bonus 3</t>
@@ -4606,12 +4563,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{076B2CA6-873E-4B03-9733-08602B906562}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F0B1EE4E-E564-490A-B1A1-D16417AF77CA}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{CA8399E1-28F4-4CBA-8A43-CA5AB4650CE1}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{8D8D4CB3-E876-4B87-BDC2-F0FECCF69EB8}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -4623,7 +4580,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{794D9C9F-E3BF-43D2-94C2-560560618FF5}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{A845C296-94C1-4E9E-A018-134B341B46B4}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -4939,7 +4896,7 @@
   <sheetPr/>
   <dimension ref="A1:AJ120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A105" workbookViewId="0">
       <pane xSplit="5" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="E117" sqref="E117"/>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4563,12 +4563,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F0B1EE4E-E564-490A-B1A1-D16417AF77CA}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0DE7C4F1-EF16-4C9C-9C3B-2A82044F2E7A}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{8D8D4CB3-E876-4B87-BDC2-F0FECCF69EB8}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{FC119F86-3169-4B5E-9A03-CC8F3FBF190A}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -4580,7 +4580,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{A845C296-94C1-4E9E-A018-134B341B46B4}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{852CFA76-BC69-41EA-9290-1F30F355789B}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -4896,10 +4896,10 @@
   <sheetPr/>
   <dimension ref="A1:AJ120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A105" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A15" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E117" sqref="E117"/>
+      <selection pane="topRight" activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6658,7 +6658,7 @@
         <v>101</v>
       </c>
       <c r="I23" s="19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J23" s="19">
         <v>1</v>

--- a/excels/config/game/rune/rune_config.xlsx
+++ b/excels/config/game/rune/rune_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="rune_config" sheetId="1" r:id="rId1"/>
@@ -1357,7 +1357,7 @@
 持续%duration%秒</t>
   </si>
   <si>
-    <t>hero/drow/蓝量回复</t>
+    <t>hero/drow/能量回复</t>
   </si>
   <si>
     <t>dmg_reduction 35</t>
@@ -4563,12 +4563,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0DE7C4F1-EF16-4C9C-9C3B-2A82044F2E7A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6652BF51-2407-43AB-B500-D4C7381267A4}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{FC119F86-3169-4B5E-9A03-CC8F3FBF190A}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{C91A4166-5913-4ED2-81E6-B52E10B52425}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -4580,7 +4580,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="4"/>
       <tableStyleElement type="lastTotalCell" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{852CFA76-BC69-41EA-9290-1F30F355789B}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{8465D612-0087-4869-B5C3-1A00E17EA828}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -4896,10 +4896,10 @@
   <sheetPr/>
   <dimension ref="A1:AJ120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A15" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="T1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A33" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="W22" sqref="W22"/>
+      <selection pane="topRight" activeCell="O50" sqref="O50:O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
